--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0199746</v>
+                  <v>0.020381</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0223711</v>
+                  <v>0.0231567</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0279843</v>
+                  <v>0.0281757</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0374557</v>
+                  <v>0.0352799</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0541003</v>
+                  <v>0.04539</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0739308</v>
+                  <v>0.06491429999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0908332</v>
+                  <v>0.0891632</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119418</v>
+                  <v>0.112722</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0160955</v>
+                  <v>0.017053</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0165233</v>
+                  <v>0.0176131</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0170052</v>
+                  <v>0.018294</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0176545</v>
+                  <v>0.019009</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.018734</v>
+                  <v>0.0202027</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020118</v>
+                  <v>0.0216873</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0231423</v>
+                  <v>0.0238871</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0275752</v>
+                  <v>0.0283309</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0337269</v>
+                  <v>0.0347629</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0441174</v>
+                  <v>0.0427405</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0560327</v>
+                  <v>0.0557526</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0735251</v>
+                  <v>0.0731723</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.09810720000000001</v>
+                  <v>0.0958377</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.118682</v>
+                  <v>0.12115</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0168617</v>
+                  <v>0.0167999</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.017117</v>
+                  <v>0.017383</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0179684</v>
+                  <v>0.0183382</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.018842</v>
+                  <v>0.0193988</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.020762</v>
+                  <v>0.0205537</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0229493</v>
+                  <v>0.0226966</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0261253</v>
+                  <v>0.0250047</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0299548</v>
+                  <v>0.0309238</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351932</v>
+                  <v>0.0361738</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0437828</v>
+                  <v>0.0455675</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0554948</v>
+                  <v>0.0564017</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.07231650000000001</v>
+                  <v>0.0722527</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.09074749999999999</v>
+                  <v>0.09413820000000001</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.117374</v>
+                  <v>0.118638</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0170956</v>
+                  <v>0.0174142</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0178543</v>
+                  <v>0.0181997</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0189841</v>
+                  <v>0.0191908</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0200948</v>
+                  <v>0.0204403</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0217684</v>
+                  <v>0.021836</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0244338</v>
+                  <v>0.0239224</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0277674</v>
+                  <v>0.0276839</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0324631</v>
+                  <v>0.0315092</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0387566</v>
+                  <v>0.0372217</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.044976</v>
+                  <v>0.0454352</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0559175</v>
+                  <v>0.0550601</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0710027</v>
+                  <v>0.0703042</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0908212</v>
+                  <v>0.0905224</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117424</v>
+                  <v>0.115437</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.140864</v>
+                  <v>0.1408</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0189027</v>
+                  <v>0.0192387</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0201008</v>
+                  <v>0.0204627</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.021583</v>
+                  <v>0.0220737</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0235148</v>
+                  <v>0.0239349</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0261005</v>
+                  <v>0.0262923</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0293833</v>
+                  <v>0.0297657</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0337692</v>
+                  <v>0.0341001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0392899</v>
+                  <v>0.0395028</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.046662</v>
+                  <v>0.0465838</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0562823</v>
+                  <v>0.0559668</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0701638</v>
+                  <v>0.0699388</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0890341</v>
+                  <v>0.0889996</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.114833</v>
+                  <v>0.114856</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.144939</v>
+                  <v>0.145398</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0197502</v>
+                  <v>0.0196969</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0210028</v>
+                  <v>0.02093</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0227789</v>
+                  <v>0.0224969</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246593</v>
+                  <v>0.0245783</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0270269</v>
+                  <v>0.027095</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302493</v>
+                  <v>0.0303959</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0342455</v>
+                  <v>0.0348732</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0395435</v>
+                  <v>0.0401107</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0466214</v>
+                  <v>0.0469689</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0559597</v>
+                  <v>0.056182</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0685593</v>
+                  <v>0.0692083</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0867699</v>
+                  <v>0.0876976</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.111201</v>
+                  <v>0.112624</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.141494</v>
+                  <v>0.143056</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0200207</v>
+                  <v>0.0203051</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0212269</v>
+                  <v>0.0214311</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0226945</v>
+                  <v>0.0227951</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0246895</v>
+                  <v>0.0248606</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274303</v>
+                  <v>0.0274961</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0301632</v>
+                  <v>0.0304265</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0343383</v>
+                  <v>0.034491</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0393209</v>
+                  <v>0.0392189</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0454285</v>
+                  <v>0.0454425</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0543419</v>
+                  <v>0.054124</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.06590409999999999</v>
+                  <v>0.0660497</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.08316999999999999</v>
+                  <v>0.0833161</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.106615</v>
+                  <v>0.107117</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.136838</v>
+                  <v>0.137068</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0207148</v>
+                  <v>0.0205917</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0218231</v>
+                  <v>0.0217319</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0235618</v>
+                  <v>0.0234086</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0254205</v>
+                  <v>0.0249196</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0277238</v>
+                  <v>0.0271441</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0309717</v>
+                  <v>0.0301186</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.034493</v>
+                  <v>0.034225</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0401348</v>
+                  <v>0.0395874</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0464552</v>
+                  <v>0.046425</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0546064</v>
+                  <v>0.0547381</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.065411</v>
+                  <v>0.0655719</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08111790000000001</v>
+                  <v>0.0810201</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.10261</v>
+                  <v>0.103131</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131855</v>
+                  <v>0.132455</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167859</v>
+                  <v>0.167936</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0308739</v>
+                  <v>0.0314641</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.032613</v>
+                  <v>0.0327748</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.034221</v>
+                  <v>0.0344387</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0360225</v>
+                  <v>0.0359115</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383657</v>
+                  <v>0.0384212</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0408546</v>
+                  <v>0.0411013</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0441552</v>
+                  <v>0.0443196</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0485179</v>
+                  <v>0.0490798</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0552273</v>
+                  <v>0.0556472</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.06492580000000001</v>
+                  <v>0.0652692</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0791367</v>
+                  <v>0.080124</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0999347</v>
+                  <v>0.100594</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128094</v>
+                  <v>0.128412</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163548</v>
+                  <v>0.163387</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0346339</v>
+                  <v>0.0342733</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0355354</v>
+                  <v>0.0354023</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0372352</v>
+                  <v>0.0369613</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0385047</v>
+                  <v>0.0386997</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0411049</v>
+                  <v>0.0406429</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0439798</v>
+                  <v>0.0434292</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.04739</v>
+                  <v>0.0467513</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0521658</v>
+                  <v>0.0511822</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0586895</v>
+                  <v>0.0585649</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0680711</v>
+                  <v>0.0673728</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0820838</v>
+                  <v>0.08104450000000001</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101855</v>
+                  <v>0.101034</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12951</v>
+                  <v>0.128826</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.163867</v>
+                  <v>0.16274</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0468922</v>
+                  <v>0.0471946</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0482012</v>
+                  <v>0.0480173</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0491648</v>
+                  <v>0.0491618</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0527207</v>
+                  <v>0.0504992</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0528154</v>
+                  <v>0.0529453</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.055782</v>
+                  <v>0.0554429</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0185839</v>
+                  <v>0.0243821</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0180835</v>
+                  <v>0.0263419</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0186575</v>
+                  <v>0.03189</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0219409</v>
+                  <v>0.0372784</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0348619</v>
+                  <v>0.0515556</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.046746</v>
+                  <v>0.06764829999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0887013</v>
+                  <v>0.08149480000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119804</v>
+                  <v>0.129222</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0180709</v>
+                  <v>0.0208127</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0184204</v>
+                  <v>0.0213278</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0189457</v>
+                  <v>0.0218828</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0193755</v>
+                  <v>0.02263</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0198448</v>
+                  <v>0.0232512</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020306</v>
+                  <v>0.0241428</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0209034</v>
+                  <v>0.0268695</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0227075</v>
+                  <v>0.0288871</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0253999</v>
+                  <v>0.0328262</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0319034</v>
+                  <v>0.0390993</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0383341</v>
+                  <v>0.0470423</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0568493</v>
+                  <v>0.0633778</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0838647</v>
+                  <v>0.088602</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.131653</v>
+                  <v>0.13405</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0187591</v>
+                  <v>0.0214978</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0191409</v>
+                  <v>0.0219645</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0197405</v>
+                  <v>0.0227306</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.020439</v>
+                  <v>0.0236983</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0212415</v>
+                  <v>0.0246423</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0219892</v>
+                  <v>0.025917</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0234121</v>
+                  <v>0.0281203</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0264304</v>
+                  <v>0.0305191</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0302305</v>
+                  <v>0.0351044</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0366198</v>
+                  <v>0.0407874</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0459437</v>
+                  <v>0.0501899</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0594599</v>
+                  <v>0.06329070000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0878531</v>
+                  <v>0.0883089</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.129282</v>
+                  <v>0.125523</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0198852</v>
+                  <v>0.0226441</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0203496</v>
+                  <v>0.0231278</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0210131</v>
+                  <v>0.0239266</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0216736</v>
+                  <v>0.024755</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0228112</v>
+                  <v>0.0260181</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0240973</v>
+                  <v>0.0274856</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0257658</v>
+                  <v>0.0292543</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0290975</v>
+                  <v>0.0326774</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0349767</v>
+                  <v>0.0370439</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0398391</v>
+                  <v>0.0430271</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0491529</v>
+                  <v>0.0514098</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.06340750000000001</v>
+                  <v>0.0649906</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0843724</v>
+                  <v>0.0841389</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.121267</v>
+                  <v>0.117343</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.167097</v>
+                  <v>0.163332</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0213247</v>
+                  <v>0.0241041</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0219345</v>
+                  <v>0.0248142</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.022889</v>
+                  <v>0.0258859</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0238477</v>
+                  <v>0.0269065</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0253224</v>
+                  <v>0.0285555</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0275992</v>
+                  <v>0.0308138</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0302451</v>
+                  <v>0.0334128</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0345438</v>
+                  <v>0.0373409</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0408319</v>
+                  <v>0.043244</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0492235</v>
+                  <v>0.0514921</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.061553</v>
+                  <v>0.0631197</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0805206</v>
+                  <v>0.08064549999999999</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.113447</v>
+                  <v>0.111224</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.161291</v>
+                  <v>0.156782</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0217627</v>
+                  <v>0.0246273</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.022553</v>
+                  <v>0.0254874</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0235574</v>
+                  <v>0.026515</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246975</v>
+                  <v>0.0276786</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0260874</v>
+                  <v>0.0291119</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0279758</v>
+                  <v>0.0311576</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030811</v>
+                  <v>0.0339469</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.034622</v>
+                  <v>0.0377205</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0402214</v>
+                  <v>0.0430427</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.047952</v>
+                  <v>0.0505867</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0592906</v>
+                  <v>0.0612508</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.07559440000000001</v>
+                  <v>0.0763192</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.103124</v>
+                  <v>0.101765</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.148399</v>
+                  <v>0.144347</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0223391</v>
+                  <v>0.0253488</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0231769</v>
+                  <v>0.026265</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0241129</v>
+                  <v>0.0271908</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0252673</v>
+                  <v>0.0284288</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0268372</v>
+                  <v>0.03001</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0286828</v>
+                  <v>0.0319039</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0310672</v>
+                  <v>0.0343672</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0345672</v>
+                  <v>0.0378547</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0394295</v>
+                  <v>0.0426376</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0468561</v>
+                  <v>0.0498571</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0569589</v>
+                  <v>0.059631</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.07245</v>
+                  <v>0.0742997</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.09784569999999999</v>
+                  <v>0.0979019</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.139669</v>
+                  <v>0.137136</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0237499</v>
+                  <v>0.0270102</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0249294</v>
+                  <v>0.0282021</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0266465</v>
+                  <v>0.0301873</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0293475</v>
+                  <v>0.0330636</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0325618</v>
+                  <v>0.0367725</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0359918</v>
+                  <v>0.0404956</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0391962</v>
+                  <v>0.0438179</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0423199</v>
+                  <v>0.0472354</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0459227</v>
+                  <v>0.0509235</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0516739</v>
+                  <v>0.0560138</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0586182</v>
+                  <v>0.06314790000000001</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.07141210000000001</v>
+                  <v>0.07436619999999999</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.09303640000000001</v>
+                  <v>0.0937021</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131746</v>
+                  <v>0.129268</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.183631</v>
+                  <v>0.180556</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0382801</v>
+                  <v>0.0432623</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0392846</v>
+                  <v>0.0443061</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.040221</v>
+                  <v>0.0453678</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0413197</v>
+                  <v>0.0466564</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0426685</v>
+                  <v>0.0481</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0443478</v>
+                  <v>0.0498885</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0465075</v>
+                  <v>0.0522653</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0495102</v>
+                  <v>0.0552329</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0538235</v>
+                  <v>0.0592122</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0601526</v>
+                  <v>0.0652914</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0710412</v>
+                  <v>0.0749547</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0895113</v>
+                  <v>0.09116730000000001</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122948</v>
+                  <v>0.12157</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.172866</v>
+                  <v>0.169666</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0424721</v>
+                  <v>0.0485409</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0434258</v>
+                  <v>0.0498932</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.044818</v>
+                  <v>0.0510164</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0458006</v>
+                  <v>0.0521044</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0473031</v>
+                  <v>0.0539084</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0493497</v>
+                  <v>0.0557247</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0516778</v>
+                  <v>0.0579581</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0546998</v>
+                  <v>0.0612119</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0591634</v>
+                  <v>0.0655746</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0653265</v>
+                  <v>0.07118579999999999</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0752591</v>
+                  <v>0.0805454</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0919177</v>
+                  <v>0.0955641</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.121142</v>
+                  <v>0.122167</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.1684</v>
+                  <v>0.166136</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0552701</v>
+                  <v>0.0632577</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0564094</v>
+                  <v>0.0643639</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0574369</v>
+                  <v>0.0654462</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0586381</v>
+                  <v>0.0668815</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0601686</v>
+                  <v>0.0683774</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0620335</v>
+                  <v>0.07045510000000001</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0201621</v>
+                  <v>0.0213141</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0205927</v>
+                  <v>0.0220012</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0213328</v>
+                  <v>0.0228637</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0224255</v>
+                  <v>0.0244676</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0228236</v>
+                  <v>0.0259604</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0246502</v>
+                  <v>0.028658</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0289321</v>
+                  <v>0.0371282</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0176491</v>
+                  <v>0.0186849</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0179043</v>
+                  <v>0.0189948</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0181965</v>
+                  <v>0.0192948</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0185586</v>
+                  <v>0.0198101</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0189253</v>
+                  <v>0.0200323</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0192987</v>
+                  <v>0.0205084</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0198485</v>
+                  <v>0.0207002</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0203825</v>
+                  <v>0.0214276</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0208815</v>
+                  <v>0.022011</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0220019</v>
+                  <v>0.0230028</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.022769</v>
+                  <v>0.0242253</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0243123</v>
+                  <v>0.0262024</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0273683</v>
+                  <v>0.030044</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0323586</v>
+                  <v>0.0370516</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.017563</v>
+                  <v>0.0188867</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0179077</v>
+                  <v>0.0192237</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0181191</v>
+                  <v>0.0194425</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0185128</v>
+                  <v>0.0197946</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0188997</v>
+                  <v>0.0201342</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0193475</v>
+                  <v>0.0205266</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0197701</v>
+                  <v>0.020959</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0202878</v>
+                  <v>0.0214844</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0211156</v>
+                  <v>0.0223231</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0221556</v>
+                  <v>0.0233566</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0232419</v>
+                  <v>0.0248748</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249746</v>
+                  <v>0.0269432</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0282488</v>
+                  <v>0.0307678</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0352729</v>
+                  <v>0.0381048</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.017949</v>
+                  <v>0.019505</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0182123</v>
+                  <v>0.0197378</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0184241</v>
+                  <v>0.0199753</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187582</v>
+                  <v>0.0202695</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0191191</v>
+                  <v>0.0205809</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0195615</v>
+                  <v>0.0210132</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0201191</v>
+                  <v>0.0215764</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0206961</v>
+                  <v>0.0222081</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0215587</v>
+                  <v>0.0231524</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0226734</v>
+                  <v>0.0243994</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0242101</v>
+                  <v>0.0261699</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0265092</v>
+                  <v>0.0288567</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0299203</v>
+                  <v>0.0324993</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0362318</v>
+                  <v>0.0388699</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.018616</v>
+                  <v>0.0203994</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0188728</v>
+                  <v>0.0206304</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0191354</v>
+                  <v>0.020899</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0194676</v>
+                  <v>0.0212713</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0198285</v>
+                  <v>0.0215734</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0202084</v>
+                  <v>0.0220027</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0207233</v>
+                  <v>0.0224713</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0213995</v>
+                  <v>0.0232356</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0222513</v>
+                  <v>0.0241598</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.023328</v>
+                  <v>0.0252935</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0249404</v>
+                  <v>0.0270674</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.027529</v>
+                  <v>0.0297328</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0313116</v>
+                  <v>0.0338401</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0376983</v>
+                  <v>0.0404851</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0489477</v>
+                  <v>0.0515575</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.019011</v>
+                  <v>0.020937</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0193203</v>
+                  <v>0.0212617</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0197232</v>
+                  <v>0.0215815</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0201442</v>
+                  <v>0.0219942</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0205764</v>
+                  <v>0.0224339</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0210852</v>
+                  <v>0.0229822</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0217122</v>
+                  <v>0.0236686</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.022629</v>
+                  <v>0.0245813</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0237333</v>
+                  <v>0.0258009</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0254197</v>
+                  <v>0.0276711</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0277608</v>
+                  <v>0.0301418</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0313383</v>
+                  <v>0.0339599</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.037026</v>
+                  <v>0.039757</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0465119</v>
+                  <v>0.0495474</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0192382</v>
+                  <v>0.021192</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0195643</v>
+                  <v>0.0215353</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0199296</v>
+                  <v>0.0219745</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0204282</v>
+                  <v>0.0224512</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0208927</v>
+                  <v>0.0229726</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.021538</v>
+                  <v>0.0236312</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0222851</v>
+                  <v>0.0244723</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0232149</v>
+                  <v>0.0253764</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0244507</v>
+                  <v>0.0267266</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0259784</v>
+                  <v>0.02845</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0282943</v>
+                  <v>0.0307713</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0314579</v>
+                  <v>0.0342051</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0365879</v>
+                  <v>0.039387</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0450952</v>
+                  <v>0.0481448</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0208871</v>
+                  <v>0.0230461</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0214555</v>
+                  <v>0.0235885</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0220137</v>
+                  <v>0.0240683</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0225922</v>
+                  <v>0.0245612</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0232915</v>
+                  <v>0.0254625</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0246113</v>
+                  <v>0.0269155</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0266287</v>
+                  <v>0.0289929</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0293725</v>
+                  <v>0.0319022</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0323838</v>
+                  <v>0.0353162</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0353862</v>
+                  <v>0.0382454</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0384466</v>
+                  <v>0.0414212</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0416202</v>
+                  <v>0.0448928</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0456443</v>
+                  <v>0.0491213</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0519131</v>
+                  <v>0.0556722</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0324166</v>
+                  <v>0.0349946</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0334394</v>
+                  <v>0.036062</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0342435</v>
+                  <v>0.0370126</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0350556</v>
+                  <v>0.0378882</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0358717</v>
+                  <v>0.0386232</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0366873</v>
+                  <v>0.039608</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0376708</v>
+                  <v>0.0405332</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0386302</v>
+                  <v>0.0416032</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0398146</v>
+                  <v>0.0429799</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0412212</v>
+                  <v>0.044442</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0429427</v>
+                  <v>0.0464735</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0455556</v>
+                  <v>0.0490779</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0491536</v>
+                  <v>0.0526027</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.054736</v>
+                  <v>0.0585157</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0644487</v>
+                  <v>0.0682112</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0379716</v>
+                  <v>0.0416503</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0387374</v>
+                  <v>0.0422691</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.039425</v>
+                  <v>0.0430552</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0400483</v>
+                  <v>0.04371</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0410584</v>
+                  <v>0.0446326</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0419449</v>
+                  <v>0.045744</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0429313</v>
+                  <v>0.0464876</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0441977</v>
+                  <v>0.0480236</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0457638</v>
+                  <v>0.0497905</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0475294</v>
+                  <v>0.0515751</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0500786</v>
+                  <v>0.0541836</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0536186</v>
+                  <v>0.0578235</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0591599</v>
+                  <v>0.06359289999999999</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.0689019</v>
+                  <v>0.07301820000000001</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0534654</v>
+                  <v>0.0587163</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0539555</v>
+                  <v>0.0595507</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0548494</v>
+                  <v>0.0603892</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0553747</v>
+                  <v>0.0609068</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0561235</v>
+                  <v>0.0617944</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0611306</v>
+                  <v>0.0626568</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0579442</v>
+                  <v>0.0637523</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3222,8 +3221,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3248,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0317301</v>
+        <v>0.0319329</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0196174</v>
+        <v>0.0261724</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0232169</v>
+        <v>0.0260968</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0336335</v>
+        <v>0.0334719</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0211523</v>
+        <v>0.0262135</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0234589</v>
+        <v>0.0264037</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.036048</v>
+        <v>0.0356194</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0239024</v>
+        <v>0.0239163</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0236706</v>
+        <v>0.0249347</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0412596</v>
+        <v>0.0412961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0379508</v>
+        <v>0.0243925</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0220427</v>
+        <v>0.0261392</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0544163</v>
+        <v>0.056444</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0591667</v>
+        <v>0.0259349</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0240453</v>
+        <v>0.0287757</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0778807</v>
+        <v>0.0763085</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0861393</v>
+        <v>0.0325188</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0286643</v>
+        <v>0.0369196</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.110561</v>
+        <v>0.107016</v>
       </c>
       <c r="C8" t="n">
-        <v>0.116554</v>
+        <v>0.0555114</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0455551</v>
+        <v>0.0546058</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.145934</v>
+        <v>0.149625</v>
       </c>
       <c r="C9" t="n">
-        <v>0.165903</v>
+        <v>0.0256753</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0228619</v>
+        <v>0.0257895</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0304015</v>
+        <v>0.0306011</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0237116</v>
+        <v>0.0256565</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0228977</v>
+        <v>0.0259962</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0307498</v>
+        <v>0.0312547</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0239581</v>
+        <v>0.025961</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0231081</v>
+        <v>0.0260861</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0313611</v>
+        <v>0.0316325</v>
       </c>
       <c r="C12" t="n">
-        <v>0.023937</v>
+        <v>0.026123</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0233031</v>
+        <v>0.0262789</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0317495</v>
+        <v>0.0321573</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0241126</v>
+        <v>0.0261923</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0234997</v>
+        <v>0.0263566</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0326951</v>
+        <v>0.0328788</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0238374</v>
+        <v>0.0263835</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0237076</v>
+        <v>0.0267768</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0336055</v>
+        <v>0.0339237</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0240126</v>
+        <v>0.0267019</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0239511</v>
+        <v>0.0268016</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0347506</v>
+        <v>0.0349584</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0274933</v>
+        <v>0.0268319</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0245509</v>
+        <v>0.0273157</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0373941</v>
+        <v>0.037537</v>
       </c>
       <c r="C17" t="n">
-        <v>0.032612</v>
+        <v>0.0273714</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0245807</v>
+        <v>0.0276022</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0429877</v>
+        <v>0.0417766</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0431575</v>
+        <v>0.0276187</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0246596</v>
+        <v>0.0283353</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0496368</v>
+        <v>0.0497562</v>
       </c>
       <c r="C19" t="n">
-        <v>0.053109</v>
+        <v>0.0277563</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0247014</v>
+        <v>0.0299192</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0624096</v>
+        <v>0.0600914</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0664627</v>
+        <v>0.0315934</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0265956</v>
+        <v>0.0373231</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0821337</v>
+        <v>0.07756830000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08716160000000001</v>
+        <v>0.0419361</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0380655</v>
+        <v>0.047268</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.105266</v>
+        <v>0.10048</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115444</v>
+        <v>0.0615473</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0532806</v>
+        <v>0.0632683</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.142038</v>
+        <v>0.139327</v>
       </c>
       <c r="C23" t="n">
-        <v>0.161112</v>
+        <v>0.0265153</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0239273</v>
+        <v>0.0266722</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0322621</v>
+        <v>0.0321007</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0263418</v>
+        <v>0.026913</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0243273</v>
+        <v>0.0271037</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0330525</v>
+        <v>0.0328317</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0264397</v>
+        <v>0.0274219</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0245461</v>
+        <v>0.0272814</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0335168</v>
+        <v>0.0336052</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0263235</v>
+        <v>0.0276182</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0247565</v>
+        <v>0.0275072</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0342982</v>
+        <v>0.0343108</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0277988</v>
+        <v>0.0278763</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0251371</v>
+        <v>0.0278787</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0350191</v>
+        <v>0.0351843</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0288785</v>
+        <v>0.028231</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0253482</v>
+        <v>0.0282273</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0363307</v>
+        <v>0.036692</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0319186</v>
+        <v>0.0285656</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0256792</v>
+        <v>0.0283823</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0384295</v>
+        <v>0.0387245</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0357509</v>
+        <v>0.0290402</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0259474</v>
+        <v>0.028879</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0416347</v>
+        <v>0.04189</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0408502</v>
+        <v>0.0297417</v>
       </c>
       <c r="D31" t="n">
-        <v>0.026769</v>
+        <v>0.0301937</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0466533</v>
+        <v>0.0463529</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0476457</v>
+        <v>0.0307303</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0276252</v>
+        <v>0.0317586</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0535789</v>
+        <v>0.0527483</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0560451</v>
+        <v>0.0334303</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0293043</v>
+        <v>0.0357857</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06370049999999999</v>
+        <v>0.0631519</v>
       </c>
       <c r="C34" t="n">
-        <v>0.066635</v>
+        <v>0.0405591</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0344592</v>
+        <v>0.0421456</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0772653</v>
+        <v>0.0769063</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0814163</v>
+        <v>0.0473382</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0426837</v>
+        <v>0.0512676</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09796290000000001</v>
+        <v>0.09748809999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.110342</v>
+        <v>0.0592143</v>
       </c>
       <c r="D36" t="n">
-        <v>0.054508</v>
+        <v>0.0611405</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1307</v>
+        <v>0.130305</v>
       </c>
       <c r="C37" t="n">
-        <v>0.152391</v>
+        <v>0.0277551</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0246512</v>
+        <v>0.0272204</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0331043</v>
+        <v>0.0332732</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0286117</v>
+        <v>0.0282518</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0250085</v>
+        <v>0.0274934</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0339449</v>
+        <v>0.0339737</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0292639</v>
+        <v>0.0285194</v>
       </c>
       <c r="D39" t="n">
-        <v>0.025191</v>
+        <v>0.02767</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0346943</v>
+        <v>0.0345537</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0303496</v>
+        <v>0.0288215</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0255052</v>
+        <v>0.0280885</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0356807</v>
+        <v>0.0353913</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0313813</v>
+        <v>0.0292756</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0257716</v>
+        <v>0.0285647</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.036657</v>
+        <v>0.036398</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0333166</v>
+        <v>0.029584</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0261691</v>
+        <v>0.0292118</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.037978</v>
+        <v>0.0377646</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0355629</v>
+        <v>0.0302803</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0269143</v>
+        <v>0.0298705</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.040263</v>
+        <v>0.0398621</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0383615</v>
+        <v>0.0308605</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0274971</v>
+        <v>0.0309022</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0431288</v>
+        <v>0.0428234</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0426724</v>
+        <v>0.0321124</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0285282</v>
+        <v>0.0326265</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0474074</v>
+        <v>0.0469697</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0481028</v>
+        <v>0.0335486</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0301517</v>
+        <v>0.0352178</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0527831</v>
+        <v>0.0528228</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0547047</v>
+        <v>0.0362498</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0328456</v>
+        <v>0.0394269</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0615196</v>
+        <v>0.060657</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0645794</v>
+        <v>0.0408828</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0371909</v>
+        <v>0.0449731</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0740498</v>
+        <v>0.07351820000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.080151</v>
+        <v>0.0470999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0428722</v>
+        <v>0.0515086</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09235160000000001</v>
+        <v>0.0905691</v>
       </c>
       <c r="C50" t="n">
-        <v>0.103057</v>
+        <v>0.0564601</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0517272</v>
+        <v>0.0605038</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.123097</v>
+        <v>0.121104</v>
       </c>
       <c r="C51" t="n">
-        <v>0.140618</v>
+        <v>0.0320903</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0268503</v>
+        <v>0.0287988</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165917</v>
+        <v>0.166348</v>
       </c>
       <c r="C52" t="n">
-        <v>0.187897</v>
+        <v>0.0324555</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0269347</v>
+        <v>0.0290998</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0357099</v>
+        <v>0.0351215</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0316026</v>
+        <v>0.0326804</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0271143</v>
+        <v>0.0294782</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0363401</v>
+        <v>0.0359005</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0326163</v>
+        <v>0.0330263</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0275095</v>
+        <v>0.0298577</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0371648</v>
+        <v>0.0368321</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0337418</v>
+        <v>0.033434</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0279761</v>
+        <v>0.0303448</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0383608</v>
+        <v>0.038065</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0351051</v>
+        <v>0.0339428</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0285193</v>
+        <v>0.0310387</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0398348</v>
+        <v>0.0395706</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0369693</v>
+        <v>0.0345353</v>
       </c>
       <c r="D57" t="n">
-        <v>0.029143</v>
+        <v>0.0319223</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0416546</v>
+        <v>0.0414842</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0394468</v>
+        <v>0.0352976</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0296798</v>
+        <v>0.0331722</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0442159</v>
+        <v>0.0440563</v>
       </c>
       <c r="C59" t="n">
-        <v>0.042331</v>
+        <v>0.0363527</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0308106</v>
+        <v>0.0347852</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0478838</v>
+        <v>0.0476125</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0466863</v>
+        <v>0.0378537</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0323336</v>
+        <v>0.0371001</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0531446</v>
+        <v>0.0529797</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0534204</v>
+        <v>0.0399871</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0344914</v>
+        <v>0.0402393</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0608326</v>
+        <v>0.0607302</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06260780000000001</v>
+        <v>0.0431503</v>
       </c>
       <c r="D62" t="n">
-        <v>0.037669</v>
+        <v>0.0449172</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0723287</v>
+        <v>0.0721758</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0762615</v>
+        <v>0.048354</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0427678</v>
+        <v>0.0502474</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0901546</v>
+        <v>0.08908149999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0965009</v>
+        <v>0.0567047</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0510833</v>
+        <v>0.0575015</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116127</v>
+        <v>0.116871</v>
       </c>
       <c r="C65" t="n">
-        <v>0.130661</v>
+        <v>0.071564</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0651114</v>
+        <v>0.07256020000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.157328</v>
+        <v>0.15702</v>
       </c>
       <c r="C66" t="n">
-        <v>0.178949</v>
+        <v>0.036326</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0318935</v>
+        <v>0.0349809</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.040723</v>
+        <v>0.0415852</v>
       </c>
       <c r="C67" t="n">
-        <v>0.036604</v>
+        <v>0.036708</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0323</v>
+        <v>0.0354448</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.04153</v>
+        <v>0.0422954</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0375765</v>
+        <v>0.0371149</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0326425</v>
+        <v>0.0358646</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0424472</v>
+        <v>0.043151</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0385904</v>
+        <v>0.0375169</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0331094</v>
+        <v>0.0364067</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0433268</v>
+        <v>0.0443056</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0397836</v>
+        <v>0.0381212</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0335941</v>
+        <v>0.0370209</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0445602</v>
+        <v>0.0456594</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0412449</v>
+        <v>0.0386609</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0341892</v>
+        <v>0.0378276</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0463054</v>
+        <v>0.0471972</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0433904</v>
+        <v>0.0394445</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0348933</v>
+        <v>0.0388779</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0485846</v>
+        <v>0.0494134</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0463728</v>
+        <v>0.0403748</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0358401</v>
+        <v>0.0401688</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0516032</v>
+        <v>0.0524976</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0504209</v>
+        <v>0.0416421</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0371307</v>
+        <v>0.0419499</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0562288</v>
+        <v>0.0570517</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0565445</v>
+        <v>0.0436229</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0390521</v>
+        <v>0.0450166</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0631734</v>
+        <v>0.0639535</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0651566</v>
+        <v>0.046465</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0417501</v>
+        <v>0.0493154</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0733248</v>
+        <v>0.074055</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0778657</v>
+        <v>0.0512145</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0460041</v>
+        <v>0.0542057</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0882969</v>
+        <v>0.0900782</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0955785</v>
+        <v>0.0583734</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0529628</v>
+        <v>0.0607216</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.113118</v>
+        <v>0.114436</v>
       </c>
       <c r="C79" t="n">
-        <v>0.124492</v>
+        <v>0.07134500000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0653576</v>
+        <v>0.0744763</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.151971</v>
+        <v>0.153557</v>
       </c>
       <c r="C80" t="n">
-        <v>0.169775</v>
+        <v>0.0404428</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0361681</v>
+        <v>0.0402017</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0471419</v>
+        <v>0.0471997</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0438552</v>
+        <v>0.0408519</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0366471</v>
+        <v>0.0407032</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0483725</v>
+        <v>0.0485118</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0456831</v>
+        <v>0.0413957</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0372611</v>
+        <v>0.0413516</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0498517</v>
+        <v>0.050147</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0478433</v>
+        <v>0.0421019</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0379674</v>
+        <v>0.0421652</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0517186</v>
+        <v>0.0527336</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0505627</v>
+        <v>0.043386</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0388143</v>
+        <v>0.0434403</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0541245</v>
+        <v>0.0553747</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0538697</v>
+        <v>0.0445919</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0398389</v>
+        <v>0.0447794</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0576331</v>
+        <v>0.0592825</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0575532</v>
+        <v>0.0465266</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0413366</v>
+        <v>0.0470841</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0617085</v>
+        <v>0.0622429</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0620937</v>
+        <v>0.0481245</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0431204</v>
+        <v>0.0486079</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0666942</v>
+        <v>0.0670572</v>
       </c>
       <c r="C88" t="n">
-        <v>0.06835629999999999</v>
+        <v>0.050667</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0455282</v>
+        <v>0.0518835</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0736218</v>
+        <v>0.07361090000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0758157</v>
+        <v>0.0536196</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0490218</v>
+        <v>0.056395</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0822505</v>
+        <v>0.08206529999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0855621</v>
+        <v>0.0586909</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0534008</v>
+        <v>0.0622201</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0931908</v>
+        <v>0.09293369999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0975901</v>
+        <v>0.0646325</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0587972</v>
+        <v>0.06776509999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.108208</v>
+        <v>0.10832</v>
       </c>
       <c r="C92" t="n">
-        <v>0.113887</v>
+        <v>0.0736642</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0670137</v>
+        <v>0.07686469999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.129952</v>
+        <v>0.130366</v>
       </c>
       <c r="C93" t="n">
-        <v>0.139371</v>
+        <v>0.0870272</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0798447</v>
+        <v>0.0901219</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.162982</v>
+        <v>0.164196</v>
       </c>
       <c r="C94" t="n">
-        <v>0.178841</v>
+        <v>0.0508063</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0457517</v>
+        <v>0.0496968</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0659459</v>
+        <v>0.06707349999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0631284</v>
+        <v>0.052582</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0462692</v>
+        <v>0.0525251</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0687593</v>
+        <v>0.0698081</v>
       </c>
       <c r="C96" t="n">
-        <v>0.06452910000000001</v>
+        <v>0.0543614</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0491685</v>
+        <v>0.0543207</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07098210000000001</v>
+        <v>0.07266499999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.068468</v>
+        <v>0.05617</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0503559</v>
+        <v>0.0565259</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.074725</v>
+        <v>0.0749963</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07091</v>
+        <v>0.0582965</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0524337</v>
+        <v>0.0584636</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0773102</v>
+        <v>0.07723969999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0752997</v>
+        <v>0.0599831</v>
       </c>
       <c r="D99" t="n">
-        <v>0.05439</v>
+        <v>0.0596753</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0806968</v>
+        <v>0.0805983</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0800988</v>
+        <v>0.0616812</v>
       </c>
       <c r="D100" t="n">
-        <v>0.056046</v>
+        <v>0.0618791</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08442139999999999</v>
+        <v>0.08344849999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0846673</v>
+        <v>0.063683</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0580578</v>
+        <v>0.0640879</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.08873540000000001</v>
+        <v>0.0881581</v>
       </c>
       <c r="C102" t="n">
-        <v>0.09029239999999999</v>
+        <v>0.06648</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0611788</v>
+        <v>0.0654776</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0944009</v>
+        <v>0.0945334</v>
       </c>
       <c r="C103" t="n">
-        <v>0.09703589999999999</v>
+        <v>0.0684647</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0641958</v>
+        <v>0.0693197</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.102401</v>
+        <v>0.102606</v>
       </c>
       <c r="C104" t="n">
-        <v>0.104924</v>
+        <v>0.0724534</v>
       </c>
       <c r="D104" t="n">
-        <v>0.06804499999999999</v>
+        <v>0.0753013</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.113229</v>
+        <v>0.113029</v>
       </c>
       <c r="C105" t="n">
-        <v>0.117798</v>
+        <v>0.07749789999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0732913</v>
+        <v>0.08168640000000001</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.128617</v>
+        <v>0.126887</v>
       </c>
       <c r="C106" t="n">
-        <v>0.133931</v>
+        <v>0.0858887</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0794899</v>
+        <v>0.0908808</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.149672</v>
+        <v>0.149194</v>
       </c>
       <c r="C107" t="n">
-        <v>0.157192</v>
+        <v>0.0996658</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0918081</v>
+        <v>0.101607</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.179275</v>
+        <v>0.179637</v>
       </c>
       <c r="C108" t="n">
-        <v>0.192542</v>
+        <v>0.0568328</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0539652</v>
+        <v>0.0587115</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.22556</v>
+        <v>0.226209</v>
       </c>
       <c r="C109" t="n">
-        <v>0.253604</v>
+        <v>0.0581311</v>
       </c>
       <c r="D109" t="n">
-        <v>0.054945</v>
+        <v>0.0596598</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0787596</v>
+        <v>0.0803965</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0818325</v>
+        <v>0.0593467</v>
       </c>
       <c r="D110" t="n">
-        <v>0.056062</v>
+        <v>0.0609522</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0830171</v>
+        <v>0.0833602</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0843069</v>
+        <v>0.0604948</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0573842</v>
+        <v>0.06270240000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.08654770000000001</v>
+        <v>0.0860823</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0871509</v>
+        <v>0.0644475</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0593105</v>
+        <v>0.0646905</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0907395</v>
+        <v>0.089365</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0903626</v>
+        <v>0.066581</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0608032</v>
+        <v>0.0664435</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0950888</v>
+        <v>0.0938124</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0940135</v>
+        <v>0.06886539999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0631932</v>
+        <v>0.06953959999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100789</v>
+        <v>0.100442</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0984353</v>
+        <v>0.0717739</v>
       </c>
       <c r="D115" t="n">
-        <v>0.06601659999999999</v>
+        <v>0.07253660000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106475</v>
+        <v>0.106427</v>
       </c>
       <c r="C116" t="n">
-        <v>0.103627</v>
+        <v>0.07536420000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.06969599999999999</v>
+        <v>0.07676230000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.111775</v>
+        <v>0.113381</v>
       </c>
       <c r="C117" t="n">
-        <v>0.111001</v>
+        <v>0.07988720000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0734477</v>
+        <v>0.0815582</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121184</v>
+        <v>0.121165</v>
       </c>
       <c r="C118" t="n">
-        <v>0.119893</v>
+        <v>0.08489869999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.078695</v>
+        <v>0.0883317</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.129668</v>
+        <v>0.131262</v>
       </c>
       <c r="C119" t="n">
-        <v>0.13118</v>
+        <v>0.09147619999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0845142</v>
+        <v>0.0960675</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.144462</v>
+        <v>0.144264</v>
       </c>
       <c r="C120" t="n">
-        <v>0.146453</v>
+        <v>0.0999424</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0934132</v>
+        <v>0.1044</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.162882</v>
+        <v>0.162689</v>
       </c>
       <c r="C121" t="n">
-        <v>0.166295</v>
+        <v>0.111663</v>
       </c>
       <c r="D121" t="n">
-        <v>0.105406</v>
+        <v>0.116562</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.187024</v>
+        <v>0.188654</v>
       </c>
       <c r="C122" t="n">
-        <v>0.200575</v>
+        <v>0.130297</v>
       </c>
       <c r="D122" t="n">
-        <v>0.123202</v>
+        <v>0.132921</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.227004</v>
+        <v>0.229682</v>
       </c>
       <c r="C123" t="n">
-        <v>0.253924</v>
+        <v>0.07847949999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.07398830000000001</v>
+        <v>0.08018740000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103193</v>
+        <v>0.10396</v>
       </c>
       <c r="C124" t="n">
-        <v>0.100141</v>
+        <v>0.084263</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0779343</v>
+        <v>0.0832334</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.104909</v>
+        <v>0.109962</v>
       </c>
       <c r="C125" t="n">
-        <v>0.102644</v>
+        <v>0.0835711</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0792508</v>
+        <v>0.08487160000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.107613</v>
+        <v>0.108326</v>
       </c>
       <c r="C126" t="n">
-        <v>0.105501</v>
+        <v>0.0837479</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0809882</v>
+        <v>0.0872723</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111224</v>
+        <v>0.113296</v>
       </c>
       <c r="C127" t="n">
-        <v>0.107874</v>
+        <v>0.0862569</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0820356</v>
+        <v>0.08894000000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.113495</v>
+        <v>0.114904</v>
       </c>
       <c r="C128" t="n">
-        <v>0.11201</v>
+        <v>0.0884128</v>
       </c>
       <c r="D128" t="n">
-        <v>0.08451699999999999</v>
+        <v>0.09149210000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.115745</v>
+        <v>0.118683</v>
       </c>
       <c r="C129" t="n">
-        <v>0.117007</v>
+        <v>0.0937567</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0877536</v>
+        <v>0.0948437</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.121886</v>
+        <v>0.121237</v>
       </c>
       <c r="C130" t="n">
-        <v>0.120409</v>
+        <v>0.0909986</v>
       </c>
       <c r="D130" t="n">
-        <v>0.08772489999999999</v>
+        <v>0.0964221</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.125964</v>
+        <v>0.126638</v>
       </c>
       <c r="C131" t="n">
-        <v>0.127812</v>
+        <v>0.0942105</v>
       </c>
       <c r="D131" t="n">
-        <v>0.092638</v>
+        <v>0.100287</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.132938</v>
+        <v>0.133579</v>
       </c>
       <c r="C132" t="n">
-        <v>0.134324</v>
+        <v>0.10019</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0942306</v>
+        <v>0.104194</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.141076</v>
+        <v>0.142205</v>
       </c>
       <c r="C133" t="n">
-        <v>0.145591</v>
+        <v>0.105132</v>
       </c>
       <c r="D133" t="n">
-        <v>0.100513</v>
+        <v>0.1119</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.152799</v>
+        <v>0.154423</v>
       </c>
       <c r="C134" t="n">
-        <v>0.158868</v>
+        <v>0.112137</v>
       </c>
       <c r="D134" t="n">
-        <v>0.106101</v>
+        <v>0.117938</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.169469</v>
+        <v>0.170581</v>
       </c>
       <c r="C135" t="n">
-        <v>0.179207</v>
+        <v>0.122036</v>
       </c>
       <c r="D135" t="n">
-        <v>0.116632</v>
+        <v>0.129697</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194392</v>
+        <v>0.197067</v>
       </c>
       <c r="C136" t="n">
-        <v>0.209103</v>
+        <v>0.137018</v>
       </c>
       <c r="D136" t="n">
-        <v>0.131192</v>
+        <v>0.142993</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232691</v>
+        <v>0.235821</v>
       </c>
       <c r="C137" t="n">
-        <v>0.258052</v>
+        <v>0.152632</v>
       </c>
       <c r="D137" t="n">
-        <v>0.139874</v>
+        <v>0.161803</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.169359</v>
+        <v>0.162174</v>
       </c>
       <c r="C138" t="n">
-        <v>0.155155</v>
+        <v>0.155684</v>
       </c>
       <c r="D138" t="n">
-        <v>0.139853</v>
+        <v>0.163381</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.172309</v>
+        <v>0.169969</v>
       </c>
       <c r="C139" t="n">
-        <v>0.15828</v>
+        <v>0.155359</v>
       </c>
       <c r="D139" t="n">
-        <v>0.142167</v>
+        <v>0.164744</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.17306</v>
+        <v>0.17074</v>
       </c>
       <c r="C140" t="n">
-        <v>0.159953</v>
+        <v>0.158079</v>
       </c>
       <c r="D140" t="n">
-        <v>0.142422</v>
+        <v>0.164756</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.173905</v>
+        <v>0.171175</v>
       </c>
       <c r="C141" t="n">
-        <v>0.163128</v>
+        <v>0.15087</v>
       </c>
       <c r="D141" t="n">
-        <v>0.144908</v>
+        <v>0.167001</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.176264</v>
+        <v>0.173102</v>
       </c>
       <c r="C142" t="n">
-        <v>0.166342</v>
+        <v>0.153207</v>
       </c>
       <c r="D142" t="n">
-        <v>0.146477</v>
+        <v>0.167679</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.171444</v>
+        <v>0.175191</v>
       </c>
       <c r="C143" t="n">
-        <v>0.169542</v>
+        <v>0.15996</v>
       </c>
       <c r="D143" t="n">
-        <v>0.147832</v>
+        <v>0.169415</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0319329</v>
+        <v>0.0321682</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0261724</v>
+        <v>0.0261843</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0260968</v>
+        <v>0.0261426</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0334719</v>
+        <v>0.0337054</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0262135</v>
+        <v>0.0262426</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0264037</v>
+        <v>0.0262649</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0356194</v>
+        <v>0.0356534</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0239163</v>
+        <v>0.0239239</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0249347</v>
+        <v>0.0246253</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0412961</v>
+        <v>0.0412643</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0243925</v>
+        <v>0.0244725</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0261392</v>
+        <v>0.0256398</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.056444</v>
+        <v>0.056605</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0259349</v>
+        <v>0.0258899</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0287757</v>
+        <v>0.0286135</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0763085</v>
+        <v>0.077041</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0325188</v>
+        <v>0.0335375</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0369196</v>
+        <v>0.0373664</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.107016</v>
+        <v>0.10741</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0555114</v>
+        <v>0.0550823</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0546058</v>
+        <v>0.0549593</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149625</v>
+        <v>0.149725</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0256753</v>
+        <v>0.0256413</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0257895</v>
+        <v>0.0257976</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0306011</v>
+        <v>0.0306507</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0256565</v>
+        <v>0.0256137</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0259962</v>
+        <v>0.025963</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0312547</v>
+        <v>0.0313245</v>
       </c>
       <c r="C11" t="n">
-        <v>0.025961</v>
+        <v>0.0260025</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0260861</v>
+        <v>0.0260556</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0316325</v>
+        <v>0.0314994</v>
       </c>
       <c r="C12" t="n">
-        <v>0.026123</v>
+        <v>0.0261506</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0262789</v>
+        <v>0.0262863</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0321573</v>
+        <v>0.0321834</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0261923</v>
+        <v>0.0260976</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0263566</v>
+        <v>0.0263565</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0328788</v>
+        <v>0.0328533</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0263835</v>
+        <v>0.0262733</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0267768</v>
+        <v>0.0267153</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0339237</v>
+        <v>0.0339078</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0267019</v>
+        <v>0.0266289</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0268016</v>
+        <v>0.0268135</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0349584</v>
+        <v>0.0351319</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0268319</v>
+        <v>0.0267326</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0273157</v>
+        <v>0.0273044</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.037537</v>
+        <v>0.0373841</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0273714</v>
+        <v>0.0273468</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0276022</v>
+        <v>0.0276992</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0417766</v>
+        <v>0.0417402</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0276187</v>
+        <v>0.0276858</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0283353</v>
+        <v>0.0283409</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0497562</v>
+        <v>0.0500495</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0277563</v>
+        <v>0.0275477</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0299192</v>
+        <v>0.0298833</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0600914</v>
+        <v>0.0601208</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0315934</v>
+        <v>0.0313985</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0373231</v>
+        <v>0.0375027</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07756830000000001</v>
+        <v>0.0777354</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0419361</v>
+        <v>0.0419709</v>
       </c>
       <c r="D21" t="n">
-        <v>0.047268</v>
+        <v>0.047802</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.10048</v>
+        <v>0.100632</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0615473</v>
+        <v>0.0615425</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0632683</v>
+        <v>0.06377439999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.139327</v>
+        <v>0.13938</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0265153</v>
+        <v>0.0265738</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0266722</v>
+        <v>0.0267554</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0321007</v>
+        <v>0.0323308</v>
       </c>
       <c r="C24" t="n">
-        <v>0.026913</v>
+        <v>0.0270215</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0271037</v>
+        <v>0.0269387</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0328317</v>
+        <v>0.0329005</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0274219</v>
+        <v>0.0273812</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0272814</v>
+        <v>0.0272238</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0336052</v>
+        <v>0.033681</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0276182</v>
+        <v>0.0275797</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0275072</v>
+        <v>0.027322</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0343108</v>
+        <v>0.0343842</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0278763</v>
+        <v>0.0278648</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0278787</v>
+        <v>0.0277819</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0351843</v>
+        <v>0.0351734</v>
       </c>
       <c r="C28" t="n">
-        <v>0.028231</v>
+        <v>0.0282141</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0282273</v>
+        <v>0.0281829</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.036692</v>
+        <v>0.0367037</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0285656</v>
+        <v>0.028486</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0283823</v>
+        <v>0.0285427</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0387245</v>
+        <v>0.0387074</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0290402</v>
+        <v>0.0290734</v>
       </c>
       <c r="D30" t="n">
-        <v>0.028879</v>
+        <v>0.0291772</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.04189</v>
+        <v>0.0418412</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0297417</v>
+        <v>0.0296842</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0301937</v>
+        <v>0.0301384</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0463529</v>
+        <v>0.0463105</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0307303</v>
+        <v>0.0306432</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0317586</v>
+        <v>0.0314821</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0527483</v>
+        <v>0.0528266</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0334303</v>
+        <v>0.0335667</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0357857</v>
+        <v>0.0353543</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0631519</v>
+        <v>0.0631972</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0405591</v>
+        <v>0.0404586</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0421456</v>
+        <v>0.0423924</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0769063</v>
+        <v>0.0769862</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0473382</v>
+        <v>0.0473076</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0512676</v>
+        <v>0.0515493</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09748809999999999</v>
+        <v>0.0975437</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0592143</v>
+        <v>0.0592512</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0611405</v>
+        <v>0.0614192</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.130305</v>
+        <v>0.130494</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0277551</v>
+        <v>0.0276535</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0272204</v>
+        <v>0.0272198</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0332732</v>
+        <v>0.0332096</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0282518</v>
+        <v>0.0281028</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0274934</v>
+        <v>0.0274233</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0339737</v>
+        <v>0.0339857</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0285194</v>
+        <v>0.0284636</v>
       </c>
       <c r="D39" t="n">
-        <v>0.02767</v>
+        <v>0.027846</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0345537</v>
+        <v>0.0345941</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0288215</v>
+        <v>0.0288037</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0280885</v>
+        <v>0.0280679</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0353913</v>
+        <v>0.0354111</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0292756</v>
+        <v>0.0291911</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0285647</v>
+        <v>0.028518</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.036398</v>
+        <v>0.0363313</v>
       </c>
       <c r="C42" t="n">
-        <v>0.029584</v>
+        <v>0.0296284</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0292118</v>
+        <v>0.0291259</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0377646</v>
+        <v>0.0377664</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0302803</v>
+        <v>0.0302075</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0298705</v>
+        <v>0.0297947</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0398621</v>
+        <v>0.0398465</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0308605</v>
+        <v>0.0309282</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0309022</v>
+        <v>0.0311043</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0428234</v>
+        <v>0.0428357</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0321124</v>
+        <v>0.032073</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0326265</v>
+        <v>0.0326814</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0469697</v>
+        <v>0.0470007</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0335486</v>
+        <v>0.033459</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0352178</v>
+        <v>0.035287</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0528228</v>
+        <v>0.0528457</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0362498</v>
+        <v>0.0361604</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0394269</v>
+        <v>0.0394347</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.060657</v>
+        <v>0.0607129</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0408828</v>
+        <v>0.0407701</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0449731</v>
+        <v>0.0448693</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07351820000000001</v>
+        <v>0.0734911</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0470999</v>
+        <v>0.0470893</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0515086</v>
+        <v>0.0516421</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0905691</v>
+        <v>0.0905518</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0564601</v>
+        <v>0.0564392</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0605038</v>
+        <v>0.0606351</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.121104</v>
+        <v>0.121183</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0320903</v>
+        <v>0.0303604</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0287988</v>
+        <v>0.0293589</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.166348</v>
+        <v>0.166403</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0324555</v>
+        <v>0.0306077</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0290998</v>
+        <v>0.0295969</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0351215</v>
+        <v>0.0356915</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0326804</v>
+        <v>0.0308425</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0294782</v>
+        <v>0.0299856</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0359005</v>
+        <v>0.036407</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0330263</v>
+        <v>0.0312099</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0298577</v>
+        <v>0.0303297</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0368321</v>
+        <v>0.037303</v>
       </c>
       <c r="C55" t="n">
-        <v>0.033434</v>
+        <v>0.0316344</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0303448</v>
+        <v>0.0308407</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.038065</v>
+        <v>0.0384977</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0339428</v>
+        <v>0.0322067</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0310387</v>
+        <v>0.0314944</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0395706</v>
+        <v>0.0399488</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0345353</v>
+        <v>0.0329304</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0319223</v>
+        <v>0.0324232</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0414842</v>
+        <v>0.0418501</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0352976</v>
+        <v>0.0337591</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0331722</v>
+        <v>0.0335769</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0440563</v>
+        <v>0.0443518</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0363527</v>
+        <v>0.0349034</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0347852</v>
+        <v>0.0352181</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0476125</v>
+        <v>0.0478927</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0378537</v>
+        <v>0.0364195</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0371001</v>
+        <v>0.0374686</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0529797</v>
+        <v>0.0531599</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0399871</v>
+        <v>0.0386528</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0402393</v>
+        <v>0.0406075</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0607302</v>
+        <v>0.0608894</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0431503</v>
+        <v>0.0418718</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0449172</v>
+        <v>0.0436858</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0721758</v>
+        <v>0.0723583</v>
       </c>
       <c r="C63" t="n">
-        <v>0.048354</v>
+        <v>0.0471744</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0502474</v>
+        <v>0.049527</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08908149999999999</v>
+        <v>0.08916590000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0567047</v>
+        <v>0.0557262</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0575015</v>
+        <v>0.0576757</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116871</v>
+        <v>0.117049</v>
       </c>
       <c r="C65" t="n">
-        <v>0.071564</v>
+        <v>0.0707386</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07256020000000001</v>
+        <v>0.0722961</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.15702</v>
+        <v>0.157348</v>
       </c>
       <c r="C66" t="n">
-        <v>0.036326</v>
+        <v>0.0358058</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0349809</v>
+        <v>0.0349637</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0415852</v>
+        <v>0.04118</v>
       </c>
       <c r="C67" t="n">
-        <v>0.036708</v>
+        <v>0.0362049</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0354448</v>
+        <v>0.0354137</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0422954</v>
+        <v>0.0417913</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0371149</v>
+        <v>0.0366224</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0358646</v>
+        <v>0.0358458</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.043151</v>
+        <v>0.0427051</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0375169</v>
+        <v>0.0370381</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0364067</v>
+        <v>0.0364236</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0443056</v>
+        <v>0.0437486</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0381212</v>
+        <v>0.0376116</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0370209</v>
+        <v>0.0370255</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0456594</v>
+        <v>0.0450658</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0386609</v>
+        <v>0.0381705</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0378276</v>
+        <v>0.0378965</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0471972</v>
+        <v>0.0465725</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0394445</v>
+        <v>0.0390009</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0388779</v>
+        <v>0.039033</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0494134</v>
+        <v>0.0487924</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0403748</v>
+        <v>0.0399406</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0401688</v>
+        <v>0.0403885</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0524976</v>
+        <v>0.0518577</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0416421</v>
+        <v>0.0412407</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0419499</v>
+        <v>0.0420203</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0570517</v>
+        <v>0.0563883</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0436229</v>
+        <v>0.0432427</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0450166</v>
+        <v>0.0450066</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0639535</v>
+        <v>0.06337619999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.046465</v>
+        <v>0.0460667</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0493154</v>
+        <v>0.0483829</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.074055</v>
+        <v>0.0733013</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0512145</v>
+        <v>0.0508096</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0542057</v>
+        <v>0.0533133</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0900782</v>
+        <v>0.088989</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0583734</v>
+        <v>0.0579513</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0607216</v>
+        <v>0.0610593</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.114436</v>
+        <v>0.113297</v>
       </c>
       <c r="C79" t="n">
-        <v>0.07134500000000001</v>
+        <v>0.0708211</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0744763</v>
+        <v>0.074739</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.153557</v>
+        <v>0.152579</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0404428</v>
+        <v>0.0405086</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0402017</v>
+        <v>0.040184</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0471997</v>
+        <v>0.0470284</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0408519</v>
+        <v>0.040876</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0407032</v>
+        <v>0.0406339</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0485118</v>
+        <v>0.0480927</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0413957</v>
+        <v>0.0413621</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0413516</v>
+        <v>0.0410524</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.050147</v>
+        <v>0.0494906</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0421019</v>
+        <v>0.041983</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0421652</v>
+        <v>0.0419143</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0527336</v>
+        <v>0.0513808</v>
       </c>
       <c r="C84" t="n">
-        <v>0.043386</v>
+        <v>0.0428951</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0434403</v>
+        <v>0.0427643</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0553747</v>
+        <v>0.0540426</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0445919</v>
+        <v>0.0441536</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0447794</v>
+        <v>0.0441723</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0592825</v>
+        <v>0.0575353</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0465266</v>
+        <v>0.0458608</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0470841</v>
+        <v>0.0462278</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0622429</v>
+        <v>0.0618354</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0481245</v>
+        <v>0.0482841</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0486079</v>
+        <v>0.048997</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0670572</v>
+        <v>0.0667996</v>
       </c>
       <c r="C88" t="n">
-        <v>0.050667</v>
+        <v>0.0510033</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0518835</v>
+        <v>0.0523501</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.07361090000000001</v>
+        <v>0.0737042</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0536196</v>
+        <v>0.0539847</v>
       </c>
       <c r="D89" t="n">
-        <v>0.056395</v>
+        <v>0.0563053</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.08206529999999999</v>
+        <v>0.0819178</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0586909</v>
+        <v>0.058421</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0622201</v>
+        <v>0.061928</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.09293369999999999</v>
+        <v>0.0928914</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0646325</v>
+        <v>0.06442150000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.06776509999999999</v>
+        <v>0.0684067</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.10832</v>
+        <v>0.107931</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0736642</v>
+        <v>0.0737192</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07686469999999999</v>
+        <v>0.0771887</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.130366</v>
+        <v>0.13044</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0870272</v>
+        <v>0.08692850000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0901219</v>
+        <v>0.0902082</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.164196</v>
+        <v>0.164432</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0508063</v>
+        <v>0.04983</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0496968</v>
+        <v>0.0499369</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06707349999999999</v>
+        <v>0.06778720000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.052582</v>
+        <v>0.0518183</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0525251</v>
+        <v>0.0523053</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0698081</v>
+        <v>0.07021280000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0543614</v>
+        <v>0.0539965</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0543207</v>
+        <v>0.054529</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07266499999999999</v>
+        <v>0.07277649999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.05617</v>
+        <v>0.0559863</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0565259</v>
+        <v>0.0556936</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0749963</v>
+        <v>0.0758534</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0582965</v>
+        <v>0.0582406</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0584636</v>
+        <v>0.0576196</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07723969999999999</v>
+        <v>0.07861070000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0599831</v>
+        <v>0.0591935</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0596753</v>
+        <v>0.0605641</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0805983</v>
+        <v>0.0822441</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0616812</v>
+        <v>0.0625787</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0618791</v>
+        <v>0.0634029</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08344849999999999</v>
+        <v>0.08618629999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.063683</v>
+        <v>0.0650748</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0640879</v>
+        <v>0.06546</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0881581</v>
+        <v>0.0886982</v>
       </c>
       <c r="C102" t="n">
-        <v>0.06648</v>
+        <v>0.067596</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0654776</v>
+        <v>0.0687024</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0945334</v>
+        <v>0.09620919999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0684647</v>
+        <v>0.0705839</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0693197</v>
+        <v>0.0731624</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.102606</v>
+        <v>0.10305</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0724534</v>
+        <v>0.0743877</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0753013</v>
+        <v>0.07647130000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.113029</v>
+        <v>0.1149</v>
       </c>
       <c r="C105" t="n">
-        <v>0.07749789999999999</v>
+        <v>0.0792556</v>
       </c>
       <c r="D105" t="n">
-        <v>0.08168640000000001</v>
+        <v>0.0842087</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.126887</v>
+        <v>0.129267</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0858887</v>
+        <v>0.0882317</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0908808</v>
+        <v>0.0922637</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.149194</v>
+        <v>0.149795</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0996658</v>
+        <v>0.0995077</v>
       </c>
       <c r="D107" t="n">
-        <v>0.101607</v>
+        <v>0.104903</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.179637</v>
+        <v>0.179447</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0568328</v>
+        <v>0.0573718</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0587115</v>
+        <v>0.0592896</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.226209</v>
+        <v>0.225265</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0581311</v>
+        <v>0.0588262</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0596598</v>
+        <v>0.0603449</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0803965</v>
+        <v>0.07973280000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0593467</v>
+        <v>0.0597393</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0609522</v>
+        <v>0.0616055</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0833602</v>
+        <v>0.0839027</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0604948</v>
+        <v>0.0633189</v>
       </c>
       <c r="D111" t="n">
-        <v>0.06270240000000001</v>
+        <v>0.06349050000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0860823</v>
+        <v>0.087121</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0644475</v>
+        <v>0.064752</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0646905</v>
+        <v>0.06480809999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.089365</v>
+        <v>0.0910996</v>
       </c>
       <c r="C113" t="n">
-        <v>0.066581</v>
+        <v>0.067076</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0664435</v>
+        <v>0.0673503</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0938124</v>
+        <v>0.09590509999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.06886539999999999</v>
+        <v>0.0694399</v>
       </c>
       <c r="D114" t="n">
-        <v>0.06953959999999999</v>
+        <v>0.0697755</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100442</v>
+        <v>0.101037</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0717739</v>
+        <v>0.0703056</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07253660000000001</v>
+        <v>0.0732483</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106427</v>
+        <v>0.106648</v>
       </c>
       <c r="C116" t="n">
-        <v>0.07536420000000001</v>
+        <v>0.076242</v>
       </c>
       <c r="D116" t="n">
-        <v>0.07676230000000001</v>
+        <v>0.0774246</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.113381</v>
+        <v>0.113488</v>
       </c>
       <c r="C117" t="n">
-        <v>0.07988720000000001</v>
+        <v>0.07985970000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0815582</v>
+        <v>0.0825679</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121165</v>
+        <v>0.119798</v>
       </c>
       <c r="C118" t="n">
-        <v>0.08489869999999999</v>
+        <v>0.08309329999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0883317</v>
+        <v>0.0884422</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.131262</v>
+        <v>0.12954</v>
       </c>
       <c r="C119" t="n">
-        <v>0.09147619999999999</v>
+        <v>0.0919707</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0960675</v>
+        <v>0.09616379999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.144264</v>
+        <v>0.144411</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0999424</v>
+        <v>0.09740989999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1044</v>
+        <v>0.104789</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.162689</v>
+        <v>0.160527</v>
       </c>
       <c r="C121" t="n">
-        <v>0.111663</v>
+        <v>0.111681</v>
       </c>
       <c r="D121" t="n">
-        <v>0.116562</v>
+        <v>0.116614</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.188654</v>
+        <v>0.188552</v>
       </c>
       <c r="C122" t="n">
-        <v>0.130297</v>
+        <v>0.130103</v>
       </c>
       <c r="D122" t="n">
-        <v>0.132921</v>
+        <v>0.134088</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.229682</v>
+        <v>0.227011</v>
       </c>
       <c r="C123" t="n">
-        <v>0.07847949999999999</v>
+        <v>0.079134</v>
       </c>
       <c r="D123" t="n">
-        <v>0.08018740000000001</v>
+        <v>0.08245710000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.10396</v>
+        <v>0.102235</v>
       </c>
       <c r="C124" t="n">
-        <v>0.084263</v>
+        <v>0.0804627</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0832334</v>
+        <v>0.0849951</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.109962</v>
+        <v>0.105282</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0835711</v>
+        <v>0.0830053</v>
       </c>
       <c r="D125" t="n">
-        <v>0.08487160000000001</v>
+        <v>0.0856904</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.108326</v>
+        <v>0.110271</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0837479</v>
+        <v>0.08472929999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0872723</v>
+        <v>0.0872516</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.113296</v>
+        <v>0.111734</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0862569</v>
+        <v>0.0876757</v>
       </c>
       <c r="D127" t="n">
-        <v>0.08894000000000001</v>
+        <v>0.08970110000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.114904</v>
+        <v>0.115144</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0884128</v>
+        <v>0.0886258</v>
       </c>
       <c r="D128" t="n">
-        <v>0.09149210000000001</v>
+        <v>0.0915103</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118683</v>
+        <v>0.116377</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0937567</v>
+        <v>0.098256</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0948437</v>
+        <v>0.09385209999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.121237</v>
+        <v>0.120924</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0909986</v>
+        <v>0.09268750000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0964221</v>
+        <v>0.09806670000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126638</v>
+        <v>0.126966</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0942105</v>
+        <v>0.093676</v>
       </c>
       <c r="D131" t="n">
-        <v>0.100287</v>
+        <v>0.0999898</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133579</v>
+        <v>0.130616</v>
       </c>
       <c r="C132" t="n">
-        <v>0.10019</v>
+        <v>0.10146</v>
       </c>
       <c r="D132" t="n">
-        <v>0.104194</v>
+        <v>0.107153</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142205</v>
+        <v>0.141543</v>
       </c>
       <c r="C133" t="n">
-        <v>0.105132</v>
+        <v>0.105359</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1119</v>
+        <v>0.11116</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.154423</v>
+        <v>0.154998</v>
       </c>
       <c r="C134" t="n">
-        <v>0.112137</v>
+        <v>0.11274</v>
       </c>
       <c r="D134" t="n">
-        <v>0.117938</v>
+        <v>0.118867</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.170581</v>
+        <v>0.171234</v>
       </c>
       <c r="C135" t="n">
-        <v>0.122036</v>
+        <v>0.120175</v>
       </c>
       <c r="D135" t="n">
-        <v>0.129697</v>
+        <v>0.12794</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.197067</v>
+        <v>0.195502</v>
       </c>
       <c r="C136" t="n">
-        <v>0.137018</v>
+        <v>0.135452</v>
       </c>
       <c r="D136" t="n">
-        <v>0.142993</v>
+        <v>0.143415</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235821</v>
+        <v>0.232283</v>
       </c>
       <c r="C137" t="n">
-        <v>0.152632</v>
+        <v>0.145574</v>
       </c>
       <c r="D137" t="n">
-        <v>0.161803</v>
+        <v>0.159774</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.162174</v>
+        <v>0.171922</v>
       </c>
       <c r="C138" t="n">
-        <v>0.155684</v>
+        <v>0.152685</v>
       </c>
       <c r="D138" t="n">
-        <v>0.163381</v>
+        <v>0.160234</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169969</v>
+        <v>0.175215</v>
       </c>
       <c r="C139" t="n">
-        <v>0.155359</v>
+        <v>0.15446</v>
       </c>
       <c r="D139" t="n">
-        <v>0.164744</v>
+        <v>0.161931</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.17074</v>
+        <v>0.171149</v>
       </c>
       <c r="C140" t="n">
-        <v>0.158079</v>
+        <v>0.157125</v>
       </c>
       <c r="D140" t="n">
-        <v>0.164756</v>
+        <v>0.163552</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.171175</v>
+        <v>0.175836</v>
       </c>
       <c r="C141" t="n">
-        <v>0.15087</v>
+        <v>0.15769</v>
       </c>
       <c r="D141" t="n">
-        <v>0.167001</v>
+        <v>0.165732</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.173102</v>
+        <v>0.179479</v>
       </c>
       <c r="C142" t="n">
-        <v>0.153207</v>
+        <v>0.152262</v>
       </c>
       <c r="D142" t="n">
-        <v>0.167679</v>
+        <v>0.16704</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.175191</v>
+        <v>0.17476</v>
       </c>
       <c r="C143" t="n">
-        <v>0.15996</v>
+        <v>0.155618</v>
       </c>
       <c r="D143" t="n">
-        <v>0.169415</v>
+        <v>0.167911</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0321682</v>
+        <v>0.0319612</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0261843</v>
+        <v>0.0261216</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0261426</v>
+        <v>0.0260453</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0337054</v>
+        <v>0.0334232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0262426</v>
+        <v>0.0261404</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0262649</v>
+        <v>0.0263215</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0356534</v>
+        <v>0.0356237</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0239239</v>
+        <v>0.0239849</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0246253</v>
+        <v>0.0247625</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0412643</v>
+        <v>0.0410005</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0244725</v>
+        <v>0.0245054</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0256398</v>
+        <v>0.0258007</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.056605</v>
+        <v>0.0561829</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0258899</v>
+        <v>0.0259539</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0286135</v>
+        <v>0.028291</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.077041</v>
+        <v>0.07665569999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0335375</v>
+        <v>0.0326032</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0373664</v>
+        <v>0.0367176</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.10741</v>
+        <v>0.107354</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0550823</v>
+        <v>0.0558344</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0549593</v>
+        <v>0.0548987</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149725</v>
+        <v>0.149545</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0256413</v>
+        <v>0.0256119</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0257976</v>
+        <v>0.0257972</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0306507</v>
+        <v>0.0305973</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0256137</v>
+        <v>0.0256337</v>
       </c>
       <c r="D10" t="n">
-        <v>0.025963</v>
+        <v>0.026097</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0313245</v>
+        <v>0.0312464</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0260025</v>
+        <v>0.0259058</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0260556</v>
+        <v>0.026081</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0314994</v>
+        <v>0.0315812</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0261506</v>
+        <v>0.0259708</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0262863</v>
+        <v>0.0263598</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0321834</v>
+        <v>0.0321916</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0260976</v>
+        <v>0.026144</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0263565</v>
+        <v>0.0262644</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0328533</v>
+        <v>0.0328218</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0262733</v>
+        <v>0.0263344</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0267153</v>
+        <v>0.0267522</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0339078</v>
+        <v>0.0338309</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0266289</v>
+        <v>0.0266033</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0268135</v>
+        <v>0.0267444</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0351319</v>
+        <v>0.0350667</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0267326</v>
+        <v>0.0269298</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0273044</v>
+        <v>0.0274637</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0373841</v>
+        <v>0.0373869</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0273468</v>
+        <v>0.0273034</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0276992</v>
+        <v>0.0275252</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0417402</v>
+        <v>0.0419092</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0276858</v>
+        <v>0.0274666</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0283409</v>
+        <v>0.0282462</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0500495</v>
+        <v>0.0498516</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0275477</v>
+        <v>0.027626</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0298833</v>
+        <v>0.0297065</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0601208</v>
+        <v>0.0601171</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0313985</v>
+        <v>0.03157</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0375027</v>
+        <v>0.0374034</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0777354</v>
+        <v>0.0777093</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0419709</v>
+        <v>0.0422969</v>
       </c>
       <c r="D21" t="n">
-        <v>0.047802</v>
+        <v>0.0474033</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100632</v>
+        <v>0.100621</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0615425</v>
+        <v>0.0615435</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06377439999999999</v>
+        <v>0.0631753</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.13938</v>
+        <v>0.139517</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0265738</v>
+        <v>0.0265528</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0267554</v>
+        <v>0.0267802</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0323308</v>
+        <v>0.0323095</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0270215</v>
+        <v>0.0269682</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0269387</v>
+        <v>0.0269109</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0329005</v>
+        <v>0.032928</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0273812</v>
+        <v>0.0273855</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0272238</v>
+        <v>0.0272217</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.033681</v>
+        <v>0.0336385</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0275797</v>
+        <v>0.0275121</v>
       </c>
       <c r="D26" t="n">
-        <v>0.027322</v>
+        <v>0.0273281</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0343842</v>
+        <v>0.0343701</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0278648</v>
+        <v>0.0278869</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0277819</v>
+        <v>0.0278704</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0351734</v>
+        <v>0.0351265</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0282141</v>
+        <v>0.0281931</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0281829</v>
+        <v>0.0281646</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0367037</v>
+        <v>0.0366721</v>
       </c>
       <c r="C29" t="n">
-        <v>0.028486</v>
+        <v>0.0284054</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0285427</v>
+        <v>0.0284777</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0387074</v>
+        <v>0.0387835</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0290734</v>
+        <v>0.0290551</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0291772</v>
+        <v>0.0289965</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0418412</v>
+        <v>0.0418358</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0296842</v>
+        <v>0.0297403</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0301384</v>
+        <v>0.0301177</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0463105</v>
+        <v>0.0463236</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0306432</v>
+        <v>0.0306561</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0314821</v>
+        <v>0.0318111</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0528266</v>
+        <v>0.0528794</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0335667</v>
+        <v>0.033362</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0353543</v>
+        <v>0.0355085</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0631972</v>
+        <v>0.063282</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0404586</v>
+        <v>0.0405488</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0423924</v>
+        <v>0.0425899</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0769862</v>
+        <v>0.0769277</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0473076</v>
+        <v>0.0473104</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0515493</v>
+        <v>0.0515329</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0975437</v>
+        <v>0.09744709999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0592512</v>
+        <v>0.0592021</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0614192</v>
+        <v>0.061169</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.130494</v>
+        <v>0.130366</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0276535</v>
+        <v>0.0277531</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0272198</v>
+        <v>0.0273443</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0332096</v>
+        <v>0.0331571</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0281028</v>
+        <v>0.0281384</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0274233</v>
+        <v>0.0274551</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0339857</v>
+        <v>0.0339095</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0284636</v>
+        <v>0.028475</v>
       </c>
       <c r="D39" t="n">
-        <v>0.027846</v>
+        <v>0.0277828</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0345941</v>
+        <v>0.0344962</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0288037</v>
+        <v>0.0288359</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0280679</v>
+        <v>0.0279157</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0354111</v>
+        <v>0.0352905</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0291911</v>
+        <v>0.0291979</v>
       </c>
       <c r="D41" t="n">
-        <v>0.028518</v>
+        <v>0.0283643</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0363313</v>
+        <v>0.036354</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0296284</v>
+        <v>0.0296737</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0291259</v>
+        <v>0.0292078</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0377664</v>
+        <v>0.0377302</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0302075</v>
+        <v>0.0301994</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0297947</v>
+        <v>0.0297296</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0398465</v>
+        <v>0.0398041</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0309282</v>
+        <v>0.0309672</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0311043</v>
+        <v>0.0310493</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0428357</v>
+        <v>0.0427445</v>
       </c>
       <c r="C45" t="n">
-        <v>0.032073</v>
+        <v>0.0321035</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0326814</v>
+        <v>0.0327248</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0470007</v>
+        <v>0.0468767</v>
       </c>
       <c r="C46" t="n">
-        <v>0.033459</v>
+        <v>0.0335114</v>
       </c>
       <c r="D46" t="n">
-        <v>0.035287</v>
+        <v>0.0352743</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0528457</v>
+        <v>0.052739</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0361604</v>
+        <v>0.0362061</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0394347</v>
+        <v>0.0394066</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0607129</v>
+        <v>0.0606214</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0407701</v>
+        <v>0.0408051</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0448693</v>
+        <v>0.0449417</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0734911</v>
+        <v>0.07344920000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0470893</v>
+        <v>0.0470552</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0516421</v>
+        <v>0.0516625</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0905518</v>
+        <v>0.09050279999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0564392</v>
+        <v>0.056415</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0606351</v>
+        <v>0.0603751</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.121183</v>
+        <v>0.121087</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0303604</v>
+        <v>0.0296852</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0293589</v>
+        <v>0.0285676</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.166403</v>
+        <v>0.166434</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0306077</v>
+        <v>0.0298371</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0295969</v>
+        <v>0.0287866</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0356915</v>
+        <v>0.0358957</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0308425</v>
+        <v>0.0301848</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0299856</v>
+        <v>0.0292273</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.036407</v>
+        <v>0.0366272</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0312099</v>
+        <v>0.0305341</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0303297</v>
+        <v>0.0296023</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.037303</v>
+        <v>0.0375081</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0316344</v>
+        <v>0.0310131</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0308407</v>
+        <v>0.0300565</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0384977</v>
+        <v>0.0387013</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0322067</v>
+        <v>0.0315477</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0314944</v>
+        <v>0.0307635</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0399488</v>
+        <v>0.040137</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0329304</v>
+        <v>0.0322761</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0324232</v>
+        <v>0.0316316</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0418501</v>
+        <v>0.0419956</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0337591</v>
+        <v>0.0331118</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0335769</v>
+        <v>0.0328236</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0443518</v>
+        <v>0.044475</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0349034</v>
+        <v>0.0343013</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0352181</v>
+        <v>0.0344704</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0478927</v>
+        <v>0.0480109</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0364195</v>
+        <v>0.0358392</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0374686</v>
+        <v>0.0366487</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0531599</v>
+        <v>0.0532697</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0386528</v>
+        <v>0.0381055</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0406075</v>
+        <v>0.0399177</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0608894</v>
+        <v>0.0609286</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0418718</v>
+        <v>0.0413766</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0436858</v>
+        <v>0.0429898</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0723583</v>
+        <v>0.0723903</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0471744</v>
+        <v>0.0467534</v>
       </c>
       <c r="D63" t="n">
-        <v>0.049527</v>
+        <v>0.04876</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08916590000000001</v>
+        <v>0.08924269999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0557262</v>
+        <v>0.0553385</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0576757</v>
+        <v>0.0571624</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.117049</v>
+        <v>0.117074</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0707386</v>
+        <v>0.0703285</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0722961</v>
+        <v>0.0722738</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.157348</v>
+        <v>0.157409</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0358058</v>
+        <v>0.0358881</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0349637</v>
+        <v>0.0344807</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.04118</v>
+        <v>0.0413186</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0362049</v>
+        <v>0.0362477</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0354137</v>
+        <v>0.0348865</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0417913</v>
+        <v>0.0421442</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0366224</v>
+        <v>0.036638</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0358458</v>
+        <v>0.0353471</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0427051</v>
+        <v>0.0430083</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0370381</v>
+        <v>0.0370322</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0364236</v>
+        <v>0.0359529</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0437486</v>
+        <v>0.0441132</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0376116</v>
+        <v>0.0376532</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0370255</v>
+        <v>0.0365041</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0450658</v>
+        <v>0.0454598</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0381705</v>
+        <v>0.0381988</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0378965</v>
+        <v>0.0373846</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0465725</v>
+        <v>0.0470172</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0390009</v>
+        <v>0.0390154</v>
       </c>
       <c r="D72" t="n">
-        <v>0.039033</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0487924</v>
+        <v>0.049262</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0399406</v>
+        <v>0.0399749</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0403885</v>
+        <v>0.0397641</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0518577</v>
+        <v>0.0523899</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0412407</v>
+        <v>0.041262</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0420203</v>
+        <v>0.0418082</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0563883</v>
+        <v>0.0568981</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0432427</v>
+        <v>0.043326</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0450066</v>
+        <v>0.0446944</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06337619999999999</v>
+        <v>0.0639469</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0460667</v>
+        <v>0.046208</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0483829</v>
+        <v>0.0477402</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0733013</v>
+        <v>0.0741038</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0508096</v>
+        <v>0.0509173</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0533133</v>
+        <v>0.05307</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.088989</v>
+        <v>0.0899271</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0579513</v>
+        <v>0.0581455</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0610593</v>
+        <v>0.0608699</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.113297</v>
+        <v>0.114391</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0708211</v>
+        <v>0.0714563</v>
       </c>
       <c r="D79" t="n">
-        <v>0.074739</v>
+        <v>0.074258</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.152579</v>
+        <v>0.15362</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0405086</v>
+        <v>0.0404514</v>
       </c>
       <c r="D80" t="n">
-        <v>0.040184</v>
+        <v>0.0400643</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0470284</v>
+        <v>0.0465426</v>
       </c>
       <c r="C81" t="n">
-        <v>0.040876</v>
+        <v>0.0408456</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0406339</v>
+        <v>0.040438</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0480927</v>
+        <v>0.047531</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0413621</v>
+        <v>0.0412947</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0410524</v>
+        <v>0.0409705</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0494906</v>
+        <v>0.0489462</v>
       </c>
       <c r="C83" t="n">
-        <v>0.041983</v>
+        <v>0.0419922</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0419143</v>
+        <v>0.0417556</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0513808</v>
+        <v>0.0510392</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0428951</v>
+        <v>0.0428873</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0427643</v>
+        <v>0.0427064</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0540426</v>
+        <v>0.0534057</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0441536</v>
+        <v>0.043912</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0441723</v>
+        <v>0.0438033</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0575353</v>
+        <v>0.0569031</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0458608</v>
+        <v>0.0454655</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0462278</v>
+        <v>0.0453575</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0618354</v>
+        <v>0.0610673</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0482841</v>
+        <v>0.0473304</v>
       </c>
       <c r="D87" t="n">
-        <v>0.048997</v>
+        <v>0.0479033</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0667996</v>
+        <v>0.0661725</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0510033</v>
+        <v>0.0498318</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0523501</v>
+        <v>0.0509549</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0737042</v>
+        <v>0.0731685</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0539847</v>
+        <v>0.0532119</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0563053</v>
+        <v>0.0555633</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0819178</v>
+        <v>0.081522</v>
       </c>
       <c r="C90" t="n">
-        <v>0.058421</v>
+        <v>0.0581602</v>
       </c>
       <c r="D90" t="n">
-        <v>0.061928</v>
+        <v>0.0612669</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0928914</v>
+        <v>0.0923054</v>
       </c>
       <c r="C91" t="n">
-        <v>0.06442150000000001</v>
+        <v>0.0640811</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0684067</v>
+        <v>0.0682986</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.107931</v>
+        <v>0.107675</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0737192</v>
+        <v>0.0734952</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0771887</v>
+        <v>0.07662620000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.13044</v>
+        <v>0.129102</v>
       </c>
       <c r="C93" t="n">
-        <v>0.08692850000000001</v>
+        <v>0.0867641</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0902082</v>
+        <v>0.08991739999999999</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.164432</v>
+        <v>0.163036</v>
       </c>
       <c r="C94" t="n">
-        <v>0.04983</v>
+        <v>0.0509007</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0499369</v>
+        <v>0.0498805</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06778720000000001</v>
+        <v>0.06683890000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0518183</v>
+        <v>0.0523455</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0523053</v>
+        <v>0.0519637</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.07021280000000001</v>
+        <v>0.0699391</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0539965</v>
+        <v>0.0542146</v>
       </c>
       <c r="D96" t="n">
-        <v>0.054529</v>
+        <v>0.0541266</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07277649999999999</v>
+        <v>0.0721299</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0559863</v>
+        <v>0.0558748</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0556936</v>
+        <v>0.0562643</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0758534</v>
+        <v>0.0749298</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0582406</v>
+        <v>0.0579155</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0576196</v>
+        <v>0.058466</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07861070000000001</v>
+        <v>0.0773828</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0591935</v>
+        <v>0.0595623</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0605641</v>
+        <v>0.0604312</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0822441</v>
+        <v>0.08215450000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0625787</v>
+        <v>0.0620063</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0634029</v>
+        <v>0.06280090000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08618629999999999</v>
+        <v>0.0846457</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0650748</v>
+        <v>0.06425839999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06546</v>
+        <v>0.06576410000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0886982</v>
+        <v>0.0902902</v>
       </c>
       <c r="C102" t="n">
-        <v>0.067596</v>
+        <v>0.06630419999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0687024</v>
+        <v>0.0681274</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09620919999999999</v>
+        <v>0.09606140000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0705839</v>
+        <v>0.07021959999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0731624</v>
+        <v>0.0722826</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.10305</v>
+        <v>0.102933</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0743877</v>
+        <v>0.0740403</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07647130000000001</v>
+        <v>0.07756109999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1149</v>
+        <v>0.113899</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0792556</v>
+        <v>0.0794605</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0842087</v>
+        <v>0.0825553</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.129267</v>
+        <v>0.128754</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0882317</v>
+        <v>0.0872985</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0922637</v>
+        <v>0.09214840000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.149795</v>
+        <v>0.149564</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0995077</v>
+        <v>0.0994574</v>
       </c>
       <c r="D107" t="n">
-        <v>0.104903</v>
+        <v>0.10445</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.179447</v>
+        <v>0.177575</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0573718</v>
+        <v>0.0588315</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0592896</v>
+        <v>0.0587326</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.225265</v>
+        <v>0.223348</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0588262</v>
+        <v>0.0602498</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0603449</v>
+        <v>0.0596044</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.07973280000000001</v>
+        <v>0.0803026</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0597393</v>
+        <v>0.0611883</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0616055</v>
+        <v>0.0611877</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0839027</v>
+        <v>0.08377329999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0633189</v>
+        <v>0.06269139999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.06349050000000001</v>
+        <v>0.0624777</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.087121</v>
+        <v>0.0868246</v>
       </c>
       <c r="C112" t="n">
-        <v>0.064752</v>
+        <v>0.0648865</v>
       </c>
       <c r="D112" t="n">
-        <v>0.06480809999999999</v>
+        <v>0.0646733</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0910996</v>
+        <v>0.0913466</v>
       </c>
       <c r="C113" t="n">
-        <v>0.067076</v>
+        <v>0.0664386</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0673503</v>
+        <v>0.06656910000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.09590509999999999</v>
+        <v>0.09553879999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0694399</v>
+        <v>0.0689573</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0697755</v>
+        <v>0.0694304</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.101037</v>
+        <v>0.100548</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0703056</v>
+        <v>0.0697561</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0732483</v>
+        <v>0.0723234</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106648</v>
+        <v>0.106519</v>
       </c>
       <c r="C116" t="n">
-        <v>0.076242</v>
+        <v>0.075521</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0774246</v>
+        <v>0.076955</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.113488</v>
+        <v>0.111586</v>
       </c>
       <c r="C117" t="n">
-        <v>0.07985970000000001</v>
+        <v>0.07948810000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0825679</v>
+        <v>0.08113579999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.119798</v>
+        <v>0.121399</v>
       </c>
       <c r="C118" t="n">
-        <v>0.08309329999999999</v>
+        <v>0.0847316</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0884422</v>
+        <v>0.0881012</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.12954</v>
+        <v>0.131234</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0919707</v>
+        <v>0.0918691</v>
       </c>
       <c r="D119" t="n">
-        <v>0.09616379999999999</v>
+        <v>0.0956964</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.144411</v>
+        <v>0.142616</v>
       </c>
       <c r="C120" t="n">
-        <v>0.09740989999999999</v>
+        <v>0.09986979999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.104789</v>
+        <v>0.104608</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.160527</v>
+        <v>0.16246</v>
       </c>
       <c r="C121" t="n">
-        <v>0.111681</v>
+        <v>0.111621</v>
       </c>
       <c r="D121" t="n">
-        <v>0.116614</v>
+        <v>0.11623</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.188552</v>
+        <v>0.188674</v>
       </c>
       <c r="C122" t="n">
-        <v>0.130103</v>
+        <v>0.130238</v>
       </c>
       <c r="D122" t="n">
-        <v>0.134088</v>
+        <v>0.134714</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.227011</v>
+        <v>0.226972</v>
       </c>
       <c r="C123" t="n">
-        <v>0.079134</v>
+        <v>0.0757139</v>
       </c>
       <c r="D123" t="n">
-        <v>0.08245710000000001</v>
+        <v>0.0857532</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.102235</v>
+        <v>0.101631</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0804627</v>
+        <v>0.0772169</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0849951</v>
+        <v>0.086354</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.105282</v>
+        <v>0.105443</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0830053</v>
+        <v>0.0822388</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0856904</v>
+        <v>0.0899606</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.110271</v>
+        <v>0.105761</v>
       </c>
       <c r="C126" t="n">
-        <v>0.08472929999999999</v>
+        <v>0.084427</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0872516</v>
+        <v>0.0906535</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111734</v>
+        <v>0.109131</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0876757</v>
+        <v>0.0869571</v>
       </c>
       <c r="D127" t="n">
-        <v>0.08970110000000001</v>
+        <v>0.0931292</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.115144</v>
+        <v>0.111243</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0886258</v>
+        <v>0.0879745</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0915103</v>
+        <v>0.0957108</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116377</v>
+        <v>0.116335</v>
       </c>
       <c r="C129" t="n">
-        <v>0.098256</v>
+        <v>0.0912814</v>
       </c>
       <c r="D129" t="n">
-        <v>0.09385209999999999</v>
+        <v>0.0978493</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.120924</v>
+        <v>0.122901</v>
       </c>
       <c r="C130" t="n">
-        <v>0.09268750000000001</v>
+        <v>0.100026</v>
       </c>
       <c r="D130" t="n">
-        <v>0.09806670000000001</v>
+        <v>0.09852950000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126966</v>
+        <v>0.124947</v>
       </c>
       <c r="C131" t="n">
-        <v>0.093676</v>
+        <v>0.0988858</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0999898</v>
+        <v>0.104344</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.130616</v>
+        <v>0.13308</v>
       </c>
       <c r="C132" t="n">
-        <v>0.10146</v>
+        <v>0.09894940000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.107153</v>
+        <v>0.108396</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.141543</v>
+        <v>0.13792</v>
       </c>
       <c r="C133" t="n">
-        <v>0.105359</v>
+        <v>0.105054</v>
       </c>
       <c r="D133" t="n">
-        <v>0.11116</v>
+        <v>0.113986</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.154998</v>
+        <v>0.152856</v>
       </c>
       <c r="C134" t="n">
-        <v>0.11274</v>
+        <v>0.111826</v>
       </c>
       <c r="D134" t="n">
-        <v>0.118867</v>
+        <v>0.121479</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.171234</v>
+        <v>0.169283</v>
       </c>
       <c r="C135" t="n">
-        <v>0.120175</v>
+        <v>0.12208</v>
       </c>
       <c r="D135" t="n">
-        <v>0.12794</v>
+        <v>0.13068</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.195502</v>
+        <v>0.190521</v>
       </c>
       <c r="C136" t="n">
-        <v>0.135452</v>
+        <v>0.13619</v>
       </c>
       <c r="D136" t="n">
-        <v>0.143415</v>
+        <v>0.147153</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232283</v>
+        <v>0.23117</v>
       </c>
       <c r="C137" t="n">
-        <v>0.145574</v>
+        <v>0.151121</v>
       </c>
       <c r="D137" t="n">
-        <v>0.159774</v>
+        <v>0.156202</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.171922</v>
+        <v>0.170135</v>
       </c>
       <c r="C138" t="n">
-        <v>0.152685</v>
+        <v>0.16173</v>
       </c>
       <c r="D138" t="n">
-        <v>0.160234</v>
+        <v>0.156843</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.175215</v>
+        <v>0.170156</v>
       </c>
       <c r="C139" t="n">
-        <v>0.15446</v>
+        <v>0.154577</v>
       </c>
       <c r="D139" t="n">
-        <v>0.161931</v>
+        <v>0.158342</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.171149</v>
+        <v>0.17375</v>
       </c>
       <c r="C140" t="n">
-        <v>0.157125</v>
+        <v>0.152067</v>
       </c>
       <c r="D140" t="n">
-        <v>0.163552</v>
+        <v>0.16016</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.175836</v>
+        <v>0.17628</v>
       </c>
       <c r="C141" t="n">
-        <v>0.15769</v>
+        <v>0.156356</v>
       </c>
       <c r="D141" t="n">
-        <v>0.165732</v>
+        <v>0.16145</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.179479</v>
+        <v>0.169593</v>
       </c>
       <c r="C142" t="n">
-        <v>0.152262</v>
+        <v>0.163348</v>
       </c>
       <c r="D142" t="n">
-        <v>0.16704</v>
+        <v>0.163074</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.17476</v>
+        <v>0.179462</v>
       </c>
       <c r="C143" t="n">
-        <v>0.155618</v>
+        <v>0.155374</v>
       </c>
       <c r="D143" t="n">
-        <v>0.167911</v>
+        <v>0.165048</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0319612</v>
+        <v>0.0324164</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0261216</v>
+        <v>0.0263569</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0260453</v>
+        <v>0.130479</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0334232</v>
+        <v>0.0349266</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0261404</v>
+        <v>0.0273028</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0263215</v>
+        <v>0.140394</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0356237</v>
+        <v>0.0349807</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0239849</v>
+        <v>0.0241694</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0247625</v>
+        <v>0.14758</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0410005</v>
+        <v>0.0392042</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0245054</v>
+        <v>0.0246218</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0258007</v>
+        <v>0.152904</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0561829</v>
+        <v>0.0482543</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0259539</v>
+        <v>0.0261762</v>
       </c>
       <c r="D6" t="n">
-        <v>0.028291</v>
+        <v>0.159677</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07665569999999999</v>
+        <v>0.07238029999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0326032</v>
+        <v>0.0339076</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0367176</v>
+        <v>0.106216</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.107354</v>
+        <v>0.104607</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0558344</v>
+        <v>0.0553766</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0548987</v>
+        <v>0.111083</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149545</v>
+        <v>0.146678</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0256119</v>
+        <v>0.0255167</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0257972</v>
+        <v>0.116077</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0305973</v>
+        <v>0.0305968</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0256337</v>
+        <v>0.0255909</v>
       </c>
       <c r="D10" t="n">
-        <v>0.026097</v>
+        <v>0.121964</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0312464</v>
+        <v>0.0308911</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0259058</v>
+        <v>0.0259144</v>
       </c>
       <c r="D11" t="n">
-        <v>0.026081</v>
+        <v>0.126126</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0315812</v>
+        <v>0.0313263</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0259708</v>
+        <v>0.0260386</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0263598</v>
+        <v>0.131793</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0321916</v>
+        <v>0.0319413</v>
       </c>
       <c r="C13" t="n">
-        <v>0.026144</v>
+        <v>0.0262322</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0262644</v>
+        <v>0.136017</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0328218</v>
+        <v>0.0324478</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0263344</v>
+        <v>0.0263673</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0267522</v>
+        <v>0.140247</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0338309</v>
+        <v>0.0341755</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0266033</v>
+        <v>0.026797</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0267444</v>
+        <v>0.144624</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0350667</v>
+        <v>0.0357091</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0269298</v>
+        <v>0.0270342</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0274637</v>
+        <v>0.149531</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0373869</v>
+        <v>0.0381181</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0273034</v>
+        <v>0.0273131</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0275252</v>
+        <v>0.15331</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0419092</v>
+        <v>0.0436737</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0274666</v>
+        <v>0.0274391</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0282462</v>
+        <v>0.158405</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0498516</v>
+        <v>0.0495708</v>
       </c>
       <c r="C19" t="n">
-        <v>0.027626</v>
+        <v>0.028273</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0297065</v>
+        <v>0.163132</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0601171</v>
+        <v>0.0598349</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03157</v>
+        <v>0.0324201</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0374034</v>
+        <v>0.167784</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0777093</v>
+        <v>0.0755</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0422969</v>
+        <v>0.0429258</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0474033</v>
+        <v>0.120227</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100621</v>
+        <v>0.102504</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0615435</v>
+        <v>0.0616625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0631753</v>
+        <v>0.124352</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.139517</v>
+        <v>0.132727</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0265528</v>
+        <v>0.0265374</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0267802</v>
+        <v>0.128653</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0323095</v>
+        <v>0.0326057</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0269682</v>
+        <v>0.0269332</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0269109</v>
+        <v>0.133615</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.032928</v>
+        <v>0.0330136</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0273855</v>
+        <v>0.0271665</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0272217</v>
+        <v>0.137964</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0336385</v>
+        <v>0.0334361</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0275121</v>
+        <v>0.0274207</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0273281</v>
+        <v>0.142156</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0343701</v>
+        <v>0.0339709</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0278869</v>
+        <v>0.027773</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0278704</v>
+        <v>0.146983</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0351265</v>
+        <v>0.0350551</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0281931</v>
+        <v>0.0281058</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0281646</v>
+        <v>0.151543</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0366721</v>
+        <v>0.0369882</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0284054</v>
+        <v>0.0286334</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0284777</v>
+        <v>0.156723</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0387835</v>
+        <v>0.0383253</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0290551</v>
+        <v>0.0290695</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0289965</v>
+        <v>0.160915</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0418358</v>
+        <v>0.0410764</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0297403</v>
+        <v>0.02985</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0301177</v>
+        <v>0.165267</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0463236</v>
+        <v>0.0472792</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0306561</v>
+        <v>0.0308471</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0318111</v>
+        <v>0.169326</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0528794</v>
+        <v>0.0525011</v>
       </c>
       <c r="C33" t="n">
-        <v>0.033362</v>
+        <v>0.0334948</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0355085</v>
+        <v>0.174534</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.063282</v>
+        <v>0.0644163</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0405488</v>
+        <v>0.0404346</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0425899</v>
+        <v>0.179083</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0769277</v>
+        <v>0.0797027</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0473104</v>
+        <v>0.0474469</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0515329</v>
+        <v>0.12668</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09744709999999999</v>
+        <v>0.09525110000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0592021</v>
+        <v>0.0593245</v>
       </c>
       <c r="D36" t="n">
-        <v>0.061169</v>
+        <v>0.131462</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.130366</v>
+        <v>0.129995</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0277531</v>
+        <v>0.0276052</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0273443</v>
+        <v>0.136136</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0331571</v>
+        <v>0.0333072</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0281384</v>
+        <v>0.0280377</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0274551</v>
+        <v>0.140939</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0339095</v>
+        <v>0.0342809</v>
       </c>
       <c r="C39" t="n">
-        <v>0.028475</v>
+        <v>0.02835</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0277828</v>
+        <v>0.146199</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0344962</v>
+        <v>0.0347791</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0288359</v>
+        <v>0.0286572</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0279157</v>
+        <v>0.15123</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0352905</v>
+        <v>0.0356705</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0291979</v>
+        <v>0.0291056</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0283643</v>
+        <v>0.155837</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.036354</v>
+        <v>0.0367975</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0296737</v>
+        <v>0.0294942</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0292078</v>
+        <v>0.160362</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0377302</v>
+        <v>0.0382554</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0301994</v>
+        <v>0.030204</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0297296</v>
+        <v>0.164949</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0398041</v>
+        <v>0.040405</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0309672</v>
+        <v>0.0307943</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0310493</v>
+        <v>0.168995</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0427445</v>
+        <v>0.0429442</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0321035</v>
+        <v>0.0318931</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0327248</v>
+        <v>0.173041</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0468767</v>
+        <v>0.0474643</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0335114</v>
+        <v>0.0334721</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0352743</v>
+        <v>0.176828</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.052739</v>
+        <v>0.0538504</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0362061</v>
+        <v>0.0359887</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0394066</v>
+        <v>0.181141</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0606214</v>
+        <v>0.0624669</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0408051</v>
+        <v>0.0405908</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0449417</v>
+        <v>0.185789</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07344920000000001</v>
+        <v>0.0738621</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0470552</v>
+        <v>0.0469607</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0516625</v>
+        <v>0.189955</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09050279999999999</v>
+        <v>0.0932694</v>
       </c>
       <c r="C50" t="n">
-        <v>0.056415</v>
+        <v>0.0563327</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0603751</v>
+        <v>0.134377</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.121087</v>
+        <v>0.12596</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0296852</v>
+        <v>0.030655</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0285676</v>
+        <v>0.139037</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.166434</v>
+        <v>0.168125</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0298371</v>
+        <v>0.0300832</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0287866</v>
+        <v>0.143836</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0358957</v>
+        <v>0.0359056</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0301848</v>
+        <v>0.0311421</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0292273</v>
+        <v>0.149104</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0366272</v>
+        <v>0.0365318</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0305341</v>
+        <v>0.0307296</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0296023</v>
+        <v>0.153848</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0375081</v>
+        <v>0.0378332</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0310131</v>
+        <v>0.0319392</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0300565</v>
+        <v>0.158767</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0387013</v>
+        <v>0.0382405</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0315477</v>
+        <v>0.03136</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0307635</v>
+        <v>0.163608</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.040137</v>
+        <v>0.0402874</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0322761</v>
+        <v>0.0322493</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0316316</v>
+        <v>0.16808</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0419956</v>
+        <v>0.041615</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0331118</v>
+        <v>0.0329038</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0328236</v>
+        <v>0.173289</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.044475</v>
+        <v>0.0452785</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0343013</v>
+        <v>0.0338462</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0344704</v>
+        <v>0.17752</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0480109</v>
+        <v>0.0473193</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0358392</v>
+        <v>0.0358253</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0366487</v>
+        <v>0.18232</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0532697</v>
+        <v>0.0522915</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0381055</v>
+        <v>0.0388369</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0399177</v>
+        <v>0.187016</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0609286</v>
+        <v>0.059937</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0413766</v>
+        <v>0.0418052</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0429898</v>
+        <v>0.192446</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0723903</v>
+        <v>0.0714114</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0467534</v>
+        <v>0.0465069</v>
       </c>
       <c r="D63" t="n">
-        <v>0.04876</v>
+        <v>0.199424</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08924269999999999</v>
+        <v>0.08876879999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0553385</v>
+        <v>0.0555471</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0571624</v>
+        <v>0.148762</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.117074</v>
+        <v>0.115947</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0703285</v>
+        <v>0.07020560000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0722738</v>
+        <v>0.155711</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.157409</v>
+        <v>0.15895</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0358881</v>
+        <v>0.035553</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0344807</v>
+        <v>0.163818</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0413186</v>
+        <v>0.0408982</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0362477</v>
+        <v>0.035742</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0348865</v>
+        <v>0.172108</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0421442</v>
+        <v>0.0414028</v>
       </c>
       <c r="C68" t="n">
-        <v>0.036638</v>
+        <v>0.0370821</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0353471</v>
+        <v>0.17986</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0430083</v>
+        <v>0.0423666</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0370322</v>
+        <v>0.0377463</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0359529</v>
+        <v>0.18849</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0441132</v>
+        <v>0.0433734</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0376532</v>
+        <v>0.0382899</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0365041</v>
+        <v>0.197182</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0454598</v>
+        <v>0.0441815</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0381988</v>
+        <v>0.03973</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0373846</v>
+        <v>0.20729</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0470172</v>
+        <v>0.0465483</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0390154</v>
+        <v>0.0396141</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0385</v>
+        <v>0.21682</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.049262</v>
+        <v>0.0486677</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0399749</v>
+        <v>0.0405712</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0397641</v>
+        <v>0.228607</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0523899</v>
+        <v>0.0519819</v>
       </c>
       <c r="C74" t="n">
-        <v>0.041262</v>
+        <v>0.0420106</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0418082</v>
+        <v>0.237498</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0568981</v>
+        <v>0.0563901</v>
       </c>
       <c r="C75" t="n">
-        <v>0.043326</v>
+        <v>0.0433548</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0446944</v>
+        <v>0.24884</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0639469</v>
+        <v>0.063335</v>
       </c>
       <c r="C76" t="n">
-        <v>0.046208</v>
+        <v>0.0464823</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0477402</v>
+        <v>0.262792</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0741038</v>
+        <v>0.0746383</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0509173</v>
+        <v>0.0511487</v>
       </c>
       <c r="D77" t="n">
-        <v>0.05307</v>
+        <v>0.277165</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0899271</v>
+        <v>0.0893716</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0581455</v>
+        <v>0.0592482</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0608699</v>
+        <v>0.235699</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.114391</v>
+        <v>0.113122</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0714563</v>
+        <v>0.07116219999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.074258</v>
+        <v>0.247339</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.15362</v>
+        <v>0.153632</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0404514</v>
+        <v>0.040309</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0400643</v>
+        <v>0.258606</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0465426</v>
+        <v>0.0466963</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0408456</v>
+        <v>0.0408552</v>
       </c>
       <c r="D81" t="n">
-        <v>0.040438</v>
+        <v>0.269545</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.047531</v>
+        <v>0.0480189</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0412947</v>
+        <v>0.0413659</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0409705</v>
+        <v>0.282759</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0489462</v>
+        <v>0.049739</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0419922</v>
+        <v>0.0417545</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0417556</v>
+        <v>0.295653</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0510392</v>
+        <v>0.0524913</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0428873</v>
+        <v>0.0426872</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0427064</v>
+        <v>0.309709</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0534057</v>
+        <v>0.0536726</v>
       </c>
       <c r="C85" t="n">
-        <v>0.043912</v>
+        <v>0.043503</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0438033</v>
+        <v>0.323297</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0569031</v>
+        <v>0.0572889</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0454655</v>
+        <v>0.0451533</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0453575</v>
+        <v>0.336847</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0610673</v>
+        <v>0.0612401</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0473304</v>
+        <v>0.0471805</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0479033</v>
+        <v>0.351193</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0661725</v>
+        <v>0.0664656</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0498318</v>
+        <v>0.0499341</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0509549</v>
+        <v>0.364207</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0731685</v>
+        <v>0.0727213</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0532119</v>
+        <v>0.0529313</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0555633</v>
+        <v>0.377595</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.081522</v>
+        <v>0.0808425</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0581602</v>
+        <v>0.057637</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0612669</v>
+        <v>0.393838</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0923054</v>
+        <v>0.0927374</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0640811</v>
+        <v>0.0640126</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0682986</v>
+        <v>0.413009</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.107675</v>
+        <v>0.108104</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0734952</v>
+        <v>0.07352450000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07662620000000001</v>
+        <v>0.333438</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.129102</v>
+        <v>0.12956</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0867641</v>
+        <v>0.08656469999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.08991739999999999</v>
+        <v>0.344586</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.163036</v>
+        <v>0.162815</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0509007</v>
+        <v>0.0505955</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0498805</v>
+        <v>0.356276</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06683890000000001</v>
+        <v>0.06711640000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0523455</v>
+        <v>0.0522627</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0519637</v>
+        <v>0.368181</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0699391</v>
+        <v>0.0695099</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0542146</v>
+        <v>0.0538775</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0541266</v>
+        <v>0.380155</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0721299</v>
+        <v>0.07252160000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0558748</v>
+        <v>0.0557361</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0562643</v>
+        <v>0.392572</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0749298</v>
+        <v>0.0753919</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0579155</v>
+        <v>0.0571059</v>
       </c>
       <c r="D98" t="n">
-        <v>0.058466</v>
+        <v>0.404888</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0773828</v>
+        <v>0.0779913</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0595623</v>
+        <v>0.0594556</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0604312</v>
+        <v>0.418246</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08215450000000001</v>
+        <v>0.0795785</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0620063</v>
+        <v>0.0618048</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06280090000000001</v>
+        <v>0.432012</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0846457</v>
+        <v>0.08538370000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.06425839999999999</v>
+        <v>0.0640515</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06576410000000001</v>
+        <v>0.446052</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0902902</v>
+        <v>0.0896781</v>
       </c>
       <c r="C102" t="n">
-        <v>0.06630419999999999</v>
+        <v>0.0669092</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0681274</v>
+        <v>0.460942</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09606140000000001</v>
+        <v>0.09587179999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.07021959999999999</v>
+        <v>0.0701779</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0722826</v>
+        <v>0.476342</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.102933</v>
+        <v>0.103275</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0740403</v>
+        <v>0.0731121</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07756109999999999</v>
+        <v>0.492877</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.113899</v>
+        <v>0.113689</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0794605</v>
+        <v>0.0793837</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0825553</v>
+        <v>0.509476</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.128754</v>
+        <v>0.128599</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0872985</v>
+        <v>0.0883115</v>
       </c>
       <c r="D106" t="n">
-        <v>0.09214840000000001</v>
+        <v>0.527215</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.149564</v>
+        <v>0.149683</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0994574</v>
+        <v>0.100176</v>
       </c>
       <c r="D107" t="n">
-        <v>0.10445</v>
+        <v>0.401602</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.177575</v>
+        <v>0.180069</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0588315</v>
+        <v>0.0588161</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0587326</v>
+        <v>0.412531</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.223348</v>
+        <v>0.224218</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0602498</v>
+        <v>0.0602911</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0596044</v>
+        <v>0.423932</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0803026</v>
+        <v>0.0796882</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0611883</v>
+        <v>0.0603254</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0611877</v>
+        <v>0.435226</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08377329999999999</v>
+        <v>0.0834404</v>
       </c>
       <c r="C111" t="n">
-        <v>0.06269139999999999</v>
+        <v>0.0608196</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0624777</v>
+        <v>0.447013</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0868246</v>
+        <v>0.0868415</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0648865</v>
+        <v>0.0645473</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0646733</v>
+        <v>0.459209</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0913466</v>
+        <v>0.09122420000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0664386</v>
+        <v>0.066819</v>
       </c>
       <c r="D113" t="n">
-        <v>0.06656910000000001</v>
+        <v>0.471615</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.09553879999999999</v>
+        <v>0.0946086</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0689573</v>
+        <v>0.0685788</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0694304</v>
+        <v>0.485117</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100548</v>
+        <v>0.101286</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0697561</v>
+        <v>0.0716789</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0723234</v>
+        <v>0.499011</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106519</v>
+        <v>0.107175</v>
       </c>
       <c r="C116" t="n">
-        <v>0.075521</v>
+        <v>0.07562099999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.076955</v>
+        <v>0.5134339999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.111586</v>
+        <v>0.113857</v>
       </c>
       <c r="C117" t="n">
-        <v>0.07948810000000001</v>
+        <v>0.0799608</v>
       </c>
       <c r="D117" t="n">
-        <v>0.08113579999999999</v>
+        <v>0.528268</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121399</v>
+        <v>0.121961</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0847316</v>
+        <v>0.0852406</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0881012</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.131234</v>
+        <v>0.132656</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0918691</v>
+        <v>0.0918788</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0956964</v>
+        <v>0.5605</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.142616</v>
+        <v>0.145169</v>
       </c>
       <c r="C120" t="n">
-        <v>0.09986979999999999</v>
+        <v>0.0998429</v>
       </c>
       <c r="D120" t="n">
-        <v>0.104608</v>
+        <v>0.578176</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.16246</v>
+        <v>0.163447</v>
       </c>
       <c r="C121" t="n">
-        <v>0.111621</v>
+        <v>0.112337</v>
       </c>
       <c r="D121" t="n">
-        <v>0.11623</v>
+        <v>0.427039</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.188674</v>
+        <v>0.189357</v>
       </c>
       <c r="C122" t="n">
-        <v>0.130238</v>
+        <v>0.130345</v>
       </c>
       <c r="D122" t="n">
-        <v>0.134714</v>
+        <v>0.441902</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.226972</v>
+        <v>0.22928</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0757139</v>
+        <v>0.0887642</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0857532</v>
+        <v>0.453665</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.101631</v>
+        <v>0.104385</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0772169</v>
+        <v>0.084663</v>
       </c>
       <c r="D124" t="n">
-        <v>0.086354</v>
+        <v>0.462036</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.105443</v>
+        <v>0.105739</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0822388</v>
+        <v>0.0804137</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0899606</v>
+        <v>0.476804</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.105761</v>
+        <v>0.108563</v>
       </c>
       <c r="C126" t="n">
-        <v>0.084427</v>
+        <v>0.0863905</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0906535</v>
+        <v>0.488719</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.109131</v>
+        <v>0.111875</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0869571</v>
+        <v>0.0843436</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0931292</v>
+        <v>0.5011100000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.111243</v>
+        <v>0.116051</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0879745</v>
+        <v>0.0881506</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0957108</v>
+        <v>0.514354</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116335</v>
+        <v>0.122377</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0912814</v>
+        <v>0.0976891</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0978493</v>
+        <v>0.527922</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122901</v>
+        <v>0.121646</v>
       </c>
       <c r="C130" t="n">
-        <v>0.100026</v>
+        <v>0.0970637</v>
       </c>
       <c r="D130" t="n">
-        <v>0.09852950000000001</v>
+        <v>0.5424909999999999</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.124947</v>
+        <v>0.129377</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0988858</v>
+        <v>0.0917845</v>
       </c>
       <c r="D131" t="n">
-        <v>0.104344</v>
+        <v>0.554432</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13308</v>
+        <v>0.134806</v>
       </c>
       <c r="C132" t="n">
-        <v>0.09894940000000001</v>
+        <v>0.102171</v>
       </c>
       <c r="D132" t="n">
-        <v>0.108396</v>
+        <v>0.573478</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.13792</v>
+        <v>0.137604</v>
       </c>
       <c r="C133" t="n">
-        <v>0.105054</v>
+        <v>0.105626</v>
       </c>
       <c r="D133" t="n">
-        <v>0.113986</v>
+        <v>0.590158</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.152856</v>
+        <v>0.154979</v>
       </c>
       <c r="C134" t="n">
-        <v>0.111826</v>
+        <v>0.113255</v>
       </c>
       <c r="D134" t="n">
-        <v>0.121479</v>
+        <v>0.606814</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.169283</v>
+        <v>0.171847</v>
       </c>
       <c r="C135" t="n">
-        <v>0.12208</v>
+        <v>0.131276</v>
       </c>
       <c r="D135" t="n">
-        <v>0.13068</v>
+        <v>0.445557</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.190521</v>
+        <v>0.189111</v>
       </c>
       <c r="C136" t="n">
-        <v>0.13619</v>
+        <v>0.14039</v>
       </c>
       <c r="D136" t="n">
-        <v>0.147153</v>
+        <v>0.456648</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.23117</v>
+        <v>0.232148</v>
       </c>
       <c r="C137" t="n">
-        <v>0.151121</v>
+        <v>0.156873</v>
       </c>
       <c r="D137" t="n">
-        <v>0.156202</v>
+        <v>0.470429</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170135</v>
+        <v>0.171758</v>
       </c>
       <c r="C138" t="n">
-        <v>0.16173</v>
+        <v>0.156679</v>
       </c>
       <c r="D138" t="n">
-        <v>0.156843</v>
+        <v>0.482185</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.170156</v>
+        <v>0.167194</v>
       </c>
       <c r="C139" t="n">
-        <v>0.154577</v>
+        <v>0.157073</v>
       </c>
       <c r="D139" t="n">
-        <v>0.158342</v>
+        <v>0.493962</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.17375</v>
+        <v>0.177288</v>
       </c>
       <c r="C140" t="n">
-        <v>0.152067</v>
+        <v>0.149605</v>
       </c>
       <c r="D140" t="n">
-        <v>0.16016</v>
+        <v>0.504317</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.17628</v>
+        <v>0.173533</v>
       </c>
       <c r="C141" t="n">
-        <v>0.156356</v>
+        <v>0.158483</v>
       </c>
       <c r="D141" t="n">
-        <v>0.16145</v>
+        <v>0.516948</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.169593</v>
+        <v>0.178696</v>
       </c>
       <c r="C142" t="n">
-        <v>0.163348</v>
+        <v>0.162089</v>
       </c>
       <c r="D142" t="n">
-        <v>0.163074</v>
+        <v>0.531834</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.179462</v>
+        <v>0.178057</v>
       </c>
       <c r="C143" t="n">
-        <v>0.155374</v>
+        <v>0.16412</v>
       </c>
       <c r="D143" t="n">
-        <v>0.165048</v>
+        <v>0.54534</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -552,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.020381</v>
+                  <v>0.0196541</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0231567</v>
+                  <v>0.022714</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0281757</v>
+                  <v>0.0280732</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0352799</v>
+                  <v>0.0383508</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.04539</v>
+                  <v>0.052548</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.06491429999999999</v>
+                  <v>0.066875</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0891632</v>
+                  <v>0.0901585</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.112722</v>
+                  <v>0.118385</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.017053</v>
+                  <v>0.0166794</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0176131</v>
+                  <v>0.017095</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.018294</v>
+                  <v>0.0175332</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.019009</v>
+                  <v>0.0179948</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0202027</v>
+                  <v>0.0186281</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0216873</v>
+                  <v>0.0208214</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0238871</v>
+                  <v>0.0229571</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0283309</v>
+                  <v>0.0261478</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0347629</v>
+                  <v>0.0314248</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0427405</v>
+                  <v>0.0425587</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0557526</v>
+                  <v>0.0519527</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0731723</v>
+                  <v>0.07000199999999999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0958377</v>
+                  <v>0.0890392</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.12115</v>
+                  <v>0.119166</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0167999</v>
+                  <v>0.0162997</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.017383</v>
+                  <v>0.0169862</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0183382</v>
+                  <v>0.0176941</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0193988</v>
+                  <v>0.0184008</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0205537</v>
+                  <v>0.0198508</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0226966</v>
+                  <v>0.0220004</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0250047</v>
+                  <v>0.0252038</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0309238</v>
+                  <v>0.029776</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0361738</v>
+                  <v>0.0355674</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0455675</v>
+                  <v>0.0445372</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0564017</v>
+                  <v>0.0557284</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0722527</v>
+                  <v>0.0722409</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.09413820000000001</v>
+                  <v>0.0937438</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.118638</v>
+                  <v>0.120898</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0174142</v>
+                  <v>0.017101</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0181997</v>
+                  <v>0.0179106</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0191908</v>
+                  <v>0.0187733</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0204403</v>
+                  <v>0.0201048</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.021836</v>
+                  <v>0.0218759</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0239224</v>
+                  <v>0.0240552</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0276839</v>
+                  <v>0.0282097</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0315092</v>
+                  <v>0.0323602</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0372217</v>
+                  <v>0.0379086</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0454352</v>
+                  <v>0.045608</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0550601</v>
+                  <v>0.056116</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0703042</v>
+                  <v>0.0707222</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0905224</v>
+                  <v>0.0919893</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.115437</v>
+                  <v>0.118674</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.1408</v>
+                  <v>0.145772</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0192387</v>
+                  <v>0.0196284</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0204627</v>
+                  <v>0.0208398</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0220737</v>
+                  <v>0.0223922</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0239349</v>
+                  <v>0.0244506</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0262923</v>
+                  <v>0.026822</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0297657</v>
+                  <v>0.0309899</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0341001</v>
+                  <v>0.0354207</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0395028</v>
+                  <v>0.0417881</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0465838</v>
+                  <v>0.0476276</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0559668</v>
+                  <v>0.0572692</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0699388</v>
+                  <v>0.0716026</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0889996</v>
+                  <v>0.0905608</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.114856</v>
+                  <v>0.116785</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.145398</v>
+                  <v>0.147933</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0196969</v>
+                  <v>0.0197012</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.02093</v>
+                  <v>0.0211376</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0224969</v>
+                  <v>0.0228213</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0245783</v>
+                  <v>0.0247479</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.027095</v>
+                  <v>0.0274354</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0303959</v>
+                  <v>0.0306606</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0348732</v>
+                  <v>0.0349113</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0401107</v>
+                  <v>0.0401967</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0469689</v>
+                  <v>0.0468474</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.056182</v>
+                  <v>0.0560401</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0692083</v>
+                  <v>0.0688926</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0876976</v>
+                  <v>0.0873152</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.112624</v>
+                  <v>0.112319</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.143056</v>
+                  <v>0.143939</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0203051</v>
+                  <v>0.0198688</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0214311</v>
+                  <v>0.0212272</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0227951</v>
+                  <v>0.0227931</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0248606</v>
+                  <v>0.0248234</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274961</v>
+                  <v>0.0274348</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0304265</v>
+                  <v>0.0304566</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.034491</v>
+                  <v>0.03421</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0392189</v>
+                  <v>0.0392722</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0454425</v>
+                  <v>0.0457853</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.054124</v>
+                  <v>0.0543613</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0660497</v>
+                  <v>0.0667861</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0833161</v>
+                  <v>0.0837842</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.107117</v>
+                  <v>0.107021</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.137068</v>
+                  <v>0.138367</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0205917</v>
+                  <v>0.0206107</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0217319</v>
+                  <v>0.021977</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0234086</v>
+                  <v>0.0236946</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0249196</v>
+                  <v>0.0252601</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0271441</v>
+                  <v>0.0278301</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0301186</v>
+                  <v>0.0304313</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.034225</v>
+                  <v>0.0347894</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0395874</v>
+                  <v>0.0397493</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.046425</v>
+                  <v>0.0462983</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0547381</v>
+                  <v>0.0543709</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0655719</v>
+                  <v>0.0656243</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0810201</v>
+                  <v>0.0814584</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.103131</v>
+                  <v>0.103239</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.132455</v>
+                  <v>0.133268</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167936</v>
+                  <v>0.169441</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0314641</v>
+                  <v>0.0309188</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0327748</v>
+                  <v>0.0323647</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0344387</v>
+                  <v>0.034075</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0359115</v>
+                  <v>0.0358327</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0384212</v>
+                  <v>0.0383382</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0411013</v>
+                  <v>0.0406737</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0443196</v>
+                  <v>0.0441246</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0490798</v>
+                  <v>0.048723</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0556472</v>
+                  <v>0.0551746</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0652692</v>
+                  <v>0.0650047</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.080124</v>
+                  <v>0.07941529999999999</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.100594</v>
+                  <v>0.100142</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128412</v>
+                  <v>0.128345</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163387</v>
+                  <v>0.16426</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0342733</v>
+                  <v>0.0340693</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0354023</v>
+                  <v>0.035891</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0369613</v>
+                  <v>0.0369158</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0386997</v>
+                  <v>0.0387195</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0406429</v>
+                  <v>0.0407176</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0434292</v>
+                  <v>0.0435753</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0467513</v>
+                  <v>0.0474413</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0511822</v>
+                  <v>0.0518101</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0585649</v>
+                  <v>0.0586713</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0673728</v>
+                  <v>0.06794360000000001</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.08104450000000001</v>
+                  <v>0.0817268</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101034</v>
+                  <v>0.101445</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.128826</v>
+                  <v>0.129425</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.16274</v>
+                  <v>0.163873</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0471946</v>
+                  <v>0.0473433</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0480173</v>
+                  <v>0.0531312</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0491618</v>
+                  <v>0.058706</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0504992</v>
+                  <v>0.0582968</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0529453</v>
+                  <v>0.0553286</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0554429</v>
+                  <v>0.0675741</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1446,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0243821</v>
+                  <v>0.0236953</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0263419</v>
+                  <v>0.0249792</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.03189</v>
+                  <v>0.0258301</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0372784</v>
+                  <v>0.027365</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0515556</v>
+                  <v>0.0285038</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.06764829999999999</v>
+                  <v>0.0328798</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.08149480000000001</v>
+                  <v>0.0393672</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.129222</v>
+                  <v>0.0204906</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0208127</v>
+                  <v>0.0206485</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0213278</v>
+                  <v>0.0211179</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0218828</v>
+                  <v>0.0213</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.02263</v>
+                  <v>0.0216018</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0232512</v>
+                  <v>0.0219038</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0241428</v>
+                  <v>0.0225654</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0268695</v>
+                  <v>0.0230834</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0288871</v>
+                  <v>0.0241669</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0328262</v>
+                  <v>0.0251919</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0390993</v>
+                  <v>0.0266921</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0470423</v>
+                  <v>0.028982</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0633778</v>
+                  <v>0.0333148</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.088602</v>
+                  <v>0.041356</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.13405</v>
+                  <v>0.0202092</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0214978</v>
+                  <v>0.0206159</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0219645</v>
+                  <v>0.0208339</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0227306</v>
+                  <v>0.0210765</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0236983</v>
+                  <v>0.0214492</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0246423</v>
+                  <v>0.0218967</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.025917</v>
+                  <v>0.0226372</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0281203</v>
+                  <v>0.023422</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0305191</v>
+                  <v>0.0242916</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351044</v>
+                  <v>0.0254245</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0407874</v>
+                  <v>0.0274613</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0501899</v>
+                  <v>0.030458</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.06329070000000001</v>
+                  <v>0.0342121</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0883089</v>
+                  <v>0.040763</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.125523</v>
+                  <v>0.0210932</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0226441</v>
+                  <v>0.0214487</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0231278</v>
+                  <v>0.0217322</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0239266</v>
+                  <v>0.0220884</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.024755</v>
+                  <v>0.0225227</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0260181</v>
+                  <v>0.022985</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0274856</v>
+                  <v>0.0235789</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0292543</v>
+                  <v>0.0242082</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0326774</v>
+                  <v>0.0251386</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0370439</v>
+                  <v>0.026316</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0430271</v>
+                  <v>0.0281349</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0514098</v>
+                  <v>0.0309591</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0649906</v>
+                  <v>0.0351441</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0841389</v>
+                  <v>0.0422416</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117343</v>
+                  <v>0.0221848</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.163332</v>
+                  <v>0.0226422</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0241041</v>
+                  <v>0.0230127</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0248142</v>
+                  <v>0.0233388</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0258859</v>
+                  <v>0.0237292</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0269065</v>
+                  <v>0.0243318</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0285555</v>
+                  <v>0.0249093</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0308138</v>
+                  <v>0.0260608</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0334128</v>
+                  <v>0.0270795</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0373409</v>
+                  <v>0.0277862</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.043244</v>
+                  <v>0.0291051</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0514921</v>
+                  <v>0.0317252</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0631197</v>
+                  <v>0.0360878</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.08064549999999999</v>
+                  <v>0.0429958</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.111224</v>
+                  <v>0.0551095</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.156782</v>
+                  <v>0.0226031</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0246273</v>
+                  <v>0.0229372</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0254874</v>
+                  <v>0.0232973</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.026515</v>
+                  <v>0.023692</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0276786</v>
+                  <v>0.0242143</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0291119</v>
+                  <v>0.0247678</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0311576</v>
+                  <v>0.0255057</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0339469</v>
+                  <v>0.0263971</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0377205</v>
+                  <v>0.0276756</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0430427</v>
+                  <v>0.0295323</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0505867</v>
+                  <v>0.0321746</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0612508</v>
+                  <v>0.0363344</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0763192</v>
+                  <v>0.0425489</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.101765</v>
+                  <v>0.0534234</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.144347</v>
+                  <v>0.0228514</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0253488</v>
+                  <v>0.0231978</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.026265</v>
+                  <v>0.0235633</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0271908</v>
+                  <v>0.0239172</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0284288</v>
+                  <v>0.0244035</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.03001</v>
+                  <v>0.025024</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0319039</v>
+                  <v>0.0259339</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0343672</v>
+                  <v>0.0269228</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0378547</v>
+                  <v>0.0282665</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0426376</v>
+                  <v>0.0299743</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0498571</v>
+                  <v>0.0325068</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.059631</v>
+                  <v>0.03601</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0742997</v>
+                  <v>0.0416961</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0979019</v>
+                  <v>0.0509443</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.137136</v>
+                  <v>0.0243696</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0270102</v>
+                  <v>0.0248253</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0282021</v>
+                  <v>0.0253215</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0301873</v>
+                  <v>0.0259145</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0330636</v>
+                  <v>0.0267649</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0367725</v>
+                  <v>0.0281154</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0404956</v>
+                  <v>0.0301922</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0438179</v>
+                  <v>0.0330066</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0472354</v>
+                  <v>0.0364155</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0509235</v>
+                  <v>0.0397311</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0560138</v>
+                  <v>0.0428055</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.06314790000000001</v>
+                  <v>0.0463608</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.07436619999999999</v>
+                  <v>0.0508278</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0937021</v>
+                  <v>0.0575807</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.129268</v>
+                  <v>0.0361449</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.180556</v>
+                  <v>0.0368822</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0432623</v>
+                  <v>0.0379133</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0443061</v>
+                  <v>0.0388181</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0453678</v>
+                  <v>0.0396854</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0466564</v>
+                  <v>0.0406322</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0481</v>
+                  <v>0.0416831</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0498885</v>
+                  <v>0.0427634</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0522653</v>
+                  <v>0.0439657</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0552329</v>
+                  <v>0.0456052</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0592122</v>
+                  <v>0.0476259</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0652914</v>
+                  <v>0.0501364</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0749547</v>
+                  <v>0.0541071</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.09116730000000001</v>
+                  <v>0.0600156</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.12157</v>
+                  <v>0.0702492</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.169666</v>
+                  <v>0.0426162</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0485409</v>
+                  <v>0.0433137</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0498932</v>
+                  <v>0.0441334</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0510164</v>
+                  <v>0.0448138</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0521044</v>
+                  <v>0.0457069</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0539084</v>
+                  <v>0.0468309</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0557247</v>
+                  <v>0.047681</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0579581</v>
+                  <v>0.0488768</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0612119</v>
+                  <v>0.0504662</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0655746</v>
+                  <v>0.0524585</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.07118579999999999</v>
+                  <v>0.0553225</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0805454</v>
+                  <v>0.0590454</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0955641</v>
+                  <v>0.0649672</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.122167</v>
+                  <v>0.07502730000000001</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.166136</v>
+                  <v>0.0609618</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0632577</v>
+                  <v>0.0606272</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0643639</v>
+                  <v>0.0716113</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0654462</v>
+                  <v>0.0740532</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0668815</v>
+                  <v>0.075507</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0683774</v>
+                  <v>0.0709659</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.07045510000000001</v>
+                  <v>0.0822119</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1880,7 +1880,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <v>boost::unordered_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0213141</v>
+                  <v>0.0628543</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0220012</v>
+                  <v>0.0664814</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0228637</v>
+                  <v>0.07155309999999999</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0244676</v>
+                  <v>0.0787023</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0259604</v>
+                  <v>0.0762729</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.028658</v>
+                  <v>0.0596881</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0371282</v>
+                  <v>0.0581592</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0186849</v>
+                  <v>0.0642033</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0189948</v>
+                  <v>0.066584</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0192948</v>
+                  <v>0.07067469999999999</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198101</v>
+                  <v>0.07539460000000001</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0200323</v>
+                  <v>0.0776222</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0205084</v>
+                  <v>0.08080030000000001</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0207002</v>
+                  <v>0.08254499999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0214276</v>
+                  <v>0.0868236</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022011</v>
+                  <v>0.0901443</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0230028</v>
+                  <v>0.09041780000000001</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0242253</v>
+                  <v>0.09432</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0262024</v>
+                  <v>0.0970657</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.030044</v>
+                  <v>0.0672951</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0370516</v>
+                  <v>0.0716408</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0188867</v>
+                  <v>0.0714137</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0192237</v>
+                  <v>0.0762883</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0194425</v>
+                  <v>0.0788282</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0197946</v>
+                  <v>0.0817253</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0201342</v>
+                  <v>0.0845086</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0205266</v>
+                  <v>0.0872682</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.020959</v>
+                  <v>0.0900213</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214844</v>
+                  <v>0.0922123</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0223231</v>
+                  <v>0.0951592</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0233566</v>
+                  <v>0.0965795</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0248748</v>
+                  <v>0.0983135</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0269432</v>
+                  <v>0.101668</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0307678</v>
+                  <v>0.06976019999999999</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0381048</v>
+                  <v>0.0732333</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.019505</v>
+                  <v>0.07563</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0197378</v>
+                  <v>0.07849739999999999</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0199753</v>
+                  <v>0.082784</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0202695</v>
+                  <v>0.08502469999999999</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0205809</v>
+                  <v>0.0879409</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0210132</v>
+                  <v>0.091546</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0215764</v>
+                  <v>0.0944207</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0222081</v>
+                  <v>0.0970037</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0231524</v>
+                  <v>0.0991208</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0243994</v>
+                  <v>0.101009</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0261699</v>
+                  <v>0.103707</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0288567</v>
+                  <v>0.105854</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0324993</v>
+                  <v>0.108622</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0388699</v>
+                  <v>0.07991180000000001</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0203994</v>
+                  <v>0.0852565</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0206304</v>
+                  <v>0.09070300000000001</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.020899</v>
+                  <v>0.100166</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0212713</v>
+                  <v>0.104121</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0215734</v>
+                  <v>0.110505</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0220027</v>
+                  <v>0.118017</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0224713</v>
+                  <v>0.134799</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0232356</v>
+                  <v>0.150714</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0241598</v>
+                  <v>0.149598</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0252935</v>
+                  <v>0.106064</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0270674</v>
+                  <v>0.110453</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0297328</v>
+                  <v>0.112451</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0338401</v>
+                  <v>0.114784</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0404851</v>
+                  <v>0.0808511</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0515575</v>
+                  <v>0.0851362</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.020937</v>
+                  <v>0.0905902</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0212617</v>
+                  <v>0.0957775</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0215815</v>
+                  <v>0.09995809999999999</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0219942</v>
+                  <v>0.105452</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0224339</v>
+                  <v>0.110664</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0229822</v>
+                  <v>0.115302</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0236686</v>
+                  <v>0.119763</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0245813</v>
+                  <v>0.125554</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0258009</v>
+                  <v>0.130129</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0276711</v>
+                  <v>0.134996</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0301418</v>
+                  <v>0.141567</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0339599</v>
+                  <v>0.147833</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.039757</v>
+                  <v>0.113894</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0495474</v>
+                  <v>0.121926</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.021192</v>
+                  <v>0.12561</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0215353</v>
+                  <v>0.134696</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0219745</v>
+                  <v>0.13899</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0224512</v>
+                  <v>0.149483</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0229726</v>
+                  <v>0.154065</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0236312</v>
+                  <v>0.163029</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0244723</v>
+                  <v>0.167705</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0253764</v>
+                  <v>0.178539</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0267266</v>
+                  <v>0.186083</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.02845</v>
+                  <v>0.189656</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0307713</v>
+                  <v>0.197145</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0342051</v>
+                  <v>0.214136</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.039387</v>
+                  <v>0.155917</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0481448</v>
+                  <v>0.163239</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0230461</v>
+                  <v>0.170659</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0235885</v>
+                  <v>0.176032</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0240683</v>
+                  <v>0.180564</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0245612</v>
+                  <v>0.187866</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0254625</v>
+                  <v>0.197686</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0269155</v>
+                  <v>0.205106</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0289929</v>
+                  <v>0.213378</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0319022</v>
+                  <v>0.22001</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0353162</v>
+                  <v>0.227646</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0382454</v>
+                  <v>0.235713</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0414212</v>
+                  <v>0.243297</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0448928</v>
+                  <v>0.252123</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0491213</v>
+                  <v>0.261676</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0556722</v>
+                  <v>0.190199</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0349946</v>
+                  <v>0.197145</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.036062</v>
+                  <v>0.204605</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0370126</v>
+                  <v>0.21028</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0378882</v>
+                  <v>0.217256</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0386232</v>
+                  <v>0.224583</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.039608</v>
+                  <v>0.233435</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0405332</v>
+                  <v>0.241083</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0416032</v>
+                  <v>0.248226</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0429799</v>
+                  <v>0.256309</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.044442</v>
+                  <v>0.263815</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0464735</v>
+                  <v>0.272729</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0490779</v>
+                  <v>0.281114</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0526027</v>
+                  <v>0.29099</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0585157</v>
+                  <v>0.206413</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0682112</v>
+                  <v>0.211988</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0416503</v>
+                  <v>0.218375</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0422691</v>
+                  <v>0.225371</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0430552</v>
+                  <v>0.233023</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.04371</v>
+                  <v>0.239145</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0446326</v>
+                  <v>0.246948</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.045744</v>
+                  <v>0.254198</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0464876</v>
+                  <v>0.261944</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0480236</v>
+                  <v>0.270874</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0497905</v>
+                  <v>0.277744</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0515751</v>
+                  <v>0.285401</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0541836</v>
+                  <v>0.294939</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0578235</v>
+                  <v>0.304154</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.06359289999999999</v>
+                  <v>0.212796</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.07301820000000001</v>
+                  <v>0.219404</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0587163</v>
+                  <v>0.226867</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0595507</v>
+                  <v>0.233183</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0603892</v>
+                  <v>0.258776</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0609068</v>
+                  <v>0.2671</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0617944</v>
+                  <v>0.259936</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0626568</v>
+                  <v>0.270609</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0637523</v>
+                  <v>0.281995</v>
                 </pt>
               </numCache>
             </numRef>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0319612</v>
+        <v>0.0319077</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0261216</v>
+        <v>0.0261762</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0260453</v>
+        <v>0.0263871</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0334232</v>
+        <v>0.0334599</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0261404</v>
+        <v>0.0260637</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0263215</v>
+        <v>0.026335</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0356237</v>
+        <v>0.0355151</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0239849</v>
+        <v>0.0238484</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0247625</v>
+        <v>0.0242576</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0410005</v>
+        <v>0.0410868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0245054</v>
+        <v>0.0245434</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0258007</v>
+        <v>0.0247738</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0561829</v>
+        <v>0.056713</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0259539</v>
+        <v>0.025841</v>
       </c>
       <c r="D6" t="n">
-        <v>0.028291</v>
+        <v>0.0269859</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07665569999999999</v>
+        <v>0.0763735</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0326032</v>
+        <v>0.0334828</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0367176</v>
+        <v>0.0357032</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.107354</v>
+        <v>0.107108</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0558344</v>
+        <v>0.0549087</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0548987</v>
+        <v>0.0573524</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149545</v>
+        <v>0.149714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0256119</v>
+        <v>0.0255817</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0257972</v>
+        <v>0.0256222</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0305973</v>
+        <v>0.0308092</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0256337</v>
+        <v>0.0256813</v>
       </c>
       <c r="D10" t="n">
-        <v>0.026097</v>
+        <v>0.0257324</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0312464</v>
+        <v>0.0313331</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0259058</v>
+        <v>0.0259598</v>
       </c>
       <c r="D11" t="n">
-        <v>0.026081</v>
+        <v>0.0259725</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0315812</v>
+        <v>0.0316271</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0259708</v>
+        <v>0.0261581</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0263598</v>
+        <v>0.0259914</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0321916</v>
+        <v>0.0322866</v>
       </c>
       <c r="C13" t="n">
-        <v>0.026144</v>
+        <v>0.0263012</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0262644</v>
+        <v>0.0263796</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0328218</v>
+        <v>0.0330283</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0263344</v>
+        <v>0.0264192</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0267522</v>
+        <v>0.0264616</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0338309</v>
+        <v>0.033899</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0266033</v>
+        <v>0.0266837</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0267444</v>
+        <v>0.0265795</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0350667</v>
+        <v>0.0352697</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0269298</v>
+        <v>0.0270853</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0274637</v>
+        <v>0.0268797</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0373869</v>
+        <v>0.0375379</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0273034</v>
+        <v>0.0274645</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0275252</v>
+        <v>0.0273171</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0419092</v>
+        <v>0.0417086</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0274666</v>
+        <v>0.0276141</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0282462</v>
+        <v>0.0276903</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0498516</v>
+        <v>0.0494563</v>
       </c>
       <c r="C19" t="n">
-        <v>0.027626</v>
+        <v>0.0276136</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0297065</v>
+        <v>0.0280655</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0601171</v>
+        <v>0.0601495</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03157</v>
+        <v>0.031294</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0374034</v>
+        <v>0.0326968</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0777093</v>
+        <v>0.0777094</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0422969</v>
+        <v>0.0420704</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0474033</v>
+        <v>0.0432519</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100621</v>
+        <v>0.100551</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0615435</v>
+        <v>0.0617028</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0631753</v>
+        <v>0.0622624</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.139517</v>
+        <v>0.139262</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0265528</v>
+        <v>0.0265617</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0267802</v>
+        <v>0.0265266</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0323095</v>
+        <v>0.0321425</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0269682</v>
+        <v>0.027008</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0269109</v>
+        <v>0.0271054</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.032928</v>
+        <v>0.0328685</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0273855</v>
+        <v>0.0274592</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0272217</v>
+        <v>0.0272274</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0336385</v>
+        <v>0.0336871</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0275121</v>
+        <v>0.0276318</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0273281</v>
+        <v>0.0275295</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0343701</v>
+        <v>0.03435</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0278869</v>
+        <v>0.0279198</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0278704</v>
+        <v>0.0277578</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0351265</v>
+        <v>0.0351453</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0281931</v>
+        <v>0.0282558</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0281646</v>
+        <v>0.0281334</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0366721</v>
+        <v>0.0366683</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0284054</v>
+        <v>0.0285142</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0284777</v>
+        <v>0.02838</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0387835</v>
+        <v>0.0387064</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0290551</v>
+        <v>0.0292256</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0289965</v>
+        <v>0.0289594</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0418358</v>
+        <v>0.0419044</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0297403</v>
+        <v>0.029796</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0301177</v>
+        <v>0.0297211</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0463236</v>
+        <v>0.0463358</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0306561</v>
+        <v>0.0307463</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0318111</v>
+        <v>0.0302917</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0528794</v>
+        <v>0.0528331</v>
       </c>
       <c r="C33" t="n">
-        <v>0.033362</v>
+        <v>0.0332938</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0355085</v>
+        <v>0.0333364</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.063282</v>
+        <v>0.0633012</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0405488</v>
+        <v>0.0404934</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0425899</v>
+        <v>0.0404123</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0769277</v>
+        <v>0.07700650000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0473104</v>
+        <v>0.0472856</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0515329</v>
+        <v>0.04743</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09744709999999999</v>
+        <v>0.0975487</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0592021</v>
+        <v>0.0592057</v>
       </c>
       <c r="D36" t="n">
-        <v>0.061169</v>
+        <v>0.059399</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.130366</v>
+        <v>0.130446</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0277531</v>
+        <v>0.0277951</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0273443</v>
+        <v>0.0277822</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0331571</v>
+        <v>0.0334482</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0281384</v>
+        <v>0.0281215</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0274551</v>
+        <v>0.02811</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0339095</v>
+        <v>0.0339856</v>
       </c>
       <c r="C39" t="n">
-        <v>0.028475</v>
+        <v>0.0284893</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0277828</v>
+        <v>0.0284147</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0344962</v>
+        <v>0.0346352</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0288359</v>
+        <v>0.0288905</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0279157</v>
+        <v>0.0287392</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0352905</v>
+        <v>0.0354693</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0291979</v>
+        <v>0.0292513</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0283643</v>
+        <v>0.0291338</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.036354</v>
+        <v>0.0364766</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0296737</v>
+        <v>0.0297213</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0292078</v>
+        <v>0.0294739</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0377302</v>
+        <v>0.0378381</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0301994</v>
+        <v>0.0302296</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0297296</v>
+        <v>0.0300323</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0398041</v>
+        <v>0.0399479</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0309672</v>
+        <v>0.0308899</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0310493</v>
+        <v>0.0308115</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0427445</v>
+        <v>0.0429133</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0321035</v>
+        <v>0.0320832</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0327248</v>
+        <v>0.0320072</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0468767</v>
+        <v>0.0470502</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0335114</v>
+        <v>0.0335851</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0352743</v>
+        <v>0.0335644</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.052739</v>
+        <v>0.052892</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0362061</v>
+        <v>0.0362467</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0394066</v>
+        <v>0.0360595</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0606214</v>
+        <v>0.0607623</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0408051</v>
+        <v>0.040826</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0449417</v>
+        <v>0.0406796</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07344920000000001</v>
+        <v>0.0735476</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0470552</v>
+        <v>0.0471056</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0516625</v>
+        <v>0.0469941</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09050279999999999</v>
+        <v>0.0905996</v>
       </c>
       <c r="C50" t="n">
-        <v>0.056415</v>
+        <v>0.0563908</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0603751</v>
+        <v>0.0564805</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.121087</v>
+        <v>0.12106</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0296852</v>
+        <v>0.0308283</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0285676</v>
+        <v>0.0301679</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.166434</v>
+        <v>0.166499</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0298371</v>
+        <v>0.0307952</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0287866</v>
+        <v>0.0302973</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0358957</v>
+        <v>0.0356136</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0301848</v>
+        <v>0.0310755</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0292273</v>
+        <v>0.0307326</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0366272</v>
+        <v>0.0362782</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0305341</v>
+        <v>0.0314753</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0296023</v>
+        <v>0.0311004</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0375081</v>
+        <v>0.0372213</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0310131</v>
+        <v>0.0319142</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0300565</v>
+        <v>0.0314762</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0387013</v>
+        <v>0.0384189</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0315477</v>
+        <v>0.0324359</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0307635</v>
+        <v>0.0320422</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.040137</v>
+        <v>0.0398861</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0322761</v>
+        <v>0.0331044</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0316316</v>
+        <v>0.0327189</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0419956</v>
+        <v>0.041794</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0331118</v>
+        <v>0.0339251</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0328236</v>
+        <v>0.0334427</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.044475</v>
+        <v>0.0443385</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0343013</v>
+        <v>0.0350748</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0344704</v>
+        <v>0.0347379</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0480109</v>
+        <v>0.0479186</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0358392</v>
+        <v>0.0365711</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0366487</v>
+        <v>0.0360321</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0532697</v>
+        <v>0.0532704</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0381055</v>
+        <v>0.0387702</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0399177</v>
+        <v>0.0384681</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0609286</v>
+        <v>0.0609663</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0413766</v>
+        <v>0.0419654</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0429898</v>
+        <v>0.041713</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0723903</v>
+        <v>0.0723922</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0467534</v>
+        <v>0.0472663</v>
       </c>
       <c r="D63" t="n">
-        <v>0.04876</v>
+        <v>0.0468793</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08924269999999999</v>
+        <v>0.08922330000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0553385</v>
+        <v>0.0557211</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0571624</v>
+        <v>0.0557353</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.117074</v>
+        <v>0.117034</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0703285</v>
+        <v>0.0706821</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0722738</v>
+        <v>0.0708232</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.157409</v>
+        <v>0.157442</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0358881</v>
+        <v>0.0361914</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0344807</v>
+        <v>0.0361082</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0413186</v>
+        <v>0.0412113</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0362477</v>
+        <v>0.0365719</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0348865</v>
+        <v>0.036504</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0421442</v>
+        <v>0.0419969</v>
       </c>
       <c r="C68" t="n">
-        <v>0.036638</v>
+        <v>0.0369667</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0353471</v>
+        <v>0.0369267</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0430083</v>
+        <v>0.0428373</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0370322</v>
+        <v>0.0374062</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0359529</v>
+        <v>0.0373044</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0441132</v>
+        <v>0.0439429</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0376532</v>
+        <v>0.0379535</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0365041</v>
+        <v>0.0379268</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0454598</v>
+        <v>0.0451806</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0381988</v>
+        <v>0.0385383</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0373846</v>
+        <v>0.0384798</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0470172</v>
+        <v>0.0467872</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0390154</v>
+        <v>0.0393169</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0385</v>
+        <v>0.039212</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.049262</v>
+        <v>0.0490531</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0399749</v>
+        <v>0.0402562</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0397641</v>
+        <v>0.0401224</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0523899</v>
+        <v>0.0522172</v>
       </c>
       <c r="C74" t="n">
-        <v>0.041262</v>
+        <v>0.0415423</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0418082</v>
+        <v>0.0414072</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0568981</v>
+        <v>0.056781</v>
       </c>
       <c r="C75" t="n">
-        <v>0.043326</v>
+        <v>0.0435606</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0446944</v>
+        <v>0.0432992</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0639469</v>
+        <v>0.0637191</v>
       </c>
       <c r="C76" t="n">
-        <v>0.046208</v>
+        <v>0.0464102</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0477402</v>
+        <v>0.0462486</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0741038</v>
+        <v>0.07379719999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0509173</v>
+        <v>0.0512247</v>
       </c>
       <c r="D77" t="n">
-        <v>0.05307</v>
+        <v>0.0510609</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0899271</v>
+        <v>0.0898123</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0581455</v>
+        <v>0.058511</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0608699</v>
+        <v>0.0584979</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.114391</v>
+        <v>0.114156</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0714563</v>
+        <v>0.0714545</v>
       </c>
       <c r="D79" t="n">
-        <v>0.074258</v>
+        <v>0.0717073</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.15362</v>
+        <v>0.153157</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0404514</v>
+        <v>0.0403286</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0400643</v>
+        <v>0.0406752</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0465426</v>
+        <v>0.0472168</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0408456</v>
+        <v>0.0407836</v>
       </c>
       <c r="D81" t="n">
-        <v>0.040438</v>
+        <v>0.0411844</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.047531</v>
+        <v>0.0484293</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0412947</v>
+        <v>0.0413</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0409705</v>
+        <v>0.0417377</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0489462</v>
+        <v>0.0497279</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0419922</v>
+        <v>0.0419624</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0417556</v>
+        <v>0.0424212</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0510392</v>
+        <v>0.0518808</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0428873</v>
+        <v>0.0428165</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0427064</v>
+        <v>0.043312</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0534057</v>
+        <v>0.0543713</v>
       </c>
       <c r="C85" t="n">
-        <v>0.043912</v>
+        <v>0.0438361</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0438033</v>
+        <v>0.0444607</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0569031</v>
+        <v>0.0578488</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0454655</v>
+        <v>0.0454893</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0453575</v>
+        <v>0.0461404</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0610673</v>
+        <v>0.0617393</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0473304</v>
+        <v>0.0474595</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0479033</v>
+        <v>0.0481579</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0661725</v>
+        <v>0.0665718</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0498318</v>
+        <v>0.0500138</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0509549</v>
+        <v>0.0506733</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0731685</v>
+        <v>0.0733369</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0532119</v>
+        <v>0.0528716</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0555633</v>
+        <v>0.0537713</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.081522</v>
+        <v>0.0817982</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0581602</v>
+        <v>0.0575206</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0612669</v>
+        <v>0.0582731</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0923054</v>
+        <v>0.0929822</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0640811</v>
+        <v>0.06388480000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0682986</v>
+        <v>0.0643614</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.107675</v>
+        <v>0.108183</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0734952</v>
+        <v>0.0731031</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07662620000000001</v>
+        <v>0.0736933</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.129102</v>
+        <v>0.129859</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0867641</v>
+        <v>0.08623309999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.08991739999999999</v>
+        <v>0.0877139</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.163036</v>
+        <v>0.163645</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0509007</v>
+        <v>0.0504208</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0498805</v>
+        <v>0.0499184</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06683890000000001</v>
+        <v>0.06610679999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0523455</v>
+        <v>0.0519064</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0519637</v>
+        <v>0.0525222</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0699391</v>
+        <v>0.0697479</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0542146</v>
+        <v>0.0538879</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0541266</v>
+        <v>0.0545601</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0721299</v>
+        <v>0.0723063</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0558748</v>
+        <v>0.0561259</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0562643</v>
+        <v>0.0563017</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0749298</v>
+        <v>0.0754292</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0579155</v>
+        <v>0.0576525</v>
       </c>
       <c r="D98" t="n">
-        <v>0.058466</v>
+        <v>0.0582122</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0773828</v>
+        <v>0.0782682</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0595623</v>
+        <v>0.0587043</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0604312</v>
+        <v>0.060192</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08215450000000001</v>
+        <v>0.0804658</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0620063</v>
+        <v>0.0612675</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06280090000000001</v>
+        <v>0.0624279</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0846457</v>
+        <v>0.0853397</v>
       </c>
       <c r="C101" t="n">
-        <v>0.06425839999999999</v>
+        <v>0.06425690000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06576410000000001</v>
+        <v>0.06263920000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0902902</v>
+        <v>0.0895939</v>
       </c>
       <c r="C102" t="n">
-        <v>0.06630419999999999</v>
+        <v>0.0657027</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0681274</v>
+        <v>0.0666421</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09606140000000001</v>
+        <v>0.0953381</v>
       </c>
       <c r="C103" t="n">
-        <v>0.07021959999999999</v>
+        <v>0.0695858</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0722826</v>
+        <v>0.0693323</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.102933</v>
+        <v>0.102822</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0740403</v>
+        <v>0.0725529</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07756109999999999</v>
+        <v>0.07224129999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.113899</v>
+        <v>0.113582</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0794605</v>
+        <v>0.0777759</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0825553</v>
+        <v>0.0791717</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.128754</v>
+        <v>0.128475</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0872985</v>
+        <v>0.0868819</v>
       </c>
       <c r="D106" t="n">
-        <v>0.09214840000000001</v>
+        <v>0.0864931</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.149564</v>
+        <v>0.147666</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0994574</v>
+        <v>0.0984064</v>
       </c>
       <c r="D107" t="n">
-        <v>0.10445</v>
+        <v>0.09915160000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.177575</v>
+        <v>0.179553</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0588315</v>
+        <v>0.0569622</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0587326</v>
+        <v>0.0593291</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.223348</v>
+        <v>0.225258</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0602498</v>
+        <v>0.0596568</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0596044</v>
+        <v>0.0604947</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0803026</v>
+        <v>0.0809164</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0611883</v>
+        <v>0.059432</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0611877</v>
+        <v>0.0615816</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08377329999999999</v>
+        <v>0.0840732</v>
       </c>
       <c r="C111" t="n">
-        <v>0.06269139999999999</v>
+        <v>0.0622215</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0624777</v>
+        <v>0.0627127</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0868246</v>
+        <v>0.0860091</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0648865</v>
+        <v>0.0643721</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0646733</v>
+        <v>0.0647335</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0913466</v>
+        <v>0.09129</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0664386</v>
+        <v>0.0647558</v>
       </c>
       <c r="D113" t="n">
-        <v>0.06656910000000001</v>
+        <v>0.0664198</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.09553879999999999</v>
+        <v>0.0954885</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0689573</v>
+        <v>0.0688568</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0694304</v>
+        <v>0.0687185</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100548</v>
+        <v>0.100582</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0697561</v>
+        <v>0.071612</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0723234</v>
+        <v>0.0717986</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106519</v>
+        <v>0.10658</v>
       </c>
       <c r="C116" t="n">
-        <v>0.075521</v>
+        <v>0.0734059</v>
       </c>
       <c r="D116" t="n">
-        <v>0.076955</v>
+        <v>0.0750073</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.111586</v>
+        <v>0.111744</v>
       </c>
       <c r="C117" t="n">
-        <v>0.07948810000000001</v>
+        <v>0.07703459999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.08113579999999999</v>
+        <v>0.0796492</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121399</v>
+        <v>0.121255</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0847316</v>
+        <v>0.084786</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0881012</v>
+        <v>0.0848739</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.131234</v>
+        <v>0.131348</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0918691</v>
+        <v>0.09190429999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0956964</v>
+        <v>0.0917096</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.142616</v>
+        <v>0.144319</v>
       </c>
       <c r="C120" t="n">
-        <v>0.09986979999999999</v>
+        <v>0.0975047</v>
       </c>
       <c r="D120" t="n">
-        <v>0.104608</v>
+        <v>0.100766</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.16246</v>
+        <v>0.160751</v>
       </c>
       <c r="C121" t="n">
-        <v>0.111621</v>
+        <v>0.11212</v>
       </c>
       <c r="D121" t="n">
-        <v>0.11623</v>
+        <v>0.11245</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.188674</v>
+        <v>0.188646</v>
       </c>
       <c r="C122" t="n">
-        <v>0.130238</v>
+        <v>0.129767</v>
       </c>
       <c r="D122" t="n">
-        <v>0.134714</v>
+        <v>0.130401</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.226972</v>
+        <v>0.229275</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0757139</v>
+        <v>0.0832632</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0857532</v>
+        <v>0.08142679999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.101631</v>
+        <v>0.104974</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0772169</v>
+        <v>0.0842188</v>
       </c>
       <c r="D124" t="n">
-        <v>0.086354</v>
+        <v>0.0828861</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.105443</v>
+        <v>0.104847</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0822388</v>
+        <v>0.0834577</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0899606</v>
+        <v>0.0846186</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.105761</v>
+        <v>0.107774</v>
       </c>
       <c r="C126" t="n">
-        <v>0.084427</v>
+        <v>0.085451</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0906535</v>
+        <v>0.0878997</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.109131</v>
+        <v>0.113309</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0869571</v>
+        <v>0.0863038</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0931292</v>
+        <v>0.0888268</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.111243</v>
+        <v>0.110534</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0879745</v>
+        <v>0.0915443</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0957108</v>
+        <v>0.0918798</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116335</v>
+        <v>0.118339</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0912814</v>
+        <v>0.0942431</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0978493</v>
+        <v>0.0934546</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122901</v>
+        <v>0.119829</v>
       </c>
       <c r="C130" t="n">
-        <v>0.100026</v>
+        <v>0.0969087</v>
       </c>
       <c r="D130" t="n">
-        <v>0.09852950000000001</v>
+        <v>0.09643210000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.124947</v>
+        <v>0.129495</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0988858</v>
+        <v>0.098291</v>
       </c>
       <c r="D131" t="n">
-        <v>0.104344</v>
+        <v>0.09854880000000001</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13308</v>
+        <v>0.129949</v>
       </c>
       <c r="C132" t="n">
-        <v>0.09894940000000001</v>
+        <v>0.105559</v>
       </c>
       <c r="D132" t="n">
-        <v>0.108396</v>
+        <v>0.104553</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.13792</v>
+        <v>0.14218</v>
       </c>
       <c r="C133" t="n">
-        <v>0.105054</v>
+        <v>0.106736</v>
       </c>
       <c r="D133" t="n">
-        <v>0.113986</v>
+        <v>0.107046</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.152856</v>
+        <v>0.152963</v>
       </c>
       <c r="C134" t="n">
-        <v>0.111826</v>
+        <v>0.109756</v>
       </c>
       <c r="D134" t="n">
-        <v>0.121479</v>
+        <v>0.117018</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.169283</v>
+        <v>0.170635</v>
       </c>
       <c r="C135" t="n">
-        <v>0.12208</v>
+        <v>0.125815</v>
       </c>
       <c r="D135" t="n">
-        <v>0.13068</v>
+        <v>0.124953</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.190521</v>
+        <v>0.195109</v>
       </c>
       <c r="C136" t="n">
-        <v>0.13619</v>
+        <v>0.137396</v>
       </c>
       <c r="D136" t="n">
-        <v>0.147153</v>
+        <v>0.142048</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.23117</v>
+        <v>0.232491</v>
       </c>
       <c r="C137" t="n">
-        <v>0.151121</v>
+        <v>0.152702</v>
       </c>
       <c r="D137" t="n">
-        <v>0.156202</v>
+        <v>0.158669</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170135</v>
+        <v>0.168217</v>
       </c>
       <c r="C138" t="n">
-        <v>0.16173</v>
+        <v>0.153374</v>
       </c>
       <c r="D138" t="n">
-        <v>0.156843</v>
+        <v>0.159437</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.170156</v>
+        <v>0.173083</v>
       </c>
       <c r="C139" t="n">
-        <v>0.154577</v>
+        <v>0.15401</v>
       </c>
       <c r="D139" t="n">
-        <v>0.158342</v>
+        <v>0.161033</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.17375</v>
+        <v>0.173963</v>
       </c>
       <c r="C140" t="n">
-        <v>0.152067</v>
+        <v>0.159567</v>
       </c>
       <c r="D140" t="n">
-        <v>0.16016</v>
+        <v>0.160905</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.17628</v>
+        <v>0.171311</v>
       </c>
       <c r="C141" t="n">
-        <v>0.156356</v>
+        <v>0.159316</v>
       </c>
       <c r="D141" t="n">
-        <v>0.16145</v>
+        <v>0.164249</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.169593</v>
+        <v>0.180981</v>
       </c>
       <c r="C142" t="n">
-        <v>0.163348</v>
+        <v>0.154189</v>
       </c>
       <c r="D142" t="n">
-        <v>0.163074</v>
+        <v>0.164703</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.179462</v>
+        <v>0.17316</v>
       </c>
       <c r="C143" t="n">
-        <v>0.155374</v>
+        <v>0.164098</v>
       </c>
       <c r="D143" t="n">
-        <v>0.165048</v>
+        <v>0.167397</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0319077</v>
+        <v>0.0319657</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0261762</v>
+        <v>0.0261335</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0263871</v>
+        <v>0.0262177</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0334599</v>
+        <v>0.0334156</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0260637</v>
+        <v>0.0261137</v>
       </c>
       <c r="D3" t="n">
-        <v>0.026335</v>
+        <v>0.0260452</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0355151</v>
+        <v>0.0353293</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0238484</v>
+        <v>0.0237004</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0242576</v>
+        <v>0.0240336</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0410868</v>
+        <v>0.0407322</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0245434</v>
+        <v>0.0241915</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0247738</v>
+        <v>0.0249133</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.056713</v>
+        <v>0.0564635</v>
       </c>
       <c r="C6" t="n">
-        <v>0.025841</v>
+        <v>0.0259724</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0269859</v>
+        <v>0.0262073</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0763735</v>
+        <v>0.0763277</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0334828</v>
+        <v>0.0325979</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0357032</v>
+        <v>0.0360324</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.107108</v>
+        <v>0.106994</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0549087</v>
+        <v>0.0548003</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0573524</v>
+        <v>0.05744</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149714</v>
+        <v>0.149068</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0255817</v>
+        <v>0.0256342</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0256222</v>
+        <v>0.0256414</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0308092</v>
+        <v>0.0307618</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0256813</v>
+        <v>0.025853</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0257324</v>
+        <v>0.0256914</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0313331</v>
+        <v>0.031396</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0259598</v>
+        <v>0.0261946</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0259725</v>
+        <v>0.0260519</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0316271</v>
+        <v>0.0316909</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0261581</v>
+        <v>0.0262923</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0259914</v>
+        <v>0.0261659</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0322866</v>
+        <v>0.0323573</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0263012</v>
+        <v>0.0264319</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0263796</v>
+        <v>0.0264868</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0330283</v>
+        <v>0.0330582</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0264192</v>
+        <v>0.0265422</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0264616</v>
+        <v>0.0266601</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.033899</v>
+        <v>0.0339924</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0266837</v>
+        <v>0.0267344</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0265795</v>
+        <v>0.0267954</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0352697</v>
+        <v>0.0352344</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0270853</v>
+        <v>0.0270095</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0268797</v>
+        <v>0.0269809</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0375379</v>
+        <v>0.037516</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0274645</v>
+        <v>0.0272757</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0273171</v>
+        <v>0.0273035</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0417086</v>
+        <v>0.0416498</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0276141</v>
+        <v>0.0276433</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0276903</v>
+        <v>0.0275994</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0494563</v>
+        <v>0.0496101</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0276136</v>
+        <v>0.0278489</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0280655</v>
+        <v>0.0279786</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0601495</v>
+        <v>0.060184</v>
       </c>
       <c r="C20" t="n">
-        <v>0.031294</v>
+        <v>0.0313378</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0326968</v>
+        <v>0.0327208</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0777094</v>
+        <v>0.0779521</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0420704</v>
+        <v>0.042301</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0432519</v>
+        <v>0.0429524</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100551</v>
+        <v>0.100861</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0617028</v>
+        <v>0.0618383</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0622624</v>
+        <v>0.0623867</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.139262</v>
+        <v>0.139845</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0265617</v>
+        <v>0.0265002</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0265266</v>
+        <v>0.0266846</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0321425</v>
+        <v>0.0319963</v>
       </c>
       <c r="C24" t="n">
-        <v>0.027008</v>
+        <v>0.0268362</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0271054</v>
+        <v>0.0267598</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0328685</v>
+        <v>0.0326764</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0274592</v>
+        <v>0.0272255</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0272274</v>
+        <v>0.0269677</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0336871</v>
+        <v>0.0333823</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0276318</v>
+        <v>0.0274339</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0275295</v>
+        <v>0.0272524</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03435</v>
+        <v>0.0340922</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0279198</v>
+        <v>0.0276269</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0277578</v>
+        <v>0.0275556</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0351453</v>
+        <v>0.0348951</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0282558</v>
+        <v>0.0279656</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0281334</v>
+        <v>0.0279664</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0366683</v>
+        <v>0.0365169</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0285142</v>
+        <v>0.0283634</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02838</v>
+        <v>0.0282462</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0387064</v>
+        <v>0.0384415</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0292256</v>
+        <v>0.0287597</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0289594</v>
+        <v>0.0287559</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0419044</v>
+        <v>0.041708</v>
       </c>
       <c r="C31" t="n">
-        <v>0.029796</v>
+        <v>0.0297015</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0297211</v>
+        <v>0.0295354</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0463358</v>
+        <v>0.0462356</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0307463</v>
+        <v>0.0304629</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0302917</v>
+        <v>0.0301813</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0528331</v>
+        <v>0.0528796</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0332938</v>
+        <v>0.0329618</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0333364</v>
+        <v>0.0331837</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0633012</v>
+        <v>0.063235</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0404934</v>
+        <v>0.0403881</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0404123</v>
+        <v>0.0403206</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07700650000000001</v>
+        <v>0.0770739</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0472856</v>
+        <v>0.0474061</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04743</v>
+        <v>0.0472592</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0975487</v>
+        <v>0.0979105</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0592057</v>
+        <v>0.0593182</v>
       </c>
       <c r="D36" t="n">
-        <v>0.059399</v>
+        <v>0.0593623</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.130446</v>
+        <v>0.131271</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0277951</v>
+        <v>0.0277288</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0277822</v>
+        <v>0.0275232</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0334482</v>
+        <v>0.0329968</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0281215</v>
+        <v>0.0280705</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02811</v>
+        <v>0.0279614</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0339856</v>
+        <v>0.0336476</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0284893</v>
+        <v>0.028314</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0284147</v>
+        <v>0.0282659</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0346352</v>
+        <v>0.0343027</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0288905</v>
+        <v>0.0287439</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0287392</v>
+        <v>0.02858</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0354693</v>
+        <v>0.0350758</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0292513</v>
+        <v>0.0291892</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0291338</v>
+        <v>0.0289014</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0364766</v>
+        <v>0.0361467</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0297213</v>
+        <v>0.0295555</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0294739</v>
+        <v>0.0292548</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0378381</v>
+        <v>0.0374607</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0302296</v>
+        <v>0.0300051</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0300323</v>
+        <v>0.0298813</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0399479</v>
+        <v>0.0395519</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0308899</v>
+        <v>0.0308207</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0308115</v>
+        <v>0.0306161</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0429133</v>
+        <v>0.0425503</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0320832</v>
+        <v>0.0319854</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0320072</v>
+        <v>0.0317722</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0470502</v>
+        <v>0.0467058</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0335851</v>
+        <v>0.0335641</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0335644</v>
+        <v>0.033386</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.052892</v>
+        <v>0.0525997</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0362467</v>
+        <v>0.0362268</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0360595</v>
+        <v>0.0358809</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0607623</v>
+        <v>0.0605645</v>
       </c>
       <c r="C48" t="n">
-        <v>0.040826</v>
+        <v>0.0407148</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0406796</v>
+        <v>0.040491</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0735476</v>
+        <v>0.0734841</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0471056</v>
+        <v>0.0469607</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0469941</v>
+        <v>0.0468393</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0905996</v>
+        <v>0.09087580000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0563908</v>
+        <v>0.0562949</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0564805</v>
+        <v>0.0564113</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.12106</v>
+        <v>0.122208</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0308283</v>
+        <v>0.0300169</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0301679</v>
+        <v>0.0303142</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.166499</v>
+        <v>0.16802</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0307952</v>
+        <v>0.0301115</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0302973</v>
+        <v>0.0306607</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0356136</v>
+        <v>0.035178</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0310755</v>
+        <v>0.0303837</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0307326</v>
+        <v>0.0309118</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0362782</v>
+        <v>0.0360107</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0314753</v>
+        <v>0.0307681</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0311004</v>
+        <v>0.031048</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0372213</v>
+        <v>0.036952</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0319142</v>
+        <v>0.0312038</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0314762</v>
+        <v>0.0313295</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0384189</v>
+        <v>0.038125</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0324359</v>
+        <v>0.0317437</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0320422</v>
+        <v>0.0319259</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0398861</v>
+        <v>0.0395982</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0331044</v>
+        <v>0.0324626</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0327189</v>
+        <v>0.032742</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.041794</v>
+        <v>0.0414984</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0339251</v>
+        <v>0.0333093</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0334427</v>
+        <v>0.0336447</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0443385</v>
+        <v>0.044019</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0350748</v>
+        <v>0.0344166</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0347379</v>
+        <v>0.0348081</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0479186</v>
+        <v>0.0475574</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0365711</v>
+        <v>0.0359715</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0360321</v>
+        <v>0.0360893</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0532704</v>
+        <v>0.0529301</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0387702</v>
+        <v>0.038221</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0384681</v>
+        <v>0.0384782</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0609663</v>
+        <v>0.0607154</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0419654</v>
+        <v>0.0414661</v>
       </c>
       <c r="D62" t="n">
-        <v>0.041713</v>
+        <v>0.041522</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0723922</v>
+        <v>0.0723681</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0472663</v>
+        <v>0.0468414</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0468793</v>
+        <v>0.0468452</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08922330000000001</v>
+        <v>0.0895601</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0557211</v>
+        <v>0.0554105</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0557353</v>
+        <v>0.0556002</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.117034</v>
+        <v>0.118134</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0706821</v>
+        <v>0.0705826</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0708232</v>
+        <v>0.0710938</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.157442</v>
+        <v>0.159292</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0361914</v>
+        <v>0.036051</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0361082</v>
+        <v>0.0351371</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0412113</v>
+        <v>0.040596</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0365719</v>
+        <v>0.0364812</v>
       </c>
       <c r="D67" t="n">
-        <v>0.036504</v>
+        <v>0.0355473</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0419969</v>
+        <v>0.0413879</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0369667</v>
+        <v>0.0369012</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0369267</v>
+        <v>0.0359222</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0428373</v>
+        <v>0.0421152</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0374062</v>
+        <v>0.0372352</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0373044</v>
+        <v>0.0363634</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0439429</v>
+        <v>0.0433493</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0379535</v>
+        <v>0.0378607</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0379268</v>
+        <v>0.0369839</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0451806</v>
+        <v>0.044652</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0385383</v>
+        <v>0.0384107</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0384798</v>
+        <v>0.0375107</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0467872</v>
+        <v>0.0461175</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0393169</v>
+        <v>0.0392298</v>
       </c>
       <c r="D72" t="n">
-        <v>0.039212</v>
+        <v>0.0383025</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0490531</v>
+        <v>0.0484144</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0402562</v>
+        <v>0.0401903</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0401224</v>
+        <v>0.0392091</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0522172</v>
+        <v>0.0515831</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0415423</v>
+        <v>0.041491</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0414072</v>
+        <v>0.0405253</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.056781</v>
+        <v>0.0561207</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0435606</v>
+        <v>0.0434482</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0432992</v>
+        <v>0.0424765</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0637191</v>
+        <v>0.06309530000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0464102</v>
+        <v>0.0463201</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0462486</v>
+        <v>0.0453068</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07379719999999999</v>
+        <v>0.0732001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0512247</v>
+        <v>0.0511203</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0510609</v>
+        <v>0.0500775</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0898123</v>
+        <v>0.0898467</v>
       </c>
       <c r="C78" t="n">
-        <v>0.058511</v>
+        <v>0.0584281</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0584979</v>
+        <v>0.0574734</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.114156</v>
+        <v>0.114617</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0714545</v>
+        <v>0.0717285</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0717073</v>
+        <v>0.0708516</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.153157</v>
+        <v>0.155065</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0403286</v>
+        <v>0.0403421</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0406752</v>
+        <v>0.0405248</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0472168</v>
+        <v>0.0478316</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0407836</v>
+        <v>0.0410578</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0411844</v>
+        <v>0.0412085</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0484293</v>
+        <v>0.0492967</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0413</v>
+        <v>0.0417058</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0417377</v>
+        <v>0.0417605</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0497279</v>
+        <v>0.0507322</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0419624</v>
+        <v>0.0424957</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0424212</v>
+        <v>0.0424118</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0518808</v>
+        <v>0.0526354</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0428165</v>
+        <v>0.0432865</v>
       </c>
       <c r="D84" t="n">
-        <v>0.043312</v>
+        <v>0.0431308</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0543713</v>
+        <v>0.055342</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0438361</v>
+        <v>0.0445647</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0444607</v>
+        <v>0.0443269</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0578488</v>
+        <v>0.0589033</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0454893</v>
+        <v>0.0463783</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0461404</v>
+        <v>0.0462441</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0617393</v>
+        <v>0.0629446</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0474595</v>
+        <v>0.0482708</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0481579</v>
+        <v>0.0481436</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0665718</v>
+        <v>0.0682783</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0500138</v>
+        <v>0.0512504</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0506733</v>
+        <v>0.0509245</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0733369</v>
+        <v>0.0750963</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0528716</v>
+        <v>0.0544516</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0537713</v>
+        <v>0.0541013</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0817982</v>
+        <v>0.0833991</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0575206</v>
+        <v>0.0588044</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0582731</v>
+        <v>0.0584557</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0929822</v>
+        <v>0.0947436</v>
       </c>
       <c r="C91" t="n">
-        <v>0.06388480000000001</v>
+        <v>0.06501170000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0643614</v>
+        <v>0.06465220000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.108183</v>
+        <v>0.110277</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0731031</v>
+        <v>0.074312</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0736933</v>
+        <v>0.0738183</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.129859</v>
+        <v>0.132355</v>
       </c>
       <c r="C93" t="n">
-        <v>0.08623309999999999</v>
+        <v>0.0870504</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0877139</v>
+        <v>0.0871461</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.163645</v>
+        <v>0.167875</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0504208</v>
+        <v>0.04971</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0499184</v>
+        <v>0.0519124</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06610679999999999</v>
+        <v>0.0684801</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0519064</v>
+        <v>0.0528042</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0525222</v>
+        <v>0.0533819</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0697479</v>
+        <v>0.0715635</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0538879</v>
+        <v>0.0548376</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0545601</v>
+        <v>0.0536845</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0723063</v>
+        <v>0.073985</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0561259</v>
+        <v>0.0573358</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0563017</v>
+        <v>0.057084</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0754292</v>
+        <v>0.07705679999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0576525</v>
+        <v>0.0592949</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0582122</v>
+        <v>0.059398</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0782682</v>
+        <v>0.0798828</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0587043</v>
+        <v>0.0611553</v>
       </c>
       <c r="D99" t="n">
-        <v>0.060192</v>
+        <v>0.0599768</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0804658</v>
+        <v>0.0832951</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0612675</v>
+        <v>0.0633512</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0624279</v>
+        <v>0.0632356</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0853397</v>
+        <v>0.08622589999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.06425690000000001</v>
+        <v>0.066023</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06263920000000001</v>
+        <v>0.066369</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0895939</v>
+        <v>0.0921878</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0657027</v>
+        <v>0.067592</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0666421</v>
+        <v>0.0689973</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0953381</v>
+        <v>0.0978715</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0695858</v>
+        <v>0.0711137</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0693323</v>
+        <v>0.0721662</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.102822</v>
+        <v>0.104819</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0725529</v>
+        <v>0.0761783</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07224129999999999</v>
+        <v>0.07626719999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.113582</v>
+        <v>0.117335</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0777759</v>
+        <v>0.08012909999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0791717</v>
+        <v>0.0815409</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.128475</v>
+        <v>0.131157</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0868819</v>
+        <v>0.0885425</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0864931</v>
+        <v>0.08972479999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.147666</v>
+        <v>0.154513</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0984064</v>
+        <v>0.102574</v>
       </c>
       <c r="D107" t="n">
-        <v>0.09915160000000001</v>
+        <v>0.100462</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.179553</v>
+        <v>0.185488</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0569622</v>
+        <v>0.0601282</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0593291</v>
+        <v>0.0601624</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.225258</v>
+        <v>0.230628</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0596568</v>
+        <v>0.0613851</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0604947</v>
+        <v>0.0614207</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0809164</v>
+        <v>0.08181910000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.059432</v>
+        <v>0.0622986</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0615816</v>
+        <v>0.0627685</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0840732</v>
+        <v>0.0864751</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0622215</v>
+        <v>0.0640565</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0627127</v>
+        <v>0.064591</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0860091</v>
+        <v>0.0901074</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0643721</v>
+        <v>0.0660177</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0647335</v>
+        <v>0.0660877</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.09129</v>
+        <v>0.0943533</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0647558</v>
+        <v>0.0660808</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0664198</v>
+        <v>0.0683744</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0954885</v>
+        <v>0.0985939</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0688568</v>
+        <v>0.0706161</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0687185</v>
+        <v>0.0713819</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100582</v>
+        <v>0.103627</v>
       </c>
       <c r="C115" t="n">
-        <v>0.071612</v>
+        <v>0.0739614</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0717986</v>
+        <v>0.07399020000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.10658</v>
+        <v>0.109481</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0734059</v>
+        <v>0.0775735</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0750073</v>
+        <v>0.07764070000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.111744</v>
+        <v>0.116781</v>
       </c>
       <c r="C117" t="n">
-        <v>0.07703459999999999</v>
+        <v>0.080388</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0796492</v>
+        <v>0.08234710000000001</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121255</v>
+        <v>0.126474</v>
       </c>
       <c r="C118" t="n">
-        <v>0.084786</v>
+        <v>0.08776639999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0848739</v>
+        <v>0.0879489</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.131348</v>
+        <v>0.135465</v>
       </c>
       <c r="C119" t="n">
-        <v>0.09190429999999999</v>
+        <v>0.0933689</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0917096</v>
+        <v>0.0954608</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.144319</v>
+        <v>0.150572</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0975047</v>
+        <v>0.104148</v>
       </c>
       <c r="D120" t="n">
-        <v>0.100766</v>
+        <v>0.103874</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.160751</v>
+        <v>0.169558</v>
       </c>
       <c r="C121" t="n">
-        <v>0.11212</v>
+        <v>0.113277</v>
       </c>
       <c r="D121" t="n">
-        <v>0.11245</v>
+        <v>0.116867</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.188646</v>
+        <v>0.196191</v>
       </c>
       <c r="C122" t="n">
-        <v>0.129767</v>
+        <v>0.135506</v>
       </c>
       <c r="D122" t="n">
-        <v>0.130401</v>
+        <v>0.135909</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.229275</v>
+        <v>0.237975</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0832632</v>
+        <v>0.0832603</v>
       </c>
       <c r="D123" t="n">
-        <v>0.08142679999999999</v>
+        <v>0.0836301</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.104974</v>
+        <v>0.10906</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0842188</v>
+        <v>0.08682289999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0828861</v>
+        <v>0.0845045</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.104847</v>
+        <v>0.111947</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0834577</v>
+        <v>0.0860279</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0846186</v>
+        <v>0.08750960000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.107774</v>
+        <v>0.116159</v>
       </c>
       <c r="C126" t="n">
-        <v>0.085451</v>
+        <v>0.09161229999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0878997</v>
+        <v>0.08830440000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.113309</v>
+        <v>0.116285</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0863038</v>
+        <v>0.0970028</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0888268</v>
+        <v>0.0916766</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.110534</v>
+        <v>0.118669</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0915443</v>
+        <v>0.0937162</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0918798</v>
+        <v>0.0949453</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118339</v>
+        <v>0.119962</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0942431</v>
+        <v>0.09809180000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0934546</v>
+        <v>0.09641669999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.119829</v>
+        <v>0.127026</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0969087</v>
+        <v>0.0998035</v>
       </c>
       <c r="D130" t="n">
-        <v>0.09643210000000001</v>
+        <v>0.09870950000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.129495</v>
+        <v>0.129613</v>
       </c>
       <c r="C131" t="n">
-        <v>0.098291</v>
+        <v>0.104764</v>
       </c>
       <c r="D131" t="n">
-        <v>0.09854880000000001</v>
+        <v>0.101265</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.129949</v>
+        <v>0.137248</v>
       </c>
       <c r="C132" t="n">
-        <v>0.105559</v>
+        <v>0.107135</v>
       </c>
       <c r="D132" t="n">
-        <v>0.104553</v>
+        <v>0.105478</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.14218</v>
+        <v>0.14775</v>
       </c>
       <c r="C133" t="n">
-        <v>0.106736</v>
+        <v>0.112841</v>
       </c>
       <c r="D133" t="n">
-        <v>0.107046</v>
+        <v>0.112338</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.152963</v>
+        <v>0.161974</v>
       </c>
       <c r="C134" t="n">
-        <v>0.109756</v>
+        <v>0.119077</v>
       </c>
       <c r="D134" t="n">
-        <v>0.117018</v>
+        <v>0.117518</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.170635</v>
+        <v>0.174438</v>
       </c>
       <c r="C135" t="n">
-        <v>0.125815</v>
+        <v>0.128178</v>
       </c>
       <c r="D135" t="n">
-        <v>0.124953</v>
+        <v>0.12888</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.195109</v>
+        <v>0.202781</v>
       </c>
       <c r="C136" t="n">
-        <v>0.137396</v>
+        <v>0.144191</v>
       </c>
       <c r="D136" t="n">
-        <v>0.142048</v>
+        <v>0.145093</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232491</v>
+        <v>0.241259</v>
       </c>
       <c r="C137" t="n">
-        <v>0.152702</v>
+        <v>0.165764</v>
       </c>
       <c r="D137" t="n">
-        <v>0.158669</v>
+        <v>0.169823</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.168217</v>
+        <v>0.181378</v>
       </c>
       <c r="C138" t="n">
-        <v>0.153374</v>
+        <v>0.164561</v>
       </c>
       <c r="D138" t="n">
-        <v>0.159437</v>
+        <v>0.17067</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.173083</v>
+        <v>0.184426</v>
       </c>
       <c r="C139" t="n">
-        <v>0.15401</v>
+        <v>0.165126</v>
       </c>
       <c r="D139" t="n">
-        <v>0.161033</v>
+        <v>0.170781</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.173963</v>
+        <v>0.177894</v>
       </c>
       <c r="C140" t="n">
-        <v>0.159567</v>
+        <v>0.159139</v>
       </c>
       <c r="D140" t="n">
-        <v>0.160905</v>
+        <v>0.174226</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.171311</v>
+        <v>0.188391</v>
       </c>
       <c r="C141" t="n">
-        <v>0.159316</v>
+        <v>0.171374</v>
       </c>
       <c r="D141" t="n">
-        <v>0.164249</v>
+        <v>0.174673</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.180981</v>
+        <v>0.189131</v>
       </c>
       <c r="C142" t="n">
-        <v>0.154189</v>
+        <v>0.163475</v>
       </c>
       <c r="D142" t="n">
-        <v>0.164703</v>
+        <v>0.175905</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.17316</v>
+        <v>0.193781</v>
       </c>
       <c r="C143" t="n">
-        <v>0.164098</v>
+        <v>0.165924</v>
       </c>
       <c r="D143" t="n">
-        <v>0.167397</v>
+        <v>0.178222</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0319657</v>
+        <v>0.0320235</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0261335</v>
+        <v>0.0261764</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0262177</v>
+        <v>0.0263089</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0334156</v>
+        <v>0.0334884</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0261137</v>
+        <v>0.0262685</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0260452</v>
+        <v>0.0261086</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0353293</v>
+        <v>0.0354679</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0237004</v>
+        <v>0.0237609</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0240336</v>
+        <v>0.0239001</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0407322</v>
+        <v>0.0408122</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0241915</v>
+        <v>0.0241807</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0249133</v>
+        <v>0.0248214</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0564635</v>
+        <v>0.056193</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0259724</v>
+        <v>0.0261888</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0262073</v>
+        <v>0.0272681</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0763277</v>
+        <v>0.0764335</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0325979</v>
+        <v>0.0319212</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0360324</v>
+        <v>0.0358215</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.106994</v>
+        <v>0.106975</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0548003</v>
+        <v>0.0552889</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05744</v>
+        <v>0.0579753</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149068</v>
+        <v>0.149184</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0256342</v>
+        <v>0.0257018</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0256414</v>
+        <v>0.0257657</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0307618</v>
+        <v>0.0308282</v>
       </c>
       <c r="C10" t="n">
-        <v>0.025853</v>
+        <v>0.0258441</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0256914</v>
+        <v>0.0257969</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.031396</v>
+        <v>0.0314003</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0261946</v>
+        <v>0.0261565</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0260519</v>
+        <v>0.0260784</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0316909</v>
+        <v>0.0317041</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0262923</v>
+        <v>0.0261384</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0261659</v>
+        <v>0.0261439</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0323573</v>
+        <v>0.0323081</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0264319</v>
+        <v>0.0263374</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0264868</v>
+        <v>0.0265014</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0330582</v>
+        <v>0.0328415</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0265422</v>
+        <v>0.0264622</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0266601</v>
+        <v>0.0266075</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0339924</v>
+        <v>0.0338863</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0267344</v>
+        <v>0.0266624</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0267954</v>
+        <v>0.0268762</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0352344</v>
+        <v>0.0350174</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0270095</v>
+        <v>0.0269745</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0269809</v>
+        <v>0.0270307</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.037516</v>
+        <v>0.0373706</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0272757</v>
+        <v>0.0271857</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0273035</v>
+        <v>0.0274871</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0416498</v>
+        <v>0.0417145</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0276433</v>
+        <v>0.0276302</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0275994</v>
+        <v>0.027768</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0496101</v>
+        <v>0.0496031</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0278489</v>
+        <v>0.0278815</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0279786</v>
+        <v>0.0278343</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.060184</v>
+        <v>0.060082</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0313378</v>
+        <v>0.0316402</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0327208</v>
+        <v>0.0323534</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0779521</v>
+        <v>0.0778533</v>
       </c>
       <c r="C21" t="n">
-        <v>0.042301</v>
+        <v>0.0425177</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0429524</v>
+        <v>0.0430362</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100861</v>
+        <v>0.100774</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0618383</v>
+        <v>0.0617407</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0623867</v>
+        <v>0.0626086</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.139845</v>
+        <v>0.139184</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0265002</v>
+        <v>0.0266726</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0266846</v>
+        <v>0.0267498</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0319963</v>
+        <v>0.0321403</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0268362</v>
+        <v>0.0269945</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0267598</v>
+        <v>0.0270763</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0326764</v>
+        <v>0.0328784</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0272255</v>
+        <v>0.0274555</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0269677</v>
+        <v>0.0273327</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0333823</v>
+        <v>0.0336716</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0274339</v>
+        <v>0.0276752</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0272524</v>
+        <v>0.0275953</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0340922</v>
+        <v>0.0342008</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0276269</v>
+        <v>0.0280648</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0275556</v>
+        <v>0.0278913</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0348951</v>
+        <v>0.0351318</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0279656</v>
+        <v>0.028224</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0279664</v>
+        <v>0.028262</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0365169</v>
+        <v>0.0366386</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0283634</v>
+        <v>0.0286532</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0282462</v>
+        <v>0.0285515</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0384415</v>
+        <v>0.0386541</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0287597</v>
+        <v>0.029096</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0287559</v>
+        <v>0.0289985</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.041708</v>
+        <v>0.0418287</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0297015</v>
+        <v>0.0297757</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0295354</v>
+        <v>0.0297177</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0462356</v>
+        <v>0.0462544</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0304629</v>
+        <v>0.0307028</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0301813</v>
+        <v>0.030295</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0528796</v>
+        <v>0.0527853</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0329618</v>
+        <v>0.0333173</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0331837</v>
+        <v>0.0337821</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.063235</v>
+        <v>0.06322319999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0403881</v>
+        <v>0.0404507</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0403206</v>
+        <v>0.0404588</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0770739</v>
+        <v>0.0768958</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0474061</v>
+        <v>0.047515</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0472592</v>
+        <v>0.0474358</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0979105</v>
+        <v>0.0974762</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0593182</v>
+        <v>0.059385</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0593623</v>
+        <v>0.0594786</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.131271</v>
+        <v>0.1306</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0277288</v>
+        <v>0.0282887</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0275232</v>
+        <v>0.0278219</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0329968</v>
+        <v>0.0330999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0280705</v>
+        <v>0.0285572</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0279614</v>
+        <v>0.0281877</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0336476</v>
+        <v>0.0338607</v>
       </c>
       <c r="C39" t="n">
-        <v>0.028314</v>
+        <v>0.0288104</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0282659</v>
+        <v>0.0284213</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0343027</v>
+        <v>0.0344171</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0287439</v>
+        <v>0.0291624</v>
       </c>
       <c r="D40" t="n">
-        <v>0.02858</v>
+        <v>0.0287152</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0350758</v>
+        <v>0.0352773</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0291892</v>
+        <v>0.0296123</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0289014</v>
+        <v>0.0290873</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0361467</v>
+        <v>0.0361768</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0295555</v>
+        <v>0.0299806</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0292548</v>
+        <v>0.0294516</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0374607</v>
+        <v>0.037564</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0300051</v>
+        <v>0.0305078</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0298813</v>
+        <v>0.0299951</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0395519</v>
+        <v>0.0396289</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0308207</v>
+        <v>0.0312356</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0306161</v>
+        <v>0.0307979</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0425503</v>
+        <v>0.0425793</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0319854</v>
+        <v>0.0324066</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0317722</v>
+        <v>0.0319204</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0467058</v>
+        <v>0.0467383</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0335641</v>
+        <v>0.0339213</v>
       </c>
       <c r="D46" t="n">
-        <v>0.033386</v>
+        <v>0.0334397</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0525997</v>
+        <v>0.0525765</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0362268</v>
+        <v>0.0365416</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0358809</v>
+        <v>0.0359739</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0605645</v>
+        <v>0.0605718</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0407148</v>
+        <v>0.0409913</v>
       </c>
       <c r="D48" t="n">
-        <v>0.040491</v>
+        <v>0.0405721</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0734841</v>
+        <v>0.0734746</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0469607</v>
+        <v>0.0472341</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0468393</v>
+        <v>0.0469127</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09087580000000001</v>
+        <v>0.09087050000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0562949</v>
+        <v>0.0565242</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0564113</v>
+        <v>0.0564983</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.122208</v>
+        <v>0.122177</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0300169</v>
+        <v>0.0307945</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0303142</v>
+        <v>0.0302086</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.16802</v>
+        <v>0.168086</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0301115</v>
+        <v>0.0308863</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0306607</v>
+        <v>0.0305916</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.035178</v>
+        <v>0.0352659</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0303837</v>
+        <v>0.0311949</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0309118</v>
+        <v>0.0308279</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0360107</v>
+        <v>0.0359973</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0307681</v>
+        <v>0.0314369</v>
       </c>
       <c r="D54" t="n">
-        <v>0.031048</v>
+        <v>0.0311936</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.036952</v>
+        <v>0.0368763</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0312038</v>
+        <v>0.0320047</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0313295</v>
+        <v>0.0315729</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.038125</v>
+        <v>0.0380644</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0317437</v>
+        <v>0.0324554</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0319259</v>
+        <v>0.0321109</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0395982</v>
+        <v>0.0395564</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0324626</v>
+        <v>0.0331989</v>
       </c>
       <c r="D57" t="n">
-        <v>0.032742</v>
+        <v>0.0327662</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0414984</v>
+        <v>0.0414216</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0333093</v>
+        <v>0.0340049</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0336447</v>
+        <v>0.0336805</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.044019</v>
+        <v>0.0439351</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0344166</v>
+        <v>0.0350873</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0348081</v>
+        <v>0.0347752</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0475574</v>
+        <v>0.0475272</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0359715</v>
+        <v>0.0366179</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0360893</v>
+        <v>0.0363066</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0529301</v>
+        <v>0.052875</v>
       </c>
       <c r="C61" t="n">
-        <v>0.038221</v>
+        <v>0.0388707</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0384782</v>
+        <v>0.0385539</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0607154</v>
+        <v>0.0606498</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0414661</v>
+        <v>0.0420776</v>
       </c>
       <c r="D62" t="n">
-        <v>0.041522</v>
+        <v>0.0417132</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0723681</v>
+        <v>0.0722653</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0468414</v>
+        <v>0.0474214</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0468452</v>
+        <v>0.0469854</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0895601</v>
+        <v>0.0895025</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0554105</v>
+        <v>0.0558974</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0556002</v>
+        <v>0.0557755</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118134</v>
+        <v>0.118178</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0705826</v>
+        <v>0.07103959999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0710938</v>
+        <v>0.07121909999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.159292</v>
+        <v>0.159372</v>
       </c>
       <c r="C66" t="n">
-        <v>0.036051</v>
+        <v>0.0360957</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0351371</v>
+        <v>0.0343145</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.040596</v>
+        <v>0.0414254</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0364812</v>
+        <v>0.0364659</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0355473</v>
+        <v>0.0346605</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0413879</v>
+        <v>0.042078</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0369012</v>
+        <v>0.036874</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0359222</v>
+        <v>0.0350598</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0421152</v>
+        <v>0.0429736</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0372352</v>
+        <v>0.0372366</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0363634</v>
+        <v>0.0354755</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0433493</v>
+        <v>0.0441135</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0378607</v>
+        <v>0.0378806</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0369839</v>
+        <v>0.0360853</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.044652</v>
+        <v>0.0454543</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0384107</v>
+        <v>0.0384104</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0375107</v>
+        <v>0.0365951</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0461175</v>
+        <v>0.0471072</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0392298</v>
+        <v>0.0392444</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0383025</v>
+        <v>0.0374376</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0484144</v>
+        <v>0.0492868</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0401903</v>
+        <v>0.0401988</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0392091</v>
+        <v>0.0382801</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0515831</v>
+        <v>0.0524498</v>
       </c>
       <c r="C74" t="n">
-        <v>0.041491</v>
+        <v>0.0415548</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0405253</v>
+        <v>0.0396087</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0561207</v>
+        <v>0.0570294</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0434482</v>
+        <v>0.0434498</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0424765</v>
+        <v>0.0415542</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06309530000000001</v>
+        <v>0.0642147</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0463201</v>
+        <v>0.0463591</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0453068</v>
+        <v>0.0444486</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0732001</v>
+        <v>0.0746182</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0511203</v>
+        <v>0.0511374</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0500775</v>
+        <v>0.0492066</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0898467</v>
+        <v>0.0909673</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0584281</v>
+        <v>0.058465</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0574734</v>
+        <v>0.0565562</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.114617</v>
+        <v>0.116246</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0717285</v>
+        <v>0.0717715</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0708516</v>
+        <v>0.0699589</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.155065</v>
+        <v>0.156636</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0403421</v>
+        <v>0.0407233</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0405248</v>
+        <v>0.0405375</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0478316</v>
+        <v>0.0480482</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0410578</v>
+        <v>0.0412512</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0412085</v>
+        <v>0.0410834</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0492967</v>
+        <v>0.0491057</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0417058</v>
+        <v>0.0417563</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0417605</v>
+        <v>0.0416144</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0507322</v>
+        <v>0.0508044</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0424957</v>
+        <v>0.0426588</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0424118</v>
+        <v>0.0424403</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0526354</v>
+        <v>0.0529386</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0432865</v>
+        <v>0.0435924</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0431308</v>
+        <v>0.0432012</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.055342</v>
+        <v>0.0552515</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0445647</v>
+        <v>0.0446971</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0443269</v>
+        <v>0.0442371</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0589033</v>
+        <v>0.0585139</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0463783</v>
+        <v>0.0463548</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0462441</v>
+        <v>0.0458084</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0629446</v>
+        <v>0.0623555</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0482708</v>
+        <v>0.0482711</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0481436</v>
+        <v>0.0476102</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0682783</v>
+        <v>0.0676056</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0512504</v>
+        <v>0.0509159</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0509245</v>
+        <v>0.0504534</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0750963</v>
+        <v>0.07480489999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0544516</v>
+        <v>0.0540512</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0541013</v>
+        <v>0.0537482</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0833991</v>
+        <v>0.0832883</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0588044</v>
+        <v>0.0587615</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0584557</v>
+        <v>0.0585013</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0947436</v>
+        <v>0.0948779</v>
       </c>
       <c r="C91" t="n">
-        <v>0.06501170000000001</v>
+        <v>0.0653244</v>
       </c>
       <c r="D91" t="n">
-        <v>0.06465220000000001</v>
+        <v>0.0648656</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.110277</v>
+        <v>0.110636</v>
       </c>
       <c r="C92" t="n">
-        <v>0.074312</v>
+        <v>0.07466150000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0738183</v>
+        <v>0.0746058</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.132355</v>
+        <v>0.132953</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0870504</v>
+        <v>0.08844349999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0871461</v>
+        <v>0.08859649999999999</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.167875</v>
+        <v>0.16826</v>
       </c>
       <c r="C94" t="n">
-        <v>0.04971</v>
+        <v>0.0506189</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0519124</v>
+        <v>0.0511679</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0684801</v>
+        <v>0.0686667</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0528042</v>
+        <v>0.053911</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0533819</v>
+        <v>0.0542332</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0715635</v>
+        <v>0.0709109</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0548376</v>
+        <v>0.0553064</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0536845</v>
+        <v>0.0568018</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.073985</v>
+        <v>0.0732556</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0573358</v>
+        <v>0.0577476</v>
       </c>
       <c r="D97" t="n">
-        <v>0.057084</v>
+        <v>0.0584263</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07705679999999999</v>
+        <v>0.07659920000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0592949</v>
+        <v>0.0591443</v>
       </c>
       <c r="D98" t="n">
-        <v>0.059398</v>
+        <v>0.0606023</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0798828</v>
+        <v>0.0795324</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0611553</v>
+        <v>0.0614803</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0599768</v>
+        <v>0.0623004</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0832951</v>
+        <v>0.0833001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0633512</v>
+        <v>0.0631119</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0632356</v>
+        <v>0.0646147</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08622589999999999</v>
+        <v>0.08726200000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.066023</v>
+        <v>0.0653816</v>
       </c>
       <c r="D101" t="n">
-        <v>0.066369</v>
+        <v>0.06663139999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0921878</v>
+        <v>0.09220689999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.067592</v>
+        <v>0.06796820000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0689973</v>
+        <v>0.0690592</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0978715</v>
+        <v>0.0979893</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0711137</v>
+        <v>0.0718713</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0721662</v>
+        <v>0.0724762</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.104819</v>
+        <v>0.105465</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0761783</v>
+        <v>0.07577159999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07626719999999999</v>
+        <v>0.07632750000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.117335</v>
+        <v>0.117543</v>
       </c>
       <c r="C105" t="n">
-        <v>0.08012909999999999</v>
+        <v>0.081123</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0815409</v>
+        <v>0.0820409</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.131157</v>
+        <v>0.133323</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0885425</v>
+        <v>0.0895063</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08972479999999999</v>
+        <v>0.090099</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.154513</v>
+        <v>0.155197</v>
       </c>
       <c r="C107" t="n">
-        <v>0.102574</v>
+        <v>0.101507</v>
       </c>
       <c r="D107" t="n">
-        <v>0.100462</v>
+        <v>0.102843</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.185488</v>
+        <v>0.18616</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0601282</v>
+        <v>0.0601994</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0601624</v>
+        <v>0.0607609</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.230628</v>
+        <v>0.232868</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0613851</v>
+        <v>0.0596086</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0614207</v>
+        <v>0.0624821</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08181910000000001</v>
+        <v>0.08326550000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0622986</v>
+        <v>0.0627786</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0627685</v>
+        <v>0.06377439999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0864751</v>
+        <v>0.0863213</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0640565</v>
+        <v>0.0648145</v>
       </c>
       <c r="D111" t="n">
-        <v>0.064591</v>
+        <v>0.06552570000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0901074</v>
+        <v>0.09003650000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0660177</v>
+        <v>0.0663634</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0660877</v>
+        <v>0.0667566</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0943533</v>
+        <v>0.0944528</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0660808</v>
+        <v>0.0689492</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0683744</v>
+        <v>0.0693742</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0985939</v>
+        <v>0.09806230000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0706161</v>
+        <v>0.07106750000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0713819</v>
+        <v>0.0715103</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.103627</v>
+        <v>0.10347</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0739614</v>
+        <v>0.0746428</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07399020000000001</v>
+        <v>0.0747317</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.109481</v>
+        <v>0.11107</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0775735</v>
+        <v>0.07833329999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.07764070000000001</v>
+        <v>0.0785583</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.116781</v>
+        <v>0.116966</v>
       </c>
       <c r="C117" t="n">
-        <v>0.080388</v>
+        <v>0.0806795</v>
       </c>
       <c r="D117" t="n">
-        <v>0.08234710000000001</v>
+        <v>0.083166</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.126474</v>
+        <v>0.127017</v>
       </c>
       <c r="C118" t="n">
-        <v>0.08776639999999999</v>
+        <v>0.086382</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0879489</v>
+        <v>0.0889899</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.135465</v>
+        <v>0.137346</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0933689</v>
+        <v>0.0942147</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0954608</v>
+        <v>0.09661450000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.150572</v>
+        <v>0.151014</v>
       </c>
       <c r="C120" t="n">
-        <v>0.104148</v>
+        <v>0.104346</v>
       </c>
       <c r="D120" t="n">
-        <v>0.103874</v>
+        <v>0.104872</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.169558</v>
+        <v>0.168126</v>
       </c>
       <c r="C121" t="n">
-        <v>0.113277</v>
+        <v>0.117038</v>
       </c>
       <c r="D121" t="n">
-        <v>0.116867</v>
+        <v>0.117846</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.196191</v>
+        <v>0.194745</v>
       </c>
       <c r="C122" t="n">
-        <v>0.135506</v>
+        <v>0.135891</v>
       </c>
       <c r="D122" t="n">
-        <v>0.135909</v>
+        <v>0.137154</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.237975</v>
+        <v>0.236204</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0832603</v>
+        <v>0.0841234</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0836301</v>
+        <v>0.0970121</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.10906</v>
+        <v>0.104723</v>
       </c>
       <c r="C124" t="n">
-        <v>0.08682289999999999</v>
+        <v>0.08456710000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0845045</v>
+        <v>0.097876</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.111947</v>
+        <v>0.113018</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0860279</v>
+        <v>0.0861273</v>
       </c>
       <c r="D125" t="n">
-        <v>0.08750960000000001</v>
+        <v>0.0968768</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.116159</v>
+        <v>0.115574</v>
       </c>
       <c r="C126" t="n">
-        <v>0.09161229999999999</v>
+        <v>0.09007660000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.08830440000000001</v>
+        <v>0.0985456</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.116285</v>
+        <v>0.115367</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0970028</v>
+        <v>0.0979129</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0916766</v>
+        <v>0.09889829999999999</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.118669</v>
+        <v>0.120247</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0937162</v>
+        <v>0.09503499999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0949453</v>
+        <v>0.101104</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.119962</v>
+        <v>0.123663</v>
       </c>
       <c r="C129" t="n">
-        <v>0.09809180000000001</v>
+        <v>0.0962142</v>
       </c>
       <c r="D129" t="n">
-        <v>0.09641669999999999</v>
+        <v>0.100606</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.127026</v>
+        <v>0.127346</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0998035</v>
+        <v>0.103696</v>
       </c>
       <c r="D130" t="n">
-        <v>0.09870950000000001</v>
+        <v>0.103909</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.129613</v>
+        <v>0.13185</v>
       </c>
       <c r="C131" t="n">
-        <v>0.104764</v>
+        <v>0.1006</v>
       </c>
       <c r="D131" t="n">
-        <v>0.101265</v>
+        <v>0.109045</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.137248</v>
+        <v>0.138996</v>
       </c>
       <c r="C132" t="n">
-        <v>0.107135</v>
+        <v>0.108641</v>
       </c>
       <c r="D132" t="n">
-        <v>0.105478</v>
+        <v>0.110335</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.14775</v>
+        <v>0.14509</v>
       </c>
       <c r="C133" t="n">
-        <v>0.112841</v>
+        <v>0.110773</v>
       </c>
       <c r="D133" t="n">
-        <v>0.112338</v>
+        <v>0.115887</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.161974</v>
+        <v>0.159007</v>
       </c>
       <c r="C134" t="n">
-        <v>0.119077</v>
+        <v>0.114183</v>
       </c>
       <c r="D134" t="n">
-        <v>0.117518</v>
+        <v>0.12457</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.174438</v>
+        <v>0.174971</v>
       </c>
       <c r="C135" t="n">
-        <v>0.128178</v>
+        <v>0.127818</v>
       </c>
       <c r="D135" t="n">
-        <v>0.12888</v>
+        <v>0.132728</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.202781</v>
+        <v>0.20025</v>
       </c>
       <c r="C136" t="n">
-        <v>0.144191</v>
+        <v>0.141677</v>
       </c>
       <c r="D136" t="n">
-        <v>0.145093</v>
+        <v>0.149517</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.241259</v>
+        <v>0.241518</v>
       </c>
       <c r="C137" t="n">
-        <v>0.165764</v>
+        <v>0.156259</v>
       </c>
       <c r="D137" t="n">
-        <v>0.169823</v>
+        <v>0.172732</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.181378</v>
+        <v>0.176252</v>
       </c>
       <c r="C138" t="n">
-        <v>0.164561</v>
+        <v>0.164967</v>
       </c>
       <c r="D138" t="n">
-        <v>0.17067</v>
+        <v>0.173366</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.184426</v>
+        <v>0.178862</v>
       </c>
       <c r="C139" t="n">
-        <v>0.165126</v>
+        <v>0.166954</v>
       </c>
       <c r="D139" t="n">
-        <v>0.170781</v>
+        <v>0.173808</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.177894</v>
+        <v>0.186589</v>
       </c>
       <c r="C140" t="n">
-        <v>0.159139</v>
+        <v>0.16749</v>
       </c>
       <c r="D140" t="n">
-        <v>0.174226</v>
+        <v>0.173896</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.188391</v>
+        <v>0.189016</v>
       </c>
       <c r="C141" t="n">
-        <v>0.171374</v>
+        <v>0.168685</v>
       </c>
       <c r="D141" t="n">
-        <v>0.174673</v>
+        <v>0.176221</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.189131</v>
+        <v>0.183465</v>
       </c>
       <c r="C142" t="n">
-        <v>0.163475</v>
+        <v>0.16293</v>
       </c>
       <c r="D142" t="n">
-        <v>0.175905</v>
+        <v>0.176922</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.193781</v>
+        <v>0.194458</v>
       </c>
       <c r="C143" t="n">
-        <v>0.165924</v>
+        <v>0.174409</v>
       </c>
       <c r="D143" t="n">
-        <v>0.178222</v>
+        <v>0.179243</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0324164</v>
+        <v>0.0322824</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0263569</v>
+        <v>0.0263222</v>
       </c>
       <c r="D2" t="n">
-        <v>0.130479</v>
+        <v>0.129244</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0349266</v>
+        <v>0.0344032</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0273028</v>
+        <v>0.0270122</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140394</v>
+        <v>0.141015</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0349807</v>
+        <v>0.0351879</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0241694</v>
+        <v>0.0240195</v>
       </c>
       <c r="D4" t="n">
-        <v>0.14758</v>
+        <v>0.149613</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0392042</v>
+        <v>0.0395009</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0246218</v>
+        <v>0.0246506</v>
       </c>
       <c r="D5" t="n">
-        <v>0.152904</v>
+        <v>0.155728</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0482543</v>
+        <v>0.0482358</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0261762</v>
+        <v>0.0260457</v>
       </c>
       <c r="D6" t="n">
-        <v>0.159677</v>
+        <v>0.162853</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07238029999999999</v>
+        <v>0.07190240000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0339076</v>
+        <v>0.033538</v>
       </c>
       <c r="D7" t="n">
-        <v>0.106216</v>
+        <v>0.107288</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.104607</v>
+        <v>0.10491</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0553766</v>
+        <v>0.0556688</v>
       </c>
       <c r="D8" t="n">
-        <v>0.111083</v>
+        <v>0.112832</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.146678</v>
+        <v>0.146914</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0255167</v>
+        <v>0.0257056</v>
       </c>
       <c r="D9" t="n">
-        <v>0.116077</v>
+        <v>0.117479</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0305968</v>
+        <v>0.0306895</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0255909</v>
+        <v>0.0256298</v>
       </c>
       <c r="D10" t="n">
-        <v>0.121964</v>
+        <v>0.123322</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0308911</v>
+        <v>0.0308763</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0259144</v>
+        <v>0.0258883</v>
       </c>
       <c r="D11" t="n">
-        <v>0.126126</v>
+        <v>0.128059</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0313263</v>
+        <v>0.0313351</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0260386</v>
+        <v>0.0260621</v>
       </c>
       <c r="D12" t="n">
-        <v>0.131793</v>
+        <v>0.133458</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0319413</v>
+        <v>0.0319095</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0262322</v>
+        <v>0.0262874</v>
       </c>
       <c r="D13" t="n">
-        <v>0.136017</v>
+        <v>0.137185</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0324478</v>
+        <v>0.0324453</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0263673</v>
+        <v>0.0263539</v>
       </c>
       <c r="D14" t="n">
-        <v>0.140247</v>
+        <v>0.141657</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0341755</v>
+        <v>0.0341805</v>
       </c>
       <c r="C15" t="n">
-        <v>0.026797</v>
+        <v>0.0267678</v>
       </c>
       <c r="D15" t="n">
-        <v>0.144624</v>
+        <v>0.146223</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0357091</v>
+        <v>0.035737</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0270342</v>
+        <v>0.027078</v>
       </c>
       <c r="D16" t="n">
-        <v>0.149531</v>
+        <v>0.150876</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0381181</v>
+        <v>0.0379768</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0273131</v>
+        <v>0.0272128</v>
       </c>
       <c r="D17" t="n">
-        <v>0.15331</v>
+        <v>0.154142</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0436737</v>
+        <v>0.0436176</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0274391</v>
+        <v>0.027262</v>
       </c>
       <c r="D18" t="n">
-        <v>0.158405</v>
+        <v>0.159272</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0495708</v>
+        <v>0.0494137</v>
       </c>
       <c r="C19" t="n">
-        <v>0.028273</v>
+        <v>0.0280866</v>
       </c>
       <c r="D19" t="n">
-        <v>0.163132</v>
+        <v>0.163983</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0598349</v>
+        <v>0.0597543</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0324201</v>
+        <v>0.0321293</v>
       </c>
       <c r="D20" t="n">
-        <v>0.167784</v>
+        <v>0.168275</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0755</v>
+        <v>0.07551570000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0429258</v>
+        <v>0.0427974</v>
       </c>
       <c r="D21" t="n">
-        <v>0.120227</v>
+        <v>0.120676</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.102504</v>
+        <v>0.102169</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0616625</v>
+        <v>0.0615478</v>
       </c>
       <c r="D22" t="n">
-        <v>0.124352</v>
+        <v>0.124834</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.132727</v>
+        <v>0.132854</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0265374</v>
+        <v>0.0265366</v>
       </c>
       <c r="D23" t="n">
-        <v>0.128653</v>
+        <v>0.128809</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0326057</v>
+        <v>0.0325775</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0269332</v>
+        <v>0.026899</v>
       </c>
       <c r="D24" t="n">
-        <v>0.133615</v>
+        <v>0.13422</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0330136</v>
+        <v>0.0329673</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0271665</v>
+        <v>0.0271121</v>
       </c>
       <c r="D25" t="n">
-        <v>0.137964</v>
+        <v>0.138629</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0334361</v>
+        <v>0.0334517</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0274207</v>
+        <v>0.0274124</v>
       </c>
       <c r="D26" t="n">
-        <v>0.142156</v>
+        <v>0.142708</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0339709</v>
+        <v>0.0340607</v>
       </c>
       <c r="C27" t="n">
-        <v>0.027773</v>
+        <v>0.0276521</v>
       </c>
       <c r="D27" t="n">
-        <v>0.146983</v>
+        <v>0.147472</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0350551</v>
+        <v>0.0350927</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0281058</v>
+        <v>0.0280554</v>
       </c>
       <c r="D28" t="n">
-        <v>0.151543</v>
+        <v>0.152236</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0369882</v>
+        <v>0.0369584</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0286334</v>
+        <v>0.0284788</v>
       </c>
       <c r="D29" t="n">
-        <v>0.156723</v>
+        <v>0.157489</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0383253</v>
+        <v>0.0383922</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0290695</v>
+        <v>0.0290352</v>
       </c>
       <c r="D30" t="n">
-        <v>0.160915</v>
+        <v>0.161467</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0410764</v>
+        <v>0.0411507</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02985</v>
+        <v>0.0298622</v>
       </c>
       <c r="D31" t="n">
-        <v>0.165267</v>
+        <v>0.16594</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0472792</v>
+        <v>0.0472925</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0308471</v>
+        <v>0.0307477</v>
       </c>
       <c r="D32" t="n">
-        <v>0.169326</v>
+        <v>0.169537</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0525011</v>
+        <v>0.0524849</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0334948</v>
+        <v>0.033964</v>
       </c>
       <c r="D33" t="n">
-        <v>0.174534</v>
+        <v>0.175441</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0644163</v>
+        <v>0.0645128</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0404346</v>
+        <v>0.0403945</v>
       </c>
       <c r="D34" t="n">
-        <v>0.179083</v>
+        <v>0.179804</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0797027</v>
+        <v>0.0797957</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0474469</v>
+        <v>0.0474295</v>
       </c>
       <c r="D35" t="n">
-        <v>0.12668</v>
+        <v>0.126855</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09525110000000001</v>
+        <v>0.09542539999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0593245</v>
+        <v>0.059375</v>
       </c>
       <c r="D36" t="n">
-        <v>0.131462</v>
+        <v>0.131375</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.129995</v>
+        <v>0.130201</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0276052</v>
+        <v>0.0275899</v>
       </c>
       <c r="D37" t="n">
-        <v>0.136136</v>
+        <v>0.135832</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0333072</v>
+        <v>0.0333742</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0280377</v>
+        <v>0.0279902</v>
       </c>
       <c r="D38" t="n">
-        <v>0.140939</v>
+        <v>0.140799</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0342809</v>
+        <v>0.0337717</v>
       </c>
       <c r="C39" t="n">
-        <v>0.02835</v>
+        <v>0.0283011</v>
       </c>
       <c r="D39" t="n">
-        <v>0.146199</v>
+        <v>0.146116</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0347791</v>
+        <v>0.034899</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0286572</v>
+        <v>0.0289028</v>
       </c>
       <c r="D40" t="n">
-        <v>0.15123</v>
+        <v>0.150909</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0356705</v>
+        <v>0.035735</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0291056</v>
+        <v>0.0291533</v>
       </c>
       <c r="D41" t="n">
-        <v>0.155837</v>
+        <v>0.155656</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0367975</v>
+        <v>0.0370289</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0294942</v>
+        <v>0.029592</v>
       </c>
       <c r="D42" t="n">
-        <v>0.160362</v>
+        <v>0.160401</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0382554</v>
+        <v>0.0380257</v>
       </c>
       <c r="C43" t="n">
-        <v>0.030204</v>
+        <v>0.0301805</v>
       </c>
       <c r="D43" t="n">
-        <v>0.164949</v>
+        <v>0.164824</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.040405</v>
+        <v>0.0402112</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0307943</v>
+        <v>0.0308556</v>
       </c>
       <c r="D44" t="n">
-        <v>0.168995</v>
+        <v>0.168967</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0429442</v>
+        <v>0.0427517</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0318931</v>
+        <v>0.032005</v>
       </c>
       <c r="D45" t="n">
-        <v>0.173041</v>
+        <v>0.173301</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0474643</v>
+        <v>0.0484828</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0334721</v>
+        <v>0.0337069</v>
       </c>
       <c r="D46" t="n">
-        <v>0.176828</v>
+        <v>0.177182</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0538504</v>
+        <v>0.0535999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0359887</v>
+        <v>0.0361015</v>
       </c>
       <c r="D47" t="n">
-        <v>0.181141</v>
+        <v>0.181504</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0624669</v>
+        <v>0.0625674</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0405908</v>
+        <v>0.0406841</v>
       </c>
       <c r="D48" t="n">
-        <v>0.185789</v>
+        <v>0.186374</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0738621</v>
+        <v>0.0740185</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0469607</v>
+        <v>0.0470313</v>
       </c>
       <c r="D49" t="n">
-        <v>0.189955</v>
+        <v>0.190322</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0932694</v>
+        <v>0.09344230000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0563327</v>
+        <v>0.0563648</v>
       </c>
       <c r="D50" t="n">
-        <v>0.134377</v>
+        <v>0.134347</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.12596</v>
+        <v>0.125952</v>
       </c>
       <c r="C51" t="n">
-        <v>0.030655</v>
+        <v>0.0298789</v>
       </c>
       <c r="D51" t="n">
-        <v>0.139037</v>
+        <v>0.139165</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168125</v>
+        <v>0.168287</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0300832</v>
+        <v>0.0308897</v>
       </c>
       <c r="D52" t="n">
-        <v>0.143836</v>
+        <v>0.144128</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0359056</v>
+        <v>0.0356781</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0311421</v>
+        <v>0.0301849</v>
       </c>
       <c r="D53" t="n">
-        <v>0.149104</v>
+        <v>0.149098</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0365318</v>
+        <v>0.0392596</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0307296</v>
+        <v>0.031977</v>
       </c>
       <c r="D54" t="n">
-        <v>0.153848</v>
+        <v>0.1542</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0378332</v>
+        <v>0.0393626</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0319392</v>
+        <v>0.0310522</v>
       </c>
       <c r="D55" t="n">
-        <v>0.158767</v>
+        <v>0.158955</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0382405</v>
+        <v>0.0379037</v>
       </c>
       <c r="C56" t="n">
-        <v>0.03136</v>
+        <v>0.0315123</v>
       </c>
       <c r="D56" t="n">
-        <v>0.163608</v>
+        <v>0.163319</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0402874</v>
+        <v>0.0417762</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0322493</v>
+        <v>0.032916</v>
       </c>
       <c r="D57" t="n">
-        <v>0.16808</v>
+        <v>0.167831</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.041615</v>
+        <v>0.0412521</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0329038</v>
+        <v>0.0330644</v>
       </c>
       <c r="D58" t="n">
-        <v>0.173289</v>
+        <v>0.172353</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0452785</v>
+        <v>0.0438807</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0338462</v>
+        <v>0.03424</v>
       </c>
       <c r="D59" t="n">
-        <v>0.17752</v>
+        <v>0.176294</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0473193</v>
+        <v>0.0473412</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0358253</v>
+        <v>0.03659</v>
       </c>
       <c r="D60" t="n">
-        <v>0.18232</v>
+        <v>0.180408</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0522915</v>
+        <v>0.054087</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0388369</v>
+        <v>0.0392751</v>
       </c>
       <c r="D61" t="n">
-        <v>0.187016</v>
+        <v>0.184108</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.059937</v>
+        <v>0.0604745</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0418052</v>
+        <v>0.0415968</v>
       </c>
       <c r="D62" t="n">
-        <v>0.192446</v>
+        <v>0.188514</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0714114</v>
+        <v>0.07311670000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0465069</v>
+        <v>0.046689</v>
       </c>
       <c r="D63" t="n">
-        <v>0.199424</v>
+        <v>0.19365</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08876879999999999</v>
+        <v>0.0897891</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0555471</v>
+        <v>0.0555127</v>
       </c>
       <c r="D64" t="n">
-        <v>0.148762</v>
+        <v>0.140953</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115947</v>
+        <v>0.116412</v>
       </c>
       <c r="C65" t="n">
-        <v>0.07020560000000001</v>
+        <v>0.0710307</v>
       </c>
       <c r="D65" t="n">
-        <v>0.155711</v>
+        <v>0.146466</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.15895</v>
+        <v>0.158836</v>
       </c>
       <c r="C66" t="n">
-        <v>0.035553</v>
+        <v>0.0358818</v>
       </c>
       <c r="D66" t="n">
-        <v>0.163818</v>
+        <v>0.151898</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0408982</v>
+        <v>0.0412404</v>
       </c>
       <c r="C67" t="n">
-        <v>0.035742</v>
+        <v>0.0365114</v>
       </c>
       <c r="D67" t="n">
-        <v>0.172108</v>
+        <v>0.159175</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0414028</v>
+        <v>0.0414468</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0370821</v>
+        <v>0.037504</v>
       </c>
       <c r="D68" t="n">
-        <v>0.17986</v>
+        <v>0.166346</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0423666</v>
+        <v>0.0424623</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0377463</v>
+        <v>0.0377763</v>
       </c>
       <c r="D69" t="n">
-        <v>0.18849</v>
+        <v>0.173357</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0433734</v>
+        <v>0.0434322</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0382899</v>
+        <v>0.0383802</v>
       </c>
       <c r="D70" t="n">
-        <v>0.197182</v>
+        <v>0.181292</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0441815</v>
+        <v>0.0443544</v>
       </c>
       <c r="C71" t="n">
-        <v>0.03973</v>
+        <v>0.0391408</v>
       </c>
       <c r="D71" t="n">
-        <v>0.20729</v>
+        <v>0.190269</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0465483</v>
+        <v>0.0464895</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0396141</v>
+        <v>0.0388299</v>
       </c>
       <c r="D72" t="n">
-        <v>0.21682</v>
+        <v>0.200547</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0486677</v>
+        <v>0.0485595</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0405712</v>
+        <v>0.0398149</v>
       </c>
       <c r="D73" t="n">
-        <v>0.228607</v>
+        <v>0.2126</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0519819</v>
+        <v>0.0520269</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0420106</v>
+        <v>0.0410886</v>
       </c>
       <c r="D74" t="n">
-        <v>0.237498</v>
+        <v>0.224945</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0563901</v>
+        <v>0.0567309</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0433548</v>
+        <v>0.0439098</v>
       </c>
       <c r="D75" t="n">
-        <v>0.24884</v>
+        <v>0.237926</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.063335</v>
+        <v>0.0629387</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0464823</v>
+        <v>0.0462734</v>
       </c>
       <c r="D76" t="n">
-        <v>0.262792</v>
+        <v>0.251922</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0746383</v>
+        <v>0.0743926</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0511487</v>
+        <v>0.0506526</v>
       </c>
       <c r="D77" t="n">
-        <v>0.277165</v>
+        <v>0.26785</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0893716</v>
+        <v>0.0889963</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0592482</v>
+        <v>0.0588438</v>
       </c>
       <c r="D78" t="n">
-        <v>0.235699</v>
+        <v>0.225086</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.113122</v>
+        <v>0.112797</v>
       </c>
       <c r="C79" t="n">
-        <v>0.07116219999999999</v>
+        <v>0.0709147</v>
       </c>
       <c r="D79" t="n">
-        <v>0.247339</v>
+        <v>0.236501</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.153632</v>
+        <v>0.153029</v>
       </c>
       <c r="C80" t="n">
-        <v>0.040309</v>
+        <v>0.0402024</v>
       </c>
       <c r="D80" t="n">
-        <v>0.258606</v>
+        <v>0.248998</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0466963</v>
+        <v>0.0473407</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0408552</v>
+        <v>0.0408718</v>
       </c>
       <c r="D81" t="n">
-        <v>0.269545</v>
+        <v>0.263935</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0480189</v>
+        <v>0.0482437</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0413659</v>
+        <v>0.0411281</v>
       </c>
       <c r="D82" t="n">
-        <v>0.282759</v>
+        <v>0.275361</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.049739</v>
+        <v>0.0501104</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0417545</v>
+        <v>0.0417555</v>
       </c>
       <c r="D83" t="n">
-        <v>0.295653</v>
+        <v>0.288754</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0524913</v>
+        <v>0.0519304</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0426872</v>
+        <v>0.0425065</v>
       </c>
       <c r="D84" t="n">
-        <v>0.309709</v>
+        <v>0.302139</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0536726</v>
+        <v>0.0544892</v>
       </c>
       <c r="C85" t="n">
-        <v>0.043503</v>
+        <v>0.043604</v>
       </c>
       <c r="D85" t="n">
-        <v>0.323297</v>
+        <v>0.316608</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0572889</v>
+        <v>0.0568561</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0451533</v>
+        <v>0.0454898</v>
       </c>
       <c r="D86" t="n">
-        <v>0.336847</v>
+        <v>0.330531</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0612401</v>
+        <v>0.0608234</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0471805</v>
+        <v>0.0474344</v>
       </c>
       <c r="D87" t="n">
-        <v>0.351193</v>
+        <v>0.346167</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0664656</v>
+        <v>0.06630030000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0499341</v>
+        <v>0.0497229</v>
       </c>
       <c r="D88" t="n">
-        <v>0.364207</v>
+        <v>0.361257</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0727213</v>
+        <v>0.0724948</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0529313</v>
+        <v>0.0524212</v>
       </c>
       <c r="D89" t="n">
-        <v>0.377595</v>
+        <v>0.376684</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0808425</v>
+        <v>0.0809745</v>
       </c>
       <c r="C90" t="n">
-        <v>0.057637</v>
+        <v>0.0574264</v>
       </c>
       <c r="D90" t="n">
-        <v>0.393838</v>
+        <v>0.393508</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0927374</v>
+        <v>0.09208479999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0640126</v>
+        <v>0.0629362</v>
       </c>
       <c r="D91" t="n">
-        <v>0.413009</v>
+        <v>0.411343</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.108104</v>
+        <v>0.108038</v>
       </c>
       <c r="C92" t="n">
-        <v>0.07352450000000001</v>
+        <v>0.0727768</v>
       </c>
       <c r="D92" t="n">
-        <v>0.333438</v>
+        <v>0.332451</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.12956</v>
+        <v>0.12872</v>
       </c>
       <c r="C93" t="n">
-        <v>0.08656469999999999</v>
+        <v>0.0848904</v>
       </c>
       <c r="D93" t="n">
-        <v>0.344586</v>
+        <v>0.344153</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.162815</v>
+        <v>0.162723</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0505955</v>
+        <v>0.0502645</v>
       </c>
       <c r="D94" t="n">
-        <v>0.356276</v>
+        <v>0.355415</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06711640000000001</v>
+        <v>0.0667923</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0522627</v>
+        <v>0.0516187</v>
       </c>
       <c r="D95" t="n">
-        <v>0.368181</v>
+        <v>0.366921</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0695099</v>
+        <v>0.06984170000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0538775</v>
+        <v>0.0536577</v>
       </c>
       <c r="D96" t="n">
-        <v>0.380155</v>
+        <v>0.379006</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07252160000000001</v>
+        <v>0.07224170000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0557361</v>
+        <v>0.0557072</v>
       </c>
       <c r="D97" t="n">
-        <v>0.392572</v>
+        <v>0.391555</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0753919</v>
+        <v>0.0748653</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0571059</v>
+        <v>0.057762</v>
       </c>
       <c r="D98" t="n">
-        <v>0.404888</v>
+        <v>0.403521</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0779913</v>
+        <v>0.0778739</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0594556</v>
+        <v>0.0594487</v>
       </c>
       <c r="D99" t="n">
-        <v>0.418246</v>
+        <v>0.417164</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0795785</v>
+        <v>0.0798939</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0618048</v>
+        <v>0.0613339</v>
       </c>
       <c r="D100" t="n">
-        <v>0.432012</v>
+        <v>0.430435</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08538370000000001</v>
+        <v>0.0850711</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0640515</v>
+        <v>0.0636728</v>
       </c>
       <c r="D101" t="n">
-        <v>0.446052</v>
+        <v>0.444627</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0896781</v>
+        <v>0.0888615</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0669092</v>
+        <v>0.06674869999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.460942</v>
+        <v>0.460006</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09587179999999999</v>
+        <v>0.0953324</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0701779</v>
+        <v>0.0683523</v>
       </c>
       <c r="D103" t="n">
-        <v>0.476342</v>
+        <v>0.475484</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.103275</v>
+        <v>0.102982</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0731121</v>
+        <v>0.0732207</v>
       </c>
       <c r="D104" t="n">
-        <v>0.492877</v>
+        <v>0.491603</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.113689</v>
+        <v>0.113586</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0793837</v>
+        <v>0.07856779999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.509476</v>
+        <v>0.508988</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.128599</v>
+        <v>0.128232</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0883115</v>
+        <v>0.08745319999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.527215</v>
+        <v>0.525655</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.149683</v>
+        <v>0.14945</v>
       </c>
       <c r="C107" t="n">
-        <v>0.100176</v>
+        <v>0.0992391</v>
       </c>
       <c r="D107" t="n">
-        <v>0.401602</v>
+        <v>0.398903</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.180069</v>
+        <v>0.179575</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0588161</v>
+        <v>0.0567709</v>
       </c>
       <c r="D108" t="n">
-        <v>0.412531</v>
+        <v>0.410022</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.224218</v>
+        <v>0.225164</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0602911</v>
+        <v>0.05945</v>
       </c>
       <c r="D109" t="n">
-        <v>0.423932</v>
+        <v>0.421203</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0796882</v>
+        <v>0.0807948</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0603254</v>
+        <v>0.0610341</v>
       </c>
       <c r="D110" t="n">
-        <v>0.435226</v>
+        <v>0.432629</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0834404</v>
+        <v>0.08333550000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0608196</v>
+        <v>0.0621968</v>
       </c>
       <c r="D111" t="n">
-        <v>0.447013</v>
+        <v>0.444266</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0868415</v>
+        <v>0.0856349</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0645473</v>
+        <v>0.0639927</v>
       </c>
       <c r="D112" t="n">
-        <v>0.459209</v>
+        <v>0.456273</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.09122420000000001</v>
+        <v>0.0910812</v>
       </c>
       <c r="C113" t="n">
-        <v>0.066819</v>
+        <v>0.06635539999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.471615</v>
+        <v>0.468816</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0946086</v>
+        <v>0.0958357</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0685788</v>
+        <v>0.0684307</v>
       </c>
       <c r="D114" t="n">
-        <v>0.485117</v>
+        <v>0.482068</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.101286</v>
+        <v>0.101311</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0716789</v>
+        <v>0.07158009999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.499011</v>
+        <v>0.495606</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.107175</v>
+        <v>0.105481</v>
       </c>
       <c r="C116" t="n">
-        <v>0.07562099999999999</v>
+        <v>0.0754262</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5134339999999999</v>
+        <v>0.509948</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.113857</v>
+        <v>0.113561</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0799608</v>
+        <v>0.0793489</v>
       </c>
       <c r="D117" t="n">
-        <v>0.528268</v>
+        <v>0.520545</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121961</v>
+        <v>0.121534</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0852406</v>
+        <v>0.0847781</v>
       </c>
       <c r="D118" t="n">
-        <v>0.544</v>
+        <v>0.5360740000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.132656</v>
+        <v>0.131913</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0918788</v>
+        <v>0.0911366</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5605</v>
+        <v>0.556883</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.145169</v>
+        <v>0.142953</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0998429</v>
+        <v>0.0997904</v>
       </c>
       <c r="D120" t="n">
-        <v>0.578176</v>
+        <v>0.573966</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163447</v>
+        <v>0.162889</v>
       </c>
       <c r="C121" t="n">
-        <v>0.112337</v>
+        <v>0.111643</v>
       </c>
       <c r="D121" t="n">
-        <v>0.427039</v>
+        <v>0.428011</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.189357</v>
+        <v>0.188492</v>
       </c>
       <c r="C122" t="n">
-        <v>0.130345</v>
+        <v>0.13009</v>
       </c>
       <c r="D122" t="n">
-        <v>0.441902</v>
+        <v>0.438422</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.22928</v>
+        <v>0.228264</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0887642</v>
+        <v>0.0841292</v>
       </c>
       <c r="D123" t="n">
-        <v>0.453665</v>
+        <v>0.450313</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.104385</v>
+        <v>0.103491</v>
       </c>
       <c r="C124" t="n">
-        <v>0.084663</v>
+        <v>0.0814975</v>
       </c>
       <c r="D124" t="n">
-        <v>0.462036</v>
+        <v>0.458699</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.105739</v>
+        <v>0.105534</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0804137</v>
+        <v>0.08227660000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.476804</v>
+        <v>0.473392</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.108563</v>
+        <v>0.106404</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0863905</v>
+        <v>0.08496099999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.488719</v>
+        <v>0.485817</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111875</v>
+        <v>0.10427</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0843436</v>
+        <v>0.0874286</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5011100000000001</v>
+        <v>0.498276</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.116051</v>
+        <v>0.115923</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0881506</v>
+        <v>0.08801390000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.514354</v>
+        <v>0.511189</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.122377</v>
+        <v>0.117453</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0976891</v>
+        <v>0.09060989999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.527922</v>
+        <v>0.521817</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.121646</v>
+        <v>0.116173</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0970637</v>
+        <v>0.0926709</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5424909999999999</v>
+        <v>0.536656</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.129377</v>
+        <v>0.125608</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0917845</v>
+        <v>0.09264120000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.554432</v>
+        <v>0.554014</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.134806</v>
+        <v>0.133655</v>
       </c>
       <c r="C132" t="n">
-        <v>0.102171</v>
+        <v>0.102389</v>
       </c>
       <c r="D132" t="n">
-        <v>0.573478</v>
+        <v>0.5692430000000001</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.137604</v>
+        <v>0.141942</v>
       </c>
       <c r="C133" t="n">
-        <v>0.105626</v>
+        <v>0.107216</v>
       </c>
       <c r="D133" t="n">
-        <v>0.590158</v>
+        <v>0.585553</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.154979</v>
+        <v>0.154652</v>
       </c>
       <c r="C134" t="n">
-        <v>0.113255</v>
+        <v>0.113452</v>
       </c>
       <c r="D134" t="n">
-        <v>0.606814</v>
+        <v>0.603611</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.171847</v>
+        <v>0.169339</v>
       </c>
       <c r="C135" t="n">
-        <v>0.131276</v>
+        <v>0.121885</v>
       </c>
       <c r="D135" t="n">
-        <v>0.445557</v>
+        <v>0.444713</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.189111</v>
+        <v>0.194531</v>
       </c>
       <c r="C136" t="n">
-        <v>0.14039</v>
+        <v>0.137731</v>
       </c>
       <c r="D136" t="n">
-        <v>0.456648</v>
+        <v>0.454981</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232148</v>
+        <v>0.232162</v>
       </c>
       <c r="C137" t="n">
-        <v>0.156873</v>
+        <v>0.15552</v>
       </c>
       <c r="D137" t="n">
-        <v>0.470429</v>
+        <v>0.467808</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.171758</v>
+        <v>0.168716</v>
       </c>
       <c r="C138" t="n">
-        <v>0.156679</v>
+        <v>0.145196</v>
       </c>
       <c r="D138" t="n">
-        <v>0.482185</v>
+        <v>0.479462</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.167194</v>
+        <v>0.173458</v>
       </c>
       <c r="C139" t="n">
-        <v>0.157073</v>
+        <v>0.151038</v>
       </c>
       <c r="D139" t="n">
-        <v>0.493962</v>
+        <v>0.491263</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.177288</v>
+        <v>0.171917</v>
       </c>
       <c r="C140" t="n">
-        <v>0.149605</v>
+        <v>0.147598</v>
       </c>
       <c r="D140" t="n">
-        <v>0.504317</v>
+        <v>0.503385</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.173533</v>
+        <v>0.175185</v>
       </c>
       <c r="C141" t="n">
-        <v>0.158483</v>
+        <v>0.161218</v>
       </c>
       <c r="D141" t="n">
-        <v>0.516948</v>
+        <v>0.515969</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.178696</v>
+        <v>0.175998</v>
       </c>
       <c r="C142" t="n">
-        <v>0.162089</v>
+        <v>0.160224</v>
       </c>
       <c r="D142" t="n">
-        <v>0.531834</v>
+        <v>0.527783</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.178057</v>
+        <v>0.173795</v>
       </c>
       <c r="C143" t="n">
-        <v>0.16412</v>
+        <v>0.162611</v>
       </c>
       <c r="D143" t="n">
-        <v>0.54534</v>
+        <v>0.542168</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0322824</v>
+        <v>0.0323145</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0263222</v>
+        <v>0.0279598</v>
       </c>
       <c r="D2" t="n">
-        <v>0.129244</v>
+        <v>0.12658</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0344032</v>
+        <v>0.0338371</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0270122</v>
+        <v>0.0284529</v>
       </c>
       <c r="D3" t="n">
-        <v>0.141015</v>
+        <v>0.134958</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0351879</v>
+        <v>0.0352476</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0240195</v>
+        <v>0.0259889</v>
       </c>
       <c r="D4" t="n">
-        <v>0.149613</v>
+        <v>0.141221</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0395009</v>
+        <v>0.0391054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0246506</v>
+        <v>0.0264861</v>
       </c>
       <c r="D5" t="n">
-        <v>0.155728</v>
+        <v>0.145596</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0482358</v>
+        <v>0.0485408</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0260457</v>
+        <v>0.0280823</v>
       </c>
       <c r="D6" t="n">
-        <v>0.162853</v>
+        <v>0.15312</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07190240000000001</v>
+        <v>0.07191939999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.033538</v>
+        <v>0.036552</v>
       </c>
       <c r="D7" t="n">
-        <v>0.107288</v>
+        <v>0.105924</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.10491</v>
+        <v>0.104939</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0556688</v>
+        <v>0.0583311</v>
       </c>
       <c r="D8" t="n">
-        <v>0.112832</v>
+        <v>0.111227</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.146914</v>
+        <v>0.146926</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0257056</v>
+        <v>0.0276355</v>
       </c>
       <c r="D9" t="n">
-        <v>0.117479</v>
+        <v>0.116645</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0306895</v>
+        <v>0.0306919</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0256298</v>
+        <v>0.0277768</v>
       </c>
       <c r="D10" t="n">
-        <v>0.123322</v>
+        <v>0.121222</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0308763</v>
+        <v>0.0310106</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0258883</v>
+        <v>0.0278849</v>
       </c>
       <c r="D11" t="n">
-        <v>0.128059</v>
+        <v>0.125957</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0313351</v>
+        <v>0.0314387</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0260621</v>
+        <v>0.0280908</v>
       </c>
       <c r="D12" t="n">
-        <v>0.133458</v>
+        <v>0.130751</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0319095</v>
+        <v>0.032135</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0262874</v>
+        <v>0.0285455</v>
       </c>
       <c r="D13" t="n">
-        <v>0.137185</v>
+        <v>0.133714</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0324453</v>
+        <v>0.0325938</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0263539</v>
+        <v>0.0288488</v>
       </c>
       <c r="D14" t="n">
-        <v>0.141657</v>
+        <v>0.138456</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0341805</v>
+        <v>0.0342263</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0267678</v>
+        <v>0.0290608</v>
       </c>
       <c r="D15" t="n">
-        <v>0.146223</v>
+        <v>0.143156</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.035737</v>
+        <v>0.0359027</v>
       </c>
       <c r="C16" t="n">
-        <v>0.027078</v>
+        <v>0.0295414</v>
       </c>
       <c r="D16" t="n">
-        <v>0.150876</v>
+        <v>0.147648</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0379768</v>
+        <v>0.0383246</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0272128</v>
+        <v>0.0296753</v>
       </c>
       <c r="D17" t="n">
-        <v>0.154142</v>
+        <v>0.152513</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0436176</v>
+        <v>0.0438041</v>
       </c>
       <c r="C18" t="n">
-        <v>0.027262</v>
+        <v>0.0303907</v>
       </c>
       <c r="D18" t="n">
-        <v>0.159272</v>
+        <v>0.156745</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0494137</v>
+        <v>0.049712</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0280866</v>
+        <v>0.0308627</v>
       </c>
       <c r="D19" t="n">
-        <v>0.163983</v>
+        <v>0.161972</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0597543</v>
+        <v>0.0598611</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0321293</v>
+        <v>0.0336519</v>
       </c>
       <c r="D20" t="n">
-        <v>0.168275</v>
+        <v>0.16596</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07551570000000001</v>
+        <v>0.0755126</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0427974</v>
+        <v>0.0454181</v>
       </c>
       <c r="D21" t="n">
-        <v>0.120676</v>
+        <v>0.121611</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.102169</v>
+        <v>0.102434</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0615478</v>
+        <v>0.0603822</v>
       </c>
       <c r="D22" t="n">
-        <v>0.124834</v>
+        <v>0.125636</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.132854</v>
+        <v>0.133032</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0265366</v>
+        <v>0.028948</v>
       </c>
       <c r="D23" t="n">
-        <v>0.128809</v>
+        <v>0.129833</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0325775</v>
+        <v>0.0325479</v>
       </c>
       <c r="C24" t="n">
-        <v>0.026899</v>
+        <v>0.0292035</v>
       </c>
       <c r="D24" t="n">
-        <v>0.13422</v>
+        <v>0.134691</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0329673</v>
+        <v>0.0329472</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0271121</v>
+        <v>0.0293824</v>
       </c>
       <c r="D25" t="n">
-        <v>0.138629</v>
+        <v>0.138276</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0334517</v>
+        <v>0.0333814</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0274124</v>
+        <v>0.0296546</v>
       </c>
       <c r="D26" t="n">
-        <v>0.142708</v>
+        <v>0.14233</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0340607</v>
+        <v>0.0338113</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0276521</v>
+        <v>0.0298812</v>
       </c>
       <c r="D27" t="n">
-        <v>0.147472</v>
+        <v>0.147032</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0350927</v>
+        <v>0.0350057</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0280554</v>
+        <v>0.0302514</v>
       </c>
       <c r="D28" t="n">
-        <v>0.152236</v>
+        <v>0.151592</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0369584</v>
+        <v>0.0369166</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0284788</v>
+        <v>0.0307423</v>
       </c>
       <c r="D29" t="n">
-        <v>0.157489</v>
+        <v>0.156304</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0383922</v>
+        <v>0.0382801</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0290352</v>
+        <v>0.0312339</v>
       </c>
       <c r="D30" t="n">
-        <v>0.161467</v>
+        <v>0.160184</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0411507</v>
+        <v>0.0410848</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0298622</v>
+        <v>0.0318644</v>
       </c>
       <c r="D31" t="n">
-        <v>0.16594</v>
+        <v>0.16464</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0472925</v>
+        <v>0.0472548</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0307477</v>
+        <v>0.0328818</v>
       </c>
       <c r="D32" t="n">
-        <v>0.169537</v>
+        <v>0.168565</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0524849</v>
+        <v>0.0524553</v>
       </c>
       <c r="C33" t="n">
-        <v>0.033964</v>
+        <v>0.0352737</v>
       </c>
       <c r="D33" t="n">
-        <v>0.175441</v>
+        <v>0.173366</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0645128</v>
+        <v>0.0644487</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0403945</v>
+        <v>0.0413489</v>
       </c>
       <c r="D34" t="n">
-        <v>0.179804</v>
+        <v>0.177628</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0797957</v>
+        <v>0.07965410000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0474295</v>
+        <v>0.050244</v>
       </c>
       <c r="D35" t="n">
-        <v>0.126855</v>
+        <v>0.126957</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09542539999999999</v>
+        <v>0.0954139</v>
       </c>
       <c r="C36" t="n">
-        <v>0.059375</v>
+        <v>0.0611005</v>
       </c>
       <c r="D36" t="n">
-        <v>0.131375</v>
+        <v>0.131548</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.130201</v>
+        <v>0.130014</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0275899</v>
+        <v>0.0297067</v>
       </c>
       <c r="D37" t="n">
-        <v>0.135832</v>
+        <v>0.135766</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0333742</v>
+        <v>0.0332685</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0279902</v>
+        <v>0.0299335</v>
       </c>
       <c r="D38" t="n">
-        <v>0.140799</v>
+        <v>0.14027</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0337717</v>
+        <v>0.0338554</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0283011</v>
+        <v>0.0302244</v>
       </c>
       <c r="D39" t="n">
-        <v>0.146116</v>
+        <v>0.144963</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.034899</v>
+        <v>0.0348578</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0289028</v>
+        <v>0.030593</v>
       </c>
       <c r="D40" t="n">
-        <v>0.150909</v>
+        <v>0.149735</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.035735</v>
+        <v>0.0357716</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0291533</v>
+        <v>0.0308963</v>
       </c>
       <c r="D41" t="n">
-        <v>0.155656</v>
+        <v>0.154242</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0370289</v>
+        <v>0.0368125</v>
       </c>
       <c r="C42" t="n">
-        <v>0.029592</v>
+        <v>0.031332</v>
       </c>
       <c r="D42" t="n">
-        <v>0.160401</v>
+        <v>0.158578</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0380257</v>
+        <v>0.0380668</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0301805</v>
+        <v>0.0318708</v>
       </c>
       <c r="D43" t="n">
-        <v>0.164824</v>
+        <v>0.162886</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0402112</v>
+        <v>0.0402239</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0308556</v>
+        <v>0.032561</v>
       </c>
       <c r="D44" t="n">
-        <v>0.168967</v>
+        <v>0.166936</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0427517</v>
+        <v>0.0427814</v>
       </c>
       <c r="C45" t="n">
-        <v>0.032005</v>
+        <v>0.0333042</v>
       </c>
       <c r="D45" t="n">
-        <v>0.173301</v>
+        <v>0.170792</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0484828</v>
+        <v>0.0476193</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0337069</v>
+        <v>0.0349813</v>
       </c>
       <c r="D46" t="n">
-        <v>0.177182</v>
+        <v>0.174482</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0535999</v>
+        <v>0.0534763</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0361015</v>
+        <v>0.0374221</v>
       </c>
       <c r="D47" t="n">
-        <v>0.181504</v>
+        <v>0.178645</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0625674</v>
+        <v>0.06250029999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0406841</v>
+        <v>0.0418981</v>
       </c>
       <c r="D48" t="n">
-        <v>0.186374</v>
+        <v>0.18312</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0740185</v>
+        <v>0.0739423</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0470313</v>
+        <v>0.0478418</v>
       </c>
       <c r="D49" t="n">
-        <v>0.190322</v>
+        <v>0.18761</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09344230000000001</v>
+        <v>0.0933016</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0563648</v>
+        <v>0.0572463</v>
       </c>
       <c r="D50" t="n">
-        <v>0.134347</v>
+        <v>0.13425</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.125952</v>
+        <v>0.125822</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0298789</v>
+        <v>0.0327788</v>
       </c>
       <c r="D51" t="n">
-        <v>0.139165</v>
+        <v>0.138515</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168287</v>
+        <v>0.168211</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0308897</v>
+        <v>0.0330582</v>
       </c>
       <c r="D52" t="n">
-        <v>0.144128</v>
+        <v>0.143387</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0356781</v>
+        <v>0.0362303</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0301849</v>
+        <v>0.0331402</v>
       </c>
       <c r="D53" t="n">
-        <v>0.149098</v>
+        <v>0.148109</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0392596</v>
+        <v>0.0369578</v>
       </c>
       <c r="C54" t="n">
-        <v>0.031977</v>
+        <v>0.0346048</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1542</v>
+        <v>0.152752</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0393626</v>
+        <v>0.0371134</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0310522</v>
+        <v>0.0339432</v>
       </c>
       <c r="D55" t="n">
-        <v>0.158955</v>
+        <v>0.157046</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0379037</v>
+        <v>0.0385127</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0315123</v>
+        <v>0.0345022</v>
       </c>
       <c r="D56" t="n">
-        <v>0.163319</v>
+        <v>0.161268</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0417762</v>
+        <v>0.0396119</v>
       </c>
       <c r="C57" t="n">
-        <v>0.032916</v>
+        <v>0.0353502</v>
       </c>
       <c r="D57" t="n">
-        <v>0.167831</v>
+        <v>0.16554</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0412521</v>
+        <v>0.0418007</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0330644</v>
+        <v>0.0359895</v>
       </c>
       <c r="D58" t="n">
-        <v>0.172353</v>
+        <v>0.169637</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0438807</v>
+        <v>0.0441179</v>
       </c>
       <c r="C59" t="n">
-        <v>0.03424</v>
+        <v>0.037488</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176294</v>
+        <v>0.173438</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0473412</v>
+        <v>0.0480018</v>
       </c>
       <c r="C60" t="n">
-        <v>0.03659</v>
+        <v>0.0382582</v>
       </c>
       <c r="D60" t="n">
-        <v>0.180408</v>
+        <v>0.1776</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.054087</v>
+        <v>0.0530346</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0392751</v>
+        <v>0.0408428</v>
       </c>
       <c r="D61" t="n">
-        <v>0.184108</v>
+        <v>0.181551</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0604745</v>
+        <v>0.0600806</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0415968</v>
+        <v>0.0441332</v>
       </c>
       <c r="D62" t="n">
-        <v>0.188514</v>
+        <v>0.185817</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07311670000000001</v>
+        <v>0.0722086</v>
       </c>
       <c r="C63" t="n">
-        <v>0.046689</v>
+        <v>0.0491198</v>
       </c>
       <c r="D63" t="n">
-        <v>0.19365</v>
+        <v>0.190762</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0897891</v>
+        <v>0.08875329999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0555127</v>
+        <v>0.0569177</v>
       </c>
       <c r="D64" t="n">
-        <v>0.140953</v>
+        <v>0.142428</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116412</v>
+        <v>0.115642</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0710307</v>
+        <v>0.07046769999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.146466</v>
+        <v>0.148795</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.158836</v>
+        <v>0.158402</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0358818</v>
+        <v>0.0393083</v>
       </c>
       <c r="D66" t="n">
-        <v>0.151898</v>
+        <v>0.157796</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0412404</v>
+        <v>0.0412761</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0365114</v>
+        <v>0.0391397</v>
       </c>
       <c r="D67" t="n">
-        <v>0.159175</v>
+        <v>0.163691</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0414468</v>
+        <v>0.0414527</v>
       </c>
       <c r="C68" t="n">
-        <v>0.037504</v>
+        <v>0.0399055</v>
       </c>
       <c r="D68" t="n">
-        <v>0.166346</v>
+        <v>0.172158</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0424623</v>
+        <v>0.0427642</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0377763</v>
+        <v>0.0399699</v>
       </c>
       <c r="D69" t="n">
-        <v>0.173357</v>
+        <v>0.179972</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0434322</v>
+        <v>0.0437391</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0383802</v>
+        <v>0.0405242</v>
       </c>
       <c r="D70" t="n">
-        <v>0.181292</v>
+        <v>0.188955</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0443544</v>
+        <v>0.0445714</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0391408</v>
+        <v>0.0409259</v>
       </c>
       <c r="D71" t="n">
-        <v>0.190269</v>
+        <v>0.198658</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0464895</v>
+        <v>0.0460086</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0388299</v>
+        <v>0.0422019</v>
       </c>
       <c r="D72" t="n">
-        <v>0.200547</v>
+        <v>0.208475</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0485595</v>
+        <v>0.0481641</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0398149</v>
+        <v>0.0431931</v>
       </c>
       <c r="D73" t="n">
-        <v>0.2126</v>
+        <v>0.221209</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0520269</v>
+        <v>0.0515106</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0410886</v>
+        <v>0.0445159</v>
       </c>
       <c r="D74" t="n">
-        <v>0.224945</v>
+        <v>0.232117</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0567309</v>
+        <v>0.0563606</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0439098</v>
+        <v>0.0455593</v>
       </c>
       <c r="D75" t="n">
-        <v>0.237926</v>
+        <v>0.243705</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0629387</v>
+        <v>0.06267789999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0462734</v>
+        <v>0.0481684</v>
       </c>
       <c r="D76" t="n">
-        <v>0.251922</v>
+        <v>0.25716</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0743926</v>
+        <v>0.0734974</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0506526</v>
+        <v>0.0529041</v>
       </c>
       <c r="D77" t="n">
-        <v>0.26785</v>
+        <v>0.270821</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0889963</v>
+        <v>0.0888544</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0588438</v>
+        <v>0.0600957</v>
       </c>
       <c r="D78" t="n">
-        <v>0.225086</v>
+        <v>0.224305</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112797</v>
+        <v>0.111938</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0709147</v>
+        <v>0.07232619999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.236501</v>
+        <v>0.235717</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.153029</v>
+        <v>0.15242</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0402024</v>
+        <v>0.0439055</v>
       </c>
       <c r="D80" t="n">
-        <v>0.248998</v>
+        <v>0.248805</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0473407</v>
+        <v>0.0476615</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0408718</v>
+        <v>0.0445466</v>
       </c>
       <c r="D81" t="n">
-        <v>0.263935</v>
+        <v>0.261362</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0482437</v>
+        <v>0.0484567</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0411281</v>
+        <v>0.0449702</v>
       </c>
       <c r="D82" t="n">
-        <v>0.275361</v>
+        <v>0.273851</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0501104</v>
+        <v>0.050981</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0417555</v>
+        <v>0.0461006</v>
       </c>
       <c r="D83" t="n">
-        <v>0.288754</v>
+        <v>0.28692</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0519304</v>
+        <v>0.0526092</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0425065</v>
+        <v>0.0469987</v>
       </c>
       <c r="D84" t="n">
-        <v>0.302139</v>
+        <v>0.300558</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0544892</v>
+        <v>0.0552202</v>
       </c>
       <c r="C85" t="n">
-        <v>0.043604</v>
+        <v>0.0482451</v>
       </c>
       <c r="D85" t="n">
-        <v>0.316608</v>
+        <v>0.314594</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0568561</v>
+        <v>0.0579304</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0454898</v>
+        <v>0.0500435</v>
       </c>
       <c r="D86" t="n">
-        <v>0.330531</v>
+        <v>0.329027</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0608234</v>
+        <v>0.0614202</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0474344</v>
+        <v>0.0519617</v>
       </c>
       <c r="D87" t="n">
-        <v>0.346167</v>
+        <v>0.343734</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06630030000000001</v>
+        <v>0.06630900000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0497229</v>
+        <v>0.0539653</v>
       </c>
       <c r="D88" t="n">
-        <v>0.361257</v>
+        <v>0.35836</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0724948</v>
+        <v>0.0726542</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0524212</v>
+        <v>0.057238</v>
       </c>
       <c r="D89" t="n">
-        <v>0.376684</v>
+        <v>0.375293</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0809745</v>
+        <v>0.0811257</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0574264</v>
+        <v>0.0607234</v>
       </c>
       <c r="D90" t="n">
-        <v>0.393508</v>
+        <v>0.392182</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.09208479999999999</v>
+        <v>0.0923098</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0629362</v>
+        <v>0.06715690000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.411343</v>
+        <v>0.409424</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.108038</v>
+        <v>0.107677</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0727768</v>
+        <v>0.0752925</v>
       </c>
       <c r="D92" t="n">
-        <v>0.332451</v>
+        <v>0.333172</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.12872</v>
+        <v>0.129136</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0848904</v>
+        <v>0.0883584</v>
       </c>
       <c r="D93" t="n">
-        <v>0.344153</v>
+        <v>0.344626</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.162723</v>
+        <v>0.163028</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0502645</v>
+        <v>0.0539326</v>
       </c>
       <c r="D94" t="n">
-        <v>0.355415</v>
+        <v>0.356336</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0667923</v>
+        <v>0.0660468</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0516187</v>
+        <v>0.0558427</v>
       </c>
       <c r="D95" t="n">
-        <v>0.366921</v>
+        <v>0.368645</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.06984170000000001</v>
+        <v>0.0693098</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0536577</v>
+        <v>0.0576908</v>
       </c>
       <c r="D96" t="n">
-        <v>0.379006</v>
+        <v>0.380466</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07224170000000001</v>
+        <v>0.07148640000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0557072</v>
+        <v>0.0598396</v>
       </c>
       <c r="D97" t="n">
-        <v>0.391555</v>
+        <v>0.392955</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0748653</v>
+        <v>0.0746796</v>
       </c>
       <c r="C98" t="n">
-        <v>0.057762</v>
+        <v>0.0617076</v>
       </c>
       <c r="D98" t="n">
-        <v>0.403521</v>
+        <v>0.405289</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0778739</v>
+        <v>0.0772974</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0594487</v>
+        <v>0.0642798</v>
       </c>
       <c r="D99" t="n">
-        <v>0.417164</v>
+        <v>0.418422</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0798939</v>
+        <v>0.08051319999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0613339</v>
+        <v>0.06624620000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.430435</v>
+        <v>0.432178</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0850711</v>
+        <v>0.0839963</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0636728</v>
+        <v>0.0681643</v>
       </c>
       <c r="D101" t="n">
-        <v>0.444627</v>
+        <v>0.446129</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0888615</v>
+        <v>0.08897040000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.06674869999999999</v>
+        <v>0.07100190000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.460006</v>
+        <v>0.461256</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0953324</v>
+        <v>0.09484480000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0683523</v>
+        <v>0.07381269999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.475484</v>
+        <v>0.477033</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.102982</v>
+        <v>0.102943</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0732207</v>
+        <v>0.0775023</v>
       </c>
       <c r="D104" t="n">
-        <v>0.491603</v>
+        <v>0.493007</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.113586</v>
+        <v>0.113409</v>
       </c>
       <c r="C105" t="n">
-        <v>0.07856779999999999</v>
+        <v>0.082533</v>
       </c>
       <c r="D105" t="n">
-        <v>0.508988</v>
+        <v>0.510338</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.128232</v>
+        <v>0.12843</v>
       </c>
       <c r="C106" t="n">
-        <v>0.08745319999999999</v>
+        <v>0.0907308</v>
       </c>
       <c r="D106" t="n">
-        <v>0.525655</v>
+        <v>0.527634</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.14945</v>
+        <v>0.149722</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0992391</v>
+        <v>0.103562</v>
       </c>
       <c r="D107" t="n">
-        <v>0.398903</v>
+        <v>0.401249</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.179575</v>
+        <v>0.18029</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0567709</v>
+        <v>0.0622813</v>
       </c>
       <c r="D108" t="n">
-        <v>0.410022</v>
+        <v>0.412303</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.225164</v>
+        <v>0.225393</v>
       </c>
       <c r="C109" t="n">
-        <v>0.05945</v>
+        <v>0.0638451</v>
       </c>
       <c r="D109" t="n">
-        <v>0.421203</v>
+        <v>0.423793</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0807948</v>
+        <v>0.0801877</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0610341</v>
+        <v>0.0650279</v>
       </c>
       <c r="D110" t="n">
-        <v>0.432629</v>
+        <v>0.435178</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08333550000000001</v>
+        <v>0.0829656</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0621968</v>
+        <v>0.0663624</v>
       </c>
       <c r="D111" t="n">
-        <v>0.444266</v>
+        <v>0.447027</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0856349</v>
+        <v>0.08673649999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0639927</v>
+        <v>0.0670999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.456273</v>
+        <v>0.459057</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0910812</v>
+        <v>0.08961479999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.06635539999999999</v>
+        <v>0.070407</v>
       </c>
       <c r="D113" t="n">
-        <v>0.468816</v>
+        <v>0.471818</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0958357</v>
+        <v>0.0955469</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0684307</v>
+        <v>0.0731227</v>
       </c>
       <c r="D114" t="n">
-        <v>0.482068</v>
+        <v>0.484995</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.101311</v>
+        <v>0.100738</v>
       </c>
       <c r="C115" t="n">
-        <v>0.07158009999999999</v>
+        <v>0.07612430000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.495606</v>
+        <v>0.49895</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.105481</v>
+        <v>0.106832</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0754262</v>
+        <v>0.08055039999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.509948</v>
+        <v>0.513096</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.113561</v>
+        <v>0.112406</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0793489</v>
+        <v>0.0849341</v>
       </c>
       <c r="D117" t="n">
-        <v>0.520545</v>
+        <v>0.528013</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121534</v>
+        <v>0.120343</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0847781</v>
+        <v>0.0902963</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5360740000000001</v>
+        <v>0.543484</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.131913</v>
+        <v>0.132227</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0911366</v>
+        <v>0.0972885</v>
       </c>
       <c r="D119" t="n">
-        <v>0.556883</v>
+        <v>0.5602780000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.142953</v>
+        <v>0.143435</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0997904</v>
+        <v>0.105735</v>
       </c>
       <c r="D120" t="n">
-        <v>0.573966</v>
+        <v>0.577895</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.162889</v>
+        <v>0.163207</v>
       </c>
       <c r="C121" t="n">
-        <v>0.111643</v>
+        <v>0.118303</v>
       </c>
       <c r="D121" t="n">
-        <v>0.428011</v>
+        <v>0.429887</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.188492</v>
+        <v>0.189214</v>
       </c>
       <c r="C122" t="n">
-        <v>0.13009</v>
+        <v>0.137371</v>
       </c>
       <c r="D122" t="n">
-        <v>0.438422</v>
+        <v>0.44108</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.228264</v>
+        <v>0.229229</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0841292</v>
+        <v>0.081971</v>
       </c>
       <c r="D123" t="n">
-        <v>0.450313</v>
+        <v>0.45315</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103491</v>
+        <v>0.101678</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0814975</v>
+        <v>0.08466700000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.458699</v>
+        <v>0.464547</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.105534</v>
+        <v>0.104116</v>
       </c>
       <c r="C125" t="n">
-        <v>0.08227660000000001</v>
+        <v>0.0820015</v>
       </c>
       <c r="D125" t="n">
-        <v>0.473392</v>
+        <v>0.476202</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.106404</v>
+        <v>0.108907</v>
       </c>
       <c r="C126" t="n">
-        <v>0.08496099999999999</v>
+        <v>0.08910120000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.485817</v>
+        <v>0.488544</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.10427</v>
+        <v>0.110106</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0874286</v>
+        <v>0.09109449999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.498276</v>
+        <v>0.501064</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.115923</v>
+        <v>0.112587</v>
       </c>
       <c r="C128" t="n">
-        <v>0.08801390000000001</v>
+        <v>0.09387180000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.511189</v>
+        <v>0.513866</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.117453</v>
+        <v>0.117887</v>
       </c>
       <c r="C129" t="n">
-        <v>0.09060989999999999</v>
+        <v>0.09395009999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.521817</v>
+        <v>0.52463</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.116173</v>
+        <v>0.11755</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0926709</v>
+        <v>0.100101</v>
       </c>
       <c r="D130" t="n">
-        <v>0.536656</v>
+        <v>0.542133</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.125608</v>
+        <v>0.12703</v>
       </c>
       <c r="C131" t="n">
-        <v>0.09264120000000001</v>
+        <v>0.102826</v>
       </c>
       <c r="D131" t="n">
-        <v>0.554014</v>
+        <v>0.55696</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133655</v>
+        <v>0.134916</v>
       </c>
       <c r="C132" t="n">
-        <v>0.102389</v>
+        <v>0.10665</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5692430000000001</v>
+        <v>0.570152</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.141942</v>
+        <v>0.142265</v>
       </c>
       <c r="C133" t="n">
-        <v>0.107216</v>
+        <v>0.121394</v>
       </c>
       <c r="D133" t="n">
-        <v>0.585553</v>
+        <v>0.589407</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.154652</v>
+        <v>0.154875</v>
       </c>
       <c r="C134" t="n">
-        <v>0.113452</v>
+        <v>0.119273</v>
       </c>
       <c r="D134" t="n">
-        <v>0.603611</v>
+        <v>0.607317</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.169339</v>
+        <v>0.170373</v>
       </c>
       <c r="C135" t="n">
-        <v>0.121885</v>
+        <v>0.12693</v>
       </c>
       <c r="D135" t="n">
-        <v>0.444713</v>
+        <v>0.446687</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194531</v>
+        <v>0.190218</v>
       </c>
       <c r="C136" t="n">
-        <v>0.137731</v>
+        <v>0.145414</v>
       </c>
       <c r="D136" t="n">
-        <v>0.454981</v>
+        <v>0.45822</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232162</v>
+        <v>0.231813</v>
       </c>
       <c r="C137" t="n">
-        <v>0.15552</v>
+        <v>0.169175</v>
       </c>
       <c r="D137" t="n">
-        <v>0.467808</v>
+        <v>0.470219</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.168716</v>
+        <v>0.169839</v>
       </c>
       <c r="C138" t="n">
-        <v>0.145196</v>
+        <v>0.164862</v>
       </c>
       <c r="D138" t="n">
-        <v>0.479462</v>
+        <v>0.481738</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.173458</v>
+        <v>0.163708</v>
       </c>
       <c r="C139" t="n">
-        <v>0.151038</v>
+        <v>0.165127</v>
       </c>
       <c r="D139" t="n">
-        <v>0.491263</v>
+        <v>0.493725</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.171917</v>
+        <v>0.178113</v>
       </c>
       <c r="C140" t="n">
-        <v>0.147598</v>
+        <v>0.167519</v>
       </c>
       <c r="D140" t="n">
-        <v>0.503385</v>
+        <v>0.505976</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.175185</v>
+        <v>0.171436</v>
       </c>
       <c r="C141" t="n">
-        <v>0.161218</v>
+        <v>0.177</v>
       </c>
       <c r="D141" t="n">
-        <v>0.515969</v>
+        <v>0.518702</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.175998</v>
+        <v>0.178422</v>
       </c>
       <c r="C142" t="n">
-        <v>0.160224</v>
+        <v>0.174517</v>
       </c>
       <c r="D142" t="n">
-        <v>0.527783</v>
+        <v>0.531853</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.173795</v>
+        <v>0.178419</v>
       </c>
       <c r="C143" t="n">
-        <v>0.162611</v>
+        <v>0.172354</v>
       </c>
       <c r="D143" t="n">
-        <v>0.542168</v>
+        <v>0.545315</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0322824</v>
+        <v>0.0324439</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0263222</v>
+        <v>0.0258914</v>
       </c>
       <c r="D2" t="n">
-        <v>0.129244</v>
+        <v>0.128497</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0344032</v>
+        <v>0.0338284</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0270122</v>
+        <v>0.0257768</v>
       </c>
       <c r="D3" t="n">
-        <v>0.141015</v>
+        <v>0.132926</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0351879</v>
+        <v>0.0351059</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0240195</v>
+        <v>0.0232516</v>
       </c>
       <c r="D4" t="n">
-        <v>0.149613</v>
+        <v>0.136876</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0395009</v>
+        <v>0.0391402</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0246506</v>
+        <v>0.024016</v>
       </c>
       <c r="D5" t="n">
-        <v>0.155728</v>
+        <v>0.143087</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0482358</v>
+        <v>0.0481416</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0260457</v>
+        <v>0.0253621</v>
       </c>
       <c r="D6" t="n">
-        <v>0.162853</v>
+        <v>0.149106</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07190240000000001</v>
+        <v>0.0720388</v>
       </c>
       <c r="C7" t="n">
-        <v>0.033538</v>
+        <v>0.0332011</v>
       </c>
       <c r="D7" t="n">
-        <v>0.107288</v>
+        <v>0.106542</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.10491</v>
+        <v>0.104803</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0556688</v>
+        <v>0.0560667</v>
       </c>
       <c r="D8" t="n">
-        <v>0.112832</v>
+        <v>0.112072</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.146914</v>
+        <v>0.146827</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0257056</v>
+        <v>0.0253107</v>
       </c>
       <c r="D9" t="n">
-        <v>0.117479</v>
+        <v>0.11667</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0306895</v>
+        <v>0.0306016</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0256298</v>
+        <v>0.0254132</v>
       </c>
       <c r="D10" t="n">
-        <v>0.123322</v>
+        <v>0.122224</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0308763</v>
+        <v>0.0310106</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0258883</v>
+        <v>0.0257163</v>
       </c>
       <c r="D11" t="n">
-        <v>0.128059</v>
+        <v>0.126824</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0313351</v>
+        <v>0.0314477</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0260621</v>
+        <v>0.025876</v>
       </c>
       <c r="D12" t="n">
-        <v>0.133458</v>
+        <v>0.132582</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0319095</v>
+        <v>0.0319954</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0262874</v>
+        <v>0.0259949</v>
       </c>
       <c r="D13" t="n">
-        <v>0.137185</v>
+        <v>0.137129</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0324453</v>
+        <v>0.032476</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0263539</v>
+        <v>0.0260936</v>
       </c>
       <c r="D14" t="n">
-        <v>0.141657</v>
+        <v>0.141436</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0341805</v>
+        <v>0.0342932</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0267678</v>
+        <v>0.0262205</v>
       </c>
       <c r="D15" t="n">
-        <v>0.146223</v>
+        <v>0.146234</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.035737</v>
+        <v>0.0357653</v>
       </c>
       <c r="C16" t="n">
-        <v>0.027078</v>
+        <v>0.0266445</v>
       </c>
       <c r="D16" t="n">
-        <v>0.150876</v>
+        <v>0.150551</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0379768</v>
+        <v>0.0379299</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0272128</v>
+        <v>0.0267601</v>
       </c>
       <c r="D17" t="n">
-        <v>0.154142</v>
+        <v>0.155143</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0436176</v>
+        <v>0.0435791</v>
       </c>
       <c r="C18" t="n">
-        <v>0.027262</v>
+        <v>0.0268905</v>
       </c>
       <c r="D18" t="n">
-        <v>0.159272</v>
+        <v>0.159968</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0494137</v>
+        <v>0.0498062</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0280866</v>
+        <v>0.0272251</v>
       </c>
       <c r="D19" t="n">
-        <v>0.163983</v>
+        <v>0.165029</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0597543</v>
+        <v>0.0601603</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0321293</v>
+        <v>0.0307538</v>
       </c>
       <c r="D20" t="n">
-        <v>0.168275</v>
+        <v>0.169376</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07551570000000001</v>
+        <v>0.07581549999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0427974</v>
+        <v>0.0421292</v>
       </c>
       <c r="D21" t="n">
-        <v>0.120676</v>
+        <v>0.122051</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.102169</v>
+        <v>0.102553</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0615478</v>
+        <v>0.0615265</v>
       </c>
       <c r="D22" t="n">
-        <v>0.124834</v>
+        <v>0.126371</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.132854</v>
+        <v>0.133389</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0265366</v>
+        <v>0.0262369</v>
       </c>
       <c r="D23" t="n">
-        <v>0.128809</v>
+        <v>0.130637</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0325775</v>
+        <v>0.0324478</v>
       </c>
       <c r="C24" t="n">
-        <v>0.026899</v>
+        <v>0.0264338</v>
       </c>
       <c r="D24" t="n">
-        <v>0.13422</v>
+        <v>0.135731</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0329673</v>
+        <v>0.0329238</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0271121</v>
+        <v>0.0267019</v>
       </c>
       <c r="D25" t="n">
-        <v>0.138629</v>
+        <v>0.13985</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0334517</v>
+        <v>0.0333795</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0274124</v>
+        <v>0.0270243</v>
       </c>
       <c r="D26" t="n">
-        <v>0.142708</v>
+        <v>0.14404</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0340607</v>
+        <v>0.0338733</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0276521</v>
+        <v>0.0274121</v>
       </c>
       <c r="D27" t="n">
-        <v>0.147472</v>
+        <v>0.149234</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0350927</v>
+        <v>0.0351053</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0280554</v>
+        <v>0.0278122</v>
       </c>
       <c r="D28" t="n">
-        <v>0.152236</v>
+        <v>0.154232</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0369584</v>
+        <v>0.036913</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0284788</v>
+        <v>0.0281915</v>
       </c>
       <c r="D29" t="n">
-        <v>0.157489</v>
+        <v>0.159235</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0383922</v>
+        <v>0.038429</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0290352</v>
+        <v>0.0287875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.161467</v>
+        <v>0.163505</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0411507</v>
+        <v>0.0411774</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0298622</v>
+        <v>0.0295148</v>
       </c>
       <c r="D31" t="n">
-        <v>0.16594</v>
+        <v>0.167911</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0472925</v>
+        <v>0.0473085</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0307477</v>
+        <v>0.0304236</v>
       </c>
       <c r="D32" t="n">
-        <v>0.169537</v>
+        <v>0.171914</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0524849</v>
+        <v>0.0525207</v>
       </c>
       <c r="C33" t="n">
-        <v>0.033964</v>
+        <v>0.032925</v>
       </c>
       <c r="D33" t="n">
-        <v>0.175441</v>
+        <v>0.176783</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0645128</v>
+        <v>0.0645392</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0403945</v>
+        <v>0.0403164</v>
       </c>
       <c r="D34" t="n">
-        <v>0.179804</v>
+        <v>0.181265</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0797957</v>
+        <v>0.07974050000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0474295</v>
+        <v>0.0472482</v>
       </c>
       <c r="D35" t="n">
-        <v>0.126855</v>
+        <v>0.127172</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09542539999999999</v>
+        <v>0.0955313</v>
       </c>
       <c r="C36" t="n">
-        <v>0.059375</v>
+        <v>0.0591268</v>
       </c>
       <c r="D36" t="n">
-        <v>0.131375</v>
+        <v>0.131756</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.130201</v>
+        <v>0.130312</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0275899</v>
+        <v>0.0274445</v>
       </c>
       <c r="D37" t="n">
-        <v>0.135832</v>
+        <v>0.136194</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0333742</v>
+        <v>0.0331977</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0279902</v>
+        <v>0.0279794</v>
       </c>
       <c r="D38" t="n">
-        <v>0.140799</v>
+        <v>0.141273</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0337717</v>
+        <v>0.0338836</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0283011</v>
+        <v>0.0283284</v>
       </c>
       <c r="D39" t="n">
-        <v>0.146116</v>
+        <v>0.146506</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.034899</v>
+        <v>0.0349373</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0289028</v>
+        <v>0.0286601</v>
       </c>
       <c r="D40" t="n">
-        <v>0.150909</v>
+        <v>0.151363</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.035735</v>
+        <v>0.0357697</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0291533</v>
+        <v>0.0289676</v>
       </c>
       <c r="D41" t="n">
-        <v>0.155656</v>
+        <v>0.156012</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0370289</v>
+        <v>0.0369256</v>
       </c>
       <c r="C42" t="n">
-        <v>0.029592</v>
+        <v>0.0294065</v>
       </c>
       <c r="D42" t="n">
-        <v>0.160401</v>
+        <v>0.160745</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0380257</v>
+        <v>0.0381052</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0301805</v>
+        <v>0.0298725</v>
       </c>
       <c r="D43" t="n">
-        <v>0.164824</v>
+        <v>0.165205</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0402112</v>
+        <v>0.0402827</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0308556</v>
+        <v>0.0305996</v>
       </c>
       <c r="D44" t="n">
-        <v>0.168967</v>
+        <v>0.169305</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0427517</v>
+        <v>0.042811</v>
       </c>
       <c r="C45" t="n">
-        <v>0.032005</v>
+        <v>0.0317231</v>
       </c>
       <c r="D45" t="n">
-        <v>0.173301</v>
+        <v>0.173505</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0484828</v>
+        <v>0.0474023</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0337069</v>
+        <v>0.033346</v>
       </c>
       <c r="D46" t="n">
-        <v>0.177182</v>
+        <v>0.177513</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0535999</v>
+        <v>0.0535275</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0361015</v>
+        <v>0.0359009</v>
       </c>
       <c r="D47" t="n">
-        <v>0.181504</v>
+        <v>0.181821</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0625674</v>
+        <v>0.0624902</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0406841</v>
+        <v>0.0404948</v>
       </c>
       <c r="D48" t="n">
-        <v>0.186374</v>
+        <v>0.186746</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0740185</v>
+        <v>0.0740181</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0470313</v>
+        <v>0.0467269</v>
       </c>
       <c r="D49" t="n">
-        <v>0.190322</v>
+        <v>0.191581</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09344230000000001</v>
+        <v>0.0934378</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0563648</v>
+        <v>0.0560657</v>
       </c>
       <c r="D50" t="n">
-        <v>0.134347</v>
+        <v>0.134429</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.125952</v>
+        <v>0.126138</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0298789</v>
+        <v>0.0306974</v>
       </c>
       <c r="D51" t="n">
-        <v>0.139165</v>
+        <v>0.139068</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168287</v>
+        <v>0.168491</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0308897</v>
+        <v>0.0309117</v>
       </c>
       <c r="D52" t="n">
-        <v>0.144128</v>
+        <v>0.144044</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0356781</v>
+        <v>0.0354647</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0301849</v>
+        <v>0.0311141</v>
       </c>
       <c r="D53" t="n">
-        <v>0.149098</v>
+        <v>0.149167</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0392596</v>
+        <v>0.0368729</v>
       </c>
       <c r="C54" t="n">
-        <v>0.031977</v>
+        <v>0.0310384</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1542</v>
+        <v>0.153967</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0393626</v>
+        <v>0.0368991</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0310522</v>
+        <v>0.0318207</v>
       </c>
       <c r="D55" t="n">
-        <v>0.158955</v>
+        <v>0.158734</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0379037</v>
+        <v>0.0383018</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0315123</v>
+        <v>0.0314461</v>
       </c>
       <c r="D56" t="n">
-        <v>0.163319</v>
+        <v>0.163228</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0417762</v>
+        <v>0.0394014</v>
       </c>
       <c r="C57" t="n">
-        <v>0.032916</v>
+        <v>0.0329603</v>
       </c>
       <c r="D57" t="n">
-        <v>0.167831</v>
+        <v>0.167515</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0412521</v>
+        <v>0.0415955</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0330644</v>
+        <v>0.0329372</v>
       </c>
       <c r="D58" t="n">
-        <v>0.172353</v>
+        <v>0.171892</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0438807</v>
+        <v>0.0443655</v>
       </c>
       <c r="C59" t="n">
-        <v>0.03424</v>
+        <v>0.0338519</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176294</v>
+        <v>0.175771</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0473412</v>
+        <v>0.0472921</v>
       </c>
       <c r="C60" t="n">
-        <v>0.03659</v>
+        <v>0.0354873</v>
       </c>
       <c r="D60" t="n">
-        <v>0.180408</v>
+        <v>0.180137</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.054087</v>
+        <v>0.0527938</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0392751</v>
+        <v>0.0377046</v>
       </c>
       <c r="D61" t="n">
-        <v>0.184108</v>
+        <v>0.184553</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0604745</v>
+        <v>0.060522</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0415968</v>
+        <v>0.0408874</v>
       </c>
       <c r="D62" t="n">
-        <v>0.188514</v>
+        <v>0.189305</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07311670000000001</v>
+        <v>0.0715112</v>
       </c>
       <c r="C63" t="n">
-        <v>0.046689</v>
+        <v>0.0463601</v>
       </c>
       <c r="D63" t="n">
-        <v>0.19365</v>
+        <v>0.194359</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0897891</v>
+        <v>0.0886136</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0555127</v>
+        <v>0.0547896</v>
       </c>
       <c r="D64" t="n">
-        <v>0.140953</v>
+        <v>0.140019</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116412</v>
+        <v>0.115561</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0710307</v>
+        <v>0.0697719</v>
       </c>
       <c r="D65" t="n">
-        <v>0.146466</v>
+        <v>0.146877</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.158836</v>
+        <v>0.158308</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0358818</v>
+        <v>0.0352033</v>
       </c>
       <c r="D66" t="n">
-        <v>0.151898</v>
+        <v>0.153994</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0412404</v>
+        <v>0.0406405</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0365114</v>
+        <v>0.0358241</v>
       </c>
       <c r="D67" t="n">
-        <v>0.159175</v>
+        <v>0.159985</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0414468</v>
+        <v>0.0414691</v>
       </c>
       <c r="C68" t="n">
-        <v>0.037504</v>
+        <v>0.0360319</v>
       </c>
       <c r="D68" t="n">
-        <v>0.166346</v>
+        <v>0.167914</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0424623</v>
+        <v>0.0420382</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0377763</v>
+        <v>0.0364693</v>
       </c>
       <c r="D69" t="n">
-        <v>0.173357</v>
+        <v>0.175721</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0434322</v>
+        <v>0.0430583</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0383802</v>
+        <v>0.0371132</v>
       </c>
       <c r="D70" t="n">
-        <v>0.181292</v>
+        <v>0.184198</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0443544</v>
+        <v>0.044384</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0391408</v>
+        <v>0.0376134</v>
       </c>
       <c r="D71" t="n">
-        <v>0.190269</v>
+        <v>0.193758</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0464895</v>
+        <v>0.0466124</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0388299</v>
+        <v>0.0384329</v>
       </c>
       <c r="D72" t="n">
-        <v>0.200547</v>
+        <v>0.202999</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0485595</v>
+        <v>0.0487106</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0398149</v>
+        <v>0.0393499</v>
       </c>
       <c r="D73" t="n">
-        <v>0.2126</v>
+        <v>0.21328</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0520269</v>
+        <v>0.0520191</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0410886</v>
+        <v>0.0407047</v>
       </c>
       <c r="D74" t="n">
-        <v>0.224945</v>
+        <v>0.224428</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0567309</v>
+        <v>0.0560966</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0439098</v>
+        <v>0.0426699</v>
       </c>
       <c r="D75" t="n">
-        <v>0.237926</v>
+        <v>0.238627</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0629387</v>
+        <v>0.0621807</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0462734</v>
+        <v>0.0454419</v>
       </c>
       <c r="D76" t="n">
-        <v>0.251922</v>
+        <v>0.251637</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0743926</v>
+        <v>0.0731103</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0506526</v>
+        <v>0.0499654</v>
       </c>
       <c r="D77" t="n">
-        <v>0.26785</v>
+        <v>0.268056</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0889963</v>
+        <v>0.0879099</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0588438</v>
+        <v>0.0571979</v>
       </c>
       <c r="D78" t="n">
-        <v>0.225086</v>
+        <v>0.228434</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112797</v>
+        <v>0.111191</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0709147</v>
+        <v>0.06979249999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.236501</v>
+        <v>0.242112</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.153029</v>
+        <v>0.150809</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0402024</v>
+        <v>0.0398608</v>
       </c>
       <c r="D80" t="n">
-        <v>0.248998</v>
+        <v>0.255189</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0473407</v>
+        <v>0.0462782</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0408718</v>
+        <v>0.0400672</v>
       </c>
       <c r="D81" t="n">
-        <v>0.263935</v>
+        <v>0.267808</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0482437</v>
+        <v>0.0469789</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0411281</v>
+        <v>0.0406978</v>
       </c>
       <c r="D82" t="n">
-        <v>0.275361</v>
+        <v>0.282726</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0501104</v>
+        <v>0.0480375</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0417555</v>
+        <v>0.0410681</v>
       </c>
       <c r="D83" t="n">
-        <v>0.288754</v>
+        <v>0.296706</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0519304</v>
+        <v>0.0492508</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0425065</v>
+        <v>0.0417178</v>
       </c>
       <c r="D84" t="n">
-        <v>0.302139</v>
+        <v>0.310744</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0544892</v>
+        <v>0.0504598</v>
       </c>
       <c r="C85" t="n">
-        <v>0.043604</v>
+        <v>0.0422991</v>
       </c>
       <c r="D85" t="n">
-        <v>0.316608</v>
+        <v>0.325526</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0568561</v>
+        <v>0.0525066</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0454898</v>
+        <v>0.0432175</v>
       </c>
       <c r="D86" t="n">
-        <v>0.330531</v>
+        <v>0.340392</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0608234</v>
+        <v>0.0550151</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0474344</v>
+        <v>0.0441851</v>
       </c>
       <c r="D87" t="n">
-        <v>0.346167</v>
+        <v>0.355873</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06630030000000001</v>
+        <v>0.0591823</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0497229</v>
+        <v>0.0459683</v>
       </c>
       <c r="D88" t="n">
-        <v>0.361257</v>
+        <v>0.371926</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0724948</v>
+        <v>0.06445969999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0524212</v>
+        <v>0.0479051</v>
       </c>
       <c r="D89" t="n">
-        <v>0.376684</v>
+        <v>0.388396</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0809745</v>
+        <v>0.0722405</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0574264</v>
+        <v>0.0514154</v>
       </c>
       <c r="D90" t="n">
-        <v>0.393508</v>
+        <v>0.405759</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.09208479999999999</v>
+        <v>0.0845056</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0629362</v>
+        <v>0.0566468</v>
       </c>
       <c r="D91" t="n">
-        <v>0.411343</v>
+        <v>0.422598</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.108038</v>
+        <v>0.101127</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0727768</v>
+        <v>0.0646154</v>
       </c>
       <c r="D92" t="n">
-        <v>0.332451</v>
+        <v>0.345394</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.12872</v>
+        <v>0.124847</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0848904</v>
+        <v>0.0776839</v>
       </c>
       <c r="D93" t="n">
-        <v>0.344153</v>
+        <v>0.357363</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.162723</v>
+        <v>0.161897</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0502645</v>
+        <v>0.0442943</v>
       </c>
       <c r="D94" t="n">
-        <v>0.355415</v>
+        <v>0.369189</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0667923</v>
+        <v>0.0591118</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0516187</v>
+        <v>0.045785</v>
       </c>
       <c r="D95" t="n">
-        <v>0.366921</v>
+        <v>0.381625</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.06984170000000001</v>
+        <v>0.0619131</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0536577</v>
+        <v>0.0474808</v>
       </c>
       <c r="D96" t="n">
-        <v>0.379006</v>
+        <v>0.39416</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07224170000000001</v>
+        <v>0.0661607</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0557072</v>
+        <v>0.0496182</v>
       </c>
       <c r="D97" t="n">
-        <v>0.391555</v>
+        <v>0.406952</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0748653</v>
+        <v>0.0712192</v>
       </c>
       <c r="C98" t="n">
-        <v>0.057762</v>
+        <v>0.0518634</v>
       </c>
       <c r="D98" t="n">
-        <v>0.403521</v>
+        <v>0.420005</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0778739</v>
+        <v>0.0759368</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0594487</v>
+        <v>0.0546493</v>
       </c>
       <c r="D99" t="n">
-        <v>0.417164</v>
+        <v>0.433749</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0798939</v>
+        <v>0.08251459999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0613339</v>
+        <v>0.0584482</v>
       </c>
       <c r="D100" t="n">
-        <v>0.430435</v>
+        <v>0.447794</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0850711</v>
+        <v>0.0890628</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0636728</v>
+        <v>0.06262570000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.444627</v>
+        <v>0.461995</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0888615</v>
+        <v>0.0964739</v>
       </c>
       <c r="C102" t="n">
-        <v>0.06674869999999999</v>
+        <v>0.0671244</v>
       </c>
       <c r="D102" t="n">
-        <v>0.460006</v>
+        <v>0.47739</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0953324</v>
+        <v>0.104255</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0683523</v>
+        <v>0.0728039</v>
       </c>
       <c r="D103" t="n">
-        <v>0.475484</v>
+        <v>0.493417</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.102982</v>
+        <v>0.113603</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0732207</v>
+        <v>0.078697</v>
       </c>
       <c r="D104" t="n">
-        <v>0.491603</v>
+        <v>0.509177</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.113586</v>
+        <v>0.12441</v>
       </c>
       <c r="C105" t="n">
-        <v>0.07856779999999999</v>
+        <v>0.0860361</v>
       </c>
       <c r="D105" t="n">
-        <v>0.508988</v>
+        <v>0.525911</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.128232</v>
+        <v>0.139005</v>
       </c>
       <c r="C106" t="n">
-        <v>0.08745319999999999</v>
+        <v>0.09556480000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.525655</v>
+        <v>0.544052</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.14945</v>
+        <v>0.158668</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0992391</v>
+        <v>0.107734</v>
       </c>
       <c r="D107" t="n">
-        <v>0.398903</v>
+        <v>0.418378</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.179575</v>
+        <v>0.188018</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0567709</v>
+        <v>0.0648663</v>
       </c>
       <c r="D108" t="n">
-        <v>0.410022</v>
+        <v>0.429902</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.225164</v>
+        <v>0.23263</v>
       </c>
       <c r="C109" t="n">
-        <v>0.05945</v>
+        <v>0.0671544</v>
       </c>
       <c r="D109" t="n">
-        <v>0.421203</v>
+        <v>0.441598</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0807948</v>
+        <v>0.0937819</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0610341</v>
+        <v>0.0693655</v>
       </c>
       <c r="D110" t="n">
-        <v>0.432629</v>
+        <v>0.453655</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08333550000000001</v>
+        <v>0.09684329999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0621968</v>
+        <v>0.0716285</v>
       </c>
       <c r="D111" t="n">
-        <v>0.444266</v>
+        <v>0.465726</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0856349</v>
+        <v>0.0998377</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0639927</v>
+        <v>0.0736975</v>
       </c>
       <c r="D112" t="n">
-        <v>0.456273</v>
+        <v>0.478405</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0910812</v>
+        <v>0.103036</v>
       </c>
       <c r="C113" t="n">
-        <v>0.06635539999999999</v>
+        <v>0.0764735</v>
       </c>
       <c r="D113" t="n">
-        <v>0.468816</v>
+        <v>0.491811</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0958357</v>
+        <v>0.106358</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0684307</v>
+        <v>0.07829270000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.482068</v>
+        <v>0.504831</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.101311</v>
+        <v>0.110551</v>
       </c>
       <c r="C115" t="n">
-        <v>0.07158009999999999</v>
+        <v>0.0812504</v>
       </c>
       <c r="D115" t="n">
-        <v>0.495606</v>
+        <v>0.519266</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.105481</v>
+        <v>0.115277</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0754262</v>
+        <v>0.0843068</v>
       </c>
       <c r="D116" t="n">
-        <v>0.509948</v>
+        <v>0.534203</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.113561</v>
+        <v>0.121064</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0793489</v>
+        <v>0.0874122</v>
       </c>
       <c r="D117" t="n">
-        <v>0.520545</v>
+        <v>0.550839</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121534</v>
+        <v>0.128576</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0847781</v>
+        <v>0.0919803</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5360740000000001</v>
+        <v>0.567057</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.131913</v>
+        <v>0.13823</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0911366</v>
+        <v>0.0983907</v>
       </c>
       <c r="D119" t="n">
-        <v>0.556883</v>
+        <v>0.584009</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.142953</v>
+        <v>0.151108</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0997904</v>
+        <v>0.105495</v>
       </c>
       <c r="D120" t="n">
-        <v>0.573966</v>
+        <v>0.602093</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.162889</v>
+        <v>0.169073</v>
       </c>
       <c r="C121" t="n">
-        <v>0.111643</v>
+        <v>0.11687</v>
       </c>
       <c r="D121" t="n">
-        <v>0.428011</v>
+        <v>0.45119</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.188492</v>
+        <v>0.195246</v>
       </c>
       <c r="C122" t="n">
-        <v>0.13009</v>
+        <v>0.134831</v>
       </c>
       <c r="D122" t="n">
-        <v>0.438422</v>
+        <v>0.46351</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.228264</v>
+        <v>0.236224</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0841292</v>
+        <v>0.0815293</v>
       </c>
       <c r="D123" t="n">
-        <v>0.450313</v>
+        <v>0.475011</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103491</v>
+        <v>0.105346</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0814975</v>
+        <v>0.082985</v>
       </c>
       <c r="D124" t="n">
-        <v>0.458699</v>
+        <v>0.486823</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.105534</v>
+        <v>0.109553</v>
       </c>
       <c r="C125" t="n">
-        <v>0.08227660000000001</v>
+        <v>0.0845255</v>
       </c>
       <c r="D125" t="n">
-        <v>0.473392</v>
+        <v>0.499085</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.106404</v>
+        <v>0.111869</v>
       </c>
       <c r="C126" t="n">
-        <v>0.08496099999999999</v>
+        <v>0.0851875</v>
       </c>
       <c r="D126" t="n">
-        <v>0.485817</v>
+        <v>0.511707</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.10427</v>
+        <v>0.112677</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0874286</v>
+        <v>0.0899295</v>
       </c>
       <c r="D127" t="n">
-        <v>0.498276</v>
+        <v>0.525452</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.115923</v>
+        <v>0.116504</v>
       </c>
       <c r="C128" t="n">
-        <v>0.08801390000000001</v>
+        <v>0.0932818</v>
       </c>
       <c r="D128" t="n">
-        <v>0.511189</v>
+        <v>0.538727</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.117453</v>
+        <v>0.120129</v>
       </c>
       <c r="C129" t="n">
-        <v>0.09060989999999999</v>
+        <v>0.0944961</v>
       </c>
       <c r="D129" t="n">
-        <v>0.521817</v>
+        <v>0.55284</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.116173</v>
+        <v>0.125417</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0926709</v>
+        <v>0.09529840000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.536656</v>
+        <v>0.568302</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.125608</v>
+        <v>0.130466</v>
       </c>
       <c r="C131" t="n">
-        <v>0.09264120000000001</v>
+        <v>0.0994495</v>
       </c>
       <c r="D131" t="n">
-        <v>0.554014</v>
+        <v>0.583415</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133655</v>
+        <v>0.13868</v>
       </c>
       <c r="C132" t="n">
-        <v>0.102389</v>
+        <v>0.103274</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5692430000000001</v>
+        <v>0.600648</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.141942</v>
+        <v>0.146452</v>
       </c>
       <c r="C133" t="n">
-        <v>0.107216</v>
+        <v>0.11156</v>
       </c>
       <c r="D133" t="n">
-        <v>0.585553</v>
+        <v>0.617567</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.154652</v>
+        <v>0.15941</v>
       </c>
       <c r="C134" t="n">
-        <v>0.113452</v>
+        <v>0.117953</v>
       </c>
       <c r="D134" t="n">
-        <v>0.603611</v>
+        <v>0.635402</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.169339</v>
+        <v>0.176352</v>
       </c>
       <c r="C135" t="n">
-        <v>0.121885</v>
+        <v>0.125158</v>
       </c>
       <c r="D135" t="n">
-        <v>0.444713</v>
+        <v>0.469682</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194531</v>
+        <v>0.201224</v>
       </c>
       <c r="C136" t="n">
-        <v>0.137731</v>
+        <v>0.142699</v>
       </c>
       <c r="D136" t="n">
-        <v>0.454981</v>
+        <v>0.481499</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232162</v>
+        <v>0.240923</v>
       </c>
       <c r="C137" t="n">
-        <v>0.15552</v>
+        <v>0.16261</v>
       </c>
       <c r="D137" t="n">
-        <v>0.467808</v>
+        <v>0.493736</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.168716</v>
+        <v>0.180573</v>
       </c>
       <c r="C138" t="n">
-        <v>0.145196</v>
+        <v>0.162434</v>
       </c>
       <c r="D138" t="n">
-        <v>0.479462</v>
+        <v>0.506004</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.173458</v>
+        <v>0.182846</v>
       </c>
       <c r="C139" t="n">
-        <v>0.151038</v>
+        <v>0.164399</v>
       </c>
       <c r="D139" t="n">
-        <v>0.491263</v>
+        <v>0.518699</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.171917</v>
+        <v>0.184248</v>
       </c>
       <c r="C140" t="n">
-        <v>0.147598</v>
+        <v>0.165729</v>
       </c>
       <c r="D140" t="n">
-        <v>0.503385</v>
+        <v>0.531493</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.175185</v>
+        <v>0.187084</v>
       </c>
       <c r="C141" t="n">
-        <v>0.161218</v>
+        <v>0.167991</v>
       </c>
       <c r="D141" t="n">
-        <v>0.515969</v>
+        <v>0.544476</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.175998</v>
+        <v>0.1886</v>
       </c>
       <c r="C142" t="n">
-        <v>0.160224</v>
+        <v>0.16794</v>
       </c>
       <c r="D142" t="n">
-        <v>0.527783</v>
+        <v>0.558059</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.173795</v>
+        <v>0.190335</v>
       </c>
       <c r="C143" t="n">
-        <v>0.162611</v>
+        <v>0.170283</v>
       </c>
       <c r="D143" t="n">
-        <v>0.542168</v>
+        <v>0.572156</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0322824</v>
+        <v>0.0324432</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0263222</v>
+        <v>0.0227903</v>
       </c>
       <c r="D2" t="n">
-        <v>0.129244</v>
+        <v>0.128275</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0344032</v>
+        <v>0.0338843</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0270122</v>
+        <v>0.0227367</v>
       </c>
       <c r="D3" t="n">
-        <v>0.141015</v>
+        <v>0.132887</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0351879</v>
+        <v>0.0348535</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0240195</v>
+        <v>0.0233991</v>
       </c>
       <c r="D4" t="n">
-        <v>0.149613</v>
+        <v>0.136316</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0395009</v>
+        <v>0.0391908</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0246506</v>
+        <v>0.0221716</v>
       </c>
       <c r="D5" t="n">
-        <v>0.155728</v>
+        <v>0.142596</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0482358</v>
+        <v>0.0484915</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0260457</v>
+        <v>0.0233649</v>
       </c>
       <c r="D6" t="n">
-        <v>0.162853</v>
+        <v>0.147915</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07190240000000001</v>
+        <v>0.0725146</v>
       </c>
       <c r="C7" t="n">
-        <v>0.033538</v>
+        <v>0.0280346</v>
       </c>
       <c r="D7" t="n">
-        <v>0.107288</v>
+        <v>0.106038</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.10491</v>
+        <v>0.104843</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0556688</v>
+        <v>0.0446151</v>
       </c>
       <c r="D8" t="n">
-        <v>0.112832</v>
+        <v>0.111088</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.146914</v>
+        <v>0.146883</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0257056</v>
+        <v>0.0231335</v>
       </c>
       <c r="D9" t="n">
-        <v>0.117479</v>
+        <v>0.115595</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0306895</v>
+        <v>0.0307171</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0256298</v>
+        <v>0.0230668</v>
       </c>
       <c r="D10" t="n">
-        <v>0.123322</v>
+        <v>0.121379</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0308763</v>
+        <v>0.0308509</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0258883</v>
+        <v>0.0230174</v>
       </c>
       <c r="D11" t="n">
-        <v>0.128059</v>
+        <v>0.126039</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0313351</v>
+        <v>0.0313251</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0260621</v>
+        <v>0.0233433</v>
       </c>
       <c r="D12" t="n">
-        <v>0.133458</v>
+        <v>0.131661</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0319095</v>
+        <v>0.0318926</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0262874</v>
+        <v>0.0233928</v>
       </c>
       <c r="D13" t="n">
-        <v>0.137185</v>
+        <v>0.136454</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0324453</v>
+        <v>0.0335113</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0263539</v>
+        <v>0.0236553</v>
       </c>
       <c r="D14" t="n">
-        <v>0.141657</v>
+        <v>0.140596</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0341805</v>
+        <v>0.033982</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0267678</v>
+        <v>0.0235824</v>
       </c>
       <c r="D15" t="n">
-        <v>0.146223</v>
+        <v>0.145602</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.035737</v>
+        <v>0.0356887</v>
       </c>
       <c r="C16" t="n">
-        <v>0.027078</v>
+        <v>0.0240235</v>
       </c>
       <c r="D16" t="n">
-        <v>0.150876</v>
+        <v>0.150012</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0379768</v>
+        <v>0.038096</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0272128</v>
+        <v>0.0242821</v>
       </c>
       <c r="D17" t="n">
-        <v>0.154142</v>
+        <v>0.154526</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0436176</v>
+        <v>0.0434751</v>
       </c>
       <c r="C18" t="n">
-        <v>0.027262</v>
+        <v>0.0242176</v>
       </c>
       <c r="D18" t="n">
-        <v>0.159272</v>
+        <v>0.159702</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0494137</v>
+        <v>0.0494809</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0280866</v>
+        <v>0.0246168</v>
       </c>
       <c r="D19" t="n">
-        <v>0.163983</v>
+        <v>0.16411</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0597543</v>
+        <v>0.0598244</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0321293</v>
+        <v>0.0303989</v>
       </c>
       <c r="D20" t="n">
-        <v>0.168275</v>
+        <v>0.16876</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07551570000000001</v>
+        <v>0.075366</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0427974</v>
+        <v>0.0409862</v>
       </c>
       <c r="D21" t="n">
-        <v>0.120676</v>
+        <v>0.121803</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.102169</v>
+        <v>0.102411</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0615478</v>
+        <v>0.0553638</v>
       </c>
       <c r="D22" t="n">
-        <v>0.124834</v>
+        <v>0.125787</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.132854</v>
+        <v>0.132849</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0265366</v>
+        <v>0.0241312</v>
       </c>
       <c r="D23" t="n">
-        <v>0.128809</v>
+        <v>0.130466</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0325775</v>
+        <v>0.0324241</v>
       </c>
       <c r="C24" t="n">
-        <v>0.026899</v>
+        <v>0.0244772</v>
       </c>
       <c r="D24" t="n">
-        <v>0.13422</v>
+        <v>0.135246</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0329673</v>
+        <v>0.0328771</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0271121</v>
+        <v>0.0245817</v>
       </c>
       <c r="D25" t="n">
-        <v>0.138629</v>
+        <v>0.13962</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0334517</v>
+        <v>0.0333921</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0274124</v>
+        <v>0.0249165</v>
       </c>
       <c r="D26" t="n">
-        <v>0.142708</v>
+        <v>0.143474</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0340607</v>
+        <v>0.0339457</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0276521</v>
+        <v>0.0249469</v>
       </c>
       <c r="D27" t="n">
-        <v>0.147472</v>
+        <v>0.148462</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0350927</v>
+        <v>0.0350646</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0280554</v>
+        <v>0.0252416</v>
       </c>
       <c r="D28" t="n">
-        <v>0.152236</v>
+        <v>0.153569</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0369584</v>
+        <v>0.0369777</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0284788</v>
+        <v>0.0256257</v>
       </c>
       <c r="D29" t="n">
-        <v>0.157489</v>
+        <v>0.158386</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0383922</v>
+        <v>0.0383147</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0290352</v>
+        <v>0.0261477</v>
       </c>
       <c r="D30" t="n">
-        <v>0.161467</v>
+        <v>0.162607</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0411507</v>
+        <v>0.0411769</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0298622</v>
+        <v>0.026876</v>
       </c>
       <c r="D31" t="n">
-        <v>0.16594</v>
+        <v>0.16692</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0472925</v>
+        <v>0.047372</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0307477</v>
+        <v>0.0280994</v>
       </c>
       <c r="D32" t="n">
-        <v>0.169537</v>
+        <v>0.171766</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0524849</v>
+        <v>0.0524527</v>
       </c>
       <c r="C33" t="n">
-        <v>0.033964</v>
+        <v>0.0300346</v>
       </c>
       <c r="D33" t="n">
-        <v>0.175441</v>
+        <v>0.175811</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0645128</v>
+        <v>0.0644667</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0403945</v>
+        <v>0.0353433</v>
       </c>
       <c r="D34" t="n">
-        <v>0.179804</v>
+        <v>0.180567</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0797957</v>
+        <v>0.0797508</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0474295</v>
+        <v>0.0422101</v>
       </c>
       <c r="D35" t="n">
-        <v>0.126855</v>
+        <v>0.127007</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09542539999999999</v>
+        <v>0.0954303</v>
       </c>
       <c r="C36" t="n">
-        <v>0.059375</v>
+        <v>0.0544187</v>
       </c>
       <c r="D36" t="n">
-        <v>0.131375</v>
+        <v>0.131561</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.130201</v>
+        <v>0.130177</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0275899</v>
+        <v>0.0252301</v>
       </c>
       <c r="D37" t="n">
-        <v>0.135832</v>
+        <v>0.13608</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0333742</v>
+        <v>0.033355</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0279902</v>
+        <v>0.0253928</v>
       </c>
       <c r="D38" t="n">
-        <v>0.140799</v>
+        <v>0.141011</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0337717</v>
+        <v>0.0338272</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0283011</v>
+        <v>0.0256865</v>
       </c>
       <c r="D39" t="n">
-        <v>0.146116</v>
+        <v>0.146332</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.034899</v>
+        <v>0.0349228</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0289028</v>
+        <v>0.0258708</v>
       </c>
       <c r="D40" t="n">
-        <v>0.150909</v>
+        <v>0.151194</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.035735</v>
+        <v>0.035609</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0291533</v>
+        <v>0.026331</v>
       </c>
       <c r="D41" t="n">
-        <v>0.155656</v>
+        <v>0.155817</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0370289</v>
+        <v>0.0368648</v>
       </c>
       <c r="C42" t="n">
-        <v>0.029592</v>
+        <v>0.0267</v>
       </c>
       <c r="D42" t="n">
-        <v>0.160401</v>
+        <v>0.160548</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0380257</v>
+        <v>0.03806</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0301805</v>
+        <v>0.027135</v>
       </c>
       <c r="D43" t="n">
-        <v>0.164824</v>
+        <v>0.164956</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0402112</v>
+        <v>0.0401663</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0308556</v>
+        <v>0.0278776</v>
       </c>
       <c r="D44" t="n">
-        <v>0.168967</v>
+        <v>0.16907</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0427517</v>
+        <v>0.0427669</v>
       </c>
       <c r="C45" t="n">
-        <v>0.032005</v>
+        <v>0.0291318</v>
       </c>
       <c r="D45" t="n">
-        <v>0.173301</v>
+        <v>0.173452</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0484828</v>
+        <v>0.0474471</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0337069</v>
+        <v>0.0306986</v>
       </c>
       <c r="D46" t="n">
-        <v>0.177182</v>
+        <v>0.177499</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0535999</v>
+        <v>0.0535035</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0361015</v>
+        <v>0.033743</v>
       </c>
       <c r="D47" t="n">
-        <v>0.181504</v>
+        <v>0.181536</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0625674</v>
+        <v>0.0624821</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0406841</v>
+        <v>0.0380581</v>
       </c>
       <c r="D48" t="n">
-        <v>0.186374</v>
+        <v>0.186269</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0740185</v>
+        <v>0.0739701</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0470313</v>
+        <v>0.0437517</v>
       </c>
       <c r="D49" t="n">
-        <v>0.190322</v>
+        <v>0.190812</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09344230000000001</v>
+        <v>0.0933513</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0563648</v>
+        <v>0.0531373</v>
       </c>
       <c r="D50" t="n">
-        <v>0.134347</v>
+        <v>0.134177</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.125952</v>
+        <v>0.126028</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0298789</v>
+        <v>0.0268965</v>
       </c>
       <c r="D51" t="n">
-        <v>0.139165</v>
+        <v>0.138916</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168287</v>
+        <v>0.168455</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0308897</v>
+        <v>0.0276236</v>
       </c>
       <c r="D52" t="n">
-        <v>0.144128</v>
+        <v>0.143736</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0356781</v>
+        <v>0.035728</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0301849</v>
+        <v>0.0271664</v>
       </c>
       <c r="D53" t="n">
-        <v>0.149098</v>
+        <v>0.148802</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0392596</v>
+        <v>0.0360207</v>
       </c>
       <c r="C54" t="n">
-        <v>0.031977</v>
+        <v>0.0281267</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1542</v>
+        <v>0.153604</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0393626</v>
+        <v>0.0369935</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0310522</v>
+        <v>0.0278868</v>
       </c>
       <c r="D55" t="n">
-        <v>0.158955</v>
+        <v>0.158301</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0379037</v>
+        <v>0.0385791</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0315123</v>
+        <v>0.0286199</v>
       </c>
       <c r="D56" t="n">
-        <v>0.163319</v>
+        <v>0.162524</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0417762</v>
+        <v>0.0394857</v>
       </c>
       <c r="C57" t="n">
-        <v>0.032916</v>
+        <v>0.029647</v>
       </c>
       <c r="D57" t="n">
-        <v>0.167831</v>
+        <v>0.167321</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0412521</v>
+        <v>0.0418224</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0330644</v>
+        <v>0.0300443</v>
       </c>
       <c r="D58" t="n">
-        <v>0.172353</v>
+        <v>0.171398</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0438807</v>
+        <v>0.044238</v>
       </c>
       <c r="C59" t="n">
-        <v>0.03424</v>
+        <v>0.0314841</v>
       </c>
       <c r="D59" t="n">
-        <v>0.176294</v>
+        <v>0.175338</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0473412</v>
+        <v>0.0476774</v>
       </c>
       <c r="C60" t="n">
-        <v>0.03659</v>
+        <v>0.032776</v>
       </c>
       <c r="D60" t="n">
-        <v>0.180408</v>
+        <v>0.179641</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.054087</v>
+        <v>0.0522869</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0392751</v>
+        <v>0.0349517</v>
       </c>
       <c r="D61" t="n">
-        <v>0.184108</v>
+        <v>0.18386</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0604745</v>
+        <v>0.0599764</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0415968</v>
+        <v>0.0381228</v>
       </c>
       <c r="D62" t="n">
-        <v>0.188514</v>
+        <v>0.18811</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07311670000000001</v>
+        <v>0.0715609</v>
       </c>
       <c r="C63" t="n">
-        <v>0.046689</v>
+        <v>0.0431298</v>
       </c>
       <c r="D63" t="n">
-        <v>0.19365</v>
+        <v>0.192719</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0897891</v>
+        <v>0.0887604</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0555127</v>
+        <v>0.051448</v>
       </c>
       <c r="D64" t="n">
-        <v>0.140953</v>
+        <v>0.139603</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116412</v>
+        <v>0.115601</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0710307</v>
+        <v>0.065776</v>
       </c>
       <c r="D65" t="n">
-        <v>0.146466</v>
+        <v>0.145799</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.158836</v>
+        <v>0.158511</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0358818</v>
+        <v>0.032276</v>
       </c>
       <c r="D66" t="n">
-        <v>0.151898</v>
+        <v>0.15193</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0412404</v>
+        <v>0.0406588</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0365114</v>
+        <v>0.0325043</v>
       </c>
       <c r="D67" t="n">
-        <v>0.159175</v>
+        <v>0.157642</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0414468</v>
+        <v>0.0416108</v>
       </c>
       <c r="C68" t="n">
-        <v>0.037504</v>
+        <v>0.0327271</v>
       </c>
       <c r="D68" t="n">
-        <v>0.166346</v>
+        <v>0.165389</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0424623</v>
+        <v>0.0422049</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0377763</v>
+        <v>0.0332176</v>
       </c>
       <c r="D69" t="n">
-        <v>0.173357</v>
+        <v>0.171835</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0434322</v>
+        <v>0.0431978</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0383802</v>
+        <v>0.0336896</v>
       </c>
       <c r="D70" t="n">
-        <v>0.181292</v>
+        <v>0.179969</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0443544</v>
+        <v>0.0445164</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0391408</v>
+        <v>0.0342993</v>
       </c>
       <c r="D71" t="n">
-        <v>0.190269</v>
+        <v>0.189789</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0464895</v>
+        <v>0.0463639</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0388299</v>
+        <v>0.0354055</v>
       </c>
       <c r="D72" t="n">
-        <v>0.200547</v>
+        <v>0.198748</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0485595</v>
+        <v>0.0484262</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0398149</v>
+        <v>0.0363684</v>
       </c>
       <c r="D73" t="n">
-        <v>0.2126</v>
+        <v>0.208368</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0520269</v>
+        <v>0.051924</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0410886</v>
+        <v>0.0375895</v>
       </c>
       <c r="D74" t="n">
-        <v>0.224945</v>
+        <v>0.220262</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0567309</v>
+        <v>0.0559443</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0439098</v>
+        <v>0.0389927</v>
       </c>
       <c r="D75" t="n">
-        <v>0.237926</v>
+        <v>0.233457</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0629387</v>
+        <v>0.0621958</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0462734</v>
+        <v>0.0415098</v>
       </c>
       <c r="D76" t="n">
-        <v>0.251922</v>
+        <v>0.246482</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0743926</v>
+        <v>0.0728288</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0506526</v>
+        <v>0.0462404</v>
       </c>
       <c r="D77" t="n">
-        <v>0.26785</v>
+        <v>0.259787</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0889963</v>
+        <v>0.0887471</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0588438</v>
+        <v>0.0535091</v>
       </c>
       <c r="D78" t="n">
-        <v>0.225086</v>
+        <v>0.219644</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112797</v>
+        <v>0.111921</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0709147</v>
+        <v>0.0653345</v>
       </c>
       <c r="D79" t="n">
-        <v>0.236501</v>
+        <v>0.231453</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.153029</v>
+        <v>0.151128</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0402024</v>
+        <v>0.0363488</v>
       </c>
       <c r="D80" t="n">
-        <v>0.248998</v>
+        <v>0.244099</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0473407</v>
+        <v>0.0461563</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0408718</v>
+        <v>0.03673</v>
       </c>
       <c r="D81" t="n">
-        <v>0.263935</v>
+        <v>0.257513</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0482437</v>
+        <v>0.0471428</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0411281</v>
+        <v>0.0371506</v>
       </c>
       <c r="D82" t="n">
-        <v>0.275361</v>
+        <v>0.270213</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0501104</v>
+        <v>0.0482787</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0417555</v>
+        <v>0.0376151</v>
       </c>
       <c r="D83" t="n">
-        <v>0.288754</v>
+        <v>0.283352</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0519304</v>
+        <v>0.0489754</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0425065</v>
+        <v>0.0381783</v>
       </c>
       <c r="D84" t="n">
-        <v>0.302139</v>
+        <v>0.296961</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0544892</v>
+        <v>0.050889</v>
       </c>
       <c r="C85" t="n">
-        <v>0.043604</v>
+        <v>0.0388499</v>
       </c>
       <c r="D85" t="n">
-        <v>0.316608</v>
+        <v>0.310531</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0568561</v>
+        <v>0.0523866</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0454898</v>
+        <v>0.0396808</v>
       </c>
       <c r="D86" t="n">
-        <v>0.330531</v>
+        <v>0.324652</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0608234</v>
+        <v>0.0551307</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0474344</v>
+        <v>0.0405902</v>
       </c>
       <c r="D87" t="n">
-        <v>0.346167</v>
+        <v>0.339248</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06630030000000001</v>
+        <v>0.0588304</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0497229</v>
+        <v>0.0421532</v>
       </c>
       <c r="D88" t="n">
-        <v>0.361257</v>
+        <v>0.353943</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0724948</v>
+        <v>0.0642084</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0524212</v>
+        <v>0.044385</v>
       </c>
       <c r="D89" t="n">
-        <v>0.376684</v>
+        <v>0.370049</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0809745</v>
+        <v>0.0724393</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0574264</v>
+        <v>0.047242</v>
       </c>
       <c r="D90" t="n">
-        <v>0.393508</v>
+        <v>0.386379</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.09208479999999999</v>
+        <v>0.0836413</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0629362</v>
+        <v>0.0524123</v>
       </c>
       <c r="D91" t="n">
-        <v>0.411343</v>
+        <v>0.40259</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.108038</v>
+        <v>0.100174</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0727768</v>
+        <v>0.0599972</v>
       </c>
       <c r="D92" t="n">
-        <v>0.332451</v>
+        <v>0.326604</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.12872</v>
+        <v>0.124996</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0848904</v>
+        <v>0.0730818</v>
       </c>
       <c r="D93" t="n">
-        <v>0.344153</v>
+        <v>0.337097</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.162723</v>
+        <v>0.16138</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0502645</v>
+        <v>0.0403349</v>
       </c>
       <c r="D94" t="n">
-        <v>0.355415</v>
+        <v>0.348359</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0667923</v>
+        <v>0.0581538</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0516187</v>
+        <v>0.0414487</v>
       </c>
       <c r="D95" t="n">
-        <v>0.366921</v>
+        <v>0.359957</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.06984170000000001</v>
+        <v>0.0618654</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0536577</v>
+        <v>0.0436512</v>
       </c>
       <c r="D96" t="n">
-        <v>0.379006</v>
+        <v>0.371917</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07224170000000001</v>
+        <v>0.06573270000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0557072</v>
+        <v>0.0451568</v>
       </c>
       <c r="D97" t="n">
-        <v>0.391555</v>
+        <v>0.383884</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0748653</v>
+        <v>0.07072050000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.057762</v>
+        <v>0.0477717</v>
       </c>
       <c r="D98" t="n">
-        <v>0.403521</v>
+        <v>0.395787</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0778739</v>
+        <v>0.07600079999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0594487</v>
+        <v>0.0506927</v>
       </c>
       <c r="D99" t="n">
-        <v>0.417164</v>
+        <v>0.408596</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0798939</v>
+        <v>0.0812813</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0613339</v>
+        <v>0.0538508</v>
       </c>
       <c r="D100" t="n">
-        <v>0.430435</v>
+        <v>0.421762</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0850711</v>
+        <v>0.08766259999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0636728</v>
+        <v>0.0581231</v>
       </c>
       <c r="D101" t="n">
-        <v>0.444627</v>
+        <v>0.435557</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0888615</v>
+        <v>0.0941491</v>
       </c>
       <c r="C102" t="n">
-        <v>0.06674869999999999</v>
+        <v>0.0619312</v>
       </c>
       <c r="D102" t="n">
-        <v>0.460006</v>
+        <v>0.450308</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0953324</v>
+        <v>0.101644</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0683523</v>
+        <v>0.06696680000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.475484</v>
+        <v>0.46549</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.102982</v>
+        <v>0.110735</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0732207</v>
+        <v>0.07223930000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.491603</v>
+        <v>0.48179</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.113586</v>
+        <v>0.121201</v>
       </c>
       <c r="C105" t="n">
-        <v>0.07856779999999999</v>
+        <v>0.07848860000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.508988</v>
+        <v>0.498111</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.128232</v>
+        <v>0.13519</v>
       </c>
       <c r="C106" t="n">
-        <v>0.08745319999999999</v>
+        <v>0.0872579</v>
       </c>
       <c r="D106" t="n">
-        <v>0.525655</v>
+        <v>0.515495</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.14945</v>
+        <v>0.154591</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0992391</v>
+        <v>0.0982296</v>
       </c>
       <c r="D107" t="n">
-        <v>0.398903</v>
+        <v>0.389822</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.179575</v>
+        <v>0.183401</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0567709</v>
+        <v>0.0598221</v>
       </c>
       <c r="D108" t="n">
-        <v>0.410022</v>
+        <v>0.400513</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.225164</v>
+        <v>0.22684</v>
       </c>
       <c r="C109" t="n">
-        <v>0.05945</v>
+        <v>0.0617463</v>
       </c>
       <c r="D109" t="n">
-        <v>0.421203</v>
+        <v>0.41134</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0807948</v>
+        <v>0.09126629999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0610341</v>
+        <v>0.064114</v>
       </c>
       <c r="D110" t="n">
-        <v>0.432629</v>
+        <v>0.422787</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08333550000000001</v>
+        <v>0.09381340000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0621968</v>
+        <v>0.0659343</v>
       </c>
       <c r="D111" t="n">
-        <v>0.444266</v>
+        <v>0.434325</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0856349</v>
+        <v>0.0969328</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0639927</v>
+        <v>0.06776649999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.456273</v>
+        <v>0.446089</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0910812</v>
+        <v>0.09994</v>
       </c>
       <c r="C113" t="n">
-        <v>0.06635539999999999</v>
+        <v>0.0699322</v>
       </c>
       <c r="D113" t="n">
-        <v>0.468816</v>
+        <v>0.458649</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0958357</v>
+        <v>0.103159</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0684307</v>
+        <v>0.0721118</v>
       </c>
       <c r="D114" t="n">
-        <v>0.482068</v>
+        <v>0.471053</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.101311</v>
+        <v>0.107169</v>
       </c>
       <c r="C115" t="n">
-        <v>0.07158009999999999</v>
+        <v>0.07399650000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.495606</v>
+        <v>0.484327</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.105481</v>
+        <v>0.11165</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0754262</v>
+        <v>0.0770464</v>
       </c>
       <c r="D116" t="n">
-        <v>0.509948</v>
+        <v>0.498692</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.113561</v>
+        <v>0.117328</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0793489</v>
+        <v>0.07989540000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.520545</v>
+        <v>0.513065</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121534</v>
+        <v>0.124434</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0847781</v>
+        <v>0.0838072</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5360740000000001</v>
+        <v>0.528425</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.131913</v>
+        <v>0.133909</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0911366</v>
+        <v>0.08922380000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.556883</v>
+        <v>0.544665</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.142953</v>
+        <v>0.146228</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0997904</v>
+        <v>0.0959854</v>
       </c>
       <c r="D120" t="n">
-        <v>0.573966</v>
+        <v>0.561606</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.162889</v>
+        <v>0.163297</v>
       </c>
       <c r="C121" t="n">
-        <v>0.111643</v>
+        <v>0.106664</v>
       </c>
       <c r="D121" t="n">
-        <v>0.428011</v>
+        <v>0.418462</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.188492</v>
+        <v>0.189313</v>
       </c>
       <c r="C122" t="n">
-        <v>0.13009</v>
+        <v>0.123129</v>
       </c>
       <c r="D122" t="n">
-        <v>0.438422</v>
+        <v>0.429271</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.228264</v>
+        <v>0.229076</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0841292</v>
+        <v>0.076214</v>
       </c>
       <c r="D123" t="n">
-        <v>0.450313</v>
+        <v>0.440293</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103491</v>
+        <v>0.101137</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0814975</v>
+        <v>0.07739310000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.458699</v>
+        <v>0.451683</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.105534</v>
+        <v>0.10432</v>
       </c>
       <c r="C125" t="n">
-        <v>0.08227660000000001</v>
+        <v>0.077318</v>
       </c>
       <c r="D125" t="n">
-        <v>0.473392</v>
+        <v>0.464188</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.106404</v>
+        <v>0.107278</v>
       </c>
       <c r="C126" t="n">
-        <v>0.08496099999999999</v>
+        <v>0.08062320000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.485817</v>
+        <v>0.475655</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.10427</v>
+        <v>0.110762</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0874286</v>
+        <v>0.0823942</v>
       </c>
       <c r="D127" t="n">
-        <v>0.498276</v>
+        <v>0.488171</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.115923</v>
+        <v>0.112888</v>
       </c>
       <c r="C128" t="n">
-        <v>0.08801390000000001</v>
+        <v>0.0817927</v>
       </c>
       <c r="D128" t="n">
-        <v>0.511189</v>
+        <v>0.501499</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.117453</v>
+        <v>0.116066</v>
       </c>
       <c r="C129" t="n">
-        <v>0.09060989999999999</v>
+        <v>0.0842458</v>
       </c>
       <c r="D129" t="n">
-        <v>0.521817</v>
+        <v>0.514471</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.116173</v>
+        <v>0.121155</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0926709</v>
+        <v>0.08739470000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.536656</v>
+        <v>0.528303</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.125608</v>
+        <v>0.127212</v>
       </c>
       <c r="C131" t="n">
-        <v>0.09264120000000001</v>
+        <v>0.0901435</v>
       </c>
       <c r="D131" t="n">
-        <v>0.554014</v>
+        <v>0.542569</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133655</v>
+        <v>0.133688</v>
       </c>
       <c r="C132" t="n">
-        <v>0.102389</v>
+        <v>0.09629210000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5692430000000001</v>
+        <v>0.557955</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.141942</v>
+        <v>0.140934</v>
       </c>
       <c r="C133" t="n">
-        <v>0.107216</v>
+        <v>0.0986731</v>
       </c>
       <c r="D133" t="n">
-        <v>0.585553</v>
+        <v>0.573928</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.154652</v>
+        <v>0.153407</v>
       </c>
       <c r="C134" t="n">
-        <v>0.113452</v>
+        <v>0.105349</v>
       </c>
       <c r="D134" t="n">
-        <v>0.603611</v>
+        <v>0.591831</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.169339</v>
+        <v>0.16975</v>
       </c>
       <c r="C135" t="n">
-        <v>0.121885</v>
+        <v>0.114509</v>
       </c>
       <c r="D135" t="n">
-        <v>0.444713</v>
+        <v>0.434973</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194531</v>
+        <v>0.194332</v>
       </c>
       <c r="C136" t="n">
-        <v>0.137731</v>
+        <v>0.12899</v>
       </c>
       <c r="D136" t="n">
-        <v>0.454981</v>
+        <v>0.446398</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232162</v>
+        <v>0.232234</v>
       </c>
       <c r="C137" t="n">
-        <v>0.15552</v>
+        <v>0.140783</v>
       </c>
       <c r="D137" t="n">
-        <v>0.467808</v>
+        <v>0.458052</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.168716</v>
+        <v>0.169858</v>
       </c>
       <c r="C138" t="n">
-        <v>0.145196</v>
+        <v>0.14029</v>
       </c>
       <c r="D138" t="n">
-        <v>0.479462</v>
+        <v>0.469656</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.173458</v>
+        <v>0.164733</v>
       </c>
       <c r="C139" t="n">
-        <v>0.151038</v>
+        <v>0.141545</v>
       </c>
       <c r="D139" t="n">
-        <v>0.491263</v>
+        <v>0.481329</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.171917</v>
+        <v>0.171733</v>
       </c>
       <c r="C140" t="n">
-        <v>0.147598</v>
+        <v>0.143693</v>
       </c>
       <c r="D140" t="n">
-        <v>0.503385</v>
+        <v>0.493073</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.175185</v>
+        <v>0.173</v>
       </c>
       <c r="C141" t="n">
-        <v>0.161218</v>
+        <v>0.144719</v>
       </c>
       <c r="D141" t="n">
-        <v>0.515969</v>
+        <v>0.505325</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.175998</v>
+        <v>0.176046</v>
       </c>
       <c r="C142" t="n">
-        <v>0.160224</v>
+        <v>0.147667</v>
       </c>
       <c r="D142" t="n">
-        <v>0.527783</v>
+        <v>0.518181</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.173795</v>
+        <v>0.17023</v>
       </c>
       <c r="C143" t="n">
-        <v>0.162611</v>
+        <v>0.149335</v>
       </c>
       <c r="D143" t="n">
-        <v>0.542168</v>
+        <v>0.531644</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0324432</v>
+        <v>0.032346</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0227903</v>
+        <v>0.0230255</v>
       </c>
       <c r="D2" t="n">
-        <v>0.128275</v>
+        <v>0.127575</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0338843</v>
+        <v>0.0338495</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0227367</v>
+        <v>0.0230618</v>
       </c>
       <c r="D3" t="n">
-        <v>0.132887</v>
+        <v>0.13184</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0348535</v>
+        <v>0.035319</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0233991</v>
+        <v>0.0236261</v>
       </c>
       <c r="D4" t="n">
-        <v>0.136316</v>
+        <v>0.13556</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0391908</v>
+        <v>0.0391252</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0221716</v>
+        <v>0.0226862</v>
       </c>
       <c r="D5" t="n">
-        <v>0.142596</v>
+        <v>0.140523</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0484915</v>
+        <v>0.0481467</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0233649</v>
+        <v>0.0230948</v>
       </c>
       <c r="D6" t="n">
-        <v>0.147915</v>
+        <v>0.147182</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0725146</v>
+        <v>0.07201689999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0280346</v>
+        <v>0.0278353</v>
       </c>
       <c r="D7" t="n">
-        <v>0.106038</v>
+        <v>0.104989</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.104843</v>
+        <v>0.10448</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0446151</v>
+        <v>0.0479769</v>
       </c>
       <c r="D8" t="n">
-        <v>0.111088</v>
+        <v>0.110692</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.146883</v>
+        <v>0.14651</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0231335</v>
+        <v>0.0229991</v>
       </c>
       <c r="D9" t="n">
-        <v>0.115595</v>
+        <v>0.114667</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0307171</v>
+        <v>0.0305769</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0230668</v>
+        <v>0.0230936</v>
       </c>
       <c r="D10" t="n">
-        <v>0.121379</v>
+        <v>0.121062</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0308509</v>
+        <v>0.0308719</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0230174</v>
+        <v>0.0232077</v>
       </c>
       <c r="D11" t="n">
-        <v>0.126039</v>
+        <v>0.12578</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0313251</v>
+        <v>0.0313142</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0233433</v>
+        <v>0.0232225</v>
       </c>
       <c r="D12" t="n">
-        <v>0.131661</v>
+        <v>0.131235</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0318926</v>
+        <v>0.0318284</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0233928</v>
+        <v>0.0233036</v>
       </c>
       <c r="D13" t="n">
-        <v>0.136454</v>
+        <v>0.135716</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0335113</v>
+        <v>0.0323281</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0236553</v>
+        <v>0.0235351</v>
       </c>
       <c r="D14" t="n">
-        <v>0.140596</v>
+        <v>0.140187</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.033982</v>
+        <v>0.0339329</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0235824</v>
+        <v>0.0238373</v>
       </c>
       <c r="D15" t="n">
-        <v>0.145602</v>
+        <v>0.144826</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0356887</v>
+        <v>0.0355503</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0240235</v>
+        <v>0.0240925</v>
       </c>
       <c r="D16" t="n">
-        <v>0.150012</v>
+        <v>0.149314</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.038096</v>
+        <v>0.0381172</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0242821</v>
+        <v>0.0240824</v>
       </c>
       <c r="D17" t="n">
-        <v>0.154526</v>
+        <v>0.15353</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0434751</v>
+        <v>0.0436821</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0242176</v>
+        <v>0.0241669</v>
       </c>
       <c r="D18" t="n">
-        <v>0.159702</v>
+        <v>0.15868</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0494809</v>
+        <v>0.0495494</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0246168</v>
+        <v>0.0243577</v>
       </c>
       <c r="D19" t="n">
-        <v>0.16411</v>
+        <v>0.164048</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0598244</v>
+        <v>0.0596889</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0303989</v>
+        <v>0.02881</v>
       </c>
       <c r="D20" t="n">
-        <v>0.16876</v>
+        <v>0.168634</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.075366</v>
+        <v>0.075682</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0409862</v>
+        <v>0.0382681</v>
       </c>
       <c r="D21" t="n">
-        <v>0.121803</v>
+        <v>0.121789</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.102411</v>
+        <v>0.102311</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0553638</v>
+        <v>0.0568869</v>
       </c>
       <c r="D22" t="n">
-        <v>0.125787</v>
+        <v>0.125907</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.132849</v>
+        <v>0.132765</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0241312</v>
+        <v>0.023795</v>
       </c>
       <c r="D23" t="n">
-        <v>0.130466</v>
+        <v>0.130238</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0324241</v>
+        <v>0.0324809</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0244772</v>
+        <v>0.0239836</v>
       </c>
       <c r="D24" t="n">
-        <v>0.135246</v>
+        <v>0.13527</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0328771</v>
+        <v>0.0329472</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0245817</v>
+        <v>0.0242617</v>
       </c>
       <c r="D25" t="n">
-        <v>0.13962</v>
+        <v>0.139656</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0333921</v>
+        <v>0.0334857</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0249165</v>
+        <v>0.0248117</v>
       </c>
       <c r="D26" t="n">
-        <v>0.143474</v>
+        <v>0.143693</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0339457</v>
+        <v>0.033952</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0249469</v>
+        <v>0.0247765</v>
       </c>
       <c r="D27" t="n">
-        <v>0.148462</v>
+        <v>0.149073</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0350646</v>
+        <v>0.0350259</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0252416</v>
+        <v>0.0252984</v>
       </c>
       <c r="D28" t="n">
-        <v>0.153569</v>
+        <v>0.153853</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0369777</v>
+        <v>0.0368746</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0256257</v>
+        <v>0.0256418</v>
       </c>
       <c r="D29" t="n">
-        <v>0.158386</v>
+        <v>0.158691</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0383147</v>
+        <v>0.0383225</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0261477</v>
+        <v>0.0261525</v>
       </c>
       <c r="D30" t="n">
-        <v>0.162607</v>
+        <v>0.16304</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0411769</v>
+        <v>0.0411048</v>
       </c>
       <c r="C31" t="n">
-        <v>0.026876</v>
+        <v>0.0268096</v>
       </c>
       <c r="D31" t="n">
-        <v>0.16692</v>
+        <v>0.167589</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.047372</v>
+        <v>0.04728</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0280994</v>
+        <v>0.0275876</v>
       </c>
       <c r="D32" t="n">
-        <v>0.171766</v>
+        <v>0.171776</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0524527</v>
+        <v>0.0524535</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0300346</v>
+        <v>0.0288838</v>
       </c>
       <c r="D33" t="n">
-        <v>0.175811</v>
+        <v>0.176247</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0644667</v>
+        <v>0.0644695</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0353433</v>
+        <v>0.0338044</v>
       </c>
       <c r="D34" t="n">
-        <v>0.180567</v>
+        <v>0.180757</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0797508</v>
+        <v>0.0796978</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0422101</v>
+        <v>0.0420076</v>
       </c>
       <c r="D35" t="n">
-        <v>0.127007</v>
+        <v>0.126974</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0954303</v>
+        <v>0.09531240000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0544187</v>
+        <v>0.0536102</v>
       </c>
       <c r="D36" t="n">
-        <v>0.131561</v>
+        <v>0.131492</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.130177</v>
+        <v>0.130049</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0252301</v>
+        <v>0.024884</v>
       </c>
       <c r="D37" t="n">
-        <v>0.13608</v>
+        <v>0.135988</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.033355</v>
+        <v>0.0334374</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0253928</v>
+        <v>0.0252964</v>
       </c>
       <c r="D38" t="n">
-        <v>0.141011</v>
+        <v>0.140988</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0338272</v>
+        <v>0.0339207</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0256865</v>
+        <v>0.0255224</v>
       </c>
       <c r="D39" t="n">
-        <v>0.146332</v>
+        <v>0.146183</v>
       </c>
     </row>
     <row r="40">
@@ -3781,10 +3781,10 @@
         <v>0.0349228</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0258708</v>
+        <v>0.0258155</v>
       </c>
       <c r="D40" t="n">
-        <v>0.151194</v>
+        <v>0.151081</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.035609</v>
+        <v>0.0357819</v>
       </c>
       <c r="C41" t="n">
-        <v>0.026331</v>
+        <v>0.0261696</v>
       </c>
       <c r="D41" t="n">
-        <v>0.155817</v>
+        <v>0.15567</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0368648</v>
+        <v>0.0368912</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0267</v>
+        <v>0.0265008</v>
       </c>
       <c r="D42" t="n">
-        <v>0.160548</v>
+        <v>0.160586</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03806</v>
+        <v>0.0381353</v>
       </c>
       <c r="C43" t="n">
-        <v>0.027135</v>
+        <v>0.0271956</v>
       </c>
       <c r="D43" t="n">
-        <v>0.164956</v>
+        <v>0.164781</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0401663</v>
+        <v>0.0402444</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0278776</v>
+        <v>0.0279176</v>
       </c>
       <c r="D44" t="n">
-        <v>0.16907</v>
+        <v>0.168888</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0427669</v>
+        <v>0.042821</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0291318</v>
+        <v>0.0287987</v>
       </c>
       <c r="D45" t="n">
-        <v>0.173452</v>
+        <v>0.173321</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0474471</v>
+        <v>0.0474745</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0306986</v>
+        <v>0.0303441</v>
       </c>
       <c r="D46" t="n">
-        <v>0.177499</v>
+        <v>0.177326</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0535035</v>
+        <v>0.0535266</v>
       </c>
       <c r="C47" t="n">
-        <v>0.033743</v>
+        <v>0.0326499</v>
       </c>
       <c r="D47" t="n">
-        <v>0.181536</v>
+        <v>0.181477</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0624821</v>
+        <v>0.06258080000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0380581</v>
+        <v>0.0367643</v>
       </c>
       <c r="D48" t="n">
-        <v>0.186269</v>
+        <v>0.185913</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0739701</v>
+        <v>0.074017</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0437517</v>
+        <v>0.0422473</v>
       </c>
       <c r="D49" t="n">
-        <v>0.190812</v>
+        <v>0.190221</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0933513</v>
+        <v>0.0933977</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0531373</v>
+        <v>0.0504356</v>
       </c>
       <c r="D50" t="n">
-        <v>0.134177</v>
+        <v>0.134218</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.126028</v>
+        <v>0.125827</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0268965</v>
+        <v>0.026601</v>
       </c>
       <c r="D51" t="n">
-        <v>0.138916</v>
+        <v>0.138898</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168455</v>
+        <v>0.1684</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0276236</v>
+        <v>0.0278643</v>
       </c>
       <c r="D52" t="n">
-        <v>0.143736</v>
+        <v>0.143761</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.035728</v>
+        <v>0.0355376</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0271664</v>
+        <v>0.0270899</v>
       </c>
       <c r="D53" t="n">
-        <v>0.148802</v>
+        <v>0.14885</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0360207</v>
+        <v>0.0365619</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0281267</v>
+        <v>0.0277453</v>
       </c>
       <c r="D54" t="n">
-        <v>0.153604</v>
+        <v>0.153519</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0369935</v>
+        <v>0.0368899</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0278868</v>
+        <v>0.027933</v>
       </c>
       <c r="D55" t="n">
-        <v>0.158301</v>
+        <v>0.158207</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0385791</v>
+        <v>0.0380068</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0286199</v>
+        <v>0.0290103</v>
       </c>
       <c r="D56" t="n">
-        <v>0.162524</v>
+        <v>0.162672</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0394857</v>
+        <v>0.0393869</v>
       </c>
       <c r="C57" t="n">
-        <v>0.029647</v>
+        <v>0.0300162</v>
       </c>
       <c r="D57" t="n">
-        <v>0.167321</v>
+        <v>0.167103</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0418224</v>
+        <v>0.0413611</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0300443</v>
+        <v>0.0304876</v>
       </c>
       <c r="D58" t="n">
-        <v>0.171398</v>
+        <v>0.171135</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.044238</v>
+        <v>0.0442297</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0314841</v>
+        <v>0.0314148</v>
       </c>
       <c r="D59" t="n">
-        <v>0.175338</v>
+        <v>0.174904</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0476774</v>
+        <v>0.0477568</v>
       </c>
       <c r="C60" t="n">
-        <v>0.032776</v>
+        <v>0.0324424</v>
       </c>
       <c r="D60" t="n">
-        <v>0.179641</v>
+        <v>0.179264</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0522869</v>
+        <v>0.0522547</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0349517</v>
+        <v>0.0346556</v>
       </c>
       <c r="D61" t="n">
-        <v>0.18386</v>
+        <v>0.183914</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0599764</v>
+        <v>0.0601546</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0381228</v>
+        <v>0.0379327</v>
       </c>
       <c r="D62" t="n">
-        <v>0.18811</v>
+        <v>0.188385</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0715609</v>
+        <v>0.0714485</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0431298</v>
+        <v>0.0425901</v>
       </c>
       <c r="D63" t="n">
-        <v>0.192719</v>
+        <v>0.193328</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0887604</v>
+        <v>0.0885222</v>
       </c>
       <c r="C64" t="n">
-        <v>0.051448</v>
+        <v>0.0504886</v>
       </c>
       <c r="D64" t="n">
-        <v>0.139603</v>
+        <v>0.139549</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115601</v>
+        <v>0.115752</v>
       </c>
       <c r="C65" t="n">
-        <v>0.065776</v>
+        <v>0.0645389</v>
       </c>
       <c r="D65" t="n">
-        <v>0.145799</v>
+        <v>0.146409</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.158511</v>
+        <v>0.158145</v>
       </c>
       <c r="C66" t="n">
-        <v>0.032276</v>
+        <v>0.0321038</v>
       </c>
       <c r="D66" t="n">
-        <v>0.15193</v>
+        <v>0.152978</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0406588</v>
+        <v>0.0407721</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0325043</v>
+        <v>0.0324517</v>
       </c>
       <c r="D67" t="n">
-        <v>0.157642</v>
+        <v>0.160027</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0416108</v>
+        <v>0.0417663</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0327271</v>
+        <v>0.032762</v>
       </c>
       <c r="D68" t="n">
-        <v>0.165389</v>
+        <v>0.168391</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0422049</v>
+        <v>0.0419735</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0332176</v>
+        <v>0.0333482</v>
       </c>
       <c r="D69" t="n">
-        <v>0.171835</v>
+        <v>0.17516</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0431978</v>
+        <v>0.042946</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0336896</v>
+        <v>0.0337539</v>
       </c>
       <c r="D70" t="n">
-        <v>0.179969</v>
+        <v>0.182793</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0445164</v>
+        <v>0.0445419</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0342993</v>
+        <v>0.0346107</v>
       </c>
       <c r="D71" t="n">
-        <v>0.189789</v>
+        <v>0.191963</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0463639</v>
+        <v>0.0466203</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0354055</v>
+        <v>0.0351495</v>
       </c>
       <c r="D72" t="n">
-        <v>0.198748</v>
+        <v>0.20111</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0484262</v>
+        <v>0.0487047</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0363684</v>
+        <v>0.0360496</v>
       </c>
       <c r="D73" t="n">
-        <v>0.208368</v>
+        <v>0.21125</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.051924</v>
+        <v>0.0522277</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0375895</v>
+        <v>0.03732</v>
       </c>
       <c r="D74" t="n">
-        <v>0.220262</v>
+        <v>0.222867</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0559443</v>
+        <v>0.0561681</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0389927</v>
+        <v>0.0392846</v>
       </c>
       <c r="D75" t="n">
-        <v>0.233457</v>
+        <v>0.235352</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0621958</v>
+        <v>0.0625889</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0415098</v>
+        <v>0.0419766</v>
       </c>
       <c r="D76" t="n">
-        <v>0.246482</v>
+        <v>0.249464</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0728288</v>
+        <v>0.0737612</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0462404</v>
+        <v>0.0461036</v>
       </c>
       <c r="D77" t="n">
-        <v>0.259787</v>
+        <v>0.262858</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0887471</v>
+        <v>0.089277</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0535091</v>
+        <v>0.052882</v>
       </c>
       <c r="D78" t="n">
-        <v>0.219644</v>
+        <v>0.221632</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.111921</v>
+        <v>0.112851</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0653345</v>
+        <v>0.0648233</v>
       </c>
       <c r="D79" t="n">
-        <v>0.231453</v>
+        <v>0.234049</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.151128</v>
+        <v>0.151943</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0363488</v>
+        <v>0.0363591</v>
       </c>
       <c r="D80" t="n">
-        <v>0.244099</v>
+        <v>0.246851</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0461563</v>
+        <v>0.0462636</v>
       </c>
       <c r="C81" t="n">
-        <v>0.03673</v>
+        <v>0.0366366</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257513</v>
+        <v>0.258643</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0471428</v>
+        <v>0.0469738</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0371506</v>
+        <v>0.0372811</v>
       </c>
       <c r="D82" t="n">
-        <v>0.270213</v>
+        <v>0.272493</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0482787</v>
+        <v>0.0481739</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0376151</v>
+        <v>0.0375256</v>
       </c>
       <c r="D83" t="n">
-        <v>0.283352</v>
+        <v>0.285227</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0489754</v>
+        <v>0.0491179</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0381783</v>
+        <v>0.0382096</v>
       </c>
       <c r="D84" t="n">
-        <v>0.296961</v>
+        <v>0.298337</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.050889</v>
+        <v>0.0508161</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0388499</v>
+        <v>0.0387131</v>
       </c>
       <c r="D85" t="n">
-        <v>0.310531</v>
+        <v>0.3118</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0523866</v>
+        <v>0.0526317</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0396808</v>
+        <v>0.0395924</v>
       </c>
       <c r="D86" t="n">
-        <v>0.324652</v>
+        <v>0.325815</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0551307</v>
+        <v>0.0554147</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0405902</v>
+        <v>0.0408921</v>
       </c>
       <c r="D87" t="n">
-        <v>0.339248</v>
+        <v>0.340309</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0588304</v>
+        <v>0.0592263</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0421532</v>
+        <v>0.0423977</v>
       </c>
       <c r="D88" t="n">
-        <v>0.353943</v>
+        <v>0.354486</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0642084</v>
+        <v>0.06402960000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.044385</v>
+        <v>0.0443969</v>
       </c>
       <c r="D89" t="n">
-        <v>0.370049</v>
+        <v>0.370301</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0724393</v>
+        <v>0.0724026</v>
       </c>
       <c r="C90" t="n">
-        <v>0.047242</v>
+        <v>0.0479565</v>
       </c>
       <c r="D90" t="n">
-        <v>0.386379</v>
+        <v>0.38618</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0836413</v>
+        <v>0.0833952</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0524123</v>
+        <v>0.0530606</v>
       </c>
       <c r="D91" t="n">
-        <v>0.40259</v>
+        <v>0.403046</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.100174</v>
+        <v>0.100623</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0599972</v>
+        <v>0.0602929</v>
       </c>
       <c r="D92" t="n">
-        <v>0.326604</v>
+        <v>0.326239</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.124996</v>
+        <v>0.124507</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0730818</v>
+        <v>0.0732738</v>
       </c>
       <c r="D93" t="n">
-        <v>0.337097</v>
+        <v>0.337396</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.16138</v>
+        <v>0.16076</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0403349</v>
+        <v>0.0407117</v>
       </c>
       <c r="D94" t="n">
-        <v>0.348359</v>
+        <v>0.348675</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0581538</v>
+        <v>0.0575467</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0414487</v>
+        <v>0.0416945</v>
       </c>
       <c r="D95" t="n">
-        <v>0.359957</v>
+        <v>0.359769</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0618654</v>
+        <v>0.0609998</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0436512</v>
+        <v>0.0428955</v>
       </c>
       <c r="D96" t="n">
-        <v>0.371917</v>
+        <v>0.371714</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.06573270000000001</v>
+        <v>0.0648514</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0451568</v>
+        <v>0.0449779</v>
       </c>
       <c r="D97" t="n">
-        <v>0.383884</v>
+        <v>0.383784</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07072050000000001</v>
+        <v>0.06968489999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0477717</v>
+        <v>0.0471066</v>
       </c>
       <c r="D98" t="n">
-        <v>0.395787</v>
+        <v>0.395566</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07600079999999999</v>
+        <v>0.0749701</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0506927</v>
+        <v>0.0501227</v>
       </c>
       <c r="D99" t="n">
-        <v>0.408596</v>
+        <v>0.408573</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0812813</v>
+        <v>0.08072169999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0538508</v>
+        <v>0.0531697</v>
       </c>
       <c r="D100" t="n">
-        <v>0.421762</v>
+        <v>0.422033</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08766259999999999</v>
+        <v>0.0873874</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0581231</v>
+        <v>0.0570308</v>
       </c>
       <c r="D101" t="n">
-        <v>0.435557</v>
+        <v>0.435789</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0941491</v>
+        <v>0.0939749</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0619312</v>
+        <v>0.0610877</v>
       </c>
       <c r="D102" t="n">
-        <v>0.450308</v>
+        <v>0.450695</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.101644</v>
+        <v>0.101729</v>
       </c>
       <c r="C103" t="n">
-        <v>0.06696680000000001</v>
+        <v>0.066396</v>
       </c>
       <c r="D103" t="n">
-        <v>0.46549</v>
+        <v>0.465935</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.110735</v>
+        <v>0.110623</v>
       </c>
       <c r="C104" t="n">
-        <v>0.07223930000000001</v>
+        <v>0.07197099999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.48179</v>
+        <v>0.48178</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.121201</v>
+        <v>0.120958</v>
       </c>
       <c r="C105" t="n">
-        <v>0.07848860000000001</v>
+        <v>0.0783558</v>
       </c>
       <c r="D105" t="n">
-        <v>0.498111</v>
+        <v>0.498389</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.13519</v>
+        <v>0.135144</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0872579</v>
+        <v>0.08746139999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.515495</v>
+        <v>0.515379</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.154591</v>
+        <v>0.154614</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0982296</v>
+        <v>0.0988894</v>
       </c>
       <c r="D107" t="n">
-        <v>0.389822</v>
+        <v>0.390207</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.183401</v>
+        <v>0.183066</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0598221</v>
+        <v>0.060176</v>
       </c>
       <c r="D108" t="n">
-        <v>0.400513</v>
+        <v>0.401224</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.22684</v>
+        <v>0.226515</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0617463</v>
+        <v>0.0621936</v>
       </c>
       <c r="D109" t="n">
-        <v>0.41134</v>
+        <v>0.412478</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.09126629999999999</v>
+        <v>0.09119679999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.064114</v>
+        <v>0.0641274</v>
       </c>
       <c r="D110" t="n">
-        <v>0.422787</v>
+        <v>0.423601</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.09381340000000001</v>
+        <v>0.09393940000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0659343</v>
+        <v>0.0658673</v>
       </c>
       <c r="D111" t="n">
-        <v>0.434325</v>
+        <v>0.435365</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0969328</v>
+        <v>0.0968868</v>
       </c>
       <c r="C112" t="n">
-        <v>0.06776649999999999</v>
+        <v>0.0676137</v>
       </c>
       <c r="D112" t="n">
-        <v>0.446089</v>
+        <v>0.446765</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.09994</v>
+        <v>0.09985670000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0699322</v>
+        <v>0.0700509</v>
       </c>
       <c r="D113" t="n">
-        <v>0.458649</v>
+        <v>0.459044</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.103159</v>
+        <v>0.102967</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0721118</v>
+        <v>0.0719291</v>
       </c>
       <c r="D114" t="n">
-        <v>0.471053</v>
+        <v>0.471362</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107169</v>
+        <v>0.107146</v>
       </c>
       <c r="C115" t="n">
-        <v>0.07399650000000001</v>
+        <v>0.07468130000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.484327</v>
+        <v>0.484642</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.11165</v>
+        <v>0.111515</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0770464</v>
+        <v>0.0772135</v>
       </c>
       <c r="D116" t="n">
-        <v>0.498692</v>
+        <v>0.498813</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.117328</v>
+        <v>0.117218</v>
       </c>
       <c r="C117" t="n">
-        <v>0.07989540000000001</v>
+        <v>0.0806399</v>
       </c>
       <c r="D117" t="n">
-        <v>0.513065</v>
+        <v>0.513832</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.124434</v>
+        <v>0.124275</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0838072</v>
+        <v>0.0843737</v>
       </c>
       <c r="D118" t="n">
-        <v>0.528425</v>
+        <v>0.529416</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.133909</v>
+        <v>0.133772</v>
       </c>
       <c r="C119" t="n">
-        <v>0.08922380000000001</v>
+        <v>0.0890427</v>
       </c>
       <c r="D119" t="n">
-        <v>0.544665</v>
+        <v>0.545551</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.146228</v>
+        <v>0.146091</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0959854</v>
+        <v>0.0962802</v>
       </c>
       <c r="D120" t="n">
-        <v>0.561606</v>
+        <v>0.562398</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163297</v>
+        <v>0.163386</v>
       </c>
       <c r="C121" t="n">
-        <v>0.106664</v>
+        <v>0.106337</v>
       </c>
       <c r="D121" t="n">
-        <v>0.418462</v>
+        <v>0.418087</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.189313</v>
+        <v>0.189075</v>
       </c>
       <c r="C122" t="n">
-        <v>0.123129</v>
+        <v>0.123042</v>
       </c>
       <c r="D122" t="n">
-        <v>0.429271</v>
+        <v>0.429005</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.229076</v>
+        <v>0.228883</v>
       </c>
       <c r="C123" t="n">
-        <v>0.076214</v>
+        <v>0.0724501</v>
       </c>
       <c r="D123" t="n">
-        <v>0.440293</v>
+        <v>0.440391</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.101137</v>
+        <v>0.104287</v>
       </c>
       <c r="C124" t="n">
-        <v>0.07739310000000001</v>
+        <v>0.0748619</v>
       </c>
       <c r="D124" t="n">
-        <v>0.451683</v>
+        <v>0.451797</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.10432</v>
+        <v>0.104919</v>
       </c>
       <c r="C125" t="n">
-        <v>0.077318</v>
+        <v>0.07705869999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.464188</v>
+        <v>0.463374</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.107278</v>
+        <v>0.106502</v>
       </c>
       <c r="C126" t="n">
-        <v>0.08062320000000001</v>
+        <v>0.0783089</v>
       </c>
       <c r="D126" t="n">
-        <v>0.475655</v>
+        <v>0.475272</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110762</v>
+        <v>0.110538</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0823942</v>
+        <v>0.0790566</v>
       </c>
       <c r="D127" t="n">
-        <v>0.488171</v>
+        <v>0.488548</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.112888</v>
+        <v>0.113678</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0817927</v>
+        <v>0.0836404</v>
       </c>
       <c r="D128" t="n">
-        <v>0.501499</v>
+        <v>0.5007779999999999</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116066</v>
+        <v>0.118348</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0842458</v>
+        <v>0.0844496</v>
       </c>
       <c r="D129" t="n">
-        <v>0.514471</v>
+        <v>0.514112</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.121155</v>
+        <v>0.121617</v>
       </c>
       <c r="C130" t="n">
-        <v>0.08739470000000001</v>
+        <v>0.08700720000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.528303</v>
+        <v>0.527966</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127212</v>
+        <v>0.1298</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0901435</v>
+        <v>0.0911714</v>
       </c>
       <c r="D131" t="n">
-        <v>0.542569</v>
+        <v>0.5421820000000001</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133688</v>
+        <v>0.13219</v>
       </c>
       <c r="C132" t="n">
-        <v>0.09629210000000001</v>
+        <v>0.0946871</v>
       </c>
       <c r="D132" t="n">
-        <v>0.557955</v>
+        <v>0.558144</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.140934</v>
+        <v>0.141086</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0986731</v>
+        <v>0.0985341</v>
       </c>
       <c r="D133" t="n">
-        <v>0.573928</v>
+        <v>0.574003</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.153407</v>
+        <v>0.153458</v>
       </c>
       <c r="C134" t="n">
-        <v>0.105349</v>
+        <v>0.106251</v>
       </c>
       <c r="D134" t="n">
-        <v>0.591831</v>
+        <v>0.591561</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.16975</v>
+        <v>0.168947</v>
       </c>
       <c r="C135" t="n">
-        <v>0.114509</v>
+        <v>0.114902</v>
       </c>
       <c r="D135" t="n">
-        <v>0.434973</v>
+        <v>0.435258</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194332</v>
+        <v>0.194518</v>
       </c>
       <c r="C136" t="n">
-        <v>0.12899</v>
+        <v>0.128408</v>
       </c>
       <c r="D136" t="n">
-        <v>0.446398</v>
+        <v>0.446259</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232234</v>
+        <v>0.232178</v>
       </c>
       <c r="C137" t="n">
-        <v>0.140783</v>
+        <v>0.138575</v>
       </c>
       <c r="D137" t="n">
-        <v>0.458052</v>
+        <v>0.457635</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.169858</v>
+        <v>0.168745</v>
       </c>
       <c r="C138" t="n">
-        <v>0.14029</v>
+        <v>0.140951</v>
       </c>
       <c r="D138" t="n">
-        <v>0.469656</v>
+        <v>0.46925</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.164733</v>
+        <v>0.1704</v>
       </c>
       <c r="C139" t="n">
-        <v>0.141545</v>
+        <v>0.14244</v>
       </c>
       <c r="D139" t="n">
-        <v>0.481329</v>
+        <v>0.480594</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.171733</v>
+        <v>0.171179</v>
       </c>
       <c r="C140" t="n">
-        <v>0.143693</v>
+        <v>0.14283</v>
       </c>
       <c r="D140" t="n">
-        <v>0.493073</v>
+        <v>0.493312</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.173</v>
+        <v>0.172167</v>
       </c>
       <c r="C141" t="n">
-        <v>0.144719</v>
+        <v>0.144985</v>
       </c>
       <c r="D141" t="n">
-        <v>0.505325</v>
+        <v>0.5049630000000001</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.176046</v>
+        <v>0.174439</v>
       </c>
       <c r="C142" t="n">
-        <v>0.147667</v>
+        <v>0.146093</v>
       </c>
       <c r="D142" t="n">
-        <v>0.518181</v>
+        <v>0.5180129999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.17023</v>
+        <v>0.177638</v>
       </c>
       <c r="C143" t="n">
-        <v>0.149335</v>
+        <v>0.147292</v>
       </c>
       <c r="D143" t="n">
-        <v>0.531644</v>
+        <v>0.530955</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3213,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3246,13 +3246,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.032346</v>
+        <v>0.0324935</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0230255</v>
+        <v>0.122932</v>
       </c>
       <c r="D2" t="n">
-        <v>0.127575</v>
+        <v>0.0232964</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0236459</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3263,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0338495</v>
+        <v>0.0328819</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0230618</v>
+        <v>0.126578</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13184</v>
+        <v>0.0232887</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0239519</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3280,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.035319</v>
+        <v>0.0349299</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0236261</v>
+        <v>0.131469</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13556</v>
+        <v>0.0233407</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.024006</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3297,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0391252</v>
+        <v>0.0396122</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0226862</v>
+        <v>0.138065</v>
       </c>
       <c r="D5" t="n">
-        <v>0.140523</v>
+        <v>0.0229362</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0240095</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3314,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0481467</v>
+        <v>0.0521233</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0230948</v>
+        <v>0.143482</v>
       </c>
       <c r="D6" t="n">
-        <v>0.147182</v>
+        <v>0.0227736</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0245002</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3331,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07201689999999999</v>
+        <v>0.0744223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0278353</v>
+        <v>0.101869</v>
       </c>
       <c r="D7" t="n">
-        <v>0.104989</v>
+        <v>0.0291103</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0292137</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3348,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.10448</v>
+        <v>0.103551</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0479769</v>
+        <v>0.10739</v>
       </c>
       <c r="D8" t="n">
-        <v>0.110692</v>
+        <v>0.0469675</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0466877</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3365,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.14651</v>
+        <v>0.149343</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0229991</v>
+        <v>0.111788</v>
       </c>
       <c r="D9" t="n">
-        <v>0.114667</v>
+        <v>0.0235455</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.023395</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3382,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0305769</v>
+        <v>0.0305636</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0230936</v>
+        <v>0.117639</v>
       </c>
       <c r="D10" t="n">
-        <v>0.121062</v>
+        <v>0.0236087</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0235136</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3399,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0308719</v>
+        <v>0.0308827</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0232077</v>
+        <v>0.122561</v>
       </c>
       <c r="D11" t="n">
-        <v>0.12578</v>
+        <v>0.0238254</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0237829</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3416,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0313142</v>
+        <v>0.0313013</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0232225</v>
+        <v>0.127728</v>
       </c>
       <c r="D12" t="n">
-        <v>0.131235</v>
+        <v>0.0242674</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0240601</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3433,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0318284</v>
+        <v>0.032545</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0233036</v>
+        <v>0.131364</v>
       </c>
       <c r="D13" t="n">
-        <v>0.135716</v>
+        <v>0.0241473</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0242777</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3450,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0323281</v>
+        <v>0.0330487</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0235351</v>
+        <v>0.13634</v>
       </c>
       <c r="D14" t="n">
-        <v>0.140187</v>
+        <v>0.0242852</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0244042</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3467,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0339329</v>
+        <v>0.0342624</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0238373</v>
+        <v>0.140507</v>
       </c>
       <c r="D15" t="n">
-        <v>0.144826</v>
+        <v>0.024599</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0246231</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3484,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0355503</v>
+        <v>0.0355577</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0240925</v>
+        <v>0.145072</v>
       </c>
       <c r="D16" t="n">
-        <v>0.149314</v>
+        <v>0.0246584</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0250489</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3501,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0381172</v>
+        <v>0.0370346</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0240824</v>
+        <v>0.150299</v>
       </c>
       <c r="D17" t="n">
-        <v>0.15353</v>
+        <v>0.0253308</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0256159</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3518,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0436821</v>
+        <v>0.0423015</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0241669</v>
+        <v>0.154814</v>
       </c>
       <c r="D18" t="n">
-        <v>0.15868</v>
+        <v>0.0249704</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0258765</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3535,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0495494</v>
+        <v>0.0501739</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0243577</v>
+        <v>0.161</v>
       </c>
       <c r="D19" t="n">
-        <v>0.164048</v>
+        <v>0.0245872</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0253677</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3552,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0596889</v>
+        <v>0.0599523</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02881</v>
+        <v>0.164866</v>
       </c>
       <c r="D20" t="n">
-        <v>0.168634</v>
+        <v>0.0287054</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0306878</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3569,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.075682</v>
+        <v>0.0782534</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0382681</v>
+        <v>0.118628</v>
       </c>
       <c r="D21" t="n">
-        <v>0.121789</v>
+        <v>0.0383803</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0397413</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3586,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.102311</v>
+        <v>0.105465</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0568869</v>
+        <v>0.122901</v>
       </c>
       <c r="D22" t="n">
-        <v>0.125907</v>
+        <v>0.0575586</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0576131</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3603,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.132765</v>
+        <v>0.144415</v>
       </c>
       <c r="C23" t="n">
-        <v>0.023795</v>
+        <v>0.127281</v>
       </c>
       <c r="D23" t="n">
-        <v>0.130238</v>
+        <v>0.0246429</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0253318</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3620,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0324809</v>
+        <v>0.0323343</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0239836</v>
+        <v>0.132152</v>
       </c>
       <c r="D24" t="n">
-        <v>0.13527</v>
+        <v>0.0250817</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0259089</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3637,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0329472</v>
+        <v>0.0329938</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0242617</v>
+        <v>0.136284</v>
       </c>
       <c r="D25" t="n">
-        <v>0.139656</v>
+        <v>0.0252182</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0262735</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3654,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0334857</v>
+        <v>0.0336359</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0248117</v>
+        <v>0.140447</v>
       </c>
       <c r="D26" t="n">
-        <v>0.143693</v>
+        <v>0.0255139</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0266295</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3671,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.033952</v>
+        <v>0.0344904</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0247765</v>
+        <v>0.145277</v>
       </c>
       <c r="D27" t="n">
-        <v>0.149073</v>
+        <v>0.0259868</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0272923</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3688,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0350259</v>
+        <v>0.035739</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0252984</v>
+        <v>0.150107</v>
       </c>
       <c r="D28" t="n">
-        <v>0.153853</v>
+        <v>0.0265429</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.027992</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3705,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0368746</v>
+        <v>0.0361798</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0256418</v>
+        <v>0.15498</v>
       </c>
       <c r="D29" t="n">
-        <v>0.158691</v>
+        <v>0.027267</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.028753</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3722,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0383225</v>
+        <v>0.0381959</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0261525</v>
+        <v>0.159561</v>
       </c>
       <c r="D30" t="n">
-        <v>0.16304</v>
+        <v>0.0277074</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0297093</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3739,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0411048</v>
+        <v>0.0408616</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0268096</v>
+        <v>0.163623</v>
       </c>
       <c r="D31" t="n">
-        <v>0.167589</v>
+        <v>0.0285989</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0306891</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3756,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04728</v>
+        <v>0.0453318</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0275876</v>
+        <v>0.167893</v>
       </c>
       <c r="D32" t="n">
-        <v>0.171776</v>
+        <v>0.0288067</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0315677</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3773,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0524535</v>
+        <v>0.052655</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0288838</v>
+        <v>0.172449</v>
       </c>
       <c r="D33" t="n">
-        <v>0.176247</v>
+        <v>0.0297497</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0327944</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3790,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0644695</v>
+        <v>0.0635469</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0338044</v>
+        <v>0.176893</v>
       </c>
       <c r="D34" t="n">
-        <v>0.180757</v>
+        <v>0.0337396</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0370921</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3807,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0796978</v>
+        <v>0.0776283</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0420076</v>
+        <v>0.123485</v>
       </c>
       <c r="D35" t="n">
-        <v>0.126974</v>
+        <v>0.0422055</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.04499</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3824,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09531240000000001</v>
+        <v>0.101915</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0536102</v>
+        <v>0.128243</v>
       </c>
       <c r="D36" t="n">
-        <v>0.131492</v>
+        <v>0.0535522</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0555956</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3841,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.130049</v>
+        <v>0.133183</v>
       </c>
       <c r="C37" t="n">
-        <v>0.024884</v>
+        <v>0.132543</v>
       </c>
       <c r="D37" t="n">
-        <v>0.135988</v>
+        <v>0.0261181</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0278021</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3858,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0334374</v>
+        <v>0.032832</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0252964</v>
+        <v>0.137535</v>
       </c>
       <c r="D38" t="n">
-        <v>0.140988</v>
+        <v>0.0267817</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.028391</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3875,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0339207</v>
+        <v>0.0337466</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0255224</v>
+        <v>0.142315</v>
       </c>
       <c r="D39" t="n">
-        <v>0.146183</v>
+        <v>0.0271989</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0288448</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3892,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0349228</v>
+        <v>0.0350827</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0258155</v>
+        <v>0.146504</v>
       </c>
       <c r="D40" t="n">
-        <v>0.151081</v>
+        <v>0.0275191</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0294318</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3909,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0357819</v>
+        <v>0.0355086</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0261696</v>
+        <v>0.151784</v>
       </c>
       <c r="D41" t="n">
-        <v>0.15567</v>
+        <v>0.0278537</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0298623</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3926,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0368912</v>
+        <v>0.0367367</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0265008</v>
+        <v>0.156329</v>
       </c>
       <c r="D42" t="n">
-        <v>0.160586</v>
+        <v>0.0283653</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0305321</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3943,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0381353</v>
+        <v>0.0386436</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0271956</v>
+        <v>0.160749</v>
       </c>
       <c r="D43" t="n">
-        <v>0.164781</v>
+        <v>0.0291872</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0311777</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3960,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0402444</v>
+        <v>0.0397209</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0279176</v>
+        <v>0.164857</v>
       </c>
       <c r="D44" t="n">
-        <v>0.168888</v>
+        <v>0.0301631</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.031878</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3977,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.042821</v>
+        <v>0.042721</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0287987</v>
+        <v>0.168882</v>
       </c>
       <c r="D45" t="n">
-        <v>0.173321</v>
+        <v>0.0308991</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0329082</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3994,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0474745</v>
+        <v>0.0470166</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0303441</v>
+        <v>0.172804</v>
       </c>
       <c r="D46" t="n">
-        <v>0.177326</v>
+        <v>0.0320767</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0345394</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +4011,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0535266</v>
+        <v>0.0528874</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0326499</v>
+        <v>0.177065</v>
       </c>
       <c r="D47" t="n">
-        <v>0.181477</v>
+        <v>0.0339222</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0366846</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +4028,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06258080000000001</v>
+        <v>0.0605526</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0367643</v>
+        <v>0.181488</v>
       </c>
       <c r="D48" t="n">
-        <v>0.185913</v>
+        <v>0.0370851</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0404755</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +4045,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.074017</v>
+        <v>0.0720624</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0422473</v>
+        <v>0.185953</v>
       </c>
       <c r="D49" t="n">
-        <v>0.190221</v>
+        <v>0.0423189</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0454406</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +4062,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0933977</v>
+        <v>0.0908774</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0504356</v>
+        <v>0.130975</v>
       </c>
       <c r="D50" t="n">
-        <v>0.134218</v>
+        <v>0.0505123</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0529953</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +4079,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.125827</v>
+        <v>0.119002</v>
       </c>
       <c r="C51" t="n">
-        <v>0.026601</v>
+        <v>0.135583</v>
       </c>
       <c r="D51" t="n">
-        <v>0.138898</v>
+        <v>0.029517</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0298907</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +4096,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1684</v>
+        <v>0.165419</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0278643</v>
+        <v>0.140258</v>
       </c>
       <c r="D52" t="n">
-        <v>0.143761</v>
+        <v>0.0300111</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.030171</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +4113,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0355376</v>
+        <v>0.035388</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0270899</v>
+        <v>0.145193</v>
       </c>
       <c r="D53" t="n">
-        <v>0.14885</v>
+        <v>0.0293808</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0310756</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +4130,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0365619</v>
+        <v>0.0362758</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0277453</v>
+        <v>0.150153</v>
       </c>
       <c r="D54" t="n">
-        <v>0.153519</v>
+        <v>0.0310067</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0312286</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +4147,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0368899</v>
+        <v>0.0369805</v>
       </c>
       <c r="C55" t="n">
-        <v>0.027933</v>
+        <v>0.154557</v>
       </c>
       <c r="D55" t="n">
-        <v>0.158207</v>
+        <v>0.0315635</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0317839</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4164,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0380068</v>
+        <v>0.0379459</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0290103</v>
+        <v>0.158994</v>
       </c>
       <c r="D56" t="n">
-        <v>0.162672</v>
+        <v>0.0316526</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0327013</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4181,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0393869</v>
+        <v>0.0391931</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0300162</v>
+        <v>0.163278</v>
       </c>
       <c r="D57" t="n">
-        <v>0.167103</v>
+        <v>0.0328151</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0334614</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4198,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0413611</v>
+        <v>0.0416321</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0304876</v>
+        <v>0.167399</v>
       </c>
       <c r="D58" t="n">
-        <v>0.171135</v>
+        <v>0.0329936</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0348912</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4215,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0442297</v>
+        <v>0.0441034</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0314148</v>
+        <v>0.171351</v>
       </c>
       <c r="D59" t="n">
-        <v>0.174904</v>
+        <v>0.0341045</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0363635</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4232,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0477568</v>
+        <v>0.0471271</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0324424</v>
+        <v>0.175167</v>
       </c>
       <c r="D60" t="n">
-        <v>0.179264</v>
+        <v>0.0346307</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0373009</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4249,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0522547</v>
+        <v>0.0530972</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0346556</v>
+        <v>0.179822</v>
       </c>
       <c r="D61" t="n">
-        <v>0.183914</v>
+        <v>0.0359278</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0395078</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4266,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0601546</v>
+        <v>0.0606478</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0379327</v>
+        <v>0.184275</v>
       </c>
       <c r="D62" t="n">
-        <v>0.188385</v>
+        <v>0.0385514</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.0427578</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4283,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0714485</v>
+        <v>0.0717115</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0425901</v>
+        <v>0.189189</v>
       </c>
       <c r="D63" t="n">
-        <v>0.193328</v>
+        <v>0.0432448</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0477207</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4300,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0885222</v>
+        <v>0.08861049999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0504886</v>
+        <v>0.139472</v>
       </c>
       <c r="D64" t="n">
-        <v>0.139549</v>
+        <v>0.0509956</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0549597</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4317,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115752</v>
+        <v>0.114734</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0645389</v>
+        <v>0.143278</v>
       </c>
       <c r="D65" t="n">
-        <v>0.146409</v>
+        <v>0.064544</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0676493</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4334,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.158145</v>
+        <v>0.156068</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0321038</v>
+        <v>0.150407</v>
       </c>
       <c r="D66" t="n">
-        <v>0.152978</v>
+        <v>0.0339577</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0370064</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4351,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0407721</v>
+        <v>0.041039</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0324517</v>
+        <v>0.158539</v>
       </c>
       <c r="D67" t="n">
-        <v>0.160027</v>
+        <v>0.034567</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0376909</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4368,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0417663</v>
+        <v>0.0413303</v>
       </c>
       <c r="C68" t="n">
-        <v>0.032762</v>
+        <v>0.166132</v>
       </c>
       <c r="D68" t="n">
-        <v>0.168391</v>
+        <v>0.0352507</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0382818</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4385,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0419735</v>
+        <v>0.0426724</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0333482</v>
+        <v>0.173283</v>
       </c>
       <c r="D69" t="n">
-        <v>0.17516</v>
+        <v>0.0356537</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0389823</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4402,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.042946</v>
+        <v>0.0434703</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0337539</v>
+        <v>0.180967</v>
       </c>
       <c r="D70" t="n">
-        <v>0.182793</v>
+        <v>0.036328</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0397853</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4419,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0445419</v>
+        <v>0.044919</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0346107</v>
+        <v>0.189016</v>
       </c>
       <c r="D71" t="n">
-        <v>0.191963</v>
+        <v>0.0369724</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0404239</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4436,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0466203</v>
+        <v>0.0462471</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0351495</v>
+        <v>0.197985</v>
       </c>
       <c r="D72" t="n">
-        <v>0.20111</v>
+        <v>0.0377764</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0415753</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4453,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0487047</v>
+        <v>0.0484317</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0360496</v>
+        <v>0.208274</v>
       </c>
       <c r="D73" t="n">
-        <v>0.21125</v>
+        <v>0.0385784</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.042877</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4470,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0522277</v>
+        <v>0.0516209</v>
       </c>
       <c r="C74" t="n">
-        <v>0.03732</v>
+        <v>0.221031</v>
       </c>
       <c r="D74" t="n">
-        <v>0.222867</v>
+        <v>0.0390604</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0445298</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4487,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0561681</v>
+        <v>0.0561286</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0392846</v>
+        <v>0.233017</v>
       </c>
       <c r="D75" t="n">
-        <v>0.235352</v>
+        <v>0.0400988</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0468096</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4504,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0625889</v>
+        <v>0.0626623</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0419766</v>
+        <v>0.245191</v>
       </c>
       <c r="D76" t="n">
-        <v>0.249464</v>
+        <v>0.0421601</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.0501047</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4521,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0737612</v>
+        <v>0.0723483</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0461036</v>
+        <v>0.260676</v>
       </c>
       <c r="D77" t="n">
-        <v>0.262858</v>
+        <v>0.0460827</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0536144</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4538,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.089277</v>
+        <v>0.0873157</v>
       </c>
       <c r="C78" t="n">
-        <v>0.052882</v>
+        <v>0.218548</v>
       </c>
       <c r="D78" t="n">
-        <v>0.221632</v>
+        <v>0.0525236</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0602544</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4555,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112851</v>
+        <v>0.112351</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0648233</v>
+        <v>0.230424</v>
       </c>
       <c r="D79" t="n">
-        <v>0.234049</v>
+        <v>0.0643056</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0718535</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4572,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.151943</v>
+        <v>0.151495</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0363591</v>
+        <v>0.243269</v>
       </c>
       <c r="D80" t="n">
-        <v>0.246851</v>
+        <v>0.0383571</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0422009</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4589,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0462636</v>
+        <v>0.0464258</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0366366</v>
+        <v>0.256199</v>
       </c>
       <c r="D81" t="n">
-        <v>0.258643</v>
+        <v>0.0388906</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0426897</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4606,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0469738</v>
+        <v>0.0471581</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0372811</v>
+        <v>0.268637</v>
       </c>
       <c r="D82" t="n">
-        <v>0.272493</v>
+        <v>0.0395267</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.0434003</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4623,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0481739</v>
+        <v>0.0480949</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0375256</v>
+        <v>0.281467</v>
       </c>
       <c r="D83" t="n">
-        <v>0.285227</v>
+        <v>0.0401038</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0443421</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4640,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0491179</v>
+        <v>0.0495099</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0382096</v>
+        <v>0.294883</v>
       </c>
       <c r="D84" t="n">
-        <v>0.298337</v>
+        <v>0.0406428</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.0453822</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4657,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0508161</v>
+        <v>0.0511814</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0387131</v>
+        <v>0.30872</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3118</v>
+        <v>0.041585</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0470783</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4674,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0526317</v>
+        <v>0.0527736</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0395924</v>
+        <v>0.321965</v>
       </c>
       <c r="D86" t="n">
-        <v>0.325815</v>
+        <v>0.0424746</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.0489833</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4691,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0554147</v>
+        <v>0.0558464</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0408921</v>
+        <v>0.336571</v>
       </c>
       <c r="D87" t="n">
-        <v>0.340309</v>
+        <v>0.0433893</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0520011</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4708,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0592263</v>
+        <v>0.0596946</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0423977</v>
+        <v>0.350992</v>
       </c>
       <c r="D88" t="n">
-        <v>0.354486</v>
+        <v>0.0445688</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0550883</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4725,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06402960000000001</v>
+        <v>0.06507209999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0443969</v>
+        <v>0.366821</v>
       </c>
       <c r="D89" t="n">
-        <v>0.370301</v>
+        <v>0.0457468</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0592997</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4742,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0724026</v>
+        <v>0.0728804</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0479565</v>
+        <v>0.382952</v>
       </c>
       <c r="D90" t="n">
-        <v>0.38618</v>
+        <v>0.0480262</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.0663649</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4759,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0833952</v>
+        <v>0.0831326</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0530606</v>
+        <v>0.39979</v>
       </c>
       <c r="D91" t="n">
-        <v>0.403046</v>
+        <v>0.0525451</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0752094</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4776,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.100623</v>
+        <v>0.100263</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0602929</v>
+        <v>0.323526</v>
       </c>
       <c r="D92" t="n">
-        <v>0.326239</v>
+        <v>0.0597904</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.0878091</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4793,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.124507</v>
+        <v>0.125257</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0732738</v>
+        <v>0.334892</v>
       </c>
       <c r="D93" t="n">
-        <v>0.337396</v>
+        <v>0.0726678</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.107736</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4810,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.16076</v>
+        <v>0.16157</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0407117</v>
+        <v>0.346017</v>
       </c>
       <c r="D94" t="n">
-        <v>0.348675</v>
+        <v>0.0428156</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.0547532</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4827,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0575467</v>
+        <v>0.0588087</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0416945</v>
+        <v>0.357196</v>
       </c>
       <c r="D95" t="n">
-        <v>0.359769</v>
+        <v>0.0442897</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.0582612</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4844,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0609998</v>
+        <v>0.0621997</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0428955</v>
+        <v>0.36913</v>
       </c>
       <c r="D96" t="n">
-        <v>0.371714</v>
+        <v>0.0460818</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.06292780000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4861,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0648514</v>
+        <v>0.0663697</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0449779</v>
+        <v>0.381177</v>
       </c>
       <c r="D97" t="n">
-        <v>0.383784</v>
+        <v>0.0481127</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.06831470000000001</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4878,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.06968489999999999</v>
+        <v>0.0705451</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0471066</v>
+        <v>0.393207</v>
       </c>
       <c r="D98" t="n">
-        <v>0.395566</v>
+        <v>0.0509223</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.07381310000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4895,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0749701</v>
+        <v>0.0752694</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0501227</v>
+        <v>0.406194</v>
       </c>
       <c r="D99" t="n">
-        <v>0.408573</v>
+        <v>0.0540188</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0800256</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4912,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08072169999999999</v>
+        <v>0.0808532</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0531697</v>
+        <v>0.419532</v>
       </c>
       <c r="D100" t="n">
-        <v>0.422033</v>
+        <v>0.0577372</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.08640059999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4929,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0873874</v>
+        <v>0.08695559999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0570308</v>
+        <v>0.433458</v>
       </c>
       <c r="D101" t="n">
-        <v>0.435789</v>
+        <v>0.061803</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.0928611</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4946,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0939749</v>
+        <v>0.0940048</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0610877</v>
+        <v>0.448244</v>
       </c>
       <c r="D102" t="n">
-        <v>0.450695</v>
+        <v>0.0653615</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.0991773</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4963,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.101729</v>
+        <v>0.10145</v>
       </c>
       <c r="C103" t="n">
-        <v>0.066396</v>
+        <v>0.4633</v>
       </c>
       <c r="D103" t="n">
-        <v>0.465935</v>
+        <v>0.06936970000000001</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.106523</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4980,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.110623</v>
+        <v>0.110142</v>
       </c>
       <c r="C104" t="n">
-        <v>0.07197099999999999</v>
+        <v>0.479428</v>
       </c>
       <c r="D104" t="n">
-        <v>0.48178</v>
+        <v>0.07324840000000001</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.114222</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4997,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.120958</v>
+        <v>0.120892</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0783558</v>
+        <v>0.496256</v>
       </c>
       <c r="D105" t="n">
-        <v>0.498389</v>
+        <v>0.0787235</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.123211</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +5014,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.135144</v>
+        <v>0.135029</v>
       </c>
       <c r="C106" t="n">
-        <v>0.08746139999999999</v>
+        <v>0.513576</v>
       </c>
       <c r="D106" t="n">
-        <v>0.515379</v>
+        <v>0.0867483</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.133396</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5031,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.154614</v>
+        <v>0.154333</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0988894</v>
+        <v>0.388438</v>
       </c>
       <c r="D107" t="n">
-        <v>0.390207</v>
+        <v>0.099493</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.148627</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +5048,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.183066</v>
+        <v>0.182981</v>
       </c>
       <c r="C108" t="n">
-        <v>0.060176</v>
+        <v>0.399112</v>
       </c>
       <c r="D108" t="n">
-        <v>0.401224</v>
+        <v>0.062803</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.09004330000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +5065,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.226515</v>
+        <v>0.227663</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0621936</v>
+        <v>0.409972</v>
       </c>
       <c r="D109" t="n">
-        <v>0.412478</v>
+        <v>0.0647779</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.0929241</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +5082,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.09119679999999999</v>
+        <v>0.09121269999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0641274</v>
+        <v>0.420933</v>
       </c>
       <c r="D110" t="n">
-        <v>0.423601</v>
+        <v>0.066897</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.0959786</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +5099,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.09393940000000001</v>
+        <v>0.0939468</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0658673</v>
+        <v>0.432565</v>
       </c>
       <c r="D111" t="n">
-        <v>0.435365</v>
+        <v>0.0687879</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.0993211</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +5116,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0968868</v>
+        <v>0.0967213</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0676137</v>
+        <v>0.444447</v>
       </c>
       <c r="D112" t="n">
-        <v>0.446765</v>
+        <v>0.0708572</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.102162</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +5133,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.09985670000000001</v>
+        <v>0.100044</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0700509</v>
+        <v>0.456887</v>
       </c>
       <c r="D113" t="n">
-        <v>0.459044</v>
+        <v>0.0725572</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.105398</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +5150,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.102967</v>
+        <v>0.103321</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0719291</v>
+        <v>0.469305</v>
       </c>
       <c r="D114" t="n">
-        <v>0.471362</v>
+        <v>0.0751269</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.109008</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +5167,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.107146</v>
+        <v>0.106888</v>
       </c>
       <c r="C115" t="n">
-        <v>0.07468130000000001</v>
+        <v>0.482828</v>
       </c>
       <c r="D115" t="n">
-        <v>0.484642</v>
+        <v>0.07762139999999999</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.112841</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +5184,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.111515</v>
+        <v>0.111433</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0772135</v>
+        <v>0.496665</v>
       </c>
       <c r="D116" t="n">
-        <v>0.498813</v>
+        <v>0.0800506</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.117124</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +5201,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.117218</v>
+        <v>0.116679</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0806399</v>
+        <v>0.5114570000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.513832</v>
+        <v>0.082817</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.122164</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +5218,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.124275</v>
+        <v>0.123938</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0843737</v>
+        <v>0.526998</v>
       </c>
       <c r="D118" t="n">
-        <v>0.529416</v>
+        <v>0.0856397</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.128077</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +5235,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.133772</v>
+        <v>0.132945</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0890427</v>
+        <v>0.543943</v>
       </c>
       <c r="D119" t="n">
-        <v>0.545551</v>
+        <v>0.08982270000000001</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.136008</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +5252,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.146091</v>
+        <v>0.145709</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0962802</v>
+        <v>0.560817</v>
       </c>
       <c r="D120" t="n">
-        <v>0.562398</v>
+        <v>0.0965882</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.146203</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +5269,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163386</v>
+        <v>0.163279</v>
       </c>
       <c r="C121" t="n">
-        <v>0.106337</v>
+        <v>0.416002</v>
       </c>
       <c r="D121" t="n">
-        <v>0.418087</v>
+        <v>0.106335</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.159781</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +5286,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.189075</v>
+        <v>0.189375</v>
       </c>
       <c r="C122" t="n">
-        <v>0.123042</v>
+        <v>0.426914</v>
       </c>
       <c r="D122" t="n">
-        <v>0.429005</v>
+        <v>0.123047</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.182562</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +5303,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.228883</v>
+        <v>0.230052</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0724501</v>
+        <v>0.437847</v>
       </c>
       <c r="D123" t="n">
-        <v>0.440391</v>
+        <v>0.0784043</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.10542</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +5320,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.104287</v>
+        <v>0.103733</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0748619</v>
+        <v>0.449355</v>
       </c>
       <c r="D124" t="n">
-        <v>0.451797</v>
+        <v>0.0781744</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.108738</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +5337,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.104919</v>
+        <v>0.107325</v>
       </c>
       <c r="C125" t="n">
-        <v>0.07705869999999999</v>
+        <v>0.461411</v>
       </c>
       <c r="D125" t="n">
-        <v>0.463374</v>
+        <v>0.0807705</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.112135</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +5354,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.106502</v>
+        <v>0.107767</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0783089</v>
+        <v>0.473296</v>
       </c>
       <c r="D126" t="n">
-        <v>0.475272</v>
+        <v>0.0811837</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.115662</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +5371,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110538</v>
+        <v>0.110428</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0790566</v>
+        <v>0.485658</v>
       </c>
       <c r="D127" t="n">
-        <v>0.488548</v>
+        <v>0.08588179999999999</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.120484</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5388,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.113678</v>
+        <v>0.113297</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0836404</v>
+        <v>0.498905</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5007779999999999</v>
+        <v>0.08429929999999999</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.12246</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5405,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118348</v>
+        <v>0.115215</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0844496</v>
+        <v>0.511672</v>
       </c>
       <c r="D129" t="n">
-        <v>0.514112</v>
+        <v>0.0887806</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.127838</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5422,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.121617</v>
+        <v>0.119885</v>
       </c>
       <c r="C130" t="n">
-        <v>0.08700720000000001</v>
+        <v>0.525777</v>
       </c>
       <c r="D130" t="n">
-        <v>0.527966</v>
+        <v>0.0911257</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.131959</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5439,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1298</v>
+        <v>0.126106</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0911714</v>
+        <v>0.5397189999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5421820000000001</v>
+        <v>0.0926343</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.135747</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5456,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13219</v>
+        <v>0.131615</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0946871</v>
+        <v>0.55564</v>
       </c>
       <c r="D132" t="n">
-        <v>0.558144</v>
+        <v>0.09544279999999999</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.141932</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5473,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.141086</v>
+        <v>0.140853</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0985341</v>
+        <v>0.5720190000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.574003</v>
+        <v>0.0992369</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.149872</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5490,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.153458</v>
+        <v>0.153132</v>
       </c>
       <c r="C134" t="n">
-        <v>0.106251</v>
+        <v>0.589213</v>
       </c>
       <c r="D134" t="n">
-        <v>0.591561</v>
+        <v>0.105856</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.158773</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5507,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.168947</v>
+        <v>0.170515</v>
       </c>
       <c r="C135" t="n">
-        <v>0.114902</v>
+        <v>0.432396</v>
       </c>
       <c r="D135" t="n">
-        <v>0.435258</v>
+        <v>0.114711</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.173166</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5524,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194518</v>
+        <v>0.194289</v>
       </c>
       <c r="C136" t="n">
-        <v>0.128408</v>
+        <v>0.44394</v>
       </c>
       <c r="D136" t="n">
-        <v>0.446259</v>
+        <v>0.129452</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.193707</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5541,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232178</v>
+        <v>0.233117</v>
       </c>
       <c r="C137" t="n">
-        <v>0.138575</v>
+        <v>0.455131</v>
       </c>
       <c r="D137" t="n">
-        <v>0.457635</v>
+        <v>0.142859</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.172156</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5558,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.168745</v>
+        <v>0.1674</v>
       </c>
       <c r="C138" t="n">
-        <v>0.140951</v>
+        <v>0.466594</v>
       </c>
       <c r="D138" t="n">
-        <v>0.46925</v>
+        <v>0.143467</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.175455</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5575,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1704</v>
+        <v>0.169518</v>
       </c>
       <c r="C139" t="n">
-        <v>0.14244</v>
+        <v>0.478322</v>
       </c>
       <c r="D139" t="n">
-        <v>0.480594</v>
+        <v>0.145124</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.177277</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5592,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.171179</v>
+        <v>0.171439</v>
       </c>
       <c r="C140" t="n">
-        <v>0.14283</v>
+        <v>0.490055</v>
       </c>
       <c r="D140" t="n">
-        <v>0.493312</v>
+        <v>0.146382</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.18145</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5609,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.172167</v>
+        <v>0.173672</v>
       </c>
       <c r="C141" t="n">
-        <v>0.144985</v>
+        <v>0.502655</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5049630000000001</v>
+        <v>0.148244</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.183435</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5626,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.174439</v>
+        <v>0.175544</v>
       </c>
       <c r="C142" t="n">
-        <v>0.146093</v>
+        <v>0.515332</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5180129999999999</v>
+        <v>0.149089</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.186827</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5643,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.177638</v>
+        <v>0.177772</v>
       </c>
       <c r="C143" t="n">
-        <v>0.147292</v>
+        <v>0.5285879999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.530955</v>
+        <v>0.150421</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.189532</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0196541</v>
+                  <v>0.0188563</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.022714</v>
+                  <v>0.020482</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0280732</v>
+                  <v>0.0250918</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0383508</v>
+                  <v>0.0324396</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.052548</v>
+                  <v>0.0486736</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.066875</v>
+                  <v>0.0676407</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0901585</v>
+                  <v>0.0914015</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.118385</v>
+                  <v>0.120117</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0166794</v>
+                  <v>0.0161742</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.017095</v>
+                  <v>0.0167609</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0175332</v>
+                  <v>0.017033</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0179948</v>
+                  <v>0.0178156</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0186281</v>
+                  <v>0.0186429</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0208214</v>
+                  <v>0.0201514</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0229571</v>
+                  <v>0.0223364</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0261478</v>
+                  <v>0.0265812</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0314248</v>
+                  <v>0.0315209</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0425587</v>
+                  <v>0.0404218</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0519527</v>
+                  <v>0.0523243</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.07000199999999999</v>
+                  <v>0.068802</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0890392</v>
+                  <v>0.0916015</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.119166</v>
+                  <v>0.115789</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0162997</v>
+                  <v>0.0165559</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0169862</v>
+                  <v>0.01713</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0176941</v>
+                  <v>0.017832</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0184008</v>
+                  <v>0.0186431</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0198508</v>
+                  <v>0.0204344</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0220004</v>
+                  <v>0.0223797</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0252038</v>
+                  <v>0.0260575</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.029776</v>
+                  <v>0.0296827</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0355674</v>
+                  <v>0.0351294</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0445372</v>
+                  <v>0.0439567</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0557284</v>
+                  <v>0.0560566</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0722409</v>
+                  <v>0.0724226</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0937438</v>
+                  <v>0.0942229</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.120898</v>
+                  <v>0.120526</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.017101</v>
+                  <v>0.0171733</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0179106</v>
+                  <v>0.0178413</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187733</v>
+                  <v>0.0187789</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0201048</v>
+                  <v>0.0201514</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0218759</v>
+                  <v>0.0218874</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0240552</v>
+                  <v>0.0244952</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0282097</v>
+                  <v>0.0277145</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0323602</v>
+                  <v>0.0318614</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0379086</v>
+                  <v>0.038157</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.045608</v>
+                  <v>0.0458946</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.056116</v>
+                  <v>0.0561284</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0707222</v>
+                  <v>0.07138170000000001</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0919893</v>
+                  <v>0.09212090000000001</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.118674</v>
+                  <v>0.117399</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.145772</v>
+                  <v>0.142611</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0196284</v>
+                  <v>0.0191063</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0208398</v>
+                  <v>0.0202054</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0223922</v>
+                  <v>0.0216884</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0244506</v>
+                  <v>0.023762</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.026822</v>
+                  <v>0.0265754</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0309899</v>
+                  <v>0.0299431</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0354207</v>
+                  <v>0.0344095</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0417881</v>
+                  <v>0.0405591</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0476276</v>
+                  <v>0.0475581</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0572692</v>
+                  <v>0.0572633</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0716026</v>
+                  <v>0.0711276</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0905608</v>
+                  <v>0.0912027</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.116785</v>
+                  <v>0.117531</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.147933</v>
+                  <v>0.147591</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0197012</v>
+                  <v>0.0198684</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0211376</v>
+                  <v>0.0210982</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0228213</v>
+                  <v>0.0228671</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0247479</v>
+                  <v>0.0250892</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0274354</v>
+                  <v>0.0274858</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0306606</v>
+                  <v>0.0307585</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0349113</v>
+                  <v>0.0350439</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0401967</v>
+                  <v>0.0401473</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0468474</v>
+                  <v>0.0470655</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0560401</v>
+                  <v>0.0565303</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0688926</v>
+                  <v>0.0694931</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0873152</v>
+                  <v>0.0876659</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.112319</v>
+                  <v>0.112976</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.143939</v>
+                  <v>0.14429</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0198688</v>
+                  <v>0.0201115</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0212272</v>
+                  <v>0.0216766</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0227931</v>
+                  <v>0.0228365</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0248234</v>
+                  <v>0.0248985</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274348</v>
+                  <v>0.0272584</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0304566</v>
+                  <v>0.0302977</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.03421</v>
+                  <v>0.0342083</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0392722</v>
+                  <v>0.039444</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0457853</v>
+                  <v>0.0458422</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0543613</v>
+                  <v>0.0546333</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0667861</v>
+                  <v>0.0669435</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0837842</v>
+                  <v>0.0841283</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.107021</v>
+                  <v>0.108178</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.138367</v>
+                  <v>0.139209</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0206107</v>
+                  <v>0.0208397</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.021977</v>
+                  <v>0.0217789</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0236946</v>
+                  <v>0.0236136</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0252601</v>
+                  <v>0.0250037</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0278301</v>
+                  <v>0.0272123</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0304313</v>
+                  <v>0.0306604</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0347894</v>
+                  <v>0.0359699</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0397493</v>
+                  <v>0.0400556</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0462983</v>
+                  <v>0.0464214</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0543709</v>
+                  <v>0.0543718</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0656243</v>
+                  <v>0.0654956</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0814584</v>
+                  <v>0.0810722</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.103239</v>
+                  <v>0.102897</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.133268</v>
+                  <v>0.133253</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.169441</v>
+                  <v>0.1679</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0309188</v>
+                  <v>0.0312378</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0323647</v>
+                  <v>0.032867</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.034075</v>
+                  <v>0.0343439</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0358327</v>
+                  <v>0.0361309</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383382</v>
+                  <v>0.0383012</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0406737</v>
+                  <v>0.0408352</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0441246</v>
+                  <v>0.0439366</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.048723</v>
+                  <v>0.0486743</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0551746</v>
+                  <v>0.0550738</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0650047</v>
+                  <v>0.0645583</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.07941529999999999</v>
+                  <v>0.0791676</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.100142</v>
+                  <v>0.0998057</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128345</v>
+                  <v>0.128197</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.16426</v>
+                  <v>0.163841</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0340693</v>
+                  <v>0.0345014</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.035891</v>
+                  <v>0.035219</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0369158</v>
+                  <v>0.0366214</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0387195</v>
+                  <v>0.0384021</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0407176</v>
+                  <v>0.0405117</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0435753</v>
+                  <v>0.0431668</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0474413</v>
+                  <v>0.0465002</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0518101</v>
+                  <v>0.0510499</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0586713</v>
+                  <v>0.0587435</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.06794360000000001</v>
+                  <v>0.0679357</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0817268</v>
+                  <v>0.0816269</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101445</v>
+                  <v>0.101812</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.129425</v>
+                  <v>0.129487</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.163873</v>
+                  <v>0.164993</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0473433</v>
+                  <v>0.0468838</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0531312</v>
+                  <v>0.0484521</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.058706</v>
+                  <v>0.0493311</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0582968</v>
+                  <v>0.0507617</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0553286</v>
+                  <v>0.0532957</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0675741</v>
+                  <v>0.0554191</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0236953</v>
+                  <v>0.0745743</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0249792</v>
+                  <v>0.0818991</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0258301</v>
+                  <v>0.0759394</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.027365</v>
+                  <v>0.0880992</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0285038</v>
+                  <v>0.08153489999999999</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0328798</v>
+                  <v>0.0624356</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0393672</v>
+                  <v>0.061869</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0204906</v>
+                  <v>0.0683074</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0206485</v>
+                  <v>0.0686766</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0211179</v>
+                  <v>0.07166640000000001</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0213</v>
+                  <v>0.0739997</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0216018</v>
+                  <v>0.077265</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0219038</v>
+                  <v>0.0817507</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0225654</v>
+                  <v>0.0856117</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0230834</v>
+                  <v>0.0866362</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0241669</v>
+                  <v>0.09086229999999999</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0251919</v>
+                  <v>0.09648760000000001</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0266921</v>
+                  <v>0.096305</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.028982</v>
+                  <v>0.09784320000000001</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0333148</v>
+                  <v>0.0664341</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.041356</v>
+                  <v>0.0712783</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0202092</v>
+                  <v>0.0762056</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0206159</v>
+                  <v>0.0754963</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0208339</v>
+                  <v>0.0791755</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0210765</v>
+                  <v>0.0828492</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0214492</v>
+                  <v>0.08543870000000001</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0218967</v>
+                  <v>0.0887561</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0226372</v>
+                  <v>0.092414</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.023422</v>
+                  <v>0.0948533</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0242916</v>
+                  <v>0.0957143</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0254245</v>
+                  <v>0.09790550000000001</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0274613</v>
+                  <v>0.09936730000000001</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.030458</v>
+                  <v>0.101587</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0342121</v>
+                  <v>0.06934940000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.040763</v>
+                  <v>0.0726347</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0210932</v>
+                  <v>0.07564949999999999</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0214487</v>
+                  <v>0.0790356</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0217322</v>
+                  <v>0.0818281</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0220884</v>
+                  <v>0.0856015</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0225227</v>
+                  <v>0.08902640000000001</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.022985</v>
+                  <v>0.0915702</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0235789</v>
+                  <v>0.0953242</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0242082</v>
+                  <v>0.0973436</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0251386</v>
+                  <v>0.100137</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.026316</v>
+                  <v>0.102066</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0281349</v>
+                  <v>0.104689</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0309591</v>
+                  <v>0.106565</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0351441</v>
+                  <v>0.109417</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0422416</v>
+                  <v>0.0759278</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0221848</v>
+                  <v>0.07929940000000001</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0226422</v>
+                  <v>0.0833945</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0230127</v>
+                  <v>0.08607579999999999</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233388</v>
+                  <v>0.0893982</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0237292</v>
+                  <v>0.0926165</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0243318</v>
+                  <v>0.09584810000000001</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0249093</v>
+                  <v>0.100165</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0260608</v>
+                  <v>0.101736</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0270795</v>
+                  <v>0.105135</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0277862</v>
+                  <v>0.107339</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0291051</v>
+                  <v>0.109803</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0317252</v>
+                  <v>0.111709</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0360878</v>
+                  <v>0.115496</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0429958</v>
+                  <v>0.0812769</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0551095</v>
+                  <v>0.08581900000000001</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0226031</v>
+                  <v>0.09048920000000001</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0229372</v>
+                  <v>0.09512900000000001</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0232973</v>
+                  <v>0.09904019999999999</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.023692</v>
+                  <v>0.103762</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0242143</v>
+                  <v>0.109767</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0247678</v>
+                  <v>0.115064</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0255057</v>
+                  <v>0.119625</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0263971</v>
+                  <v>0.123912</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0276756</v>
+                  <v>0.128639</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0295323</v>
+                  <v>0.136023</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0321746</v>
+                  <v>0.141569</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0363344</v>
+                  <v>0.147324</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0425489</v>
+                  <v>0.114448</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0534234</v>
+                  <v>0.120419</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0228514</v>
+                  <v>0.125131</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0231978</v>
+                  <v>0.131477</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0235633</v>
+                  <v>0.139604</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0239172</v>
+                  <v>0.146445</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0244035</v>
+                  <v>0.154887</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.025024</v>
+                  <v>0.163154</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0259339</v>
+                  <v>0.170385</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0269228</v>
+                  <v>0.178312</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0282665</v>
+                  <v>0.182546</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0299743</v>
+                  <v>0.19023</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0325068</v>
+                  <v>0.200533</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.03601</v>
+                  <v>0.208859</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0416961</v>
+                  <v>0.157758</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0509443</v>
+                  <v>0.162746</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0243696</v>
+                  <v>0.168477</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0248253</v>
+                  <v>0.17633</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0253215</v>
+                  <v>0.183525</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0259145</v>
+                  <v>0.190701</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0267649</v>
+                  <v>0.19753</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0281154</v>
+                  <v>0.204795</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0301922</v>
+                  <v>0.226592</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0330066</v>
+                  <v>0.219043</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0364155</v>
+                  <v>0.227757</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0397311</v>
+                  <v>0.233267</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0428055</v>
+                  <v>0.243865</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0463608</v>
+                  <v>0.252361</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0508278</v>
+                  <v>0.261173</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0575807</v>
+                  <v>0.190647</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0361449</v>
+                  <v>0.197526</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0368822</v>
+                  <v>0.203566</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0379133</v>
+                  <v>0.210146</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0388181</v>
+                  <v>0.218257</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0396854</v>
+                  <v>0.224714</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0406322</v>
+                  <v>0.23258</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0416831</v>
+                  <v>0.239218</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0427634</v>
+                  <v>0.24724</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0439657</v>
+                  <v>0.255715</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0456052</v>
+                  <v>0.263655</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0476259</v>
+                  <v>0.271989</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0501364</v>
+                  <v>0.282797</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0541071</v>
+                  <v>0.289767</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0600156</v>
+                  <v>0.206007</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0702492</v>
+                  <v>0.211597</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0426162</v>
+                  <v>0.217961</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0433137</v>
+                  <v>0.22481</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0441334</v>
+                  <v>0.231511</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0448138</v>
+                  <v>0.23876</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0457069</v>
+                  <v>0.246015</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0468309</v>
+                  <v>0.253902</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.047681</v>
+                  <v>0.261754</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0488768</v>
+                  <v>0.269215</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0504662</v>
+                  <v>0.276809</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0524585</v>
+                  <v>0.285243</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0553225</v>
+                  <v>0.294416</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0590454</v>
+                  <v>0.303237</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0649672</v>
+                  <v>0.212509</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.07502730000000001</v>
+                  <v>0.21893</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0609618</v>
+                  <v>0.225118</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0606272</v>
+                  <v>0.232231</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0716113</v>
+                  <v>0.239705</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0740532</v>
+                  <v>0.247032</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.075507</v>
+                  <v>0.255056</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0709659</v>
+                  <v>0.262733</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0822119</v>
+                  <v>0.271863</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0628543</v>
+                  <v>0.0212525</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0664814</v>
+                  <v>0.0216004</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.07155309999999999</v>
+                  <v>0.0227228</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0787023</v>
+                  <v>0.0236692</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0762729</v>
+                  <v>0.025734</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0596881</v>
+                  <v>0.0307283</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0581592</v>
+                  <v>0.0400074</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0642033</v>
+                  <v>0.0191859</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.066584</v>
+                  <v>0.0194145</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.07067469999999999</v>
+                  <v>0.0197171</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.07539460000000001</v>
+                  <v>0.0200098</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0776222</v>
+                  <v>0.0202944</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.08080030000000001</v>
+                  <v>0.0205605</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.08254499999999999</v>
+                  <v>0.0210623</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0868236</v>
+                  <v>0.021745</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0901443</v>
+                  <v>0.0224624</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.09041780000000001</v>
+                  <v>0.0233932</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.09432</v>
+                  <v>0.0246564</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0970657</v>
+                  <v>0.0274191</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0672951</v>
+                  <v>0.0316025</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0716408</v>
+                  <v>0.0413247</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0714137</v>
+                  <v>0.0187664</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0762883</v>
+                  <v>0.0190384</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0788282</v>
+                  <v>0.019321</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0817253</v>
+                  <v>0.0195661</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0845086</v>
+                  <v>0.0198599</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0872682</v>
+                  <v>0.0203393</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0900213</v>
+                  <v>0.0209382</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0922123</v>
+                  <v>0.0214818</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0951592</v>
+                  <v>0.0223346</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0965795</v>
+                  <v>0.0233779</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0983135</v>
+                  <v>0.0247673</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.101668</v>
+                  <v>0.0273931</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.06976019999999999</v>
+                  <v>0.0317286</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0732333</v>
+                  <v>0.039339</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.07563</v>
+                  <v>0.0193829</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.07849739999999999</v>
+                  <v>0.0197036</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.082784</v>
+                  <v>0.0199834</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.08502469999999999</v>
+                  <v>0.0203028</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0879409</v>
+                  <v>0.0206416</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.091546</v>
+                  <v>0.021054</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0944207</v>
+                  <v>0.0216854</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0970037</v>
+                  <v>0.0224175</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0991208</v>
+                  <v>0.0232548</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.101009</v>
+                  <v>0.0245789</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.103707</v>
+                  <v>0.0261833</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.105854</v>
+                  <v>0.0289704</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.108622</v>
+                  <v>0.0328291</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.07991180000000001</v>
+                  <v>0.0389724</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0852565</v>
+                  <v>0.0204109</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.09070300000000001</v>
+                  <v>0.0206887</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.100166</v>
+                  <v>0.0209817</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.104121</v>
+                  <v>0.0212755</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.110505</v>
+                  <v>0.0216547</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.118017</v>
+                  <v>0.0221738</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.134799</v>
+                  <v>0.0227227</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.150714</v>
+                  <v>0.0233788</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.149598</v>
+                  <v>0.0243162</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.106064</v>
+                  <v>0.0256636</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.110453</v>
+                  <v>0.0275441</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.112451</v>
+                  <v>0.0301356</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.114784</v>
+                  <v>0.0341597</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0808511</v>
+                  <v>0.0404667</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0851362</v>
+                  <v>0.0516123</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0905902</v>
+                  <v>0.0209483</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0957775</v>
+                  <v>0.0212904</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.09995809999999999</v>
+                  <v>0.0216414</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.105452</v>
+                  <v>0.0220066</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.110664</v>
+                  <v>0.022503</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.115302</v>
+                  <v>0.0230597</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.119763</v>
+                  <v>0.023794</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.125554</v>
+                  <v>0.024724</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.130129</v>
+                  <v>0.0259069</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.134996</v>
+                  <v>0.0276355</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.141567</v>
+                  <v>0.0302519</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.147833</v>
+                  <v>0.0340355</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.113894</v>
+                  <v>0.0396979</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.121926</v>
+                  <v>0.049477</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.12561</v>
+                  <v>0.0212779</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.134696</v>
+                  <v>0.0216341</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.13899</v>
+                  <v>0.0219984</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.149483</v>
+                  <v>0.0224363</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.154065</v>
+                  <v>0.0229328</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.163029</v>
+                  <v>0.0235783</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.167705</v>
+                  <v>0.0244305</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.178539</v>
+                  <v>0.0254418</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.186083</v>
+                  <v>0.0267137</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.189656</v>
+                  <v>0.0283454</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.197145</v>
+                  <v>0.0308527</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.214136</v>
+                  <v>0.0342322</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.155917</v>
+                  <v>0.03938</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.163239</v>
+                  <v>0.048197</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.170659</v>
+                  <v>0.0229879</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.176032</v>
+                  <v>0.0234516</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.180564</v>
+                  <v>0.0240067</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.187866</v>
+                  <v>0.0245912</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.197686</v>
+                  <v>0.0253619</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.205106</v>
+                  <v>0.0267537</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.213378</v>
+                  <v>0.0289872</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.22001</v>
+                  <v>0.0317781</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227646</v>
+                  <v>0.0350402</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.235713</v>
+                  <v>0.0383243</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.243297</v>
+                  <v>0.0415289</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.252123</v>
+                  <v>0.0449303</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.261676</v>
+                  <v>0.0491857</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.190199</v>
+                  <v>0.0555259</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.197145</v>
+                  <v>0.0351129</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.204605</v>
+                  <v>0.0361988</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.21028</v>
+                  <v>0.0370074</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.217256</v>
+                  <v>0.0378667</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.224583</v>
+                  <v>0.0385583</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.233435</v>
+                  <v>0.0395869</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.241083</v>
+                  <v>0.0406235</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.248226</v>
+                  <v>0.0416052</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.256309</v>
+                  <v>0.0428433</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.263815</v>
+                  <v>0.0445415</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.272729</v>
+                  <v>0.0464755</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.281114</v>
+                  <v>0.0489272</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.29099</v>
+                  <v>0.0526395</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.206413</v>
+                  <v>0.0583473</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.211988</v>
+                  <v>0.06810819999999999</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.218375</v>
+                  <v>0.0412799</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.225371</v>
+                  <v>0.0422281</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.233023</v>
+                  <v>0.0429276</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.239145</v>
+                  <v>0.0439297</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.246948</v>
+                  <v>0.0447307</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.254198</v>
+                  <v>0.0457736</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.261944</v>
+                  <v>0.0468762</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.270874</v>
+                  <v>0.0480061</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.277744</v>
+                  <v>0.0495994</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.285401</v>
+                  <v>0.0516555</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.294939</v>
+                  <v>0.0541823</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.304154</v>
+                  <v>0.0578916</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.212796</v>
+                  <v>0.0634131</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.219404</v>
+                  <v>0.07260369999999999</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.226867</v>
+                  <v>0.0591479</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.233183</v>
+                  <v>0.0608915</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.258776</v>
+                  <v>0.0603453</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.2671</v>
+                  <v>0.0608767</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.259936</v>
+                  <v>0.0620272</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.270609</v>
+                  <v>0.0625593</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.281995</v>
+                  <v>0.0640025</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0214076</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0220449</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0228814</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0238445</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0259967</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.0308818</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0397899</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0190868</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.0193166</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0195902</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0199197</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0202396</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0206034</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0211027</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.02181</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.0225325</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.0234089</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0246829</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0272518</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0319929</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0414377</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.0188357</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0191047</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.019293</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0195628</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.020006</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0203576</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0209983</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0216036</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0224206</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0234567</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0248701</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0276153</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0319171</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0394712</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0194612</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.019774</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.0200997</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0204224</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0207986</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.0212501</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0218422</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0225976</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.023464</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0247861</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0263224</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0291543</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.0329324</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0390016</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0204605</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.020763</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0211036</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0214464</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.0218044</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.02235</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0228519</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0235195</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0244936</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0258272</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0276262</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0303212</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0343892</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0407201</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.0517515</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.0210642</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0214078</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0217171</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0221679</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0225732</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0231145</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.023886</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0248041</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.0260928</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0279417</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.0307152</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0341993</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.0399898</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0497379</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0218936</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.0223402</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0229967</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0238374</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0244912</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.0255432</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.0269618</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0283241</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0302692</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0321612</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0348082</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0382122</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0434233</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.0534129</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.0282249</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.029139</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.03133</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0341335</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.0381704</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.0428413</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0471767</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0508107</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0541568</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.0573175</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.0605919</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.06430470000000001</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.06932820000000001</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.07656540000000001</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.0513709</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.0528133</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.0541587</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0555634</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0569233</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0585293</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.0602617</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.0619037</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.0640491</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.0662812</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.06915499999999999</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.07276100000000001</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.07756780000000001</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.0847301</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.0960261</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.0604808</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.0618613</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.0635545</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.0648304</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.06670520000000001</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.0683797</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.0702016</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.0724499</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.07498920000000001</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.0779345</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.081499</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.0866347</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.09380090000000001</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.105376</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.0789271</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.0802612</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.08157540000000001</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.0829015</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.0845514</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.08594209999999999</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.0877042</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2865,8 +3791,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3215,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3232,12 +4158,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0324935</v>
+        <v>0.0340362</v>
       </c>
       <c r="C2" t="n">
-        <v>0.122932</v>
+        <v>0.0349726</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0232964</v>
+        <v>0.0229924</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0236459</v>
+        <v>0.0240115</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0328819</v>
+        <v>0.0361594</v>
       </c>
       <c r="C3" t="n">
-        <v>0.126578</v>
+        <v>0.0365416</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0232887</v>
+        <v>0.0229907</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0239519</v>
+        <v>0.0240784</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0349299</v>
+        <v>0.0369475</v>
       </c>
       <c r="C4" t="n">
-        <v>0.131469</v>
+        <v>0.0381789</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0233407</v>
+        <v>0.023327</v>
       </c>
       <c r="E4" t="n">
-        <v>0.024006</v>
+        <v>0.0243469</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0396122</v>
+        <v>0.044284</v>
       </c>
       <c r="C5" t="n">
-        <v>0.138065</v>
+        <v>0.0430383</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0229362</v>
+        <v>0.0217308</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0240095</v>
+        <v>0.0236465</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0521233</v>
+        <v>0.0546397</v>
       </c>
       <c r="C6" t="n">
-        <v>0.143482</v>
+        <v>0.0562342</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0227736</v>
+        <v>0.0232674</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0245002</v>
+        <v>0.024332</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0744223</v>
+        <v>0.0726276</v>
       </c>
       <c r="C7" t="n">
-        <v>0.101869</v>
+        <v>0.0737942</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0291103</v>
+        <v>0.0259649</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0292137</v>
+        <v>0.0295194</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.103551</v>
+        <v>0.105966</v>
       </c>
       <c r="C8" t="n">
-        <v>0.10739</v>
+        <v>0.106448</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0469675</v>
+        <v>0.0457442</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0466877</v>
+        <v>0.0468119</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149343</v>
+        <v>0.148552</v>
       </c>
       <c r="C9" t="n">
-        <v>0.111788</v>
+        <v>0.148981</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0235455</v>
+        <v>0.0229603</v>
       </c>
       <c r="E9" t="n">
-        <v>0.023395</v>
+        <v>0.0241455</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0305636</v>
+        <v>0.0318211</v>
       </c>
       <c r="C10" t="n">
-        <v>0.117639</v>
+        <v>0.0327147</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0236087</v>
+        <v>0.0230943</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0235136</v>
+        <v>0.0244472</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0308827</v>
+        <v>0.0327503</v>
       </c>
       <c r="C11" t="n">
-        <v>0.122561</v>
+        <v>0.0332947</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0238254</v>
+        <v>0.0232228</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0237829</v>
+        <v>0.0248006</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0313013</v>
+        <v>0.032864</v>
       </c>
       <c r="C12" t="n">
-        <v>0.127728</v>
+        <v>0.0337401</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0242674</v>
+        <v>0.0233154</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0240601</v>
+        <v>0.0250352</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.032545</v>
+        <v>0.033817</v>
       </c>
       <c r="C13" t="n">
-        <v>0.131364</v>
+        <v>0.0345652</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0241473</v>
+        <v>0.0234527</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0242777</v>
+        <v>0.0253058</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0330487</v>
+        <v>0.0344506</v>
       </c>
       <c r="C14" t="n">
-        <v>0.13634</v>
+        <v>0.0352132</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0242852</v>
+        <v>0.0235642</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0244042</v>
+        <v>0.0253869</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0342624</v>
+        <v>0.0352879</v>
       </c>
       <c r="C15" t="n">
-        <v>0.140507</v>
+        <v>0.0363603</v>
       </c>
       <c r="D15" t="n">
-        <v>0.024599</v>
+        <v>0.0236453</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0246231</v>
+        <v>0.0255628</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0355577</v>
+        <v>0.0367912</v>
       </c>
       <c r="C16" t="n">
-        <v>0.145072</v>
+        <v>0.037914</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0246584</v>
+        <v>0.0239433</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0250489</v>
+        <v>0.0259029</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0370346</v>
+        <v>0.0387097</v>
       </c>
       <c r="C17" t="n">
-        <v>0.150299</v>
+        <v>0.039782</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0253308</v>
+        <v>0.0243608</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0256159</v>
+        <v>0.0261849</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0423015</v>
+        <v>0.0419708</v>
       </c>
       <c r="C18" t="n">
-        <v>0.154814</v>
+        <v>0.0437918</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0249704</v>
+        <v>0.0241546</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0258765</v>
+        <v>0.0259121</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0501739</v>
+        <v>0.0519161</v>
       </c>
       <c r="C19" t="n">
-        <v>0.161</v>
+        <v>0.0489019</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0245872</v>
+        <v>0.0239982</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0253677</v>
+        <v>0.0263121</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0599523</v>
+        <v>0.0635848</v>
       </c>
       <c r="C20" t="n">
-        <v>0.164866</v>
+        <v>0.0629456</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0287054</v>
+        <v>0.0284845</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0306878</v>
+        <v>0.0305269</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0782534</v>
+        <v>0.0807623</v>
       </c>
       <c r="C21" t="n">
-        <v>0.118628</v>
+        <v>0.08039010000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0383803</v>
+        <v>0.0376166</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0397413</v>
+        <v>0.0395674</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.105465</v>
+        <v>0.105789</v>
       </c>
       <c r="C22" t="n">
-        <v>0.122901</v>
+        <v>0.108993</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0575586</v>
+        <v>0.0562772</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0576131</v>
+        <v>0.0570815</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.144415</v>
+        <v>0.15008</v>
       </c>
       <c r="C23" t="n">
-        <v>0.127281</v>
+        <v>0.147698</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0246429</v>
+        <v>0.0238869</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0253318</v>
+        <v>0.0260251</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0323343</v>
+        <v>0.0339288</v>
       </c>
       <c r="C24" t="n">
-        <v>0.132152</v>
+        <v>0.0363684</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0250817</v>
+        <v>0.0240996</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0259089</v>
+        <v>0.0264249</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0329938</v>
+        <v>0.0344332</v>
       </c>
       <c r="C25" t="n">
-        <v>0.136284</v>
+        <v>0.0373213</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0252182</v>
+        <v>0.0242927</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0262735</v>
+        <v>0.0270547</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0336359</v>
+        <v>0.0350379</v>
       </c>
       <c r="C26" t="n">
-        <v>0.140447</v>
+        <v>0.0382474</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0255139</v>
+        <v>0.0245291</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0266295</v>
+        <v>0.0276246</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0344904</v>
+        <v>0.0352915</v>
       </c>
       <c r="C27" t="n">
-        <v>0.145277</v>
+        <v>0.039289</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0259868</v>
+        <v>0.0249433</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0272923</v>
+        <v>0.0287816</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.035739</v>
+        <v>0.036565</v>
       </c>
       <c r="C28" t="n">
-        <v>0.150107</v>
+        <v>0.0404315</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0265429</v>
+        <v>0.0254052</v>
       </c>
       <c r="E28" t="n">
-        <v>0.027992</v>
+        <v>0.0290038</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0361798</v>
+        <v>0.0379579</v>
       </c>
       <c r="C29" t="n">
-        <v>0.15498</v>
+        <v>0.04175</v>
       </c>
       <c r="D29" t="n">
-        <v>0.027267</v>
+        <v>0.0258599</v>
       </c>
       <c r="E29" t="n">
-        <v>0.028753</v>
+        <v>0.0307157</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0381959</v>
+        <v>0.0394784</v>
       </c>
       <c r="C30" t="n">
-        <v>0.159561</v>
+        <v>0.0434205</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0277074</v>
+        <v>0.0262533</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0297093</v>
+        <v>0.0309858</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0408616</v>
+        <v>0.042619</v>
       </c>
       <c r="C31" t="n">
-        <v>0.163623</v>
+        <v>0.0458535</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0285989</v>
+        <v>0.0270139</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0306891</v>
+        <v>0.0324079</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0453318</v>
+        <v>0.0471927</v>
       </c>
       <c r="C32" t="n">
-        <v>0.167893</v>
+        <v>0.0496374</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0288067</v>
+        <v>0.0277752</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0315677</v>
+        <v>0.0324307</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.052655</v>
+        <v>0.0529601</v>
       </c>
       <c r="C33" t="n">
-        <v>0.172449</v>
+        <v>0.0553939</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0297497</v>
+        <v>0.029052</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0327944</v>
+        <v>0.0330842</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0635469</v>
+        <v>0.06379849999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.176893</v>
+        <v>0.0653788</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0337396</v>
+        <v>0.0334356</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0370921</v>
+        <v>0.0370137</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0776283</v>
+        <v>0.0776268</v>
       </c>
       <c r="C35" t="n">
-        <v>0.123485</v>
+        <v>0.0788365</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0422055</v>
+        <v>0.0419128</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04499</v>
+        <v>0.044643</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101915</v>
+        <v>0.09788280000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.128243</v>
+        <v>0.100852</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0535522</v>
+        <v>0.0532807</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0555956</v>
+        <v>0.0550473</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.133183</v>
+        <v>0.132382</v>
       </c>
       <c r="C37" t="n">
-        <v>0.132543</v>
+        <v>0.134324</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0261181</v>
+        <v>0.0248931</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0278021</v>
+        <v>0.0285007</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.032832</v>
+        <v>0.0346356</v>
       </c>
       <c r="C38" t="n">
-        <v>0.137535</v>
+        <v>0.0389169</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0267817</v>
+        <v>0.0253319</v>
       </c>
       <c r="E38" t="n">
-        <v>0.028391</v>
+        <v>0.0290098</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0337466</v>
+        <v>0.0349228</v>
       </c>
       <c r="C39" t="n">
-        <v>0.142315</v>
+        <v>0.0396922</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0271989</v>
+        <v>0.0256518</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0288448</v>
+        <v>0.0295156</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0350827</v>
+        <v>0.0359025</v>
       </c>
       <c r="C40" t="n">
-        <v>0.146504</v>
+        <v>0.0405391</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0275191</v>
+        <v>0.0259657</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0294318</v>
+        <v>0.0298614</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0355086</v>
+        <v>0.0366457</v>
       </c>
       <c r="C41" t="n">
-        <v>0.151784</v>
+        <v>0.0413133</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0278537</v>
+        <v>0.0261305</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0298623</v>
+        <v>0.0303283</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0367367</v>
+        <v>0.0377698</v>
       </c>
       <c r="C42" t="n">
-        <v>0.156329</v>
+        <v>0.042528</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0283653</v>
+        <v>0.0265487</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0305321</v>
+        <v>0.0311138</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0386436</v>
+        <v>0.0388892</v>
       </c>
       <c r="C43" t="n">
-        <v>0.160749</v>
+        <v>0.0437214</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0291872</v>
+        <v>0.0270869</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0311777</v>
+        <v>0.03204</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0397209</v>
+        <v>0.041182</v>
       </c>
       <c r="C44" t="n">
-        <v>0.164857</v>
+        <v>0.0455477</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0301631</v>
+        <v>0.0281053</v>
       </c>
       <c r="E44" t="n">
-        <v>0.031878</v>
+        <v>0.0345839</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.042721</v>
+        <v>0.0436141</v>
       </c>
       <c r="C45" t="n">
-        <v>0.168882</v>
+        <v>0.0482738</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0308991</v>
+        <v>0.0289807</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0329082</v>
+        <v>0.035814</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0470166</v>
+        <v>0.047947</v>
       </c>
       <c r="C46" t="n">
-        <v>0.172804</v>
+        <v>0.0516748</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0320767</v>
+        <v>0.0305354</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0345394</v>
+        <v>0.036765</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0528874</v>
+        <v>0.0532613</v>
       </c>
       <c r="C47" t="n">
-        <v>0.177065</v>
+        <v>0.0569675</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0339222</v>
+        <v>0.0327548</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0366846</v>
+        <v>0.0378795</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0605526</v>
+        <v>0.0611</v>
       </c>
       <c r="C48" t="n">
-        <v>0.181488</v>
+        <v>0.0635566</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0370851</v>
+        <v>0.0368227</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0404755</v>
+        <v>0.0403362</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0720624</v>
+        <v>0.0739331</v>
       </c>
       <c r="C49" t="n">
-        <v>0.185953</v>
+        <v>0.07550750000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0423189</v>
+        <v>0.0422608</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0454406</v>
+        <v>0.0451679</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0908774</v>
+        <v>0.0926679</v>
       </c>
       <c r="C50" t="n">
-        <v>0.130975</v>
+        <v>0.09376420000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0505123</v>
+        <v>0.0504039</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0529953</v>
+        <v>0.0525672</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.119002</v>
+        <v>0.122155</v>
       </c>
       <c r="C51" t="n">
-        <v>0.135583</v>
+        <v>0.121435</v>
       </c>
       <c r="D51" t="n">
-        <v>0.029517</v>
+        <v>0.0272402</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0298907</v>
+        <v>0.0313994</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165419</v>
+        <v>0.165177</v>
       </c>
       <c r="C52" t="n">
-        <v>0.140258</v>
+        <v>0.167288</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0300111</v>
+        <v>0.0273208</v>
       </c>
       <c r="E52" t="n">
-        <v>0.030171</v>
+        <v>0.0323198</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.035388</v>
+        <v>0.037222</v>
       </c>
       <c r="C53" t="n">
-        <v>0.145193</v>
+        <v>0.0419669</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0293808</v>
+        <v>0.0270726</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0310756</v>
+        <v>0.0335672</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0362758</v>
+        <v>0.0377788</v>
       </c>
       <c r="C54" t="n">
-        <v>0.150153</v>
+        <v>0.0428074</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0310067</v>
+        <v>0.027444</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0312286</v>
+        <v>0.0335776</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0369805</v>
+        <v>0.0378093</v>
       </c>
       <c r="C55" t="n">
-        <v>0.154557</v>
+        <v>0.0436196</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0315635</v>
+        <v>0.0279148</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0317839</v>
+        <v>0.035219</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0379459</v>
+        <v>0.0399306</v>
       </c>
       <c r="C56" t="n">
-        <v>0.158994</v>
+        <v>0.0448064</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0316526</v>
+        <v>0.0284889</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0327013</v>
+        <v>0.0344662</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0391931</v>
+        <v>0.0410464</v>
       </c>
       <c r="C57" t="n">
-        <v>0.163278</v>
+        <v>0.0458323</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0328151</v>
+        <v>0.0294365</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0334614</v>
+        <v>0.0364775</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0416321</v>
+        <v>0.0431662</v>
       </c>
       <c r="C58" t="n">
-        <v>0.167399</v>
+        <v>0.0478088</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0329936</v>
+        <v>0.0299424</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0348912</v>
+        <v>0.037733</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0441034</v>
+        <v>0.0447455</v>
       </c>
       <c r="C59" t="n">
-        <v>0.171351</v>
+        <v>0.050057</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0341045</v>
+        <v>0.0317626</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0363635</v>
+        <v>0.0388898</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0471271</v>
+        <v>0.0479505</v>
       </c>
       <c r="C60" t="n">
-        <v>0.175167</v>
+        <v>0.0531147</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0346307</v>
+        <v>0.0332887</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0373009</v>
+        <v>0.0396011</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0530972</v>
+        <v>0.0530195</v>
       </c>
       <c r="C61" t="n">
-        <v>0.179822</v>
+        <v>0.0578074</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0359278</v>
+        <v>0.0349971</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0395078</v>
+        <v>0.0400674</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0606478</v>
+        <v>0.0613411</v>
       </c>
       <c r="C62" t="n">
-        <v>0.184275</v>
+        <v>0.0653721</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0385514</v>
+        <v>0.0380108</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0427578</v>
+        <v>0.0422971</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0717115</v>
+        <v>0.0716213</v>
       </c>
       <c r="C63" t="n">
-        <v>0.189189</v>
+        <v>0.07480539999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0432448</v>
+        <v>0.0426698</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0477207</v>
+        <v>0.0470025</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08861049999999999</v>
+        <v>0.0880172</v>
       </c>
       <c r="C64" t="n">
-        <v>0.139472</v>
+        <v>0.0900726</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0509956</v>
+        <v>0.05034</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0549597</v>
+        <v>0.0539478</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.114734</v>
+        <v>0.114454</v>
       </c>
       <c r="C65" t="n">
-        <v>0.143278</v>
+        <v>0.117415</v>
       </c>
       <c r="D65" t="n">
-        <v>0.064544</v>
+        <v>0.06429650000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0676493</v>
+        <v>0.0679975</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.156068</v>
+        <v>0.156714</v>
       </c>
       <c r="C66" t="n">
-        <v>0.150407</v>
+        <v>0.158429</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0339577</v>
+        <v>0.0322942</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0370064</v>
+        <v>0.0389055</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.041039</v>
+        <v>0.0410804</v>
       </c>
       <c r="C67" t="n">
-        <v>0.158539</v>
+        <v>0.0491787</v>
       </c>
       <c r="D67" t="n">
-        <v>0.034567</v>
+        <v>0.0326994</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0376909</v>
+        <v>0.0399281</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0413303</v>
+        <v>0.0419255</v>
       </c>
       <c r="C68" t="n">
-        <v>0.166132</v>
+        <v>0.0505622</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0352507</v>
+        <v>0.0330416</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0382818</v>
+        <v>0.0407838</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0426724</v>
+        <v>0.0427288</v>
       </c>
       <c r="C69" t="n">
-        <v>0.173283</v>
+        <v>0.051739</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0356537</v>
+        <v>0.0334372</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0389823</v>
+        <v>0.0415412</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0434703</v>
+        <v>0.0441207</v>
       </c>
       <c r="C70" t="n">
-        <v>0.180967</v>
+        <v>0.0530227</v>
       </c>
       <c r="D70" t="n">
-        <v>0.036328</v>
+        <v>0.0339218</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0397853</v>
+        <v>0.0427441</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.044919</v>
+        <v>0.0447624</v>
       </c>
       <c r="C71" t="n">
-        <v>0.189016</v>
+        <v>0.0543996</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0369724</v>
+        <v>0.0344525</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0404239</v>
+        <v>0.0436243</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0462471</v>
+        <v>0.0466748</v>
       </c>
       <c r="C72" t="n">
-        <v>0.197985</v>
+        <v>0.0562217</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0377764</v>
+        <v>0.0352747</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0415753</v>
+        <v>0.044932</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0484317</v>
+        <v>0.0488061</v>
       </c>
       <c r="C73" t="n">
-        <v>0.208274</v>
+        <v>0.0586139</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0385784</v>
+        <v>0.0360317</v>
       </c>
       <c r="E73" t="n">
-        <v>0.042877</v>
+        <v>0.0460767</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0516209</v>
+        <v>0.0524257</v>
       </c>
       <c r="C74" t="n">
-        <v>0.221031</v>
+        <v>0.0621639</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0390604</v>
+        <v>0.0373833</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0445298</v>
+        <v>0.0470939</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0561286</v>
+        <v>0.0565018</v>
       </c>
       <c r="C75" t="n">
-        <v>0.233017</v>
+        <v>0.0664554</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0400988</v>
+        <v>0.0393971</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0468096</v>
+        <v>0.0482408</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0626623</v>
+        <v>0.0635054</v>
       </c>
       <c r="C76" t="n">
-        <v>0.245191</v>
+        <v>0.07332130000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0421601</v>
+        <v>0.0416655</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0501047</v>
+        <v>0.0501934</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0723483</v>
+        <v>0.0738688</v>
       </c>
       <c r="C77" t="n">
-        <v>0.260676</v>
+        <v>0.08392529999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0460827</v>
+        <v>0.0463169</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0536144</v>
+        <v>0.0539997</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0873157</v>
+        <v>0.08859060000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.218548</v>
+        <v>0.099921</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0525236</v>
+        <v>0.0526907</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0602544</v>
+        <v>0.0603286</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112351</v>
+        <v>0.112975</v>
       </c>
       <c r="C79" t="n">
-        <v>0.230424</v>
+        <v>0.12716</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0643056</v>
+        <v>0.0640806</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0718535</v>
+        <v>0.0716374</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.151495</v>
+        <v>0.151978</v>
       </c>
       <c r="C80" t="n">
-        <v>0.243269</v>
+        <v>0.171258</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0383571</v>
+        <v>0.0360871</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0422009</v>
+        <v>0.0437793</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0464258</v>
+        <v>0.046323</v>
       </c>
       <c r="C81" t="n">
-        <v>0.256199</v>
+        <v>0.0574416</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0388906</v>
+        <v>0.0365164</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0426897</v>
+        <v>0.0450997</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0471581</v>
+        <v>0.0470895</v>
       </c>
       <c r="C82" t="n">
-        <v>0.268637</v>
+        <v>0.0595663</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0395267</v>
+        <v>0.0369702</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0434003</v>
+        <v>0.0462194</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0480949</v>
+        <v>0.0481198</v>
       </c>
       <c r="C83" t="n">
-        <v>0.281467</v>
+        <v>0.0625798</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0401038</v>
+        <v>0.0374962</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0443421</v>
+        <v>0.0473076</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0495099</v>
+        <v>0.049297</v>
       </c>
       <c r="C84" t="n">
-        <v>0.294883</v>
+        <v>0.0661301</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0406428</v>
+        <v>0.0379203</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0453822</v>
+        <v>0.048834</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0511814</v>
+        <v>0.0509551</v>
       </c>
       <c r="C85" t="n">
-        <v>0.30872</v>
+        <v>0.0714484</v>
       </c>
       <c r="D85" t="n">
-        <v>0.041585</v>
+        <v>0.0386175</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0470783</v>
+        <v>0.0505063</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0527736</v>
+        <v>0.0531146</v>
       </c>
       <c r="C86" t="n">
-        <v>0.321965</v>
+        <v>0.0779371</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0424746</v>
+        <v>0.0394888</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0489833</v>
+        <v>0.0527478</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0558464</v>
+        <v>0.0558769</v>
       </c>
       <c r="C87" t="n">
-        <v>0.336571</v>
+        <v>0.08589040000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0433893</v>
+        <v>0.0407042</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0520011</v>
+        <v>0.0556671</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0596946</v>
+        <v>0.0600028</v>
       </c>
       <c r="C88" t="n">
-        <v>0.350992</v>
+        <v>0.0962961</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0445688</v>
+        <v>0.042215</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0550883</v>
+        <v>0.0587218</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06507209999999999</v>
+        <v>0.06553249999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.366821</v>
+        <v>0.108762</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0457468</v>
+        <v>0.0442039</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0592997</v>
+        <v>0.062497</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0728804</v>
+        <v>0.0736919</v>
       </c>
       <c r="C90" t="n">
-        <v>0.382952</v>
+        <v>0.124131</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0480262</v>
+        <v>0.0474144</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0663649</v>
+        <v>0.0669662</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0831326</v>
+        <v>0.08417910000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.39979</v>
+        <v>0.143117</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0525451</v>
+        <v>0.052279</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0752094</v>
+        <v>0.0751064</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.100263</v>
+        <v>0.101233</v>
       </c>
       <c r="C92" t="n">
-        <v>0.323526</v>
+        <v>0.166414</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0597904</v>
+        <v>0.0599262</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0878091</v>
+        <v>0.0874844</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.125257</v>
+        <v>0.126389</v>
       </c>
       <c r="C93" t="n">
-        <v>0.334892</v>
+        <v>0.19615</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0726678</v>
+        <v>0.073287</v>
       </c>
       <c r="E93" t="n">
-        <v>0.107736</v>
+        <v>0.107072</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.16157</v>
+        <v>0.162296</v>
       </c>
       <c r="C94" t="n">
-        <v>0.346017</v>
+        <v>0.237112</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0428156</v>
+        <v>0.0403899</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0547532</v>
+        <v>0.057779</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0588087</v>
+        <v>0.0581237</v>
       </c>
       <c r="C95" t="n">
-        <v>0.357196</v>
+        <v>0.104872</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0442897</v>
+        <v>0.0413716</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0582612</v>
+        <v>0.0620183</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0621997</v>
+        <v>0.0608853</v>
       </c>
       <c r="C96" t="n">
-        <v>0.36913</v>
+        <v>0.113197</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0460818</v>
+        <v>0.0429433</v>
       </c>
       <c r="E96" t="n">
-        <v>0.06292780000000001</v>
+        <v>0.0671776</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0663697</v>
+        <v>0.0653957</v>
       </c>
       <c r="C97" t="n">
-        <v>0.381177</v>
+        <v>0.12114</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0481127</v>
+        <v>0.0448515</v>
       </c>
       <c r="E97" t="n">
-        <v>0.06831470000000001</v>
+        <v>0.0728832</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0705451</v>
+        <v>0.0700674</v>
       </c>
       <c r="C98" t="n">
-        <v>0.393207</v>
+        <v>0.129226</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0509223</v>
+        <v>0.046982</v>
       </c>
       <c r="E98" t="n">
-        <v>0.07381310000000001</v>
+        <v>0.0790135</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0752694</v>
+        <v>0.0754211</v>
       </c>
       <c r="C99" t="n">
-        <v>0.406194</v>
+        <v>0.136622</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0540188</v>
+        <v>0.0501381</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0800256</v>
+        <v>0.08542080000000001</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0808532</v>
+        <v>0.08074729999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.419532</v>
+        <v>0.144262</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0577372</v>
+        <v>0.0533955</v>
       </c>
       <c r="E100" t="n">
-        <v>0.08640059999999999</v>
+        <v>0.091789</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08695559999999999</v>
+        <v>0.0875375</v>
       </c>
       <c r="C101" t="n">
-        <v>0.433458</v>
+        <v>0.152069</v>
       </c>
       <c r="D101" t="n">
-        <v>0.061803</v>
+        <v>0.0574055</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0928611</v>
+        <v>0.09811110000000001</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0940048</v>
+        <v>0.0945574</v>
       </c>
       <c r="C102" t="n">
-        <v>0.448244</v>
+        <v>0.160434</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0653615</v>
+        <v>0.0615962</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0991773</v>
+        <v>0.103849</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.10145</v>
+        <v>0.102264</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4633</v>
+        <v>0.169715</v>
       </c>
       <c r="D103" t="n">
-        <v>0.06936970000000001</v>
+        <v>0.0666095</v>
       </c>
       <c r="E103" t="n">
-        <v>0.106523</v>
+        <v>0.109108</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.110142</v>
+        <v>0.111052</v>
       </c>
       <c r="C104" t="n">
-        <v>0.479428</v>
+        <v>0.180717</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07324840000000001</v>
+        <v>0.0718007</v>
       </c>
       <c r="E104" t="n">
-        <v>0.114222</v>
+        <v>0.115167</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.120892</v>
+        <v>0.121836</v>
       </c>
       <c r="C105" t="n">
-        <v>0.496256</v>
+        <v>0.195444</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0787235</v>
+        <v>0.07892730000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>0.123211</v>
+        <v>0.123318</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.135029</v>
+        <v>0.135611</v>
       </c>
       <c r="C106" t="n">
-        <v>0.513576</v>
+        <v>0.213497</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0867483</v>
+        <v>0.0876232</v>
       </c>
       <c r="E106" t="n">
-        <v>0.133396</v>
+        <v>0.134026</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.154333</v>
+        <v>0.155333</v>
       </c>
       <c r="C107" t="n">
-        <v>0.388438</v>
+        <v>0.239112</v>
       </c>
       <c r="D107" t="n">
-        <v>0.099493</v>
+        <v>0.09886</v>
       </c>
       <c r="E107" t="n">
-        <v>0.148627</v>
+        <v>0.149425</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.182981</v>
+        <v>0.183363</v>
       </c>
       <c r="C108" t="n">
-        <v>0.399112</v>
+        <v>0.277267</v>
       </c>
       <c r="D108" t="n">
-        <v>0.062803</v>
+        <v>0.0602152</v>
       </c>
       <c r="E108" t="n">
-        <v>0.09004330000000001</v>
+        <v>0.09212140000000001</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.227663</v>
+        <v>0.229022</v>
       </c>
       <c r="C109" t="n">
-        <v>0.409972</v>
+        <v>0.337903</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0647779</v>
+        <v>0.0622278</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0929241</v>
+        <v>0.0955341</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.09121269999999999</v>
+        <v>0.0910415</v>
       </c>
       <c r="C110" t="n">
-        <v>0.420933</v>
+        <v>0.145674</v>
       </c>
       <c r="D110" t="n">
-        <v>0.066897</v>
+        <v>0.0642206</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0959786</v>
+        <v>0.09878480000000001</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0939468</v>
+        <v>0.09382020000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.432565</v>
+        <v>0.15007</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0687879</v>
+        <v>0.0656737</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0993211</v>
+        <v>0.101579</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0967213</v>
+        <v>0.0963372</v>
       </c>
       <c r="C112" t="n">
-        <v>0.444447</v>
+        <v>0.15443</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0708572</v>
+        <v>0.06765119999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>0.102162</v>
+        <v>0.104962</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.100044</v>
+        <v>0.09935910000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.456887</v>
+        <v>0.159388</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0725572</v>
+        <v>0.0694955</v>
       </c>
       <c r="E113" t="n">
-        <v>0.105398</v>
+        <v>0.108263</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.103321</v>
+        <v>0.102621</v>
       </c>
       <c r="C114" t="n">
-        <v>0.469305</v>
+        <v>0.165026</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0751269</v>
+        <v>0.0717236</v>
       </c>
       <c r="E114" t="n">
-        <v>0.109008</v>
+        <v>0.112045</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.106888</v>
+        <v>0.106614</v>
       </c>
       <c r="C115" t="n">
-        <v>0.482828</v>
+        <v>0.171081</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07762139999999999</v>
+        <v>0.07438069999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>0.112841</v>
+        <v>0.115975</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.111433</v>
+        <v>0.111087</v>
       </c>
       <c r="C116" t="n">
-        <v>0.496665</v>
+        <v>0.178315</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0800506</v>
+        <v>0.0771922</v>
       </c>
       <c r="E116" t="n">
-        <v>0.117124</v>
+        <v>0.120194</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.116679</v>
+        <v>0.116865</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5114570000000001</v>
+        <v>0.186581</v>
       </c>
       <c r="D117" t="n">
-        <v>0.082817</v>
+        <v>0.0803349</v>
       </c>
       <c r="E117" t="n">
-        <v>0.122164</v>
+        <v>0.124939</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123938</v>
+        <v>0.124268</v>
       </c>
       <c r="C118" t="n">
-        <v>0.526998</v>
+        <v>0.197753</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0856397</v>
+        <v>0.0840651</v>
       </c>
       <c r="E118" t="n">
-        <v>0.128077</v>
+        <v>0.130088</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.132945</v>
+        <v>0.133267</v>
       </c>
       <c r="C119" t="n">
-        <v>0.543943</v>
+        <v>0.211444</v>
       </c>
       <c r="D119" t="n">
-        <v>0.08982270000000001</v>
+        <v>0.088964</v>
       </c>
       <c r="E119" t="n">
-        <v>0.136008</v>
+        <v>0.136405</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.145709</v>
+        <v>0.146209</v>
       </c>
       <c r="C120" t="n">
-        <v>0.560817</v>
+        <v>0.229735</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0965882</v>
+        <v>0.0962797</v>
       </c>
       <c r="E120" t="n">
-        <v>0.146203</v>
+        <v>0.146193</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163279</v>
+        <v>0.163318</v>
       </c>
       <c r="C121" t="n">
-        <v>0.416002</v>
+        <v>0.255058</v>
       </c>
       <c r="D121" t="n">
-        <v>0.106335</v>
+        <v>0.106424</v>
       </c>
       <c r="E121" t="n">
-        <v>0.159781</v>
+        <v>0.160568</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.189375</v>
+        <v>0.189632</v>
       </c>
       <c r="C122" t="n">
-        <v>0.426914</v>
+        <v>0.292337</v>
       </c>
       <c r="D122" t="n">
-        <v>0.123047</v>
+        <v>0.122811</v>
       </c>
       <c r="E122" t="n">
-        <v>0.182562</v>
+        <v>0.182667</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.230052</v>
+        <v>0.229839</v>
       </c>
       <c r="C123" t="n">
-        <v>0.437847</v>
+        <v>0.350282</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0784043</v>
+        <v>0.0736198</v>
       </c>
       <c r="E123" t="n">
-        <v>0.10542</v>
+        <v>0.110452</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103733</v>
+        <v>0.101914</v>
       </c>
       <c r="C124" t="n">
-        <v>0.449355</v>
+        <v>0.162181</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0781744</v>
+        <v>0.0744205</v>
       </c>
       <c r="E124" t="n">
-        <v>0.108738</v>
+        <v>0.115605</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.107325</v>
+        <v>0.103814</v>
       </c>
       <c r="C125" t="n">
-        <v>0.461411</v>
+        <v>0.168216</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0807705</v>
+        <v>0.07882550000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>0.112135</v>
+        <v>0.114976</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.107767</v>
+        <v>0.110568</v>
       </c>
       <c r="C126" t="n">
-        <v>0.473296</v>
+        <v>0.170081</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0811837</v>
+        <v>0.0769123</v>
       </c>
       <c r="E126" t="n">
-        <v>0.115662</v>
+        <v>0.12124</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110428</v>
+        <v>0.109815</v>
       </c>
       <c r="C127" t="n">
-        <v>0.485658</v>
+        <v>0.175425</v>
       </c>
       <c r="D127" t="n">
-        <v>0.08588179999999999</v>
+        <v>0.0851977</v>
       </c>
       <c r="E127" t="n">
-        <v>0.120484</v>
+        <v>0.122481</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.113297</v>
+        <v>0.114104</v>
       </c>
       <c r="C128" t="n">
-        <v>0.498905</v>
+        <v>0.183416</v>
       </c>
       <c r="D128" t="n">
-        <v>0.08429929999999999</v>
+        <v>0.0844288</v>
       </c>
       <c r="E128" t="n">
-        <v>0.12246</v>
+        <v>0.127389</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.115215</v>
+        <v>0.11825</v>
       </c>
       <c r="C129" t="n">
-        <v>0.511672</v>
+        <v>0.19053</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0887806</v>
+        <v>0.08693049999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>0.127838</v>
+        <v>0.133784</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.119885</v>
+        <v>0.120353</v>
       </c>
       <c r="C130" t="n">
-        <v>0.525777</v>
+        <v>0.195488</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0911257</v>
+        <v>0.0861658</v>
       </c>
       <c r="E130" t="n">
-        <v>0.131959</v>
+        <v>0.136601</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126106</v>
+        <v>0.12641</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5397189999999999</v>
+        <v>0.204013</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0926343</v>
+        <v>0.088529</v>
       </c>
       <c r="E131" t="n">
-        <v>0.135747</v>
+        <v>0.13963</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.131615</v>
+        <v>0.134515</v>
       </c>
       <c r="C132" t="n">
-        <v>0.55564</v>
+        <v>0.212445</v>
       </c>
       <c r="D132" t="n">
-        <v>0.09544279999999999</v>
+        <v>0.0950848</v>
       </c>
       <c r="E132" t="n">
-        <v>0.141932</v>
+        <v>0.14605</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.140853</v>
+        <v>0.141128</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5720190000000001</v>
+        <v>0.226167</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0992369</v>
+        <v>0.10174</v>
       </c>
       <c r="E133" t="n">
-        <v>0.149872</v>
+        <v>0.15091</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.153132</v>
+        <v>0.152988</v>
       </c>
       <c r="C134" t="n">
-        <v>0.589213</v>
+        <v>0.245914</v>
       </c>
       <c r="D134" t="n">
-        <v>0.105856</v>
+        <v>0.107795</v>
       </c>
       <c r="E134" t="n">
-        <v>0.158773</v>
+        <v>0.163447</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.170515</v>
+        <v>0.170254</v>
       </c>
       <c r="C135" t="n">
-        <v>0.432396</v>
+        <v>0.268066</v>
       </c>
       <c r="D135" t="n">
-        <v>0.114711</v>
+        <v>0.114587</v>
       </c>
       <c r="E135" t="n">
-        <v>0.173166</v>
+        <v>0.173897</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194289</v>
+        <v>0.195547</v>
       </c>
       <c r="C136" t="n">
-        <v>0.44394</v>
+        <v>0.304213</v>
       </c>
       <c r="D136" t="n">
-        <v>0.129452</v>
+        <v>0.129338</v>
       </c>
       <c r="E136" t="n">
-        <v>0.193707</v>
+        <v>0.193581</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.233117</v>
+        <v>0.231378</v>
       </c>
       <c r="C137" t="n">
-        <v>0.455131</v>
+        <v>0.360525</v>
       </c>
       <c r="D137" t="n">
-        <v>0.142859</v>
+        <v>0.139688</v>
       </c>
       <c r="E137" t="n">
-        <v>0.172156</v>
+        <v>0.175222</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1674</v>
+        <v>0.168635</v>
       </c>
       <c r="C138" t="n">
-        <v>0.466594</v>
+        <v>0.227163</v>
       </c>
       <c r="D138" t="n">
-        <v>0.143467</v>
+        <v>0.14088</v>
       </c>
       <c r="E138" t="n">
-        <v>0.175455</v>
+        <v>0.178991</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169518</v>
+        <v>0.169324</v>
       </c>
       <c r="C139" t="n">
-        <v>0.478322</v>
+        <v>0.229878</v>
       </c>
       <c r="D139" t="n">
-        <v>0.145124</v>
+        <v>0.141077</v>
       </c>
       <c r="E139" t="n">
-        <v>0.177277</v>
+        <v>0.181034</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.171439</v>
+        <v>0.172453</v>
       </c>
       <c r="C140" t="n">
-        <v>0.490055</v>
+        <v>0.234596</v>
       </c>
       <c r="D140" t="n">
-        <v>0.146382</v>
+        <v>0.142155</v>
       </c>
       <c r="E140" t="n">
-        <v>0.18145</v>
+        <v>0.186123</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.173672</v>
+        <v>0.17332</v>
       </c>
       <c r="C141" t="n">
-        <v>0.502655</v>
+        <v>0.238921</v>
       </c>
       <c r="D141" t="n">
-        <v>0.148244</v>
+        <v>0.143186</v>
       </c>
       <c r="E141" t="n">
-        <v>0.183435</v>
+        <v>0.187358</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.175544</v>
+        <v>0.175842</v>
       </c>
       <c r="C142" t="n">
-        <v>0.515332</v>
+        <v>0.243841</v>
       </c>
       <c r="D142" t="n">
-        <v>0.149089</v>
+        <v>0.145345</v>
       </c>
       <c r="E142" t="n">
-        <v>0.186827</v>
+        <v>0.191075</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.177772</v>
+        <v>0.17785</v>
       </c>
       <c r="C143" t="n">
-        <v>0.5285879999999999</v>
+        <v>0.251026</v>
       </c>
       <c r="D143" t="n">
-        <v>0.150421</v>
+        <v>0.148226</v>
       </c>
       <c r="E143" t="n">
-        <v>0.189532</v>
+        <v>0.196036</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0324935</v>
+        <v>0.0323551</v>
       </c>
       <c r="C2" t="n">
-        <v>0.122932</v>
+        <v>0.124463</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0232964</v>
+        <v>0.0234896</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0236459</v>
+        <v>0.023691</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0328819</v>
+        <v>0.0329332</v>
       </c>
       <c r="C3" t="n">
-        <v>0.126578</v>
+        <v>0.127974</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0232887</v>
+        <v>0.0233362</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0239519</v>
+        <v>0.0237115</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0349299</v>
+        <v>0.0348626</v>
       </c>
       <c r="C4" t="n">
-        <v>0.131469</v>
+        <v>0.132024</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0233407</v>
+        <v>0.0235155</v>
       </c>
       <c r="E4" t="n">
-        <v>0.024006</v>
+        <v>0.0241338</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0396122</v>
+        <v>0.0395559</v>
       </c>
       <c r="C5" t="n">
-        <v>0.138065</v>
+        <v>0.138718</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0229362</v>
+        <v>0.0226047</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0240095</v>
+        <v>0.0240785</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0521233</v>
+        <v>0.0515275</v>
       </c>
       <c r="C6" t="n">
-        <v>0.143482</v>
+        <v>0.144591</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0227736</v>
+        <v>0.0229171</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0245002</v>
+        <v>0.024561</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0744223</v>
+        <v>0.0747775</v>
       </c>
       <c r="C7" t="n">
-        <v>0.101869</v>
+        <v>0.102106</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0291103</v>
+        <v>0.0288761</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0292137</v>
+        <v>0.0288461</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.103551</v>
+        <v>0.103721</v>
       </c>
       <c r="C8" t="n">
-        <v>0.10739</v>
+        <v>0.1072</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0469675</v>
+        <v>0.0474433</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0466877</v>
+        <v>0.0474507</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149343</v>
+        <v>0.149201</v>
       </c>
       <c r="C9" t="n">
-        <v>0.111788</v>
+        <v>0.111898</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0235455</v>
+        <v>0.0236579</v>
       </c>
       <c r="E9" t="n">
-        <v>0.023395</v>
+        <v>0.0234365</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0305636</v>
+        <v>0.0305976</v>
       </c>
       <c r="C10" t="n">
-        <v>0.117639</v>
+        <v>0.117001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0236087</v>
+        <v>0.0237777</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0235136</v>
+        <v>0.0237463</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0308827</v>
+        <v>0.0308909</v>
       </c>
       <c r="C11" t="n">
-        <v>0.122561</v>
+        <v>0.122328</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0238254</v>
+        <v>0.0239519</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0237829</v>
+        <v>0.024122</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0313013</v>
+        <v>0.0313429</v>
       </c>
       <c r="C12" t="n">
-        <v>0.127728</v>
+        <v>0.127198</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0242674</v>
+        <v>0.024189</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0240601</v>
+        <v>0.0243174</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.032545</v>
+        <v>0.0324748</v>
       </c>
       <c r="C13" t="n">
-        <v>0.131364</v>
+        <v>0.131636</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0241473</v>
+        <v>0.0243243</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0242777</v>
+        <v>0.02484</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0330487</v>
+        <v>0.0333443</v>
       </c>
       <c r="C14" t="n">
-        <v>0.13634</v>
+        <v>0.136057</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0242852</v>
+        <v>0.0244319</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0244042</v>
+        <v>0.0250246</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0342624</v>
+        <v>0.0341028</v>
       </c>
       <c r="C15" t="n">
-        <v>0.140507</v>
+        <v>0.140617</v>
       </c>
       <c r="D15" t="n">
-        <v>0.024599</v>
+        <v>0.0248614</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0246231</v>
+        <v>0.0252431</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0355577</v>
+        <v>0.0357133</v>
       </c>
       <c r="C16" t="n">
-        <v>0.145072</v>
+        <v>0.144734</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0246584</v>
+        <v>0.0250386</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0250489</v>
+        <v>0.025925</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0370346</v>
+        <v>0.0370915</v>
       </c>
       <c r="C17" t="n">
-        <v>0.150299</v>
+        <v>0.150196</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0253308</v>
+        <v>0.0252795</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0256159</v>
+        <v>0.0265009</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0423015</v>
+        <v>0.0423681</v>
       </c>
       <c r="C18" t="n">
-        <v>0.154814</v>
+        <v>0.154561</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0249704</v>
+        <v>0.0249804</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0258765</v>
+        <v>0.0266785</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0501739</v>
+        <v>0.0500794</v>
       </c>
       <c r="C19" t="n">
-        <v>0.161</v>
+        <v>0.160081</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0245872</v>
+        <v>0.0243788</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0253677</v>
+        <v>0.0267822</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0599523</v>
+        <v>0.0599966</v>
       </c>
       <c r="C20" t="n">
-        <v>0.164866</v>
+        <v>0.164521</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0287054</v>
+        <v>0.0285201</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0306878</v>
+        <v>0.0308859</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0782534</v>
+        <v>0.0782567</v>
       </c>
       <c r="C21" t="n">
-        <v>0.118628</v>
+        <v>0.117826</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0383803</v>
+        <v>0.0381812</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0397413</v>
+        <v>0.0396371</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.105465</v>
+        <v>0.105352</v>
       </c>
       <c r="C22" t="n">
-        <v>0.122901</v>
+        <v>0.122215</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0575586</v>
+        <v>0.0576399</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0576131</v>
+        <v>0.0577325</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.144415</v>
+        <v>0.144647</v>
       </c>
       <c r="C23" t="n">
-        <v>0.127281</v>
+        <v>0.126505</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0246429</v>
+        <v>0.024933</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0253318</v>
+        <v>0.0257356</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0323343</v>
+        <v>0.0325504</v>
       </c>
       <c r="C24" t="n">
-        <v>0.132152</v>
+        <v>0.131321</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0250817</v>
+        <v>0.0252147</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0259089</v>
+        <v>0.025826</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0329938</v>
+        <v>0.0331597</v>
       </c>
       <c r="C25" t="n">
-        <v>0.136284</v>
+        <v>0.135391</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0252182</v>
+        <v>0.0256792</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0262735</v>
+        <v>0.0263041</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0336359</v>
+        <v>0.0337624</v>
       </c>
       <c r="C26" t="n">
-        <v>0.140447</v>
+        <v>0.139478</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0255139</v>
+        <v>0.0257542</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0266295</v>
+        <v>0.0265451</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0344904</v>
+        <v>0.0345633</v>
       </c>
       <c r="C27" t="n">
-        <v>0.145277</v>
+        <v>0.144282</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0259868</v>
+        <v>0.0263562</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0272923</v>
+        <v>0.0271428</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.035739</v>
+        <v>0.035833</v>
       </c>
       <c r="C28" t="n">
-        <v>0.150107</v>
+        <v>0.149389</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0265429</v>
+        <v>0.0266663</v>
       </c>
       <c r="E28" t="n">
-        <v>0.027992</v>
+        <v>0.0276029</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0361798</v>
+        <v>0.0362486</v>
       </c>
       <c r="C29" t="n">
-        <v>0.15498</v>
+        <v>0.154007</v>
       </c>
       <c r="D29" t="n">
-        <v>0.027267</v>
+        <v>0.0272423</v>
       </c>
       <c r="E29" t="n">
-        <v>0.028753</v>
+        <v>0.0281509</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0381959</v>
+        <v>0.0383362</v>
       </c>
       <c r="C30" t="n">
-        <v>0.159561</v>
+        <v>0.158895</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0277074</v>
+        <v>0.0275499</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0297093</v>
+        <v>0.0289121</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0408616</v>
+        <v>0.0408909</v>
       </c>
       <c r="C31" t="n">
-        <v>0.163623</v>
+        <v>0.162872</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0285989</v>
+        <v>0.0284467</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0306891</v>
+        <v>0.0296411</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0453318</v>
+        <v>0.0454349</v>
       </c>
       <c r="C32" t="n">
-        <v>0.167893</v>
+        <v>0.167151</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0288067</v>
+        <v>0.0286685</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0315677</v>
+        <v>0.0304884</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.052655</v>
+        <v>0.0525801</v>
       </c>
       <c r="C33" t="n">
-        <v>0.172449</v>
+        <v>0.171868</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0297497</v>
+        <v>0.0297467</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0327944</v>
+        <v>0.0317577</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0635469</v>
+        <v>0.0635669</v>
       </c>
       <c r="C34" t="n">
-        <v>0.176893</v>
+        <v>0.176261</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0337396</v>
+        <v>0.033529</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0370921</v>
+        <v>0.0363471</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0776283</v>
+        <v>0.0776101</v>
       </c>
       <c r="C35" t="n">
-        <v>0.123485</v>
+        <v>0.123446</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0422055</v>
+        <v>0.0421526</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04499</v>
+        <v>0.0444952</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101915</v>
+        <v>0.101943</v>
       </c>
       <c r="C36" t="n">
-        <v>0.128243</v>
+        <v>0.127881</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0535522</v>
+        <v>0.0535282</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0555956</v>
+        <v>0.0552827</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.133183</v>
+        <v>0.133226</v>
       </c>
       <c r="C37" t="n">
-        <v>0.132543</v>
+        <v>0.132258</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0261181</v>
+        <v>0.0257828</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0278021</v>
+        <v>0.0269205</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.032832</v>
+        <v>0.0327655</v>
       </c>
       <c r="C38" t="n">
-        <v>0.137535</v>
+        <v>0.137214</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0267817</v>
+        <v>0.0265147</v>
       </c>
       <c r="E38" t="n">
-        <v>0.028391</v>
+        <v>0.0274636</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0337466</v>
+        <v>0.0336645</v>
       </c>
       <c r="C39" t="n">
-        <v>0.142315</v>
+        <v>0.141981</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0271989</v>
+        <v>0.026966</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0288448</v>
+        <v>0.0282276</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0350827</v>
+        <v>0.0350362</v>
       </c>
       <c r="C40" t="n">
-        <v>0.146504</v>
+        <v>0.14616</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0275191</v>
+        <v>0.0274244</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0294318</v>
+        <v>0.028469</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0355086</v>
+        <v>0.0354555</v>
       </c>
       <c r="C41" t="n">
-        <v>0.151784</v>
+        <v>0.151418</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0278537</v>
+        <v>0.0277184</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0298623</v>
+        <v>0.0289102</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0367367</v>
+        <v>0.0368428</v>
       </c>
       <c r="C42" t="n">
-        <v>0.156329</v>
+        <v>0.156086</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0283653</v>
+        <v>0.0281459</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0305321</v>
+        <v>0.0296989</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0386436</v>
+        <v>0.0385928</v>
       </c>
       <c r="C43" t="n">
-        <v>0.160749</v>
+        <v>0.160406</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0291872</v>
+        <v>0.0291291</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0311777</v>
+        <v>0.0304997</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0397209</v>
+        <v>0.0398666</v>
       </c>
       <c r="C44" t="n">
-        <v>0.164857</v>
+        <v>0.164612</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0301631</v>
+        <v>0.0299494</v>
       </c>
       <c r="E44" t="n">
-        <v>0.031878</v>
+        <v>0.0315242</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.042721</v>
+        <v>0.0427026</v>
       </c>
       <c r="C45" t="n">
-        <v>0.168882</v>
+        <v>0.168646</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0308991</v>
+        <v>0.0308258</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0329082</v>
+        <v>0.0326736</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0470166</v>
+        <v>0.0469729</v>
       </c>
       <c r="C46" t="n">
-        <v>0.172804</v>
+        <v>0.172621</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0320767</v>
+        <v>0.0321519</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0345394</v>
+        <v>0.0343623</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0528874</v>
+        <v>0.052909</v>
       </c>
       <c r="C47" t="n">
-        <v>0.177065</v>
+        <v>0.1767</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0339222</v>
+        <v>0.0337766</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0366846</v>
+        <v>0.0365961</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0605526</v>
+        <v>0.0605327</v>
       </c>
       <c r="C48" t="n">
-        <v>0.181488</v>
+        <v>0.181323</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0370851</v>
+        <v>0.037158</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0404755</v>
+        <v>0.0405806</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0720624</v>
+        <v>0.0720958</v>
       </c>
       <c r="C49" t="n">
-        <v>0.185953</v>
+        <v>0.185768</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0423189</v>
+        <v>0.042349</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0454406</v>
+        <v>0.0455972</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0908774</v>
+        <v>0.0908177</v>
       </c>
       <c r="C50" t="n">
-        <v>0.130975</v>
+        <v>0.131</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0505123</v>
+        <v>0.0506876</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0529953</v>
+        <v>0.0529812</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.119002</v>
+        <v>0.118906</v>
       </c>
       <c r="C51" t="n">
-        <v>0.135583</v>
+        <v>0.135539</v>
       </c>
       <c r="D51" t="n">
-        <v>0.029517</v>
+        <v>0.0294711</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0298907</v>
+        <v>0.0307673</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165419</v>
+        <v>0.165227</v>
       </c>
       <c r="C52" t="n">
-        <v>0.140258</v>
+        <v>0.140496</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0300111</v>
+        <v>0.029557</v>
       </c>
       <c r="E52" t="n">
-        <v>0.030171</v>
+        <v>0.0311004</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.035388</v>
+        <v>0.0363509</v>
       </c>
       <c r="C53" t="n">
-        <v>0.145193</v>
+        <v>0.1452</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0293808</v>
+        <v>0.0294739</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0310756</v>
+        <v>0.0318316</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0362758</v>
+        <v>0.0368442</v>
       </c>
       <c r="C54" t="n">
-        <v>0.150153</v>
+        <v>0.150164</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0310067</v>
+        <v>0.0306617</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0312286</v>
+        <v>0.0322431</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0369805</v>
+        <v>0.0378606</v>
       </c>
       <c r="C55" t="n">
-        <v>0.154557</v>
+        <v>0.154646</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0315635</v>
+        <v>0.0312385</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0317839</v>
+        <v>0.032789</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0379459</v>
+        <v>0.0388131</v>
       </c>
       <c r="C56" t="n">
-        <v>0.158994</v>
+        <v>0.159607</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0316526</v>
+        <v>0.0320176</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0327013</v>
+        <v>0.0336851</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0391931</v>
+        <v>0.039704</v>
       </c>
       <c r="C57" t="n">
-        <v>0.163278</v>
+        <v>0.163749</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0328151</v>
+        <v>0.0326253</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0334614</v>
+        <v>0.0343704</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0416321</v>
+        <v>0.0430122</v>
       </c>
       <c r="C58" t="n">
-        <v>0.167399</v>
+        <v>0.167881</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0329936</v>
+        <v>0.0336716</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0348912</v>
+        <v>0.0358542</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0441034</v>
+        <v>0.0441243</v>
       </c>
       <c r="C59" t="n">
-        <v>0.171351</v>
+        <v>0.172187</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0341045</v>
+        <v>0.0338169</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0363635</v>
+        <v>0.0360738</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0471271</v>
+        <v>0.047768</v>
       </c>
       <c r="C60" t="n">
-        <v>0.175167</v>
+        <v>0.176437</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0346307</v>
+        <v>0.0346472</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0373009</v>
+        <v>0.0380786</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0530972</v>
+        <v>0.0531357</v>
       </c>
       <c r="C61" t="n">
-        <v>0.179822</v>
+        <v>0.180842</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0359278</v>
+        <v>0.0363827</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0395078</v>
+        <v>0.0393895</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0606478</v>
+        <v>0.0612767</v>
       </c>
       <c r="C62" t="n">
-        <v>0.184275</v>
+        <v>0.185463</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0385514</v>
+        <v>0.0389697</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0427578</v>
+        <v>0.0430339</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0717115</v>
+        <v>0.07226539999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.189189</v>
+        <v>0.190712</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0432448</v>
+        <v>0.0436277</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0477207</v>
+        <v>0.0483334</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08861049999999999</v>
+        <v>0.0886656</v>
       </c>
       <c r="C64" t="n">
-        <v>0.139472</v>
+        <v>0.142975</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0509956</v>
+        <v>0.0505704</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0549597</v>
+        <v>0.0544434</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.114734</v>
+        <v>0.114969</v>
       </c>
       <c r="C65" t="n">
-        <v>0.143278</v>
+        <v>0.148463</v>
       </c>
       <c r="D65" t="n">
-        <v>0.064544</v>
+        <v>0.0650029</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0676493</v>
+        <v>0.0676182</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.156068</v>
+        <v>0.156205</v>
       </c>
       <c r="C66" t="n">
-        <v>0.150407</v>
+        <v>0.155744</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0339577</v>
+        <v>0.0343094</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0370064</v>
+        <v>0.0369149</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.041039</v>
+        <v>0.0405106</v>
       </c>
       <c r="C67" t="n">
-        <v>0.158539</v>
+        <v>0.164665</v>
       </c>
       <c r="D67" t="n">
-        <v>0.034567</v>
+        <v>0.0347945</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0376909</v>
+        <v>0.0376655</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0413303</v>
+        <v>0.0415056</v>
       </c>
       <c r="C68" t="n">
-        <v>0.166132</v>
+        <v>0.172802</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0352507</v>
+        <v>0.0354732</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0382818</v>
+        <v>0.038143</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0426724</v>
+        <v>0.0428091</v>
       </c>
       <c r="C69" t="n">
-        <v>0.173283</v>
+        <v>0.181383</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0356537</v>
+        <v>0.0360446</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0389823</v>
+        <v>0.0388361</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0434703</v>
+        <v>0.0434215</v>
       </c>
       <c r="C70" t="n">
-        <v>0.180967</v>
+        <v>0.190605</v>
       </c>
       <c r="D70" t="n">
-        <v>0.036328</v>
+        <v>0.0367359</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0397853</v>
+        <v>0.0396343</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.044919</v>
+        <v>0.045</v>
       </c>
       <c r="C71" t="n">
-        <v>0.189016</v>
+        <v>0.19989</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0369724</v>
+        <v>0.0367186</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0404239</v>
+        <v>0.0408215</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0462471</v>
+        <v>0.0462108</v>
       </c>
       <c r="C72" t="n">
-        <v>0.197985</v>
+        <v>0.209842</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0377764</v>
+        <v>0.0374924</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0415753</v>
+        <v>0.0419713</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0484317</v>
+        <v>0.0482823</v>
       </c>
       <c r="C73" t="n">
-        <v>0.208274</v>
+        <v>0.220905</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0385784</v>
+        <v>0.038268</v>
       </c>
       <c r="E73" t="n">
-        <v>0.042877</v>
+        <v>0.0432789</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0516209</v>
+        <v>0.0518017</v>
       </c>
       <c r="C74" t="n">
-        <v>0.221031</v>
+        <v>0.231111</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0390604</v>
+        <v>0.0394055</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0445298</v>
+        <v>0.0449141</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0561286</v>
+        <v>0.0563131</v>
       </c>
       <c r="C75" t="n">
-        <v>0.233017</v>
+        <v>0.243294</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0400988</v>
+        <v>0.0403492</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0468096</v>
+        <v>0.0472075</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0626623</v>
+        <v>0.0630561</v>
       </c>
       <c r="C76" t="n">
-        <v>0.245191</v>
+        <v>0.256099</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0421601</v>
+        <v>0.0423614</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0501047</v>
+        <v>0.0507873</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0723483</v>
+        <v>0.07303659999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.260676</v>
+        <v>0.267888</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0460827</v>
+        <v>0.0464536</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0536144</v>
+        <v>0.0549548</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0873157</v>
+        <v>0.0884124</v>
       </c>
       <c r="C78" t="n">
-        <v>0.218548</v>
+        <v>0.219163</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0525236</v>
+        <v>0.0530372</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0602544</v>
+        <v>0.0635503</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112351</v>
+        <v>0.113718</v>
       </c>
       <c r="C79" t="n">
-        <v>0.230424</v>
+        <v>0.231408</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0643056</v>
+        <v>0.0650641</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0718535</v>
+        <v>0.0753658</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.151495</v>
+        <v>0.153188</v>
       </c>
       <c r="C80" t="n">
-        <v>0.243269</v>
+        <v>0.243637</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0383571</v>
+        <v>0.0382487</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0422009</v>
+        <v>0.0434722</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0464258</v>
+        <v>0.047761</v>
       </c>
       <c r="C81" t="n">
-        <v>0.256199</v>
+        <v>0.25562</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0388906</v>
+        <v>0.0385942</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0426897</v>
+        <v>0.0446644</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0471581</v>
+        <v>0.0483987</v>
       </c>
       <c r="C82" t="n">
-        <v>0.268637</v>
+        <v>0.268057</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0395267</v>
+        <v>0.0393607</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0434003</v>
+        <v>0.0461133</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0480949</v>
+        <v>0.0499613</v>
       </c>
       <c r="C83" t="n">
-        <v>0.281467</v>
+        <v>0.28057</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0401038</v>
+        <v>0.0401901</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0443421</v>
+        <v>0.0478246</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0495099</v>
+        <v>0.0517841</v>
       </c>
       <c r="C84" t="n">
-        <v>0.294883</v>
+        <v>0.293651</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0406428</v>
+        <v>0.0411085</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0453822</v>
+        <v>0.0498707</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0511814</v>
+        <v>0.054668</v>
       </c>
       <c r="C85" t="n">
-        <v>0.30872</v>
+        <v>0.307203</v>
       </c>
       <c r="D85" t="n">
-        <v>0.041585</v>
+        <v>0.0413542</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0470783</v>
+        <v>0.0520966</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0527736</v>
+        <v>0.0584549</v>
       </c>
       <c r="C86" t="n">
-        <v>0.321965</v>
+        <v>0.321051</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0424746</v>
+        <v>0.0427922</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0489833</v>
+        <v>0.0555798</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0558464</v>
+        <v>0.0617523</v>
       </c>
       <c r="C87" t="n">
-        <v>0.336571</v>
+        <v>0.335925</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0433893</v>
+        <v>0.0447175</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0520011</v>
+        <v>0.059521</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0596946</v>
+        <v>0.06657059999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.350992</v>
+        <v>0.350536</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0445688</v>
+        <v>0.0483311</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0550883</v>
+        <v>0.0649356</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06507209999999999</v>
+        <v>0.0731084</v>
       </c>
       <c r="C89" t="n">
-        <v>0.366821</v>
+        <v>0.366583</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0457468</v>
+        <v>0.0506613</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0592997</v>
+        <v>0.0702709</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0728804</v>
+        <v>0.08145670000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.382952</v>
+        <v>0.383015</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0480262</v>
+        <v>0.0543439</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0663649</v>
+        <v>0.0774094</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0831326</v>
+        <v>0.0919407</v>
       </c>
       <c r="C91" t="n">
-        <v>0.39979</v>
+        <v>0.399651</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0525451</v>
+        <v>0.0601484</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0752094</v>
+        <v>0.0855129</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.100263</v>
+        <v>0.108304</v>
       </c>
       <c r="C92" t="n">
-        <v>0.323526</v>
+        <v>0.321284</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0597904</v>
+        <v>0.0677083</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0878091</v>
+        <v>0.09514640000000001</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.125257</v>
+        <v>0.129838</v>
       </c>
       <c r="C93" t="n">
-        <v>0.334892</v>
+        <v>0.332722</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0726678</v>
+        <v>0.0781563</v>
       </c>
       <c r="E93" t="n">
-        <v>0.107736</v>
+        <v>0.1105</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.16157</v>
+        <v>0.16209</v>
       </c>
       <c r="C94" t="n">
-        <v>0.346017</v>
+        <v>0.343888</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0428156</v>
+        <v>0.0487892</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0547532</v>
+        <v>0.0620137</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0588087</v>
+        <v>0.06598660000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.357196</v>
+        <v>0.355462</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0442897</v>
+        <v>0.0507893</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0582612</v>
+        <v>0.0646969</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0621997</v>
+        <v>0.06958209999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.36913</v>
+        <v>0.367486</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0460818</v>
+        <v>0.0513325</v>
       </c>
       <c r="E96" t="n">
-        <v>0.06292780000000001</v>
+        <v>0.0692903</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0663697</v>
+        <v>0.0716068</v>
       </c>
       <c r="C97" t="n">
-        <v>0.381177</v>
+        <v>0.379662</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0481127</v>
+        <v>0.0545574</v>
       </c>
       <c r="E97" t="n">
-        <v>0.06831470000000001</v>
+        <v>0.07120849999999999</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0705451</v>
+        <v>0.07448009999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.393207</v>
+        <v>0.391669</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0509223</v>
+        <v>0.0551511</v>
       </c>
       <c r="E98" t="n">
-        <v>0.07381310000000001</v>
+        <v>0.0753346</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0752694</v>
+        <v>0.0772867</v>
       </c>
       <c r="C99" t="n">
-        <v>0.406194</v>
+        <v>0.404416</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0540188</v>
+        <v>0.0591956</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0800256</v>
+        <v>0.0781313</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0808532</v>
+        <v>0.0804163</v>
       </c>
       <c r="C100" t="n">
-        <v>0.419532</v>
+        <v>0.418195</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0577372</v>
+        <v>0.0609345</v>
       </c>
       <c r="E100" t="n">
-        <v>0.08640059999999999</v>
+        <v>0.0816018</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08695559999999999</v>
+        <v>0.0843086</v>
       </c>
       <c r="C101" t="n">
-        <v>0.433458</v>
+        <v>0.431818</v>
       </c>
       <c r="D101" t="n">
-        <v>0.061803</v>
+        <v>0.06320190000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0928611</v>
+        <v>0.08496099999999999</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0940048</v>
+        <v>0.0888077</v>
       </c>
       <c r="C102" t="n">
-        <v>0.448244</v>
+        <v>0.446584</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0653615</v>
+        <v>0.0650298</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0991773</v>
+        <v>0.0891144</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.10145</v>
+        <v>0.0951278</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4633</v>
+        <v>0.462208</v>
       </c>
       <c r="D103" t="n">
-        <v>0.06936970000000001</v>
+        <v>0.06731239999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>0.106523</v>
+        <v>0.0953027</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.110142</v>
+        <v>0.102978</v>
       </c>
       <c r="C104" t="n">
-        <v>0.479428</v>
+        <v>0.480023</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07324840000000001</v>
+        <v>0.0701461</v>
       </c>
       <c r="E104" t="n">
-        <v>0.114222</v>
+        <v>0.101596</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.120892</v>
+        <v>0.113543</v>
       </c>
       <c r="C105" t="n">
-        <v>0.496256</v>
+        <v>0.496618</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0787235</v>
+        <v>0.0741783</v>
       </c>
       <c r="E105" t="n">
-        <v>0.123211</v>
+        <v>0.111622</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.135029</v>
+        <v>0.128675</v>
       </c>
       <c r="C106" t="n">
-        <v>0.513576</v>
+        <v>0.512649</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0867483</v>
+        <v>0.0819985</v>
       </c>
       <c r="E106" t="n">
-        <v>0.133396</v>
+        <v>0.124008</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.154333</v>
+        <v>0.149117</v>
       </c>
       <c r="C107" t="n">
-        <v>0.388438</v>
+        <v>0.38857</v>
       </c>
       <c r="D107" t="n">
-        <v>0.099493</v>
+        <v>0.0932501</v>
       </c>
       <c r="E107" t="n">
-        <v>0.148627</v>
+        <v>0.141759</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.182981</v>
+        <v>0.17957</v>
       </c>
       <c r="C108" t="n">
-        <v>0.399112</v>
+        <v>0.399307</v>
       </c>
       <c r="D108" t="n">
-        <v>0.062803</v>
+        <v>0.0575421</v>
       </c>
       <c r="E108" t="n">
-        <v>0.09004330000000001</v>
+        <v>0.07705869999999999</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.227663</v>
+        <v>0.225416</v>
       </c>
       <c r="C109" t="n">
-        <v>0.409972</v>
+        <v>0.410464</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0647779</v>
+        <v>0.0583464</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0929241</v>
+        <v>0.0806021</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.09121269999999999</v>
+        <v>0.0792456</v>
       </c>
       <c r="C110" t="n">
-        <v>0.420933</v>
+        <v>0.421599</v>
       </c>
       <c r="D110" t="n">
-        <v>0.066897</v>
+        <v>0.0582055</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0959786</v>
+        <v>0.0844138</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0939468</v>
+        <v>0.0840081</v>
       </c>
       <c r="C111" t="n">
-        <v>0.432565</v>
+        <v>0.433155</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0687879</v>
+        <v>0.0594863</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0993211</v>
+        <v>0.0883649</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0967213</v>
+        <v>0.087216</v>
       </c>
       <c r="C112" t="n">
-        <v>0.444447</v>
+        <v>0.444785</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0708572</v>
+        <v>0.06337950000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>0.102162</v>
+        <v>0.0934272</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.100044</v>
+        <v>0.091049</v>
       </c>
       <c r="C113" t="n">
-        <v>0.456887</v>
+        <v>0.457346</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0725572</v>
+        <v>0.0658009</v>
       </c>
       <c r="E113" t="n">
-        <v>0.105398</v>
+        <v>0.0983808</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.103321</v>
+        <v>0.09564449999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.469305</v>
+        <v>0.47008</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0751269</v>
+        <v>0.0681026</v>
       </c>
       <c r="E114" t="n">
-        <v>0.109008</v>
+        <v>0.103363</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.106888</v>
+        <v>0.100594</v>
       </c>
       <c r="C115" t="n">
-        <v>0.482828</v>
+        <v>0.483201</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07762139999999999</v>
+        <v>0.0720319</v>
       </c>
       <c r="E115" t="n">
-        <v>0.112841</v>
+        <v>0.108784</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.111433</v>
+        <v>0.106173</v>
       </c>
       <c r="C116" t="n">
-        <v>0.496665</v>
+        <v>0.497529</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0800506</v>
+        <v>0.0754638</v>
       </c>
       <c r="E116" t="n">
-        <v>0.117124</v>
+        <v>0.113678</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.116679</v>
+        <v>0.112739</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5114570000000001</v>
+        <v>0.5122139999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.082817</v>
+        <v>0.0788794</v>
       </c>
       <c r="E117" t="n">
-        <v>0.122164</v>
+        <v>0.119478</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123938</v>
+        <v>0.121032</v>
       </c>
       <c r="C118" t="n">
-        <v>0.526998</v>
+        <v>0.527906</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0856397</v>
+        <v>0.0802094</v>
       </c>
       <c r="E118" t="n">
-        <v>0.128077</v>
+        <v>0.125516</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.132945</v>
+        <v>0.129308</v>
       </c>
       <c r="C119" t="n">
-        <v>0.543943</v>
+        <v>0.53981</v>
       </c>
       <c r="D119" t="n">
-        <v>0.08982270000000001</v>
+        <v>0.0866634</v>
       </c>
       <c r="E119" t="n">
-        <v>0.136008</v>
+        <v>0.134484</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.145709</v>
+        <v>0.144246</v>
       </c>
       <c r="C120" t="n">
-        <v>0.560817</v>
+        <v>0.558568</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0965882</v>
+        <v>0.09202200000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>0.146203</v>
+        <v>0.143815</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163279</v>
+        <v>0.160402</v>
       </c>
       <c r="C121" t="n">
-        <v>0.416002</v>
+        <v>0.416869</v>
       </c>
       <c r="D121" t="n">
-        <v>0.106335</v>
+        <v>0.104814</v>
       </c>
       <c r="E121" t="n">
-        <v>0.159781</v>
+        <v>0.15988</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.189375</v>
+        <v>0.188969</v>
       </c>
       <c r="C122" t="n">
-        <v>0.426914</v>
+        <v>0.427243</v>
       </c>
       <c r="D122" t="n">
-        <v>0.123047</v>
+        <v>0.122611</v>
       </c>
       <c r="E122" t="n">
-        <v>0.182562</v>
+        <v>0.180788</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.230052</v>
+        <v>0.227191</v>
       </c>
       <c r="C123" t="n">
-        <v>0.437847</v>
+        <v>0.438848</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0784043</v>
+        <v>0.0775054</v>
       </c>
       <c r="E123" t="n">
-        <v>0.10542</v>
+        <v>0.107553</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103733</v>
+        <v>0.103379</v>
       </c>
       <c r="C124" t="n">
-        <v>0.449355</v>
+        <v>0.449838</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0781744</v>
+        <v>0.0834273</v>
       </c>
       <c r="E124" t="n">
-        <v>0.108738</v>
+        <v>0.110757</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.107325</v>
+        <v>0.102366</v>
       </c>
       <c r="C125" t="n">
-        <v>0.461411</v>
+        <v>0.458836</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0807705</v>
+        <v>0.0846282</v>
       </c>
       <c r="E125" t="n">
-        <v>0.112135</v>
+        <v>0.110027</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.107767</v>
+        <v>0.110088</v>
       </c>
       <c r="C126" t="n">
-        <v>0.473296</v>
+        <v>0.473862</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0811837</v>
+        <v>0.0784836</v>
       </c>
       <c r="E126" t="n">
-        <v>0.115662</v>
+        <v>0.117375</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110428</v>
+        <v>0.110035</v>
       </c>
       <c r="C127" t="n">
-        <v>0.485658</v>
+        <v>0.486407</v>
       </c>
       <c r="D127" t="n">
-        <v>0.08588179999999999</v>
+        <v>0.0847883</v>
       </c>
       <c r="E127" t="n">
-        <v>0.120484</v>
+        <v>0.119734</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.113297</v>
+        <v>0.11391</v>
       </c>
       <c r="C128" t="n">
-        <v>0.498905</v>
+        <v>0.49946</v>
       </c>
       <c r="D128" t="n">
-        <v>0.08429929999999999</v>
+        <v>0.08556130000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>0.12246</v>
+        <v>0.122901</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.115215</v>
+        <v>0.114823</v>
       </c>
       <c r="C129" t="n">
-        <v>0.511672</v>
+        <v>0.512246</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0887806</v>
+        <v>0.0873312</v>
       </c>
       <c r="E129" t="n">
-        <v>0.127838</v>
+        <v>0.124963</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.119885</v>
+        <v>0.120664</v>
       </c>
       <c r="C130" t="n">
-        <v>0.525777</v>
+        <v>0.526415</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0911257</v>
+        <v>0.0920956</v>
       </c>
       <c r="E130" t="n">
-        <v>0.131959</v>
+        <v>0.132935</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126106</v>
+        <v>0.124439</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5397189999999999</v>
+        <v>0.541008</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0926343</v>
+        <v>0.0947834</v>
       </c>
       <c r="E131" t="n">
-        <v>0.135747</v>
+        <v>0.137665</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.131615</v>
+        <v>0.13123</v>
       </c>
       <c r="C132" t="n">
-        <v>0.55564</v>
+        <v>0.556709</v>
       </c>
       <c r="D132" t="n">
-        <v>0.09544279999999999</v>
+        <v>0.0990641</v>
       </c>
       <c r="E132" t="n">
-        <v>0.141932</v>
+        <v>0.143387</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.140853</v>
+        <v>0.13633</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5720190000000001</v>
+        <v>0.570813</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0992369</v>
+        <v>0.0955488</v>
       </c>
       <c r="E133" t="n">
-        <v>0.149872</v>
+        <v>0.146572</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.153132</v>
+        <v>0.147936</v>
       </c>
       <c r="C134" t="n">
-        <v>0.589213</v>
+        <v>0.590525</v>
       </c>
       <c r="D134" t="n">
-        <v>0.105856</v>
+        <v>0.105385</v>
       </c>
       <c r="E134" t="n">
-        <v>0.158773</v>
+        <v>0.156254</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.170515</v>
+        <v>0.169577</v>
       </c>
       <c r="C135" t="n">
-        <v>0.432396</v>
+        <v>0.431098</v>
       </c>
       <c r="D135" t="n">
-        <v>0.114711</v>
+        <v>0.11107</v>
       </c>
       <c r="E135" t="n">
-        <v>0.173166</v>
+        <v>0.173782</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194289</v>
+        <v>0.194706</v>
       </c>
       <c r="C136" t="n">
-        <v>0.44394</v>
+        <v>0.442463</v>
       </c>
       <c r="D136" t="n">
-        <v>0.129452</v>
+        <v>0.127706</v>
       </c>
       <c r="E136" t="n">
-        <v>0.193707</v>
+        <v>0.191301</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.233117</v>
+        <v>0.230692</v>
       </c>
       <c r="C137" t="n">
-        <v>0.455131</v>
+        <v>0.455984</v>
       </c>
       <c r="D137" t="n">
-        <v>0.142859</v>
+        <v>0.142747</v>
       </c>
       <c r="E137" t="n">
-        <v>0.172156</v>
+        <v>0.164703</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1674</v>
+        <v>0.169369</v>
       </c>
       <c r="C138" t="n">
-        <v>0.466594</v>
+        <v>0.467465</v>
       </c>
       <c r="D138" t="n">
-        <v>0.143467</v>
+        <v>0.136165</v>
       </c>
       <c r="E138" t="n">
-        <v>0.175455</v>
+        <v>0.173945</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169518</v>
+        <v>0.168744</v>
       </c>
       <c r="C139" t="n">
-        <v>0.478322</v>
+        <v>0.479265</v>
       </c>
       <c r="D139" t="n">
-        <v>0.145124</v>
+        <v>0.136038</v>
       </c>
       <c r="E139" t="n">
-        <v>0.177277</v>
+        <v>0.177824</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.171439</v>
+        <v>0.169572</v>
       </c>
       <c r="C140" t="n">
-        <v>0.490055</v>
+        <v>0.488883</v>
       </c>
       <c r="D140" t="n">
-        <v>0.146382</v>
+        <v>0.146989</v>
       </c>
       <c r="E140" t="n">
-        <v>0.18145</v>
+        <v>0.180723</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.173672</v>
+        <v>0.165255</v>
       </c>
       <c r="C141" t="n">
-        <v>0.502655</v>
+        <v>0.503512</v>
       </c>
       <c r="D141" t="n">
-        <v>0.148244</v>
+        <v>0.146252</v>
       </c>
       <c r="E141" t="n">
-        <v>0.183435</v>
+        <v>0.183731</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.175544</v>
+        <v>0.173705</v>
       </c>
       <c r="C142" t="n">
-        <v>0.515332</v>
+        <v>0.516361</v>
       </c>
       <c r="D142" t="n">
-        <v>0.149089</v>
+        <v>0.141754</v>
       </c>
       <c r="E142" t="n">
-        <v>0.186827</v>
+        <v>0.185673</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.177772</v>
+        <v>0.176815</v>
       </c>
       <c r="C143" t="n">
-        <v>0.5285879999999999</v>
+        <v>0.527329</v>
       </c>
       <c r="D143" t="n">
-        <v>0.150421</v>
+        <v>0.151636</v>
       </c>
       <c r="E143" t="n">
-        <v>0.189532</v>
+        <v>0.189279</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0323551</v>
+        <v>0.034737</v>
       </c>
       <c r="C2" t="n">
-        <v>0.124463</v>
+        <v>0.0345269</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0234896</v>
+        <v>0.120608</v>
       </c>
       <c r="E2" t="n">
-        <v>0.023691</v>
+        <v>0.0228921</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0237537</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0329332</v>
+        <v>0.035176</v>
       </c>
       <c r="C3" t="n">
-        <v>0.127974</v>
+        <v>0.0365862</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0233362</v>
+        <v>0.127332</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0237115</v>
+        <v>0.023015</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0239137</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0348626</v>
+        <v>0.0383733</v>
       </c>
       <c r="C4" t="n">
-        <v>0.132024</v>
+        <v>0.0393248</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0235155</v>
+        <v>0.132856</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0241338</v>
+        <v>0.0233848</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0244581</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0395559</v>
+        <v>0.0436998</v>
       </c>
       <c r="C5" t="n">
-        <v>0.138718</v>
+        <v>0.0428871</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0226047</v>
+        <v>0.138378</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0240785</v>
+        <v>0.0204967</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0240604</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0515275</v>
+        <v>0.0546154</v>
       </c>
       <c r="C6" t="n">
-        <v>0.144591</v>
+        <v>0.0562587</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0229171</v>
+        <v>0.143918</v>
       </c>
       <c r="E6" t="n">
-        <v>0.024561</v>
+        <v>0.0230079</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0247394</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0747775</v>
+        <v>0.07401969999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.102106</v>
+        <v>0.0744523</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0288761</v>
+        <v>0.10097</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0288461</v>
+        <v>0.0274201</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0303684</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.103721</v>
+        <v>0.109059</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1072</v>
+        <v>0.107812</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0474433</v>
+        <v>0.107008</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0474507</v>
+        <v>0.0473875</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0482159</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149201</v>
+        <v>0.148911</v>
       </c>
       <c r="C9" t="n">
-        <v>0.111898</v>
+        <v>0.150775</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0236579</v>
+        <v>0.111862</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0234365</v>
+        <v>0.0228925</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0238693</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0305976</v>
+        <v>0.0325593</v>
       </c>
       <c r="C10" t="n">
-        <v>0.117001</v>
+        <v>0.0330847</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0237777</v>
+        <v>0.117119</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0237463</v>
+        <v>0.0230997</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0240321</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0308909</v>
+        <v>0.032972</v>
       </c>
       <c r="C11" t="n">
-        <v>0.122328</v>
+        <v>0.0337151</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0239519</v>
+        <v>0.121724</v>
       </c>
       <c r="E11" t="n">
-        <v>0.024122</v>
+        <v>0.0232443</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0243327</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0313429</v>
+        <v>0.0334804</v>
       </c>
       <c r="C12" t="n">
-        <v>0.127198</v>
+        <v>0.0343544</v>
       </c>
       <c r="D12" t="n">
-        <v>0.024189</v>
+        <v>0.12695</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0243174</v>
+        <v>0.0233268</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0246328</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0324748</v>
+        <v>0.0339761</v>
       </c>
       <c r="C13" t="n">
-        <v>0.131636</v>
+        <v>0.0351389</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0243243</v>
+        <v>0.130885</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02484</v>
+        <v>0.0235458</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0249934</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0333443</v>
+        <v>0.0346986</v>
       </c>
       <c r="C14" t="n">
-        <v>0.136057</v>
+        <v>0.0358069</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0244319</v>
+        <v>0.13574</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0250246</v>
+        <v>0.0235078</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0250975</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0341028</v>
+        <v>0.0355812</v>
       </c>
       <c r="C15" t="n">
-        <v>0.140617</v>
+        <v>0.0369515</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0248614</v>
+        <v>0.140356</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0252431</v>
+        <v>0.0238217</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0254751</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0357133</v>
+        <v>0.036778</v>
       </c>
       <c r="C16" t="n">
-        <v>0.144734</v>
+        <v>0.0382403</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0250386</v>
+        <v>0.144851</v>
       </c>
       <c r="E16" t="n">
-        <v>0.025925</v>
+        <v>0.0240548</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0257868</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0370915</v>
+        <v>0.0390297</v>
       </c>
       <c r="C17" t="n">
-        <v>0.150196</v>
+        <v>0.0400109</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0252795</v>
+        <v>0.149858</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0265009</v>
+        <v>0.0243949</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0258237</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0423681</v>
+        <v>0.0416878</v>
       </c>
       <c r="C18" t="n">
-        <v>0.154561</v>
+        <v>0.0437513</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0249804</v>
+        <v>0.154385</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0266785</v>
+        <v>0.0245632</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0261276</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0500794</v>
+        <v>0.0487434</v>
       </c>
       <c r="C19" t="n">
-        <v>0.160081</v>
+        <v>0.0509142</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0243788</v>
+        <v>0.159465</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0267822</v>
+        <v>0.0243851</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0275265</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0599966</v>
+        <v>0.0604591</v>
       </c>
       <c r="C20" t="n">
-        <v>0.164521</v>
+        <v>0.059777</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0285201</v>
+        <v>0.163955</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0308859</v>
+        <v>0.0287289</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0312793</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0782567</v>
+        <v>0.0736131</v>
       </c>
       <c r="C21" t="n">
-        <v>0.117826</v>
+        <v>0.0755092</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0381812</v>
+        <v>0.117914</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0396371</v>
+        <v>0.0380326</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0399036</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.105352</v>
+        <v>0.09834089999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.122215</v>
+        <v>0.100176</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0576399</v>
+        <v>0.122453</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0577325</v>
+        <v>0.0564626</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0567673</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.144647</v>
+        <v>0.133418</v>
       </c>
       <c r="C23" t="n">
-        <v>0.126505</v>
+        <v>0.134889</v>
       </c>
       <c r="D23" t="n">
-        <v>0.024933</v>
+        <v>0.126461</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0257356</v>
+        <v>0.0240089</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.025097</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0325504</v>
+        <v>0.0338669</v>
       </c>
       <c r="C24" t="n">
-        <v>0.131321</v>
+        <v>0.0359751</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0252147</v>
+        <v>0.131557</v>
       </c>
       <c r="E24" t="n">
-        <v>0.025826</v>
+        <v>0.0242981</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0256958</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0331597</v>
+        <v>0.0340274</v>
       </c>
       <c r="C25" t="n">
-        <v>0.135391</v>
+        <v>0.0368211</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0256792</v>
+        <v>0.135658</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0263041</v>
+        <v>0.024434</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0260499</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0337624</v>
+        <v>0.0351203</v>
       </c>
       <c r="C26" t="n">
-        <v>0.139478</v>
+        <v>0.0375803</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0257542</v>
+        <v>0.140024</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0265451</v>
+        <v>0.0246383</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0263901</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0345633</v>
+        <v>0.0357261</v>
       </c>
       <c r="C27" t="n">
-        <v>0.144282</v>
+        <v>0.0386356</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0263562</v>
+        <v>0.144847</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0271428</v>
+        <v>0.0249864</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0269239</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.035833</v>
+        <v>0.0365765</v>
       </c>
       <c r="C28" t="n">
-        <v>0.149389</v>
+        <v>0.0394979</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0266663</v>
+        <v>0.149494</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0276029</v>
+        <v>0.0253196</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0275712</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0362486</v>
+        <v>0.0376096</v>
       </c>
       <c r="C29" t="n">
-        <v>0.154007</v>
+        <v>0.0408275</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0272423</v>
+        <v>0.154813</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0281509</v>
+        <v>0.0258935</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0282083</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0383362</v>
+        <v>0.0394189</v>
       </c>
       <c r="C30" t="n">
-        <v>0.158895</v>
+        <v>0.0430276</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0275499</v>
+        <v>0.158242</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0289121</v>
+        <v>0.0260906</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0286963</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0408909</v>
+        <v>0.041858</v>
       </c>
       <c r="C31" t="n">
-        <v>0.162872</v>
+        <v>0.044979</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0284467</v>
+        <v>0.162889</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0296411</v>
+        <v>0.0268501</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0297621</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0454349</v>
+        <v>0.0457734</v>
       </c>
       <c r="C32" t="n">
-        <v>0.167151</v>
+        <v>0.0495755</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0286685</v>
+        <v>0.167339</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0304884</v>
+        <v>0.0274865</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0303791</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0525801</v>
+        <v>0.0513509</v>
       </c>
       <c r="C33" t="n">
-        <v>0.171868</v>
+        <v>0.0539475</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0297467</v>
+        <v>0.171999</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0317577</v>
+        <v>0.0286586</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0318818</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0635669</v>
+        <v>0.0614845</v>
       </c>
       <c r="C34" t="n">
-        <v>0.176261</v>
+        <v>0.0652088</v>
       </c>
       <c r="D34" t="n">
-        <v>0.033529</v>
+        <v>0.176499</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0363471</v>
+        <v>0.0333922</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0363083</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0776101</v>
+        <v>0.07413649999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.123446</v>
+        <v>0.0764027</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0421526</v>
+        <v>0.123641</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0444952</v>
+        <v>0.0418615</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0439217</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101943</v>
+        <v>0.0960638</v>
       </c>
       <c r="C36" t="n">
-        <v>0.127881</v>
+        <v>0.0965478</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0535282</v>
+        <v>0.128085</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0552827</v>
+        <v>0.0532913</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0547109</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.133226</v>
+        <v>0.127917</v>
       </c>
       <c r="C37" t="n">
-        <v>0.132258</v>
+        <v>0.128824</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0257828</v>
+        <v>0.132539</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0269205</v>
+        <v>0.0247227</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0268814</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0327655</v>
+        <v>0.0342812</v>
       </c>
       <c r="C38" t="n">
-        <v>0.137214</v>
+        <v>0.0378359</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0265147</v>
+        <v>0.137255</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0274636</v>
+        <v>0.0251318</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0274569</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0336645</v>
+        <v>0.0348093</v>
       </c>
       <c r="C39" t="n">
-        <v>0.141981</v>
+        <v>0.0385311</v>
       </c>
       <c r="D39" t="n">
-        <v>0.026966</v>
+        <v>0.142144</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0282276</v>
+        <v>0.0254176</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0280152</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0350362</v>
+        <v>0.0356082</v>
       </c>
       <c r="C40" t="n">
-        <v>0.14616</v>
+        <v>0.0395302</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0274244</v>
+        <v>0.146568</v>
       </c>
       <c r="E40" t="n">
-        <v>0.028469</v>
+        <v>0.0256956</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0283659</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0354555</v>
+        <v>0.0363343</v>
       </c>
       <c r="C41" t="n">
-        <v>0.151418</v>
+        <v>0.0406507</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0277184</v>
+        <v>0.151594</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0289102</v>
+        <v>0.0260352</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0290142</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0368428</v>
+        <v>0.0373682</v>
       </c>
       <c r="C42" t="n">
-        <v>0.156086</v>
+        <v>0.0417304</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0281459</v>
+        <v>0.156311</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0296989</v>
+        <v>0.0263671</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0297224</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0385928</v>
+        <v>0.0386841</v>
       </c>
       <c r="C43" t="n">
-        <v>0.160406</v>
+        <v>0.0430288</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0291291</v>
+        <v>0.1608</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0304997</v>
+        <v>0.027019</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.030626</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0398666</v>
+        <v>0.0403846</v>
       </c>
       <c r="C44" t="n">
-        <v>0.164612</v>
+        <v>0.0448693</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0299494</v>
+        <v>0.164855</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0315242</v>
+        <v>0.0278055</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0315288</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0427026</v>
+        <v>0.0433266</v>
       </c>
       <c r="C45" t="n">
-        <v>0.168646</v>
+        <v>0.0473037</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0308258</v>
+        <v>0.168749</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0326736</v>
+        <v>0.0287763</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0325667</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0469729</v>
+        <v>0.046585</v>
       </c>
       <c r="C46" t="n">
-        <v>0.172621</v>
+        <v>0.0508708</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0321519</v>
+        <v>0.172768</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0343623</v>
+        <v>0.0303203</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0341996</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.052909</v>
+        <v>0.0521572</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1767</v>
+        <v>0.0561757</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0337766</v>
+        <v>0.176876</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0365961</v>
+        <v>0.0325589</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0361836</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0605327</v>
+        <v>0.0607339</v>
       </c>
       <c r="C48" t="n">
-        <v>0.181323</v>
+        <v>0.0633156</v>
       </c>
       <c r="D48" t="n">
-        <v>0.037158</v>
+        <v>0.18159</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0405806</v>
+        <v>0.0366932</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0399465</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0720958</v>
+        <v>0.07503990000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.185768</v>
+        <v>0.0767263</v>
       </c>
       <c r="D49" t="n">
-        <v>0.042349</v>
+        <v>0.185757</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0455972</v>
+        <v>0.0421506</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0449691</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0908177</v>
+        <v>0.092335</v>
       </c>
       <c r="C50" t="n">
-        <v>0.131</v>
+        <v>0.0921546</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0506876</v>
+        <v>0.131009</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0529812</v>
+        <v>0.050341</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0524167</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.118906</v>
+        <v>0.122025</v>
       </c>
       <c r="C51" t="n">
-        <v>0.135539</v>
+        <v>0.122962</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0294711</v>
+        <v>0.135709</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0307673</v>
+        <v>0.0274387</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0296438</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165227</v>
+        <v>0.168306</v>
       </c>
       <c r="C52" t="n">
-        <v>0.140496</v>
+        <v>0.167042</v>
       </c>
       <c r="D52" t="n">
-        <v>0.029557</v>
+        <v>0.140542</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0311004</v>
+        <v>0.0275443</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0300728</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0363509</v>
+        <v>0.0366718</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1452</v>
+        <v>0.0418919</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0294739</v>
+        <v>0.145374</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0318316</v>
+        <v>0.0270747</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0307093</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0368442</v>
+        <v>0.0381118</v>
       </c>
       <c r="C54" t="n">
-        <v>0.150164</v>
+        <v>0.0427707</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0306617</v>
+        <v>0.150086</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0322431</v>
+        <v>0.0283068</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0310476</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0378606</v>
+        <v>0.0378083</v>
       </c>
       <c r="C55" t="n">
-        <v>0.154646</v>
+        <v>0.0438328</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0312385</v>
+        <v>0.154689</v>
       </c>
       <c r="E55" t="n">
-        <v>0.032789</v>
+        <v>0.0296499</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0320946</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0388131</v>
+        <v>0.0393362</v>
       </c>
       <c r="C56" t="n">
-        <v>0.159607</v>
+        <v>0.0449614</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0320176</v>
+        <v>0.159184</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0336851</v>
+        <v>0.0292325</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0323659</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.039704</v>
+        <v>0.0402211</v>
       </c>
       <c r="C57" t="n">
-        <v>0.163749</v>
+        <v>0.04643</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0326253</v>
+        <v>0.163453</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0343704</v>
+        <v>0.0293021</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0331928</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0430122</v>
+        <v>0.0419895</v>
       </c>
       <c r="C58" t="n">
-        <v>0.167881</v>
+        <v>0.0482452</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0336716</v>
+        <v>0.167699</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0358542</v>
+        <v>0.0302327</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0344725</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0441243</v>
+        <v>0.0446136</v>
       </c>
       <c r="C59" t="n">
-        <v>0.172187</v>
+        <v>0.0504305</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0338169</v>
+        <v>0.171413</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0360738</v>
+        <v>0.0314769</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.036384</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.047768</v>
+        <v>0.0480265</v>
       </c>
       <c r="C60" t="n">
-        <v>0.176437</v>
+        <v>0.0540996</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0346472</v>
+        <v>0.175739</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0380786</v>
+        <v>0.0327264</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0370836</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0531357</v>
+        <v>0.0533348</v>
       </c>
       <c r="C61" t="n">
-        <v>0.180842</v>
+        <v>0.0577858</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0363827</v>
+        <v>0.179956</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0393895</v>
+        <v>0.0345646</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0392362</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0612767</v>
+        <v>0.0608298</v>
       </c>
       <c r="C62" t="n">
-        <v>0.185463</v>
+        <v>0.0646629</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0389697</v>
+        <v>0.18395</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0430339</v>
+        <v>0.0376936</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.042533</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07226539999999999</v>
+        <v>0.0722106</v>
       </c>
       <c r="C63" t="n">
-        <v>0.190712</v>
+        <v>0.0753649</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0436277</v>
+        <v>0.189352</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0483334</v>
+        <v>0.0425211</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0474224</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0886656</v>
+        <v>0.0890097</v>
       </c>
       <c r="C64" t="n">
-        <v>0.142975</v>
+        <v>0.09197080000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0505704</v>
+        <v>0.13807</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0544434</v>
+        <v>0.0501795</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0542401</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.114969</v>
+        <v>0.115329</v>
       </c>
       <c r="C65" t="n">
-        <v>0.148463</v>
+        <v>0.118688</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0650029</v>
+        <v>0.145545</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0676182</v>
+        <v>0.0642677</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.06690119999999999</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.156205</v>
+        <v>0.1559</v>
       </c>
       <c r="C66" t="n">
-        <v>0.155744</v>
+        <v>0.157661</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0343094</v>
+        <v>0.153171</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0369149</v>
+        <v>0.0318887</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0366781</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0405106</v>
+        <v>0.0410388</v>
       </c>
       <c r="C67" t="n">
-        <v>0.164665</v>
+        <v>0.0488105</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0347945</v>
+        <v>0.15884</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0376655</v>
+        <v>0.0321801</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0373136</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5497,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0415056</v>
+        <v>0.0417575</v>
       </c>
       <c r="C68" t="n">
-        <v>0.172802</v>
+        <v>0.0500353</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0354732</v>
+        <v>0.168091</v>
       </c>
       <c r="E68" t="n">
-        <v>0.038143</v>
+        <v>0.0330155</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0380735</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0428091</v>
+        <v>0.0428053</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181383</v>
+        <v>0.051238</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0360446</v>
+        <v>0.175</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0388361</v>
+        <v>0.0331457</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0386433</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0434215</v>
+        <v>0.0435843</v>
       </c>
       <c r="C70" t="n">
-        <v>0.190605</v>
+        <v>0.0527614</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0367359</v>
+        <v>0.18328</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0396343</v>
+        <v>0.0337228</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0394237</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.045</v>
+        <v>0.0447707</v>
       </c>
       <c r="C71" t="n">
-        <v>0.19989</v>
+        <v>0.0547687</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0367186</v>
+        <v>0.193057</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0408215</v>
+        <v>0.0341482</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0402619</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0462108</v>
+        <v>0.0465243</v>
       </c>
       <c r="C72" t="n">
-        <v>0.209842</v>
+        <v>0.0567703</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0374924</v>
+        <v>0.201298</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0419713</v>
+        <v>0.0349156</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0412962</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0482823</v>
+        <v>0.0488657</v>
       </c>
       <c r="C73" t="n">
-        <v>0.220905</v>
+        <v>0.0588975</v>
       </c>
       <c r="D73" t="n">
-        <v>0.038268</v>
+        <v>0.211948</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0432789</v>
+        <v>0.0363225</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0431632</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0518017</v>
+        <v>0.0523393</v>
       </c>
       <c r="C74" t="n">
-        <v>0.231111</v>
+        <v>0.0632339</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0394055</v>
+        <v>0.222878</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0449141</v>
+        <v>0.0371839</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0447404</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0563131</v>
+        <v>0.057157</v>
       </c>
       <c r="C75" t="n">
-        <v>0.243294</v>
+        <v>0.0688501</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0403492</v>
+        <v>0.234718</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0472075</v>
+        <v>0.0388668</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0464524</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0630561</v>
+        <v>0.0640327</v>
       </c>
       <c r="C76" t="n">
-        <v>0.256099</v>
+        <v>0.0764456</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0423614</v>
+        <v>0.247657</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0507873</v>
+        <v>0.0418298</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0493847</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07303659999999999</v>
+        <v>0.0746112</v>
       </c>
       <c r="C77" t="n">
-        <v>0.267888</v>
+        <v>0.08834640000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0464536</v>
+        <v>0.261822</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0549548</v>
+        <v>0.0460423</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0536001</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0884124</v>
+        <v>0.09014990000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.219163</v>
+        <v>0.105657</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0530372</v>
+        <v>0.218532</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0635503</v>
+        <v>0.0530305</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0614079</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.113718</v>
+        <v>0.113495</v>
       </c>
       <c r="C79" t="n">
-        <v>0.231408</v>
+        <v>0.131895</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0650641</v>
+        <v>0.230591</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0753658</v>
+        <v>0.0647479</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.07419050000000001</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.153188</v>
+        <v>0.152593</v>
       </c>
       <c r="C80" t="n">
-        <v>0.243637</v>
+        <v>0.177518</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0382487</v>
+        <v>0.24206</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0434722</v>
+        <v>0.0363687</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0429163</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.047761</v>
+        <v>0.0475508</v>
       </c>
       <c r="C81" t="n">
-        <v>0.25562</v>
+        <v>0.0620018</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0385942</v>
+        <v>0.254903</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0446644</v>
+        <v>0.0366854</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.043811</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0483987</v>
+        <v>0.0482884</v>
       </c>
       <c r="C82" t="n">
-        <v>0.268057</v>
+        <v>0.06598030000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0393607</v>
+        <v>0.26723</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0461133</v>
+        <v>0.0375103</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0449133</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0499613</v>
+        <v>0.0496638</v>
       </c>
       <c r="C83" t="n">
-        <v>0.28057</v>
+        <v>0.0697115</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0401901</v>
+        <v>0.28034</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0478246</v>
+        <v>0.0380365</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0463584</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0517841</v>
+        <v>0.0515982</v>
       </c>
       <c r="C84" t="n">
-        <v>0.293651</v>
+        <v>0.07361379999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0411085</v>
+        <v>0.293691</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0498707</v>
+        <v>0.0386417</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0482644</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.054668</v>
+        <v>0.0538172</v>
       </c>
       <c r="C85" t="n">
-        <v>0.307203</v>
+        <v>0.0787678</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0413542</v>
+        <v>0.307579</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0520966</v>
+        <v>0.0398206</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0501572</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0584549</v>
+        <v>0.0562397</v>
       </c>
       <c r="C86" t="n">
-        <v>0.321051</v>
+        <v>0.08518390000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0427922</v>
+        <v>0.321706</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0555798</v>
+        <v>0.0409816</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0524362</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0617523</v>
+        <v>0.0591981</v>
       </c>
       <c r="C87" t="n">
-        <v>0.335925</v>
+        <v>0.09213929999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0447175</v>
+        <v>0.336271</v>
       </c>
       <c r="E87" t="n">
-        <v>0.059521</v>
+        <v>0.0421014</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0552446</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5897,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06657059999999999</v>
+        <v>0.06363240000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.350536</v>
+        <v>0.100422</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0483311</v>
+        <v>0.350626</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0649356</v>
+        <v>0.044139</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0596143</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0731084</v>
+        <v>0.0695614</v>
       </c>
       <c r="C89" t="n">
-        <v>0.366583</v>
+        <v>0.111323</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0506613</v>
+        <v>0.366993</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0702709</v>
+        <v>0.0465679</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.06361169999999999</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.08145670000000001</v>
+        <v>0.0780387</v>
       </c>
       <c r="C90" t="n">
-        <v>0.383015</v>
+        <v>0.125146</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0543439</v>
+        <v>0.383167</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0774094</v>
+        <v>0.0503771</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.07010329999999999</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0919407</v>
+        <v>0.0890768</v>
       </c>
       <c r="C91" t="n">
-        <v>0.399651</v>
+        <v>0.143219</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0601484</v>
+        <v>0.400131</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0855129</v>
+        <v>0.0553893</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0792503</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.108304</v>
+        <v>0.10445</v>
       </c>
       <c r="C92" t="n">
-        <v>0.321284</v>
+        <v>0.165228</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0677083</v>
+        <v>0.324254</v>
       </c>
       <c r="E92" t="n">
-        <v>0.09514640000000001</v>
+        <v>0.0628949</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0901053</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.129838</v>
+        <v>0.127878</v>
       </c>
       <c r="C93" t="n">
-        <v>0.332722</v>
+        <v>0.19624</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0781563</v>
+        <v>0.334908</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1105</v>
+        <v>0.0759225</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.107169</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.16209</v>
+        <v>0.163203</v>
       </c>
       <c r="C94" t="n">
-        <v>0.343888</v>
+        <v>0.236845</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0487892</v>
+        <v>0.346204</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0620137</v>
+        <v>0.04251</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.0568742</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06598660000000001</v>
+        <v>0.0613331</v>
       </c>
       <c r="C95" t="n">
-        <v>0.355462</v>
+        <v>0.10279</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0507893</v>
+        <v>0.3576</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0646969</v>
+        <v>0.0435586</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.0602428</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.06958209999999999</v>
+        <v>0.0639208</v>
       </c>
       <c r="C96" t="n">
-        <v>0.367486</v>
+        <v>0.110685</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0513325</v>
+        <v>0.369653</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0692903</v>
+        <v>0.0452428</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.064608</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0716068</v>
+        <v>0.0673618</v>
       </c>
       <c r="C97" t="n">
-        <v>0.379662</v>
+        <v>0.119109</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0545574</v>
+        <v>0.381815</v>
       </c>
       <c r="E97" t="n">
-        <v>0.07120849999999999</v>
+        <v>0.0467997</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.06847789999999999</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07448009999999999</v>
+        <v>0.07137540000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.391669</v>
+        <v>0.126838</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0551511</v>
+        <v>0.393676</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0753346</v>
+        <v>0.0492805</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.07340099999999999</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0772867</v>
+        <v>0.07570010000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.404416</v>
+        <v>0.135452</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0591956</v>
+        <v>0.406427</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0781313</v>
+        <v>0.0513472</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.0792595</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0804163</v>
+        <v>0.0813619</v>
       </c>
       <c r="C100" t="n">
-        <v>0.418195</v>
+        <v>0.143349</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0609345</v>
+        <v>0.420232</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0816018</v>
+        <v>0.0544751</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.08521910000000001</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0843086</v>
+        <v>0.08719780000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.431818</v>
+        <v>0.151288</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06320190000000001</v>
+        <v>0.433753</v>
       </c>
       <c r="E101" t="n">
-        <v>0.08496099999999999</v>
+        <v>0.0577894</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.0912391</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0888077</v>
+        <v>0.09341629999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.446584</v>
+        <v>0.159938</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0650298</v>
+        <v>0.44847</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0891144</v>
+        <v>0.0612447</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.0973942</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0951278</v>
+        <v>0.101199</v>
       </c>
       <c r="C103" t="n">
-        <v>0.462208</v>
+        <v>0.169332</v>
       </c>
       <c r="D103" t="n">
-        <v>0.06731239999999999</v>
+        <v>0.463458</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0953027</v>
+        <v>0.0660058</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.104972</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.102978</v>
+        <v>0.110335</v>
       </c>
       <c r="C104" t="n">
-        <v>0.480023</v>
+        <v>0.181664</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0701461</v>
+        <v>0.479537</v>
       </c>
       <c r="E104" t="n">
-        <v>0.101596</v>
+        <v>0.0715498</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.112452</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.113543</v>
+        <v>0.121367</v>
       </c>
       <c r="C105" t="n">
-        <v>0.496618</v>
+        <v>0.196196</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0741783</v>
+        <v>0.496038</v>
       </c>
       <c r="E105" t="n">
-        <v>0.111622</v>
+        <v>0.0777529</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.120974</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.128675</v>
+        <v>0.135421</v>
       </c>
       <c r="C106" t="n">
-        <v>0.512649</v>
+        <v>0.214668</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0819985</v>
+        <v>0.513239</v>
       </c>
       <c r="E106" t="n">
-        <v>0.124008</v>
+        <v>0.0869964</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.133157</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.149117</v>
+        <v>0.155416</v>
       </c>
       <c r="C107" t="n">
-        <v>0.38857</v>
+        <v>0.240312</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0932501</v>
+        <v>0.388664</v>
       </c>
       <c r="E107" t="n">
-        <v>0.141759</v>
+        <v>0.09868499999999999</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.148422</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.17957</v>
+        <v>0.184175</v>
       </c>
       <c r="C108" t="n">
-        <v>0.399307</v>
+        <v>0.276862</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0575421</v>
+        <v>0.399977</v>
       </c>
       <c r="E108" t="n">
-        <v>0.07705869999999999</v>
+        <v>0.0592875</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.08909690000000001</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.225416</v>
+        <v>0.23058</v>
       </c>
       <c r="C109" t="n">
-        <v>0.410464</v>
+        <v>0.339073</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0583464</v>
+        <v>0.410569</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0806021</v>
+        <v>0.0612523</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0925337</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0792456</v>
+        <v>0.09021949999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.421599</v>
+        <v>0.145465</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0582055</v>
+        <v>0.421748</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0844138</v>
+        <v>0.06357019999999999</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.0958898</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0840081</v>
+        <v>0.0934174</v>
       </c>
       <c r="C111" t="n">
-        <v>0.433155</v>
+        <v>0.149865</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0594863</v>
+        <v>0.433652</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0883649</v>
+        <v>0.0654713</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.09867869999999999</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.087216</v>
+        <v>0.09641379999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.444785</v>
+        <v>0.154677</v>
       </c>
       <c r="D112" t="n">
-        <v>0.06337950000000001</v>
+        <v>0.445373</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0934272</v>
+        <v>0.067784</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.101721</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.091049</v>
+        <v>0.0995181</v>
       </c>
       <c r="C113" t="n">
-        <v>0.457346</v>
+        <v>0.1597</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0658009</v>
+        <v>0.457449</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0983808</v>
+        <v>0.0696377</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.105167</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.09564449999999999</v>
+        <v>0.102942</v>
       </c>
       <c r="C114" t="n">
-        <v>0.47008</v>
+        <v>0.165213</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0681026</v>
+        <v>0.470022</v>
       </c>
       <c r="E114" t="n">
-        <v>0.103363</v>
+        <v>0.0716873</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.108935</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100594</v>
+        <v>0.106808</v>
       </c>
       <c r="C115" t="n">
-        <v>0.483201</v>
+        <v>0.171347</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0720319</v>
+        <v>0.483365</v>
       </c>
       <c r="E115" t="n">
-        <v>0.108784</v>
+        <v>0.0742447</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.112813</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106173</v>
+        <v>0.111064</v>
       </c>
       <c r="C116" t="n">
-        <v>0.497529</v>
+        <v>0.178438</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0754638</v>
+        <v>0.497081</v>
       </c>
       <c r="E116" t="n">
-        <v>0.113678</v>
+        <v>0.0769736</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.117186</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.112739</v>
+        <v>0.116653</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5122139999999999</v>
+        <v>0.187026</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0788794</v>
+        <v>0.512334</v>
       </c>
       <c r="E117" t="n">
-        <v>0.119478</v>
+        <v>0.0802094</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.122203</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121032</v>
+        <v>0.123905</v>
       </c>
       <c r="C118" t="n">
-        <v>0.527906</v>
+        <v>0.197833</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0802094</v>
+        <v>0.528272</v>
       </c>
       <c r="E118" t="n">
-        <v>0.125516</v>
+        <v>0.0837518</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.127875</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.129308</v>
+        <v>0.133225</v>
       </c>
       <c r="C119" t="n">
-        <v>0.53981</v>
+        <v>0.211662</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0866634</v>
+        <v>0.54389</v>
       </c>
       <c r="E119" t="n">
-        <v>0.134484</v>
+        <v>0.08882</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.135212</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.144246</v>
+        <v>0.146096</v>
       </c>
       <c r="C120" t="n">
-        <v>0.558568</v>
+        <v>0.23028</v>
       </c>
       <c r="D120" t="n">
-        <v>0.09202200000000001</v>
+        <v>0.5612740000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>0.143815</v>
+        <v>0.0962385</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.145907</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.160402</v>
+        <v>0.163536</v>
       </c>
       <c r="C121" t="n">
-        <v>0.416869</v>
+        <v>0.255319</v>
       </c>
       <c r="D121" t="n">
-        <v>0.104814</v>
+        <v>0.416387</v>
       </c>
       <c r="E121" t="n">
-        <v>0.15988</v>
+        <v>0.106448</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.159916</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.188969</v>
+        <v>0.189279</v>
       </c>
       <c r="C122" t="n">
-        <v>0.427243</v>
+        <v>0.292246</v>
       </c>
       <c r="D122" t="n">
-        <v>0.122611</v>
+        <v>0.426245</v>
       </c>
       <c r="E122" t="n">
-        <v>0.180788</v>
+        <v>0.122601</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.182202</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.227191</v>
+        <v>0.230546</v>
       </c>
       <c r="C123" t="n">
-        <v>0.438848</v>
+        <v>0.351194</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0775054</v>
+        <v>0.438613</v>
       </c>
       <c r="E123" t="n">
-        <v>0.107553</v>
+        <v>0.0727978</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.106464</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103379</v>
+        <v>0.0960646</v>
       </c>
       <c r="C124" t="n">
-        <v>0.449838</v>
+        <v>0.163197</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0834273</v>
+        <v>0.450215</v>
       </c>
       <c r="E124" t="n">
-        <v>0.110757</v>
+        <v>0.0746064</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.109108</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.102366</v>
+        <v>0.103319</v>
       </c>
       <c r="C125" t="n">
-        <v>0.458836</v>
+        <v>0.16991</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0846282</v>
+        <v>0.460454</v>
       </c>
       <c r="E125" t="n">
-        <v>0.110027</v>
+        <v>0.0799887</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.114728</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.110088</v>
+        <v>0.107242</v>
       </c>
       <c r="C126" t="n">
-        <v>0.473862</v>
+        <v>0.173054</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0784836</v>
+        <v>0.473642</v>
       </c>
       <c r="E126" t="n">
-        <v>0.117375</v>
+        <v>0.0809015</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.116399</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110035</v>
+        <v>0.106396</v>
       </c>
       <c r="C127" t="n">
-        <v>0.486407</v>
+        <v>0.175918</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0847883</v>
+        <v>0.486466</v>
       </c>
       <c r="E127" t="n">
-        <v>0.119734</v>
+        <v>0.0830444</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.120164</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.11391</v>
+        <v>0.107192</v>
       </c>
       <c r="C128" t="n">
-        <v>0.49946</v>
+        <v>0.182385</v>
       </c>
       <c r="D128" t="n">
-        <v>0.08556130000000001</v>
+        <v>0.499277</v>
       </c>
       <c r="E128" t="n">
-        <v>0.122901</v>
+        <v>0.0857373</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.123072</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.114823</v>
+        <v>0.11469</v>
       </c>
       <c r="C129" t="n">
-        <v>0.512246</v>
+        <v>0.190096</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0873312</v>
+        <v>0.512595</v>
       </c>
       <c r="E129" t="n">
-        <v>0.124963</v>
+        <v>0.0842126</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.12773</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.120664</v>
+        <v>0.120629</v>
       </c>
       <c r="C130" t="n">
-        <v>0.526415</v>
+        <v>0.193181</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0920956</v>
+        <v>0.526136</v>
       </c>
       <c r="E130" t="n">
-        <v>0.132935</v>
+        <v>0.08130039999999999</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.130856</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.124439</v>
+        <v>0.120329</v>
       </c>
       <c r="C131" t="n">
-        <v>0.541008</v>
+        <v>0.202929</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0947834</v>
+        <v>0.5407960000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>0.137665</v>
+        <v>0.0900561</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.139923</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13123</v>
+        <v>0.132465</v>
       </c>
       <c r="C132" t="n">
-        <v>0.556709</v>
+        <v>0.21524</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0990641</v>
+        <v>0.556095</v>
       </c>
       <c r="E132" t="n">
-        <v>0.143387</v>
+        <v>0.0981514</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.142896</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.13633</v>
+        <v>0.142653</v>
       </c>
       <c r="C133" t="n">
-        <v>0.570813</v>
+        <v>0.227695</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0955488</v>
+        <v>0.572557</v>
       </c>
       <c r="E133" t="n">
-        <v>0.146572</v>
+        <v>0.0990526</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.150493</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.147936</v>
+        <v>0.153838</v>
       </c>
       <c r="C134" t="n">
-        <v>0.590525</v>
+        <v>0.2436</v>
       </c>
       <c r="D134" t="n">
-        <v>0.105385</v>
+        <v>0.589477</v>
       </c>
       <c r="E134" t="n">
-        <v>0.156254</v>
+        <v>0.09971380000000001</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.158267</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.169577</v>
+        <v>0.170131</v>
       </c>
       <c r="C135" t="n">
-        <v>0.431098</v>
+        <v>0.267653</v>
       </c>
       <c r="D135" t="n">
-        <v>0.11107</v>
+        <v>0.431419</v>
       </c>
       <c r="E135" t="n">
-        <v>0.173782</v>
+        <v>0.11449</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.172175</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194706</v>
+        <v>0.194544</v>
       </c>
       <c r="C136" t="n">
-        <v>0.442463</v>
+        <v>0.304214</v>
       </c>
       <c r="D136" t="n">
-        <v>0.127706</v>
+        <v>0.442557</v>
       </c>
       <c r="E136" t="n">
-        <v>0.191301</v>
+        <v>0.129178</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.193207</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.230692</v>
+        <v>0.233055</v>
       </c>
       <c r="C137" t="n">
-        <v>0.455984</v>
+        <v>0.359175</v>
       </c>
       <c r="D137" t="n">
-        <v>0.142747</v>
+        <v>0.453831</v>
       </c>
       <c r="E137" t="n">
-        <v>0.164703</v>
+        <v>0.14038</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.171943</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.169369</v>
+        <v>0.169104</v>
       </c>
       <c r="C138" t="n">
-        <v>0.467465</v>
+        <v>0.226187</v>
       </c>
       <c r="D138" t="n">
-        <v>0.136165</v>
+        <v>0.467266</v>
       </c>
       <c r="E138" t="n">
-        <v>0.173945</v>
+        <v>0.133503</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.168252</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.168744</v>
+        <v>0.171386</v>
       </c>
       <c r="C139" t="n">
-        <v>0.479265</v>
+        <v>0.231307</v>
       </c>
       <c r="D139" t="n">
-        <v>0.136038</v>
+        <v>0.479087</v>
       </c>
       <c r="E139" t="n">
-        <v>0.177824</v>
+        <v>0.142426</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.168934</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.169572</v>
+        <v>0.172712</v>
       </c>
       <c r="C140" t="n">
-        <v>0.488883</v>
+        <v>0.23644</v>
       </c>
       <c r="D140" t="n">
-        <v>0.146989</v>
+        <v>0.490957</v>
       </c>
       <c r="E140" t="n">
-        <v>0.180723</v>
+        <v>0.136968</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.181476</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.165255</v>
+        <v>0.171962</v>
       </c>
       <c r="C141" t="n">
-        <v>0.503512</v>
+        <v>0.239632</v>
       </c>
       <c r="D141" t="n">
-        <v>0.146252</v>
+        <v>0.503166</v>
       </c>
       <c r="E141" t="n">
-        <v>0.183731</v>
+        <v>0.14509</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.184674</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.173705</v>
+        <v>0.178677</v>
       </c>
       <c r="C142" t="n">
-        <v>0.516361</v>
+        <v>0.244365</v>
       </c>
       <c r="D142" t="n">
-        <v>0.141754</v>
+        <v>0.515703</v>
       </c>
       <c r="E142" t="n">
-        <v>0.185673</v>
+        <v>0.146197</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.187477</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.176815</v>
+        <v>0.177004</v>
       </c>
       <c r="C143" t="n">
-        <v>0.527329</v>
+        <v>0.250166</v>
       </c>
       <c r="D143" t="n">
-        <v>0.151636</v>
+        <v>0.529201</v>
       </c>
       <c r="E143" t="n">
-        <v>0.189279</v>
+        <v>0.146616</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.191771</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0188563</v>
+                  <v>0.0201731</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.020482</v>
+                  <v>0.0223373</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0250918</v>
+                  <v>0.0283973</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0324396</v>
+                  <v>0.0359745</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0486736</v>
+                  <v>0.0468578</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0676407</v>
+                  <v>0.0662001</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0914015</v>
+                  <v>0.0874499</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.120117</v>
+                  <v>0.118178</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0161742</v>
+                  <v>0.0163823</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0167609</v>
+                  <v>0.0169442</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.017033</v>
+                  <v>0.0173203</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0178156</v>
+                  <v>0.0179112</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0186429</v>
+                  <v>0.0186739</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201514</v>
+                  <v>0.0206062</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0223364</v>
+                  <v>0.0231143</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0265812</v>
+                  <v>0.0271457</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0315209</v>
+                  <v>0.0334194</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0404218</v>
+                  <v>0.0418801</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0523243</v>
+                  <v>0.0544232</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.068802</v>
+                  <v>0.06979779999999999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0916015</v>
+                  <v>0.0938215</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.115789</v>
+                  <v>0.121481</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0165559</v>
+                  <v>0.0166604</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.01713</v>
+                  <v>0.0171542</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.017832</v>
+                  <v>0.0177934</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0186431</v>
+                  <v>0.0184952</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0204344</v>
+                  <v>0.0201196</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0223797</v>
+                  <v>0.0218972</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0260575</v>
+                  <v>0.0251077</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0296827</v>
+                  <v>0.0292352</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351294</v>
+                  <v>0.0347619</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0439567</v>
+                  <v>0.0435356</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0560566</v>
+                  <v>0.0537204</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0724226</v>
+                  <v>0.0688154</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0942229</v>
+                  <v>0.09015720000000001</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.120526</v>
+                  <v>0.116026</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0171733</v>
+                  <v>0.0170183</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0178413</v>
+                  <v>0.0178123</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187789</v>
+                  <v>0.01864</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0201514</v>
+                  <v>0.0197201</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0218874</v>
+                  <v>0.0215528</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0244952</v>
+                  <v>0.0238953</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0277145</v>
+                  <v>0.0270839</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0318614</v>
+                  <v>0.0315753</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.038157</v>
+                  <v>0.0372642</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0458946</v>
+                  <v>0.0449549</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0561284</v>
+                  <v>0.0551349</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.07138170000000001</v>
+                  <v>0.06987989999999999</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.09212090000000001</v>
+                  <v>0.09050619999999999</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117399</v>
+                  <v>0.116517</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.142611</v>
+                  <v>0.142867</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0191063</v>
+                  <v>0.0189245</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0202054</v>
+                  <v>0.0202459</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0216884</v>
+                  <v>0.0217405</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.023762</v>
+                  <v>0.0238386</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0265754</v>
+                  <v>0.0263284</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0299431</v>
+                  <v>0.0295381</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0344095</v>
+                  <v>0.0336662</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0405591</v>
+                  <v>0.0393238</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0475581</v>
+                  <v>0.0464554</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0572633</v>
+                  <v>0.0563056</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0711276</v>
+                  <v>0.0704912</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0912027</v>
+                  <v>0.090473</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.117531</v>
+                  <v>0.116153</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.147591</v>
+                  <v>0.148156</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0198684</v>
+                  <v>0.0199809</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0210982</v>
+                  <v>0.0212024</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0228671</v>
+                  <v>0.0226467</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0250892</v>
+                  <v>0.0247555</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0274858</v>
+                  <v>0.0272389</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0307585</v>
+                  <v>0.0304965</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0350439</v>
+                  <v>0.034774</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0401473</v>
+                  <v>0.0399272</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0470655</v>
+                  <v>0.0466726</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0565303</v>
+                  <v>0.0562112</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0694931</v>
+                  <v>0.0692453</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0876659</v>
+                  <v>0.08731709999999999</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.112976</v>
+                  <v>0.112012</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.14429</v>
+                  <v>0.143596</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0201115</v>
+                  <v>0.0198969</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0216766</v>
+                  <v>0.0211685</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0228365</v>
+                  <v>0.0228963</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0248985</v>
+                  <v>0.0246315</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0272584</v>
+                  <v>0.0270319</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0302977</v>
+                  <v>0.0301633</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0342083</v>
+                  <v>0.0343003</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.039444</v>
+                  <v>0.0392099</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0458422</v>
+                  <v>0.0461135</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0546333</v>
+                  <v>0.0547299</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0669435</v>
+                  <v>0.0668189</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0841283</v>
+                  <v>0.0836469</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.108178</v>
+                  <v>0.107787</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.139209</v>
+                  <v>0.138233</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0208397</v>
+                  <v>0.021069</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0217789</v>
+                  <v>0.0216843</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0236136</v>
+                  <v>0.0235278</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0250037</v>
+                  <v>0.0252833</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0272123</v>
+                  <v>0.0276404</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0306604</v>
+                  <v>0.0303935</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0359699</v>
+                  <v>0.0347047</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0400556</v>
+                  <v>0.03961</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0464214</v>
+                  <v>0.0462842</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0543718</v>
+                  <v>0.0542663</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0654956</v>
+                  <v>0.06533070000000001</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0810722</v>
+                  <v>0.0810447</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.102897</v>
+                  <v>0.102744</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.133253</v>
+                  <v>0.132435</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.1679</v>
+                  <v>0.168123</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0312378</v>
+                  <v>0.0311566</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.032867</v>
+                  <v>0.0327274</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0343439</v>
+                  <v>0.0342032</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0361309</v>
+                  <v>0.0360288</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383012</v>
+                  <v>0.038221</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0408352</v>
+                  <v>0.0407202</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0439366</v>
+                  <v>0.0443612</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0486743</v>
+                  <v>0.0487038</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0550738</v>
+                  <v>0.0551061</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0645583</v>
+                  <v>0.0650413</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0791676</v>
+                  <v>0.0796751</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0998057</v>
+                  <v>0.100197</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128197</v>
+                  <v>0.128476</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163841</v>
+                  <v>0.164648</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0345014</v>
+                  <v>0.0347131</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.035219</v>
+                  <v>0.0356762</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0366214</v>
+                  <v>0.0366723</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0384021</v>
+                  <v>0.0385512</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0405117</v>
+                  <v>0.0406167</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0431668</v>
+                  <v>0.0432628</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0465002</v>
+                  <v>0.0469616</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0510499</v>
+                  <v>0.0522871</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0587435</v>
+                  <v>0.0587787</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0679357</v>
+                  <v>0.06793159999999999</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0816269</v>
+                  <v>0.0818242</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101812</v>
+                  <v>0.10117</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.129487</v>
+                  <v>0.129216</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.164993</v>
+                  <v>0.164833</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0468838</v>
+                  <v>0.04719</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0484521</v>
+                  <v>0.0477155</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0493311</v>
+                  <v>0.0498207</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0507617</v>
+                  <v>0.0506207</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0532957</v>
+                  <v>0.0533573</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0554191</v>
+                  <v>0.0561423</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0745743</v>
+                  <v>0.0194065</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0818991</v>
+                  <v>0.0224007</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0759394</v>
+                  <v>0.0288135</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0880992</v>
+                  <v>0.0338387</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.08153489999999999</v>
+                  <v>0.0464436</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0624356</v>
+                  <v>0.0656384</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.061869</v>
+                  <v>0.0870889</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0683074</v>
+                  <v>0.116853</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0686766</v>
+                  <v>0.016173</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.07166640000000001</v>
+                  <v>0.0167609</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0739997</v>
+                  <v>0.0172318</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.077265</v>
+                  <v>0.0179025</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0817507</v>
+                  <v>0.0189746</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0856117</v>
+                  <v>0.019983</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0866362</v>
+                  <v>0.0223099</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.09086229999999999</v>
+                  <v>0.0264348</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.09648760000000001</v>
+                  <v>0.0312478</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.096305</v>
+                  <v>0.0404906</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.09784320000000001</v>
+                  <v>0.0537627</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0664341</v>
+                  <v>0.0690885</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0712783</v>
+                  <v>0.0933016</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0762056</v>
+                  <v>0.118794</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0754963</v>
+                  <v>0.0162717</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0791755</v>
+                  <v>0.0168356</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0828492</v>
+                  <v>0.017468</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.08543870000000001</v>
+                  <v>0.0182377</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0887561</v>
+                  <v>0.0194683</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.092414</v>
+                  <v>0.0212317</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0948533</v>
+                  <v>0.0242552</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0957143</v>
+                  <v>0.0284577</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.09790550000000001</v>
+                  <v>0.0343277</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.09936730000000001</v>
+                  <v>0.0428176</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.101587</v>
+                  <v>0.0534805</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.06934940000000001</v>
+                  <v>0.0688173</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0726347</v>
+                  <v>0.0907517</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.07564949999999999</v>
+                  <v>0.117543</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0790356</v>
+                  <v>0.0168393</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0818281</v>
+                  <v>0.0175714</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0856015</v>
+                  <v>0.0184474</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.08902640000000001</v>
+                  <v>0.0198324</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0915702</v>
+                  <v>0.021464</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0953242</v>
+                  <v>0.0237258</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0973436</v>
+                  <v>0.0270856</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.100137</v>
+                  <v>0.0315007</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.102066</v>
+                  <v>0.0372003</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.104689</v>
+                  <v>0.0443335</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.106565</v>
+                  <v>0.0545841</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.109417</v>
+                  <v>0.06922639999999999</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0759278</v>
+                  <v>0.0899831</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.07929940000000001</v>
+                  <v>0.117779</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0833945</v>
+                  <v>0.142876</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.08607579999999999</v>
+                  <v>0.0191296</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0893982</v>
+                  <v>0.0201955</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0926165</v>
+                  <v>0.0216483</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.09584810000000001</v>
+                  <v>0.023403</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.100165</v>
+                  <v>0.026064</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.101736</v>
+                  <v>0.0294373</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.105135</v>
+                  <v>0.0339117</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.107339</v>
+                  <v>0.0393543</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.109803</v>
+                  <v>0.0465728</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.111709</v>
+                  <v>0.056655</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.115496</v>
+                  <v>0.0699357</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0812769</v>
+                  <v>0.0901044</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.08581900000000001</v>
+                  <v>0.117115</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.09048920000000001</v>
+                  <v>0.147525</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.09512900000000001</v>
+                  <v>0.0200422</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.09904019999999999</v>
+                  <v>0.0210888</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.103762</v>
+                  <v>0.0229847</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.109767</v>
+                  <v>0.0248889</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.115064</v>
+                  <v>0.0271453</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.119625</v>
+                  <v>0.0304582</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.123912</v>
+                  <v>0.0344984</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.128639</v>
+                  <v>0.0397809</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.136023</v>
+                  <v>0.0470601</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.141569</v>
+                  <v>0.0565718</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.147324</v>
+                  <v>0.06901500000000001</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.114448</v>
+                  <v>0.087157</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.120419</v>
+                  <v>0.112264</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.125131</v>
+                  <v>0.144133</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.131477</v>
+                  <v>0.0200835</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.139604</v>
+                  <v>0.0214419</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.146445</v>
+                  <v>0.0229504</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.154887</v>
+                  <v>0.0250695</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.163154</v>
+                  <v>0.0273812</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.170385</v>
+                  <v>0.0308585</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.178312</v>
+                  <v>0.0344507</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.182546</v>
+                  <v>0.0394985</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.19023</v>
+                  <v>0.0460324</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.200533</v>
+                  <v>0.0550461</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.208859</v>
+                  <v>0.0671224</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.157758</v>
+                  <v>0.0844076</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.162746</v>
+                  <v>0.109009</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.168477</v>
+                  <v>0.139885</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.17633</v>
+                  <v>0.0246877</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.183525</v>
+                  <v>0.0262639</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.190701</v>
+                  <v>0.0285106</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.19753</v>
+                  <v>0.0326365</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.204795</v>
+                  <v>0.0376421</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.226592</v>
+                  <v>0.0431873</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.219043</v>
+                  <v>0.0495911</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227757</v>
+                  <v>0.0557668</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.233267</v>
+                  <v>0.0618652</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.243865</v>
+                  <v>0.0688729</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.252361</v>
+                  <v>0.0776963</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.261173</v>
+                  <v>0.0907839</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.190647</v>
+                  <v>0.109448</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.197526</v>
+                  <v>0.136707</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.203566</v>
+                  <v>0.172459</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.210146</v>
+                  <v>0.0467682</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.218257</v>
+                  <v>0.0483897</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.224714</v>
+                  <v>0.0507314</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.23258</v>
+                  <v>0.0528627</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.239218</v>
+                  <v>0.0555484</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.24724</v>
+                  <v>0.0590007</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.255715</v>
+                  <v>0.0628261</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.263655</v>
+                  <v>0.0678373</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.271989</v>
+                  <v>0.0743669</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.282797</v>
+                  <v>0.08271000000000001</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.289767</v>
+                  <v>0.0944628</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.206007</v>
+                  <v>0.11085</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.211597</v>
+                  <v>0.135461</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.217961</v>
+                  <v>0.170368</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.22481</v>
+                  <v>0.0512479</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.231511</v>
+                  <v>0.052865</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.23876</v>
+                  <v>0.0549309</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.246015</v>
+                  <v>0.058871</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.253902</v>
+                  <v>0.0612004</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.261754</v>
+                  <v>0.0650288</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.269215</v>
+                  <v>0.069248</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.276809</v>
+                  <v>0.0746687</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.285243</v>
+                  <v>0.08118839999999999</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.294416</v>
+                  <v>0.0896735</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.303237</v>
+                  <v>0.101136</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.212509</v>
+                  <v>0.117614</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.21893</v>
+                  <v>0.141623</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.225118</v>
+                  <v>0.176838</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.232231</v>
+                  <v>0.0654614</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.239705</v>
+                  <v>0.0667495</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.247032</v>
+                  <v>0.06891559999999999</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.255056</v>
+                  <v>0.07127269999999999</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.262733</v>
+                  <v>0.0736226</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.271863</v>
+                  <v>0.077071</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0212525</v>
+                  <v>0.0719905</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0216004</v>
+                  <v>0.0729974</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0227228</v>
+                  <v>0.082431</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0236692</v>
+                  <v>0.0738939</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.025734</v>
+                  <v>0.0825699</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0307283</v>
+                  <v>0.0649699</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0400074</v>
+                  <v>0.0601928</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0191859</v>
+                  <v>0.0616023</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0194145</v>
+                  <v>0.0644928</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0197171</v>
+                  <v>0.07119880000000001</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0200098</v>
+                  <v>0.07261140000000001</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0202944</v>
+                  <v>0.07676910000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0205605</v>
+                  <v>0.0821347</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0210623</v>
+                  <v>0.0866618</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.021745</v>
+                  <v>0.08824650000000001</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0224624</v>
+                  <v>0.0907429</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0233932</v>
+                  <v>0.09464789999999999</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0246564</v>
+                  <v>0.0952583</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0274191</v>
+                  <v>0.0964115</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0316025</v>
+                  <v>0.0694861</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0413247</v>
+                  <v>0.07024809999999999</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0187664</v>
+                  <v>0.0724142</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0190384</v>
+                  <v>0.07515040000000001</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.019321</v>
+                  <v>0.07962320000000001</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0195661</v>
+                  <v>0.0832406</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0198599</v>
+                  <v>0.0852619</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0203393</v>
+                  <v>0.0896028</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0209382</v>
+                  <v>0.09148480000000001</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214818</v>
+                  <v>0.0939405</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0223346</v>
+                  <v>0.0965188</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0233779</v>
+                  <v>0.09831380000000001</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0247673</v>
+                  <v>0.100199</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0273931</v>
+                  <v>0.102902</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0317286</v>
+                  <v>0.0698054</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.039339</v>
+                  <v>0.0726036</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0193829</v>
+                  <v>0.0757068</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0197036</v>
+                  <v>0.0793538</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0199834</v>
+                  <v>0.083243</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0203028</v>
+                  <v>0.08550199999999999</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0206416</v>
+                  <v>0.08859019999999999</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.021054</v>
+                  <v>0.09167649999999999</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0216854</v>
+                  <v>0.0949025</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0224175</v>
+                  <v>0.0970295</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0232548</v>
+                  <v>0.100157</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0245789</v>
+                  <v>0.102332</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0261833</v>
+                  <v>0.104522</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0289704</v>
+                  <v>0.105831</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0328291</v>
+                  <v>0.108825</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0389724</v>
+                  <v>0.0755461</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0204109</v>
+                  <v>0.078995</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0206887</v>
+                  <v>0.0825134</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0209817</v>
+                  <v>0.0867947</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0212755</v>
+                  <v>0.0901161</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0216547</v>
+                  <v>0.09300659999999999</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0221738</v>
+                  <v>0.0971045</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0227227</v>
+                  <v>0.10016</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0233788</v>
+                  <v>0.102369</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0243162</v>
+                  <v>0.105472</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0256636</v>
+                  <v>0.108186</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0275441</v>
+                  <v>0.110002</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0301356</v>
+                  <v>0.112754</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0341597</v>
+                  <v>0.115747</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0404667</v>
+                  <v>0.0811159</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0516123</v>
+                  <v>0.08591849999999999</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0209483</v>
+                  <v>0.0904712</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0212904</v>
+                  <v>0.094886</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0216414</v>
+                  <v>0.0995163</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0220066</v>
+                  <v>0.10423</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.022503</v>
+                  <v>0.108446</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0230597</v>
+                  <v>0.115564</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.023794</v>
+                  <v>0.120256</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.024724</v>
+                  <v>0.124687</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0259069</v>
+                  <v>0.130917</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0276355</v>
+                  <v>0.135851</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0302519</v>
+                  <v>0.141198</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0340355</v>
+                  <v>0.147703</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0396979</v>
+                  <v>0.111012</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.049477</v>
+                  <v>0.120113</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0212779</v>
+                  <v>0.124171</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0216341</v>
+                  <v>0.131036</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0219984</v>
+                  <v>0.138476</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0224363</v>
+                  <v>0.145921</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0229328</v>
+                  <v>0.154954</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0235783</v>
+                  <v>0.163989</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0244305</v>
+                  <v>0.168326</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0254418</v>
+                  <v>0.177149</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0267137</v>
+                  <v>0.182049</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0283454</v>
+                  <v>0.18983</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0308527</v>
+                  <v>0.198267</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0342322</v>
+                  <v>0.205699</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.03938</v>
+                  <v>0.155131</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.048197</v>
+                  <v>0.161371</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0229879</v>
+                  <v>0.167644</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0234516</v>
+                  <v>0.174382</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0240067</v>
+                  <v>0.180841</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0245912</v>
+                  <v>0.18713</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0253619</v>
+                  <v>0.194952</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0267537</v>
+                  <v>0.202006</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0289872</v>
+                  <v>0.210399</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0317781</v>
+                  <v>0.216909</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0350402</v>
+                  <v>0.225263</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0383243</v>
+                  <v>0.232957</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0415289</v>
+                  <v>0.240595</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0449303</v>
+                  <v>0.24943</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0491857</v>
+                  <v>0.259096</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0555259</v>
+                  <v>0.189204</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0351129</v>
+                  <v>0.195409</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0361988</v>
+                  <v>0.202101</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0370074</v>
+                  <v>0.208914</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0378667</v>
+                  <v>0.216123</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0385583</v>
+                  <v>0.223325</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0395869</v>
+                  <v>0.230562</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0406235</v>
+                  <v>0.23813</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0416052</v>
+                  <v>0.245517</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0428433</v>
+                  <v>0.253672</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0445415</v>
+                  <v>0.262325</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0464755</v>
+                  <v>0.270451</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0489272</v>
+                  <v>0.279981</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0526395</v>
+                  <v>0.288965</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0583473</v>
+                  <v>0.20558</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.06810819999999999</v>
+                  <v>0.211153</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0412799</v>
+                  <v>0.21773</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0422281</v>
+                  <v>0.224538</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0429276</v>
+                  <v>0.231602</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0439297</v>
+                  <v>0.239227</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0447307</v>
+                  <v>0.246785</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0457736</v>
+                  <v>0.254214</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0468762</v>
+                  <v>0.26216</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0480061</v>
+                  <v>0.269644</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0495994</v>
+                  <v>0.278269</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0516555</v>
+                  <v>0.28676</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0541823</v>
+                  <v>0.294905</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0578916</v>
+                  <v>0.304292</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0634131</v>
+                  <v>0.213434</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.07260369999999999</v>
+                  <v>0.219307</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0591479</v>
+                  <v>0.226031</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0608915</v>
+                  <v>0.233449</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0603453</v>
+                  <v>0.239676</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0608767</v>
+                  <v>0.247679</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0620272</v>
+                  <v>0.255283</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0625593</v>
+                  <v>0.262438</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0640025</v>
+                  <v>0.270371</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0214076</v>
+                  <v>0.0216009</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0220449</v>
+                  <v>0.0221084</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0228814</v>
+                  <v>0.0230466</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0238445</v>
+                  <v>0.0244666</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0259967</v>
+                  <v>0.0265716</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0308818</v>
+                  <v>0.0306845</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0397899</v>
+                  <v>0.0377971</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0190868</v>
+                  <v>0.0191766</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0193166</v>
+                  <v>0.0193893</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0195902</v>
+                  <v>0.0197043</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0199197</v>
+                  <v>0.0200607</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0202396</v>
+                  <v>0.0204068</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0206034</v>
+                  <v>0.0206994</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0211027</v>
+                  <v>0.0212233</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.02181</v>
+                  <v>0.0219078</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0225325</v>
+                  <v>0.0227165</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0234089</v>
+                  <v>0.0235386</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0246829</v>
+                  <v>0.0248559</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0272518</v>
+                  <v>0.0272925</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0319929</v>
+                  <v>0.0311581</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0414377</v>
+                  <v>0.039445</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0188357</v>
+                  <v>0.0189417</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0191047</v>
+                  <v>0.0192166</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.019293</v>
+                  <v>0.0194402</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0195628</v>
+                  <v>0.01967</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.020006</v>
+                  <v>0.0200648</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0203576</v>
+                  <v>0.0205084</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0209983</v>
+                  <v>0.0211482</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0216036</v>
+                  <v>0.0217413</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0224206</v>
+                  <v>0.0226275</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0234567</v>
+                  <v>0.023562</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0248701</v>
+                  <v>0.0249451</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0276153</v>
+                  <v>0.0273574</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0319171</v>
+                  <v>0.0311211</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0394712</v>
+                  <v>0.0379297</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0194612</v>
+                  <v>0.0194402</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.019774</v>
+                  <v>0.0197588</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0200997</v>
+                  <v>0.020083</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0204224</v>
+                  <v>0.0204271</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0207986</v>
+                  <v>0.020797</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0212501</v>
+                  <v>0.0212094</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0218422</v>
+                  <v>0.0218012</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0225976</v>
+                  <v>0.0225426</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.023464</v>
+                  <v>0.0233782</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0247861</v>
+                  <v>0.0246526</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0263224</v>
+                  <v>0.0261541</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0291543</v>
+                  <v>0.0288267</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0329324</v>
+                  <v>0.0324146</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0390016</v>
+                  <v>0.0383102</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0204605</v>
+                  <v>0.0205245</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.020763</v>
+                  <v>0.0207576</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0211036</v>
+                  <v>0.0210818</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0214464</v>
+                  <v>0.0214063</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0218044</v>
+                  <v>0.0217707</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.02235</v>
+                  <v>0.0222808</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0228519</v>
+                  <v>0.0227865</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0235195</v>
+                  <v>0.0234609</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0244936</v>
+                  <v>0.0243803</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0258272</v>
+                  <v>0.0256999</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0276262</v>
+                  <v>0.0274345</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0303212</v>
+                  <v>0.0299708</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0343892</v>
+                  <v>0.0339134</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0407201</v>
+                  <v>0.0399682</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0517515</v>
+                  <v>0.0509853</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0210642</v>
+                  <v>0.0210663</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0214078</v>
+                  <v>0.0214128</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0217171</v>
+                  <v>0.0217044</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0221679</v>
+                  <v>0.0220793</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0225732</v>
+                  <v>0.0225101</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0231145</v>
+                  <v>0.0230847</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.023886</v>
+                  <v>0.0238389</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0248041</v>
+                  <v>0.0247061</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0260928</v>
+                  <v>0.0259229</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0279417</v>
+                  <v>0.027636</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0307152</v>
+                  <v>0.0300556</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0341993</v>
+                  <v>0.033803</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0399898</v>
+                  <v>0.0394898</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0497379</v>
+                  <v>0.0492793</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0218936</v>
+                  <v>0.0212983</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0223402</v>
+                  <v>0.0216173</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0229967</v>
+                  <v>0.0220136</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0238374</v>
+                  <v>0.0224719</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0244912</v>
+                  <v>0.0229306</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0255432</v>
+                  <v>0.0235925</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0269618</v>
+                  <v>0.0244368</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0283241</v>
+                  <v>0.0254208</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0302692</v>
+                  <v>0.0267328</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0321612</v>
+                  <v>0.0283669</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0348082</v>
+                  <v>0.0308234</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0382122</v>
+                  <v>0.0342177</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0434233</v>
+                  <v>0.0393046</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0534129</v>
+                  <v>0.0481634</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0282249</v>
+                  <v>0.0230218</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.029139</v>
+                  <v>0.0235096</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.03133</v>
+                  <v>0.024067</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0341335</v>
+                  <v>0.0247073</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0381704</v>
+                  <v>0.0254037</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0428413</v>
+                  <v>0.0268593</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0471767</v>
+                  <v>0.0290853</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0508107</v>
+                  <v>0.0319312</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0541568</v>
+                  <v>0.0351347</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0573175</v>
+                  <v>0.0384163</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0605919</v>
+                  <v>0.0415243</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.06430470000000001</v>
+                  <v>0.0448445</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.06932820000000001</v>
+                  <v>0.049027</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.07656540000000001</v>
+                  <v>0.0554999</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0513709</v>
+                  <v>0.0351618</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0528133</v>
+                  <v>0.0362013</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0541587</v>
+                  <v>0.0370039</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0555634</v>
+                  <v>0.0378586</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0569233</v>
+                  <v>0.0386194</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0585293</v>
+                  <v>0.0394682</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0602617</v>
+                  <v>0.040537</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0619037</v>
+                  <v>0.0416614</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0640491</v>
+                  <v>0.0430189</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0662812</v>
+                  <v>0.0444291</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.06915499999999999</v>
+                  <v>0.0463979</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.07276100000000001</v>
+                  <v>0.0489896</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.07756780000000001</v>
+                  <v>0.0528205</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0847301</v>
+                  <v>0.058274</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0960261</v>
+                  <v>0.06796190000000001</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0604808</v>
+                  <v>0.0403819</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0618613</v>
+                  <v>0.0411282</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0635545</v>
+                  <v>0.0420223</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0648304</v>
+                  <v>0.043459</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.06670520000000001</v>
+                  <v>0.0444712</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0683797</v>
+                  <v>0.0454145</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0702016</v>
+                  <v>0.0465307</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0724499</v>
+                  <v>0.0478298</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.07498920000000001</v>
+                  <v>0.0494071</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0779345</v>
+                  <v>0.0513635</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.081499</v>
+                  <v>0.0537652</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0866347</v>
+                  <v>0.0575184</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.09380090000000001</v>
+                  <v>0.06303880000000001</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.105376</v>
+                  <v>0.0724042</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0789271</v>
+                  <v>0.0589715</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0802612</v>
+                  <v>0.0597273</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.08157540000000001</v>
+                  <v>0.0603338</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0829015</v>
+                  <v>0.0607136</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0845514</v>
+                  <v>0.0616614</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.08594209999999999</v>
+                  <v>0.0623911</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0877042</v>
+                  <v>0.0637191</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0213731</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0219128</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0229614</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0237155</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.025576</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.029993</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0372132</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0191559</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.0193448</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0196525</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0200966</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0202894</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0206235</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0211043</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.0218162</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.0225323</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.023233</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0243677</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0267946</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0309274</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0396682</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.0188515</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0191092</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.0193229</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0195956</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.0199672</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0203555</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0210076</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0216355</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0223774</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0233702</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0247201</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0272634</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0312534</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0380069</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0194619</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.0197841</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.0201213</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0204515</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0207924</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.021191</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0218251</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0226156</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.0234105</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0246226</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0262507</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0288559</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.0324919</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0384891</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0204688</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.0207663</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0210612</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0213982</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.0217859</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.0222653</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0228454</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0235124</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0243594</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0256987</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0274883</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0300593</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0340648</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0401741</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.0512194</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.0210961</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0213836</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0217762</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0220643</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0226375</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0232502</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.0239062</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0248356</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.026065</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0279232</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.0305011</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0343393</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.0399486</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0496558</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0218532</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.0222095</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0228944</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0236355</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0243062</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.0253495</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.0267319</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0282859</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0299437</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0317743</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0345472</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0380622</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0432275</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.0531484</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.0281559</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.0293133</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.031368</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0340943</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.0378803</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.0424448</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0466268</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0506328</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0540476</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.0572826</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.0607623</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.0644699</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.0693695</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.0764777</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.0511115</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.05263</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.0540065</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0553181</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0566814</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0582196</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.0599567</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.0618321</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.0637921</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.0661122</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.0689598</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.0725898</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.077532</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.08458259999999999</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.0955395</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.0601745</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.0615969</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.0631738</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.06469229999999999</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.06635340000000001</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.0679819</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.0698984</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.0721822</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.07472959999999999</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.0777127</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.08139440000000001</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.0863636</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.0936022</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.104572</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.0791782</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.0801432</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.0817592</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.0831262</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.0843787</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.0859061</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.0897927</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3792,7 +4694,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5044,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5060,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.034737</v>
+        <v>0.0347678</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0345269</v>
+        <v>0.0348306</v>
       </c>
       <c r="D2" t="n">
-        <v>0.120608</v>
+        <v>0.12521</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0228921</v>
+        <v>0.0229398</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0237537</v>
+        <v>0.0238557</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.035176</v>
+        <v>0.0353185</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0365862</v>
+        <v>0.0363617</v>
       </c>
       <c r="D3" t="n">
-        <v>0.127332</v>
+        <v>0.129614</v>
       </c>
       <c r="E3" t="n">
-        <v>0.023015</v>
+        <v>0.0227287</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0239137</v>
+        <v>0.0239776</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0383733</v>
+        <v>0.0381993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0393248</v>
+        <v>0.0389787</v>
       </c>
       <c r="D4" t="n">
-        <v>0.132856</v>
+        <v>0.135284</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0233848</v>
+        <v>0.0233235</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0244581</v>
+        <v>0.0246214</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0436998</v>
+        <v>0.043397</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0428871</v>
+        <v>0.0435046</v>
       </c>
       <c r="D5" t="n">
-        <v>0.138378</v>
+        <v>0.140964</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0204967</v>
+        <v>0.0225361</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0240604</v>
+        <v>0.0237623</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0546154</v>
+        <v>0.0547501</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0562587</v>
+        <v>0.0559095</v>
       </c>
       <c r="D6" t="n">
-        <v>0.143918</v>
+        <v>0.147008</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0230079</v>
+        <v>0.0230621</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0247394</v>
+        <v>0.0244823</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07401969999999999</v>
+        <v>0.0738567</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0744523</v>
+        <v>0.0744406</v>
       </c>
       <c r="D7" t="n">
-        <v>0.10097</v>
+        <v>0.102412</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0274201</v>
+        <v>0.0270931</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0303684</v>
+        <v>0.0301698</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.109059</v>
+        <v>0.108842</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107812</v>
+        <v>0.108276</v>
       </c>
       <c r="D8" t="n">
-        <v>0.107008</v>
+        <v>0.108135</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0473875</v>
+        <v>0.0475426</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0482159</v>
+        <v>0.0484056</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148911</v>
+        <v>0.149248</v>
       </c>
       <c r="C9" t="n">
-        <v>0.150775</v>
+        <v>0.150866</v>
       </c>
       <c r="D9" t="n">
-        <v>0.111862</v>
+        <v>0.113124</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0228925</v>
+        <v>0.0229307</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0238693</v>
+        <v>0.0236909</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0325593</v>
+        <v>0.0325426</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0330847</v>
+        <v>0.033082</v>
       </c>
       <c r="D10" t="n">
-        <v>0.117119</v>
+        <v>0.118096</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0230997</v>
+        <v>0.023054</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0240321</v>
+        <v>0.0239203</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.032972</v>
+        <v>0.0329859</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0337151</v>
+        <v>0.0336028</v>
       </c>
       <c r="D11" t="n">
-        <v>0.121724</v>
+        <v>0.122794</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0232443</v>
+        <v>0.0232218</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0243327</v>
+        <v>0.0240616</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0334804</v>
+        <v>0.033449</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0343544</v>
+        <v>0.0343556</v>
       </c>
       <c r="D12" t="n">
-        <v>0.12695</v>
+        <v>0.127696</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0233268</v>
+        <v>0.0233678</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0246328</v>
+        <v>0.0243147</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0339761</v>
+        <v>0.0339677</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0351389</v>
+        <v>0.0349295</v>
       </c>
       <c r="D13" t="n">
-        <v>0.130885</v>
+        <v>0.132084</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0235458</v>
+        <v>0.0234139</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0249934</v>
+        <v>0.0246257</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0346986</v>
+        <v>0.0346354</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0358069</v>
+        <v>0.0359695</v>
       </c>
       <c r="D14" t="n">
-        <v>0.13574</v>
+        <v>0.136548</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0235078</v>
+        <v>0.0235023</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0250975</v>
+        <v>0.0247833</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0355812</v>
+        <v>0.0356513</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0369515</v>
+        <v>0.0371992</v>
       </c>
       <c r="D15" t="n">
-        <v>0.140356</v>
+        <v>0.140919</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0238217</v>
+        <v>0.0236637</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0254751</v>
+        <v>0.0252761</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.036778</v>
+        <v>0.0367499</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0382403</v>
+        <v>0.0385986</v>
       </c>
       <c r="D16" t="n">
-        <v>0.144851</v>
+        <v>0.145914</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0240548</v>
+        <v>0.0241348</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0257868</v>
+        <v>0.0257823</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0390297</v>
+        <v>0.0391324</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0400109</v>
+        <v>0.0406173</v>
       </c>
       <c r="D17" t="n">
-        <v>0.149858</v>
+        <v>0.150643</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0243949</v>
+        <v>0.0243895</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0258237</v>
+        <v>0.0260393</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0416878</v>
+        <v>0.0417719</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0437513</v>
+        <v>0.0444277</v>
       </c>
       <c r="D18" t="n">
-        <v>0.154385</v>
+        <v>0.155671</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0245632</v>
+        <v>0.0245207</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0261276</v>
+        <v>0.0267294</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0487434</v>
+        <v>0.0488578</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0509142</v>
+        <v>0.0517113</v>
       </c>
       <c r="D19" t="n">
-        <v>0.159465</v>
+        <v>0.160695</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0243851</v>
+        <v>0.0242215</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0275265</v>
+        <v>0.0278223</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0604591</v>
+        <v>0.0604425</v>
       </c>
       <c r="C20" t="n">
-        <v>0.059777</v>
+        <v>0.0602967</v>
       </c>
       <c r="D20" t="n">
-        <v>0.163955</v>
+        <v>0.164636</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0287289</v>
+        <v>0.0285097</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0312793</v>
+        <v>0.0319749</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0736131</v>
+        <v>0.07373490000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0755092</v>
+        <v>0.07585989999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.117914</v>
+        <v>0.11801</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0380326</v>
+        <v>0.0380069</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0399036</v>
+        <v>0.040223</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09834089999999999</v>
+        <v>0.0984368</v>
       </c>
       <c r="C22" t="n">
-        <v>0.100176</v>
+        <v>0.100207</v>
       </c>
       <c r="D22" t="n">
-        <v>0.122453</v>
+        <v>0.122422</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0564626</v>
+        <v>0.0564726</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0567673</v>
+        <v>0.0573568</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.133418</v>
+        <v>0.133367</v>
       </c>
       <c r="C23" t="n">
-        <v>0.134889</v>
+        <v>0.134491</v>
       </c>
       <c r="D23" t="n">
-        <v>0.126461</v>
+        <v>0.126553</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0240089</v>
+        <v>0.0238489</v>
       </c>
       <c r="F23" t="n">
-        <v>0.025097</v>
+        <v>0.0256154</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0338669</v>
+        <v>0.0338952</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0359751</v>
+        <v>0.0367531</v>
       </c>
       <c r="D24" t="n">
-        <v>0.131557</v>
+        <v>0.132232</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0242981</v>
+        <v>0.0241697</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0256958</v>
+        <v>0.0260279</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0340274</v>
+        <v>0.0340433</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0368211</v>
+        <v>0.0376199</v>
       </c>
       <c r="D25" t="n">
-        <v>0.135658</v>
+        <v>0.136238</v>
       </c>
       <c r="E25" t="n">
-        <v>0.024434</v>
+        <v>0.0243012</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0260499</v>
+        <v>0.0264728</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0351203</v>
+        <v>0.035176</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0375803</v>
+        <v>0.0384787</v>
       </c>
       <c r="D26" t="n">
-        <v>0.140024</v>
+        <v>0.14086</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0246383</v>
+        <v>0.0246013</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0263901</v>
+        <v>0.0268747</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0357261</v>
+        <v>0.0357481</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0386356</v>
+        <v>0.0396097</v>
       </c>
       <c r="D27" t="n">
-        <v>0.144847</v>
+        <v>0.145475</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0249864</v>
+        <v>0.0250546</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0269239</v>
+        <v>0.0275212</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0365765</v>
+        <v>0.0365898</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0394979</v>
+        <v>0.040407</v>
       </c>
       <c r="D28" t="n">
-        <v>0.149494</v>
+        <v>0.150382</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0253196</v>
+        <v>0.025303</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0275712</v>
+        <v>0.0282804</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0376096</v>
+        <v>0.0377571</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0408275</v>
+        <v>0.0417567</v>
       </c>
       <c r="D29" t="n">
-        <v>0.154813</v>
+        <v>0.154873</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0258935</v>
+        <v>0.0259492</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0282083</v>
+        <v>0.0290034</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0394189</v>
+        <v>0.0395837</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0430276</v>
+        <v>0.0438917</v>
       </c>
       <c r="D30" t="n">
-        <v>0.158242</v>
+        <v>0.159057</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0260906</v>
+        <v>0.0262972</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0286963</v>
+        <v>0.0297637</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.041858</v>
+        <v>0.0419127</v>
       </c>
       <c r="C31" t="n">
-        <v>0.044979</v>
+        <v>0.0456046</v>
       </c>
       <c r="D31" t="n">
-        <v>0.162889</v>
+        <v>0.163192</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0268501</v>
+        <v>0.0269475</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0297621</v>
+        <v>0.0306861</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0457734</v>
+        <v>0.0459057</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0495755</v>
+        <v>0.0499815</v>
       </c>
       <c r="D32" t="n">
-        <v>0.167339</v>
+        <v>0.167677</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0274865</v>
+        <v>0.0274422</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0303791</v>
+        <v>0.0314443</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0513509</v>
+        <v>0.0514526</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0539475</v>
+        <v>0.0542986</v>
       </c>
       <c r="D33" t="n">
-        <v>0.171999</v>
+        <v>0.171913</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0286586</v>
+        <v>0.0289592</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0318818</v>
+        <v>0.0329174</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0614845</v>
+        <v>0.0615592</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0652088</v>
+        <v>0.0654317</v>
       </c>
       <c r="D34" t="n">
-        <v>0.176499</v>
+        <v>0.176464</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0333922</v>
+        <v>0.0335194</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0363083</v>
+        <v>0.0372317</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07413649999999999</v>
+        <v>0.0741651</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0764027</v>
+        <v>0.0764209</v>
       </c>
       <c r="D35" t="n">
-        <v>0.123641</v>
+        <v>0.123788</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0418615</v>
+        <v>0.0419899</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0439217</v>
+        <v>0.0444933</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0960638</v>
+        <v>0.09607400000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0965478</v>
+        <v>0.09658890000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.128085</v>
+        <v>0.128283</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0532913</v>
+        <v>0.0533746</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0547109</v>
+        <v>0.0550866</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.127917</v>
+        <v>0.127758</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128824</v>
+        <v>0.12881</v>
       </c>
       <c r="D37" t="n">
-        <v>0.132539</v>
+        <v>0.132805</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0247227</v>
+        <v>0.024747</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0268814</v>
+        <v>0.0276451</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0342812</v>
+        <v>0.0344903</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0378359</v>
+        <v>0.0384617</v>
       </c>
       <c r="D38" t="n">
-        <v>0.137255</v>
+        <v>0.137495</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0251318</v>
+        <v>0.025248</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0274569</v>
+        <v>0.0283042</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0348093</v>
+        <v>0.0349</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0385311</v>
+        <v>0.0391634</v>
       </c>
       <c r="D39" t="n">
-        <v>0.142144</v>
+        <v>0.142322</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0254176</v>
+        <v>0.0256355</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0280152</v>
+        <v>0.0287593</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0356082</v>
+        <v>0.0356965</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0395302</v>
+        <v>0.0400099</v>
       </c>
       <c r="D40" t="n">
-        <v>0.146568</v>
+        <v>0.146754</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0256956</v>
+        <v>0.0258639</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0283659</v>
+        <v>0.0291571</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0363343</v>
+        <v>0.0364383</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0406507</v>
+        <v>0.0409475</v>
       </c>
       <c r="D41" t="n">
-        <v>0.151594</v>
+        <v>0.151806</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0260352</v>
+        <v>0.026161</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0290142</v>
+        <v>0.0296725</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0373682</v>
+        <v>0.0374731</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0417304</v>
+        <v>0.0419556</v>
       </c>
       <c r="D42" t="n">
-        <v>0.156311</v>
+        <v>0.1565</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0263671</v>
+        <v>0.0265684</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0297224</v>
+        <v>0.0302784</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0386841</v>
+        <v>0.0387853</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0430288</v>
+        <v>0.0431553</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1608</v>
+        <v>0.160985</v>
       </c>
       <c r="E43" t="n">
-        <v>0.027019</v>
+        <v>0.0272462</v>
       </c>
       <c r="F43" t="n">
-        <v>0.030626</v>
+        <v>0.0310489</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0403846</v>
+        <v>0.0404094</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0448693</v>
+        <v>0.0450328</v>
       </c>
       <c r="D44" t="n">
-        <v>0.164855</v>
+        <v>0.165034</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0278055</v>
+        <v>0.0279587</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0315288</v>
+        <v>0.031889</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0433266</v>
+        <v>0.0432557</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0473037</v>
+        <v>0.0474114</v>
       </c>
       <c r="D45" t="n">
-        <v>0.168749</v>
+        <v>0.168932</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0287763</v>
+        <v>0.0289336</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0325667</v>
+        <v>0.0329188</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.046585</v>
+        <v>0.0465721</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0508708</v>
+        <v>0.0509063</v>
       </c>
       <c r="D46" t="n">
-        <v>0.172768</v>
+        <v>0.17286</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0303203</v>
+        <v>0.0304082</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0341996</v>
+        <v>0.0344808</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0521572</v>
+        <v>0.0522064</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0561757</v>
+        <v>0.0562071</v>
       </c>
       <c r="D47" t="n">
-        <v>0.176876</v>
+        <v>0.177129</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0325589</v>
+        <v>0.0327114</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0361836</v>
+        <v>0.0367018</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0607339</v>
+        <v>0.0606988</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0633156</v>
+        <v>0.06318559999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.18159</v>
+        <v>0.181641</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0366932</v>
+        <v>0.0367799</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0399465</v>
+        <v>0.0401483</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07503990000000001</v>
+        <v>0.07495</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0767263</v>
+        <v>0.0768515</v>
       </c>
       <c r="D49" t="n">
-        <v>0.185757</v>
+        <v>0.185985</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0421506</v>
+        <v>0.0422316</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0449691</v>
+        <v>0.0452507</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.092335</v>
+        <v>0.0922663</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0921546</v>
+        <v>0.0920652</v>
       </c>
       <c r="D50" t="n">
-        <v>0.131009</v>
+        <v>0.130988</v>
       </c>
       <c r="E50" t="n">
-        <v>0.050341</v>
+        <v>0.0503857</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0524167</v>
+        <v>0.0525751</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.122025</v>
+        <v>0.122121</v>
       </c>
       <c r="C51" t="n">
-        <v>0.122962</v>
+        <v>0.122972</v>
       </c>
       <c r="D51" t="n">
-        <v>0.135709</v>
+        <v>0.135554</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0274387</v>
+        <v>0.027088</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0296438</v>
+        <v>0.0303107</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168306</v>
+        <v>0.168243</v>
       </c>
       <c r="C52" t="n">
-        <v>0.167042</v>
+        <v>0.168029</v>
       </c>
       <c r="D52" t="n">
-        <v>0.140542</v>
+        <v>0.140386</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0275443</v>
+        <v>0.0272444</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0300728</v>
+        <v>0.0308886</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0366718</v>
+        <v>0.0369417</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0418919</v>
+        <v>0.0415765</v>
       </c>
       <c r="D53" t="n">
-        <v>0.145374</v>
+        <v>0.145323</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0270747</v>
+        <v>0.0271246</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0307093</v>
+        <v>0.0313672</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0381118</v>
+        <v>0.0369385</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0427707</v>
+        <v>0.0423904</v>
       </c>
       <c r="D54" t="n">
-        <v>0.150086</v>
+        <v>0.150231</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0283068</v>
+        <v>0.0274442</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0310476</v>
+        <v>0.0317783</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0378083</v>
+        <v>0.0382877</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0438328</v>
+        <v>0.0434646</v>
       </c>
       <c r="D55" t="n">
-        <v>0.154689</v>
+        <v>0.154867</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0296499</v>
+        <v>0.0295656</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0320946</v>
+        <v>0.0317482</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0393362</v>
+        <v>0.0395939</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0449614</v>
+        <v>0.0446227</v>
       </c>
       <c r="D56" t="n">
-        <v>0.159184</v>
+        <v>0.15927</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0292325</v>
+        <v>0.028415</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0323659</v>
+        <v>0.0331942</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0402211</v>
+        <v>0.040043</v>
       </c>
       <c r="C57" t="n">
-        <v>0.04643</v>
+        <v>0.0460449</v>
       </c>
       <c r="D57" t="n">
-        <v>0.163453</v>
+        <v>0.16354</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0293021</v>
+        <v>0.0296483</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0331928</v>
+        <v>0.033936</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0419895</v>
+        <v>0.0418525</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0482452</v>
+        <v>0.0477729</v>
       </c>
       <c r="D58" t="n">
-        <v>0.167699</v>
+        <v>0.167923</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0302327</v>
+        <v>0.0304925</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0344725</v>
+        <v>0.035138</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0446136</v>
+        <v>0.0443573</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0504305</v>
+        <v>0.0501172</v>
       </c>
       <c r="D59" t="n">
-        <v>0.171413</v>
+        <v>0.172146</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0314769</v>
+        <v>0.0309444</v>
       </c>
       <c r="F59" t="n">
-        <v>0.036384</v>
+        <v>0.036104</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0480265</v>
+        <v>0.0483906</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0540996</v>
+        <v>0.0537073</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175739</v>
+        <v>0.175958</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0327264</v>
+        <v>0.0328531</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0370836</v>
+        <v>0.0375538</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0533348</v>
+        <v>0.0533768</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0577858</v>
+        <v>0.0577106</v>
       </c>
       <c r="D61" t="n">
-        <v>0.179956</v>
+        <v>0.180087</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0345646</v>
+        <v>0.0351465</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0392362</v>
+        <v>0.0392512</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0608298</v>
+        <v>0.0604617</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0646629</v>
+        <v>0.064305</v>
       </c>
       <c r="D62" t="n">
-        <v>0.18395</v>
+        <v>0.184456</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0376936</v>
+        <v>0.0381614</v>
       </c>
       <c r="F62" t="n">
-        <v>0.042533</v>
+        <v>0.0425283</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0722106</v>
+        <v>0.0725879</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0753649</v>
+        <v>0.07589319999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.189352</v>
+        <v>0.189302</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0425211</v>
+        <v>0.0429608</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0474224</v>
+        <v>0.0468776</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0890097</v>
+        <v>0.0892694</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09197080000000001</v>
+        <v>0.09223530000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.13807</v>
+        <v>0.138467</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0501795</v>
+        <v>0.0503173</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0542401</v>
+        <v>0.0541283</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115329</v>
+        <v>0.115004</v>
       </c>
       <c r="C65" t="n">
-        <v>0.118688</v>
+        <v>0.118017</v>
       </c>
       <c r="D65" t="n">
-        <v>0.145545</v>
+        <v>0.144312</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0642677</v>
+        <v>0.0641888</v>
       </c>
       <c r="F65" t="n">
-        <v>0.06690119999999999</v>
+        <v>0.0673951</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1559</v>
+        <v>0.155457</v>
       </c>
       <c r="C66" t="n">
-        <v>0.157661</v>
+        <v>0.1572</v>
       </c>
       <c r="D66" t="n">
-        <v>0.153171</v>
+        <v>0.151067</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0318887</v>
+        <v>0.0324443</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0366781</v>
+        <v>0.036975</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0410388</v>
+        <v>0.0415012</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0488105</v>
+        <v>0.0488855</v>
       </c>
       <c r="D67" t="n">
-        <v>0.15884</v>
+        <v>0.158518</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0321801</v>
+        <v>0.0326019</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0373136</v>
+        <v>0.0375895</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0417575</v>
+        <v>0.041955</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0500353</v>
+        <v>0.049995</v>
       </c>
       <c r="D68" t="n">
-        <v>0.168091</v>
+        <v>0.167084</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0330155</v>
+        <v>0.0330805</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0380735</v>
+        <v>0.0382039</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0428053</v>
+        <v>0.0428744</v>
       </c>
       <c r="C69" t="n">
-        <v>0.051238</v>
+        <v>0.051195</v>
       </c>
       <c r="D69" t="n">
-        <v>0.175</v>
+        <v>0.175367</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0331457</v>
+        <v>0.0333414</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0386433</v>
+        <v>0.0389065</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0435843</v>
+        <v>0.0437123</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0527614</v>
+        <v>0.0527449</v>
       </c>
       <c r="D70" t="n">
-        <v>0.18328</v>
+        <v>0.181867</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0337228</v>
+        <v>0.0337389</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0394237</v>
+        <v>0.0396522</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0447707</v>
+        <v>0.044955</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0547687</v>
+        <v>0.0544012</v>
       </c>
       <c r="D71" t="n">
-        <v>0.193057</v>
+        <v>0.19199</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0341482</v>
+        <v>0.0343914</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0402619</v>
+        <v>0.0408698</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0465243</v>
+        <v>0.0469398</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0567703</v>
+        <v>0.0564783</v>
       </c>
       <c r="D72" t="n">
-        <v>0.201298</v>
+        <v>0.201223</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0349156</v>
+        <v>0.0351277</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0412962</v>
+        <v>0.0419969</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0488657</v>
+        <v>0.0492275</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0588975</v>
+        <v>0.0589933</v>
       </c>
       <c r="D73" t="n">
-        <v>0.211948</v>
+        <v>0.209625</v>
       </c>
       <c r="E73" t="n">
         <v>0.0363225</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0431632</v>
+        <v>0.0427885</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0523393</v>
+        <v>0.0523764</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0632339</v>
+        <v>0.06266380000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.222878</v>
+        <v>0.222148</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0371839</v>
+        <v>0.0371416</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0447404</v>
+        <v>0.0443679</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.057157</v>
+        <v>0.0572877</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0688501</v>
+        <v>0.06775879999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.234718</v>
+        <v>0.234094</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0388668</v>
+        <v>0.0389554</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0464524</v>
+        <v>0.0464832</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0640327</v>
+        <v>0.0640732</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0764456</v>
+        <v>0.074474</v>
       </c>
       <c r="D76" t="n">
-        <v>0.247657</v>
+        <v>0.24624</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0418298</v>
+        <v>0.0422909</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0493847</v>
+        <v>0.0492819</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0746112</v>
+        <v>0.0745396</v>
       </c>
       <c r="C77" t="n">
-        <v>0.08834640000000001</v>
+        <v>0.0853124</v>
       </c>
       <c r="D77" t="n">
-        <v>0.261822</v>
+        <v>0.260509</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0460423</v>
+        <v>0.0464422</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0536001</v>
+        <v>0.0536821</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.09014990000000001</v>
+        <v>0.0898003</v>
       </c>
       <c r="C78" t="n">
-        <v>0.105657</v>
+        <v>0.102074</v>
       </c>
       <c r="D78" t="n">
-        <v>0.218532</v>
+        <v>0.21803</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0530305</v>
+        <v>0.0527416</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0614079</v>
+        <v>0.0607073</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.113495</v>
+        <v>0.114546</v>
       </c>
       <c r="C79" t="n">
-        <v>0.131895</v>
+        <v>0.127715</v>
       </c>
       <c r="D79" t="n">
-        <v>0.230591</v>
+        <v>0.23102</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0647479</v>
+        <v>0.06443740000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>0.07419050000000001</v>
+        <v>0.0723106</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.152593</v>
+        <v>0.152482</v>
       </c>
       <c r="C80" t="n">
-        <v>0.177518</v>
+        <v>0.173586</v>
       </c>
       <c r="D80" t="n">
-        <v>0.24206</v>
+        <v>0.242969</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0363687</v>
+        <v>0.0362108</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0429163</v>
+        <v>0.0422207</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0475508</v>
+        <v>0.0466448</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0620018</v>
+        <v>0.05809</v>
       </c>
       <c r="D81" t="n">
-        <v>0.254903</v>
+        <v>0.255555</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0366854</v>
+        <v>0.0365591</v>
       </c>
       <c r="F81" t="n">
-        <v>0.043811</v>
+        <v>0.0427573</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0482884</v>
+        <v>0.0473282</v>
       </c>
       <c r="C82" t="n">
-        <v>0.06598030000000001</v>
+        <v>0.0601347</v>
       </c>
       <c r="D82" t="n">
-        <v>0.26723</v>
+        <v>0.26859</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0375103</v>
+        <v>0.0370817</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0449133</v>
+        <v>0.0436846</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0496638</v>
+        <v>0.0482837</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0697115</v>
+        <v>0.0630647</v>
       </c>
       <c r="D83" t="n">
-        <v>0.28034</v>
+        <v>0.281561</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0380365</v>
+        <v>0.0376483</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0463584</v>
+        <v>0.0446708</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0515982</v>
+        <v>0.0497456</v>
       </c>
       <c r="C84" t="n">
-        <v>0.07361379999999999</v>
+        <v>0.06733790000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.293691</v>
+        <v>0.295118</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0386417</v>
+        <v>0.0381669</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0482644</v>
+        <v>0.0454392</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0538172</v>
+        <v>0.0512961</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0787678</v>
+        <v>0.0720654</v>
       </c>
       <c r="D85" t="n">
-        <v>0.307579</v>
+        <v>0.308653</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0398206</v>
+        <v>0.0389354</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0501572</v>
+        <v>0.0473151</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0562397</v>
+        <v>0.0532629</v>
       </c>
       <c r="C86" t="n">
-        <v>0.08518390000000001</v>
+        <v>0.0781509</v>
       </c>
       <c r="D86" t="n">
-        <v>0.321706</v>
+        <v>0.322424</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0409816</v>
+        <v>0.039899</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0524362</v>
+        <v>0.0492839</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0591981</v>
+        <v>0.0563108</v>
       </c>
       <c r="C87" t="n">
-        <v>0.09213929999999999</v>
+        <v>0.08619979999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.336271</v>
+        <v>0.336784</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0421014</v>
+        <v>0.0411302</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0552446</v>
+        <v>0.0518365</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06363240000000001</v>
+        <v>0.0602507</v>
       </c>
       <c r="C88" t="n">
-        <v>0.100422</v>
+        <v>0.09645049999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.350626</v>
+        <v>0.351315</v>
       </c>
       <c r="E88" t="n">
-        <v>0.044139</v>
+        <v>0.0423494</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0596143</v>
+        <v>0.0550675</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0695614</v>
+        <v>0.06607159999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.111323</v>
+        <v>0.108625</v>
       </c>
       <c r="D89" t="n">
-        <v>0.366993</v>
+        <v>0.367314</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0465679</v>
+        <v>0.0448359</v>
       </c>
       <c r="F89" t="n">
-        <v>0.06361169999999999</v>
+        <v>0.059153</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0780387</v>
+        <v>0.0744766</v>
       </c>
       <c r="C90" t="n">
-        <v>0.125146</v>
+        <v>0.124583</v>
       </c>
       <c r="D90" t="n">
-        <v>0.383167</v>
+        <v>0.383242</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0503771</v>
+        <v>0.0481111</v>
       </c>
       <c r="F90" t="n">
-        <v>0.07010329999999999</v>
+        <v>0.0653827</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0890768</v>
+        <v>0.08538229999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.143219</v>
+        <v>0.143298</v>
       </c>
       <c r="D91" t="n">
-        <v>0.400131</v>
+        <v>0.399994</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0553893</v>
+        <v>0.053257</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0792503</v>
+        <v>0.0750422</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.10445</v>
+        <v>0.101416</v>
       </c>
       <c r="C92" t="n">
-        <v>0.165228</v>
+        <v>0.166249</v>
       </c>
       <c r="D92" t="n">
-        <v>0.324254</v>
+        <v>0.32303</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0628949</v>
+        <v>0.0610389</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0901053</v>
+        <v>0.08775380000000001</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.127878</v>
+        <v>0.125781</v>
       </c>
       <c r="C93" t="n">
-        <v>0.19624</v>
+        <v>0.197454</v>
       </c>
       <c r="D93" t="n">
-        <v>0.334908</v>
+        <v>0.333857</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0759225</v>
+        <v>0.07320500000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>0.107169</v>
+        <v>0.107001</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.163203</v>
+        <v>0.161956</v>
       </c>
       <c r="C94" t="n">
-        <v>0.236845</v>
+        <v>0.236972</v>
       </c>
       <c r="D94" t="n">
-        <v>0.346204</v>
+        <v>0.344973</v>
       </c>
       <c r="E94" t="n">
-        <v>0.04251</v>
+        <v>0.0405535</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0568742</v>
+        <v>0.0546991</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0613331</v>
+        <v>0.0585212</v>
       </c>
       <c r="C95" t="n">
-        <v>0.10279</v>
+        <v>0.103298</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3576</v>
+        <v>0.356625</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0435586</v>
+        <v>0.0417918</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0602428</v>
+        <v>0.0583996</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0639208</v>
+        <v>0.0618736</v>
       </c>
       <c r="C96" t="n">
-        <v>0.110685</v>
+        <v>0.111897</v>
       </c>
       <c r="D96" t="n">
-        <v>0.369653</v>
+        <v>0.368593</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0452428</v>
+        <v>0.0435997</v>
       </c>
       <c r="F96" t="n">
-        <v>0.064608</v>
+        <v>0.06342109999999999</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0673618</v>
+        <v>0.06573279999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.119109</v>
+        <v>0.120673</v>
       </c>
       <c r="D97" t="n">
-        <v>0.381815</v>
+        <v>0.380586</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0467997</v>
+        <v>0.0453613</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06847789999999999</v>
+        <v>0.0679507</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07137540000000001</v>
+        <v>0.0702675</v>
       </c>
       <c r="C98" t="n">
-        <v>0.126838</v>
+        <v>0.128503</v>
       </c>
       <c r="D98" t="n">
-        <v>0.393676</v>
+        <v>0.392576</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0492805</v>
+        <v>0.047953</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07340099999999999</v>
+        <v>0.0735016</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07570010000000001</v>
+        <v>0.0752491</v>
       </c>
       <c r="C99" t="n">
-        <v>0.135452</v>
+        <v>0.136444</v>
       </c>
       <c r="D99" t="n">
-        <v>0.406427</v>
+        <v>0.405519</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0513472</v>
+        <v>0.0506727</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0792595</v>
+        <v>0.079522</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0813619</v>
+        <v>0.0810964</v>
       </c>
       <c r="C100" t="n">
-        <v>0.143349</v>
+        <v>0.14413</v>
       </c>
       <c r="D100" t="n">
-        <v>0.420232</v>
+        <v>0.41823</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0544751</v>
+        <v>0.0538892</v>
       </c>
       <c r="F100" t="n">
-        <v>0.08521910000000001</v>
+        <v>0.0857593</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08719780000000001</v>
+        <v>0.0869706</v>
       </c>
       <c r="C101" t="n">
-        <v>0.151288</v>
+        <v>0.151506</v>
       </c>
       <c r="D101" t="n">
-        <v>0.433753</v>
+        <v>0.431723</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0577894</v>
+        <v>0.0575236</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0912391</v>
+        <v>0.0921106</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.09341629999999999</v>
+        <v>0.0937935</v>
       </c>
       <c r="C102" t="n">
-        <v>0.159938</v>
+        <v>0.159917</v>
       </c>
       <c r="D102" t="n">
-        <v>0.44847</v>
+        <v>0.446885</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0612447</v>
+        <v>0.0617025</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0973942</v>
+        <v>0.0988059</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.101199</v>
+        <v>0.101274</v>
       </c>
       <c r="C103" t="n">
-        <v>0.169332</v>
+        <v>0.169335</v>
       </c>
       <c r="D103" t="n">
-        <v>0.463458</v>
+        <v>0.461641</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0660058</v>
+        <v>0.0659177</v>
       </c>
       <c r="F103" t="n">
-        <v>0.104972</v>
+        <v>0.106004</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.110335</v>
+        <v>0.110397</v>
       </c>
       <c r="C104" t="n">
-        <v>0.181664</v>
+        <v>0.180885</v>
       </c>
       <c r="D104" t="n">
-        <v>0.479537</v>
+        <v>0.477482</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0715498</v>
+        <v>0.07119060000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>0.112452</v>
+        <v>0.113168</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.121367</v>
+        <v>0.121416</v>
       </c>
       <c r="C105" t="n">
-        <v>0.196196</v>
+        <v>0.195564</v>
       </c>
       <c r="D105" t="n">
-        <v>0.496038</v>
+        <v>0.493867</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0777529</v>
+        <v>0.07767350000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>0.120974</v>
+        <v>0.12194</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.135421</v>
+        <v>0.135349</v>
       </c>
       <c r="C106" t="n">
-        <v>0.214668</v>
+        <v>0.213953</v>
       </c>
       <c r="D106" t="n">
-        <v>0.513239</v>
+        <v>0.510738</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0869964</v>
+        <v>0.08648119999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>0.133157</v>
+        <v>0.133565</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.155416</v>
+        <v>0.154809</v>
       </c>
       <c r="C107" t="n">
-        <v>0.240312</v>
+        <v>0.239242</v>
       </c>
       <c r="D107" t="n">
-        <v>0.388664</v>
+        <v>0.386759</v>
       </c>
       <c r="E107" t="n">
-        <v>0.09868499999999999</v>
+        <v>0.098146</v>
       </c>
       <c r="F107" t="n">
-        <v>0.148422</v>
+        <v>0.148423</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.184175</v>
+        <v>0.183549</v>
       </c>
       <c r="C108" t="n">
-        <v>0.276862</v>
+        <v>0.276051</v>
       </c>
       <c r="D108" t="n">
-        <v>0.399977</v>
+        <v>0.397275</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0592875</v>
+        <v>0.0595832</v>
       </c>
       <c r="F108" t="n">
-        <v>0.08909690000000001</v>
+        <v>0.0895276</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.23058</v>
+        <v>0.229969</v>
       </c>
       <c r="C109" t="n">
-        <v>0.339073</v>
+        <v>0.33785</v>
       </c>
       <c r="D109" t="n">
-        <v>0.410569</v>
+        <v>0.40836</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0612523</v>
+        <v>0.0616477</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0925337</v>
+        <v>0.09267880000000001</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.09021949999999999</v>
+        <v>0.09016680000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.145465</v>
+        <v>0.144695</v>
       </c>
       <c r="D110" t="n">
-        <v>0.421748</v>
+        <v>0.419252</v>
       </c>
       <c r="E110" t="n">
-        <v>0.06357019999999999</v>
+        <v>0.0640549</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0958898</v>
+        <v>0.09600450000000001</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0934174</v>
+        <v>0.0932061</v>
       </c>
       <c r="C111" t="n">
-        <v>0.149865</v>
+        <v>0.149358</v>
       </c>
       <c r="D111" t="n">
-        <v>0.433652</v>
+        <v>0.430497</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0654713</v>
+        <v>0.06571109999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>0.09867869999999999</v>
+        <v>0.09860679999999999</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.09641379999999999</v>
+        <v>0.0961301</v>
       </c>
       <c r="C112" t="n">
-        <v>0.154677</v>
+        <v>0.153974</v>
       </c>
       <c r="D112" t="n">
-        <v>0.445373</v>
+        <v>0.442249</v>
       </c>
       <c r="E112" t="n">
-        <v>0.067784</v>
+        <v>0.0676573</v>
       </c>
       <c r="F112" t="n">
-        <v>0.101721</v>
+        <v>0.101544</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0995181</v>
+        <v>0.0993376</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1597</v>
+        <v>0.159166</v>
       </c>
       <c r="D113" t="n">
-        <v>0.457449</v>
+        <v>0.454595</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0696377</v>
+        <v>0.0694789</v>
       </c>
       <c r="F113" t="n">
-        <v>0.105167</v>
+        <v>0.104536</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.102942</v>
+        <v>0.10269</v>
       </c>
       <c r="C114" t="n">
-        <v>0.165213</v>
+        <v>0.164496</v>
       </c>
       <c r="D114" t="n">
-        <v>0.470022</v>
+        <v>0.467435</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0716873</v>
+        <v>0.0716338</v>
       </c>
       <c r="F114" t="n">
-        <v>0.108935</v>
+        <v>0.108516</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.106808</v>
+        <v>0.106401</v>
       </c>
       <c r="C115" t="n">
-        <v>0.171347</v>
+        <v>0.170505</v>
       </c>
       <c r="D115" t="n">
-        <v>0.483365</v>
+        <v>0.481054</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0742447</v>
+        <v>0.07439419999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>0.112813</v>
+        <v>0.112558</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.111064</v>
+        <v>0.110846</v>
       </c>
       <c r="C116" t="n">
-        <v>0.178438</v>
+        <v>0.177851</v>
       </c>
       <c r="D116" t="n">
-        <v>0.497081</v>
+        <v>0.494235</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0769736</v>
+        <v>0.0771831</v>
       </c>
       <c r="F116" t="n">
-        <v>0.117186</v>
+        <v>0.116915</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.116653</v>
+        <v>0.116213</v>
       </c>
       <c r="C117" t="n">
-        <v>0.187026</v>
+        <v>0.186234</v>
       </c>
       <c r="D117" t="n">
-        <v>0.512334</v>
+        <v>0.508971</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0802094</v>
+        <v>0.0798846</v>
       </c>
       <c r="F117" t="n">
-        <v>0.122203</v>
+        <v>0.121639</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123905</v>
+        <v>0.123329</v>
       </c>
       <c r="C118" t="n">
-        <v>0.197833</v>
+        <v>0.19695</v>
       </c>
       <c r="D118" t="n">
-        <v>0.528272</v>
+        <v>0.523899</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0837518</v>
+        <v>0.0837334</v>
       </c>
       <c r="F118" t="n">
-        <v>0.127875</v>
+        <v>0.127699</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.133225</v>
+        <v>0.132878</v>
       </c>
       <c r="C119" t="n">
-        <v>0.211662</v>
+        <v>0.210583</v>
       </c>
       <c r="D119" t="n">
-        <v>0.54389</v>
+        <v>0.540481</v>
       </c>
       <c r="E119" t="n">
-        <v>0.08882</v>
+        <v>0.0886468</v>
       </c>
       <c r="F119" t="n">
-        <v>0.135212</v>
+        <v>0.134721</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.146096</v>
+        <v>0.145508</v>
       </c>
       <c r="C120" t="n">
-        <v>0.23028</v>
+        <v>0.22927</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5612740000000001</v>
+        <v>0.558164</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0962385</v>
+        <v>0.0955927</v>
       </c>
       <c r="F120" t="n">
-        <v>0.145907</v>
+        <v>0.145081</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163536</v>
+        <v>0.163167</v>
       </c>
       <c r="C121" t="n">
-        <v>0.255319</v>
+        <v>0.254077</v>
       </c>
       <c r="D121" t="n">
-        <v>0.416387</v>
+        <v>0.414516</v>
       </c>
       <c r="E121" t="n">
-        <v>0.106448</v>
+        <v>0.105837</v>
       </c>
       <c r="F121" t="n">
-        <v>0.159916</v>
+        <v>0.159357</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.189279</v>
+        <v>0.188792</v>
       </c>
       <c r="C122" t="n">
-        <v>0.292246</v>
+        <v>0.290844</v>
       </c>
       <c r="D122" t="n">
-        <v>0.426245</v>
+        <v>0.425604</v>
       </c>
       <c r="E122" t="n">
-        <v>0.122601</v>
+        <v>0.121991</v>
       </c>
       <c r="F122" t="n">
-        <v>0.182202</v>
+        <v>0.181343</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.230546</v>
+        <v>0.230077</v>
       </c>
       <c r="C123" t="n">
-        <v>0.351194</v>
+        <v>0.349139</v>
       </c>
       <c r="D123" t="n">
-        <v>0.438613</v>
+        <v>0.436601</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0727978</v>
+        <v>0.07503940000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>0.106464</v>
+        <v>0.108324</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0960646</v>
+        <v>0.10354</v>
       </c>
       <c r="C124" t="n">
-        <v>0.163197</v>
+        <v>0.160304</v>
       </c>
       <c r="D124" t="n">
-        <v>0.450215</v>
+        <v>0.447553</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0746064</v>
+        <v>0.0759973</v>
       </c>
       <c r="F124" t="n">
-        <v>0.109108</v>
+        <v>0.110861</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.103319</v>
+        <v>0.103817</v>
       </c>
       <c r="C125" t="n">
-        <v>0.16991</v>
+        <v>0.165343</v>
       </c>
       <c r="D125" t="n">
-        <v>0.460454</v>
+        <v>0.459428</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0799887</v>
+        <v>0.07580729999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>0.114728</v>
+        <v>0.112648</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.107242</v>
+        <v>0.108583</v>
       </c>
       <c r="C126" t="n">
-        <v>0.173054</v>
+        <v>0.170357</v>
       </c>
       <c r="D126" t="n">
-        <v>0.473642</v>
+        <v>0.471351</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0809015</v>
+        <v>0.07867739999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>0.116399</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.106396</v>
+        <v>0.110457</v>
       </c>
       <c r="C127" t="n">
-        <v>0.175918</v>
+        <v>0.173226</v>
       </c>
       <c r="D127" t="n">
-        <v>0.486466</v>
+        <v>0.483429</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0830444</v>
+        <v>0.0807001</v>
       </c>
       <c r="F127" t="n">
-        <v>0.120164</v>
+        <v>0.121053</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.107192</v>
+        <v>0.115721</v>
       </c>
       <c r="C128" t="n">
-        <v>0.182385</v>
+        <v>0.182858</v>
       </c>
       <c r="D128" t="n">
-        <v>0.499277</v>
+        <v>0.496295</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0857373</v>
+        <v>0.0817732</v>
       </c>
       <c r="F128" t="n">
-        <v>0.123072</v>
+        <v>0.124146</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.11469</v>
+        <v>0.116825</v>
       </c>
       <c r="C129" t="n">
-        <v>0.190096</v>
+        <v>0.186223</v>
       </c>
       <c r="D129" t="n">
-        <v>0.512595</v>
+        <v>0.510232</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0842126</v>
+        <v>0.0845983</v>
       </c>
       <c r="F129" t="n">
-        <v>0.12773</v>
+        <v>0.127326</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.120629</v>
+        <v>0.119943</v>
       </c>
       <c r="C130" t="n">
-        <v>0.193181</v>
+        <v>0.195866</v>
       </c>
       <c r="D130" t="n">
-        <v>0.526136</v>
+        <v>0.523315</v>
       </c>
       <c r="E130" t="n">
-        <v>0.08130039999999999</v>
+        <v>0.0869501</v>
       </c>
       <c r="F130" t="n">
-        <v>0.130856</v>
+        <v>0.131431</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.120329</v>
+        <v>0.125581</v>
       </c>
       <c r="C131" t="n">
-        <v>0.202929</v>
+        <v>0.202553</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5407960000000001</v>
+        <v>0.538326</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0900561</v>
+        <v>0.09195399999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>0.139923</v>
+        <v>0.136761</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.132465</v>
+        <v>0.13315</v>
       </c>
       <c r="C132" t="n">
-        <v>0.21524</v>
+        <v>0.213365</v>
       </c>
       <c r="D132" t="n">
-        <v>0.556095</v>
+        <v>0.553291</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0981514</v>
+        <v>0.0930343</v>
       </c>
       <c r="F132" t="n">
-        <v>0.142896</v>
+        <v>0.141567</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142653</v>
+        <v>0.140834</v>
       </c>
       <c r="C133" t="n">
-        <v>0.227695</v>
+        <v>0.224276</v>
       </c>
       <c r="D133" t="n">
-        <v>0.572557</v>
+        <v>0.569851</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0990526</v>
+        <v>0.09900539999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>0.150493</v>
+        <v>0.149407</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.153838</v>
+        <v>0.152635</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2436</v>
+        <v>0.244061</v>
       </c>
       <c r="D134" t="n">
-        <v>0.589477</v>
+        <v>0.586355</v>
       </c>
       <c r="E134" t="n">
-        <v>0.09971380000000001</v>
+        <v>0.104634</v>
       </c>
       <c r="F134" t="n">
-        <v>0.158267</v>
+        <v>0.158243</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.170131</v>
+        <v>0.169481</v>
       </c>
       <c r="C135" t="n">
-        <v>0.267653</v>
+        <v>0.268322</v>
       </c>
       <c r="D135" t="n">
-        <v>0.431419</v>
+        <v>0.430989</v>
       </c>
       <c r="E135" t="n">
-        <v>0.11449</v>
+        <v>0.115091</v>
       </c>
       <c r="F135" t="n">
-        <v>0.172175</v>
+        <v>0.172978</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194544</v>
+        <v>0.194516</v>
       </c>
       <c r="C136" t="n">
-        <v>0.304214</v>
+        <v>0.303196</v>
       </c>
       <c r="D136" t="n">
-        <v>0.442557</v>
+        <v>0.442119</v>
       </c>
       <c r="E136" t="n">
-        <v>0.129178</v>
+        <v>0.128395</v>
       </c>
       <c r="F136" t="n">
-        <v>0.193207</v>
+        <v>0.1936</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.233055</v>
+        <v>0.232219</v>
       </c>
       <c r="C137" t="n">
-        <v>0.359175</v>
+        <v>0.359246</v>
       </c>
       <c r="D137" t="n">
-        <v>0.453831</v>
+        <v>0.453555</v>
       </c>
       <c r="E137" t="n">
-        <v>0.14038</v>
+        <v>0.139529</v>
       </c>
       <c r="F137" t="n">
-        <v>0.171943</v>
+        <v>0.171781</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.169104</v>
+        <v>0.167847</v>
       </c>
       <c r="C138" t="n">
-        <v>0.226187</v>
+        <v>0.225372</v>
       </c>
       <c r="D138" t="n">
-        <v>0.467266</v>
+        <v>0.46546</v>
       </c>
       <c r="E138" t="n">
-        <v>0.133503</v>
+        <v>0.140502</v>
       </c>
       <c r="F138" t="n">
-        <v>0.168252</v>
+        <v>0.174977</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.171386</v>
+        <v>0.169293</v>
       </c>
       <c r="C139" t="n">
-        <v>0.231307</v>
+        <v>0.230178</v>
       </c>
       <c r="D139" t="n">
-        <v>0.479087</v>
+        <v>0.476822</v>
       </c>
       <c r="E139" t="n">
-        <v>0.142426</v>
+        <v>0.141057</v>
       </c>
       <c r="F139" t="n">
-        <v>0.168934</v>
+        <v>0.177693</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.172712</v>
+        <v>0.171543</v>
       </c>
       <c r="C140" t="n">
-        <v>0.23644</v>
+        <v>0.233882</v>
       </c>
       <c r="D140" t="n">
-        <v>0.490957</v>
+        <v>0.488888</v>
       </c>
       <c r="E140" t="n">
-        <v>0.136968</v>
+        <v>0.143624</v>
       </c>
       <c r="F140" t="n">
-        <v>0.181476</v>
+        <v>0.181216</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.171962</v>
+        <v>0.173202</v>
       </c>
       <c r="C141" t="n">
-        <v>0.239632</v>
+        <v>0.238892</v>
       </c>
       <c r="D141" t="n">
-        <v>0.503166</v>
+        <v>0.50101</v>
       </c>
       <c r="E141" t="n">
-        <v>0.14509</v>
+        <v>0.143952</v>
       </c>
       <c r="F141" t="n">
-        <v>0.184674</v>
+        <v>0.183109</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.178677</v>
+        <v>0.174473</v>
       </c>
       <c r="C142" t="n">
-        <v>0.244365</v>
+        <v>0.244326</v>
       </c>
       <c r="D142" t="n">
-        <v>0.515703</v>
+        <v>0.513529</v>
       </c>
       <c r="E142" t="n">
-        <v>0.146197</v>
+        <v>0.144827</v>
       </c>
       <c r="F142" t="n">
-        <v>0.187477</v>
+        <v>0.186015</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.177004</v>
+        <v>0.177112</v>
       </c>
       <c r="C143" t="n">
-        <v>0.250166</v>
+        <v>0.248982</v>
       </c>
       <c r="D143" t="n">
-        <v>0.529201</v>
+        <v>0.526834</v>
       </c>
       <c r="E143" t="n">
-        <v>0.146616</v>
+        <v>0.14685</v>
       </c>
       <c r="F143" t="n">
-        <v>0.191771</v>
+        <v>0.189562</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0347678</v>
+        <v>0.0348123</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0348306</v>
+        <v>0.0348625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12521</v>
+        <v>0.125597</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0229398</v>
+        <v>0.0229417</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0238557</v>
+        <v>0.0237983</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0353185</v>
+        <v>0.0352375</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0363617</v>
+        <v>0.03637</v>
       </c>
       <c r="D3" t="n">
-        <v>0.129614</v>
+        <v>0.127526</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0227287</v>
+        <v>0.0229678</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0239776</v>
+        <v>0.0238113</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0381993</v>
+        <v>0.0381122</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0389787</v>
+        <v>0.039055</v>
       </c>
       <c r="D4" t="n">
-        <v>0.135284</v>
+        <v>0.133651</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0233235</v>
+        <v>0.0232651</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0246214</v>
+        <v>0.0245025</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.043397</v>
+        <v>0.0437119</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0435046</v>
+        <v>0.0430576</v>
       </c>
       <c r="D5" t="n">
-        <v>0.140964</v>
+        <v>0.139419</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0225361</v>
+        <v>0.0226453</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0237623</v>
+        <v>0.0237707</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0547501</v>
+        <v>0.0545454</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0559095</v>
+        <v>0.0560334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.147008</v>
+        <v>0.144536</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0230621</v>
+        <v>0.0229811</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0244823</v>
+        <v>0.0248757</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0738567</v>
+        <v>0.074182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0744406</v>
+        <v>0.074326</v>
       </c>
       <c r="D7" t="n">
-        <v>0.102412</v>
+        <v>0.101969</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0270931</v>
+        <v>0.0267298</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0301698</v>
+        <v>0.0302546</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.108842</v>
+        <v>0.108557</v>
       </c>
       <c r="C8" t="n">
-        <v>0.108276</v>
+        <v>0.10759</v>
       </c>
       <c r="D8" t="n">
-        <v>0.108135</v>
+        <v>0.108026</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0475426</v>
+        <v>0.047673</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0484056</v>
+        <v>0.0488376</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149248</v>
+        <v>0.149166</v>
       </c>
       <c r="C9" t="n">
-        <v>0.150866</v>
+        <v>0.15081</v>
       </c>
       <c r="D9" t="n">
-        <v>0.113124</v>
+        <v>0.112826</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0229307</v>
+        <v>0.0229416</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0236909</v>
+        <v>0.0236342</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0325426</v>
+        <v>0.0325475</v>
       </c>
       <c r="C10" t="n">
-        <v>0.033082</v>
+        <v>0.0328739</v>
       </c>
       <c r="D10" t="n">
-        <v>0.118096</v>
+        <v>0.117258</v>
       </c>
       <c r="E10" t="n">
-        <v>0.023054</v>
+        <v>0.0230784</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0239203</v>
+        <v>0.0238698</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0329859</v>
+        <v>0.0329407</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0336028</v>
+        <v>0.0334151</v>
       </c>
       <c r="D11" t="n">
-        <v>0.122794</v>
+        <v>0.122249</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0232218</v>
+        <v>0.023285</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0240616</v>
+        <v>0.0239585</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.033449</v>
+        <v>0.0334726</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0343556</v>
+        <v>0.0341107</v>
       </c>
       <c r="D12" t="n">
-        <v>0.127696</v>
+        <v>0.12757</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0233678</v>
+        <v>0.0233077</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0243147</v>
+        <v>0.0242295</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0339677</v>
+        <v>0.0339247</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0349295</v>
+        <v>0.0348074</v>
       </c>
       <c r="D13" t="n">
-        <v>0.132084</v>
+        <v>0.13156</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0234139</v>
+        <v>0.0234936</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0246257</v>
+        <v>0.0245516</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0346354</v>
+        <v>0.0345716</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0359695</v>
+        <v>0.0355014</v>
       </c>
       <c r="D14" t="n">
-        <v>0.136548</v>
+        <v>0.136456</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0235023</v>
+        <v>0.0233449</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0247833</v>
+        <v>0.0246287</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0356513</v>
+        <v>0.0356248</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0371992</v>
+        <v>0.0366876</v>
       </c>
       <c r="D15" t="n">
-        <v>0.140919</v>
+        <v>0.140822</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0236637</v>
+        <v>0.0238091</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0252761</v>
+        <v>0.0249458</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0367499</v>
+        <v>0.0367254</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0385986</v>
+        <v>0.0380827</v>
       </c>
       <c r="D16" t="n">
-        <v>0.145914</v>
+        <v>0.145503</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0241348</v>
+        <v>0.0239921</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0257823</v>
+        <v>0.0254715</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0391324</v>
+        <v>0.038953</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0406173</v>
+        <v>0.0400485</v>
       </c>
       <c r="D17" t="n">
-        <v>0.150643</v>
+        <v>0.150701</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0243895</v>
+        <v>0.0240916</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0260393</v>
+        <v>0.0257996</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0417719</v>
+        <v>0.0416284</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0444277</v>
+        <v>0.043889</v>
       </c>
       <c r="D18" t="n">
-        <v>0.155671</v>
+        <v>0.155683</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0245207</v>
+        <v>0.0244983</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0267294</v>
+        <v>0.0259656</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0488578</v>
+        <v>0.0488579</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0517113</v>
+        <v>0.0513749</v>
       </c>
       <c r="D19" t="n">
-        <v>0.160695</v>
+        <v>0.160494</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0242215</v>
+        <v>0.0244329</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0278223</v>
+        <v>0.0275537</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0604425</v>
+        <v>0.0603529</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0602967</v>
+        <v>0.0601085</v>
       </c>
       <c r="D20" t="n">
-        <v>0.164636</v>
+        <v>0.164467</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0285097</v>
+        <v>0.0284204</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0319749</v>
+        <v>0.0318155</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07373490000000001</v>
+        <v>0.0735611</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07585989999999999</v>
+        <v>0.075679</v>
       </c>
       <c r="D21" t="n">
-        <v>0.11801</v>
+        <v>0.118003</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0380069</v>
+        <v>0.0379288</v>
       </c>
       <c r="F21" t="n">
-        <v>0.040223</v>
+        <v>0.0396486</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0984368</v>
+        <v>0.098384</v>
       </c>
       <c r="C22" t="n">
-        <v>0.100207</v>
+        <v>0.10003</v>
       </c>
       <c r="D22" t="n">
-        <v>0.122422</v>
+        <v>0.122594</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0564726</v>
+        <v>0.0565131</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0573568</v>
+        <v>0.0568551</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.133367</v>
+        <v>0.133517</v>
       </c>
       <c r="C23" t="n">
-        <v>0.134491</v>
+        <v>0.134368</v>
       </c>
       <c r="D23" t="n">
-        <v>0.126553</v>
+        <v>0.126401</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0238489</v>
+        <v>0.0240023</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0256154</v>
+        <v>0.0252905</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0338952</v>
+        <v>0.0338845</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0367531</v>
+        <v>0.0365832</v>
       </c>
       <c r="D24" t="n">
-        <v>0.132232</v>
+        <v>0.132293</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0241697</v>
+        <v>0.0243206</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0260279</v>
+        <v>0.0258249</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0340433</v>
+        <v>0.0341085</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0376199</v>
+        <v>0.0374854</v>
       </c>
       <c r="D25" t="n">
-        <v>0.136238</v>
+        <v>0.136396</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0243012</v>
+        <v>0.0244037</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0264728</v>
+        <v>0.0263899</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.035176</v>
+        <v>0.0351454</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0384787</v>
+        <v>0.0383069</v>
       </c>
       <c r="D26" t="n">
-        <v>0.14086</v>
+        <v>0.140461</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0246013</v>
+        <v>0.0247001</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0268747</v>
+        <v>0.0268952</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0357481</v>
+        <v>0.0357756</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0396097</v>
+        <v>0.0394813</v>
       </c>
       <c r="D27" t="n">
-        <v>0.145475</v>
+        <v>0.145364</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0250546</v>
+        <v>0.0250961</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0275212</v>
+        <v>0.0274713</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0365898</v>
+        <v>0.0366789</v>
       </c>
       <c r="C28" t="n">
-        <v>0.040407</v>
+        <v>0.0402874</v>
       </c>
       <c r="D28" t="n">
-        <v>0.150382</v>
+        <v>0.150061</v>
       </c>
       <c r="E28" t="n">
-        <v>0.025303</v>
+        <v>0.0254218</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0282804</v>
+        <v>0.0282928</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0377571</v>
+        <v>0.0377711</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0417567</v>
+        <v>0.041677</v>
       </c>
       <c r="D29" t="n">
-        <v>0.154873</v>
+        <v>0.154981</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0259492</v>
+        <v>0.0260261</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0290034</v>
+        <v>0.0288361</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0395837</v>
+        <v>0.0396786</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0438917</v>
+        <v>0.0437365</v>
       </c>
       <c r="D30" t="n">
-        <v>0.159057</v>
+        <v>0.158904</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0262972</v>
+        <v>0.0263481</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0297637</v>
+        <v>0.0296947</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0419127</v>
+        <v>0.0420475</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0456046</v>
+        <v>0.0456579</v>
       </c>
       <c r="D31" t="n">
-        <v>0.163192</v>
+        <v>0.162853</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0269475</v>
+        <v>0.0268389</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0306861</v>
+        <v>0.0305248</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0459057</v>
+        <v>0.0459462</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0499815</v>
+        <v>0.0499771</v>
       </c>
       <c r="D32" t="n">
-        <v>0.167677</v>
+        <v>0.167545</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0274422</v>
+        <v>0.0273777</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0314443</v>
+        <v>0.0314513</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0514526</v>
+        <v>0.0514674</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0542986</v>
+        <v>0.0543059</v>
       </c>
       <c r="D33" t="n">
-        <v>0.171913</v>
+        <v>0.171922</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0289592</v>
+        <v>0.0289615</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0329174</v>
+        <v>0.0326805</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0615592</v>
+        <v>0.0616137</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0654317</v>
+        <v>0.0654739</v>
       </c>
       <c r="D34" t="n">
-        <v>0.176464</v>
+        <v>0.176483</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0335194</v>
+        <v>0.0336184</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0372317</v>
+        <v>0.0371655</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0741651</v>
+        <v>0.0741383</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0764209</v>
+        <v>0.0764394</v>
       </c>
       <c r="D35" t="n">
-        <v>0.123788</v>
+        <v>0.123752</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0419899</v>
+        <v>0.0419835</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0444933</v>
+        <v>0.0444446</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09607400000000001</v>
+        <v>0.0962041</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09658890000000001</v>
+        <v>0.0964996</v>
       </c>
       <c r="D36" t="n">
-        <v>0.128283</v>
+        <v>0.127952</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0533746</v>
+        <v>0.0533215</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0550866</v>
+        <v>0.0549476</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.127758</v>
+        <v>0.127825</v>
       </c>
       <c r="C37" t="n">
-        <v>0.12881</v>
+        <v>0.128688</v>
       </c>
       <c r="D37" t="n">
-        <v>0.132805</v>
+        <v>0.132607</v>
       </c>
       <c r="E37" t="n">
-        <v>0.024747</v>
+        <v>0.0249247</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0276451</v>
+        <v>0.0277608</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0344903</v>
+        <v>0.0344686</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0384617</v>
+        <v>0.038507</v>
       </c>
       <c r="D38" t="n">
-        <v>0.137495</v>
+        <v>0.137493</v>
       </c>
       <c r="E38" t="n">
-        <v>0.025248</v>
+        <v>0.0253702</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0283042</v>
+        <v>0.0281977</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0349</v>
+        <v>0.0349816</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0391634</v>
+        <v>0.0391815</v>
       </c>
       <c r="D39" t="n">
-        <v>0.142322</v>
+        <v>0.142371</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0256355</v>
+        <v>0.025679</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0287593</v>
+        <v>0.0287839</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0356965</v>
+        <v>0.0357525</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0400099</v>
+        <v>0.0400719</v>
       </c>
       <c r="D40" t="n">
-        <v>0.146754</v>
+        <v>0.146788</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0258639</v>
+        <v>0.0260621</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0291571</v>
+        <v>0.0292712</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0364383</v>
+        <v>0.0365573</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0409475</v>
+        <v>0.041002</v>
       </c>
       <c r="D41" t="n">
-        <v>0.151806</v>
+        <v>0.151783</v>
       </c>
       <c r="E41" t="n">
-        <v>0.026161</v>
+        <v>0.0261834</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0296725</v>
+        <v>0.0296928</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0374731</v>
+        <v>0.0375372</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0419556</v>
+        <v>0.0419926</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1565</v>
+        <v>0.156467</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0265684</v>
+        <v>0.0265713</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0302784</v>
+        <v>0.0303306</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0387853</v>
+        <v>0.0389295</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0431553</v>
+        <v>0.0432102</v>
       </c>
       <c r="D43" t="n">
-        <v>0.160985</v>
+        <v>0.161005</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0272462</v>
+        <v>0.027308</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0310489</v>
+        <v>0.0310329</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0404094</v>
+        <v>0.0404558</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0450328</v>
+        <v>0.04511</v>
       </c>
       <c r="D44" t="n">
-        <v>0.165034</v>
+        <v>0.164976</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0279587</v>
+        <v>0.0280749</v>
       </c>
       <c r="F44" t="n">
-        <v>0.031889</v>
+        <v>0.0318819</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0432557</v>
+        <v>0.0433173</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0474114</v>
+        <v>0.0475069</v>
       </c>
       <c r="D45" t="n">
-        <v>0.168932</v>
+        <v>0.169013</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0289336</v>
+        <v>0.0289358</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0329188</v>
+        <v>0.0328667</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0465721</v>
+        <v>0.0466736</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0509063</v>
+        <v>0.0509855</v>
       </c>
       <c r="D46" t="n">
-        <v>0.17286</v>
+        <v>0.172922</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0304082</v>
+        <v>0.0304472</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0344808</v>
+        <v>0.0344797</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0522064</v>
+        <v>0.052249</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0562071</v>
+        <v>0.0563032</v>
       </c>
       <c r="D47" t="n">
-        <v>0.177129</v>
+        <v>0.177141</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0327114</v>
+        <v>0.032729</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0367018</v>
+        <v>0.0364672</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0606988</v>
+        <v>0.0607833</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06318559999999999</v>
+        <v>0.06338149999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.181641</v>
+        <v>0.181675</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0367799</v>
+        <v>0.0368022</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0401483</v>
+        <v>0.0401623</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07495</v>
+        <v>0.0749662</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0768515</v>
+        <v>0.0768129</v>
       </c>
       <c r="D49" t="n">
-        <v>0.185985</v>
+        <v>0.186016</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0422316</v>
+        <v>0.0422429</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0452507</v>
+        <v>0.0451171</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0922663</v>
+        <v>0.0923175</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0920652</v>
+        <v>0.0921505</v>
       </c>
       <c r="D50" t="n">
-        <v>0.130988</v>
+        <v>0.130904</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0503857</v>
+        <v>0.0503717</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0525751</v>
+        <v>0.0525688</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.122121</v>
+        <v>0.122134</v>
       </c>
       <c r="C51" t="n">
-        <v>0.122972</v>
+        <v>0.122918</v>
       </c>
       <c r="D51" t="n">
-        <v>0.135554</v>
+        <v>0.135617</v>
       </c>
       <c r="E51" t="n">
-        <v>0.027088</v>
+        <v>0.0268627</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0303107</v>
+        <v>0.031229</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168243</v>
+        <v>0.168474</v>
       </c>
       <c r="C52" t="n">
-        <v>0.168029</v>
+        <v>0.168269</v>
       </c>
       <c r="D52" t="n">
-        <v>0.140386</v>
+        <v>0.140522</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0272444</v>
+        <v>0.0270823</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0308886</v>
+        <v>0.0317268</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0369417</v>
+        <v>0.0361603</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0415765</v>
+        <v>0.0414503</v>
       </c>
       <c r="D53" t="n">
-        <v>0.145323</v>
+        <v>0.145307</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0271246</v>
+        <v>0.0273242</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0313672</v>
+        <v>0.0322393</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0369385</v>
+        <v>0.0370414</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0423904</v>
+        <v>0.0422428</v>
       </c>
       <c r="D54" t="n">
-        <v>0.150231</v>
+        <v>0.150165</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0274442</v>
+        <v>0.0281329</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0317783</v>
+        <v>0.0326503</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0382877</v>
+        <v>0.0378745</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0434646</v>
+        <v>0.0433235</v>
       </c>
       <c r="D55" t="n">
-        <v>0.154867</v>
+        <v>0.154801</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0295656</v>
+        <v>0.0285321</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0317482</v>
+        <v>0.032328</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0395939</v>
+        <v>0.0388757</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0446227</v>
+        <v>0.0443915</v>
       </c>
       <c r="D56" t="n">
-        <v>0.15927</v>
+        <v>0.15904</v>
       </c>
       <c r="E56" t="n">
-        <v>0.028415</v>
+        <v>0.0286349</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0331942</v>
+        <v>0.0340048</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.040043</v>
+        <v>0.0404409</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0460449</v>
+        <v>0.0459319</v>
       </c>
       <c r="D57" t="n">
-        <v>0.16354</v>
+        <v>0.16333</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0296483</v>
+        <v>0.0297627</v>
       </c>
       <c r="F57" t="n">
-        <v>0.033936</v>
+        <v>0.0346309</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0418525</v>
+        <v>0.0424497</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0477729</v>
+        <v>0.0476831</v>
       </c>
       <c r="D58" t="n">
-        <v>0.167923</v>
+        <v>0.167519</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0304925</v>
+        <v>0.030303</v>
       </c>
       <c r="F58" t="n">
-        <v>0.035138</v>
+        <v>0.0368693</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0443573</v>
+        <v>0.0444507</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0501172</v>
+        <v>0.0499935</v>
       </c>
       <c r="D59" t="n">
-        <v>0.172146</v>
+        <v>0.171496</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0309444</v>
+        <v>0.0310881</v>
       </c>
       <c r="F59" t="n">
-        <v>0.036104</v>
+        <v>0.0363944</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0483906</v>
+        <v>0.0485646</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0537073</v>
+        <v>0.0534618</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175958</v>
+        <v>0.175527</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0328531</v>
+        <v>0.0326905</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0375538</v>
+        <v>0.0373523</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0533768</v>
+        <v>0.0538009</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0577106</v>
+        <v>0.0583934</v>
       </c>
       <c r="D61" t="n">
-        <v>0.180087</v>
+        <v>0.180166</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0351465</v>
+        <v>0.035156</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0392512</v>
+        <v>0.0389529</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0604617</v>
+        <v>0.0604689</v>
       </c>
       <c r="C62" t="n">
-        <v>0.064305</v>
+        <v>0.0643422</v>
       </c>
       <c r="D62" t="n">
-        <v>0.184456</v>
+        <v>0.184998</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0381614</v>
+        <v>0.0381885</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0425283</v>
+        <v>0.0422517</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0725879</v>
+        <v>0.0723997</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07589319999999999</v>
+        <v>0.0756454</v>
       </c>
       <c r="D63" t="n">
-        <v>0.189302</v>
+        <v>0.189835</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0429608</v>
+        <v>0.042913</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0468776</v>
+        <v>0.046919</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0892694</v>
+        <v>0.0889934</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09223530000000001</v>
+        <v>0.09194720000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.138467</v>
+        <v>0.13898</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0503173</v>
+        <v>0.050452</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0541283</v>
+        <v>0.0542039</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115004</v>
+        <v>0.115242</v>
       </c>
       <c r="C65" t="n">
-        <v>0.118017</v>
+        <v>0.11779</v>
       </c>
       <c r="D65" t="n">
-        <v>0.144312</v>
+        <v>0.143518</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0641888</v>
+        <v>0.06408179999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0673951</v>
+        <v>0.06795030000000001</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.155457</v>
+        <v>0.155514</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1572</v>
+        <v>0.156878</v>
       </c>
       <c r="D66" t="n">
-        <v>0.151067</v>
+        <v>0.150828</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0324443</v>
+        <v>0.0322093</v>
       </c>
       <c r="F66" t="n">
-        <v>0.036975</v>
+        <v>0.0371488</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0415012</v>
+        <v>0.0413564</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0488855</v>
+        <v>0.0489638</v>
       </c>
       <c r="D67" t="n">
-        <v>0.158518</v>
+        <v>0.15761</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0326019</v>
+        <v>0.0325957</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0375895</v>
+        <v>0.0378715</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.041955</v>
+        <v>0.0420735</v>
       </c>
       <c r="C68" t="n">
-        <v>0.049995</v>
+        <v>0.0501857</v>
       </c>
       <c r="D68" t="n">
-        <v>0.167084</v>
+        <v>0.164042</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0330805</v>
+        <v>0.0328379</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0382039</v>
+        <v>0.0384517</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0428744</v>
+        <v>0.0428735</v>
       </c>
       <c r="C69" t="n">
-        <v>0.051195</v>
+        <v>0.051335</v>
       </c>
       <c r="D69" t="n">
-        <v>0.175367</v>
+        <v>0.172118</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0333414</v>
+        <v>0.033113</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0389065</v>
+        <v>0.0390475</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0437123</v>
+        <v>0.0437192</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0527449</v>
+        <v>0.0527778</v>
       </c>
       <c r="D70" t="n">
-        <v>0.181867</v>
+        <v>0.179674</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0337389</v>
+        <v>0.0336758</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0396522</v>
+        <v>0.0398878</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.044955</v>
+        <v>0.0449841</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0544012</v>
+        <v>0.0544798</v>
       </c>
       <c r="D71" t="n">
-        <v>0.19199</v>
+        <v>0.188961</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0343914</v>
+        <v>0.0342928</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0408698</v>
+        <v>0.0406424</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0469398</v>
+        <v>0.0468483</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0564783</v>
+        <v>0.0563714</v>
       </c>
       <c r="D72" t="n">
-        <v>0.201223</v>
+        <v>0.199677</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0351277</v>
+        <v>0.0350355</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0419969</v>
+        <v>0.0417189</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0492275</v>
+        <v>0.0493334</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0589933</v>
+        <v>0.0588548</v>
       </c>
       <c r="D73" t="n">
-        <v>0.209625</v>
+        <v>0.211129</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0363225</v>
+        <v>0.0359588</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0427885</v>
+        <v>0.043514</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0523764</v>
+        <v>0.0524368</v>
       </c>
       <c r="C74" t="n">
-        <v>0.06266380000000001</v>
+        <v>0.0622492</v>
       </c>
       <c r="D74" t="n">
-        <v>0.222148</v>
+        <v>0.222065</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0371416</v>
+        <v>0.0372046</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0443679</v>
+        <v>0.0443181</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0572877</v>
+        <v>0.0579315</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06775879999999999</v>
+        <v>0.0675728</v>
       </c>
       <c r="D75" t="n">
-        <v>0.234094</v>
+        <v>0.233885</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0389554</v>
+        <v>0.0390997</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0464832</v>
+        <v>0.0465338</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0640732</v>
+        <v>0.06460299999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.074474</v>
+        <v>0.074368</v>
       </c>
       <c r="D76" t="n">
-        <v>0.24624</v>
+        <v>0.246377</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0422909</v>
+        <v>0.0416115</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0492819</v>
+        <v>0.0492926</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0745396</v>
+        <v>0.07449799999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0853124</v>
+        <v>0.0842755</v>
       </c>
       <c r="D77" t="n">
-        <v>0.260509</v>
+        <v>0.261875</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0464422</v>
+        <v>0.0457751</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0536821</v>
+        <v>0.053554</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0898003</v>
+        <v>0.0897869</v>
       </c>
       <c r="C78" t="n">
-        <v>0.102074</v>
+        <v>0.101054</v>
       </c>
       <c r="D78" t="n">
-        <v>0.21803</v>
+        <v>0.218372</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0527416</v>
+        <v>0.0523753</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0607073</v>
+        <v>0.0598991</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.114546</v>
+        <v>0.112463</v>
       </c>
       <c r="C79" t="n">
-        <v>0.127715</v>
+        <v>0.126771</v>
       </c>
       <c r="D79" t="n">
-        <v>0.23102</v>
+        <v>0.230648</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06443740000000001</v>
+        <v>0.0646678</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0723106</v>
+        <v>0.0709432</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.152482</v>
+        <v>0.151146</v>
       </c>
       <c r="C80" t="n">
-        <v>0.173586</v>
+        <v>0.173517</v>
       </c>
       <c r="D80" t="n">
-        <v>0.242969</v>
+        <v>0.24267</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0362108</v>
+        <v>0.0362428</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0422207</v>
+        <v>0.0420975</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0466448</v>
+        <v>0.0467767</v>
       </c>
       <c r="C81" t="n">
-        <v>0.05809</v>
+        <v>0.0576044</v>
       </c>
       <c r="D81" t="n">
-        <v>0.255555</v>
+        <v>0.256025</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0365591</v>
+        <v>0.0367534</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0427573</v>
+        <v>0.0429151</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0473282</v>
+        <v>0.0473325</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0601347</v>
+        <v>0.059635</v>
       </c>
       <c r="D82" t="n">
-        <v>0.26859</v>
+        <v>0.268666</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0370817</v>
+        <v>0.0370348</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0436846</v>
+        <v>0.0437311</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0482837</v>
+        <v>0.0482695</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0630647</v>
+        <v>0.0623767</v>
       </c>
       <c r="D83" t="n">
-        <v>0.281561</v>
+        <v>0.281803</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0376483</v>
+        <v>0.0376274</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0446708</v>
+        <v>0.0445355</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0497456</v>
+        <v>0.0494331</v>
       </c>
       <c r="C84" t="n">
-        <v>0.06733790000000001</v>
+        <v>0.06566959999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.295118</v>
+        <v>0.295643</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0381669</v>
+        <v>0.0381347</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0454392</v>
+        <v>0.0454929</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0512961</v>
+        <v>0.0509105</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0720654</v>
+        <v>0.0712194</v>
       </c>
       <c r="D85" t="n">
-        <v>0.308653</v>
+        <v>0.309231</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0389354</v>
+        <v>0.0387394</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0473151</v>
+        <v>0.0469301</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0532629</v>
+        <v>0.0528794</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0781509</v>
+        <v>0.0778828</v>
       </c>
       <c r="D86" t="n">
-        <v>0.322424</v>
+        <v>0.322795</v>
       </c>
       <c r="E86" t="n">
-        <v>0.039899</v>
+        <v>0.0395714</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0492839</v>
+        <v>0.0486495</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0563108</v>
+        <v>0.0558629</v>
       </c>
       <c r="C87" t="n">
-        <v>0.08619979999999999</v>
+        <v>0.0858467</v>
       </c>
       <c r="D87" t="n">
-        <v>0.336784</v>
+        <v>0.33745</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0411302</v>
+        <v>0.0403604</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0518365</v>
+        <v>0.0514741</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0602507</v>
+        <v>0.0595043</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09645049999999999</v>
+        <v>0.0970032</v>
       </c>
       <c r="D88" t="n">
-        <v>0.351315</v>
+        <v>0.352411</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0423494</v>
+        <v>0.0419986</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0550675</v>
+        <v>0.0544662</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06607159999999999</v>
+        <v>0.0653754</v>
       </c>
       <c r="C89" t="n">
-        <v>0.108625</v>
+        <v>0.109293</v>
       </c>
       <c r="D89" t="n">
-        <v>0.367314</v>
+        <v>0.367709</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0448359</v>
+        <v>0.0439741</v>
       </c>
       <c r="F89" t="n">
-        <v>0.059153</v>
+        <v>0.0587781</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0744766</v>
+        <v>0.0735205</v>
       </c>
       <c r="C90" t="n">
-        <v>0.124583</v>
+        <v>0.125116</v>
       </c>
       <c r="D90" t="n">
-        <v>0.383242</v>
+        <v>0.384496</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0481111</v>
+        <v>0.0477178</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0653827</v>
+        <v>0.0657364</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.08538229999999999</v>
+        <v>0.0852567</v>
       </c>
       <c r="C91" t="n">
-        <v>0.143298</v>
+        <v>0.144204</v>
       </c>
       <c r="D91" t="n">
-        <v>0.399994</v>
+        <v>0.400905</v>
       </c>
       <c r="E91" t="n">
-        <v>0.053257</v>
+        <v>0.0523382</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0750422</v>
+        <v>0.07459</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.101416</v>
+        <v>0.102011</v>
       </c>
       <c r="C92" t="n">
-        <v>0.166249</v>
+        <v>0.166672</v>
       </c>
       <c r="D92" t="n">
-        <v>0.32303</v>
+        <v>0.325567</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0610389</v>
+        <v>0.0602565</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08775380000000001</v>
+        <v>0.0870008</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.125781</v>
+        <v>0.126496</v>
       </c>
       <c r="C93" t="n">
-        <v>0.197454</v>
+        <v>0.197825</v>
       </c>
       <c r="D93" t="n">
-        <v>0.333857</v>
+        <v>0.336089</v>
       </c>
       <c r="E93" t="n">
-        <v>0.07320500000000001</v>
+        <v>0.0731335</v>
       </c>
       <c r="F93" t="n">
-        <v>0.107001</v>
+        <v>0.106084</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.161956</v>
+        <v>0.162976</v>
       </c>
       <c r="C94" t="n">
-        <v>0.236972</v>
+        <v>0.238706</v>
       </c>
       <c r="D94" t="n">
-        <v>0.344973</v>
+        <v>0.347531</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0405535</v>
+        <v>0.0403524</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0546991</v>
+        <v>0.0546428</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0585212</v>
+        <v>0.0591695</v>
       </c>
       <c r="C95" t="n">
-        <v>0.103298</v>
+        <v>0.103689</v>
       </c>
       <c r="D95" t="n">
-        <v>0.356625</v>
+        <v>0.359023</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0417918</v>
+        <v>0.0418403</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0583996</v>
+        <v>0.058728</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0618736</v>
+        <v>0.0618418</v>
       </c>
       <c r="C96" t="n">
-        <v>0.111897</v>
+        <v>0.112838</v>
       </c>
       <c r="D96" t="n">
-        <v>0.368593</v>
+        <v>0.370966</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0435997</v>
+        <v>0.0435126</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06342109999999999</v>
+        <v>0.06349109999999999</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.06573279999999999</v>
+        <v>0.0659535</v>
       </c>
       <c r="C97" t="n">
-        <v>0.120673</v>
+        <v>0.121646</v>
       </c>
       <c r="D97" t="n">
-        <v>0.380586</v>
+        <v>0.383029</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0453613</v>
+        <v>0.0451672</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0679507</v>
+        <v>0.0688011</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0702675</v>
+        <v>0.0704982</v>
       </c>
       <c r="C98" t="n">
-        <v>0.128503</v>
+        <v>0.12978</v>
       </c>
       <c r="D98" t="n">
-        <v>0.392576</v>
+        <v>0.394821</v>
       </c>
       <c r="E98" t="n">
-        <v>0.047953</v>
+        <v>0.0476248</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0735016</v>
+        <v>0.0744011</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0752491</v>
+        <v>0.0758279</v>
       </c>
       <c r="C99" t="n">
-        <v>0.136444</v>
+        <v>0.137568</v>
       </c>
       <c r="D99" t="n">
-        <v>0.405519</v>
+        <v>0.407696</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0506727</v>
+        <v>0.0502446</v>
       </c>
       <c r="F99" t="n">
-        <v>0.079522</v>
+        <v>0.0807411</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0810964</v>
+        <v>0.08123089999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.14413</v>
+        <v>0.145011</v>
       </c>
       <c r="D100" t="n">
-        <v>0.41823</v>
+        <v>0.421683</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0538892</v>
+        <v>0.0535498</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0857593</v>
+        <v>0.0865491</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0869706</v>
+        <v>0.0880389</v>
       </c>
       <c r="C101" t="n">
-        <v>0.151506</v>
+        <v>0.152712</v>
       </c>
       <c r="D101" t="n">
-        <v>0.431723</v>
+        <v>0.43554</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0575236</v>
+        <v>0.0576477</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0921106</v>
+        <v>0.09302059999999999</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0937935</v>
+        <v>0.0946481</v>
       </c>
       <c r="C102" t="n">
-        <v>0.159917</v>
+        <v>0.161171</v>
       </c>
       <c r="D102" t="n">
-        <v>0.446885</v>
+        <v>0.45031</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0617025</v>
+        <v>0.061965</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0988059</v>
+        <v>0.0998107</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.101274</v>
+        <v>0.10193</v>
       </c>
       <c r="C103" t="n">
-        <v>0.169335</v>
+        <v>0.170293</v>
       </c>
       <c r="D103" t="n">
-        <v>0.461641</v>
+        <v>0.465468</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0659177</v>
+        <v>0.0668878</v>
       </c>
       <c r="F103" t="n">
-        <v>0.106004</v>
+        <v>0.106391</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.110397</v>
+        <v>0.110991</v>
       </c>
       <c r="C104" t="n">
-        <v>0.180885</v>
+        <v>0.182185</v>
       </c>
       <c r="D104" t="n">
-        <v>0.477482</v>
+        <v>0.481265</v>
       </c>
       <c r="E104" t="n">
-        <v>0.07119060000000001</v>
+        <v>0.0723357</v>
       </c>
       <c r="F104" t="n">
-        <v>0.113168</v>
+        <v>0.114322</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.121416</v>
+        <v>0.122411</v>
       </c>
       <c r="C105" t="n">
-        <v>0.195564</v>
+        <v>0.196954</v>
       </c>
       <c r="D105" t="n">
-        <v>0.493867</v>
+        <v>0.497795</v>
       </c>
       <c r="E105" t="n">
-        <v>0.07767350000000001</v>
+        <v>0.07831780000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>0.12194</v>
+        <v>0.122339</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.135349</v>
+        <v>0.136682</v>
       </c>
       <c r="C106" t="n">
-        <v>0.213953</v>
+        <v>0.215162</v>
       </c>
       <c r="D106" t="n">
-        <v>0.510738</v>
+        <v>0.51488</v>
       </c>
       <c r="E106" t="n">
-        <v>0.08648119999999999</v>
+        <v>0.087244</v>
       </c>
       <c r="F106" t="n">
-        <v>0.133565</v>
+        <v>0.133551</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.154809</v>
+        <v>0.155721</v>
       </c>
       <c r="C107" t="n">
-        <v>0.239242</v>
+        <v>0.240411</v>
       </c>
       <c r="D107" t="n">
-        <v>0.386759</v>
+        <v>0.389676</v>
       </c>
       <c r="E107" t="n">
-        <v>0.098146</v>
+        <v>0.0991305</v>
       </c>
       <c r="F107" t="n">
-        <v>0.148423</v>
+        <v>0.149086</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.183549</v>
+        <v>0.184601</v>
       </c>
       <c r="C108" t="n">
-        <v>0.276051</v>
+        <v>0.277828</v>
       </c>
       <c r="D108" t="n">
-        <v>0.397275</v>
+        <v>0.400428</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0595832</v>
+        <v>0.0601665</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0895276</v>
+        <v>0.0900603</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.229969</v>
+        <v>0.230752</v>
       </c>
       <c r="C109" t="n">
-        <v>0.33785</v>
+        <v>0.339316</v>
       </c>
       <c r="D109" t="n">
-        <v>0.40836</v>
+        <v>0.411238</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0616477</v>
+        <v>0.0623401</v>
       </c>
       <c r="F109" t="n">
-        <v>0.09267880000000001</v>
+        <v>0.0934828</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.09016680000000001</v>
+        <v>0.0912403</v>
       </c>
       <c r="C110" t="n">
-        <v>0.144695</v>
+        <v>0.145696</v>
       </c>
       <c r="D110" t="n">
-        <v>0.419252</v>
+        <v>0.423102</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0640549</v>
+        <v>0.06458319999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>0.09600450000000001</v>
+        <v>0.09653100000000001</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0932061</v>
+        <v>0.0938315</v>
       </c>
       <c r="C111" t="n">
-        <v>0.149358</v>
+        <v>0.150109</v>
       </c>
       <c r="D111" t="n">
-        <v>0.430497</v>
+        <v>0.434389</v>
       </c>
       <c r="E111" t="n">
-        <v>0.06571109999999999</v>
+        <v>0.065968</v>
       </c>
       <c r="F111" t="n">
-        <v>0.09860679999999999</v>
+        <v>0.09936979999999999</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0961301</v>
+        <v>0.0965927</v>
       </c>
       <c r="C112" t="n">
-        <v>0.153974</v>
+        <v>0.154902</v>
       </c>
       <c r="D112" t="n">
-        <v>0.442249</v>
+        <v>0.446195</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0676573</v>
+        <v>0.0682623</v>
       </c>
       <c r="F112" t="n">
-        <v>0.101544</v>
+        <v>0.102371</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0993376</v>
+        <v>0.0998841</v>
       </c>
       <c r="C113" t="n">
-        <v>0.159166</v>
+        <v>0.160053</v>
       </c>
       <c r="D113" t="n">
-        <v>0.454595</v>
+        <v>0.458924</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0694789</v>
+        <v>0.0702657</v>
       </c>
       <c r="F113" t="n">
-        <v>0.104536</v>
+        <v>0.105495</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.10269</v>
+        <v>0.102855</v>
       </c>
       <c r="C114" t="n">
-        <v>0.164496</v>
+        <v>0.165322</v>
       </c>
       <c r="D114" t="n">
-        <v>0.467435</v>
+        <v>0.471269</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0716338</v>
+        <v>0.0722768</v>
       </c>
       <c r="F114" t="n">
-        <v>0.108516</v>
+        <v>0.109293</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.106401</v>
+        <v>0.106698</v>
       </c>
       <c r="C115" t="n">
-        <v>0.170505</v>
+        <v>0.171485</v>
       </c>
       <c r="D115" t="n">
-        <v>0.481054</v>
+        <v>0.484425</v>
       </c>
       <c r="E115" t="n">
-        <v>0.07439419999999999</v>
+        <v>0.0746525</v>
       </c>
       <c r="F115" t="n">
-        <v>0.112558</v>
+        <v>0.11316</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.110846</v>
+        <v>0.111464</v>
       </c>
       <c r="C116" t="n">
-        <v>0.177851</v>
+        <v>0.178742</v>
       </c>
       <c r="D116" t="n">
-        <v>0.494235</v>
+        <v>0.499336</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0771831</v>
+        <v>0.07742599999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>0.116915</v>
+        <v>0.117235</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.116213</v>
+        <v>0.116768</v>
       </c>
       <c r="C117" t="n">
-        <v>0.186234</v>
+        <v>0.187379</v>
       </c>
       <c r="D117" t="n">
-        <v>0.508971</v>
+        <v>0.514</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0798846</v>
+        <v>0.08040369999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>0.121639</v>
+        <v>0.122369</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123329</v>
+        <v>0.123768</v>
       </c>
       <c r="C118" t="n">
-        <v>0.19695</v>
+        <v>0.198035</v>
       </c>
       <c r="D118" t="n">
-        <v>0.523899</v>
+        <v>0.528788</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0837334</v>
+        <v>0.0845451</v>
       </c>
       <c r="F118" t="n">
-        <v>0.127699</v>
+        <v>0.12841</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.132878</v>
+        <v>0.133676</v>
       </c>
       <c r="C119" t="n">
-        <v>0.210583</v>
+        <v>0.211733</v>
       </c>
       <c r="D119" t="n">
-        <v>0.540481</v>
+        <v>0.54515</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0886468</v>
+        <v>0.0895662</v>
       </c>
       <c r="F119" t="n">
-        <v>0.134721</v>
+        <v>0.135676</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.145508</v>
+        <v>0.146083</v>
       </c>
       <c r="C120" t="n">
-        <v>0.22927</v>
+        <v>0.230468</v>
       </c>
       <c r="D120" t="n">
-        <v>0.558164</v>
+        <v>0.562354</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0955927</v>
+        <v>0.0968738</v>
       </c>
       <c r="F120" t="n">
-        <v>0.145081</v>
+        <v>0.145848</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163167</v>
+        <v>0.163864</v>
       </c>
       <c r="C121" t="n">
-        <v>0.254077</v>
+        <v>0.255543</v>
       </c>
       <c r="D121" t="n">
-        <v>0.414516</v>
+        <v>0.417663</v>
       </c>
       <c r="E121" t="n">
-        <v>0.105837</v>
+        <v>0.106506</v>
       </c>
       <c r="F121" t="n">
-        <v>0.159357</v>
+        <v>0.160484</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.188792</v>
+        <v>0.189853</v>
       </c>
       <c r="C122" t="n">
-        <v>0.290844</v>
+        <v>0.292599</v>
       </c>
       <c r="D122" t="n">
-        <v>0.425604</v>
+        <v>0.428904</v>
       </c>
       <c r="E122" t="n">
-        <v>0.121991</v>
+        <v>0.123285</v>
       </c>
       <c r="F122" t="n">
-        <v>0.181343</v>
+        <v>0.18276</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.230077</v>
+        <v>0.231104</v>
       </c>
       <c r="C123" t="n">
-        <v>0.349139</v>
+        <v>0.351687</v>
       </c>
       <c r="D123" t="n">
-        <v>0.436601</v>
+        <v>0.439606</v>
       </c>
       <c r="E123" t="n">
-        <v>0.07503940000000001</v>
+        <v>0.0731975</v>
       </c>
       <c r="F123" t="n">
-        <v>0.108324</v>
+        <v>0.107635</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.10354</v>
+        <v>0.102658</v>
       </c>
       <c r="C124" t="n">
-        <v>0.160304</v>
+        <v>0.160845</v>
       </c>
       <c r="D124" t="n">
-        <v>0.447553</v>
+        <v>0.451668</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0759973</v>
+        <v>0.07409499999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>0.110861</v>
+        <v>0.110818</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.103817</v>
+        <v>0.104546</v>
       </c>
       <c r="C125" t="n">
-        <v>0.165343</v>
+        <v>0.165154</v>
       </c>
       <c r="D125" t="n">
-        <v>0.459428</v>
+        <v>0.462995</v>
       </c>
       <c r="E125" t="n">
-        <v>0.07580729999999999</v>
+        <v>0.08153340000000001</v>
       </c>
       <c r="F125" t="n">
-        <v>0.112648</v>
+        <v>0.119277</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.108583</v>
+        <v>0.106775</v>
       </c>
       <c r="C126" t="n">
-        <v>0.170357</v>
+        <v>0.171884</v>
       </c>
       <c r="D126" t="n">
-        <v>0.471351</v>
+        <v>0.475246</v>
       </c>
       <c r="E126" t="n">
-        <v>0.07867739999999999</v>
+        <v>0.08000259999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>0.116</v>
+        <v>0.119766</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110457</v>
+        <v>0.113618</v>
       </c>
       <c r="C127" t="n">
-        <v>0.173226</v>
+        <v>0.177166</v>
       </c>
       <c r="D127" t="n">
-        <v>0.483429</v>
+        <v>0.488089</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0807001</v>
+        <v>0.07998719999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>0.121053</v>
+        <v>0.124507</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.115721</v>
+        <v>0.113044</v>
       </c>
       <c r="C128" t="n">
-        <v>0.182858</v>
+        <v>0.181873</v>
       </c>
       <c r="D128" t="n">
-        <v>0.496295</v>
+        <v>0.500175</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0817732</v>
+        <v>0.0821423</v>
       </c>
       <c r="F128" t="n">
-        <v>0.124146</v>
+        <v>0.122596</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116825</v>
+        <v>0.116103</v>
       </c>
       <c r="C129" t="n">
-        <v>0.186223</v>
+        <v>0.18845</v>
       </c>
       <c r="D129" t="n">
-        <v>0.510232</v>
+        <v>0.513993</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0845983</v>
+        <v>0.0856331</v>
       </c>
       <c r="F129" t="n">
-        <v>0.127326</v>
+        <v>0.128467</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.119943</v>
+        <v>0.121948</v>
       </c>
       <c r="C130" t="n">
-        <v>0.195866</v>
+        <v>0.195359</v>
       </c>
       <c r="D130" t="n">
-        <v>0.523315</v>
+        <v>0.528075</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0869501</v>
+        <v>0.0873852</v>
       </c>
       <c r="F130" t="n">
-        <v>0.131431</v>
+        <v>0.132506</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.125581</v>
+        <v>0.12738</v>
       </c>
       <c r="C131" t="n">
-        <v>0.202553</v>
+        <v>0.206293</v>
       </c>
       <c r="D131" t="n">
-        <v>0.538326</v>
+        <v>0.542286</v>
       </c>
       <c r="E131" t="n">
-        <v>0.09195399999999999</v>
+        <v>0.09109680000000001</v>
       </c>
       <c r="F131" t="n">
-        <v>0.136761</v>
+        <v>0.138413</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13315</v>
+        <v>0.132466</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213365</v>
+        <v>0.215472</v>
       </c>
       <c r="D132" t="n">
-        <v>0.553291</v>
+        <v>0.558413</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0930343</v>
+        <v>0.0935768</v>
       </c>
       <c r="F132" t="n">
-        <v>0.141567</v>
+        <v>0.143036</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.140834</v>
+        <v>0.141195</v>
       </c>
       <c r="C133" t="n">
-        <v>0.224276</v>
+        <v>0.22859</v>
       </c>
       <c r="D133" t="n">
-        <v>0.569851</v>
+        <v>0.57394</v>
       </c>
       <c r="E133" t="n">
-        <v>0.09900539999999999</v>
+        <v>0.100222</v>
       </c>
       <c r="F133" t="n">
-        <v>0.149407</v>
+        <v>0.151136</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.152635</v>
+        <v>0.153363</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244061</v>
+        <v>0.243422</v>
       </c>
       <c r="D134" t="n">
-        <v>0.586355</v>
+        <v>0.591493</v>
       </c>
       <c r="E134" t="n">
-        <v>0.104634</v>
+        <v>0.106961</v>
       </c>
       <c r="F134" t="n">
-        <v>0.158243</v>
+        <v>0.162016</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.169481</v>
+        <v>0.169746</v>
       </c>
       <c r="C135" t="n">
-        <v>0.268322</v>
+        <v>0.268525</v>
       </c>
       <c r="D135" t="n">
-        <v>0.430989</v>
+        <v>0.434348</v>
       </c>
       <c r="E135" t="n">
-        <v>0.115091</v>
+        <v>0.113872</v>
       </c>
       <c r="F135" t="n">
-        <v>0.172978</v>
+        <v>0.172729</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194516</v>
+        <v>0.194567</v>
       </c>
       <c r="C136" t="n">
-        <v>0.303196</v>
+        <v>0.304436</v>
       </c>
       <c r="D136" t="n">
-        <v>0.442119</v>
+        <v>0.445631</v>
       </c>
       <c r="E136" t="n">
-        <v>0.128395</v>
+        <v>0.128939</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1936</v>
+        <v>0.192801</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232219</v>
+        <v>0.232497</v>
       </c>
       <c r="C137" t="n">
-        <v>0.359246</v>
+        <v>0.358686</v>
       </c>
       <c r="D137" t="n">
-        <v>0.453555</v>
+        <v>0.457011</v>
       </c>
       <c r="E137" t="n">
-        <v>0.139529</v>
+        <v>0.140606</v>
       </c>
       <c r="F137" t="n">
-        <v>0.171781</v>
+        <v>0.173254</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.167847</v>
+        <v>0.168451</v>
       </c>
       <c r="C138" t="n">
-        <v>0.225372</v>
+        <v>0.227644</v>
       </c>
       <c r="D138" t="n">
-        <v>0.46546</v>
+        <v>0.469105</v>
       </c>
       <c r="E138" t="n">
-        <v>0.140502</v>
+        <v>0.140493</v>
       </c>
       <c r="F138" t="n">
-        <v>0.174977</v>
+        <v>0.175664</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169293</v>
+        <v>0.170315</v>
       </c>
       <c r="C139" t="n">
-        <v>0.230178</v>
+        <v>0.232498</v>
       </c>
       <c r="D139" t="n">
-        <v>0.476822</v>
+        <v>0.480422</v>
       </c>
       <c r="E139" t="n">
-        <v>0.141057</v>
+        <v>0.141296</v>
       </c>
       <c r="F139" t="n">
-        <v>0.177693</v>
+        <v>0.177688</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.171543</v>
+        <v>0.172433</v>
       </c>
       <c r="C140" t="n">
-        <v>0.233882</v>
+        <v>0.235724</v>
       </c>
       <c r="D140" t="n">
-        <v>0.488888</v>
+        <v>0.492299</v>
       </c>
       <c r="E140" t="n">
-        <v>0.143624</v>
+        <v>0.143285</v>
       </c>
       <c r="F140" t="n">
-        <v>0.181216</v>
+        <v>0.180518</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.173202</v>
+        <v>0.17484</v>
       </c>
       <c r="C141" t="n">
-        <v>0.238892</v>
+        <v>0.24008</v>
       </c>
       <c r="D141" t="n">
-        <v>0.50101</v>
+        <v>0.504872</v>
       </c>
       <c r="E141" t="n">
-        <v>0.143952</v>
+        <v>0.144892</v>
       </c>
       <c r="F141" t="n">
-        <v>0.183109</v>
+        <v>0.184608</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.174473</v>
+        <v>0.175684</v>
       </c>
       <c r="C142" t="n">
-        <v>0.244326</v>
+        <v>0.24428</v>
       </c>
       <c r="D142" t="n">
-        <v>0.513529</v>
+        <v>0.517605</v>
       </c>
       <c r="E142" t="n">
-        <v>0.144827</v>
+        <v>0.146736</v>
       </c>
       <c r="F142" t="n">
-        <v>0.186015</v>
+        <v>0.188711</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.177112</v>
+        <v>0.178141</v>
       </c>
       <c r="C143" t="n">
-        <v>0.248982</v>
+        <v>0.251589</v>
       </c>
       <c r="D143" t="n">
-        <v>0.526834</v>
+        <v>0.530455</v>
       </c>
       <c r="E143" t="n">
-        <v>0.14685</v>
+        <v>0.148928</v>
       </c>
       <c r="F143" t="n">
-        <v>0.189562</v>
+        <v>0.19116</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0348123</v>
+        <v>0.0348493</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0348625</v>
+        <v>0.0351145</v>
       </c>
       <c r="D2" t="n">
-        <v>0.125597</v>
+        <v>0.124038</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0229417</v>
+        <v>0.0229007</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0237983</v>
+        <v>0.0239982</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0352375</v>
+        <v>0.0353478</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03637</v>
+        <v>0.0364229</v>
       </c>
       <c r="D3" t="n">
-        <v>0.127526</v>
+        <v>0.127893</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0229678</v>
+        <v>0.0229791</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0238113</v>
+        <v>0.0242222</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0381122</v>
+        <v>0.0380899</v>
       </c>
       <c r="C4" t="n">
-        <v>0.039055</v>
+        <v>0.0389807</v>
       </c>
       <c r="D4" t="n">
-        <v>0.133651</v>
+        <v>0.133529</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0232651</v>
+        <v>0.0235647</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0245025</v>
+        <v>0.0248576</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0437119</v>
+        <v>0.0439526</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0430576</v>
+        <v>0.0432187</v>
       </c>
       <c r="D5" t="n">
-        <v>0.139419</v>
+        <v>0.13853</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0226453</v>
+        <v>0.0211887</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0237707</v>
+        <v>0.0238831</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0545454</v>
+        <v>0.0545766</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0560334</v>
+        <v>0.0564012</v>
       </c>
       <c r="D6" t="n">
-        <v>0.144536</v>
+        <v>0.144683</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0229811</v>
+        <v>0.0232486</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0248757</v>
+        <v>0.0251221</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.074182</v>
+        <v>0.07403849999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.074326</v>
+        <v>0.0747323</v>
       </c>
       <c r="D7" t="n">
-        <v>0.101969</v>
+        <v>0.102875</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0267298</v>
+        <v>0.0271607</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0302546</v>
+        <v>0.0303999</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.108557</v>
+        <v>0.109245</v>
       </c>
       <c r="C8" t="n">
-        <v>0.10759</v>
+        <v>0.107927</v>
       </c>
       <c r="D8" t="n">
-        <v>0.108026</v>
+        <v>0.108525</v>
       </c>
       <c r="E8" t="n">
-        <v>0.047673</v>
+        <v>0.0472654</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0488376</v>
+        <v>0.0484681</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149166</v>
+        <v>0.149358</v>
       </c>
       <c r="C9" t="n">
-        <v>0.15081</v>
+        <v>0.15078</v>
       </c>
       <c r="D9" t="n">
-        <v>0.112826</v>
+        <v>0.113256</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0229416</v>
+        <v>0.023029</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0236342</v>
+        <v>0.0239653</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0325475</v>
+        <v>0.0325489</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0328739</v>
+        <v>0.0332058</v>
       </c>
       <c r="D10" t="n">
-        <v>0.117258</v>
+        <v>0.117998</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0230784</v>
+        <v>0.0231712</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0238698</v>
+        <v>0.0241638</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0329407</v>
+        <v>0.0329589</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0334151</v>
+        <v>0.0338208</v>
       </c>
       <c r="D11" t="n">
-        <v>0.122249</v>
+        <v>0.1226</v>
       </c>
       <c r="E11" t="n">
-        <v>0.023285</v>
+        <v>0.0233873</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0239585</v>
+        <v>0.0242722</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0334726</v>
+        <v>0.0334662</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0341107</v>
+        <v>0.0344323</v>
       </c>
       <c r="D12" t="n">
-        <v>0.12757</v>
+        <v>0.127647</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0233077</v>
+        <v>0.0234826</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0242295</v>
+        <v>0.0245127</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0339247</v>
+        <v>0.0339899</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0348074</v>
+        <v>0.0352397</v>
       </c>
       <c r="D13" t="n">
-        <v>0.13156</v>
+        <v>0.132073</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0234936</v>
+        <v>0.0235509</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0245516</v>
+        <v>0.024936</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0345716</v>
+        <v>0.0346705</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0355014</v>
+        <v>0.035869</v>
       </c>
       <c r="D14" t="n">
-        <v>0.136456</v>
+        <v>0.136724</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0233449</v>
+        <v>0.0235531</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0246287</v>
+        <v>0.0250232</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0356248</v>
+        <v>0.0356626</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0366876</v>
+        <v>0.0371102</v>
       </c>
       <c r="D15" t="n">
-        <v>0.140822</v>
+        <v>0.141446</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0238091</v>
+        <v>0.0238665</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0249458</v>
+        <v>0.0253826</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0367254</v>
+        <v>0.0369311</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0380827</v>
+        <v>0.038512</v>
       </c>
       <c r="D16" t="n">
-        <v>0.145503</v>
+        <v>0.146321</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0239921</v>
+        <v>0.0243607</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0254715</v>
+        <v>0.0257871</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.038953</v>
+        <v>0.0389547</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0400485</v>
+        <v>0.0405954</v>
       </c>
       <c r="D17" t="n">
-        <v>0.150701</v>
+        <v>0.151093</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0240916</v>
+        <v>0.0245423</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0257996</v>
+        <v>0.0260435</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0416284</v>
+        <v>0.0415899</v>
       </c>
       <c r="C18" t="n">
-        <v>0.043889</v>
+        <v>0.0441814</v>
       </c>
       <c r="D18" t="n">
-        <v>0.155683</v>
+        <v>0.15572</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0244983</v>
+        <v>0.0247845</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0259656</v>
+        <v>0.0263916</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0488579</v>
+        <v>0.0487655</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0513749</v>
+        <v>0.051542</v>
       </c>
       <c r="D19" t="n">
-        <v>0.160494</v>
+        <v>0.160784</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0244329</v>
+        <v>0.0246591</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0275537</v>
+        <v>0.027938</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0603529</v>
+        <v>0.0604645</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0601085</v>
+        <v>0.0602125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.164467</v>
+        <v>0.164905</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0284204</v>
+        <v>0.028956</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0318155</v>
+        <v>0.0317712</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0735611</v>
+        <v>0.0735161</v>
       </c>
       <c r="C21" t="n">
-        <v>0.075679</v>
+        <v>0.07568130000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.118003</v>
+        <v>0.117666</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0379288</v>
+        <v>0.0380466</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0396486</v>
+        <v>0.0401202</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.098384</v>
+        <v>0.09837369999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.10003</v>
+        <v>0.100207</v>
       </c>
       <c r="D22" t="n">
-        <v>0.122594</v>
+        <v>0.122362</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0565131</v>
+        <v>0.0565812</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0568551</v>
+        <v>0.0571119</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.133517</v>
+        <v>0.133495</v>
       </c>
       <c r="C23" t="n">
-        <v>0.134368</v>
+        <v>0.13442</v>
       </c>
       <c r="D23" t="n">
-        <v>0.126401</v>
+        <v>0.126197</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0240023</v>
+        <v>0.0240356</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0252905</v>
+        <v>0.025324</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0338845</v>
+        <v>0.0338778</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0365832</v>
+        <v>0.0361641</v>
       </c>
       <c r="D24" t="n">
-        <v>0.132293</v>
+        <v>0.131635</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0243206</v>
+        <v>0.0243216</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0258249</v>
+        <v>0.025875</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0341085</v>
+        <v>0.0341064</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0374854</v>
+        <v>0.0369717</v>
       </c>
       <c r="D25" t="n">
-        <v>0.136396</v>
+        <v>0.135729</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0244037</v>
+        <v>0.0245661</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0263899</v>
+        <v>0.0263538</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0351454</v>
+        <v>0.0350986</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0383069</v>
+        <v>0.0375944</v>
       </c>
       <c r="D26" t="n">
-        <v>0.140461</v>
+        <v>0.140264</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0247001</v>
+        <v>0.0246603</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0268952</v>
+        <v>0.0265933</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0357756</v>
+        <v>0.035692</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0394813</v>
+        <v>0.0387519</v>
       </c>
       <c r="D27" t="n">
-        <v>0.145364</v>
+        <v>0.144901</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0250961</v>
+        <v>0.0250838</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0274713</v>
+        <v>0.0270392</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0366789</v>
+        <v>0.0365396</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0402874</v>
+        <v>0.0396193</v>
       </c>
       <c r="D28" t="n">
-        <v>0.150061</v>
+        <v>0.149692</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0254218</v>
+        <v>0.025411</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0282928</v>
+        <v>0.0276894</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0377711</v>
+        <v>0.0376141</v>
       </c>
       <c r="C29" t="n">
-        <v>0.041677</v>
+        <v>0.0408873</v>
       </c>
       <c r="D29" t="n">
-        <v>0.154981</v>
+        <v>0.154732</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0260261</v>
+        <v>0.0257904</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0288361</v>
+        <v>0.0283433</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0396786</v>
+        <v>0.0395078</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0437365</v>
+        <v>0.0430906</v>
       </c>
       <c r="D30" t="n">
-        <v>0.158904</v>
+        <v>0.158454</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0263481</v>
+        <v>0.0261518</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0296947</v>
+        <v>0.0289646</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0420475</v>
+        <v>0.0418373</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0456579</v>
+        <v>0.0448948</v>
       </c>
       <c r="D31" t="n">
-        <v>0.162853</v>
+        <v>0.162903</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0268389</v>
+        <v>0.0267748</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0305248</v>
+        <v>0.029852</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0459462</v>
+        <v>0.0457802</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0499771</v>
+        <v>0.0495053</v>
       </c>
       <c r="D32" t="n">
-        <v>0.167545</v>
+        <v>0.167272</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0273777</v>
+        <v>0.027343</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0314513</v>
+        <v>0.0305796</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0514674</v>
+        <v>0.051312</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0543059</v>
+        <v>0.0539868</v>
       </c>
       <c r="D33" t="n">
-        <v>0.171922</v>
+        <v>0.172016</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0289615</v>
+        <v>0.0289746</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0326805</v>
+        <v>0.0319996</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0616137</v>
+        <v>0.0615224</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0654739</v>
+        <v>0.0651684</v>
       </c>
       <c r="D34" t="n">
-        <v>0.176483</v>
+        <v>0.176498</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0336184</v>
+        <v>0.0333982</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0371655</v>
+        <v>0.0363536</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0741383</v>
+        <v>0.07415099999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0764394</v>
+        <v>0.07630489999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.123752</v>
+        <v>0.123699</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0419835</v>
+        <v>0.0418954</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0444446</v>
+        <v>0.0440191</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0962041</v>
+        <v>0.0960664</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0964996</v>
+        <v>0.0965541</v>
       </c>
       <c r="D36" t="n">
-        <v>0.127952</v>
+        <v>0.128183</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0533215</v>
+        <v>0.0533055</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0549476</v>
+        <v>0.0547636</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.127825</v>
+        <v>0.127983</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128688</v>
+        <v>0.128867</v>
       </c>
       <c r="D37" t="n">
-        <v>0.132607</v>
+        <v>0.132602</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0249247</v>
+        <v>0.0255089</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0277608</v>
+        <v>0.026967</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0344686</v>
+        <v>0.0343835</v>
       </c>
       <c r="C38" t="n">
-        <v>0.038507</v>
+        <v>0.0379082</v>
       </c>
       <c r="D38" t="n">
-        <v>0.137493</v>
+        <v>0.137348</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0253702</v>
+        <v>0.0251687</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0281977</v>
+        <v>0.0276512</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0349816</v>
+        <v>0.0348468</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0391815</v>
+        <v>0.0387163</v>
       </c>
       <c r="D39" t="n">
-        <v>0.142371</v>
+        <v>0.142187</v>
       </c>
       <c r="E39" t="n">
-        <v>0.025679</v>
+        <v>0.0255218</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0287839</v>
+        <v>0.0281189</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0357525</v>
+        <v>0.0356092</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0400719</v>
+        <v>0.0397037</v>
       </c>
       <c r="D40" t="n">
-        <v>0.146788</v>
+        <v>0.14665</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0260621</v>
+        <v>0.0256737</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0292712</v>
+        <v>0.0286772</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0365573</v>
+        <v>0.0363453</v>
       </c>
       <c r="C41" t="n">
-        <v>0.041002</v>
+        <v>0.0406915</v>
       </c>
       <c r="D41" t="n">
-        <v>0.151783</v>
+        <v>0.151631</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0261834</v>
+        <v>0.0259964</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0296928</v>
+        <v>0.0290959</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0375372</v>
+        <v>0.0374056</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0419926</v>
+        <v>0.0417674</v>
       </c>
       <c r="D42" t="n">
-        <v>0.156467</v>
+        <v>0.156461</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0265713</v>
+        <v>0.026692</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0303306</v>
+        <v>0.0298785</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0389295</v>
+        <v>0.0387093</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0432102</v>
+        <v>0.0430552</v>
       </c>
       <c r="D43" t="n">
-        <v>0.161005</v>
+        <v>0.160889</v>
       </c>
       <c r="E43" t="n">
-        <v>0.027308</v>
+        <v>0.0270873</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0310329</v>
+        <v>0.0306919</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0404558</v>
+        <v>0.0403284</v>
       </c>
       <c r="C44" t="n">
-        <v>0.04511</v>
+        <v>0.0448714</v>
       </c>
       <c r="D44" t="n">
-        <v>0.164976</v>
+        <v>0.164847</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0280749</v>
+        <v>0.0279111</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0318819</v>
+        <v>0.0316011</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0433173</v>
+        <v>0.0431586</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0475069</v>
+        <v>0.0472847</v>
       </c>
       <c r="D45" t="n">
-        <v>0.169013</v>
+        <v>0.168792</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0289358</v>
+        <v>0.0289339</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0328667</v>
+        <v>0.0327033</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0466736</v>
+        <v>0.0465995</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0509855</v>
+        <v>0.0508063</v>
       </c>
       <c r="D46" t="n">
-        <v>0.172922</v>
+        <v>0.172789</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0304472</v>
+        <v>0.030406</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0344797</v>
+        <v>0.0343164</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.052249</v>
+        <v>0.0521792</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0563032</v>
+        <v>0.0561499</v>
       </c>
       <c r="D47" t="n">
-        <v>0.177141</v>
+        <v>0.177019</v>
       </c>
       <c r="E47" t="n">
-        <v>0.032729</v>
+        <v>0.0326283</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0364672</v>
+        <v>0.036354</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0607833</v>
+        <v>0.060692</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06338149999999999</v>
+        <v>0.0631507</v>
       </c>
       <c r="D48" t="n">
-        <v>0.181675</v>
+        <v>0.181598</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0368022</v>
+        <v>0.0367998</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0401623</v>
+        <v>0.0400133</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0749662</v>
+        <v>0.0749663</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0768129</v>
+        <v>0.07674839999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.186016</v>
+        <v>0.186236</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0422429</v>
+        <v>0.0422527</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0451171</v>
+        <v>0.0449882</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0923175</v>
+        <v>0.092193</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0921505</v>
+        <v>0.0921115</v>
       </c>
       <c r="D50" t="n">
-        <v>0.130904</v>
+        <v>0.1309</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0503717</v>
+        <v>0.0503427</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0525688</v>
+        <v>0.0524531</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.122134</v>
+        <v>0.122182</v>
       </c>
       <c r="C51" t="n">
-        <v>0.122918</v>
+        <v>0.123109</v>
       </c>
       <c r="D51" t="n">
-        <v>0.135617</v>
+        <v>0.135598</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0268627</v>
+        <v>0.0265842</v>
       </c>
       <c r="F51" t="n">
-        <v>0.031229</v>
+        <v>0.0302252</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168474</v>
+        <v>0.168249</v>
       </c>
       <c r="C52" t="n">
-        <v>0.168269</v>
+        <v>0.167787</v>
       </c>
       <c r="D52" t="n">
-        <v>0.140522</v>
+        <v>0.140432</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0270823</v>
+        <v>0.0268713</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0317268</v>
+        <v>0.0307772</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0361603</v>
+        <v>0.0361969</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0414503</v>
+        <v>0.0410564</v>
       </c>
       <c r="D53" t="n">
-        <v>0.145307</v>
+        <v>0.14526</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0273242</v>
+        <v>0.0275201</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0322393</v>
+        <v>0.0314684</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0370414</v>
+        <v>0.0375905</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0422428</v>
+        <v>0.0418619</v>
       </c>
       <c r="D54" t="n">
-        <v>0.150165</v>
+        <v>0.149994</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0281329</v>
+        <v>0.0292068</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0326503</v>
+        <v>0.0317889</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0378745</v>
+        <v>0.0380078</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0433235</v>
+        <v>0.0431607</v>
       </c>
       <c r="D55" t="n">
-        <v>0.154801</v>
+        <v>0.154609</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0285321</v>
+        <v>0.0284156</v>
       </c>
       <c r="F55" t="n">
-        <v>0.032328</v>
+        <v>0.0320467</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0388757</v>
+        <v>0.0389676</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0443915</v>
+        <v>0.0442037</v>
       </c>
       <c r="D56" t="n">
-        <v>0.15904</v>
+        <v>0.15896</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0286349</v>
+        <v>0.0290663</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0340048</v>
+        <v>0.0332676</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0404409</v>
+        <v>0.0400086</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0459319</v>
+        <v>0.0457919</v>
       </c>
       <c r="D57" t="n">
-        <v>0.16333</v>
+        <v>0.16336</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0297627</v>
+        <v>0.0296195</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0346309</v>
+        <v>0.03389</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0424497</v>
+        <v>0.0422881</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0476831</v>
+        <v>0.0473937</v>
       </c>
       <c r="D58" t="n">
-        <v>0.167519</v>
+        <v>0.167632</v>
       </c>
       <c r="E58" t="n">
-        <v>0.030303</v>
+        <v>0.0300319</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0368693</v>
+        <v>0.0351566</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0444507</v>
+        <v>0.0442219</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0499935</v>
+        <v>0.0498645</v>
       </c>
       <c r="D59" t="n">
-        <v>0.171496</v>
+        <v>0.171907</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0310881</v>
+        <v>0.0310901</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0363944</v>
+        <v>0.0357166</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0485646</v>
+        <v>0.0482814</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0534618</v>
+        <v>0.0533535</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175527</v>
+        <v>0.175936</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0326905</v>
+        <v>0.0325877</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0373523</v>
+        <v>0.0370764</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0538009</v>
+        <v>0.0531863</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0583934</v>
+        <v>0.0574356</v>
       </c>
       <c r="D61" t="n">
-        <v>0.180166</v>
+        <v>0.180219</v>
       </c>
       <c r="E61" t="n">
-        <v>0.035156</v>
+        <v>0.0351396</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0389529</v>
+        <v>0.0391258</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0604689</v>
+        <v>0.0605741</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0643422</v>
+        <v>0.0646451</v>
       </c>
       <c r="D62" t="n">
-        <v>0.184998</v>
+        <v>0.184642</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0381885</v>
+        <v>0.0381796</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0422517</v>
+        <v>0.0428385</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0723997</v>
+        <v>0.07232760000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0756454</v>
+        <v>0.0756231</v>
       </c>
       <c r="D63" t="n">
-        <v>0.189835</v>
+        <v>0.189832</v>
       </c>
       <c r="E63" t="n">
-        <v>0.042913</v>
+        <v>0.0429312</v>
       </c>
       <c r="F63" t="n">
-        <v>0.046919</v>
+        <v>0.0472821</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0889934</v>
+        <v>0.089727</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09194720000000001</v>
+        <v>0.092269</v>
       </c>
       <c r="D64" t="n">
-        <v>0.13898</v>
+        <v>0.141255</v>
       </c>
       <c r="E64" t="n">
-        <v>0.050452</v>
+        <v>0.050414</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0542039</v>
+        <v>0.0538166</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115242</v>
+        <v>0.114963</v>
       </c>
       <c r="C65" t="n">
-        <v>0.11779</v>
+        <v>0.118027</v>
       </c>
       <c r="D65" t="n">
-        <v>0.143518</v>
+        <v>0.146126</v>
       </c>
       <c r="E65" t="n">
-        <v>0.06408179999999999</v>
+        <v>0.064724</v>
       </c>
       <c r="F65" t="n">
-        <v>0.06795030000000001</v>
+        <v>0.0673364</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.155514</v>
+        <v>0.155479</v>
       </c>
       <c r="C66" t="n">
-        <v>0.156878</v>
+        <v>0.157786</v>
       </c>
       <c r="D66" t="n">
-        <v>0.150828</v>
+        <v>0.152656</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0322093</v>
+        <v>0.0321529</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0371488</v>
+        <v>0.0371446</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0413564</v>
+        <v>0.0410908</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0489638</v>
+        <v>0.0486985</v>
       </c>
       <c r="D67" t="n">
-        <v>0.15761</v>
+        <v>0.161244</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0325957</v>
+        <v>0.0325111</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0378715</v>
+        <v>0.0377122</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0420735</v>
+        <v>0.0416979</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0501857</v>
+        <v>0.0498983</v>
       </c>
       <c r="D68" t="n">
-        <v>0.164042</v>
+        <v>0.169309</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0328379</v>
+        <v>0.0325428</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0384517</v>
+        <v>0.0385029</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0428735</v>
+        <v>0.0425681</v>
       </c>
       <c r="C69" t="n">
-        <v>0.051335</v>
+        <v>0.0513728</v>
       </c>
       <c r="D69" t="n">
-        <v>0.172118</v>
+        <v>0.177361</v>
       </c>
       <c r="E69" t="n">
-        <v>0.033113</v>
+        <v>0.0332128</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0390475</v>
+        <v>0.0390772</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0437192</v>
+        <v>0.0435879</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0527778</v>
+        <v>0.0529548</v>
       </c>
       <c r="D70" t="n">
-        <v>0.179674</v>
+        <v>0.185578</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0336758</v>
+        <v>0.0336493</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0398878</v>
+        <v>0.0399314</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0449841</v>
+        <v>0.0449143</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0544798</v>
+        <v>0.0550866</v>
       </c>
       <c r="D71" t="n">
-        <v>0.188961</v>
+        <v>0.195537</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0342928</v>
+        <v>0.0342815</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0406424</v>
+        <v>0.0404934</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0468483</v>
+        <v>0.0469736</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0563714</v>
+        <v>0.0574671</v>
       </c>
       <c r="D72" t="n">
-        <v>0.199677</v>
+        <v>0.204294</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0350355</v>
+        <v>0.035049</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0417189</v>
+        <v>0.0415663</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0493334</v>
+        <v>0.0491561</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0588548</v>
+        <v>0.0601197</v>
       </c>
       <c r="D73" t="n">
-        <v>0.211129</v>
+        <v>0.214655</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0359588</v>
+        <v>0.0362085</v>
       </c>
       <c r="F73" t="n">
-        <v>0.043514</v>
+        <v>0.0432017</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0524368</v>
+        <v>0.0524457</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0622492</v>
+        <v>0.064238</v>
       </c>
       <c r="D74" t="n">
-        <v>0.222065</v>
+        <v>0.225322</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0372046</v>
+        <v>0.0371487</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0443181</v>
+        <v>0.0448548</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0579315</v>
+        <v>0.0580896</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0675728</v>
+        <v>0.07040739999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.233885</v>
+        <v>0.237075</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0390997</v>
+        <v>0.0391157</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0465338</v>
+        <v>0.0471498</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06460299999999999</v>
+        <v>0.06489979999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.074368</v>
+        <v>0.07856680000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.246377</v>
+        <v>0.248887</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0416115</v>
+        <v>0.0418884</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0492926</v>
+        <v>0.0501336</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07449799999999999</v>
+        <v>0.0750445</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0842755</v>
+        <v>0.090629</v>
       </c>
       <c r="D77" t="n">
-        <v>0.261875</v>
+        <v>0.26311</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0457751</v>
+        <v>0.0461545</v>
       </c>
       <c r="F77" t="n">
-        <v>0.053554</v>
+        <v>0.0547457</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0897869</v>
+        <v>0.0905585</v>
       </c>
       <c r="C78" t="n">
-        <v>0.101054</v>
+        <v>0.106339</v>
       </c>
       <c r="D78" t="n">
-        <v>0.218372</v>
+        <v>0.217664</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0523753</v>
+        <v>0.0530883</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0598991</v>
+        <v>0.062438</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112463</v>
+        <v>0.113753</v>
       </c>
       <c r="C79" t="n">
-        <v>0.126771</v>
+        <v>0.133013</v>
       </c>
       <c r="D79" t="n">
-        <v>0.230648</v>
+        <v>0.229711</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0646678</v>
+        <v>0.0649309</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0709432</v>
+        <v>0.0744331</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.151146</v>
+        <v>0.152861</v>
       </c>
       <c r="C80" t="n">
-        <v>0.173517</v>
+        <v>0.178736</v>
       </c>
       <c r="D80" t="n">
-        <v>0.24267</v>
+        <v>0.24197</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0362428</v>
+        <v>0.0366414</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0420975</v>
+        <v>0.0432873</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0467767</v>
+        <v>0.0476379</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0576044</v>
+        <v>0.0618145</v>
       </c>
       <c r="D81" t="n">
-        <v>0.256025</v>
+        <v>0.254099</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0367534</v>
+        <v>0.0367711</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0429151</v>
+        <v>0.0441516</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0473325</v>
+        <v>0.0484443</v>
       </c>
       <c r="C82" t="n">
-        <v>0.059635</v>
+        <v>0.0659743</v>
       </c>
       <c r="D82" t="n">
-        <v>0.268666</v>
+        <v>0.267083</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0370348</v>
+        <v>0.0374786</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0437311</v>
+        <v>0.0457265</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0482695</v>
+        <v>0.0498131</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0623767</v>
+        <v>0.0698328</v>
       </c>
       <c r="D83" t="n">
-        <v>0.281803</v>
+        <v>0.279704</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0376274</v>
+        <v>0.0383683</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0445355</v>
+        <v>0.0470609</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0494331</v>
+        <v>0.051721</v>
       </c>
       <c r="C84" t="n">
-        <v>0.06566959999999999</v>
+        <v>0.0748351</v>
       </c>
       <c r="D84" t="n">
-        <v>0.295643</v>
+        <v>0.293113</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0381347</v>
+        <v>0.0391134</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0454929</v>
+        <v>0.0489692</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0509105</v>
+        <v>0.0539271</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0712194</v>
+        <v>0.08009670000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.309231</v>
+        <v>0.306854</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0387394</v>
+        <v>0.0404858</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0469301</v>
+        <v>0.0516465</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0528794</v>
+        <v>0.0571249</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0778828</v>
+        <v>0.0869805</v>
       </c>
       <c r="D86" t="n">
-        <v>0.322795</v>
+        <v>0.32045</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0395714</v>
+        <v>0.0418141</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0486495</v>
+        <v>0.0547479</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0558629</v>
+        <v>0.0612081</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0858467</v>
+        <v>0.09377190000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.33745</v>
+        <v>0.334954</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0403604</v>
+        <v>0.0437245</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0514741</v>
+        <v>0.0585742</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0595043</v>
+        <v>0.06671729999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0970032</v>
+        <v>0.1027</v>
       </c>
       <c r="D88" t="n">
-        <v>0.352411</v>
+        <v>0.35016</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0419986</v>
+        <v>0.0462522</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0544662</v>
+        <v>0.06260739999999999</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0653754</v>
+        <v>0.0733582</v>
       </c>
       <c r="C89" t="n">
-        <v>0.109293</v>
+        <v>0.112662</v>
       </c>
       <c r="D89" t="n">
-        <v>0.367709</v>
+        <v>0.365649</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0439741</v>
+        <v>0.0492331</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0587781</v>
+        <v>0.0673141</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0735205</v>
+        <v>0.0825013</v>
       </c>
       <c r="C90" t="n">
-        <v>0.125116</v>
+        <v>0.125589</v>
       </c>
       <c r="D90" t="n">
-        <v>0.384496</v>
+        <v>0.382377</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0477178</v>
+        <v>0.0541305</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0657364</v>
+        <v>0.07495209999999999</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0852567</v>
+        <v>0.09361129999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.144204</v>
+        <v>0.141007</v>
       </c>
       <c r="D91" t="n">
-        <v>0.400905</v>
+        <v>0.399146</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0523382</v>
+        <v>0.0599293</v>
       </c>
       <c r="F91" t="n">
-        <v>0.07459</v>
+        <v>0.0828646</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.102011</v>
+        <v>0.109145</v>
       </c>
       <c r="C92" t="n">
-        <v>0.166672</v>
+        <v>0.161865</v>
       </c>
       <c r="D92" t="n">
-        <v>0.325567</v>
+        <v>0.322975</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0602565</v>
+        <v>0.06724339999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0870008</v>
+        <v>0.0931775</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.126496</v>
+        <v>0.131159</v>
       </c>
       <c r="C93" t="n">
-        <v>0.197825</v>
+        <v>0.191506</v>
       </c>
       <c r="D93" t="n">
-        <v>0.336089</v>
+        <v>0.333978</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0731335</v>
+        <v>0.0803355</v>
       </c>
       <c r="F93" t="n">
-        <v>0.106084</v>
+        <v>0.108538</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.162976</v>
+        <v>0.164603</v>
       </c>
       <c r="C94" t="n">
-        <v>0.238706</v>
+        <v>0.233126</v>
       </c>
       <c r="D94" t="n">
-        <v>0.347531</v>
+        <v>0.345092</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0403524</v>
+        <v>0.0461269</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0546428</v>
+        <v>0.062449</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0591695</v>
+        <v>0.0667519</v>
       </c>
       <c r="C95" t="n">
-        <v>0.103689</v>
+        <v>0.100653</v>
       </c>
       <c r="D95" t="n">
-        <v>0.359023</v>
+        <v>0.356456</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0418403</v>
+        <v>0.0479293</v>
       </c>
       <c r="F95" t="n">
-        <v>0.058728</v>
+        <v>0.06541379999999999</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0618418</v>
+        <v>0.06988279999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.112838</v>
+        <v>0.105736</v>
       </c>
       <c r="D96" t="n">
-        <v>0.370966</v>
+        <v>0.368409</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0435126</v>
+        <v>0.0501279</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06349109999999999</v>
+        <v>0.0683054</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0659535</v>
+        <v>0.0719776</v>
       </c>
       <c r="C97" t="n">
-        <v>0.121646</v>
+        <v>0.111628</v>
       </c>
       <c r="D97" t="n">
-        <v>0.383029</v>
+        <v>0.38053</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0451672</v>
+        <v>0.0523475</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0688011</v>
+        <v>0.0717275</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0704982</v>
+        <v>0.0762224</v>
       </c>
       <c r="C98" t="n">
-        <v>0.12978</v>
+        <v>0.118332</v>
       </c>
       <c r="D98" t="n">
-        <v>0.394821</v>
+        <v>0.392421</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0476248</v>
+        <v>0.053787</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0744011</v>
+        <v>0.0747583</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0758279</v>
+        <v>0.0786977</v>
       </c>
       <c r="C99" t="n">
-        <v>0.137568</v>
+        <v>0.125326</v>
       </c>
       <c r="D99" t="n">
-        <v>0.407696</v>
+        <v>0.405616</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0502446</v>
+        <v>0.055921</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0807411</v>
+        <v>0.0780208</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08123089999999999</v>
+        <v>0.0820312</v>
       </c>
       <c r="C100" t="n">
-        <v>0.145011</v>
+        <v>0.13324</v>
       </c>
       <c r="D100" t="n">
-        <v>0.421683</v>
+        <v>0.419067</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0535498</v>
+        <v>0.058047</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0865491</v>
+        <v>0.0809959</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0880389</v>
+        <v>0.08539819999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.152712</v>
+        <v>0.142327</v>
       </c>
       <c r="D101" t="n">
-        <v>0.43554</v>
+        <v>0.432832</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0576477</v>
+        <v>0.0602471</v>
       </c>
       <c r="F101" t="n">
-        <v>0.09302059999999999</v>
+        <v>0.0845665</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0946481</v>
+        <v>0.08947720000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.161171</v>
+        <v>0.152251</v>
       </c>
       <c r="D102" t="n">
-        <v>0.45031</v>
+        <v>0.447525</v>
       </c>
       <c r="E102" t="n">
-        <v>0.061965</v>
+        <v>0.0621614</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0998107</v>
+        <v>0.0891224</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.10193</v>
+        <v>0.09553680000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.170293</v>
+        <v>0.163036</v>
       </c>
       <c r="D103" t="n">
-        <v>0.465468</v>
+        <v>0.462424</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0668878</v>
+        <v>0.0648886</v>
       </c>
       <c r="F103" t="n">
-        <v>0.106391</v>
+        <v>0.09466769999999999</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.110991</v>
+        <v>0.103912</v>
       </c>
       <c r="C104" t="n">
-        <v>0.182185</v>
+        <v>0.176681</v>
       </c>
       <c r="D104" t="n">
-        <v>0.481265</v>
+        <v>0.478335</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0723357</v>
+        <v>0.06908019999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>0.114322</v>
+        <v>0.101965</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.122411</v>
+        <v>0.114509</v>
       </c>
       <c r="C105" t="n">
-        <v>0.196954</v>
+        <v>0.192403</v>
       </c>
       <c r="D105" t="n">
-        <v>0.497795</v>
+        <v>0.494822</v>
       </c>
       <c r="E105" t="n">
-        <v>0.07831780000000001</v>
+        <v>0.0740155</v>
       </c>
       <c r="F105" t="n">
-        <v>0.122339</v>
+        <v>0.111205</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.136682</v>
+        <v>0.129236</v>
       </c>
       <c r="C106" t="n">
-        <v>0.215162</v>
+        <v>0.21162</v>
       </c>
       <c r="D106" t="n">
-        <v>0.51488</v>
+        <v>0.512196</v>
       </c>
       <c r="E106" t="n">
-        <v>0.087244</v>
+        <v>0.0815457</v>
       </c>
       <c r="F106" t="n">
-        <v>0.133551</v>
+        <v>0.125078</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.155721</v>
+        <v>0.150383</v>
       </c>
       <c r="C107" t="n">
-        <v>0.240411</v>
+        <v>0.237716</v>
       </c>
       <c r="D107" t="n">
-        <v>0.389676</v>
+        <v>0.387072</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0991305</v>
+        <v>0.0928262</v>
       </c>
       <c r="F107" t="n">
-        <v>0.149086</v>
+        <v>0.142338</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.184601</v>
+        <v>0.180172</v>
       </c>
       <c r="C108" t="n">
-        <v>0.277828</v>
+        <v>0.275316</v>
       </c>
       <c r="D108" t="n">
-        <v>0.400428</v>
+        <v>0.397398</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0601665</v>
+        <v>0.0548349</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0900603</v>
+        <v>0.0777104</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.230752</v>
+        <v>0.228211</v>
       </c>
       <c r="C109" t="n">
-        <v>0.339316</v>
+        <v>0.337255</v>
       </c>
       <c r="D109" t="n">
-        <v>0.411238</v>
+        <v>0.408775</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0623401</v>
+        <v>0.0560259</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0934828</v>
+        <v>0.0814401</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0912403</v>
+        <v>0.0808025</v>
       </c>
       <c r="C110" t="n">
-        <v>0.145696</v>
+        <v>0.141259</v>
       </c>
       <c r="D110" t="n">
-        <v>0.423102</v>
+        <v>0.419861</v>
       </c>
       <c r="E110" t="n">
-        <v>0.06458319999999999</v>
+        <v>0.0576581</v>
       </c>
       <c r="F110" t="n">
-        <v>0.09653100000000001</v>
+        <v>0.0853956</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0938315</v>
+        <v>0.0837712</v>
       </c>
       <c r="C111" t="n">
-        <v>0.150109</v>
+        <v>0.146528</v>
       </c>
       <c r="D111" t="n">
-        <v>0.434389</v>
+        <v>0.43128</v>
       </c>
       <c r="E111" t="n">
-        <v>0.065968</v>
+        <v>0.0586094</v>
       </c>
       <c r="F111" t="n">
-        <v>0.09936979999999999</v>
+        <v>0.0893567</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0965927</v>
+        <v>0.0871765</v>
       </c>
       <c r="C112" t="n">
-        <v>0.154902</v>
+        <v>0.151963</v>
       </c>
       <c r="D112" t="n">
-        <v>0.446195</v>
+        <v>0.443307</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0682623</v>
+        <v>0.0601021</v>
       </c>
       <c r="F112" t="n">
-        <v>0.102371</v>
+        <v>0.0939929</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0998841</v>
+        <v>0.09191050000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.160053</v>
+        <v>0.15758</v>
       </c>
       <c r="D113" t="n">
-        <v>0.458924</v>
+        <v>0.455398</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0702657</v>
+        <v>0.06290030000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>0.105495</v>
+        <v>0.100044</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.102855</v>
+        <v>0.0974165</v>
       </c>
       <c r="C114" t="n">
-        <v>0.165322</v>
+        <v>0.163657</v>
       </c>
       <c r="D114" t="n">
-        <v>0.471269</v>
+        <v>0.46814</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0722768</v>
+        <v>0.0660202</v>
       </c>
       <c r="F114" t="n">
-        <v>0.109293</v>
+        <v>0.105507</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.106698</v>
+        <v>0.102488</v>
       </c>
       <c r="C115" t="n">
-        <v>0.171485</v>
+        <v>0.169888</v>
       </c>
       <c r="D115" t="n">
-        <v>0.484425</v>
+        <v>0.481279</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0746525</v>
+        <v>0.06970850000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>0.11316</v>
+        <v>0.110683</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.111464</v>
+        <v>0.108391</v>
       </c>
       <c r="C116" t="n">
-        <v>0.178742</v>
+        <v>0.177262</v>
       </c>
       <c r="D116" t="n">
-        <v>0.499336</v>
+        <v>0.495749</v>
       </c>
       <c r="E116" t="n">
-        <v>0.07742599999999999</v>
+        <v>0.0741906</v>
       </c>
       <c r="F116" t="n">
-        <v>0.117235</v>
+        <v>0.115579</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.116768</v>
+        <v>0.114684</v>
       </c>
       <c r="C117" t="n">
-        <v>0.187379</v>
+        <v>0.186068</v>
       </c>
       <c r="D117" t="n">
-        <v>0.514</v>
+        <v>0.510506</v>
       </c>
       <c r="E117" t="n">
-        <v>0.08040369999999999</v>
+        <v>0.07831059999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>0.122369</v>
+        <v>0.121004</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123768</v>
+        <v>0.122577</v>
       </c>
       <c r="C118" t="n">
-        <v>0.198035</v>
+        <v>0.196544</v>
       </c>
       <c r="D118" t="n">
-        <v>0.528788</v>
+        <v>0.525949</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0845451</v>
+        <v>0.0829804</v>
       </c>
       <c r="F118" t="n">
-        <v>0.12841</v>
+        <v>0.126945</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.133676</v>
+        <v>0.132158</v>
       </c>
       <c r="C119" t="n">
-        <v>0.211733</v>
+        <v>0.210709</v>
       </c>
       <c r="D119" t="n">
-        <v>0.54515</v>
+        <v>0.543064</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0895662</v>
+        <v>0.088144</v>
       </c>
       <c r="F119" t="n">
-        <v>0.135676</v>
+        <v>0.134652</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.146083</v>
+        <v>0.145277</v>
       </c>
       <c r="C120" t="n">
-        <v>0.230468</v>
+        <v>0.229118</v>
       </c>
       <c r="D120" t="n">
-        <v>0.562354</v>
+        <v>0.560625</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0968738</v>
+        <v>0.09569279999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>0.145848</v>
+        <v>0.14502</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163864</v>
+        <v>0.162938</v>
       </c>
       <c r="C121" t="n">
-        <v>0.255543</v>
+        <v>0.254457</v>
       </c>
       <c r="D121" t="n">
-        <v>0.417663</v>
+        <v>0.415396</v>
       </c>
       <c r="E121" t="n">
-        <v>0.106506</v>
+        <v>0.105588</v>
       </c>
       <c r="F121" t="n">
-        <v>0.160484</v>
+        <v>0.159073</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.189853</v>
+        <v>0.18836</v>
       </c>
       <c r="C122" t="n">
-        <v>0.292599</v>
+        <v>0.29138</v>
       </c>
       <c r="D122" t="n">
-        <v>0.428904</v>
+        <v>0.426683</v>
       </c>
       <c r="E122" t="n">
-        <v>0.123285</v>
+        <v>0.122054</v>
       </c>
       <c r="F122" t="n">
-        <v>0.18276</v>
+        <v>0.18173</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.231104</v>
+        <v>0.230158</v>
       </c>
       <c r="C123" t="n">
-        <v>0.351687</v>
+        <v>0.349721</v>
       </c>
       <c r="D123" t="n">
-        <v>0.439606</v>
+        <v>0.437166</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0731975</v>
+        <v>0.0733169</v>
       </c>
       <c r="F123" t="n">
-        <v>0.107635</v>
+        <v>0.108003</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.102658</v>
+        <v>0.102498</v>
       </c>
       <c r="C124" t="n">
-        <v>0.160845</v>
+        <v>0.162089</v>
       </c>
       <c r="D124" t="n">
-        <v>0.451668</v>
+        <v>0.448477</v>
       </c>
       <c r="E124" t="n">
-        <v>0.07409499999999999</v>
+        <v>0.07579569999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>0.110818</v>
+        <v>0.112582</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.104546</v>
+        <v>0.104939</v>
       </c>
       <c r="C125" t="n">
-        <v>0.165154</v>
+        <v>0.164773</v>
       </c>
       <c r="D125" t="n">
-        <v>0.462995</v>
+        <v>0.459967</v>
       </c>
       <c r="E125" t="n">
-        <v>0.08153340000000001</v>
+        <v>0.0782395</v>
       </c>
       <c r="F125" t="n">
-        <v>0.119277</v>
+        <v>0.114011</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.106775</v>
+        <v>0.107057</v>
       </c>
       <c r="C126" t="n">
-        <v>0.171884</v>
+        <v>0.170566</v>
       </c>
       <c r="D126" t="n">
-        <v>0.475246</v>
+        <v>0.47202</v>
       </c>
       <c r="E126" t="n">
-        <v>0.08000259999999999</v>
+        <v>0.0803623</v>
       </c>
       <c r="F126" t="n">
-        <v>0.119766</v>
+        <v>0.120266</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.113618</v>
+        <v>0.110383</v>
       </c>
       <c r="C127" t="n">
-        <v>0.177166</v>
+        <v>0.175412</v>
       </c>
       <c r="D127" t="n">
-        <v>0.488089</v>
+        <v>0.48495</v>
       </c>
       <c r="E127" t="n">
-        <v>0.07998719999999999</v>
+        <v>0.07945049999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>0.124507</v>
+        <v>0.121088</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.113044</v>
+        <v>0.111997</v>
       </c>
       <c r="C128" t="n">
-        <v>0.181873</v>
+        <v>0.182397</v>
       </c>
       <c r="D128" t="n">
-        <v>0.500175</v>
+        <v>0.497515</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0821423</v>
+        <v>0.08497010000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>0.122596</v>
+        <v>0.122741</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116103</v>
+        <v>0.115684</v>
       </c>
       <c r="C129" t="n">
-        <v>0.18845</v>
+        <v>0.187425</v>
       </c>
       <c r="D129" t="n">
-        <v>0.513993</v>
+        <v>0.510258</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0856331</v>
+        <v>0.0857895</v>
       </c>
       <c r="F129" t="n">
-        <v>0.128467</v>
+        <v>0.128009</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.121948</v>
+        <v>0.120022</v>
       </c>
       <c r="C130" t="n">
-        <v>0.195359</v>
+        <v>0.193511</v>
       </c>
       <c r="D130" t="n">
-        <v>0.528075</v>
+        <v>0.5243719999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0873852</v>
+        <v>0.0897377</v>
       </c>
       <c r="F130" t="n">
-        <v>0.132506</v>
+        <v>0.132599</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.12738</v>
+        <v>0.125885</v>
       </c>
       <c r="C131" t="n">
-        <v>0.206293</v>
+        <v>0.203067</v>
       </c>
       <c r="D131" t="n">
-        <v>0.542286</v>
+        <v>0.538653</v>
       </c>
       <c r="E131" t="n">
-        <v>0.09109680000000001</v>
+        <v>0.0916083</v>
       </c>
       <c r="F131" t="n">
-        <v>0.138413</v>
+        <v>0.138001</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.132466</v>
+        <v>0.132119</v>
       </c>
       <c r="C132" t="n">
-        <v>0.215472</v>
+        <v>0.213407</v>
       </c>
       <c r="D132" t="n">
-        <v>0.558413</v>
+        <v>0.554087</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0935768</v>
+        <v>0.0937895</v>
       </c>
       <c r="F132" t="n">
-        <v>0.143036</v>
+        <v>0.141078</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.141195</v>
+        <v>0.14094</v>
       </c>
       <c r="C133" t="n">
-        <v>0.22859</v>
+        <v>0.225379</v>
       </c>
       <c r="D133" t="n">
-        <v>0.57394</v>
+        <v>0.570224</v>
       </c>
       <c r="E133" t="n">
-        <v>0.100222</v>
+        <v>0.0982804</v>
       </c>
       <c r="F133" t="n">
-        <v>0.151136</v>
+        <v>0.150244</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.153363</v>
+        <v>0.151822</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243422</v>
+        <v>0.243321</v>
       </c>
       <c r="D134" t="n">
-        <v>0.591493</v>
+        <v>0.587598</v>
       </c>
       <c r="E134" t="n">
-        <v>0.106961</v>
+        <v>0.105795</v>
       </c>
       <c r="F134" t="n">
-        <v>0.162016</v>
+        <v>0.158766</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.169746</v>
+        <v>0.169926</v>
       </c>
       <c r="C135" t="n">
-        <v>0.268525</v>
+        <v>0.267988</v>
       </c>
       <c r="D135" t="n">
-        <v>0.434348</v>
+        <v>0.431102</v>
       </c>
       <c r="E135" t="n">
-        <v>0.113872</v>
+        <v>0.115714</v>
       </c>
       <c r="F135" t="n">
-        <v>0.172729</v>
+        <v>0.172554</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194567</v>
+        <v>0.193952</v>
       </c>
       <c r="C136" t="n">
-        <v>0.304436</v>
+        <v>0.302216</v>
       </c>
       <c r="D136" t="n">
-        <v>0.445631</v>
+        <v>0.441918</v>
       </c>
       <c r="E136" t="n">
-        <v>0.128939</v>
+        <v>0.129242</v>
       </c>
       <c r="F136" t="n">
-        <v>0.192801</v>
+        <v>0.191371</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232497</v>
+        <v>0.230756</v>
       </c>
       <c r="C137" t="n">
-        <v>0.358686</v>
+        <v>0.357673</v>
       </c>
       <c r="D137" t="n">
-        <v>0.457011</v>
+        <v>0.453139</v>
       </c>
       <c r="E137" t="n">
-        <v>0.140606</v>
+        <v>0.138459</v>
       </c>
       <c r="F137" t="n">
-        <v>0.173254</v>
+        <v>0.171675</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.168451</v>
+        <v>0.169345</v>
       </c>
       <c r="C138" t="n">
-        <v>0.227644</v>
+        <v>0.225212</v>
       </c>
       <c r="D138" t="n">
-        <v>0.469105</v>
+        <v>0.464981</v>
       </c>
       <c r="E138" t="n">
-        <v>0.140493</v>
+        <v>0.139788</v>
       </c>
       <c r="F138" t="n">
-        <v>0.175664</v>
+        <v>0.174602</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.170315</v>
+        <v>0.170869</v>
       </c>
       <c r="C139" t="n">
-        <v>0.232498</v>
+        <v>0.229479</v>
       </c>
       <c r="D139" t="n">
-        <v>0.480422</v>
+        <v>0.476297</v>
       </c>
       <c r="E139" t="n">
-        <v>0.141296</v>
+        <v>0.141672</v>
       </c>
       <c r="F139" t="n">
-        <v>0.177688</v>
+        <v>0.177621</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.172433</v>
+        <v>0.165042</v>
       </c>
       <c r="C140" t="n">
-        <v>0.235724</v>
+        <v>0.233838</v>
       </c>
       <c r="D140" t="n">
-        <v>0.492299</v>
+        <v>0.488694</v>
       </c>
       <c r="E140" t="n">
-        <v>0.143285</v>
+        <v>0.143747</v>
       </c>
       <c r="F140" t="n">
-        <v>0.180518</v>
+        <v>0.179133</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.17484</v>
+        <v>0.173207</v>
       </c>
       <c r="C141" t="n">
-        <v>0.24008</v>
+        <v>0.238385</v>
       </c>
       <c r="D141" t="n">
-        <v>0.504872</v>
+        <v>0.500884</v>
       </c>
       <c r="E141" t="n">
-        <v>0.144892</v>
+        <v>0.137219</v>
       </c>
       <c r="F141" t="n">
-        <v>0.184608</v>
+        <v>0.182838</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.175684</v>
+        <v>0.167191</v>
       </c>
       <c r="C142" t="n">
-        <v>0.24428</v>
+        <v>0.243409</v>
       </c>
       <c r="D142" t="n">
-        <v>0.517605</v>
+        <v>0.513698</v>
       </c>
       <c r="E142" t="n">
-        <v>0.146736</v>
+        <v>0.146395</v>
       </c>
       <c r="F142" t="n">
-        <v>0.188711</v>
+        <v>0.185096</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.178141</v>
+        <v>0.177719</v>
       </c>
       <c r="C143" t="n">
-        <v>0.251589</v>
+        <v>0.251231</v>
       </c>
       <c r="D143" t="n">
-        <v>0.530455</v>
+        <v>0.526899</v>
       </c>
       <c r="E143" t="n">
-        <v>0.148928</v>
+        <v>0.146671</v>
       </c>
       <c r="F143" t="n">
-        <v>0.19116</v>
+        <v>0.190374</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0347678</v>
+        <v>0.034812</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0348306</v>
+        <v>0.0347791</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12521</v>
+        <v>0.124165</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0229398</v>
+        <v>0.0229417</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0238557</v>
+        <v>0.0237906</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0353185</v>
+        <v>0.0353415</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0363617</v>
+        <v>0.0364865</v>
       </c>
       <c r="D3" t="n">
-        <v>0.129614</v>
+        <v>0.128076</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0227287</v>
+        <v>0.0229985</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0239776</v>
+        <v>0.0239194</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0381993</v>
+        <v>0.038053</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0389787</v>
+        <v>0.0388977</v>
       </c>
       <c r="D4" t="n">
-        <v>0.135284</v>
+        <v>0.133751</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0233235</v>
+        <v>0.0230636</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0246214</v>
+        <v>0.0245584</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.043397</v>
+        <v>0.043429</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0435046</v>
+        <v>0.0431129</v>
       </c>
       <c r="D5" t="n">
-        <v>0.140964</v>
+        <v>0.138933</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0225361</v>
+        <v>0.0212485</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0237623</v>
+        <v>0.0235404</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0547501</v>
+        <v>0.054543</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0559095</v>
+        <v>0.0559298</v>
       </c>
       <c r="D6" t="n">
-        <v>0.147008</v>
+        <v>0.144066</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0230621</v>
+        <v>0.0230056</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0244823</v>
+        <v>0.0248784</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0738567</v>
+        <v>0.0739592</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0744406</v>
+        <v>0.074688</v>
       </c>
       <c r="D7" t="n">
-        <v>0.102412</v>
+        <v>0.102296</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0270931</v>
+        <v>0.0267036</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0301698</v>
+        <v>0.0305595</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.108842</v>
+        <v>0.108726</v>
       </c>
       <c r="C8" t="n">
-        <v>0.108276</v>
+        <v>0.108106</v>
       </c>
       <c r="D8" t="n">
-        <v>0.108135</v>
+        <v>0.108086</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0475426</v>
+        <v>0.0474567</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0484056</v>
+        <v>0.0492471</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149248</v>
+        <v>0.149002</v>
       </c>
       <c r="C9" t="n">
-        <v>0.150866</v>
+        <v>0.150978</v>
       </c>
       <c r="D9" t="n">
-        <v>0.113124</v>
+        <v>0.112997</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0229307</v>
+        <v>0.0230796</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0236909</v>
+        <v>0.0238117</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0325426</v>
+        <v>0.0325753</v>
       </c>
       <c r="C10" t="n">
-        <v>0.033082</v>
+        <v>0.0329952</v>
       </c>
       <c r="D10" t="n">
-        <v>0.118096</v>
+        <v>0.118355</v>
       </c>
       <c r="E10" t="n">
-        <v>0.023054</v>
+        <v>0.023122</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0239203</v>
+        <v>0.0241456</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0329859</v>
+        <v>0.0330111</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0336028</v>
+        <v>0.0337395</v>
       </c>
       <c r="D11" t="n">
-        <v>0.122794</v>
+        <v>0.122371</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0232218</v>
+        <v>0.0233385</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0240616</v>
+        <v>0.0244443</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.033449</v>
+        <v>0.0335545</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0343556</v>
+        <v>0.0344613</v>
       </c>
       <c r="D12" t="n">
-        <v>0.127696</v>
+        <v>0.127288</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0233678</v>
+        <v>0.02351</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0243147</v>
+        <v>0.0246654</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0339677</v>
+        <v>0.0339733</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0349295</v>
+        <v>0.0350404</v>
       </c>
       <c r="D13" t="n">
-        <v>0.132084</v>
+        <v>0.131562</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0234139</v>
+        <v>0.0235612</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0246257</v>
+        <v>0.0249672</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0346354</v>
+        <v>0.0346167</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0359695</v>
+        <v>0.0357593</v>
       </c>
       <c r="D14" t="n">
-        <v>0.136548</v>
+        <v>0.136427</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0235023</v>
+        <v>0.0234803</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0247833</v>
+        <v>0.0251085</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0356513</v>
+        <v>0.0356215</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0371992</v>
+        <v>0.0370336</v>
       </c>
       <c r="D15" t="n">
-        <v>0.140919</v>
+        <v>0.140765</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0236637</v>
+        <v>0.0239107</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0252761</v>
+        <v>0.0255918</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0367499</v>
+        <v>0.0368633</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0385986</v>
+        <v>0.0384067</v>
       </c>
       <c r="D16" t="n">
-        <v>0.145914</v>
+        <v>0.145552</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0241348</v>
+        <v>0.0242217</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0257823</v>
+        <v>0.0260239</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0391324</v>
+        <v>0.0391605</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0406173</v>
+        <v>0.0402515</v>
       </c>
       <c r="D17" t="n">
-        <v>0.150643</v>
+        <v>0.150397</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0243895</v>
+        <v>0.0246637</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0260393</v>
+        <v>0.0258475</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0417719</v>
+        <v>0.041817</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0444277</v>
+        <v>0.0441352</v>
       </c>
       <c r="D18" t="n">
-        <v>0.155671</v>
+        <v>0.155067</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0245207</v>
+        <v>0.024734</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0267294</v>
+        <v>0.0265907</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0488578</v>
+        <v>0.0488666</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0517113</v>
+        <v>0.0513862</v>
       </c>
       <c r="D19" t="n">
-        <v>0.160695</v>
+        <v>0.160176</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0242215</v>
+        <v>0.0246759</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0278223</v>
+        <v>0.027892</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0604425</v>
+        <v>0.0604847</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0602967</v>
+        <v>0.0601058</v>
       </c>
       <c r="D20" t="n">
-        <v>0.164636</v>
+        <v>0.164248</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0285097</v>
+        <v>0.0290272</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0319749</v>
+        <v>0.0322491</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07373490000000001</v>
+        <v>0.0737831</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07585989999999999</v>
+        <v>0.0757092</v>
       </c>
       <c r="D21" t="n">
-        <v>0.11801</v>
+        <v>0.117937</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0380069</v>
+        <v>0.0380682</v>
       </c>
       <c r="F21" t="n">
-        <v>0.040223</v>
+        <v>0.0398668</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0984368</v>
+        <v>0.09832539999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.100207</v>
+        <v>0.100136</v>
       </c>
       <c r="D22" t="n">
-        <v>0.122422</v>
+        <v>0.122318</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0564726</v>
+        <v>0.0566657</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0573568</v>
+        <v>0.0569014</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.133367</v>
+        <v>0.133332</v>
       </c>
       <c r="C23" t="n">
-        <v>0.134491</v>
+        <v>0.134612</v>
       </c>
       <c r="D23" t="n">
-        <v>0.126553</v>
+        <v>0.126071</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0238489</v>
+        <v>0.0239944</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0256154</v>
+        <v>0.0256739</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0338952</v>
+        <v>0.0338877</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0367531</v>
+        <v>0.0361034</v>
       </c>
       <c r="D24" t="n">
-        <v>0.132232</v>
+        <v>0.131543</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0241697</v>
+        <v>0.0242999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0260279</v>
+        <v>0.0260184</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0340433</v>
+        <v>0.0340582</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0376199</v>
+        <v>0.0367778</v>
       </c>
       <c r="D25" t="n">
-        <v>0.136238</v>
+        <v>0.135742</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0243012</v>
+        <v>0.0244786</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0264728</v>
+        <v>0.0263302</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.035176</v>
+        <v>0.0350931</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0384787</v>
+        <v>0.0375232</v>
       </c>
       <c r="D26" t="n">
-        <v>0.14086</v>
+        <v>0.140086</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0246013</v>
+        <v>0.0247445</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0268747</v>
+        <v>0.0267054</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0357481</v>
+        <v>0.0357171</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0396097</v>
+        <v>0.038682</v>
       </c>
       <c r="D27" t="n">
-        <v>0.145475</v>
+        <v>0.144771</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0250546</v>
+        <v>0.0250275</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0275212</v>
+        <v>0.0270526</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0365898</v>
+        <v>0.0365227</v>
       </c>
       <c r="C28" t="n">
-        <v>0.040407</v>
+        <v>0.0394296</v>
       </c>
       <c r="D28" t="n">
-        <v>0.150382</v>
+        <v>0.14981</v>
       </c>
       <c r="E28" t="n">
-        <v>0.025303</v>
+        <v>0.0253195</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0282804</v>
+        <v>0.0276103</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0377571</v>
+        <v>0.0376468</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0417567</v>
+        <v>0.0409416</v>
       </c>
       <c r="D29" t="n">
-        <v>0.154873</v>
+        <v>0.154641</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0259492</v>
+        <v>0.0259021</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0290034</v>
+        <v>0.0282909</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0395837</v>
+        <v>0.0395288</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0438917</v>
+        <v>0.0429173</v>
       </c>
       <c r="D30" t="n">
-        <v>0.159057</v>
+        <v>0.158595</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0262972</v>
+        <v>0.0261235</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0297637</v>
+        <v>0.0287343</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0419127</v>
+        <v>0.0418158</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0456046</v>
+        <v>0.0449526</v>
       </c>
       <c r="D31" t="n">
-        <v>0.163192</v>
+        <v>0.162832</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0269475</v>
+        <v>0.0268882</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0306861</v>
+        <v>0.029693</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0459057</v>
+        <v>0.0457527</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0499815</v>
+        <v>0.0495352</v>
       </c>
       <c r="D32" t="n">
-        <v>0.167677</v>
+        <v>0.167298</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0274422</v>
+        <v>0.0271403</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0314443</v>
+        <v>0.0302648</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0514526</v>
+        <v>0.0512984</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0542986</v>
+        <v>0.0539969</v>
       </c>
       <c r="D33" t="n">
-        <v>0.171913</v>
+        <v>0.172105</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0289592</v>
+        <v>0.028745</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0329174</v>
+        <v>0.0320805</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0615592</v>
+        <v>0.0615235</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0654317</v>
+        <v>0.06522989999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.176464</v>
+        <v>0.176486</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0335194</v>
+        <v>0.0333386</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0372317</v>
+        <v>0.036636</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0741651</v>
+        <v>0.0740903</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0764209</v>
+        <v>0.0763646</v>
       </c>
       <c r="D35" t="n">
-        <v>0.123788</v>
+        <v>0.123765</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0419899</v>
+        <v>0.0418547</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0444933</v>
+        <v>0.0438772</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09607400000000001</v>
+        <v>0.0960192</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09658890000000001</v>
+        <v>0.096543</v>
       </c>
       <c r="D36" t="n">
-        <v>0.128283</v>
+        <v>0.128279</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0533746</v>
+        <v>0.0532345</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0550866</v>
+        <v>0.0547495</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.127758</v>
+        <v>0.127904</v>
       </c>
       <c r="C37" t="n">
-        <v>0.12881</v>
+        <v>0.12896</v>
       </c>
       <c r="D37" t="n">
-        <v>0.132805</v>
+        <v>0.132782</v>
       </c>
       <c r="E37" t="n">
-        <v>0.024747</v>
+        <v>0.0248179</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0276451</v>
+        <v>0.0269716</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0344903</v>
+        <v>0.0342677</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0384617</v>
+        <v>0.0380155</v>
       </c>
       <c r="D38" t="n">
-        <v>0.137495</v>
+        <v>0.137596</v>
       </c>
       <c r="E38" t="n">
-        <v>0.025248</v>
+        <v>0.0251133</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0283042</v>
+        <v>0.0275137</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0349</v>
+        <v>0.0348122</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0391634</v>
+        <v>0.0388149</v>
       </c>
       <c r="D39" t="n">
-        <v>0.142322</v>
+        <v>0.142433</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0256355</v>
+        <v>0.0254753</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0287593</v>
+        <v>0.0278733</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0356965</v>
+        <v>0.0356034</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0400099</v>
+        <v>0.0397575</v>
       </c>
       <c r="D40" t="n">
-        <v>0.146754</v>
+        <v>0.146811</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0258639</v>
+        <v>0.0256494</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0291571</v>
+        <v>0.0285476</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0364383</v>
+        <v>0.0363808</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0409475</v>
+        <v>0.0407522</v>
       </c>
       <c r="D41" t="n">
-        <v>0.151806</v>
+        <v>0.151888</v>
       </c>
       <c r="E41" t="n">
-        <v>0.026161</v>
+        <v>0.0259343</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0296725</v>
+        <v>0.029135</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0374731</v>
+        <v>0.037385</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0419556</v>
+        <v>0.0418673</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1565</v>
+        <v>0.156603</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0265684</v>
+        <v>0.0263801</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0302784</v>
+        <v>0.029976</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0387853</v>
+        <v>0.0387542</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0431553</v>
+        <v>0.0430881</v>
       </c>
       <c r="D43" t="n">
-        <v>0.160985</v>
+        <v>0.161045</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0272462</v>
+        <v>0.0270674</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0310489</v>
+        <v>0.0306737</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0404094</v>
+        <v>0.0403523</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0450328</v>
+        <v>0.0449656</v>
       </c>
       <c r="D44" t="n">
-        <v>0.165034</v>
+        <v>0.165047</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0279587</v>
+        <v>0.0278051</v>
       </c>
       <c r="F44" t="n">
-        <v>0.031889</v>
+        <v>0.0316102</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0432557</v>
+        <v>0.043198</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0474114</v>
+        <v>0.0473872</v>
       </c>
       <c r="D45" t="n">
-        <v>0.168932</v>
+        <v>0.168995</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0289336</v>
+        <v>0.0287688</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0329188</v>
+        <v>0.0327903</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0465721</v>
+        <v>0.0465688</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0509063</v>
+        <v>0.0509118</v>
       </c>
       <c r="D46" t="n">
-        <v>0.17286</v>
+        <v>0.172991</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0304082</v>
+        <v>0.0303155</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0344808</v>
+        <v>0.0344146</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0522064</v>
+        <v>0.0521932</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0562071</v>
+        <v>0.0562607</v>
       </c>
       <c r="D47" t="n">
-        <v>0.177129</v>
+        <v>0.177191</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0327114</v>
+        <v>0.0326896</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0367018</v>
+        <v>0.03639</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0606988</v>
+        <v>0.060677</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06318559999999999</v>
+        <v>0.0631591</v>
       </c>
       <c r="D48" t="n">
-        <v>0.181641</v>
+        <v>0.181659</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0367799</v>
+        <v>0.0367511</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0401483</v>
+        <v>0.0400335</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07495</v>
+        <v>0.0749416</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0768515</v>
+        <v>0.0767436</v>
       </c>
       <c r="D49" t="n">
-        <v>0.185985</v>
+        <v>0.186047</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0422316</v>
+        <v>0.0422055</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0452507</v>
+        <v>0.044994</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0922663</v>
+        <v>0.09214360000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0920652</v>
+        <v>0.09217400000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.130988</v>
+        <v>0.130958</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0503857</v>
+        <v>0.0503448</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0525751</v>
+        <v>0.0524396</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.122121</v>
+        <v>0.122214</v>
       </c>
       <c r="C51" t="n">
-        <v>0.122972</v>
+        <v>0.12296</v>
       </c>
       <c r="D51" t="n">
-        <v>0.135554</v>
+        <v>0.135584</v>
       </c>
       <c r="E51" t="n">
-        <v>0.027088</v>
+        <v>0.0267434</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0303107</v>
+        <v>0.0299424</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168243</v>
+        <v>0.168317</v>
       </c>
       <c r="C52" t="n">
-        <v>0.168029</v>
+        <v>0.167937</v>
       </c>
       <c r="D52" t="n">
-        <v>0.140386</v>
+        <v>0.140431</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0272444</v>
+        <v>0.0270039</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0308886</v>
+        <v>0.0302913</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0369417</v>
+        <v>0.0368125</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0415765</v>
+        <v>0.0412717</v>
       </c>
       <c r="D53" t="n">
-        <v>0.145323</v>
+        <v>0.145244</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0271246</v>
+        <v>0.0272077</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0313672</v>
+        <v>0.0309487</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0369385</v>
+        <v>0.037065</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0423904</v>
+        <v>0.0420643</v>
       </c>
       <c r="D54" t="n">
-        <v>0.150231</v>
+        <v>0.150015</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0274442</v>
+        <v>0.0276654</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0317783</v>
+        <v>0.0313142</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0382877</v>
+        <v>0.038286</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0434646</v>
+        <v>0.0433019</v>
       </c>
       <c r="D55" t="n">
-        <v>0.154867</v>
+        <v>0.154588</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0295656</v>
+        <v>0.0281291</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0317482</v>
+        <v>0.0330545</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0395939</v>
+        <v>0.0394908</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0446227</v>
+        <v>0.0443712</v>
       </c>
       <c r="D56" t="n">
-        <v>0.15927</v>
+        <v>0.159027</v>
       </c>
       <c r="E56" t="n">
-        <v>0.028415</v>
+        <v>0.029157</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0331942</v>
+        <v>0.0328791</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.040043</v>
+        <v>0.0400186</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0460449</v>
+        <v>0.045887</v>
       </c>
       <c r="D57" t="n">
-        <v>0.16354</v>
+        <v>0.163408</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0296483</v>
+        <v>0.0289372</v>
       </c>
       <c r="F57" t="n">
-        <v>0.033936</v>
+        <v>0.0335875</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0418525</v>
+        <v>0.042243</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0477729</v>
+        <v>0.0475062</v>
       </c>
       <c r="D58" t="n">
-        <v>0.167923</v>
+        <v>0.167885</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0304925</v>
+        <v>0.0306838</v>
       </c>
       <c r="F58" t="n">
-        <v>0.035138</v>
+        <v>0.0355055</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0443573</v>
+        <v>0.0447074</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0501172</v>
+        <v>0.0499051</v>
       </c>
       <c r="D59" t="n">
-        <v>0.172146</v>
+        <v>0.171904</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0309444</v>
+        <v>0.0312789</v>
       </c>
       <c r="F59" t="n">
-        <v>0.036104</v>
+        <v>0.0363303</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0483906</v>
+        <v>0.0482422</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0537073</v>
+        <v>0.0533792</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175958</v>
+        <v>0.17602</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0328531</v>
+        <v>0.0331173</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0375538</v>
+        <v>0.0372016</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0533768</v>
+        <v>0.0530653</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0577106</v>
+        <v>0.0576997</v>
       </c>
       <c r="D61" t="n">
-        <v>0.180087</v>
+        <v>0.180768</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0351465</v>
+        <v>0.0349218</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0392512</v>
+        <v>0.0393908</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0604617</v>
+        <v>0.0606495</v>
       </c>
       <c r="C62" t="n">
-        <v>0.064305</v>
+        <v>0.0644523</v>
       </c>
       <c r="D62" t="n">
-        <v>0.184456</v>
+        <v>0.185578</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0381614</v>
+        <v>0.0380224</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0425283</v>
+        <v>0.0425686</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0725879</v>
+        <v>0.0728679</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07589319999999999</v>
+        <v>0.0761008</v>
       </c>
       <c r="D63" t="n">
-        <v>0.189302</v>
+        <v>0.190552</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0429608</v>
+        <v>0.0428275</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0468776</v>
+        <v>0.046735</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0892694</v>
+        <v>0.0889109</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09223530000000001</v>
+        <v>0.0920627</v>
       </c>
       <c r="D64" t="n">
-        <v>0.138467</v>
+        <v>0.141066</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0503173</v>
+        <v>0.0504912</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0541283</v>
+        <v>0.0549164</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115004</v>
+        <v>0.115265</v>
       </c>
       <c r="C65" t="n">
-        <v>0.118017</v>
+        <v>0.118137</v>
       </c>
       <c r="D65" t="n">
-        <v>0.144312</v>
+        <v>0.144977</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0641888</v>
+        <v>0.0640812</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0673951</v>
+        <v>0.06715260000000001</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.155457</v>
+        <v>0.15589</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1572</v>
+        <v>0.157938</v>
       </c>
       <c r="D66" t="n">
-        <v>0.151067</v>
+        <v>0.153022</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0324443</v>
+        <v>0.0321036</v>
       </c>
       <c r="F66" t="n">
-        <v>0.036975</v>
+        <v>0.0369626</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0415012</v>
+        <v>0.0410501</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0488855</v>
+        <v>0.0489458</v>
       </c>
       <c r="D67" t="n">
-        <v>0.158518</v>
+        <v>0.160604</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0326019</v>
+        <v>0.032329</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0375895</v>
+        <v>0.0375427</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.041955</v>
+        <v>0.0420764</v>
       </c>
       <c r="C68" t="n">
-        <v>0.049995</v>
+        <v>0.0504235</v>
       </c>
       <c r="D68" t="n">
-        <v>0.167084</v>
+        <v>0.167392</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0330805</v>
+        <v>0.0327481</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0382039</v>
+        <v>0.0381791</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0428744</v>
+        <v>0.0424242</v>
       </c>
       <c r="C69" t="n">
-        <v>0.051195</v>
+        <v>0.051535</v>
       </c>
       <c r="D69" t="n">
-        <v>0.175367</v>
+        <v>0.175892</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0333414</v>
+        <v>0.0331787</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0389065</v>
+        <v>0.0392541</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0437123</v>
+        <v>0.0437382</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0527449</v>
+        <v>0.0532134</v>
       </c>
       <c r="D70" t="n">
-        <v>0.181867</v>
+        <v>0.184402</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0337389</v>
+        <v>0.0339006</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0396522</v>
+        <v>0.0397524</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.044955</v>
+        <v>0.0450489</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0544012</v>
+        <v>0.0552081</v>
       </c>
       <c r="D71" t="n">
-        <v>0.19199</v>
+        <v>0.192899</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0343914</v>
+        <v>0.0342546</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0408698</v>
+        <v>0.0404823</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0469398</v>
+        <v>0.0467608</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0564783</v>
+        <v>0.057417</v>
       </c>
       <c r="D72" t="n">
-        <v>0.201223</v>
+        <v>0.203335</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0351277</v>
+        <v>0.0349972</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0419969</v>
+        <v>0.0417515</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0492275</v>
+        <v>0.0496743</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0589933</v>
+        <v>0.060521</v>
       </c>
       <c r="D73" t="n">
-        <v>0.209625</v>
+        <v>0.213605</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0363225</v>
+        <v>0.0358021</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0427885</v>
+        <v>0.0432405</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0523764</v>
+        <v>0.0521465</v>
       </c>
       <c r="C74" t="n">
-        <v>0.06266380000000001</v>
+        <v>0.06473520000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.222148</v>
+        <v>0.225356</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0371416</v>
+        <v>0.0372788</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0443679</v>
+        <v>0.0447766</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0572877</v>
+        <v>0.0578197</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06775879999999999</v>
+        <v>0.07074850000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.234094</v>
+        <v>0.238325</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0389554</v>
+        <v>0.0390671</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0464832</v>
+        <v>0.0470194</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0640732</v>
+        <v>0.064942</v>
       </c>
       <c r="C76" t="n">
-        <v>0.074474</v>
+        <v>0.0786755</v>
       </c>
       <c r="D76" t="n">
-        <v>0.24624</v>
+        <v>0.252225</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0422909</v>
+        <v>0.0418973</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0492819</v>
+        <v>0.0501057</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0745396</v>
+        <v>0.07515280000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0853124</v>
+        <v>0.09064120000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.260509</v>
+        <v>0.26705</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0464422</v>
+        <v>0.046234</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0536821</v>
+        <v>0.055179</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0898003</v>
+        <v>0.09060360000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.102074</v>
+        <v>0.108239</v>
       </c>
       <c r="D78" t="n">
-        <v>0.21803</v>
+        <v>0.2201</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0527416</v>
+        <v>0.0527185</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0607073</v>
+        <v>0.0624864</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.114546</v>
+        <v>0.113849</v>
       </c>
       <c r="C79" t="n">
-        <v>0.127715</v>
+        <v>0.134867</v>
       </c>
       <c r="D79" t="n">
-        <v>0.23102</v>
+        <v>0.229902</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06443740000000001</v>
+        <v>0.06481729999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0723106</v>
+        <v>0.07471559999999999</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.152482</v>
+        <v>0.152855</v>
       </c>
       <c r="C80" t="n">
-        <v>0.173586</v>
+        <v>0.178879</v>
       </c>
       <c r="D80" t="n">
-        <v>0.242969</v>
+        <v>0.244206</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0362108</v>
+        <v>0.0366404</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0422207</v>
+        <v>0.0433135</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0466448</v>
+        <v>0.0478472</v>
       </c>
       <c r="C81" t="n">
-        <v>0.05809</v>
+        <v>0.0626785</v>
       </c>
       <c r="D81" t="n">
-        <v>0.255555</v>
+        <v>0.256465</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0365591</v>
+        <v>0.0369688</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0427573</v>
+        <v>0.0447874</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0473282</v>
+        <v>0.0486271</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0601347</v>
+        <v>0.06609379999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.26859</v>
+        <v>0.269242</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0370817</v>
+        <v>0.0374724</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0436846</v>
+        <v>0.0459799</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0482837</v>
+        <v>0.0497529</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0630647</v>
+        <v>0.0700467</v>
       </c>
       <c r="D83" t="n">
-        <v>0.281561</v>
+        <v>0.281863</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0376483</v>
+        <v>0.0379849</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0446708</v>
+        <v>0.047461</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0497456</v>
+        <v>0.0515757</v>
       </c>
       <c r="C84" t="n">
-        <v>0.06733790000000001</v>
+        <v>0.0737189</v>
       </c>
       <c r="D84" t="n">
-        <v>0.295118</v>
+        <v>0.294968</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0381669</v>
+        <v>0.0386265</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0454392</v>
+        <v>0.0486183</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0512961</v>
+        <v>0.0537054</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0720654</v>
+        <v>0.0791338</v>
       </c>
       <c r="D85" t="n">
-        <v>0.308653</v>
+        <v>0.308291</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0389354</v>
+        <v>0.0394955</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0473151</v>
+        <v>0.0497227</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0532629</v>
+        <v>0.0561728</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0781509</v>
+        <v>0.08534650000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.322424</v>
+        <v>0.32185</v>
       </c>
       <c r="E86" t="n">
-        <v>0.039899</v>
+        <v>0.0405807</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0492839</v>
+        <v>0.0523789</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0563108</v>
+        <v>0.0595863</v>
       </c>
       <c r="C87" t="n">
-        <v>0.08619979999999999</v>
+        <v>0.0923817</v>
       </c>
       <c r="D87" t="n">
-        <v>0.336784</v>
+        <v>0.336601</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0411302</v>
+        <v>0.0421746</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0518365</v>
+        <v>0.0550358</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0602507</v>
+        <v>0.0634802</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09645049999999999</v>
+        <v>0.100108</v>
       </c>
       <c r="D88" t="n">
-        <v>0.351315</v>
+        <v>0.351509</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0423494</v>
+        <v>0.0439847</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0550675</v>
+        <v>0.0604992</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06607159999999999</v>
+        <v>0.0702807</v>
       </c>
       <c r="C89" t="n">
-        <v>0.108625</v>
+        <v>0.111798</v>
       </c>
       <c r="D89" t="n">
-        <v>0.367314</v>
+        <v>0.367043</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0448359</v>
+        <v>0.0465775</v>
       </c>
       <c r="F89" t="n">
-        <v>0.059153</v>
+        <v>0.0649671</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0744766</v>
+        <v>0.0782099</v>
       </c>
       <c r="C90" t="n">
-        <v>0.124583</v>
+        <v>0.125545</v>
       </c>
       <c r="D90" t="n">
-        <v>0.383242</v>
+        <v>0.383254</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0481111</v>
+        <v>0.0507829</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0653827</v>
+        <v>0.0708046</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.08538229999999999</v>
+        <v>0.0899122</v>
       </c>
       <c r="C91" t="n">
-        <v>0.143298</v>
+        <v>0.142312</v>
       </c>
       <c r="D91" t="n">
-        <v>0.399994</v>
+        <v>0.399787</v>
       </c>
       <c r="E91" t="n">
-        <v>0.053257</v>
+        <v>0.0555819</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0750422</v>
+        <v>0.07971200000000001</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.101416</v>
+        <v>0.106081</v>
       </c>
       <c r="C92" t="n">
-        <v>0.166249</v>
+        <v>0.164795</v>
       </c>
       <c r="D92" t="n">
-        <v>0.32303</v>
+        <v>0.324386</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0610389</v>
+        <v>0.0637495</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08775380000000001</v>
+        <v>0.09119140000000001</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.125781</v>
+        <v>0.129156</v>
       </c>
       <c r="C93" t="n">
-        <v>0.197454</v>
+        <v>0.195533</v>
       </c>
       <c r="D93" t="n">
-        <v>0.333857</v>
+        <v>0.335138</v>
       </c>
       <c r="E93" t="n">
-        <v>0.07320500000000001</v>
+        <v>0.0760682</v>
       </c>
       <c r="F93" t="n">
-        <v>0.107001</v>
+        <v>0.108133</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.161956</v>
+        <v>0.164096</v>
       </c>
       <c r="C94" t="n">
-        <v>0.236972</v>
+        <v>0.236363</v>
       </c>
       <c r="D94" t="n">
-        <v>0.344973</v>
+        <v>0.346557</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0405535</v>
+        <v>0.0426216</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0546991</v>
+        <v>0.0585464</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0585212</v>
+        <v>0.0612359</v>
       </c>
       <c r="C95" t="n">
-        <v>0.103298</v>
+        <v>0.102754</v>
       </c>
       <c r="D95" t="n">
-        <v>0.356625</v>
+        <v>0.358036</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0417918</v>
+        <v>0.043585</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0583996</v>
+        <v>0.0615133</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0618736</v>
+        <v>0.0645107</v>
       </c>
       <c r="C96" t="n">
-        <v>0.111897</v>
+        <v>0.110269</v>
       </c>
       <c r="D96" t="n">
-        <v>0.368593</v>
+        <v>0.369817</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0435997</v>
+        <v>0.045415</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06342109999999999</v>
+        <v>0.0652441</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.06573279999999999</v>
+        <v>0.06794740000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.120673</v>
+        <v>0.118174</v>
       </c>
       <c r="D97" t="n">
-        <v>0.380586</v>
+        <v>0.381953</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0453613</v>
+        <v>0.0475893</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0679507</v>
+        <v>0.0696198</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0702675</v>
+        <v>0.0715845</v>
       </c>
       <c r="C98" t="n">
-        <v>0.128503</v>
+        <v>0.126232</v>
       </c>
       <c r="D98" t="n">
-        <v>0.392576</v>
+        <v>0.393881</v>
       </c>
       <c r="E98" t="n">
-        <v>0.047953</v>
+        <v>0.0494921</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0735016</v>
+        <v>0.0738584</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0752491</v>
+        <v>0.07559440000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.136444</v>
+        <v>0.134514</v>
       </c>
       <c r="D99" t="n">
-        <v>0.405519</v>
+        <v>0.406794</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0506727</v>
+        <v>0.0516614</v>
       </c>
       <c r="F99" t="n">
-        <v>0.079522</v>
+        <v>0.0796897</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0810964</v>
+        <v>0.0803243</v>
       </c>
       <c r="C100" t="n">
-        <v>0.14413</v>
+        <v>0.14243</v>
       </c>
       <c r="D100" t="n">
-        <v>0.41823</v>
+        <v>0.419705</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0538892</v>
+        <v>0.0543237</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0857593</v>
+        <v>0.0847308</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0869706</v>
+        <v>0.08625389999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.151506</v>
+        <v>0.150955</v>
       </c>
       <c r="D101" t="n">
-        <v>0.431723</v>
+        <v>0.433287</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0575236</v>
+        <v>0.0572782</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0921106</v>
+        <v>0.09073150000000001</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0937935</v>
+        <v>0.0929546</v>
       </c>
       <c r="C102" t="n">
-        <v>0.159917</v>
+        <v>0.159808</v>
       </c>
       <c r="D102" t="n">
-        <v>0.446885</v>
+        <v>0.447892</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0617025</v>
+        <v>0.0608273</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0988059</v>
+        <v>0.0975608</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.101274</v>
+        <v>0.10099</v>
       </c>
       <c r="C103" t="n">
-        <v>0.169335</v>
+        <v>0.169336</v>
       </c>
       <c r="D103" t="n">
-        <v>0.461641</v>
+        <v>0.462957</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0659177</v>
+        <v>0.06585920000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>0.106004</v>
+        <v>0.104383</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.110397</v>
+        <v>0.109795</v>
       </c>
       <c r="C104" t="n">
-        <v>0.180885</v>
+        <v>0.180835</v>
       </c>
       <c r="D104" t="n">
-        <v>0.477482</v>
+        <v>0.478744</v>
       </c>
       <c r="E104" t="n">
-        <v>0.07119060000000001</v>
+        <v>0.0710291</v>
       </c>
       <c r="F104" t="n">
-        <v>0.113168</v>
+        <v>0.112548</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.121416</v>
+        <v>0.121038</v>
       </c>
       <c r="C105" t="n">
-        <v>0.195564</v>
+        <v>0.195686</v>
       </c>
       <c r="D105" t="n">
-        <v>0.493867</v>
+        <v>0.495235</v>
       </c>
       <c r="E105" t="n">
-        <v>0.07767350000000001</v>
+        <v>0.077251</v>
       </c>
       <c r="F105" t="n">
-        <v>0.12194</v>
+        <v>0.121724</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.135349</v>
+        <v>0.135479</v>
       </c>
       <c r="C106" t="n">
-        <v>0.213953</v>
+        <v>0.214321</v>
       </c>
       <c r="D106" t="n">
-        <v>0.510738</v>
+        <v>0.512667</v>
       </c>
       <c r="E106" t="n">
-        <v>0.08648119999999999</v>
+        <v>0.08636249999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>0.133565</v>
+        <v>0.133342</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.154809</v>
+        <v>0.154954</v>
       </c>
       <c r="C107" t="n">
-        <v>0.239242</v>
+        <v>0.239929</v>
       </c>
       <c r="D107" t="n">
-        <v>0.386759</v>
+        <v>0.387593</v>
       </c>
       <c r="E107" t="n">
-        <v>0.098146</v>
+        <v>0.0984211</v>
       </c>
       <c r="F107" t="n">
-        <v>0.148423</v>
+        <v>0.148787</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.183549</v>
+        <v>0.183884</v>
       </c>
       <c r="C108" t="n">
-        <v>0.276051</v>
+        <v>0.276738</v>
       </c>
       <c r="D108" t="n">
-        <v>0.397275</v>
+        <v>0.398631</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0595832</v>
+        <v>0.0592374</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0895276</v>
+        <v>0.0892297</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.229969</v>
+        <v>0.229987</v>
       </c>
       <c r="C109" t="n">
-        <v>0.33785</v>
+        <v>0.338082</v>
       </c>
       <c r="D109" t="n">
-        <v>0.40836</v>
+        <v>0.409626</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0616477</v>
+        <v>0.0614529</v>
       </c>
       <c r="F109" t="n">
-        <v>0.09267880000000001</v>
+        <v>0.0926125</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.09016680000000001</v>
+        <v>0.0903708</v>
       </c>
       <c r="C110" t="n">
-        <v>0.144695</v>
+        <v>0.145087</v>
       </c>
       <c r="D110" t="n">
-        <v>0.419252</v>
+        <v>0.420515</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0640549</v>
+        <v>0.0635782</v>
       </c>
       <c r="F110" t="n">
-        <v>0.09600450000000001</v>
+        <v>0.0958478</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0932061</v>
+        <v>0.0933089</v>
       </c>
       <c r="C111" t="n">
-        <v>0.149358</v>
+        <v>0.149376</v>
       </c>
       <c r="D111" t="n">
-        <v>0.430497</v>
+        <v>0.431938</v>
       </c>
       <c r="E111" t="n">
-        <v>0.06571109999999999</v>
+        <v>0.06555519999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>0.09860679999999999</v>
+        <v>0.0989507</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0961301</v>
+        <v>0.095986</v>
       </c>
       <c r="C112" t="n">
-        <v>0.153974</v>
+        <v>0.154276</v>
       </c>
       <c r="D112" t="n">
-        <v>0.442249</v>
+        <v>0.443813</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0676573</v>
+        <v>0.0677478</v>
       </c>
       <c r="F112" t="n">
-        <v>0.101544</v>
+        <v>0.101867</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0993376</v>
+        <v>0.0991726</v>
       </c>
       <c r="C113" t="n">
-        <v>0.159166</v>
+        <v>0.159184</v>
       </c>
       <c r="D113" t="n">
-        <v>0.454595</v>
+        <v>0.455886</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0694789</v>
+        <v>0.0696141</v>
       </c>
       <c r="F113" t="n">
-        <v>0.104536</v>
+        <v>0.105035</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.10269</v>
+        <v>0.102842</v>
       </c>
       <c r="C114" t="n">
-        <v>0.164496</v>
+        <v>0.16481</v>
       </c>
       <c r="D114" t="n">
-        <v>0.467435</v>
+        <v>0.468187</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0716338</v>
+        <v>0.071476</v>
       </c>
       <c r="F114" t="n">
-        <v>0.108516</v>
+        <v>0.108732</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.106401</v>
+        <v>0.106545</v>
       </c>
       <c r="C115" t="n">
-        <v>0.170505</v>
+        <v>0.170597</v>
       </c>
       <c r="D115" t="n">
-        <v>0.481054</v>
+        <v>0.482036</v>
       </c>
       <c r="E115" t="n">
-        <v>0.07439419999999999</v>
+        <v>0.0742517</v>
       </c>
       <c r="F115" t="n">
-        <v>0.112558</v>
+        <v>0.113156</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.110846</v>
+        <v>0.11091</v>
       </c>
       <c r="C116" t="n">
-        <v>0.177851</v>
+        <v>0.178287</v>
       </c>
       <c r="D116" t="n">
-        <v>0.494235</v>
+        <v>0.495879</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0771831</v>
+        <v>0.0770748</v>
       </c>
       <c r="F116" t="n">
-        <v>0.116915</v>
+        <v>0.117205</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.116213</v>
+        <v>0.11639</v>
       </c>
       <c r="C117" t="n">
-        <v>0.186234</v>
+        <v>0.186537</v>
       </c>
       <c r="D117" t="n">
-        <v>0.508971</v>
+        <v>0.510982</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0798846</v>
+        <v>0.0801751</v>
       </c>
       <c r="F117" t="n">
-        <v>0.121639</v>
+        <v>0.122079</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123329</v>
+        <v>0.123508</v>
       </c>
       <c r="C118" t="n">
-        <v>0.19695</v>
+        <v>0.197195</v>
       </c>
       <c r="D118" t="n">
-        <v>0.523899</v>
+        <v>0.52612</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0837334</v>
+        <v>0.0840732</v>
       </c>
       <c r="F118" t="n">
-        <v>0.127699</v>
+        <v>0.12819</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.132878</v>
+        <v>0.132665</v>
       </c>
       <c r="C119" t="n">
-        <v>0.210583</v>
+        <v>0.211197</v>
       </c>
       <c r="D119" t="n">
-        <v>0.540481</v>
+        <v>0.5425140000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0886468</v>
+        <v>0.0890373</v>
       </c>
       <c r="F119" t="n">
-        <v>0.134721</v>
+        <v>0.135104</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.145508</v>
+        <v>0.145656</v>
       </c>
       <c r="C120" t="n">
-        <v>0.22927</v>
+        <v>0.22987</v>
       </c>
       <c r="D120" t="n">
-        <v>0.558164</v>
+        <v>0.559711</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0955927</v>
+        <v>0.09624439999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>0.145081</v>
+        <v>0.145639</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163167</v>
+        <v>0.163261</v>
       </c>
       <c r="C121" t="n">
-        <v>0.254077</v>
+        <v>0.254614</v>
       </c>
       <c r="D121" t="n">
-        <v>0.414516</v>
+        <v>0.41531</v>
       </c>
       <c r="E121" t="n">
-        <v>0.105837</v>
+        <v>0.106397</v>
       </c>
       <c r="F121" t="n">
-        <v>0.159357</v>
+        <v>0.160163</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.188792</v>
+        <v>0.18887</v>
       </c>
       <c r="C122" t="n">
-        <v>0.290844</v>
+        <v>0.2917</v>
       </c>
       <c r="D122" t="n">
-        <v>0.425604</v>
+        <v>0.426194</v>
       </c>
       <c r="E122" t="n">
-        <v>0.121991</v>
+        <v>0.122446</v>
       </c>
       <c r="F122" t="n">
-        <v>0.181343</v>
+        <v>0.182105</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.230077</v>
+        <v>0.230249</v>
       </c>
       <c r="C123" t="n">
-        <v>0.349139</v>
+        <v>0.350786</v>
       </c>
       <c r="D123" t="n">
-        <v>0.436601</v>
+        <v>0.43795</v>
       </c>
       <c r="E123" t="n">
-        <v>0.07503940000000001</v>
+        <v>0.07351770000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>0.108324</v>
+        <v>0.106701</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.10354</v>
+        <v>0.101321</v>
       </c>
       <c r="C124" t="n">
-        <v>0.160304</v>
+        <v>0.161349</v>
       </c>
       <c r="D124" t="n">
-        <v>0.447553</v>
+        <v>0.449163</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0759973</v>
+        <v>0.0740118</v>
       </c>
       <c r="F124" t="n">
-        <v>0.110861</v>
+        <v>0.110049</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.103817</v>
+        <v>0.103546</v>
       </c>
       <c r="C125" t="n">
-        <v>0.165343</v>
+        <v>0.168292</v>
       </c>
       <c r="D125" t="n">
-        <v>0.459428</v>
+        <v>0.460381</v>
       </c>
       <c r="E125" t="n">
-        <v>0.07580729999999999</v>
+        <v>0.0766961</v>
       </c>
       <c r="F125" t="n">
-        <v>0.112648</v>
+        <v>0.112352</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.108583</v>
+        <v>0.105973</v>
       </c>
       <c r="C126" t="n">
-        <v>0.170357</v>
+        <v>0.170901</v>
       </c>
       <c r="D126" t="n">
-        <v>0.471351</v>
+        <v>0.472332</v>
       </c>
       <c r="E126" t="n">
-        <v>0.07867739999999999</v>
+        <v>0.0781411</v>
       </c>
       <c r="F126" t="n">
-        <v>0.116</v>
+        <v>0.116314</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110457</v>
+        <v>0.111735</v>
       </c>
       <c r="C127" t="n">
-        <v>0.173226</v>
+        <v>0.175709</v>
       </c>
       <c r="D127" t="n">
-        <v>0.483429</v>
+        <v>0.484929</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0807001</v>
+        <v>0.0802346</v>
       </c>
       <c r="F127" t="n">
-        <v>0.121053</v>
+        <v>0.120792</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.115721</v>
+        <v>0.112855</v>
       </c>
       <c r="C128" t="n">
-        <v>0.182858</v>
+        <v>0.180518</v>
       </c>
       <c r="D128" t="n">
-        <v>0.496295</v>
+        <v>0.497259</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0817732</v>
+        <v>0.08183849999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>0.124146</v>
+        <v>0.122645</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116825</v>
+        <v>0.118189</v>
       </c>
       <c r="C129" t="n">
-        <v>0.186223</v>
+        <v>0.188199</v>
       </c>
       <c r="D129" t="n">
-        <v>0.510232</v>
+        <v>0.510566</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0845983</v>
+        <v>0.0835225</v>
       </c>
       <c r="F129" t="n">
-        <v>0.127326</v>
+        <v>0.126207</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.119943</v>
+        <v>0.12102</v>
       </c>
       <c r="C130" t="n">
-        <v>0.195866</v>
+        <v>0.192714</v>
       </c>
       <c r="D130" t="n">
-        <v>0.523315</v>
+        <v>0.524411</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0869501</v>
+        <v>0.0865365</v>
       </c>
       <c r="F130" t="n">
-        <v>0.131431</v>
+        <v>0.131642</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.125581</v>
+        <v>0.125583</v>
       </c>
       <c r="C131" t="n">
-        <v>0.202553</v>
+        <v>0.202411</v>
       </c>
       <c r="D131" t="n">
-        <v>0.538326</v>
+        <v>0.5398309999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>0.09195399999999999</v>
+        <v>0.0901334</v>
       </c>
       <c r="F131" t="n">
-        <v>0.136761</v>
+        <v>0.136897</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13315</v>
+        <v>0.132352</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213365</v>
+        <v>0.21443</v>
       </c>
       <c r="D132" t="n">
-        <v>0.553291</v>
+        <v>0.554653</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0930343</v>
+        <v>0.0938619</v>
       </c>
       <c r="F132" t="n">
-        <v>0.141567</v>
+        <v>0.143238</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.140834</v>
+        <v>0.142312</v>
       </c>
       <c r="C133" t="n">
-        <v>0.224276</v>
+        <v>0.226973</v>
       </c>
       <c r="D133" t="n">
-        <v>0.569851</v>
+        <v>0.571251</v>
       </c>
       <c r="E133" t="n">
-        <v>0.09900539999999999</v>
+        <v>0.0986388</v>
       </c>
       <c r="F133" t="n">
-        <v>0.149407</v>
+        <v>0.14936</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.152635</v>
+        <v>0.152366</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244061</v>
+        <v>0.243785</v>
       </c>
       <c r="D134" t="n">
-        <v>0.586355</v>
+        <v>0.588516</v>
       </c>
       <c r="E134" t="n">
-        <v>0.104634</v>
+        <v>0.104255</v>
       </c>
       <c r="F134" t="n">
-        <v>0.158243</v>
+        <v>0.15986</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.169481</v>
+        <v>0.170701</v>
       </c>
       <c r="C135" t="n">
-        <v>0.268322</v>
+        <v>0.268599</v>
       </c>
       <c r="D135" t="n">
-        <v>0.430989</v>
+        <v>0.431544</v>
       </c>
       <c r="E135" t="n">
-        <v>0.115091</v>
+        <v>0.113816</v>
       </c>
       <c r="F135" t="n">
-        <v>0.172978</v>
+        <v>0.171971</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194516</v>
+        <v>0.193641</v>
       </c>
       <c r="C136" t="n">
-        <v>0.303196</v>
+        <v>0.303262</v>
       </c>
       <c r="D136" t="n">
-        <v>0.442119</v>
+        <v>0.442623</v>
       </c>
       <c r="E136" t="n">
-        <v>0.128395</v>
+        <v>0.12917</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1936</v>
+        <v>0.192009</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232219</v>
+        <v>0.231779</v>
       </c>
       <c r="C137" t="n">
-        <v>0.359246</v>
+        <v>0.35907</v>
       </c>
       <c r="D137" t="n">
-        <v>0.453555</v>
+        <v>0.454293</v>
       </c>
       <c r="E137" t="n">
-        <v>0.139529</v>
+        <v>0.13879</v>
       </c>
       <c r="F137" t="n">
-        <v>0.171781</v>
+        <v>0.172338</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.167847</v>
+        <v>0.166768</v>
       </c>
       <c r="C138" t="n">
-        <v>0.225372</v>
+        <v>0.225401</v>
       </c>
       <c r="D138" t="n">
-        <v>0.46546</v>
+        <v>0.465336</v>
       </c>
       <c r="E138" t="n">
-        <v>0.140502</v>
+        <v>0.13997</v>
       </c>
       <c r="F138" t="n">
-        <v>0.174977</v>
+        <v>0.174428</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169293</v>
+        <v>0.169248</v>
       </c>
       <c r="C139" t="n">
-        <v>0.230178</v>
+        <v>0.229681</v>
       </c>
       <c r="D139" t="n">
-        <v>0.476822</v>
+        <v>0.477127</v>
       </c>
       <c r="E139" t="n">
-        <v>0.141057</v>
+        <v>0.13967</v>
       </c>
       <c r="F139" t="n">
-        <v>0.177693</v>
+        <v>0.176906</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.171543</v>
+        <v>0.171093</v>
       </c>
       <c r="C140" t="n">
-        <v>0.233882</v>
+        <v>0.235254</v>
       </c>
       <c r="D140" t="n">
-        <v>0.488888</v>
+        <v>0.488982</v>
       </c>
       <c r="E140" t="n">
-        <v>0.143624</v>
+        <v>0.142525</v>
       </c>
       <c r="F140" t="n">
-        <v>0.181216</v>
+        <v>0.180175</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.173202</v>
+        <v>0.17097</v>
       </c>
       <c r="C141" t="n">
-        <v>0.238892</v>
+        <v>0.238609</v>
       </c>
       <c r="D141" t="n">
-        <v>0.50101</v>
+        <v>0.501281</v>
       </c>
       <c r="E141" t="n">
-        <v>0.143952</v>
+        <v>0.144389</v>
       </c>
       <c r="F141" t="n">
-        <v>0.183109</v>
+        <v>0.183606</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.174473</v>
+        <v>0.174529</v>
       </c>
       <c r="C142" t="n">
-        <v>0.244326</v>
+        <v>0.24321</v>
       </c>
       <c r="D142" t="n">
-        <v>0.513529</v>
+        <v>0.513643</v>
       </c>
       <c r="E142" t="n">
-        <v>0.144827</v>
+        <v>0.144615</v>
       </c>
       <c r="F142" t="n">
-        <v>0.186015</v>
+        <v>0.185996</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.177112</v>
+        <v>0.178022</v>
       </c>
       <c r="C143" t="n">
-        <v>0.248982</v>
+        <v>0.249176</v>
       </c>
       <c r="D143" t="n">
-        <v>0.526834</v>
+        <v>0.526939</v>
       </c>
       <c r="E143" t="n">
-        <v>0.14685</v>
+        <v>0.147117</v>
       </c>
       <c r="F143" t="n">
-        <v>0.189562</v>
+        <v>0.189798</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.034812</v>
+        <v>0.0347052</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0347791</v>
+        <v>0.0348091</v>
       </c>
       <c r="D2" t="n">
-        <v>0.124165</v>
+        <v>0.123464</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0229417</v>
+        <v>0.022861</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0237906</v>
+        <v>0.0242369</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0353415</v>
+        <v>0.0353365</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0364865</v>
+        <v>0.0361903</v>
       </c>
       <c r="D3" t="n">
-        <v>0.128076</v>
+        <v>0.127826</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0229985</v>
+        <v>0.0231975</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0239194</v>
+        <v>0.0240435</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.038053</v>
+        <v>0.0385218</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0388977</v>
+        <v>0.0387472</v>
       </c>
       <c r="D4" t="n">
-        <v>0.133751</v>
+        <v>0.133419</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0230636</v>
+        <v>0.0230256</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0245584</v>
+        <v>0.0245569</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.043429</v>
+        <v>0.0434031</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0431129</v>
+        <v>0.0432204</v>
       </c>
       <c r="D5" t="n">
-        <v>0.138933</v>
+        <v>0.13849</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0212485</v>
+        <v>0.0227348</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0235404</v>
+        <v>0.0238681</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.054543</v>
+        <v>0.0545479</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0559298</v>
+        <v>0.0560727</v>
       </c>
       <c r="D6" t="n">
-        <v>0.144066</v>
+        <v>0.143751</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0230056</v>
+        <v>0.0230497</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0248784</v>
+        <v>0.0251447</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0739592</v>
+        <v>0.0739582</v>
       </c>
       <c r="C7" t="n">
-        <v>0.074688</v>
+        <v>0.0745649</v>
       </c>
       <c r="D7" t="n">
-        <v>0.102296</v>
+        <v>0.10183</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0267036</v>
+        <v>0.0255538</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0305595</v>
+        <v>0.0310282</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.108726</v>
+        <v>0.108756</v>
       </c>
       <c r="C8" t="n">
-        <v>0.108106</v>
+        <v>0.108333</v>
       </c>
       <c r="D8" t="n">
-        <v>0.108086</v>
+        <v>0.108015</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0474567</v>
+        <v>0.0457609</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0492471</v>
+        <v>0.0483267</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149002</v>
+        <v>0.148872</v>
       </c>
       <c r="C9" t="n">
-        <v>0.150978</v>
+        <v>0.150791</v>
       </c>
       <c r="D9" t="n">
-        <v>0.112997</v>
+        <v>0.112861</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0230796</v>
+        <v>0.0231524</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0238117</v>
+        <v>0.0239436</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0325753</v>
+        <v>0.0325647</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0329952</v>
+        <v>0.0334179</v>
       </c>
       <c r="D10" t="n">
-        <v>0.118355</v>
+        <v>0.11866</v>
       </c>
       <c r="E10" t="n">
-        <v>0.023122</v>
+        <v>0.023196</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0241456</v>
+        <v>0.0241624</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0330111</v>
+        <v>0.0330209</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0337395</v>
+        <v>0.0338143</v>
       </c>
       <c r="D11" t="n">
-        <v>0.122371</v>
+        <v>0.122616</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0233385</v>
+        <v>0.0234589</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0244443</v>
+        <v>0.0242857</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0335545</v>
+        <v>0.0334966</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0344613</v>
+        <v>0.0346255</v>
       </c>
       <c r="D12" t="n">
-        <v>0.127288</v>
+        <v>0.127626</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02351</v>
+        <v>0.0233844</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0246654</v>
+        <v>0.0245035</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0339733</v>
+        <v>0.0340453</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0350404</v>
+        <v>0.0352667</v>
       </c>
       <c r="D13" t="n">
-        <v>0.131562</v>
+        <v>0.131471</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0235612</v>
+        <v>0.0235511</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0249672</v>
+        <v>0.0247988</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0346167</v>
+        <v>0.0347219</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0357593</v>
+        <v>0.0360621</v>
       </c>
       <c r="D14" t="n">
-        <v>0.136427</v>
+        <v>0.136038</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0234803</v>
+        <v>0.023609</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0251085</v>
+        <v>0.024973</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0356215</v>
+        <v>0.0356449</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0370336</v>
+        <v>0.0373792</v>
       </c>
       <c r="D15" t="n">
-        <v>0.140765</v>
+        <v>0.140575</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0239107</v>
+        <v>0.0239377</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0255918</v>
+        <v>0.0255032</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0368633</v>
+        <v>0.0368769</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0384067</v>
+        <v>0.0386905</v>
       </c>
       <c r="D16" t="n">
-        <v>0.145552</v>
+        <v>0.145886</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0242217</v>
+        <v>0.0242869</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0260239</v>
+        <v>0.0259898</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0391605</v>
+        <v>0.0391521</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0402515</v>
+        <v>0.0405275</v>
       </c>
       <c r="D17" t="n">
-        <v>0.150397</v>
+        <v>0.151045</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0246637</v>
+        <v>0.0245822</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0258475</v>
+        <v>0.0260568</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.041817</v>
+        <v>0.0417659</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0441352</v>
+        <v>0.0442725</v>
       </c>
       <c r="D18" t="n">
-        <v>0.155067</v>
+        <v>0.155201</v>
       </c>
       <c r="E18" t="n">
-        <v>0.024734</v>
+        <v>0.024752</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0265907</v>
+        <v>0.026624</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0488666</v>
+        <v>0.0487873</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0513862</v>
+        <v>0.0512518</v>
       </c>
       <c r="D19" t="n">
-        <v>0.160176</v>
+        <v>0.160038</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0246759</v>
+        <v>0.0245626</v>
       </c>
       <c r="F19" t="n">
-        <v>0.027892</v>
+        <v>0.0278813</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0604847</v>
+        <v>0.0604059</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0601058</v>
+        <v>0.0601224</v>
       </c>
       <c r="D20" t="n">
-        <v>0.164248</v>
+        <v>0.164556</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0290272</v>
+        <v>0.0286575</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0322491</v>
+        <v>0.0317284</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0737831</v>
+        <v>0.0736996</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0757092</v>
+        <v>0.07612389999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.117937</v>
+        <v>0.117996</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0380682</v>
+        <v>0.0382425</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0398668</v>
+        <v>0.0398301</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09832539999999999</v>
+        <v>0.0983479</v>
       </c>
       <c r="C22" t="n">
-        <v>0.100136</v>
+        <v>0.100214</v>
       </c>
       <c r="D22" t="n">
-        <v>0.122318</v>
+        <v>0.122576</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0566657</v>
+        <v>0.0565613</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0569014</v>
+        <v>0.0570314</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.133332</v>
+        <v>0.133502</v>
       </c>
       <c r="C23" t="n">
-        <v>0.134612</v>
+        <v>0.1346</v>
       </c>
       <c r="D23" t="n">
-        <v>0.126071</v>
+        <v>0.127092</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0239944</v>
+        <v>0.0240236</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0256739</v>
+        <v>0.0256809</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0338877</v>
+        <v>0.0340102</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0361034</v>
+        <v>0.0362372</v>
       </c>
       <c r="D24" t="n">
-        <v>0.131543</v>
+        <v>0.132005</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0242999</v>
+        <v>0.0243431</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0260184</v>
+        <v>0.0260554</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0340582</v>
+        <v>0.0341219</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0367778</v>
+        <v>0.0370751</v>
       </c>
       <c r="D25" t="n">
-        <v>0.135742</v>
+        <v>0.136034</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0244786</v>
+        <v>0.0245658</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0263302</v>
+        <v>0.0265003</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0350931</v>
+        <v>0.0352456</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0375232</v>
+        <v>0.0376724</v>
       </c>
       <c r="D26" t="n">
-        <v>0.140086</v>
+        <v>0.140468</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0247445</v>
+        <v>0.0247748</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0267054</v>
+        <v>0.0267495</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0357171</v>
+        <v>0.0357909</v>
       </c>
       <c r="C27" t="n">
-        <v>0.038682</v>
+        <v>0.0388927</v>
       </c>
       <c r="D27" t="n">
-        <v>0.144771</v>
+        <v>0.145183</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0250275</v>
+        <v>0.0250661</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0270526</v>
+        <v>0.0271658</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0365227</v>
+        <v>0.0366263</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0394296</v>
+        <v>0.0397324</v>
       </c>
       <c r="D28" t="n">
-        <v>0.14981</v>
+        <v>0.150045</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0253195</v>
+        <v>0.0253145</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0276103</v>
+        <v>0.0278426</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0376468</v>
+        <v>0.0375963</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0409416</v>
+        <v>0.040999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.154641</v>
+        <v>0.154787</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0259021</v>
+        <v>0.0259937</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0282909</v>
+        <v>0.0283237</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0395288</v>
+        <v>0.0396021</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0429173</v>
+        <v>0.0431638</v>
       </c>
       <c r="D30" t="n">
-        <v>0.158595</v>
+        <v>0.158921</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0261235</v>
+        <v>0.0263136</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0287343</v>
+        <v>0.0289121</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0418158</v>
+        <v>0.0418762</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0449526</v>
+        <v>0.0451722</v>
       </c>
       <c r="D31" t="n">
-        <v>0.162832</v>
+        <v>0.163397</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0268882</v>
+        <v>0.026734</v>
       </c>
       <c r="F31" t="n">
-        <v>0.029693</v>
+        <v>0.0298132</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0457527</v>
+        <v>0.0458097</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0495352</v>
+        <v>0.0496853</v>
       </c>
       <c r="D32" t="n">
-        <v>0.167298</v>
+        <v>0.167735</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0271403</v>
+        <v>0.0273847</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0302648</v>
+        <v>0.0306499</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0512984</v>
+        <v>0.0513149</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0539969</v>
+        <v>0.0541532</v>
       </c>
       <c r="D33" t="n">
-        <v>0.172105</v>
+        <v>0.17223</v>
       </c>
       <c r="E33" t="n">
-        <v>0.028745</v>
+        <v>0.0287403</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0320805</v>
+        <v>0.0321473</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0615235</v>
+        <v>0.0615141</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06522989999999999</v>
+        <v>0.0654076</v>
       </c>
       <c r="D34" t="n">
-        <v>0.176486</v>
+        <v>0.176922</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0333386</v>
+        <v>0.0333795</v>
       </c>
       <c r="F34" t="n">
-        <v>0.036636</v>
+        <v>0.0365922</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0740903</v>
+        <v>0.0740793</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0763646</v>
+        <v>0.0764867</v>
       </c>
       <c r="D35" t="n">
-        <v>0.123765</v>
+        <v>0.123716</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0418547</v>
+        <v>0.0419241</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0438772</v>
+        <v>0.0440156</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0960192</v>
+        <v>0.0961296</v>
       </c>
       <c r="C36" t="n">
-        <v>0.096543</v>
+        <v>0.0967291</v>
       </c>
       <c r="D36" t="n">
-        <v>0.128279</v>
+        <v>0.128124</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0532345</v>
+        <v>0.0533397</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0547495</v>
+        <v>0.0549045</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.127904</v>
+        <v>0.127787</v>
       </c>
       <c r="C37" t="n">
-        <v>0.12896</v>
+        <v>0.128836</v>
       </c>
       <c r="D37" t="n">
-        <v>0.132782</v>
+        <v>0.13254</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0248179</v>
+        <v>0.0247846</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0269716</v>
+        <v>0.0270671</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0342677</v>
+        <v>0.0343248</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0380155</v>
+        <v>0.0377805</v>
       </c>
       <c r="D38" t="n">
-        <v>0.137596</v>
+        <v>0.137294</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0251133</v>
+        <v>0.0252228</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0275137</v>
+        <v>0.027551</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0348122</v>
+        <v>0.0348742</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0388149</v>
+        <v>0.0385981</v>
       </c>
       <c r="D39" t="n">
-        <v>0.142433</v>
+        <v>0.142213</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0254753</v>
+        <v>0.0255431</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0278733</v>
+        <v>0.0281356</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0356034</v>
+        <v>0.0356423</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0397575</v>
+        <v>0.0396078</v>
       </c>
       <c r="D40" t="n">
-        <v>0.146811</v>
+        <v>0.146552</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0256494</v>
+        <v>0.0259309</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0285476</v>
+        <v>0.0288984</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0363808</v>
+        <v>0.0363964</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0407522</v>
+        <v>0.0406459</v>
       </c>
       <c r="D41" t="n">
-        <v>0.151888</v>
+        <v>0.151616</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0259343</v>
+        <v>0.0260699</v>
       </c>
       <c r="F41" t="n">
-        <v>0.029135</v>
+        <v>0.029225</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.037385</v>
+        <v>0.037421</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0418673</v>
+        <v>0.0417548</v>
       </c>
       <c r="D42" t="n">
-        <v>0.156603</v>
+        <v>0.156412</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0263801</v>
+        <v>0.0264984</v>
       </c>
       <c r="F42" t="n">
-        <v>0.029976</v>
+        <v>0.0298494</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0387542</v>
+        <v>0.038767</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0430881</v>
+        <v>0.0430062</v>
       </c>
       <c r="D43" t="n">
-        <v>0.161045</v>
+        <v>0.160943</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0270674</v>
+        <v>0.0271633</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0306737</v>
+        <v>0.030867</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0403523</v>
+        <v>0.0405628</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0449656</v>
+        <v>0.0448973</v>
       </c>
       <c r="D44" t="n">
-        <v>0.165047</v>
+        <v>0.164871</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0278051</v>
+        <v>0.0279536</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0316102</v>
+        <v>0.0317557</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.043198</v>
+        <v>0.0432761</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0473872</v>
+        <v>0.047335</v>
       </c>
       <c r="D45" t="n">
-        <v>0.168995</v>
+        <v>0.169015</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0287688</v>
+        <v>0.0288819</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0327903</v>
+        <v>0.0327001</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0465688</v>
+        <v>0.0465803</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0509118</v>
+        <v>0.0508555</v>
       </c>
       <c r="D46" t="n">
-        <v>0.172991</v>
+        <v>0.172917</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0303155</v>
+        <v>0.0304294</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0344146</v>
+        <v>0.0343059</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0521932</v>
+        <v>0.0522111</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0562607</v>
+        <v>0.05616</v>
       </c>
       <c r="D47" t="n">
-        <v>0.177191</v>
+        <v>0.177006</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0326896</v>
+        <v>0.0327944</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03639</v>
+        <v>0.0363766</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.060677</v>
+        <v>0.0606901</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0631591</v>
+        <v>0.0633857</v>
       </c>
       <c r="D48" t="n">
-        <v>0.181659</v>
+        <v>0.181494</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0367511</v>
+        <v>0.0369095</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0400335</v>
+        <v>0.0401059</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0749416</v>
+        <v>0.0750074</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0767436</v>
+        <v>0.0767804</v>
       </c>
       <c r="D49" t="n">
-        <v>0.186047</v>
+        <v>0.185766</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0422055</v>
+        <v>0.0423278</v>
       </c>
       <c r="F49" t="n">
-        <v>0.044994</v>
+        <v>0.0450674</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09214360000000001</v>
+        <v>0.0922533</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09217400000000001</v>
+        <v>0.0920533</v>
       </c>
       <c r="D50" t="n">
-        <v>0.130958</v>
+        <v>0.130906</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0503448</v>
+        <v>0.0503965</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0524396</v>
+        <v>0.0526392</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.122214</v>
+        <v>0.122055</v>
       </c>
       <c r="C51" t="n">
-        <v>0.12296</v>
+        <v>0.123032</v>
       </c>
       <c r="D51" t="n">
-        <v>0.135584</v>
+        <v>0.13568</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0267434</v>
+        <v>0.0268933</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0299424</v>
+        <v>0.0300442</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168317</v>
+        <v>0.16818</v>
       </c>
       <c r="C52" t="n">
-        <v>0.167937</v>
+        <v>0.16812</v>
       </c>
       <c r="D52" t="n">
-        <v>0.140431</v>
+        <v>0.140527</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0270039</v>
+        <v>0.0270715</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0302913</v>
+        <v>0.0304578</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0368125</v>
+        <v>0.0360451</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0412717</v>
+        <v>0.0415216</v>
       </c>
       <c r="D53" t="n">
-        <v>0.145244</v>
+        <v>0.145277</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0272077</v>
+        <v>0.0272135</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0309487</v>
+        <v>0.0311492</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.037065</v>
+        <v>0.037228</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0420643</v>
+        <v>0.0425327</v>
       </c>
       <c r="D54" t="n">
-        <v>0.150015</v>
+        <v>0.150044</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0276654</v>
+        <v>0.0280939</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0313142</v>
+        <v>0.0315179</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.038286</v>
+        <v>0.0376376</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0433019</v>
+        <v>0.0436572</v>
       </c>
       <c r="D55" t="n">
-        <v>0.154588</v>
+        <v>0.154693</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0281291</v>
+        <v>0.0286568</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0330545</v>
+        <v>0.0316625</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0394908</v>
+        <v>0.0386737</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0443712</v>
+        <v>0.0447097</v>
       </c>
       <c r="D56" t="n">
-        <v>0.159027</v>
+        <v>0.159064</v>
       </c>
       <c r="E56" t="n">
-        <v>0.029157</v>
+        <v>0.0292577</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0328791</v>
+        <v>0.0328438</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0400186</v>
+        <v>0.0398835</v>
       </c>
       <c r="C57" t="n">
-        <v>0.045887</v>
+        <v>0.0461961</v>
       </c>
       <c r="D57" t="n">
-        <v>0.163408</v>
+        <v>0.163365</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0289372</v>
+        <v>0.0292983</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0335875</v>
+        <v>0.0335938</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.042243</v>
+        <v>0.0418236</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0475062</v>
+        <v>0.0479192</v>
       </c>
       <c r="D58" t="n">
-        <v>0.167885</v>
+        <v>0.167434</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0306838</v>
+        <v>0.030026</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0355055</v>
+        <v>0.0352249</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0447074</v>
+        <v>0.0447613</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0499051</v>
+        <v>0.0501964</v>
       </c>
       <c r="D59" t="n">
-        <v>0.171904</v>
+        <v>0.171402</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0312789</v>
+        <v>0.0310575</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0363303</v>
+        <v>0.0369389</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0482422</v>
+        <v>0.0482835</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0533792</v>
+        <v>0.0538466</v>
       </c>
       <c r="D60" t="n">
-        <v>0.17602</v>
+        <v>0.175873</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0331173</v>
+        <v>0.0335385</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0372016</v>
+        <v>0.0371719</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0530653</v>
+        <v>0.0531589</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0576997</v>
+        <v>0.0574775</v>
       </c>
       <c r="D61" t="n">
-        <v>0.180768</v>
+        <v>0.180209</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0349218</v>
+        <v>0.0353955</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0393908</v>
+        <v>0.0401175</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0606495</v>
+        <v>0.0606073</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0644523</v>
+        <v>0.0646374</v>
       </c>
       <c r="D62" t="n">
-        <v>0.185578</v>
+        <v>0.18448</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0380224</v>
+        <v>0.0384562</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0425686</v>
+        <v>0.0424136</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0728679</v>
+        <v>0.07274600000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0761008</v>
+        <v>0.0765097</v>
       </c>
       <c r="D63" t="n">
-        <v>0.190552</v>
+        <v>0.189552</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0428275</v>
+        <v>0.0431794</v>
       </c>
       <c r="F63" t="n">
-        <v>0.046735</v>
+        <v>0.0472631</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0889109</v>
+        <v>0.08898730000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0920627</v>
+        <v>0.0917511</v>
       </c>
       <c r="D64" t="n">
-        <v>0.141066</v>
+        <v>0.139522</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0504912</v>
+        <v>0.0503619</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0549164</v>
+        <v>0.0538833</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115265</v>
+        <v>0.115148</v>
       </c>
       <c r="C65" t="n">
-        <v>0.118137</v>
+        <v>0.118413</v>
       </c>
       <c r="D65" t="n">
-        <v>0.144977</v>
+        <v>0.143025</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0640812</v>
+        <v>0.0641207</v>
       </c>
       <c r="F65" t="n">
-        <v>0.06715260000000001</v>
+        <v>0.0672784</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.15589</v>
+        <v>0.156002</v>
       </c>
       <c r="C66" t="n">
-        <v>0.157938</v>
+        <v>0.158117</v>
       </c>
       <c r="D66" t="n">
-        <v>0.153022</v>
+        <v>0.153143</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0321036</v>
+        <v>0.0319583</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0369626</v>
+        <v>0.0371042</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0410501</v>
+        <v>0.0422098</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0489458</v>
+        <v>0.0490051</v>
       </c>
       <c r="D67" t="n">
-        <v>0.160604</v>
+        <v>0.159264</v>
       </c>
       <c r="E67" t="n">
-        <v>0.032329</v>
+        <v>0.0324355</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0375427</v>
+        <v>0.0377768</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0420764</v>
+        <v>0.0421591</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0504235</v>
+        <v>0.0503108</v>
       </c>
       <c r="D68" t="n">
-        <v>0.167392</v>
+        <v>0.167114</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0327481</v>
+        <v>0.0329045</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0381791</v>
+        <v>0.0385075</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0424242</v>
+        <v>0.0432877</v>
       </c>
       <c r="C69" t="n">
-        <v>0.051535</v>
+        <v>0.051465</v>
       </c>
       <c r="D69" t="n">
-        <v>0.175892</v>
+        <v>0.175279</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0331787</v>
+        <v>0.0332977</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0392541</v>
+        <v>0.038935</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0437382</v>
+        <v>0.0438695</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0532134</v>
+        <v>0.0531108</v>
       </c>
       <c r="D70" t="n">
-        <v>0.184402</v>
+        <v>0.184579</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0339006</v>
+        <v>0.0337217</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0397524</v>
+        <v>0.0399542</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0450489</v>
+        <v>0.0451406</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0552081</v>
+        <v>0.0549296</v>
       </c>
       <c r="D71" t="n">
-        <v>0.192899</v>
+        <v>0.193362</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0342546</v>
+        <v>0.0343128</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0404823</v>
+        <v>0.0405426</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0467608</v>
+        <v>0.0468743</v>
       </c>
       <c r="C72" t="n">
-        <v>0.057417</v>
+        <v>0.0570212</v>
       </c>
       <c r="D72" t="n">
-        <v>0.203335</v>
+        <v>0.202644</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0349972</v>
+        <v>0.0350749</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0417515</v>
+        <v>0.0416271</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0496743</v>
+        <v>0.0492437</v>
       </c>
       <c r="C73" t="n">
-        <v>0.060521</v>
+        <v>0.0595156</v>
       </c>
       <c r="D73" t="n">
-        <v>0.213605</v>
+        <v>0.21222</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0358021</v>
+        <v>0.0363289</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0432405</v>
+        <v>0.0433238</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0521465</v>
+        <v>0.0525094</v>
       </c>
       <c r="C74" t="n">
-        <v>0.06473520000000001</v>
+        <v>0.0634472</v>
       </c>
       <c r="D74" t="n">
-        <v>0.225356</v>
+        <v>0.223729</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0372788</v>
+        <v>0.037087</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0447766</v>
+        <v>0.0449835</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0578197</v>
+        <v>0.0575673</v>
       </c>
       <c r="C75" t="n">
-        <v>0.07074850000000001</v>
+        <v>0.06920220000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.238325</v>
+        <v>0.237371</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0390671</v>
+        <v>0.0388902</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0470194</v>
+        <v>0.0468669</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.064942</v>
+        <v>0.064418</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0786755</v>
+        <v>0.0768418</v>
       </c>
       <c r="D76" t="n">
-        <v>0.252225</v>
+        <v>0.249439</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0418973</v>
+        <v>0.0420109</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0501057</v>
+        <v>0.0500892</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07515280000000001</v>
+        <v>0.0750677</v>
       </c>
       <c r="C77" t="n">
-        <v>0.09064120000000001</v>
+        <v>0.0888748</v>
       </c>
       <c r="D77" t="n">
-        <v>0.26705</v>
+        <v>0.264275</v>
       </c>
       <c r="E77" t="n">
-        <v>0.046234</v>
+        <v>0.046424</v>
       </c>
       <c r="F77" t="n">
-        <v>0.055179</v>
+        <v>0.0548161</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.09060360000000001</v>
+        <v>0.0902434</v>
       </c>
       <c r="C78" t="n">
-        <v>0.108239</v>
+        <v>0.105915</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2201</v>
+        <v>0.220013</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0527185</v>
+        <v>0.0531431</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0624864</v>
+        <v>0.0619227</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.113849</v>
+        <v>0.113801</v>
       </c>
       <c r="C79" t="n">
-        <v>0.134867</v>
+        <v>0.131454</v>
       </c>
       <c r="D79" t="n">
-        <v>0.229902</v>
+        <v>0.231091</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06481729999999999</v>
+        <v>0.06468699999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>0.07471559999999999</v>
+        <v>0.0742211</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.152855</v>
+        <v>0.152505</v>
       </c>
       <c r="C80" t="n">
-        <v>0.178879</v>
+        <v>0.177266</v>
       </c>
       <c r="D80" t="n">
-        <v>0.244206</v>
+        <v>0.244445</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0366404</v>
+        <v>0.036892</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0433135</v>
+        <v>0.0432289</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0478472</v>
+        <v>0.0472378</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0626785</v>
+        <v>0.060727</v>
       </c>
       <c r="D81" t="n">
-        <v>0.256465</v>
+        <v>0.257216</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0369688</v>
+        <v>0.0369044</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0447874</v>
+        <v>0.0440133</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0486271</v>
+        <v>0.0480504</v>
       </c>
       <c r="C82" t="n">
-        <v>0.06609379999999999</v>
+        <v>0.0635772</v>
       </c>
       <c r="D82" t="n">
-        <v>0.269242</v>
+        <v>0.269919</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0374724</v>
+        <v>0.0374042</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0459799</v>
+        <v>0.0450899</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0497529</v>
+        <v>0.0492591</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0700467</v>
+        <v>0.0671525</v>
       </c>
       <c r="D83" t="n">
-        <v>0.281863</v>
+        <v>0.282551</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0379849</v>
+        <v>0.0381469</v>
       </c>
       <c r="F83" t="n">
-        <v>0.047461</v>
+        <v>0.0461252</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0515757</v>
+        <v>0.050817</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0737189</v>
+        <v>0.0708966</v>
       </c>
       <c r="D84" t="n">
-        <v>0.294968</v>
+        <v>0.296075</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0386265</v>
+        <v>0.0386285</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0486183</v>
+        <v>0.0473676</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0537054</v>
+        <v>0.0524055</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0791338</v>
+        <v>0.0764893</v>
       </c>
       <c r="D85" t="n">
-        <v>0.308291</v>
+        <v>0.309334</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0394955</v>
+        <v>0.0393027</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0497227</v>
+        <v>0.0492304</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0561728</v>
+        <v>0.0547123</v>
       </c>
       <c r="C86" t="n">
-        <v>0.08534650000000001</v>
+        <v>0.0827253</v>
       </c>
       <c r="D86" t="n">
-        <v>0.32185</v>
+        <v>0.323611</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0405807</v>
+        <v>0.0403671</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0523789</v>
+        <v>0.0513888</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0595863</v>
+        <v>0.0579514</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0923817</v>
+        <v>0.08986329999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.336601</v>
+        <v>0.338292</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0421746</v>
+        <v>0.0417089</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0550358</v>
+        <v>0.054415</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0634802</v>
+        <v>0.0622973</v>
       </c>
       <c r="C88" t="n">
-        <v>0.100108</v>
+        <v>0.0978627</v>
       </c>
       <c r="D88" t="n">
-        <v>0.351509</v>
+        <v>0.352829</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0439847</v>
+        <v>0.0436346</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0604992</v>
+        <v>0.0579358</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0702807</v>
+        <v>0.0676713</v>
       </c>
       <c r="C89" t="n">
-        <v>0.111798</v>
+        <v>0.110293</v>
       </c>
       <c r="D89" t="n">
-        <v>0.367043</v>
+        <v>0.368491</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0465775</v>
+        <v>0.0459615</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0649671</v>
+        <v>0.0621147</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0782099</v>
+        <v>0.0764683</v>
       </c>
       <c r="C90" t="n">
-        <v>0.125545</v>
+        <v>0.124845</v>
       </c>
       <c r="D90" t="n">
-        <v>0.383254</v>
+        <v>0.38475</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0507829</v>
+        <v>0.0499505</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0708046</v>
+        <v>0.06840839999999999</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0899122</v>
+        <v>0.0870263</v>
       </c>
       <c r="C91" t="n">
-        <v>0.142312</v>
+        <v>0.142733</v>
       </c>
       <c r="D91" t="n">
-        <v>0.399787</v>
+        <v>0.402073</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0555819</v>
+        <v>0.0544944</v>
       </c>
       <c r="F91" t="n">
-        <v>0.07971200000000001</v>
+        <v>0.0772526</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.106081</v>
+        <v>0.103147</v>
       </c>
       <c r="C92" t="n">
-        <v>0.164795</v>
+        <v>0.165709</v>
       </c>
       <c r="D92" t="n">
-        <v>0.324386</v>
+        <v>0.325105</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0637495</v>
+        <v>0.0617076</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09119140000000001</v>
+        <v>0.0887797</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.129156</v>
+        <v>0.126872</v>
       </c>
       <c r="C93" t="n">
-        <v>0.195533</v>
+        <v>0.19674</v>
       </c>
       <c r="D93" t="n">
-        <v>0.335138</v>
+        <v>0.336093</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0760682</v>
+        <v>0.0743429</v>
       </c>
       <c r="F93" t="n">
-        <v>0.108133</v>
+        <v>0.107034</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.164096</v>
+        <v>0.163135</v>
       </c>
       <c r="C94" t="n">
-        <v>0.236363</v>
+        <v>0.238256</v>
       </c>
       <c r="D94" t="n">
-        <v>0.346557</v>
+        <v>0.347201</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0426216</v>
+        <v>0.0415871</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0585464</v>
+        <v>0.0566707</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0612359</v>
+        <v>0.0598501</v>
       </c>
       <c r="C95" t="n">
-        <v>0.102754</v>
+        <v>0.103563</v>
       </c>
       <c r="D95" t="n">
-        <v>0.358036</v>
+        <v>0.358801</v>
       </c>
       <c r="E95" t="n">
-        <v>0.043585</v>
+        <v>0.042605</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0615133</v>
+        <v>0.0600543</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0645107</v>
+        <v>0.06302969999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.110269</v>
+        <v>0.112105</v>
       </c>
       <c r="D96" t="n">
-        <v>0.369817</v>
+        <v>0.370931</v>
       </c>
       <c r="E96" t="n">
-        <v>0.045415</v>
+        <v>0.0442533</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0652441</v>
+        <v>0.0643502</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.06794740000000001</v>
+        <v>0.0664928</v>
       </c>
       <c r="C97" t="n">
-        <v>0.118174</v>
+        <v>0.120646</v>
       </c>
       <c r="D97" t="n">
-        <v>0.381953</v>
+        <v>0.382857</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0475893</v>
+        <v>0.0464632</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0696198</v>
+        <v>0.0691745</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0715845</v>
+        <v>0.07101789999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.126232</v>
+        <v>0.128593</v>
       </c>
       <c r="D98" t="n">
-        <v>0.393881</v>
+        <v>0.394748</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0494921</v>
+        <v>0.0486129</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0738584</v>
+        <v>0.0741841</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07559440000000001</v>
+        <v>0.07578210000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.134514</v>
+        <v>0.136671</v>
       </c>
       <c r="D99" t="n">
-        <v>0.406794</v>
+        <v>0.407576</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0516614</v>
+        <v>0.051534</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0796897</v>
+        <v>0.08056240000000001</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0803243</v>
+        <v>0.0814661</v>
       </c>
       <c r="C100" t="n">
-        <v>0.14243</v>
+        <v>0.144134</v>
       </c>
       <c r="D100" t="n">
-        <v>0.419705</v>
+        <v>0.4211</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0543237</v>
+        <v>0.0544891</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0847308</v>
+        <v>0.0859268</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08625389999999999</v>
+        <v>0.0871133</v>
       </c>
       <c r="C101" t="n">
-        <v>0.150955</v>
+        <v>0.152103</v>
       </c>
       <c r="D101" t="n">
-        <v>0.433287</v>
+        <v>0.43499</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0572782</v>
+        <v>0.0581801</v>
       </c>
       <c r="F101" t="n">
-        <v>0.09073150000000001</v>
+        <v>0.0922568</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0929546</v>
+        <v>0.0937158</v>
       </c>
       <c r="C102" t="n">
-        <v>0.159808</v>
+        <v>0.160697</v>
       </c>
       <c r="D102" t="n">
-        <v>0.447892</v>
+        <v>0.449819</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0608273</v>
+        <v>0.061958</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0975608</v>
+        <v>0.0987397</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.10099</v>
+        <v>0.101254</v>
       </c>
       <c r="C103" t="n">
-        <v>0.169336</v>
+        <v>0.170101</v>
       </c>
       <c r="D103" t="n">
-        <v>0.462957</v>
+        <v>0.464742</v>
       </c>
       <c r="E103" t="n">
-        <v>0.06585920000000001</v>
+        <v>0.06624099999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>0.104383</v>
+        <v>0.106005</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.109795</v>
+        <v>0.110557</v>
       </c>
       <c r="C104" t="n">
-        <v>0.180835</v>
+        <v>0.182043</v>
       </c>
       <c r="D104" t="n">
-        <v>0.478744</v>
+        <v>0.480651</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0710291</v>
+        <v>0.07183630000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>0.112548</v>
+        <v>0.114093</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.121038</v>
+        <v>0.121488</v>
       </c>
       <c r="C105" t="n">
-        <v>0.195686</v>
+        <v>0.19654</v>
       </c>
       <c r="D105" t="n">
-        <v>0.495235</v>
+        <v>0.497205</v>
       </c>
       <c r="E105" t="n">
-        <v>0.077251</v>
+        <v>0.0782615</v>
       </c>
       <c r="F105" t="n">
-        <v>0.121724</v>
+        <v>0.122394</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.135479</v>
+        <v>0.135933</v>
       </c>
       <c r="C106" t="n">
-        <v>0.214321</v>
+        <v>0.215145</v>
       </c>
       <c r="D106" t="n">
-        <v>0.512667</v>
+        <v>0.514624</v>
       </c>
       <c r="E106" t="n">
-        <v>0.08636249999999999</v>
+        <v>0.08652799999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>0.133342</v>
+        <v>0.133402</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.154954</v>
+        <v>0.155716</v>
       </c>
       <c r="C107" t="n">
-        <v>0.239929</v>
+        <v>0.240145</v>
       </c>
       <c r="D107" t="n">
-        <v>0.387593</v>
+        <v>0.390187</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0984211</v>
+        <v>0.0985461</v>
       </c>
       <c r="F107" t="n">
-        <v>0.148787</v>
+        <v>0.149214</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.183884</v>
+        <v>0.184371</v>
       </c>
       <c r="C108" t="n">
-        <v>0.276738</v>
+        <v>0.277791</v>
       </c>
       <c r="D108" t="n">
-        <v>0.398631</v>
+        <v>0.400695</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0592374</v>
+        <v>0.0600135</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0892297</v>
+        <v>0.08962680000000001</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.229987</v>
+        <v>0.231015</v>
       </c>
       <c r="C109" t="n">
-        <v>0.338082</v>
+        <v>0.339709</v>
       </c>
       <c r="D109" t="n">
-        <v>0.409626</v>
+        <v>0.411879</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0614529</v>
+        <v>0.0617881</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0926125</v>
+        <v>0.0932524</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0903708</v>
+        <v>0.0910319</v>
       </c>
       <c r="C110" t="n">
-        <v>0.145087</v>
+        <v>0.1456</v>
       </c>
       <c r="D110" t="n">
-        <v>0.420515</v>
+        <v>0.423251</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0635782</v>
+        <v>0.06428010000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0958478</v>
+        <v>0.09647509999999999</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0933089</v>
+        <v>0.09407600000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.149376</v>
+        <v>0.150183</v>
       </c>
       <c r="D111" t="n">
-        <v>0.431938</v>
+        <v>0.434418</v>
       </c>
       <c r="E111" t="n">
-        <v>0.06555519999999999</v>
+        <v>0.06615550000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0989507</v>
+        <v>0.0996271</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.095986</v>
+        <v>0.09671200000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.154276</v>
+        <v>0.15543</v>
       </c>
       <c r="D112" t="n">
-        <v>0.443813</v>
+        <v>0.446514</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0677478</v>
+        <v>0.0680427</v>
       </c>
       <c r="F112" t="n">
-        <v>0.101867</v>
+        <v>0.102485</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0991726</v>
+        <v>0.09986250000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.159184</v>
+        <v>0.160015</v>
       </c>
       <c r="D113" t="n">
-        <v>0.455886</v>
+        <v>0.458788</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0696141</v>
+        <v>0.06996429999999999</v>
       </c>
       <c r="F113" t="n">
-        <v>0.105035</v>
+        <v>0.105741</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.102842</v>
+        <v>0.103172</v>
       </c>
       <c r="C114" t="n">
-        <v>0.16481</v>
+        <v>0.165523</v>
       </c>
       <c r="D114" t="n">
-        <v>0.468187</v>
+        <v>0.472426</v>
       </c>
       <c r="E114" t="n">
-        <v>0.071476</v>
+        <v>0.07223309999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>0.108732</v>
+        <v>0.109538</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.106545</v>
+        <v>0.106852</v>
       </c>
       <c r="C115" t="n">
-        <v>0.170597</v>
+        <v>0.171596</v>
       </c>
       <c r="D115" t="n">
-        <v>0.482036</v>
+        <v>0.485258</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0742517</v>
+        <v>0.0746339</v>
       </c>
       <c r="F115" t="n">
-        <v>0.113156</v>
+        <v>0.113457</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.11091</v>
+        <v>0.111494</v>
       </c>
       <c r="C116" t="n">
-        <v>0.178287</v>
+        <v>0.178918</v>
       </c>
       <c r="D116" t="n">
-        <v>0.495879</v>
+        <v>0.499195</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0770748</v>
+        <v>0.0773491</v>
       </c>
       <c r="F116" t="n">
-        <v>0.117205</v>
+        <v>0.11757</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.11639</v>
+        <v>0.116822</v>
       </c>
       <c r="C117" t="n">
-        <v>0.186537</v>
+        <v>0.18769</v>
       </c>
       <c r="D117" t="n">
-        <v>0.510982</v>
+        <v>0.513675</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0801751</v>
+        <v>0.0806337</v>
       </c>
       <c r="F117" t="n">
-        <v>0.122079</v>
+        <v>0.122574</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123508</v>
+        <v>0.124312</v>
       </c>
       <c r="C118" t="n">
-        <v>0.197195</v>
+        <v>0.198187</v>
       </c>
       <c r="D118" t="n">
-        <v>0.52612</v>
+        <v>0.529572</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0840732</v>
+        <v>0.08432199999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>0.12819</v>
+        <v>0.128535</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.132665</v>
+        <v>0.133667</v>
       </c>
       <c r="C119" t="n">
-        <v>0.211197</v>
+        <v>0.211886</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5425140000000001</v>
+        <v>0.546273</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0890373</v>
+        <v>0.08959060000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>0.135104</v>
+        <v>0.135776</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.145656</v>
+        <v>0.146295</v>
       </c>
       <c r="C120" t="n">
-        <v>0.22987</v>
+        <v>0.230829</v>
       </c>
       <c r="D120" t="n">
-        <v>0.559711</v>
+        <v>0.563465</v>
       </c>
       <c r="E120" t="n">
-        <v>0.09624439999999999</v>
+        <v>0.0963941</v>
       </c>
       <c r="F120" t="n">
-        <v>0.145639</v>
+        <v>0.146164</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163261</v>
+        <v>0.164012</v>
       </c>
       <c r="C121" t="n">
-        <v>0.254614</v>
+        <v>0.255793</v>
       </c>
       <c r="D121" t="n">
-        <v>0.41531</v>
+        <v>0.418161</v>
       </c>
       <c r="E121" t="n">
-        <v>0.106397</v>
+        <v>0.106485</v>
       </c>
       <c r="F121" t="n">
-        <v>0.160163</v>
+        <v>0.160224</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.18887</v>
+        <v>0.189871</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2917</v>
+        <v>0.292977</v>
       </c>
       <c r="D122" t="n">
-        <v>0.426194</v>
+        <v>0.429202</v>
       </c>
       <c r="E122" t="n">
-        <v>0.122446</v>
+        <v>0.123347</v>
       </c>
       <c r="F122" t="n">
-        <v>0.182105</v>
+        <v>0.183047</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.230249</v>
+        <v>0.23133</v>
       </c>
       <c r="C123" t="n">
-        <v>0.350786</v>
+        <v>0.352037</v>
       </c>
       <c r="D123" t="n">
-        <v>0.43795</v>
+        <v>0.440434</v>
       </c>
       <c r="E123" t="n">
-        <v>0.07351770000000001</v>
+        <v>0.0747519</v>
       </c>
       <c r="F123" t="n">
-        <v>0.106701</v>
+        <v>0.106578</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.101321</v>
+        <v>0.103695</v>
       </c>
       <c r="C124" t="n">
-        <v>0.161349</v>
+        <v>0.161217</v>
       </c>
       <c r="D124" t="n">
-        <v>0.449163</v>
+        <v>0.451819</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0740118</v>
+        <v>0.07456740000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>0.110049</v>
+        <v>0.110578</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.103546</v>
+        <v>0.106557</v>
       </c>
       <c r="C125" t="n">
-        <v>0.168292</v>
+        <v>0.166701</v>
       </c>
       <c r="D125" t="n">
-        <v>0.460381</v>
+        <v>0.46426</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0766961</v>
+        <v>0.0778818</v>
       </c>
       <c r="F125" t="n">
-        <v>0.112352</v>
+        <v>0.112961</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.105973</v>
+        <v>0.108117</v>
       </c>
       <c r="C126" t="n">
-        <v>0.170901</v>
+        <v>0.171247</v>
       </c>
       <c r="D126" t="n">
-        <v>0.472332</v>
+        <v>0.476097</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0781411</v>
+        <v>0.0800222</v>
       </c>
       <c r="F126" t="n">
-        <v>0.116314</v>
+        <v>0.11742</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111735</v>
+        <v>0.111277</v>
       </c>
       <c r="C127" t="n">
-        <v>0.175709</v>
+        <v>0.177157</v>
       </c>
       <c r="D127" t="n">
-        <v>0.484929</v>
+        <v>0.488154</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0802346</v>
+        <v>0.08240889999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>0.120792</v>
+        <v>0.121623</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.112855</v>
+        <v>0.113629</v>
       </c>
       <c r="C128" t="n">
-        <v>0.180518</v>
+        <v>0.181808</v>
       </c>
       <c r="D128" t="n">
-        <v>0.497259</v>
+        <v>0.501165</v>
       </c>
       <c r="E128" t="n">
-        <v>0.08183849999999999</v>
+        <v>0.0861512</v>
       </c>
       <c r="F128" t="n">
-        <v>0.122645</v>
+        <v>0.123028</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118189</v>
+        <v>0.116817</v>
       </c>
       <c r="C129" t="n">
-        <v>0.188199</v>
+        <v>0.188057</v>
       </c>
       <c r="D129" t="n">
-        <v>0.510566</v>
+        <v>0.514886</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0835225</v>
+        <v>0.08534360000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>0.126207</v>
+        <v>0.128381</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.12102</v>
+        <v>0.121441</v>
       </c>
       <c r="C130" t="n">
-        <v>0.192714</v>
+        <v>0.194679</v>
       </c>
       <c r="D130" t="n">
-        <v>0.524411</v>
+        <v>0.527834</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0865365</v>
+        <v>0.08660379999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>0.131642</v>
+        <v>0.134971</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.125583</v>
+        <v>0.127119</v>
       </c>
       <c r="C131" t="n">
-        <v>0.202411</v>
+        <v>0.201988</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5398309999999999</v>
+        <v>0.542895</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0901334</v>
+        <v>0.0893911</v>
       </c>
       <c r="F131" t="n">
-        <v>0.136897</v>
+        <v>0.138087</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.132352</v>
+        <v>0.133814</v>
       </c>
       <c r="C132" t="n">
-        <v>0.21443</v>
+        <v>0.215345</v>
       </c>
       <c r="D132" t="n">
-        <v>0.554653</v>
+        <v>0.558331</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0938619</v>
+        <v>0.0933851</v>
       </c>
       <c r="F132" t="n">
-        <v>0.143238</v>
+        <v>0.143113</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142312</v>
+        <v>0.14241</v>
       </c>
       <c r="C133" t="n">
-        <v>0.226973</v>
+        <v>0.228434</v>
       </c>
       <c r="D133" t="n">
-        <v>0.571251</v>
+        <v>0.57498</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0986388</v>
+        <v>0.0972968</v>
       </c>
       <c r="F133" t="n">
-        <v>0.14936</v>
+        <v>0.151406</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.152366</v>
+        <v>0.153627</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243785</v>
+        <v>0.245067</v>
       </c>
       <c r="D134" t="n">
-        <v>0.588516</v>
+        <v>0.592002</v>
       </c>
       <c r="E134" t="n">
-        <v>0.104255</v>
+        <v>0.107903</v>
       </c>
       <c r="F134" t="n">
-        <v>0.15986</v>
+        <v>0.15965</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.170701</v>
+        <v>0.17026</v>
       </c>
       <c r="C135" t="n">
-        <v>0.268599</v>
+        <v>0.270263</v>
       </c>
       <c r="D135" t="n">
-        <v>0.431544</v>
+        <v>0.434686</v>
       </c>
       <c r="E135" t="n">
-        <v>0.113816</v>
+        <v>0.115662</v>
       </c>
       <c r="F135" t="n">
-        <v>0.171971</v>
+        <v>0.174644</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.193641</v>
+        <v>0.195456</v>
       </c>
       <c r="C136" t="n">
-        <v>0.303262</v>
+        <v>0.304434</v>
       </c>
       <c r="D136" t="n">
-        <v>0.442623</v>
+        <v>0.446054</v>
       </c>
       <c r="E136" t="n">
-        <v>0.12917</v>
+        <v>0.13098</v>
       </c>
       <c r="F136" t="n">
-        <v>0.192009</v>
+        <v>0.195537</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.231779</v>
+        <v>0.233975</v>
       </c>
       <c r="C137" t="n">
-        <v>0.35907</v>
+        <v>0.359318</v>
       </c>
       <c r="D137" t="n">
-        <v>0.454293</v>
+        <v>0.457685</v>
       </c>
       <c r="E137" t="n">
-        <v>0.13879</v>
+        <v>0.139798</v>
       </c>
       <c r="F137" t="n">
-        <v>0.172338</v>
+        <v>0.173218</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.166768</v>
+        <v>0.15879</v>
       </c>
       <c r="C138" t="n">
-        <v>0.225401</v>
+        <v>0.227498</v>
       </c>
       <c r="D138" t="n">
-        <v>0.465336</v>
+        <v>0.469465</v>
       </c>
       <c r="E138" t="n">
-        <v>0.13997</v>
+        <v>0.1413</v>
       </c>
       <c r="F138" t="n">
-        <v>0.174428</v>
+        <v>0.175954</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169248</v>
+        <v>0.171689</v>
       </c>
       <c r="C139" t="n">
-        <v>0.229681</v>
+        <v>0.231916</v>
       </c>
       <c r="D139" t="n">
-        <v>0.477127</v>
+        <v>0.47943</v>
       </c>
       <c r="E139" t="n">
-        <v>0.13967</v>
+        <v>0.142117</v>
       </c>
       <c r="F139" t="n">
-        <v>0.176906</v>
+        <v>0.179326</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.171093</v>
+        <v>0.163779</v>
       </c>
       <c r="C140" t="n">
-        <v>0.235254</v>
+        <v>0.235083</v>
       </c>
       <c r="D140" t="n">
-        <v>0.488982</v>
+        <v>0.491043</v>
       </c>
       <c r="E140" t="n">
-        <v>0.142525</v>
+        <v>0.136462</v>
       </c>
       <c r="F140" t="n">
-        <v>0.180175</v>
+        <v>0.180804</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.17097</v>
+        <v>0.173367</v>
       </c>
       <c r="C141" t="n">
-        <v>0.238609</v>
+        <v>0.241459</v>
       </c>
       <c r="D141" t="n">
-        <v>0.501281</v>
+        <v>0.5053569999999999</v>
       </c>
       <c r="E141" t="n">
-        <v>0.144389</v>
+        <v>0.136868</v>
       </c>
       <c r="F141" t="n">
-        <v>0.183606</v>
+        <v>0.184605</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.174529</v>
+        <v>0.176154</v>
       </c>
       <c r="C142" t="n">
-        <v>0.24321</v>
+        <v>0.246577</v>
       </c>
       <c r="D142" t="n">
-        <v>0.513643</v>
+        <v>0.5182</v>
       </c>
       <c r="E142" t="n">
-        <v>0.144615</v>
+        <v>0.14562</v>
       </c>
       <c r="F142" t="n">
-        <v>0.185996</v>
+        <v>0.187531</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.178022</v>
+        <v>0.179318</v>
       </c>
       <c r="C143" t="n">
-        <v>0.249176</v>
+        <v>0.252859</v>
       </c>
       <c r="D143" t="n">
-        <v>0.526939</v>
+        <v>0.531321</v>
       </c>
       <c r="E143" t="n">
-        <v>0.147117</v>
+        <v>0.150478</v>
       </c>
       <c r="F143" t="n">
-        <v>0.189798</v>
+        <v>0.191262</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0347678</v>
+        <v>0.0324372</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0348306</v>
+        <v>0.0341835</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12521</v>
+        <v>0.127229</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0229398</v>
+        <v>0.0247217</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0238557</v>
+        <v>0.0247771</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0353185</v>
+        <v>0.0346214</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0363617</v>
+        <v>0.0349734</v>
       </c>
       <c r="D3" t="n">
-        <v>0.129614</v>
+        <v>0.13093</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0227287</v>
+        <v>0.0250024</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0239776</v>
+        <v>0.0246912</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0381993</v>
+        <v>0.0356618</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0389787</v>
+        <v>0.0372019</v>
       </c>
       <c r="D4" t="n">
-        <v>0.135284</v>
+        <v>0.135948</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0233235</v>
+        <v>0.0249838</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0246214</v>
+        <v>0.0250992</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.043397</v>
+        <v>0.0392512</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0435046</v>
+        <v>0.0423367</v>
       </c>
       <c r="D5" t="n">
-        <v>0.140964</v>
+        <v>0.141518</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0225361</v>
+        <v>0.0250383</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0237623</v>
+        <v>0.025006</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0547501</v>
+        <v>0.0521639</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0559095</v>
+        <v>0.0540236</v>
       </c>
       <c r="D6" t="n">
-        <v>0.147008</v>
+        <v>0.147447</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0230621</v>
+        <v>0.0272071</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0244823</v>
+        <v>0.0253191</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0738567</v>
+        <v>0.07058490000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0744406</v>
+        <v>0.0722763</v>
       </c>
       <c r="D7" t="n">
-        <v>0.102412</v>
+        <v>0.104951</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0270931</v>
+        <v>0.0238069</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0301698</v>
+        <v>0.0237385</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.108842</v>
+        <v>0.107318</v>
       </c>
       <c r="C8" t="n">
-        <v>0.108276</v>
+        <v>0.107315</v>
       </c>
       <c r="D8" t="n">
-        <v>0.108135</v>
+        <v>0.110551</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0475426</v>
+        <v>0.0240742</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0484056</v>
+        <v>0.0240068</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149248</v>
+        <v>0.148841</v>
       </c>
       <c r="C9" t="n">
-        <v>0.150866</v>
+        <v>0.150066</v>
       </c>
       <c r="D9" t="n">
-        <v>0.113124</v>
+        <v>0.115122</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0229307</v>
+        <v>0.0244517</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0236909</v>
+        <v>0.0241064</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0325426</v>
+        <v>0.0305905</v>
       </c>
       <c r="C10" t="n">
-        <v>0.033082</v>
+        <v>0.0315708</v>
       </c>
       <c r="D10" t="n">
-        <v>0.118096</v>
+        <v>0.120303</v>
       </c>
       <c r="E10" t="n">
-        <v>0.023054</v>
+        <v>0.0244413</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0239203</v>
+        <v>0.0242935</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0329859</v>
+        <v>0.0310831</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0336028</v>
+        <v>0.0322399</v>
       </c>
       <c r="D11" t="n">
-        <v>0.122794</v>
+        <v>0.125843</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0232218</v>
+        <v>0.0248611</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0240616</v>
+        <v>0.024598</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.033449</v>
+        <v>0.0313614</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0343556</v>
+        <v>0.0331118</v>
       </c>
       <c r="D12" t="n">
-        <v>0.127696</v>
+        <v>0.130595</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0233678</v>
+        <v>0.0253569</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0243147</v>
+        <v>0.024849</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0339677</v>
+        <v>0.0323516</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0349295</v>
+        <v>0.0338365</v>
       </c>
       <c r="D13" t="n">
-        <v>0.132084</v>
+        <v>0.134569</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0234139</v>
+        <v>0.0252258</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0246257</v>
+        <v>0.0250156</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0346354</v>
+        <v>0.0332238</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0359695</v>
+        <v>0.0346817</v>
       </c>
       <c r="D14" t="n">
-        <v>0.136548</v>
+        <v>0.139164</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0235023</v>
+        <v>0.0254816</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0247833</v>
+        <v>0.0252276</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0356513</v>
+        <v>0.0342797</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0371992</v>
+        <v>0.0355454</v>
       </c>
       <c r="D15" t="n">
-        <v>0.140919</v>
+        <v>0.143074</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0236637</v>
+        <v>0.0258588</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0252761</v>
+        <v>0.0256642</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0367499</v>
+        <v>0.0355596</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0385986</v>
+        <v>0.0373431</v>
       </c>
       <c r="D16" t="n">
-        <v>0.145914</v>
+        <v>0.14702</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0241348</v>
+        <v>0.0262278</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0257823</v>
+        <v>0.0260139</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0391324</v>
+        <v>0.0376744</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0406173</v>
+        <v>0.0398883</v>
       </c>
       <c r="D17" t="n">
-        <v>0.150643</v>
+        <v>0.151767</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0243895</v>
+        <v>0.0265866</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0260393</v>
+        <v>0.0263637</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0417719</v>
+        <v>0.0398084</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0444277</v>
+        <v>0.0434121</v>
       </c>
       <c r="D18" t="n">
-        <v>0.155671</v>
+        <v>0.157112</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0245207</v>
+        <v>0.0265222</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0267294</v>
+        <v>0.026102</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0488578</v>
+        <v>0.0478578</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0517113</v>
+        <v>0.0495043</v>
       </c>
       <c r="D19" t="n">
-        <v>0.160695</v>
+        <v>0.162112</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0242215</v>
+        <v>0.0278123</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0278223</v>
+        <v>0.0271937</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0604425</v>
+        <v>0.0580448</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0602967</v>
+        <v>0.0612291</v>
       </c>
       <c r="D20" t="n">
-        <v>0.164636</v>
+        <v>0.166165</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0285097</v>
+        <v>0.034588</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0319749</v>
+        <v>0.034154</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07373490000000001</v>
+        <v>0.07613350000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07585989999999999</v>
+        <v>0.07770920000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.11801</v>
+        <v>0.121935</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0380069</v>
+        <v>0.0247921</v>
       </c>
       <c r="F21" t="n">
-        <v>0.040223</v>
+        <v>0.0250738</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0984368</v>
+        <v>0.09925870000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.100207</v>
+        <v>0.101002</v>
       </c>
       <c r="D22" t="n">
-        <v>0.122422</v>
+        <v>0.125523</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0564726</v>
+        <v>0.0253583</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0573568</v>
+        <v>0.0252839</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.133367</v>
+        <v>0.131537</v>
       </c>
       <c r="C23" t="n">
-        <v>0.134491</v>
+        <v>0.137547</v>
       </c>
       <c r="D23" t="n">
-        <v>0.126553</v>
+        <v>0.129906</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0238489</v>
+        <v>0.0256467</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0256154</v>
+        <v>0.0259006</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0338952</v>
+        <v>0.032662</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0367531</v>
+        <v>0.0355605</v>
       </c>
       <c r="D24" t="n">
-        <v>0.132232</v>
+        <v>0.135033</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0241697</v>
+        <v>0.0258462</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0260279</v>
+        <v>0.0261703</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0340433</v>
+        <v>0.0332871</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0376199</v>
+        <v>0.0365243</v>
       </c>
       <c r="D25" t="n">
-        <v>0.136238</v>
+        <v>0.139135</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0243012</v>
+        <v>0.0261557</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0264728</v>
+        <v>0.0264934</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.035176</v>
+        <v>0.0334204</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0384787</v>
+        <v>0.0373447</v>
       </c>
       <c r="D26" t="n">
-        <v>0.14086</v>
+        <v>0.142924</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0246013</v>
+        <v>0.0266415</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0268747</v>
+        <v>0.0273034</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0357481</v>
+        <v>0.0341863</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0396097</v>
+        <v>0.0378931</v>
       </c>
       <c r="D27" t="n">
-        <v>0.145475</v>
+        <v>0.147773</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0250546</v>
+        <v>0.0269393</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0275212</v>
+        <v>0.027826</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0365898</v>
+        <v>0.0354405</v>
       </c>
       <c r="C28" t="n">
-        <v>0.040407</v>
+        <v>0.039981</v>
       </c>
       <c r="D28" t="n">
-        <v>0.150382</v>
+        <v>0.152335</v>
       </c>
       <c r="E28" t="n">
-        <v>0.025303</v>
+        <v>0.0277004</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0282804</v>
+        <v>0.0286774</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0377571</v>
+        <v>0.036424</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0417567</v>
+        <v>0.0408523</v>
       </c>
       <c r="D29" t="n">
-        <v>0.154873</v>
+        <v>0.157412</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0259492</v>
+        <v>0.0282546</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0290034</v>
+        <v>0.0295216</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0395837</v>
+        <v>0.0385405</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0438917</v>
+        <v>0.0432575</v>
       </c>
       <c r="D30" t="n">
-        <v>0.159057</v>
+        <v>0.161399</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0262972</v>
+        <v>0.0287784</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0297637</v>
+        <v>0.0300201</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0419127</v>
+        <v>0.0409456</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0456046</v>
+        <v>0.0449996</v>
       </c>
       <c r="D31" t="n">
-        <v>0.163192</v>
+        <v>0.165378</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0269475</v>
+        <v>0.0295407</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0306861</v>
+        <v>0.0311586</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0459057</v>
+        <v>0.045224</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0499815</v>
+        <v>0.0494954</v>
       </c>
       <c r="D32" t="n">
-        <v>0.167677</v>
+        <v>0.169294</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0274422</v>
+        <v>0.0298998</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0314443</v>
+        <v>0.0322415</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0514526</v>
+        <v>0.051122</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0542986</v>
+        <v>0.0555191</v>
       </c>
       <c r="D33" t="n">
-        <v>0.171913</v>
+        <v>0.174168</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0289592</v>
+        <v>0.0316066</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0329174</v>
+        <v>0.0341082</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0615592</v>
+        <v>0.0615121</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0654317</v>
+        <v>0.0654103</v>
       </c>
       <c r="D34" t="n">
-        <v>0.176464</v>
+        <v>0.178282</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0335194</v>
+        <v>0.0364722</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0372317</v>
+        <v>0.0393691</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0741651</v>
+        <v>0.07476140000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0764209</v>
+        <v>0.0762926</v>
       </c>
       <c r="D35" t="n">
-        <v>0.123788</v>
+        <v>0.126947</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0419899</v>
+        <v>0.0454606</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0444933</v>
+        <v>0.0479575</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09607400000000001</v>
+        <v>0.0964285</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09658890000000001</v>
+        <v>0.09701029999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.128283</v>
+        <v>0.131319</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0533746</v>
+        <v>0.0266694</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0550866</v>
+        <v>0.0282057</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.127758</v>
+        <v>0.132006</v>
       </c>
       <c r="C37" t="n">
-        <v>0.12881</v>
+        <v>0.129534</v>
       </c>
       <c r="D37" t="n">
-        <v>0.132805</v>
+        <v>0.135711</v>
       </c>
       <c r="E37" t="n">
-        <v>0.024747</v>
+        <v>0.0270366</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0276451</v>
+        <v>0.0285682</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0344903</v>
+        <v>0.0332516</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0384617</v>
+        <v>0.037688</v>
       </c>
       <c r="D38" t="n">
-        <v>0.137495</v>
+        <v>0.14043</v>
       </c>
       <c r="E38" t="n">
-        <v>0.025248</v>
+        <v>0.0275065</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0283042</v>
+        <v>0.0291458</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0349</v>
+        <v>0.0339302</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0391634</v>
+        <v>0.0384693</v>
       </c>
       <c r="D39" t="n">
-        <v>0.142322</v>
+        <v>0.145466</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0256355</v>
+        <v>0.0278781</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0287593</v>
+        <v>0.0295401</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0356965</v>
+        <v>0.0344636</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0400099</v>
+        <v>0.0393849</v>
       </c>
       <c r="D40" t="n">
-        <v>0.146754</v>
+        <v>0.150047</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0258639</v>
+        <v>0.0283006</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0291571</v>
+        <v>0.0299561</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0364383</v>
+        <v>0.0354278</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0409475</v>
+        <v>0.0403074</v>
       </c>
       <c r="D41" t="n">
-        <v>0.151806</v>
+        <v>0.154516</v>
       </c>
       <c r="E41" t="n">
-        <v>0.026161</v>
+        <v>0.0286754</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0296725</v>
+        <v>0.0304022</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0374731</v>
+        <v>0.0364891</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0419556</v>
+        <v>0.0411784</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1565</v>
+        <v>0.159049</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0265684</v>
+        <v>0.0294077</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0302784</v>
+        <v>0.0308988</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0387853</v>
+        <v>0.0376223</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0431553</v>
+        <v>0.0426124</v>
       </c>
       <c r="D43" t="n">
-        <v>0.160985</v>
+        <v>0.163217</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0272462</v>
+        <v>0.0299741</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0310489</v>
+        <v>0.0317646</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0404094</v>
+        <v>0.0395314</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0450328</v>
+        <v>0.0443798</v>
       </c>
       <c r="D44" t="n">
-        <v>0.165034</v>
+        <v>0.167082</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0279587</v>
+        <v>0.0310764</v>
       </c>
       <c r="F44" t="n">
-        <v>0.031889</v>
+        <v>0.0329135</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0432557</v>
+        <v>0.0425084</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0474114</v>
+        <v>0.0468799</v>
       </c>
       <c r="D45" t="n">
-        <v>0.168932</v>
+        <v>0.171021</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0289336</v>
+        <v>0.0317923</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0329188</v>
+        <v>0.0339052</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0465721</v>
+        <v>0.0457201</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0509063</v>
+        <v>0.04975</v>
       </c>
       <c r="D46" t="n">
-        <v>0.17286</v>
+        <v>0.174792</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0304082</v>
+        <v>0.0331112</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0344808</v>
+        <v>0.0355732</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0522064</v>
+        <v>0.0522706</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0562071</v>
+        <v>0.0557841</v>
       </c>
       <c r="D47" t="n">
-        <v>0.177129</v>
+        <v>0.178928</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0327114</v>
+        <v>0.0349471</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0367018</v>
+        <v>0.0380079</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0606988</v>
+        <v>0.0599046</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06318559999999999</v>
+        <v>0.0625486</v>
       </c>
       <c r="D48" t="n">
-        <v>0.181641</v>
+        <v>0.183582</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0367799</v>
+        <v>0.0389434</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0401483</v>
+        <v>0.0421506</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07495</v>
+        <v>0.0743104</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0768515</v>
+        <v>0.0754277</v>
       </c>
       <c r="D49" t="n">
-        <v>0.185985</v>
+        <v>0.187953</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0422316</v>
+        <v>0.0457085</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0452507</v>
+        <v>0.048563</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0922663</v>
+        <v>0.09174</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0920652</v>
+        <v>0.0939483</v>
       </c>
       <c r="D50" t="n">
-        <v>0.130988</v>
+        <v>0.134233</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0503857</v>
+        <v>0.0303799</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0525751</v>
+        <v>0.0313847</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.122121</v>
+        <v>0.125998</v>
       </c>
       <c r="C51" t="n">
-        <v>0.122972</v>
+        <v>0.125227</v>
       </c>
       <c r="D51" t="n">
-        <v>0.135554</v>
+        <v>0.138586</v>
       </c>
       <c r="E51" t="n">
-        <v>0.027088</v>
+        <v>0.0293341</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0303107</v>
+        <v>0.0316735</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168243</v>
+        <v>0.172701</v>
       </c>
       <c r="C52" t="n">
-        <v>0.168029</v>
+        <v>0.168945</v>
       </c>
       <c r="D52" t="n">
-        <v>0.140386</v>
+        <v>0.14332</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0272444</v>
+        <v>0.0311637</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0308886</v>
+        <v>0.0316654</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0369417</v>
+        <v>0.0358659</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0415765</v>
+        <v>0.0409493</v>
       </c>
       <c r="D53" t="n">
-        <v>0.145323</v>
+        <v>0.148071</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0271246</v>
+        <v>0.0303836</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0313672</v>
+        <v>0.0322994</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0369385</v>
+        <v>0.0372142</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0423904</v>
+        <v>0.0421209</v>
       </c>
       <c r="D54" t="n">
-        <v>0.150231</v>
+        <v>0.152886</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0274442</v>
+        <v>0.0319927</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0317783</v>
+        <v>0.0331834</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0382877</v>
+        <v>0.0373599</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0434646</v>
+        <v>0.0431492</v>
       </c>
       <c r="D55" t="n">
-        <v>0.154867</v>
+        <v>0.157393</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0295656</v>
+        <v>0.0318703</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0317482</v>
+        <v>0.0338095</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0395939</v>
+        <v>0.0379352</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0446227</v>
+        <v>0.0440973</v>
       </c>
       <c r="D56" t="n">
-        <v>0.15927</v>
+        <v>0.161361</v>
       </c>
       <c r="E56" t="n">
-        <v>0.028415</v>
+        <v>0.03196</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0331942</v>
+        <v>0.0338557</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.040043</v>
+        <v>0.039514</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0460449</v>
+        <v>0.0456617</v>
       </c>
       <c r="D57" t="n">
-        <v>0.16354</v>
+        <v>0.165904</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0296483</v>
+        <v>0.0327344</v>
       </c>
       <c r="F57" t="n">
-        <v>0.033936</v>
+        <v>0.0352647</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0418525</v>
+        <v>0.0415744</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0477729</v>
+        <v>0.0480895</v>
       </c>
       <c r="D58" t="n">
-        <v>0.167923</v>
+        <v>0.170034</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0304925</v>
+        <v>0.0333237</v>
       </c>
       <c r="F58" t="n">
-        <v>0.035138</v>
+        <v>0.0360918</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0443573</v>
+        <v>0.0444681</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0501172</v>
+        <v>0.0496022</v>
       </c>
       <c r="D59" t="n">
-        <v>0.172146</v>
+        <v>0.173879</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0309444</v>
+        <v>0.0347512</v>
       </c>
       <c r="F59" t="n">
-        <v>0.036104</v>
+        <v>0.0373259</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0483906</v>
+        <v>0.0479698</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0537073</v>
+        <v>0.0540282</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175958</v>
+        <v>0.177654</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0328531</v>
+        <v>0.0353537</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0375538</v>
+        <v>0.0387774</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0533768</v>
+        <v>0.0535289</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0577106</v>
+        <v>0.0581524</v>
       </c>
       <c r="D61" t="n">
-        <v>0.180087</v>
+        <v>0.181743</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0351465</v>
+        <v>0.0365606</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0392512</v>
+        <v>0.0409758</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0604617</v>
+        <v>0.0602607</v>
       </c>
       <c r="C62" t="n">
-        <v>0.064305</v>
+        <v>0.0650265</v>
       </c>
       <c r="D62" t="n">
-        <v>0.184456</v>
+        <v>0.186055</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0381614</v>
+        <v>0.0399694</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0425283</v>
+        <v>0.0442706</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0725879</v>
+        <v>0.07191259999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07589319999999999</v>
+        <v>0.0753441</v>
       </c>
       <c r="D63" t="n">
-        <v>0.189302</v>
+        <v>0.190679</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0429608</v>
+        <v>0.0456152</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0468776</v>
+        <v>0.0499038</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0892694</v>
+        <v>0.08928659999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09223530000000001</v>
+        <v>0.0920841</v>
       </c>
       <c r="D64" t="n">
-        <v>0.138467</v>
+        <v>0.142641</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0503173</v>
+        <v>0.0328692</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0541283</v>
+        <v>0.0371808</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115004</v>
+        <v>0.117513</v>
       </c>
       <c r="C65" t="n">
-        <v>0.118017</v>
+        <v>0.120206</v>
       </c>
       <c r="D65" t="n">
-        <v>0.144312</v>
+        <v>0.146862</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0641888</v>
+        <v>0.0329294</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0673951</v>
+        <v>0.0377324</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.155457</v>
+        <v>0.160048</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1572</v>
+        <v>0.161402</v>
       </c>
       <c r="D66" t="n">
-        <v>0.151067</v>
+        <v>0.154868</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0324443</v>
+        <v>0.0335953</v>
       </c>
       <c r="F66" t="n">
-        <v>0.036975</v>
+        <v>0.0382429</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0415012</v>
+        <v>0.0406362</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0488855</v>
+        <v>0.0494183</v>
       </c>
       <c r="D67" t="n">
-        <v>0.158518</v>
+        <v>0.161129</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0326019</v>
+        <v>0.0336235</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0375895</v>
+        <v>0.0389347</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.041955</v>
+        <v>0.0419781</v>
       </c>
       <c r="C68" t="n">
-        <v>0.049995</v>
+        <v>0.0507335</v>
       </c>
       <c r="D68" t="n">
-        <v>0.167084</v>
+        <v>0.170429</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0330805</v>
+        <v>0.034106</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0382039</v>
+        <v>0.0396823</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0428744</v>
+        <v>0.0422734</v>
       </c>
       <c r="C69" t="n">
-        <v>0.051195</v>
+        <v>0.0518478</v>
       </c>
       <c r="D69" t="n">
-        <v>0.175367</v>
+        <v>0.177044</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0333414</v>
+        <v>0.0344641</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0389065</v>
+        <v>0.0407331</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0437123</v>
+        <v>0.0434539</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0527449</v>
+        <v>0.0534319</v>
       </c>
       <c r="D70" t="n">
-        <v>0.181867</v>
+        <v>0.187788</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0337389</v>
+        <v>0.0349646</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0396522</v>
+        <v>0.0410684</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.044955</v>
+        <v>0.0449082</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0544012</v>
+        <v>0.0548952</v>
       </c>
       <c r="D71" t="n">
-        <v>0.19199</v>
+        <v>0.19574</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0343914</v>
+        <v>0.0357992</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0408698</v>
+        <v>0.0421141</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0469398</v>
+        <v>0.0458892</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0564783</v>
+        <v>0.0568876</v>
       </c>
       <c r="D72" t="n">
-        <v>0.201223</v>
+        <v>0.206925</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0351277</v>
+        <v>0.0362325</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0419969</v>
+        <v>0.0432411</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0492275</v>
+        <v>0.0491229</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0589933</v>
+        <v>0.0593366</v>
       </c>
       <c r="D73" t="n">
-        <v>0.209625</v>
+        <v>0.217665</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0363225</v>
+        <v>0.0376021</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0427885</v>
+        <v>0.0445097</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0523764</v>
+        <v>0.0519861</v>
       </c>
       <c r="C74" t="n">
-        <v>0.06266380000000001</v>
+        <v>0.0618569</v>
       </c>
       <c r="D74" t="n">
-        <v>0.222148</v>
+        <v>0.230429</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0371416</v>
+        <v>0.0392009</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0443679</v>
+        <v>0.0461116</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0572877</v>
+        <v>0.0568618</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06775879999999999</v>
+        <v>0.06732390000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.234094</v>
+        <v>0.243406</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0389554</v>
+        <v>0.0407792</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0464832</v>
+        <v>0.0480615</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0640732</v>
+        <v>0.0635975</v>
       </c>
       <c r="C76" t="n">
-        <v>0.074474</v>
+        <v>0.07368230000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.24624</v>
+        <v>0.259333</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0422909</v>
+        <v>0.0441525</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0492819</v>
+        <v>0.0513453</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0745396</v>
+        <v>0.0740753</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0853124</v>
+        <v>0.0854689</v>
       </c>
       <c r="D77" t="n">
-        <v>0.260509</v>
+        <v>0.274234</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0464422</v>
+        <v>0.0490594</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0536821</v>
+        <v>0.0564016</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0898003</v>
+        <v>0.0900017</v>
       </c>
       <c r="C78" t="n">
-        <v>0.102074</v>
+        <v>0.103442</v>
       </c>
       <c r="D78" t="n">
-        <v>0.21803</v>
+        <v>0.23506</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0527416</v>
+        <v>0.0573592</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0607073</v>
+        <v>0.06449489999999999</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.114546</v>
+        <v>0.114862</v>
       </c>
       <c r="C79" t="n">
-        <v>0.127715</v>
+        <v>0.132595</v>
       </c>
       <c r="D79" t="n">
-        <v>0.23102</v>
+        <v>0.2495</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06443740000000001</v>
+        <v>0.0372476</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0723106</v>
+        <v>0.0428567</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.152482</v>
+        <v>0.15844</v>
       </c>
       <c r="C80" t="n">
-        <v>0.173586</v>
+        <v>0.18091</v>
       </c>
       <c r="D80" t="n">
-        <v>0.242969</v>
+        <v>0.264084</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0362108</v>
+        <v>0.0376672</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0422207</v>
+        <v>0.0434568</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0466448</v>
+        <v>0.046235</v>
       </c>
       <c r="C81" t="n">
-        <v>0.05809</v>
+        <v>0.0577497</v>
       </c>
       <c r="D81" t="n">
-        <v>0.255555</v>
+        <v>0.27705</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0365591</v>
+        <v>0.0380337</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0427573</v>
+        <v>0.0441681</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0473282</v>
+        <v>0.0470582</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0601347</v>
+        <v>0.0599304</v>
       </c>
       <c r="D82" t="n">
-        <v>0.26859</v>
+        <v>0.291657</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0370817</v>
+        <v>0.0384912</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0436846</v>
+        <v>0.0449749</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0482837</v>
+        <v>0.0481124</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0630647</v>
+        <v>0.0633503</v>
       </c>
       <c r="D83" t="n">
-        <v>0.281561</v>
+        <v>0.305909</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0376483</v>
+        <v>0.0390819</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0446708</v>
+        <v>0.0459951</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0497456</v>
+        <v>0.0490564</v>
       </c>
       <c r="C84" t="n">
-        <v>0.06733790000000001</v>
+        <v>0.06757589999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.295118</v>
+        <v>0.320605</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0381669</v>
+        <v>0.0394694</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0454392</v>
+        <v>0.0470901</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0512961</v>
+        <v>0.0507179</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0720654</v>
+        <v>0.0733777</v>
       </c>
       <c r="D85" t="n">
-        <v>0.308653</v>
+        <v>0.335605</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0389354</v>
+        <v>0.0403508</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0473151</v>
+        <v>0.0487788</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0532629</v>
+        <v>0.0531364</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0781509</v>
+        <v>0.0805297</v>
       </c>
       <c r="D86" t="n">
-        <v>0.322424</v>
+        <v>0.351311</v>
       </c>
       <c r="E86" t="n">
-        <v>0.039899</v>
+        <v>0.0411958</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0492839</v>
+        <v>0.0506571</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0563108</v>
+        <v>0.055805</v>
       </c>
       <c r="C87" t="n">
-        <v>0.08619979999999999</v>
+        <v>0.0902177</v>
       </c>
       <c r="D87" t="n">
-        <v>0.336784</v>
+        <v>0.367067</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0411302</v>
+        <v>0.0422038</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0518365</v>
+        <v>0.0538991</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0602507</v>
+        <v>0.0599755</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09645049999999999</v>
+        <v>0.101734</v>
       </c>
       <c r="D88" t="n">
-        <v>0.351315</v>
+        <v>0.383252</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0423494</v>
+        <v>0.0441461</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0550675</v>
+        <v>0.0578966</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06607159999999999</v>
+        <v>0.066414</v>
       </c>
       <c r="C89" t="n">
-        <v>0.108625</v>
+        <v>0.115732</v>
       </c>
       <c r="D89" t="n">
-        <v>0.367314</v>
+        <v>0.401541</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0448359</v>
+        <v>0.0465612</v>
       </c>
       <c r="F89" t="n">
-        <v>0.059153</v>
+        <v>0.0624114</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0744766</v>
+        <v>0.0752657</v>
       </c>
       <c r="C90" t="n">
-        <v>0.124583</v>
+        <v>0.132667</v>
       </c>
       <c r="D90" t="n">
-        <v>0.383242</v>
+        <v>0.41965</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0481111</v>
+        <v>0.0502962</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0653827</v>
+        <v>0.07060569999999999</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.08538229999999999</v>
+        <v>0.0882893</v>
       </c>
       <c r="C91" t="n">
-        <v>0.143298</v>
+        <v>0.152753</v>
       </c>
       <c r="D91" t="n">
-        <v>0.399994</v>
+        <v>0.438131</v>
       </c>
       <c r="E91" t="n">
-        <v>0.053257</v>
+        <v>0.056331</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0750422</v>
+        <v>0.0817963</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.101416</v>
+        <v>0.106117</v>
       </c>
       <c r="C92" t="n">
-        <v>0.166249</v>
+        <v>0.177803</v>
       </c>
       <c r="D92" t="n">
-        <v>0.32303</v>
+        <v>0.357833</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0610389</v>
+        <v>0.0664952</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08775380000000001</v>
+        <v>0.0984124</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.125781</v>
+        <v>0.132652</v>
       </c>
       <c r="C93" t="n">
-        <v>0.197454</v>
+        <v>0.210587</v>
       </c>
       <c r="D93" t="n">
-        <v>0.333857</v>
+        <v>0.369556</v>
       </c>
       <c r="E93" t="n">
-        <v>0.07320500000000001</v>
+        <v>0.041585</v>
       </c>
       <c r="F93" t="n">
-        <v>0.107001</v>
+        <v>0.0551844</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.161956</v>
+        <v>0.171353</v>
       </c>
       <c r="C94" t="n">
-        <v>0.236972</v>
+        <v>0.256053</v>
       </c>
       <c r="D94" t="n">
-        <v>0.344973</v>
+        <v>0.382285</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0405535</v>
+        <v>0.0422733</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0546991</v>
+        <v>0.058852</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0585212</v>
+        <v>0.0598707</v>
       </c>
       <c r="C95" t="n">
-        <v>0.103298</v>
+        <v>0.110968</v>
       </c>
       <c r="D95" t="n">
-        <v>0.356625</v>
+        <v>0.394844</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0417918</v>
+        <v>0.0440649</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0583996</v>
+        <v>0.0632605</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0618736</v>
+        <v>0.0637091</v>
       </c>
       <c r="C96" t="n">
-        <v>0.111897</v>
+        <v>0.121036</v>
       </c>
       <c r="D96" t="n">
-        <v>0.368593</v>
+        <v>0.408006</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0435997</v>
+        <v>0.0461882</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06342109999999999</v>
+        <v>0.0682253</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.06573279999999999</v>
+        <v>0.0684109</v>
       </c>
       <c r="C97" t="n">
-        <v>0.120673</v>
+        <v>0.129923</v>
       </c>
       <c r="D97" t="n">
-        <v>0.380586</v>
+        <v>0.421351</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0453613</v>
+        <v>0.0483699</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0679507</v>
+        <v>0.0741602</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0702675</v>
+        <v>0.0736134</v>
       </c>
       <c r="C98" t="n">
-        <v>0.128503</v>
+        <v>0.139322</v>
       </c>
       <c r="D98" t="n">
-        <v>0.392576</v>
+        <v>0.434604</v>
       </c>
       <c r="E98" t="n">
-        <v>0.047953</v>
+        <v>0.0510425</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0735016</v>
+        <v>0.0802042</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0752491</v>
+        <v>0.07957649999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.136444</v>
+        <v>0.147665</v>
       </c>
       <c r="D99" t="n">
-        <v>0.405519</v>
+        <v>0.448734</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0506727</v>
+        <v>0.0537849</v>
       </c>
       <c r="F99" t="n">
-        <v>0.079522</v>
+        <v>0.0867967</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0810964</v>
+        <v>0.0854969</v>
       </c>
       <c r="C100" t="n">
-        <v>0.14413</v>
+        <v>0.156332</v>
       </c>
       <c r="D100" t="n">
-        <v>0.41823</v>
+        <v>0.463385</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0538892</v>
+        <v>0.0573786</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0857593</v>
+        <v>0.0942007</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0869706</v>
+        <v>0.0923702</v>
       </c>
       <c r="C101" t="n">
-        <v>0.151506</v>
+        <v>0.164912</v>
       </c>
       <c r="D101" t="n">
-        <v>0.431723</v>
+        <v>0.478611</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0575236</v>
+        <v>0.0628253</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0921106</v>
+        <v>0.10184</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0937935</v>
+        <v>0.100033</v>
       </c>
       <c r="C102" t="n">
-        <v>0.159917</v>
+        <v>0.174033</v>
       </c>
       <c r="D102" t="n">
-        <v>0.446885</v>
+        <v>0.495045</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0617025</v>
+        <v>0.0676064</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0988059</v>
+        <v>0.109988</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.101274</v>
+        <v>0.108051</v>
       </c>
       <c r="C103" t="n">
-        <v>0.169335</v>
+        <v>0.184477</v>
       </c>
       <c r="D103" t="n">
-        <v>0.461641</v>
+        <v>0.511052</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0659177</v>
+        <v>0.07372099999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>0.106004</v>
+        <v>0.117976</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.110397</v>
+        <v>0.117863</v>
       </c>
       <c r="C104" t="n">
-        <v>0.180885</v>
+        <v>0.19702</v>
       </c>
       <c r="D104" t="n">
-        <v>0.477482</v>
+        <v>0.528214</v>
       </c>
       <c r="E104" t="n">
-        <v>0.07119060000000001</v>
+        <v>0.07906829999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>0.113168</v>
+        <v>0.127688</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.121416</v>
+        <v>0.129945</v>
       </c>
       <c r="C105" t="n">
-        <v>0.195564</v>
+        <v>0.212423</v>
       </c>
       <c r="D105" t="n">
-        <v>0.493867</v>
+        <v>0.545807</v>
       </c>
       <c r="E105" t="n">
-        <v>0.07767350000000001</v>
+        <v>0.08770459999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>0.12194</v>
+        <v>0.13852</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.135349</v>
+        <v>0.145251</v>
       </c>
       <c r="C106" t="n">
-        <v>0.213953</v>
+        <v>0.233327</v>
       </c>
       <c r="D106" t="n">
-        <v>0.510738</v>
+        <v>0.563623</v>
       </c>
       <c r="E106" t="n">
-        <v>0.08648119999999999</v>
+        <v>0.09873179999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>0.133565</v>
+        <v>0.152401</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.154809</v>
+        <v>0.166356</v>
       </c>
       <c r="C107" t="n">
-        <v>0.239242</v>
+        <v>0.25977</v>
       </c>
       <c r="D107" t="n">
-        <v>0.386759</v>
+        <v>0.430116</v>
       </c>
       <c r="E107" t="n">
-        <v>0.098146</v>
+        <v>0.0631519</v>
       </c>
       <c r="F107" t="n">
-        <v>0.148423</v>
+        <v>0.0956048</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.183549</v>
+        <v>0.196214</v>
       </c>
       <c r="C108" t="n">
-        <v>0.276051</v>
+        <v>0.299415</v>
       </c>
       <c r="D108" t="n">
-        <v>0.397275</v>
+        <v>0.441756</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0595832</v>
+        <v>0.0657952</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0895276</v>
+        <v>0.0995321</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.229969</v>
+        <v>0.243323</v>
       </c>
       <c r="C109" t="n">
-        <v>0.33785</v>
+        <v>0.365138</v>
       </c>
       <c r="D109" t="n">
-        <v>0.40836</v>
+        <v>0.454216</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0616477</v>
+        <v>0.0680007</v>
       </c>
       <c r="F109" t="n">
-        <v>0.09267880000000001</v>
+        <v>0.102932</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.09016680000000001</v>
+        <v>0.0971398</v>
       </c>
       <c r="C110" t="n">
-        <v>0.144695</v>
+        <v>0.157931</v>
       </c>
       <c r="D110" t="n">
-        <v>0.419252</v>
+        <v>0.466842</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0640549</v>
+        <v>0.0703638</v>
       </c>
       <c r="F110" t="n">
-        <v>0.09600450000000001</v>
+        <v>0.106599</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0932061</v>
+        <v>0.100327</v>
       </c>
       <c r="C111" t="n">
-        <v>0.149358</v>
+        <v>0.162766</v>
       </c>
       <c r="D111" t="n">
-        <v>0.430497</v>
+        <v>0.479764</v>
       </c>
       <c r="E111" t="n">
-        <v>0.06571109999999999</v>
+        <v>0.0729127</v>
       </c>
       <c r="F111" t="n">
-        <v>0.09860679999999999</v>
+        <v>0.110233</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0961301</v>
+        <v>0.103013</v>
       </c>
       <c r="C112" t="n">
-        <v>0.153974</v>
+        <v>0.168101</v>
       </c>
       <c r="D112" t="n">
-        <v>0.442249</v>
+        <v>0.491686</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0676573</v>
+        <v>0.07518900000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>0.101544</v>
+        <v>0.113978</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0993376</v>
+        <v>0.106757</v>
       </c>
       <c r="C113" t="n">
-        <v>0.159166</v>
+        <v>0.173714</v>
       </c>
       <c r="D113" t="n">
-        <v>0.454595</v>
+        <v>0.505238</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0694789</v>
+        <v>0.07757500000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>0.104536</v>
+        <v>0.117777</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.10269</v>
+        <v>0.110211</v>
       </c>
       <c r="C114" t="n">
-        <v>0.164496</v>
+        <v>0.179646</v>
       </c>
       <c r="D114" t="n">
-        <v>0.467435</v>
+        <v>0.519259</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0716338</v>
+        <v>0.08007649999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>0.108516</v>
+        <v>0.122136</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.106401</v>
+        <v>0.114257</v>
       </c>
       <c r="C115" t="n">
-        <v>0.170505</v>
+        <v>0.186232</v>
       </c>
       <c r="D115" t="n">
-        <v>0.481054</v>
+        <v>0.534473</v>
       </c>
       <c r="E115" t="n">
-        <v>0.07439419999999999</v>
+        <v>0.08271299999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>0.112558</v>
+        <v>0.126525</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.110846</v>
+        <v>0.119255</v>
       </c>
       <c r="C116" t="n">
-        <v>0.177851</v>
+        <v>0.193659</v>
       </c>
       <c r="D116" t="n">
-        <v>0.494235</v>
+        <v>0.549467</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0771831</v>
+        <v>0.0861348</v>
       </c>
       <c r="F116" t="n">
-        <v>0.116915</v>
+        <v>0.131845</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.116213</v>
+        <v>0.125012</v>
       </c>
       <c r="C117" t="n">
-        <v>0.186234</v>
+        <v>0.203371</v>
       </c>
       <c r="D117" t="n">
-        <v>0.508971</v>
+        <v>0.565959</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0798846</v>
+        <v>0.0897546</v>
       </c>
       <c r="F117" t="n">
-        <v>0.121639</v>
+        <v>0.137338</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123329</v>
+        <v>0.132409</v>
       </c>
       <c r="C118" t="n">
-        <v>0.19695</v>
+        <v>0.214894</v>
       </c>
       <c r="D118" t="n">
-        <v>0.523899</v>
+        <v>0.582938</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0837334</v>
+        <v>0.0942206</v>
       </c>
       <c r="F118" t="n">
-        <v>0.127699</v>
+        <v>0.144715</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.132878</v>
+        <v>0.142773</v>
       </c>
       <c r="C119" t="n">
-        <v>0.210583</v>
+        <v>0.229668</v>
       </c>
       <c r="D119" t="n">
-        <v>0.540481</v>
+        <v>0.6012960000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0886468</v>
+        <v>0.100261</v>
       </c>
       <c r="F119" t="n">
-        <v>0.134721</v>
+        <v>0.153647</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.145508</v>
+        <v>0.156184</v>
       </c>
       <c r="C120" t="n">
-        <v>0.22927</v>
+        <v>0.249813</v>
       </c>
       <c r="D120" t="n">
-        <v>0.558164</v>
+        <v>0.620236</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0955927</v>
+        <v>0.108869</v>
       </c>
       <c r="F120" t="n">
-        <v>0.145081</v>
+        <v>0.16689</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163167</v>
+        <v>0.174964</v>
       </c>
       <c r="C121" t="n">
-        <v>0.254077</v>
+        <v>0.276931</v>
       </c>
       <c r="D121" t="n">
-        <v>0.414516</v>
+        <v>0.460917</v>
       </c>
       <c r="E121" t="n">
-        <v>0.105837</v>
+        <v>0.077528</v>
       </c>
       <c r="F121" t="n">
-        <v>0.159357</v>
+        <v>0.113943</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.188792</v>
+        <v>0.202471</v>
       </c>
       <c r="C122" t="n">
-        <v>0.290844</v>
+        <v>0.317155</v>
       </c>
       <c r="D122" t="n">
-        <v>0.425604</v>
+        <v>0.473311</v>
       </c>
       <c r="E122" t="n">
-        <v>0.121991</v>
+        <v>0.0800215</v>
       </c>
       <c r="F122" t="n">
-        <v>0.181343</v>
+        <v>0.115799</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.230077</v>
+        <v>0.245483</v>
       </c>
       <c r="C123" t="n">
-        <v>0.349139</v>
+        <v>0.380037</v>
       </c>
       <c r="D123" t="n">
-        <v>0.436601</v>
+        <v>0.485738</v>
       </c>
       <c r="E123" t="n">
-        <v>0.07503940000000001</v>
+        <v>0.0803326</v>
       </c>
       <c r="F123" t="n">
-        <v>0.108324</v>
+        <v>0.117727</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.10354</v>
+        <v>0.110582</v>
       </c>
       <c r="C124" t="n">
-        <v>0.160304</v>
+        <v>0.177688</v>
       </c>
       <c r="D124" t="n">
-        <v>0.447553</v>
+        <v>0.497768</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0759973</v>
+        <v>0.0840641</v>
       </c>
       <c r="F124" t="n">
-        <v>0.110861</v>
+        <v>0.12357</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.103817</v>
+        <v>0.111265</v>
       </c>
       <c r="C125" t="n">
-        <v>0.165343</v>
+        <v>0.180046</v>
       </c>
       <c r="D125" t="n">
-        <v>0.459428</v>
+        <v>0.510947</v>
       </c>
       <c r="E125" t="n">
-        <v>0.07580729999999999</v>
+        <v>0.0834382</v>
       </c>
       <c r="F125" t="n">
-        <v>0.112648</v>
+        <v>0.124717</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.108583</v>
+        <v>0.113673</v>
       </c>
       <c r="C126" t="n">
-        <v>0.170357</v>
+        <v>0.186897</v>
       </c>
       <c r="D126" t="n">
-        <v>0.471351</v>
+        <v>0.5236229999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>0.07867739999999999</v>
+        <v>0.0875272</v>
       </c>
       <c r="F126" t="n">
-        <v>0.116</v>
+        <v>0.130125</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110457</v>
+        <v>0.117061</v>
       </c>
       <c r="C127" t="n">
-        <v>0.173226</v>
+        <v>0.194176</v>
       </c>
       <c r="D127" t="n">
-        <v>0.483429</v>
+        <v>0.5375180000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0807001</v>
+        <v>0.09051240000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>0.121053</v>
+        <v>0.135583</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.115721</v>
+        <v>0.122507</v>
       </c>
       <c r="C128" t="n">
-        <v>0.182858</v>
+        <v>0.200469</v>
       </c>
       <c r="D128" t="n">
-        <v>0.496295</v>
+        <v>0.551834</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0817732</v>
+        <v>0.0902061</v>
       </c>
       <c r="F128" t="n">
-        <v>0.124146</v>
+        <v>0.137052</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116825</v>
+        <v>0.124274</v>
       </c>
       <c r="C129" t="n">
-        <v>0.186223</v>
+        <v>0.203885</v>
       </c>
       <c r="D129" t="n">
-        <v>0.510232</v>
+        <v>0.56668</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0845983</v>
+        <v>0.0946659</v>
       </c>
       <c r="F129" t="n">
-        <v>0.127326</v>
+        <v>0.14308</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.119943</v>
+        <v>0.131083</v>
       </c>
       <c r="C130" t="n">
-        <v>0.195866</v>
+        <v>0.212811</v>
       </c>
       <c r="D130" t="n">
-        <v>0.523315</v>
+        <v>0.5815709999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0869501</v>
+        <v>0.09619610000000001</v>
       </c>
       <c r="F130" t="n">
-        <v>0.131431</v>
+        <v>0.147315</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.125581</v>
+        <v>0.134878</v>
       </c>
       <c r="C131" t="n">
-        <v>0.202553</v>
+        <v>0.222602</v>
       </c>
       <c r="D131" t="n">
-        <v>0.538326</v>
+        <v>0.598061</v>
       </c>
       <c r="E131" t="n">
-        <v>0.09195399999999999</v>
+        <v>0.104246</v>
       </c>
       <c r="F131" t="n">
-        <v>0.136761</v>
+        <v>0.157642</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13315</v>
+        <v>0.142797</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213365</v>
+        <v>0.233989</v>
       </c>
       <c r="D132" t="n">
-        <v>0.553291</v>
+        <v>0.615085</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0930343</v>
+        <v>0.105415</v>
       </c>
       <c r="F132" t="n">
-        <v>0.141567</v>
+        <v>0.161839</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.140834</v>
+        <v>0.152386</v>
       </c>
       <c r="C133" t="n">
-        <v>0.224276</v>
+        <v>0.246826</v>
       </c>
       <c r="D133" t="n">
-        <v>0.569851</v>
+        <v>0.632929</v>
       </c>
       <c r="E133" t="n">
-        <v>0.09900539999999999</v>
+        <v>0.111344</v>
       </c>
       <c r="F133" t="n">
-        <v>0.149407</v>
+        <v>0.171308</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.152635</v>
+        <v>0.16524</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244061</v>
+        <v>0.264396</v>
       </c>
       <c r="D134" t="n">
-        <v>0.586355</v>
+        <v>0.652506</v>
       </c>
       <c r="E134" t="n">
-        <v>0.104634</v>
+        <v>0.119474</v>
       </c>
       <c r="F134" t="n">
-        <v>0.158243</v>
+        <v>0.182846</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.169481</v>
+        <v>0.182387</v>
       </c>
       <c r="C135" t="n">
-        <v>0.268322</v>
+        <v>0.292115</v>
       </c>
       <c r="D135" t="n">
-        <v>0.430989</v>
+        <v>0.479449</v>
       </c>
       <c r="E135" t="n">
-        <v>0.115091</v>
+        <v>0.154104</v>
       </c>
       <c r="F135" t="n">
-        <v>0.172978</v>
+        <v>0.190328</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194516</v>
+        <v>0.209771</v>
       </c>
       <c r="C136" t="n">
-        <v>0.303196</v>
+        <v>0.330399</v>
       </c>
       <c r="D136" t="n">
-        <v>0.442119</v>
+        <v>0.491911</v>
       </c>
       <c r="E136" t="n">
-        <v>0.128395</v>
+        <v>0.147525</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1936</v>
+        <v>0.191691</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232219</v>
+        <v>0.24854</v>
       </c>
       <c r="C137" t="n">
-        <v>0.359246</v>
+        <v>0.389811</v>
       </c>
       <c r="D137" t="n">
-        <v>0.453555</v>
+        <v>0.504694</v>
       </c>
       <c r="E137" t="n">
-        <v>0.139529</v>
+        <v>0.150823</v>
       </c>
       <c r="F137" t="n">
-        <v>0.171781</v>
+        <v>0.194181</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.167847</v>
+        <v>0.187887</v>
       </c>
       <c r="C138" t="n">
-        <v>0.225372</v>
+        <v>0.250956</v>
       </c>
       <c r="D138" t="n">
-        <v>0.46546</v>
+        <v>0.5170400000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>0.140502</v>
+        <v>0.157392</v>
       </c>
       <c r="F138" t="n">
-        <v>0.174977</v>
+        <v>0.198078</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169293</v>
+        <v>0.176955</v>
       </c>
       <c r="C139" t="n">
-        <v>0.230178</v>
+        <v>0.256283</v>
       </c>
       <c r="D139" t="n">
-        <v>0.476822</v>
+        <v>0.529931</v>
       </c>
       <c r="E139" t="n">
-        <v>0.141057</v>
+        <v>0.15983</v>
       </c>
       <c r="F139" t="n">
-        <v>0.177693</v>
+        <v>0.200259</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.171543</v>
+        <v>0.180248</v>
       </c>
       <c r="C140" t="n">
-        <v>0.233882</v>
+        <v>0.257834</v>
       </c>
       <c r="D140" t="n">
-        <v>0.488888</v>
+        <v>0.541052</v>
       </c>
       <c r="E140" t="n">
-        <v>0.143624</v>
+        <v>0.160062</v>
       </c>
       <c r="F140" t="n">
-        <v>0.181216</v>
+        <v>0.203272</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.173202</v>
+        <v>0.181784</v>
       </c>
       <c r="C141" t="n">
-        <v>0.238892</v>
+        <v>0.264436</v>
       </c>
       <c r="D141" t="n">
-        <v>0.50101</v>
+        <v>0.554431</v>
       </c>
       <c r="E141" t="n">
-        <v>0.143952</v>
+        <v>0.16337</v>
       </c>
       <c r="F141" t="n">
-        <v>0.183109</v>
+        <v>0.208415</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.174473</v>
+        <v>0.192589</v>
       </c>
       <c r="C142" t="n">
-        <v>0.244326</v>
+        <v>0.270592</v>
       </c>
       <c r="D142" t="n">
-        <v>0.513529</v>
+        <v>0.570388</v>
       </c>
       <c r="E142" t="n">
-        <v>0.144827</v>
+        <v>0.163978</v>
       </c>
       <c r="F142" t="n">
-        <v>0.186015</v>
+        <v>0.212617</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.177112</v>
+        <v>0.198032</v>
       </c>
       <c r="C143" t="n">
-        <v>0.248982</v>
+        <v>0.274919</v>
       </c>
       <c r="D143" t="n">
-        <v>0.526834</v>
+        <v>0.583098</v>
       </c>
       <c r="E143" t="n">
-        <v>0.14685</v>
+        <v>0.166493</v>
       </c>
       <c r="F143" t="n">
-        <v>0.189562</v>
+        <v>0.21577</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0347678</v>
+        <v>0.0348199</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0348306</v>
+        <v>0.0349383</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12521</v>
+        <v>0.124292</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0229398</v>
+        <v>0.0230536</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0238557</v>
+        <v>0.0243842</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0353185</v>
+        <v>0.0352936</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0363617</v>
+        <v>0.0363371</v>
       </c>
       <c r="D3" t="n">
-        <v>0.129614</v>
+        <v>0.129064</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0227287</v>
+        <v>0.0229596</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0239776</v>
+        <v>0.0242524</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0381993</v>
+        <v>0.03824</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0389787</v>
+        <v>0.0387414</v>
       </c>
       <c r="D4" t="n">
-        <v>0.135284</v>
+        <v>0.133858</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0233235</v>
+        <v>0.0234027</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0246214</v>
+        <v>0.0248814</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.043397</v>
+        <v>0.043232</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0435046</v>
+        <v>0.0429414</v>
       </c>
       <c r="D5" t="n">
-        <v>0.140964</v>
+        <v>0.139428</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0225361</v>
+        <v>0.0226005</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0237623</v>
+        <v>0.0242698</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0547501</v>
+        <v>0.0544053</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0559095</v>
+        <v>0.0561344</v>
       </c>
       <c r="D6" t="n">
-        <v>0.147008</v>
+        <v>0.145421</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0230621</v>
+        <v>0.0228905</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0244823</v>
+        <v>0.0253845</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0738567</v>
+        <v>0.07377590000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0744406</v>
+        <v>0.07498440000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.102412</v>
+        <v>0.10174</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0270931</v>
+        <v>0.0279039</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0301698</v>
+        <v>0.0332624</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.108842</v>
+        <v>0.108849</v>
       </c>
       <c r="C8" t="n">
-        <v>0.108276</v>
+        <v>0.107956</v>
       </c>
       <c r="D8" t="n">
-        <v>0.108135</v>
+        <v>0.10812</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0475426</v>
+        <v>0.0463008</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0484056</v>
+        <v>0.0497778</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149248</v>
+        <v>0.149345</v>
       </c>
       <c r="C9" t="n">
-        <v>0.150866</v>
+        <v>0.151229</v>
       </c>
       <c r="D9" t="n">
-        <v>0.113124</v>
+        <v>0.112328</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0229307</v>
+        <v>0.0231238</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0236909</v>
+        <v>0.0239924</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0325426</v>
+        <v>0.032544</v>
       </c>
       <c r="C10" t="n">
-        <v>0.033082</v>
+        <v>0.0328544</v>
       </c>
       <c r="D10" t="n">
-        <v>0.118096</v>
+        <v>0.117808</v>
       </c>
       <c r="E10" t="n">
-        <v>0.023054</v>
+        <v>0.0231963</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0239203</v>
+        <v>0.0242494</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0329859</v>
+        <v>0.0329654</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0336028</v>
+        <v>0.0334264</v>
       </c>
       <c r="D11" t="n">
-        <v>0.122794</v>
+        <v>0.122286</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0232218</v>
+        <v>0.0233057</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0240616</v>
+        <v>0.0244115</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.033449</v>
+        <v>0.0334305</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0343556</v>
+        <v>0.0341366</v>
       </c>
       <c r="D12" t="n">
-        <v>0.127696</v>
+        <v>0.126935</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0233678</v>
+        <v>0.0233226</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0243147</v>
+        <v>0.0246928</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0339677</v>
+        <v>0.0339242</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0349295</v>
+        <v>0.0346664</v>
       </c>
       <c r="D13" t="n">
-        <v>0.132084</v>
+        <v>0.131279</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0234139</v>
+        <v>0.0236035</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0246257</v>
+        <v>0.0249326</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0346354</v>
+        <v>0.0345541</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0359695</v>
+        <v>0.0353566</v>
       </c>
       <c r="D14" t="n">
-        <v>0.136548</v>
+        <v>0.135967</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0235023</v>
+        <v>0.0235261</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0247833</v>
+        <v>0.0250568</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0356513</v>
+        <v>0.0355539</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0371992</v>
+        <v>0.0366029</v>
       </c>
       <c r="D15" t="n">
-        <v>0.140919</v>
+        <v>0.140431</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0236637</v>
+        <v>0.0238639</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0252761</v>
+        <v>0.0254797</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0367499</v>
+        <v>0.0367622</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0385986</v>
+        <v>0.0380553</v>
       </c>
       <c r="D16" t="n">
-        <v>0.145914</v>
+        <v>0.145432</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0241348</v>
+        <v>0.0239887</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0257823</v>
+        <v>0.0260466</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0391324</v>
+        <v>0.0390209</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0406173</v>
+        <v>0.0400735</v>
       </c>
       <c r="D17" t="n">
-        <v>0.150643</v>
+        <v>0.150389</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0243895</v>
+        <v>0.0243048</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0260393</v>
+        <v>0.0267312</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0417719</v>
+        <v>0.0417619</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0444277</v>
+        <v>0.0439307</v>
       </c>
       <c r="D18" t="n">
-        <v>0.155671</v>
+        <v>0.154989</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0245207</v>
+        <v>0.0243992</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0267294</v>
+        <v>0.0268914</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0488578</v>
+        <v>0.0487775</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0517113</v>
+        <v>0.0513058</v>
       </c>
       <c r="D19" t="n">
-        <v>0.160695</v>
+        <v>0.160254</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0242215</v>
+        <v>0.0241126</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0278223</v>
+        <v>0.0291189</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0604425</v>
+        <v>0.0604895</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0602967</v>
+        <v>0.0602005</v>
       </c>
       <c r="D20" t="n">
-        <v>0.164636</v>
+        <v>0.164465</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0285097</v>
+        <v>0.0285322</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0319749</v>
+        <v>0.03525</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07373490000000001</v>
+        <v>0.0737334</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07585989999999999</v>
+        <v>0.0758163</v>
       </c>
       <c r="D21" t="n">
-        <v>0.11801</v>
+        <v>0.117707</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0380069</v>
+        <v>0.0381793</v>
       </c>
       <c r="F21" t="n">
-        <v>0.040223</v>
+        <v>0.0451816</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0984368</v>
+        <v>0.0985012</v>
       </c>
       <c r="C22" t="n">
-        <v>0.100207</v>
+        <v>0.100383</v>
       </c>
       <c r="D22" t="n">
-        <v>0.122422</v>
+        <v>0.122672</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0564726</v>
+        <v>0.0564881</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0573568</v>
+        <v>0.0603585</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.133367</v>
+        <v>0.133351</v>
       </c>
       <c r="C23" t="n">
-        <v>0.134491</v>
+        <v>0.134784</v>
       </c>
       <c r="D23" t="n">
-        <v>0.126553</v>
+        <v>0.126506</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0238489</v>
+        <v>0.0239528</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0256154</v>
+        <v>0.0255181</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0338952</v>
+        <v>0.0338518</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0367531</v>
+        <v>0.0364311</v>
       </c>
       <c r="D24" t="n">
-        <v>0.132232</v>
+        <v>0.131894</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0241697</v>
+        <v>0.0242493</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0260279</v>
+        <v>0.0261146</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0340433</v>
+        <v>0.0340596</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0376199</v>
+        <v>0.0375482</v>
       </c>
       <c r="D25" t="n">
-        <v>0.136238</v>
+        <v>0.135849</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0243012</v>
+        <v>0.0243616</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0264728</v>
+        <v>0.0265982</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.035176</v>
+        <v>0.035153</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0384787</v>
+        <v>0.0383786</v>
       </c>
       <c r="D26" t="n">
-        <v>0.14086</v>
+        <v>0.140254</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0246013</v>
+        <v>0.0246791</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0268747</v>
+        <v>0.0270977</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0357481</v>
+        <v>0.0357556</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0396097</v>
+        <v>0.0395617</v>
       </c>
       <c r="D27" t="n">
-        <v>0.145475</v>
+        <v>0.145119</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0250546</v>
+        <v>0.0249043</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0275212</v>
+        <v>0.0276837</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0365898</v>
+        <v>0.0366023</v>
       </c>
       <c r="C28" t="n">
-        <v>0.040407</v>
+        <v>0.040331</v>
       </c>
       <c r="D28" t="n">
-        <v>0.150382</v>
+        <v>0.149783</v>
       </c>
       <c r="E28" t="n">
-        <v>0.025303</v>
+        <v>0.0253961</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0282804</v>
+        <v>0.0284999</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0377571</v>
+        <v>0.0377585</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0417567</v>
+        <v>0.0417055</v>
       </c>
       <c r="D29" t="n">
-        <v>0.154873</v>
+        <v>0.154631</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0259492</v>
+        <v>0.0259785</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0290034</v>
+        <v>0.0293936</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0395837</v>
+        <v>0.0396468</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0438917</v>
+        <v>0.0437877</v>
       </c>
       <c r="D30" t="n">
-        <v>0.159057</v>
+        <v>0.158612</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0262972</v>
+        <v>0.0263673</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0297637</v>
+        <v>0.0301873</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0419127</v>
+        <v>0.0419843</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0456046</v>
+        <v>0.0456273</v>
       </c>
       <c r="D31" t="n">
-        <v>0.163192</v>
+        <v>0.163191</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0269475</v>
+        <v>0.0269518</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0306861</v>
+        <v>0.0312874</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0459057</v>
+        <v>0.0459907</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0499815</v>
+        <v>0.0500098</v>
       </c>
       <c r="D32" t="n">
-        <v>0.167677</v>
+        <v>0.167476</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0274422</v>
+        <v>0.0277019</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0314443</v>
+        <v>0.0323955</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0514526</v>
+        <v>0.0514967</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0542986</v>
+        <v>0.0544062</v>
       </c>
       <c r="D33" t="n">
-        <v>0.171913</v>
+        <v>0.171942</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0289592</v>
+        <v>0.0288468</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0329174</v>
+        <v>0.0348796</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0615592</v>
+        <v>0.0615607</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0654317</v>
+        <v>0.0654831</v>
       </c>
       <c r="D34" t="n">
-        <v>0.176464</v>
+        <v>0.17682</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0335194</v>
+        <v>0.0335863</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0372317</v>
+        <v>0.0413731</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0741651</v>
+        <v>0.07419000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0764209</v>
+        <v>0.0765083</v>
       </c>
       <c r="D35" t="n">
-        <v>0.123788</v>
+        <v>0.123737</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0419899</v>
+        <v>0.04196</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0444933</v>
+        <v>0.0491676</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09607400000000001</v>
+        <v>0.09609139999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09658890000000001</v>
+        <v>0.09659470000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.128283</v>
+        <v>0.128202</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0533746</v>
+        <v>0.0535311</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0550866</v>
+        <v>0.0585809</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.127758</v>
+        <v>0.127686</v>
       </c>
       <c r="C37" t="n">
-        <v>0.12881</v>
+        <v>0.128848</v>
       </c>
       <c r="D37" t="n">
-        <v>0.132805</v>
+        <v>0.132762</v>
       </c>
       <c r="E37" t="n">
-        <v>0.024747</v>
+        <v>0.0248904</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0276451</v>
+        <v>0.0281567</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0344903</v>
+        <v>0.0345056</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0384617</v>
+        <v>0.0385098</v>
       </c>
       <c r="D38" t="n">
-        <v>0.137495</v>
+        <v>0.137319</v>
       </c>
       <c r="E38" t="n">
-        <v>0.025248</v>
+        <v>0.0253973</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0283042</v>
+        <v>0.0287078</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0349</v>
+        <v>0.0349313</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0391634</v>
+        <v>0.0391885</v>
       </c>
       <c r="D39" t="n">
-        <v>0.142322</v>
+        <v>0.1422</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0256355</v>
+        <v>0.0256434</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0287593</v>
+        <v>0.0291529</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0356965</v>
+        <v>0.0357408</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0400099</v>
+        <v>0.0400749</v>
       </c>
       <c r="D40" t="n">
-        <v>0.146754</v>
+        <v>0.146566</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0258639</v>
+        <v>0.0263949</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0291571</v>
+        <v>0.0295012</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0364383</v>
+        <v>0.0364396</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0409475</v>
+        <v>0.0409888</v>
       </c>
       <c r="D41" t="n">
-        <v>0.151806</v>
+        <v>0.151649</v>
       </c>
       <c r="E41" t="n">
-        <v>0.026161</v>
+        <v>0.026211</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0296725</v>
+        <v>0.0300155</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0374731</v>
+        <v>0.0374951</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0419556</v>
+        <v>0.0420361</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1565</v>
+        <v>0.156426</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0265684</v>
+        <v>0.0266202</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0302784</v>
+        <v>0.0306102</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0387853</v>
+        <v>0.0388043</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0431553</v>
+        <v>0.0432224</v>
       </c>
       <c r="D43" t="n">
-        <v>0.160985</v>
+        <v>0.160886</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0272462</v>
+        <v>0.0272131</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0310489</v>
+        <v>0.0315123</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0404094</v>
+        <v>0.040395</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0450328</v>
+        <v>0.0450923</v>
       </c>
       <c r="D44" t="n">
-        <v>0.165034</v>
+        <v>0.165004</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0279587</v>
+        <v>0.0279649</v>
       </c>
       <c r="F44" t="n">
-        <v>0.031889</v>
+        <v>0.0325288</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0432557</v>
+        <v>0.0432026</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0474114</v>
+        <v>0.0474639</v>
       </c>
       <c r="D45" t="n">
-        <v>0.168932</v>
+        <v>0.168936</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0289336</v>
+        <v>0.0288796</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0329188</v>
+        <v>0.0339075</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0465721</v>
+        <v>0.0467034</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0509063</v>
+        <v>0.0510184</v>
       </c>
       <c r="D46" t="n">
-        <v>0.17286</v>
+        <v>0.172901</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0304082</v>
+        <v>0.0304427</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0344808</v>
+        <v>0.0362357</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0522064</v>
+        <v>0.0522519</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0562071</v>
+        <v>0.0562567</v>
       </c>
       <c r="D47" t="n">
-        <v>0.177129</v>
+        <v>0.177089</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0327114</v>
+        <v>0.0326706</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0367018</v>
+        <v>0.0390924</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0606988</v>
+        <v>0.0607027</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06318559999999999</v>
+        <v>0.06327439999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.181641</v>
+        <v>0.181557</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0367799</v>
+        <v>0.0369131</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0401483</v>
+        <v>0.0439689</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07495</v>
+        <v>0.0749754</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0768515</v>
+        <v>0.0768701</v>
       </c>
       <c r="D49" t="n">
-        <v>0.185985</v>
+        <v>0.185903</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0422316</v>
+        <v>0.0423663</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0452507</v>
+        <v>0.049463</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0922663</v>
+        <v>0.0922634</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0920652</v>
+        <v>0.0922554</v>
       </c>
       <c r="D50" t="n">
-        <v>0.130988</v>
+        <v>0.130852</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0503857</v>
+        <v>0.0507824</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0525751</v>
+        <v>0.0560107</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.122121</v>
+        <v>0.122123</v>
       </c>
       <c r="C51" t="n">
-        <v>0.122972</v>
+        <v>0.12304</v>
       </c>
       <c r="D51" t="n">
-        <v>0.135554</v>
+        <v>0.135573</v>
       </c>
       <c r="E51" t="n">
-        <v>0.027088</v>
+        <v>0.0272486</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0303107</v>
+        <v>0.030563</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168243</v>
+        <v>0.168254</v>
       </c>
       <c r="C52" t="n">
-        <v>0.168029</v>
+        <v>0.168049</v>
       </c>
       <c r="D52" t="n">
-        <v>0.140386</v>
+        <v>0.140486</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0272444</v>
+        <v>0.027313</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0308886</v>
+        <v>0.0309041</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0369417</v>
+        <v>0.0362126</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0415765</v>
+        <v>0.0412467</v>
       </c>
       <c r="D53" t="n">
-        <v>0.145323</v>
+        <v>0.145233</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0271246</v>
+        <v>0.0279095</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0313672</v>
+        <v>0.0314837</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0369385</v>
+        <v>0.0368974</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0423904</v>
+        <v>0.0420431</v>
       </c>
       <c r="D54" t="n">
-        <v>0.150231</v>
+        <v>0.150064</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0274442</v>
+        <v>0.028817</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0317783</v>
+        <v>0.0319506</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0382877</v>
+        <v>0.0381054</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0434646</v>
+        <v>0.0430933</v>
       </c>
       <c r="D55" t="n">
-        <v>0.154867</v>
+        <v>0.154641</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0295656</v>
+        <v>0.0289931</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0317482</v>
+        <v>0.0329643</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0395939</v>
+        <v>0.0389065</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0446227</v>
+        <v>0.0442412</v>
       </c>
       <c r="D56" t="n">
-        <v>0.15927</v>
+        <v>0.159056</v>
       </c>
       <c r="E56" t="n">
-        <v>0.028415</v>
+        <v>0.0288739</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0331942</v>
+        <v>0.0334951</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.040043</v>
+        <v>0.0408883</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0460449</v>
+        <v>0.045738</v>
       </c>
       <c r="D57" t="n">
-        <v>0.16354</v>
+        <v>0.163432</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0296483</v>
+        <v>0.0302906</v>
       </c>
       <c r="F57" t="n">
-        <v>0.033936</v>
+        <v>0.0343941</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0418525</v>
+        <v>0.0416446</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0477729</v>
+        <v>0.0475142</v>
       </c>
       <c r="D58" t="n">
-        <v>0.167923</v>
+        <v>0.167456</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0304925</v>
+        <v>0.0302365</v>
       </c>
       <c r="F58" t="n">
-        <v>0.035138</v>
+        <v>0.0358035</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0443573</v>
+        <v>0.0451235</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0501172</v>
+        <v>0.0498713</v>
       </c>
       <c r="D59" t="n">
-        <v>0.172146</v>
+        <v>0.171345</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0309444</v>
+        <v>0.0313154</v>
       </c>
       <c r="F59" t="n">
-        <v>0.036104</v>
+        <v>0.0372771</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0483906</v>
+        <v>0.0481733</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0537073</v>
+        <v>0.0533991</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175958</v>
+        <v>0.175464</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0328531</v>
+        <v>0.0333388</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0375538</v>
+        <v>0.03895</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0533768</v>
+        <v>0.0531367</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0577106</v>
+        <v>0.0574819</v>
       </c>
       <c r="D61" t="n">
-        <v>0.180087</v>
+        <v>0.179529</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0351465</v>
+        <v>0.0351524</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0392512</v>
+        <v>0.0422418</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0604617</v>
+        <v>0.0607774</v>
       </c>
       <c r="C62" t="n">
-        <v>0.064305</v>
+        <v>0.0649202</v>
       </c>
       <c r="D62" t="n">
-        <v>0.184456</v>
+        <v>0.18407</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0381614</v>
+        <v>0.0382001</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0425283</v>
+        <v>0.0463501</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0725879</v>
+        <v>0.07235900000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07589319999999999</v>
+        <v>0.0758181</v>
       </c>
       <c r="D63" t="n">
-        <v>0.189302</v>
+        <v>0.188711</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0429608</v>
+        <v>0.0430796</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0468776</v>
+        <v>0.050645</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0892694</v>
+        <v>0.0889493</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09223530000000001</v>
+        <v>0.0921727</v>
       </c>
       <c r="D64" t="n">
-        <v>0.138467</v>
+        <v>0.137093</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0503173</v>
+        <v>0.0507713</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0541283</v>
+        <v>0.058348</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115004</v>
+        <v>0.115021</v>
       </c>
       <c r="C65" t="n">
-        <v>0.118017</v>
+        <v>0.117766</v>
       </c>
       <c r="D65" t="n">
-        <v>0.144312</v>
+        <v>0.142589</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0641888</v>
+        <v>0.0647681</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0673951</v>
+        <v>0.0697895</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.155457</v>
+        <v>0.156494</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1572</v>
+        <v>0.158457</v>
       </c>
       <c r="D66" t="n">
-        <v>0.151067</v>
+        <v>0.149192</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0324443</v>
+        <v>0.0319741</v>
       </c>
       <c r="F66" t="n">
-        <v>0.036975</v>
+        <v>0.0377387</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0415012</v>
+        <v>0.041498</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0488855</v>
+        <v>0.0489346</v>
       </c>
       <c r="D67" t="n">
-        <v>0.158518</v>
+        <v>0.156048</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0326019</v>
+        <v>0.0325914</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0375895</v>
+        <v>0.0384454</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.041955</v>
+        <v>0.042088</v>
       </c>
       <c r="C68" t="n">
-        <v>0.049995</v>
+        <v>0.050168</v>
       </c>
       <c r="D68" t="n">
-        <v>0.167084</v>
+        <v>0.163754</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0330805</v>
+        <v>0.0329013</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0382039</v>
+        <v>0.039062</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0428744</v>
+        <v>0.0428623</v>
       </c>
       <c r="C69" t="n">
-        <v>0.051195</v>
+        <v>0.0512794</v>
       </c>
       <c r="D69" t="n">
-        <v>0.175367</v>
+        <v>0.170634</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0333414</v>
+        <v>0.0332044</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0389065</v>
+        <v>0.0398048</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0437123</v>
+        <v>0.043798</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0527449</v>
+        <v>0.0527984</v>
       </c>
       <c r="D70" t="n">
-        <v>0.181867</v>
+        <v>0.179138</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0337389</v>
+        <v>0.033915</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0396522</v>
+        <v>0.040656</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.044955</v>
+        <v>0.0451426</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0544012</v>
+        <v>0.0544707</v>
       </c>
       <c r="D71" t="n">
-        <v>0.19199</v>
+        <v>0.188536</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0343914</v>
+        <v>0.0344149</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0408698</v>
+        <v>0.0423489</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0469398</v>
+        <v>0.0468907</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0564783</v>
+        <v>0.0563834</v>
       </c>
       <c r="D72" t="n">
-        <v>0.201223</v>
+        <v>0.197979</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0351277</v>
+        <v>0.0352134</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0419969</v>
+        <v>0.043605</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0492275</v>
+        <v>0.0489149</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0589933</v>
+        <v>0.0593952</v>
       </c>
       <c r="D73" t="n">
-        <v>0.209625</v>
+        <v>0.20797</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0363225</v>
+        <v>0.0362115</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0427885</v>
+        <v>0.0443557</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0523764</v>
+        <v>0.0525543</v>
       </c>
       <c r="C74" t="n">
-        <v>0.06266380000000001</v>
+        <v>0.0624086</v>
       </c>
       <c r="D74" t="n">
-        <v>0.222148</v>
+        <v>0.218421</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0371416</v>
+        <v>0.0373112</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0443679</v>
+        <v>0.0462602</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0572877</v>
+        <v>0.0573987</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06775879999999999</v>
+        <v>0.06706819999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.234094</v>
+        <v>0.231501</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0389554</v>
+        <v>0.0389635</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0464832</v>
+        <v>0.048312</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0640732</v>
+        <v>0.06417059999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.074474</v>
+        <v>0.0738424</v>
       </c>
       <c r="D76" t="n">
-        <v>0.24624</v>
+        <v>0.244098</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0422909</v>
+        <v>0.0416012</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0492819</v>
+        <v>0.0530855</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0745396</v>
+        <v>0.074541</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0853124</v>
+        <v>0.0852509</v>
       </c>
       <c r="D77" t="n">
-        <v>0.260509</v>
+        <v>0.260581</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0464422</v>
+        <v>0.0458392</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0536821</v>
+        <v>0.0579816</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0898003</v>
+        <v>0.08971700000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.102074</v>
+        <v>0.102316</v>
       </c>
       <c r="D78" t="n">
-        <v>0.21803</v>
+        <v>0.218334</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0527416</v>
+        <v>0.0530222</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0607073</v>
+        <v>0.0647276</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.114546</v>
+        <v>0.113126</v>
       </c>
       <c r="C79" t="n">
-        <v>0.127715</v>
+        <v>0.127585</v>
       </c>
       <c r="D79" t="n">
-        <v>0.23102</v>
+        <v>0.229602</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06443740000000001</v>
+        <v>0.0645632</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0723106</v>
+        <v>0.0751021</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.152482</v>
+        <v>0.151178</v>
       </c>
       <c r="C80" t="n">
-        <v>0.173586</v>
+        <v>0.17368</v>
       </c>
       <c r="D80" t="n">
-        <v>0.242969</v>
+        <v>0.242547</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0362108</v>
+        <v>0.0363344</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0422207</v>
+        <v>0.0430973</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0466448</v>
+        <v>0.0466389</v>
       </c>
       <c r="C81" t="n">
-        <v>0.05809</v>
+        <v>0.0572517</v>
       </c>
       <c r="D81" t="n">
-        <v>0.255555</v>
+        <v>0.256402</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0365591</v>
+        <v>0.0364693</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0427573</v>
+        <v>0.0437772</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0473282</v>
+        <v>0.0472154</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0601347</v>
+        <v>0.0595699</v>
       </c>
       <c r="D82" t="n">
-        <v>0.26859</v>
+        <v>0.26916</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0370817</v>
+        <v>0.0370684</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0436846</v>
+        <v>0.0446303</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0482837</v>
+        <v>0.0482022</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0630647</v>
+        <v>0.0622015</v>
       </c>
       <c r="D83" t="n">
-        <v>0.281561</v>
+        <v>0.281961</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0376483</v>
+        <v>0.0375444</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0446708</v>
+        <v>0.0455676</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0497456</v>
+        <v>0.0495249</v>
       </c>
       <c r="C84" t="n">
-        <v>0.06733790000000001</v>
+        <v>0.0658122</v>
       </c>
       <c r="D84" t="n">
-        <v>0.295118</v>
+        <v>0.294905</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0381669</v>
+        <v>0.0380299</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0454392</v>
+        <v>0.0465192</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0512961</v>
+        <v>0.0509284</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0720654</v>
+        <v>0.070787</v>
       </c>
       <c r="D85" t="n">
-        <v>0.308653</v>
+        <v>0.308928</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0389354</v>
+        <v>0.0386168</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0473151</v>
+        <v>0.0481081</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0532629</v>
+        <v>0.0529129</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0781509</v>
+        <v>0.07804609999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.322424</v>
+        <v>0.322556</v>
       </c>
       <c r="E86" t="n">
-        <v>0.039899</v>
+        <v>0.0394023</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0492839</v>
+        <v>0.0503453</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0563108</v>
+        <v>0.0560339</v>
       </c>
       <c r="C87" t="n">
-        <v>0.08619979999999999</v>
+        <v>0.0859642</v>
       </c>
       <c r="D87" t="n">
-        <v>0.336784</v>
+        <v>0.336743</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0411302</v>
+        <v>0.0408017</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0518365</v>
+        <v>0.0533148</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0602507</v>
+        <v>0.059726</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09645049999999999</v>
+        <v>0.09634760000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.351315</v>
+        <v>0.351682</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0423494</v>
+        <v>0.0421709</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0550675</v>
+        <v>0.0569561</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06607159999999999</v>
+        <v>0.0652032</v>
       </c>
       <c r="C89" t="n">
-        <v>0.108625</v>
+        <v>0.109162</v>
       </c>
       <c r="D89" t="n">
-        <v>0.367314</v>
+        <v>0.367325</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0448359</v>
+        <v>0.0443807</v>
       </c>
       <c r="F89" t="n">
-        <v>0.059153</v>
+        <v>0.062354</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0744766</v>
+        <v>0.0737228</v>
       </c>
       <c r="C90" t="n">
-        <v>0.124583</v>
+        <v>0.125088</v>
       </c>
       <c r="D90" t="n">
-        <v>0.383242</v>
+        <v>0.383543</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0481111</v>
+        <v>0.0479443</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0653827</v>
+        <v>0.07225719999999999</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.08538229999999999</v>
+        <v>0.0847622</v>
       </c>
       <c r="C91" t="n">
-        <v>0.143298</v>
+        <v>0.144241</v>
       </c>
       <c r="D91" t="n">
-        <v>0.399994</v>
+        <v>0.400353</v>
       </c>
       <c r="E91" t="n">
-        <v>0.053257</v>
+        <v>0.0528194</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0750422</v>
+        <v>0.0830125</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.101416</v>
+        <v>0.10194</v>
       </c>
       <c r="C92" t="n">
-        <v>0.166249</v>
+        <v>0.166715</v>
       </c>
       <c r="D92" t="n">
-        <v>0.32303</v>
+        <v>0.324534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0610389</v>
+        <v>0.0603683</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08775380000000001</v>
+        <v>0.0954309</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.125781</v>
+        <v>0.126541</v>
       </c>
       <c r="C93" t="n">
-        <v>0.197454</v>
+        <v>0.197546</v>
       </c>
       <c r="D93" t="n">
-        <v>0.333857</v>
+        <v>0.33492</v>
       </c>
       <c r="E93" t="n">
-        <v>0.07320500000000001</v>
+        <v>0.0734788</v>
       </c>
       <c r="F93" t="n">
-        <v>0.107001</v>
+        <v>0.112635</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.161956</v>
+        <v>0.162956</v>
       </c>
       <c r="C94" t="n">
-        <v>0.236972</v>
+        <v>0.238038</v>
       </c>
       <c r="D94" t="n">
-        <v>0.344973</v>
+        <v>0.346098</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0405535</v>
+        <v>0.0405005</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0546991</v>
+        <v>0.0566006</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0585212</v>
+        <v>0.05846</v>
       </c>
       <c r="C95" t="n">
-        <v>0.103298</v>
+        <v>0.10406</v>
       </c>
       <c r="D95" t="n">
-        <v>0.356625</v>
+        <v>0.357408</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0417918</v>
+        <v>0.0417399</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0583996</v>
+        <v>0.0606974</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0618736</v>
+        <v>0.0616829</v>
       </c>
       <c r="C96" t="n">
-        <v>0.111897</v>
+        <v>0.112696</v>
       </c>
       <c r="D96" t="n">
-        <v>0.368593</v>
+        <v>0.369367</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0435997</v>
+        <v>0.0431058</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06342109999999999</v>
+        <v>0.0649656</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.06573279999999999</v>
+        <v>0.065841</v>
       </c>
       <c r="C97" t="n">
-        <v>0.120673</v>
+        <v>0.121171</v>
       </c>
       <c r="D97" t="n">
-        <v>0.380586</v>
+        <v>0.381519</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0453613</v>
+        <v>0.045004</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0679507</v>
+        <v>0.0702595</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0702675</v>
+        <v>0.0701343</v>
       </c>
       <c r="C98" t="n">
-        <v>0.128503</v>
+        <v>0.12902</v>
       </c>
       <c r="D98" t="n">
-        <v>0.392576</v>
+        <v>0.39327</v>
       </c>
       <c r="E98" t="n">
-        <v>0.047953</v>
+        <v>0.047364</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0735016</v>
+        <v>0.0760696</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0752491</v>
+        <v>0.07529569999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.136444</v>
+        <v>0.136957</v>
       </c>
       <c r="D99" t="n">
-        <v>0.405519</v>
+        <v>0.406366</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0506727</v>
+        <v>0.0501291</v>
       </c>
       <c r="F99" t="n">
-        <v>0.079522</v>
+        <v>0.0827454</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0810964</v>
+        <v>0.0810826</v>
       </c>
       <c r="C100" t="n">
-        <v>0.14413</v>
+        <v>0.144603</v>
       </c>
       <c r="D100" t="n">
-        <v>0.41823</v>
+        <v>0.41981</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0538892</v>
+        <v>0.0536498</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0857593</v>
+        <v>0.0888574</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0869706</v>
+        <v>0.0876788</v>
       </c>
       <c r="C101" t="n">
-        <v>0.151506</v>
+        <v>0.151753</v>
       </c>
       <c r="D101" t="n">
-        <v>0.431723</v>
+        <v>0.433328</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0575236</v>
+        <v>0.0574135</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0921106</v>
+        <v>0.09554410000000001</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0937935</v>
+        <v>0.0939704</v>
       </c>
       <c r="C102" t="n">
-        <v>0.159917</v>
+        <v>0.16071</v>
       </c>
       <c r="D102" t="n">
-        <v>0.446885</v>
+        <v>0.447948</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0617025</v>
+        <v>0.0617485</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0988059</v>
+        <v>0.102902</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.101274</v>
+        <v>0.101803</v>
       </c>
       <c r="C103" t="n">
-        <v>0.169335</v>
+        <v>0.169597</v>
       </c>
       <c r="D103" t="n">
-        <v>0.461641</v>
+        <v>0.463103</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0659177</v>
+        <v>0.0664542</v>
       </c>
       <c r="F103" t="n">
-        <v>0.106004</v>
+        <v>0.110312</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.110397</v>
+        <v>0.110893</v>
       </c>
       <c r="C104" t="n">
-        <v>0.180885</v>
+        <v>0.181651</v>
       </c>
       <c r="D104" t="n">
-        <v>0.477482</v>
+        <v>0.478814</v>
       </c>
       <c r="E104" t="n">
-        <v>0.07119060000000001</v>
+        <v>0.07240829999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>0.113168</v>
+        <v>0.118615</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.121416</v>
+        <v>0.121492</v>
       </c>
       <c r="C105" t="n">
-        <v>0.195564</v>
+        <v>0.195848</v>
       </c>
       <c r="D105" t="n">
-        <v>0.493867</v>
+        <v>0.49513</v>
       </c>
       <c r="E105" t="n">
-        <v>0.07767350000000001</v>
+        <v>0.0785689</v>
       </c>
       <c r="F105" t="n">
-        <v>0.12194</v>
+        <v>0.127542</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.135349</v>
+        <v>0.135887</v>
       </c>
       <c r="C106" t="n">
-        <v>0.213953</v>
+        <v>0.214257</v>
       </c>
       <c r="D106" t="n">
-        <v>0.510738</v>
+        <v>0.5126849999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>0.08648119999999999</v>
+        <v>0.0869037</v>
       </c>
       <c r="F106" t="n">
-        <v>0.133565</v>
+        <v>0.138322</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.154809</v>
+        <v>0.155273</v>
       </c>
       <c r="C107" t="n">
-        <v>0.239242</v>
+        <v>0.239804</v>
       </c>
       <c r="D107" t="n">
-        <v>0.386759</v>
+        <v>0.386891</v>
       </c>
       <c r="E107" t="n">
-        <v>0.098146</v>
+        <v>0.0984013</v>
       </c>
       <c r="F107" t="n">
-        <v>0.148423</v>
+        <v>0.153048</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.183549</v>
+        <v>0.183461</v>
       </c>
       <c r="C108" t="n">
-        <v>0.276051</v>
+        <v>0.276889</v>
       </c>
       <c r="D108" t="n">
-        <v>0.397275</v>
+        <v>0.39807</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0595832</v>
+        <v>0.0598528</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0895276</v>
+        <v>0.0922485</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.229969</v>
+        <v>0.23029</v>
       </c>
       <c r="C109" t="n">
-        <v>0.33785</v>
+        <v>0.338183</v>
       </c>
       <c r="D109" t="n">
-        <v>0.40836</v>
+        <v>0.408822</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0616477</v>
+        <v>0.0618123</v>
       </c>
       <c r="F109" t="n">
-        <v>0.09267880000000001</v>
+        <v>0.0953301</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.09016680000000001</v>
+        <v>0.0909234</v>
       </c>
       <c r="C110" t="n">
-        <v>0.144695</v>
+        <v>0.145224</v>
       </c>
       <c r="D110" t="n">
-        <v>0.419252</v>
+        <v>0.420124</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0640549</v>
+        <v>0.0641477</v>
       </c>
       <c r="F110" t="n">
-        <v>0.09600450000000001</v>
+        <v>0.098551</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0932061</v>
+        <v>0.093727</v>
       </c>
       <c r="C111" t="n">
-        <v>0.149358</v>
+        <v>0.149701</v>
       </c>
       <c r="D111" t="n">
-        <v>0.430497</v>
+        <v>0.431617</v>
       </c>
       <c r="E111" t="n">
-        <v>0.06571109999999999</v>
+        <v>0.0656159</v>
       </c>
       <c r="F111" t="n">
-        <v>0.09860679999999999</v>
+        <v>0.101583</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0961301</v>
+        <v>0.09646929999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.153974</v>
+        <v>0.15443</v>
       </c>
       <c r="D112" t="n">
-        <v>0.442249</v>
+        <v>0.443312</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0676573</v>
+        <v>0.0677888</v>
       </c>
       <c r="F112" t="n">
-        <v>0.101544</v>
+        <v>0.104605</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0993376</v>
+        <v>0.0994868</v>
       </c>
       <c r="C113" t="n">
-        <v>0.159166</v>
+        <v>0.15951</v>
       </c>
       <c r="D113" t="n">
-        <v>0.454595</v>
+        <v>0.455659</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0694789</v>
+        <v>0.06968050000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>0.104536</v>
+        <v>0.108141</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.10269</v>
+        <v>0.102892</v>
       </c>
       <c r="C114" t="n">
-        <v>0.164496</v>
+        <v>0.164996</v>
       </c>
       <c r="D114" t="n">
-        <v>0.467435</v>
+        <v>0.468393</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0716338</v>
+        <v>0.07153610000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>0.108516</v>
+        <v>0.11198</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.106401</v>
+        <v>0.106625</v>
       </c>
       <c r="C115" t="n">
-        <v>0.170505</v>
+        <v>0.170899</v>
       </c>
       <c r="D115" t="n">
-        <v>0.481054</v>
+        <v>0.481641</v>
       </c>
       <c r="E115" t="n">
-        <v>0.07439419999999999</v>
+        <v>0.0742507</v>
       </c>
       <c r="F115" t="n">
-        <v>0.112558</v>
+        <v>0.115814</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.110846</v>
+        <v>0.110882</v>
       </c>
       <c r="C116" t="n">
-        <v>0.177851</v>
+        <v>0.178001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.494235</v>
+        <v>0.496396</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0771831</v>
+        <v>0.077127</v>
       </c>
       <c r="F116" t="n">
-        <v>0.116915</v>
+        <v>0.120411</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.116213</v>
+        <v>0.116294</v>
       </c>
       <c r="C117" t="n">
-        <v>0.186234</v>
+        <v>0.186813</v>
       </c>
       <c r="D117" t="n">
-        <v>0.508971</v>
+        <v>0.5106849999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0798846</v>
+        <v>0.0797779</v>
       </c>
       <c r="F117" t="n">
-        <v>0.121639</v>
+        <v>0.125359</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123329</v>
+        <v>0.123611</v>
       </c>
       <c r="C118" t="n">
-        <v>0.19695</v>
+        <v>0.197234</v>
       </c>
       <c r="D118" t="n">
-        <v>0.523899</v>
+        <v>0.525996</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0837334</v>
+        <v>0.08383549999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>0.127699</v>
+        <v>0.132545</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.132878</v>
+        <v>0.132942</v>
       </c>
       <c r="C119" t="n">
-        <v>0.210583</v>
+        <v>0.211026</v>
       </c>
       <c r="D119" t="n">
-        <v>0.540481</v>
+        <v>0.541756</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0886468</v>
+        <v>0.0889104</v>
       </c>
       <c r="F119" t="n">
-        <v>0.134721</v>
+        <v>0.14069</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.145508</v>
+        <v>0.14577</v>
       </c>
       <c r="C120" t="n">
-        <v>0.22927</v>
+        <v>0.229487</v>
       </c>
       <c r="D120" t="n">
-        <v>0.558164</v>
+        <v>0.558792</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0955927</v>
+        <v>0.09589640000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>0.145081</v>
+        <v>0.151815</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163167</v>
+        <v>0.163283</v>
       </c>
       <c r="C121" t="n">
-        <v>0.254077</v>
+        <v>0.254585</v>
       </c>
       <c r="D121" t="n">
-        <v>0.414516</v>
+        <v>0.415739</v>
       </c>
       <c r="E121" t="n">
-        <v>0.105837</v>
+        <v>0.106243</v>
       </c>
       <c r="F121" t="n">
-        <v>0.159357</v>
+        <v>0.165818</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.188792</v>
+        <v>0.189216</v>
       </c>
       <c r="C122" t="n">
-        <v>0.290844</v>
+        <v>0.291446</v>
       </c>
       <c r="D122" t="n">
-        <v>0.425604</v>
+        <v>0.426584</v>
       </c>
       <c r="E122" t="n">
-        <v>0.121991</v>
+        <v>0.122752</v>
       </c>
       <c r="F122" t="n">
-        <v>0.181343</v>
+        <v>0.186899</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.230077</v>
+        <v>0.230458</v>
       </c>
       <c r="C123" t="n">
-        <v>0.349139</v>
+        <v>0.350033</v>
       </c>
       <c r="D123" t="n">
-        <v>0.436601</v>
+        <v>0.436951</v>
       </c>
       <c r="E123" t="n">
-        <v>0.07503940000000001</v>
+        <v>0.0751907</v>
       </c>
       <c r="F123" t="n">
-        <v>0.108324</v>
+        <v>0.109601</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.10354</v>
+        <v>0.102438</v>
       </c>
       <c r="C124" t="n">
-        <v>0.160304</v>
+        <v>0.160516</v>
       </c>
       <c r="D124" t="n">
-        <v>0.447553</v>
+        <v>0.44862</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0759973</v>
+        <v>0.0737964</v>
       </c>
       <c r="F124" t="n">
-        <v>0.110861</v>
+        <v>0.114212</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.103817</v>
+        <v>0.105249</v>
       </c>
       <c r="C125" t="n">
-        <v>0.165343</v>
+        <v>0.164819</v>
       </c>
       <c r="D125" t="n">
-        <v>0.459428</v>
+        <v>0.459946</v>
       </c>
       <c r="E125" t="n">
-        <v>0.07580729999999999</v>
+        <v>0.0771172</v>
       </c>
       <c r="F125" t="n">
-        <v>0.112648</v>
+        <v>0.115991</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.108583</v>
+        <v>0.108113</v>
       </c>
       <c r="C126" t="n">
-        <v>0.170357</v>
+        <v>0.170665</v>
       </c>
       <c r="D126" t="n">
-        <v>0.471351</v>
+        <v>0.472322</v>
       </c>
       <c r="E126" t="n">
-        <v>0.07867739999999999</v>
+        <v>0.0788137</v>
       </c>
       <c r="F126" t="n">
-        <v>0.116</v>
+        <v>0.11695</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110457</v>
+        <v>0.109789</v>
       </c>
       <c r="C127" t="n">
-        <v>0.173226</v>
+        <v>0.176703</v>
       </c>
       <c r="D127" t="n">
-        <v>0.483429</v>
+        <v>0.484429</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0807001</v>
+        <v>0.0801555</v>
       </c>
       <c r="F127" t="n">
-        <v>0.121053</v>
+        <v>0.120978</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.115721</v>
+        <v>0.113086</v>
       </c>
       <c r="C128" t="n">
-        <v>0.182858</v>
+        <v>0.179473</v>
       </c>
       <c r="D128" t="n">
-        <v>0.496295</v>
+        <v>0.497491</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0817732</v>
+        <v>0.0824869</v>
       </c>
       <c r="F128" t="n">
-        <v>0.124146</v>
+        <v>0.126342</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116825</v>
+        <v>0.116284</v>
       </c>
       <c r="C129" t="n">
-        <v>0.186223</v>
+        <v>0.187244</v>
       </c>
       <c r="D129" t="n">
-        <v>0.510232</v>
+        <v>0.510652</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0845983</v>
+        <v>0.0849733</v>
       </c>
       <c r="F129" t="n">
-        <v>0.127326</v>
+        <v>0.131205</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.119943</v>
+        <v>0.12083</v>
       </c>
       <c r="C130" t="n">
-        <v>0.195866</v>
+        <v>0.194024</v>
       </c>
       <c r="D130" t="n">
-        <v>0.523315</v>
+        <v>0.524232</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0869501</v>
+        <v>0.0872328</v>
       </c>
       <c r="F130" t="n">
-        <v>0.131431</v>
+        <v>0.134125</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.125581</v>
+        <v>0.127052</v>
       </c>
       <c r="C131" t="n">
-        <v>0.202553</v>
+        <v>0.202739</v>
       </c>
       <c r="D131" t="n">
-        <v>0.538326</v>
+        <v>0.538689</v>
       </c>
       <c r="E131" t="n">
-        <v>0.09195399999999999</v>
+        <v>0.0909479</v>
       </c>
       <c r="F131" t="n">
-        <v>0.136761</v>
+        <v>0.142893</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13315</v>
+        <v>0.135013</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213365</v>
+        <v>0.212631</v>
       </c>
       <c r="D132" t="n">
-        <v>0.553291</v>
+        <v>0.554634</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0930343</v>
+        <v>0.0927998</v>
       </c>
       <c r="F132" t="n">
-        <v>0.141567</v>
+        <v>0.146658</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.140834</v>
+        <v>0.140273</v>
       </c>
       <c r="C133" t="n">
-        <v>0.224276</v>
+        <v>0.226296</v>
       </c>
       <c r="D133" t="n">
-        <v>0.569851</v>
+        <v>0.570792</v>
       </c>
       <c r="E133" t="n">
-        <v>0.09900539999999999</v>
+        <v>0.0968001</v>
       </c>
       <c r="F133" t="n">
-        <v>0.149407</v>
+        <v>0.154662</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.152635</v>
+        <v>0.153946</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244061</v>
+        <v>0.244369</v>
       </c>
       <c r="D134" t="n">
-        <v>0.586355</v>
+        <v>0.588378</v>
       </c>
       <c r="E134" t="n">
-        <v>0.104634</v>
+        <v>0.104119</v>
       </c>
       <c r="F134" t="n">
-        <v>0.158243</v>
+        <v>0.164982</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.169481</v>
+        <v>0.169129</v>
       </c>
       <c r="C135" t="n">
-        <v>0.268322</v>
+        <v>0.268179</v>
       </c>
       <c r="D135" t="n">
-        <v>0.430989</v>
+        <v>0.43138</v>
       </c>
       <c r="E135" t="n">
-        <v>0.115091</v>
+        <v>0.114507</v>
       </c>
       <c r="F135" t="n">
-        <v>0.172978</v>
+        <v>0.178509</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194516</v>
+        <v>0.194227</v>
       </c>
       <c r="C136" t="n">
-        <v>0.303196</v>
+        <v>0.302314</v>
       </c>
       <c r="D136" t="n">
-        <v>0.442119</v>
+        <v>0.44257</v>
       </c>
       <c r="E136" t="n">
-        <v>0.128395</v>
+        <v>0.129566</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1936</v>
+        <v>0.198681</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232219</v>
+        <v>0.232813</v>
       </c>
       <c r="C137" t="n">
-        <v>0.359246</v>
+        <v>0.358111</v>
       </c>
       <c r="D137" t="n">
-        <v>0.453555</v>
+        <v>0.454445</v>
       </c>
       <c r="E137" t="n">
-        <v>0.139529</v>
+        <v>0.138724</v>
       </c>
       <c r="F137" t="n">
-        <v>0.171781</v>
+        <v>0.175387</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.167847</v>
+        <v>0.167563</v>
       </c>
       <c r="C138" t="n">
-        <v>0.225372</v>
+        <v>0.226103</v>
       </c>
       <c r="D138" t="n">
-        <v>0.46546</v>
+        <v>0.465665</v>
       </c>
       <c r="E138" t="n">
-        <v>0.140502</v>
+        <v>0.140427</v>
       </c>
       <c r="F138" t="n">
-        <v>0.174977</v>
+        <v>0.177563</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169293</v>
+        <v>0.16832</v>
       </c>
       <c r="C139" t="n">
-        <v>0.230178</v>
+        <v>0.230296</v>
       </c>
       <c r="D139" t="n">
-        <v>0.476822</v>
+        <v>0.477332</v>
       </c>
       <c r="E139" t="n">
-        <v>0.141057</v>
+        <v>0.141714</v>
       </c>
       <c r="F139" t="n">
-        <v>0.177693</v>
+        <v>0.180165</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.171543</v>
+        <v>0.170781</v>
       </c>
       <c r="C140" t="n">
-        <v>0.233882</v>
+        <v>0.234783</v>
       </c>
       <c r="D140" t="n">
-        <v>0.488888</v>
+        <v>0.489446</v>
       </c>
       <c r="E140" t="n">
-        <v>0.143624</v>
+        <v>0.142396</v>
       </c>
       <c r="F140" t="n">
-        <v>0.181216</v>
+        <v>0.183455</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.173202</v>
+        <v>0.172301</v>
       </c>
       <c r="C141" t="n">
-        <v>0.238892</v>
+        <v>0.238722</v>
       </c>
       <c r="D141" t="n">
-        <v>0.50101</v>
+        <v>0.501978</v>
       </c>
       <c r="E141" t="n">
-        <v>0.143952</v>
+        <v>0.144764</v>
       </c>
       <c r="F141" t="n">
-        <v>0.183109</v>
+        <v>0.187214</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.174473</v>
+        <v>0.174345</v>
       </c>
       <c r="C142" t="n">
-        <v>0.244326</v>
+        <v>0.244265</v>
       </c>
       <c r="D142" t="n">
-        <v>0.513529</v>
+        <v>0.514235</v>
       </c>
       <c r="E142" t="n">
-        <v>0.144827</v>
+        <v>0.145836</v>
       </c>
       <c r="F142" t="n">
-        <v>0.186015</v>
+        <v>0.190355</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.177112</v>
+        <v>0.176619</v>
       </c>
       <c r="C143" t="n">
-        <v>0.248982</v>
+        <v>0.249684</v>
       </c>
       <c r="D143" t="n">
-        <v>0.526834</v>
+        <v>0.527473</v>
       </c>
       <c r="E143" t="n">
-        <v>0.14685</v>
+        <v>0.147396</v>
       </c>
       <c r="F143" t="n">
-        <v>0.189562</v>
+        <v>0.193252</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0348199</v>
+        <v>0.0348214</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0349383</v>
+        <v>0.0349284</v>
       </c>
       <c r="D2" t="n">
-        <v>0.124292</v>
+        <v>0.12459</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0230536</v>
+        <v>0.0229722</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0243842</v>
+        <v>0.0242643</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0352936</v>
+        <v>0.0350987</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0363371</v>
+        <v>0.0363751</v>
       </c>
       <c r="D3" t="n">
-        <v>0.129064</v>
+        <v>0.129848</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0229596</v>
+        <v>0.0229507</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0242524</v>
+        <v>0.0244914</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03824</v>
+        <v>0.038154</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0387414</v>
+        <v>0.0390841</v>
       </c>
       <c r="D4" t="n">
-        <v>0.133858</v>
+        <v>0.135196</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0234027</v>
+        <v>0.0233655</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0248814</v>
+        <v>0.0247901</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.043232</v>
+        <v>0.04336</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0429414</v>
+        <v>0.0434304</v>
       </c>
       <c r="D5" t="n">
-        <v>0.139428</v>
+        <v>0.141641</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0226005</v>
+        <v>0.0226939</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0242698</v>
+        <v>0.0247634</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0544053</v>
+        <v>0.054558</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0561344</v>
+        <v>0.0560329</v>
       </c>
       <c r="D6" t="n">
-        <v>0.145421</v>
+        <v>0.147204</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0228905</v>
+        <v>0.0226664</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0253845</v>
+        <v>0.0248719</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07377590000000001</v>
+        <v>0.07381500000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07498440000000001</v>
+        <v>0.07446120000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.10174</v>
+        <v>0.102324</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0279039</v>
+        <v>0.0275706</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0332624</v>
+        <v>0.030011</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.108849</v>
+        <v>0.109194</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107956</v>
+        <v>0.107873</v>
       </c>
       <c r="D8" t="n">
-        <v>0.10812</v>
+        <v>0.108291</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0463008</v>
+        <v>0.0473565</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0497778</v>
+        <v>0.0473742</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149345</v>
+        <v>0.149446</v>
       </c>
       <c r="C9" t="n">
-        <v>0.151229</v>
+        <v>0.150742</v>
       </c>
       <c r="D9" t="n">
-        <v>0.112328</v>
+        <v>0.113005</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0231238</v>
+        <v>0.0231262</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0239924</v>
+        <v>0.0240603</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.032544</v>
+        <v>0.032552</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0328544</v>
+        <v>0.0328577</v>
       </c>
       <c r="D10" t="n">
-        <v>0.117808</v>
+        <v>0.117989</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0231963</v>
+        <v>0.0231962</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0242494</v>
+        <v>0.0243712</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0329654</v>
+        <v>0.0329249</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0334264</v>
+        <v>0.0334608</v>
       </c>
       <c r="D11" t="n">
-        <v>0.122286</v>
+        <v>0.122513</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0233057</v>
+        <v>0.0233259</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0244115</v>
+        <v>0.0245053</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0334305</v>
+        <v>0.0334537</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0341366</v>
+        <v>0.034291</v>
       </c>
       <c r="D12" t="n">
-        <v>0.126935</v>
+        <v>0.127146</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0233226</v>
+        <v>0.02341</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0246928</v>
+        <v>0.0246881</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0339242</v>
+        <v>0.0339396</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0346664</v>
+        <v>0.0350204</v>
       </c>
       <c r="D13" t="n">
-        <v>0.131279</v>
+        <v>0.131539</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0236035</v>
+        <v>0.0234924</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0249326</v>
+        <v>0.0249819</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0345541</v>
+        <v>0.0345523</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0353566</v>
+        <v>0.0356719</v>
       </c>
       <c r="D14" t="n">
-        <v>0.135967</v>
+        <v>0.136357</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0235261</v>
+        <v>0.0236261</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0250568</v>
+        <v>0.0251911</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0355539</v>
+        <v>0.0355651</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0366029</v>
+        <v>0.0368261</v>
       </c>
       <c r="D15" t="n">
-        <v>0.140431</v>
+        <v>0.140714</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0238639</v>
+        <v>0.02388</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0254797</v>
+        <v>0.0256183</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0367622</v>
+        <v>0.0366962</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0380553</v>
+        <v>0.0382027</v>
       </c>
       <c r="D16" t="n">
-        <v>0.145432</v>
+        <v>0.145559</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0239887</v>
+        <v>0.0241891</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0260466</v>
+        <v>0.0259388</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0390209</v>
+        <v>0.0390298</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0400735</v>
+        <v>0.0401949</v>
       </c>
       <c r="D17" t="n">
-        <v>0.150389</v>
+        <v>0.15078</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0243048</v>
+        <v>0.0244915</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0267312</v>
+        <v>0.026537</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0417619</v>
+        <v>0.0417954</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0439307</v>
+        <v>0.0441479</v>
       </c>
       <c r="D18" t="n">
-        <v>0.154989</v>
+        <v>0.155313</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0243992</v>
+        <v>0.0244504</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0268914</v>
+        <v>0.0265096</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0487775</v>
+        <v>0.0488517</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0513058</v>
+        <v>0.0513865</v>
       </c>
       <c r="D19" t="n">
-        <v>0.160254</v>
+        <v>0.160113</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0241126</v>
+        <v>0.0233572</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0291189</v>
+        <v>0.0274931</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0604895</v>
+        <v>0.0605692</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0602005</v>
+        <v>0.0600591</v>
       </c>
       <c r="D20" t="n">
-        <v>0.164465</v>
+        <v>0.164311</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0285322</v>
+        <v>0.0288401</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03525</v>
+        <v>0.0306518</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0737334</v>
+        <v>0.0736419</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0758163</v>
+        <v>0.0756648</v>
       </c>
       <c r="D21" t="n">
-        <v>0.117707</v>
+        <v>0.117844</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0381793</v>
+        <v>0.038215</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0451816</v>
+        <v>0.0395654</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0985012</v>
+        <v>0.0983422</v>
       </c>
       <c r="C22" t="n">
-        <v>0.100383</v>
+        <v>0.100233</v>
       </c>
       <c r="D22" t="n">
-        <v>0.122672</v>
+        <v>0.122322</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0564881</v>
+        <v>0.0565658</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0603585</v>
+        <v>0.0571285</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.133351</v>
+        <v>0.133257</v>
       </c>
       <c r="C23" t="n">
-        <v>0.134784</v>
+        <v>0.134368</v>
       </c>
       <c r="D23" t="n">
-        <v>0.126506</v>
+        <v>0.126395</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0239528</v>
+        <v>0.0239327</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0255181</v>
+        <v>0.0255683</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0338518</v>
+        <v>0.0339318</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0364311</v>
+        <v>0.0363083</v>
       </c>
       <c r="D24" t="n">
-        <v>0.131894</v>
+        <v>0.132258</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0242493</v>
+        <v>0.0243093</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0261146</v>
+        <v>0.0261155</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0340596</v>
+        <v>0.0341037</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0375482</v>
+        <v>0.0373359</v>
       </c>
       <c r="D25" t="n">
-        <v>0.135849</v>
+        <v>0.136055</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0243616</v>
+        <v>0.0245269</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0265982</v>
+        <v>0.0266371</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.035153</v>
+        <v>0.0352243</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0383786</v>
+        <v>0.0381695</v>
       </c>
       <c r="D26" t="n">
-        <v>0.140254</v>
+        <v>0.140646</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0246791</v>
+        <v>0.0246878</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0270977</v>
+        <v>0.0269169</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0357556</v>
+        <v>0.035719</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0395617</v>
+        <v>0.0393493</v>
       </c>
       <c r="D27" t="n">
-        <v>0.145119</v>
+        <v>0.145344</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0249043</v>
+        <v>0.0249921</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0276837</v>
+        <v>0.0274696</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0366023</v>
+        <v>0.0366816</v>
       </c>
       <c r="C28" t="n">
-        <v>0.040331</v>
+        <v>0.040177</v>
       </c>
       <c r="D28" t="n">
-        <v>0.149783</v>
+        <v>0.150062</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0253961</v>
+        <v>0.0253287</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0284999</v>
+        <v>0.0281886</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0377585</v>
+        <v>0.0377004</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0417055</v>
+        <v>0.0416691</v>
       </c>
       <c r="D29" t="n">
-        <v>0.154631</v>
+        <v>0.154819</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0259785</v>
+        <v>0.0260174</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0293936</v>
+        <v>0.0289442</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0396468</v>
+        <v>0.0395922</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0437877</v>
+        <v>0.043767</v>
       </c>
       <c r="D30" t="n">
-        <v>0.158612</v>
+        <v>0.158988</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0263673</v>
+        <v>0.0262695</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0301873</v>
+        <v>0.029764</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0419843</v>
+        <v>0.0419233</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0456273</v>
+        <v>0.0456489</v>
       </c>
       <c r="D31" t="n">
-        <v>0.163191</v>
+        <v>0.162974</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0269518</v>
+        <v>0.0271183</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0312874</v>
+        <v>0.0307693</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0459907</v>
+        <v>0.0458673</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0500098</v>
+        <v>0.0499805</v>
       </c>
       <c r="D32" t="n">
-        <v>0.167476</v>
+        <v>0.167355</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0277019</v>
+        <v>0.0278102</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0323955</v>
+        <v>0.0316271</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0514967</v>
+        <v>0.0515528</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0544062</v>
+        <v>0.0543829</v>
       </c>
       <c r="D33" t="n">
-        <v>0.171942</v>
+        <v>0.171783</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0288468</v>
+        <v>0.0290456</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0348796</v>
+        <v>0.0329488</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0615607</v>
+        <v>0.0615895</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0654831</v>
+        <v>0.0653995</v>
       </c>
       <c r="D34" t="n">
-        <v>0.17682</v>
+        <v>0.176684</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0335863</v>
+        <v>0.0336418</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0413731</v>
+        <v>0.0374041</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07419000000000001</v>
+        <v>0.0741773</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0765083</v>
+        <v>0.0764946</v>
       </c>
       <c r="D35" t="n">
-        <v>0.123737</v>
+        <v>0.123533</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04196</v>
+        <v>0.0420991</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0491676</v>
+        <v>0.0447693</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09609139999999999</v>
+        <v>0.0960526</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09659470000000001</v>
+        <v>0.0965428</v>
       </c>
       <c r="D36" t="n">
-        <v>0.128202</v>
+        <v>0.128016</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0535311</v>
+        <v>0.0534803</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0585809</v>
+        <v>0.0552296</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.127686</v>
+        <v>0.127744</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128848</v>
+        <v>0.128643</v>
       </c>
       <c r="D37" t="n">
-        <v>0.132762</v>
+        <v>0.132638</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0248904</v>
+        <v>0.024977</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0281567</v>
+        <v>0.0281918</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0345056</v>
+        <v>0.0345555</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0385098</v>
+        <v>0.0384711</v>
       </c>
       <c r="D38" t="n">
-        <v>0.137319</v>
+        <v>0.137448</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0253973</v>
+        <v>0.0258426</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0287078</v>
+        <v>0.0287058</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0349313</v>
+        <v>0.0349775</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0391885</v>
+        <v>0.0391501</v>
       </c>
       <c r="D39" t="n">
         <v>0.1422</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0256434</v>
+        <v>0.025665</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0291529</v>
+        <v>0.0291041</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0357408</v>
+        <v>0.0357712</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0400749</v>
+        <v>0.0400078</v>
       </c>
       <c r="D40" t="n">
-        <v>0.146566</v>
+        <v>0.146683</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0263949</v>
+        <v>0.0258632</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0295012</v>
+        <v>0.0297878</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0364396</v>
+        <v>0.0364866</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0409888</v>
+        <v>0.0409383</v>
       </c>
       <c r="D41" t="n">
-        <v>0.151649</v>
+        <v>0.151698</v>
       </c>
       <c r="E41" t="n">
-        <v>0.026211</v>
+        <v>0.0266969</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0300155</v>
+        <v>0.0300385</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0374951</v>
+        <v>0.0375338</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0420361</v>
+        <v>0.0419667</v>
       </c>
       <c r="D42" t="n">
-        <v>0.156426</v>
+        <v>0.156332</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0266202</v>
+        <v>0.0267039</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0306102</v>
+        <v>0.0305407</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0388043</v>
+        <v>0.0388884</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0432224</v>
+        <v>0.04315</v>
       </c>
       <c r="D43" t="n">
-        <v>0.160886</v>
+        <v>0.160845</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0272131</v>
+        <v>0.0272508</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0315123</v>
+        <v>0.0313296</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.040395</v>
+        <v>0.0404813</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0450923</v>
+        <v>0.0449929</v>
       </c>
       <c r="D44" t="n">
-        <v>0.165004</v>
+        <v>0.164904</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0279649</v>
+        <v>0.0279926</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0325288</v>
+        <v>0.0321164</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0432026</v>
+        <v>0.0432788</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0474639</v>
+        <v>0.0473792</v>
       </c>
       <c r="D45" t="n">
-        <v>0.168936</v>
+        <v>0.168921</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0288796</v>
+        <v>0.0290518</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0339075</v>
+        <v>0.033025</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0467034</v>
+        <v>0.0467234</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0510184</v>
+        <v>0.0509469</v>
       </c>
       <c r="D46" t="n">
-        <v>0.172901</v>
+        <v>0.172883</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0304427</v>
+        <v>0.0306255</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0362357</v>
+        <v>0.0347481</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0522519</v>
+        <v>0.0523072</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0562567</v>
+        <v>0.056189</v>
       </c>
       <c r="D47" t="n">
-        <v>0.177089</v>
+        <v>0.177128</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0326706</v>
+        <v>0.032751</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0390924</v>
+        <v>0.0368146</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0607027</v>
+        <v>0.0607577</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06327439999999999</v>
+        <v>0.0633</v>
       </c>
       <c r="D48" t="n">
-        <v>0.181557</v>
+        <v>0.181627</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0369131</v>
+        <v>0.0368514</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0439689</v>
+        <v>0.0405647</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0749754</v>
+        <v>0.07491589999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0768701</v>
+        <v>0.07678020000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.185903</v>
+        <v>0.185856</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0423663</v>
+        <v>0.0423548</v>
       </c>
       <c r="F49" t="n">
-        <v>0.049463</v>
+        <v>0.045496</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0922634</v>
+        <v>0.092198</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0922554</v>
+        <v>0.09200319999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.130852</v>
+        <v>0.130946</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0507824</v>
+        <v>0.0505694</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0560107</v>
+        <v>0.0528637</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.122123</v>
+        <v>0.121941</v>
       </c>
       <c r="C51" t="n">
-        <v>0.12304</v>
+        <v>0.122822</v>
       </c>
       <c r="D51" t="n">
-        <v>0.135573</v>
+        <v>0.135568</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0272486</v>
+        <v>0.0270489</v>
       </c>
       <c r="F51" t="n">
-        <v>0.030563</v>
+        <v>0.0310275</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168254</v>
+        <v>0.168356</v>
       </c>
       <c r="C52" t="n">
-        <v>0.168049</v>
+        <v>0.16829</v>
       </c>
       <c r="D52" t="n">
-        <v>0.140486</v>
+        <v>0.140394</v>
       </c>
       <c r="E52" t="n">
-        <v>0.027313</v>
+        <v>0.027341</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0309041</v>
+        <v>0.0314872</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0362126</v>
+        <v>0.0362492</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0412467</v>
+        <v>0.0416759</v>
       </c>
       <c r="D53" t="n">
-        <v>0.145233</v>
+        <v>0.145253</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0279095</v>
+        <v>0.0272949</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0314837</v>
+        <v>0.0319846</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0368974</v>
+        <v>0.0375752</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0420431</v>
+        <v>0.0424701</v>
       </c>
       <c r="D54" t="n">
-        <v>0.150064</v>
+        <v>0.150056</v>
       </c>
       <c r="E54" t="n">
-        <v>0.028817</v>
+        <v>0.0276226</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0319506</v>
+        <v>0.0323452</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0381054</v>
+        <v>0.0377571</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0430933</v>
+        <v>0.0436248</v>
       </c>
       <c r="D55" t="n">
-        <v>0.154641</v>
+        <v>0.154728</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0289931</v>
+        <v>0.0280107</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0329643</v>
+        <v>0.0328141</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0389065</v>
+        <v>0.0389485</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0442412</v>
+        <v>0.044634</v>
       </c>
       <c r="D56" t="n">
-        <v>0.159056</v>
+        <v>0.159053</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0288739</v>
+        <v>0.0286917</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0334951</v>
+        <v>0.033767</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0408883</v>
+        <v>0.0400833</v>
       </c>
       <c r="C57" t="n">
-        <v>0.045738</v>
+        <v>0.0462</v>
       </c>
       <c r="D57" t="n">
-        <v>0.163432</v>
+        <v>0.163474</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0302906</v>
+        <v>0.0289888</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0343941</v>
+        <v>0.0344056</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0416446</v>
+        <v>0.0420264</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0475142</v>
+        <v>0.0479444</v>
       </c>
       <c r="D58" t="n">
-        <v>0.167456</v>
+        <v>0.167609</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0302365</v>
+        <v>0.0299194</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0358035</v>
+        <v>0.0347237</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0451235</v>
+        <v>0.044539</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0498713</v>
+        <v>0.0502529</v>
       </c>
       <c r="D59" t="n">
-        <v>0.171345</v>
+        <v>0.171614</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0313154</v>
+        <v>0.0309603</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0372771</v>
+        <v>0.036286</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0481733</v>
+        <v>0.0485076</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0533991</v>
+        <v>0.0537829</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175464</v>
+        <v>0.175334</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0333388</v>
+        <v>0.0332292</v>
       </c>
       <c r="F60" t="n">
-        <v>0.03895</v>
+        <v>0.0376224</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0531367</v>
+        <v>0.0530778</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0574819</v>
+        <v>0.0574154</v>
       </c>
       <c r="D61" t="n">
-        <v>0.179529</v>
+        <v>0.179823</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0351524</v>
+        <v>0.0346515</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0422418</v>
+        <v>0.0395309</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0607774</v>
+        <v>0.0608604</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0649202</v>
+        <v>0.06471159999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.18407</v>
+        <v>0.183857</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0382001</v>
+        <v>0.0377483</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0463501</v>
+        <v>0.0431797</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07235900000000001</v>
+        <v>0.07218810000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0758181</v>
+        <v>0.0754195</v>
       </c>
       <c r="D63" t="n">
-        <v>0.188711</v>
+        <v>0.188718</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0430796</v>
+        <v>0.0426882</v>
       </c>
       <c r="F63" t="n">
-        <v>0.050645</v>
+        <v>0.0474503</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0889493</v>
+        <v>0.08919580000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0921727</v>
+        <v>0.09176140000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.137093</v>
+        <v>0.136911</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0507713</v>
+        <v>0.0503151</v>
       </c>
       <c r="F64" t="n">
-        <v>0.058348</v>
+        <v>0.0544214</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115021</v>
+        <v>0.115525</v>
       </c>
       <c r="C65" t="n">
-        <v>0.117766</v>
+        <v>0.118153</v>
       </c>
       <c r="D65" t="n">
-        <v>0.142589</v>
+        <v>0.141696</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0647681</v>
+        <v>0.0643695</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0697895</v>
+        <v>0.06736839999999999</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.156494</v>
+        <v>0.155519</v>
       </c>
       <c r="C66" t="n">
-        <v>0.158457</v>
+        <v>0.157144</v>
       </c>
       <c r="D66" t="n">
-        <v>0.149192</v>
+        <v>0.149161</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0319741</v>
+        <v>0.0322464</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0377387</v>
+        <v>0.037724</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.041498</v>
+        <v>0.0411249</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0489346</v>
+        <v>0.0488595</v>
       </c>
       <c r="D67" t="n">
-        <v>0.156048</v>
+        <v>0.156737</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0325914</v>
+        <v>0.0324623</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0384454</v>
+        <v>0.0383203</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.042088</v>
+        <v>0.041816</v>
       </c>
       <c r="C68" t="n">
-        <v>0.050168</v>
+        <v>0.0500683</v>
       </c>
       <c r="D68" t="n">
-        <v>0.163754</v>
+        <v>0.163753</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0329013</v>
+        <v>0.0333061</v>
       </c>
       <c r="F68" t="n">
-        <v>0.039062</v>
+        <v>0.0389353</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0428623</v>
+        <v>0.0426875</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0512794</v>
+        <v>0.0511458</v>
       </c>
       <c r="D69" t="n">
-        <v>0.170634</v>
+        <v>0.171609</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0332044</v>
+        <v>0.0339066</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0398048</v>
+        <v>0.0396546</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.043798</v>
+        <v>0.043761</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0527984</v>
+        <v>0.0526254</v>
       </c>
       <c r="D70" t="n">
-        <v>0.179138</v>
+        <v>0.180931</v>
       </c>
       <c r="E70" t="n">
-        <v>0.033915</v>
+        <v>0.0336322</v>
       </c>
       <c r="F70" t="n">
-        <v>0.040656</v>
+        <v>0.0404416</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0451426</v>
+        <v>0.0448898</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0544707</v>
+        <v>0.0543111</v>
       </c>
       <c r="D71" t="n">
-        <v>0.188536</v>
+        <v>0.189892</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0344149</v>
+        <v>0.0341404</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0423489</v>
+        <v>0.0415985</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0468907</v>
+        <v>0.0469225</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0563834</v>
+        <v>0.0562397</v>
       </c>
       <c r="D72" t="n">
-        <v>0.197979</v>
+        <v>0.200649</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0352134</v>
+        <v>0.0349033</v>
       </c>
       <c r="F72" t="n">
-        <v>0.043605</v>
+        <v>0.0426832</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0489149</v>
+        <v>0.0493033</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0593952</v>
+        <v>0.0587358</v>
       </c>
       <c r="D73" t="n">
-        <v>0.20797</v>
+        <v>0.211778</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0362115</v>
+        <v>0.0360046</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0443557</v>
+        <v>0.0439003</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0525543</v>
+        <v>0.052409</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0624086</v>
+        <v>0.0620827</v>
       </c>
       <c r="D74" t="n">
-        <v>0.218421</v>
+        <v>0.224218</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0373112</v>
+        <v>0.0376331</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0462602</v>
+        <v>0.0451039</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0573987</v>
+        <v>0.0574505</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06706819999999999</v>
+        <v>0.0677808</v>
       </c>
       <c r="D75" t="n">
-        <v>0.231501</v>
+        <v>0.235716</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0389635</v>
+        <v>0.0388925</v>
       </c>
       <c r="F75" t="n">
-        <v>0.048312</v>
+        <v>0.0471632</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06417059999999999</v>
+        <v>0.06421259999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0738424</v>
+        <v>0.07507369999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.244098</v>
+        <v>0.24863</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0416012</v>
+        <v>0.0418223</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0530855</v>
+        <v>0.0500193</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.074541</v>
+        <v>0.0744599</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0852509</v>
+        <v>0.08565399999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.260581</v>
+        <v>0.262882</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0458392</v>
+        <v>0.0460666</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0579816</v>
+        <v>0.0540069</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08971700000000001</v>
+        <v>0.08953079999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.102316</v>
+        <v>0.101571</v>
       </c>
       <c r="D78" t="n">
-        <v>0.218334</v>
+        <v>0.218082</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0530222</v>
+        <v>0.0525608</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0647276</v>
+        <v>0.0602975</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.113126</v>
+        <v>0.11295</v>
       </c>
       <c r="C79" t="n">
-        <v>0.127585</v>
+        <v>0.127293</v>
       </c>
       <c r="D79" t="n">
-        <v>0.229602</v>
+        <v>0.230168</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0645632</v>
+        <v>0.06416040000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0751021</v>
+        <v>0.0719224</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.151178</v>
+        <v>0.15114</v>
       </c>
       <c r="C80" t="n">
-        <v>0.17368</v>
+        <v>0.174359</v>
       </c>
       <c r="D80" t="n">
-        <v>0.242547</v>
+        <v>0.243216</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0363344</v>
+        <v>0.0363684</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0430973</v>
+        <v>0.0431904</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0466389</v>
+        <v>0.0466257</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0572517</v>
+        <v>0.0579315</v>
       </c>
       <c r="D81" t="n">
-        <v>0.256402</v>
+        <v>0.2557</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0364693</v>
+        <v>0.0365743</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0437772</v>
+        <v>0.0439111</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0472154</v>
+        <v>0.0473323</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0595699</v>
+        <v>0.0606254</v>
       </c>
       <c r="D82" t="n">
-        <v>0.26916</v>
+        <v>0.268533</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0370684</v>
+        <v>0.0370347</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0446303</v>
+        <v>0.0447455</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0482022</v>
+        <v>0.0483264</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0622015</v>
+        <v>0.0633982</v>
       </c>
       <c r="D83" t="n">
-        <v>0.281961</v>
+        <v>0.282172</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0375444</v>
+        <v>0.037522</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0455676</v>
+        <v>0.0457813</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0495249</v>
+        <v>0.0494751</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0658122</v>
+        <v>0.0670743</v>
       </c>
       <c r="D84" t="n">
-        <v>0.294905</v>
+        <v>0.295513</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0380299</v>
+        <v>0.0380669</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0465192</v>
+        <v>0.0467358</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0509284</v>
+        <v>0.0510321</v>
       </c>
       <c r="C85" t="n">
-        <v>0.070787</v>
+        <v>0.072922</v>
       </c>
       <c r="D85" t="n">
-        <v>0.308928</v>
+        <v>0.309036</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0386168</v>
+        <v>0.038708</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0481081</v>
+        <v>0.0483854</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0529129</v>
+        <v>0.0530289</v>
       </c>
       <c r="C86" t="n">
-        <v>0.07804609999999999</v>
+        <v>0.0787556</v>
       </c>
       <c r="D86" t="n">
-        <v>0.322556</v>
+        <v>0.322653</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0394023</v>
+        <v>0.0395915</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0503453</v>
+        <v>0.0503073</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0560339</v>
+        <v>0.0560559</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0859642</v>
+        <v>0.0872082</v>
       </c>
       <c r="D87" t="n">
-        <v>0.336743</v>
+        <v>0.337187</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0408017</v>
+        <v>0.0405094</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0533148</v>
+        <v>0.0523767</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.059726</v>
+        <v>0.0600811</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09634760000000001</v>
+        <v>0.0964911</v>
       </c>
       <c r="D88" t="n">
-        <v>0.351682</v>
+        <v>0.351317</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0421709</v>
+        <v>0.0423467</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0569561</v>
+        <v>0.0566651</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0652032</v>
+        <v>0.0656162</v>
       </c>
       <c r="C89" t="n">
-        <v>0.109162</v>
+        <v>0.109075</v>
       </c>
       <c r="D89" t="n">
-        <v>0.367325</v>
+        <v>0.367287</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0443807</v>
+        <v>0.0443805</v>
       </c>
       <c r="F89" t="n">
-        <v>0.062354</v>
+        <v>0.0607589</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0737228</v>
+        <v>0.07423109999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.125088</v>
+        <v>0.124753</v>
       </c>
       <c r="D90" t="n">
-        <v>0.383543</v>
+        <v>0.383689</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0479443</v>
+        <v>0.0475864</v>
       </c>
       <c r="F90" t="n">
-        <v>0.07225719999999999</v>
+        <v>0.067719</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0847622</v>
+        <v>0.0856778</v>
       </c>
       <c r="C91" t="n">
-        <v>0.144241</v>
+        <v>0.143857</v>
       </c>
       <c r="D91" t="n">
-        <v>0.400353</v>
+        <v>0.400276</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0528194</v>
+        <v>0.0529053</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0830125</v>
+        <v>0.0765473</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.10194</v>
+        <v>0.101387</v>
       </c>
       <c r="C92" t="n">
-        <v>0.166715</v>
+        <v>0.166796</v>
       </c>
       <c r="D92" t="n">
-        <v>0.324534</v>
+        <v>0.324477</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0603683</v>
+        <v>0.0611469</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0954309</v>
+        <v>0.0887196</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.126541</v>
+        <v>0.126156</v>
       </c>
       <c r="C93" t="n">
-        <v>0.197546</v>
+        <v>0.198046</v>
       </c>
       <c r="D93" t="n">
-        <v>0.33492</v>
+        <v>0.335551</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0734788</v>
+        <v>0.0733361</v>
       </c>
       <c r="F93" t="n">
-        <v>0.112635</v>
+        <v>0.108132</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.162956</v>
+        <v>0.162781</v>
       </c>
       <c r="C94" t="n">
-        <v>0.238038</v>
+        <v>0.238109</v>
       </c>
       <c r="D94" t="n">
-        <v>0.346098</v>
+        <v>0.346617</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0405005</v>
+        <v>0.0404837</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0566006</v>
+        <v>0.05603</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.05846</v>
+        <v>0.0582842</v>
       </c>
       <c r="C95" t="n">
-        <v>0.10406</v>
+        <v>0.103993</v>
       </c>
       <c r="D95" t="n">
-        <v>0.357408</v>
+        <v>0.357921</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0417399</v>
+        <v>0.0418234</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0606974</v>
+        <v>0.0598909</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0616829</v>
+        <v>0.0621499</v>
       </c>
       <c r="C96" t="n">
-        <v>0.112696</v>
+        <v>0.112616</v>
       </c>
       <c r="D96" t="n">
-        <v>0.369367</v>
+        <v>0.369947</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0431058</v>
+        <v>0.0432125</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0649656</v>
+        <v>0.0639019</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.065841</v>
+        <v>0.0656717</v>
       </c>
       <c r="C97" t="n">
-        <v>0.121171</v>
+        <v>0.121545</v>
       </c>
       <c r="D97" t="n">
-        <v>0.381519</v>
+        <v>0.381972</v>
       </c>
       <c r="E97" t="n">
-        <v>0.045004</v>
+        <v>0.0452969</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0702595</v>
+        <v>0.06967909999999999</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0701343</v>
+        <v>0.07077360000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.12902</v>
+        <v>0.129827</v>
       </c>
       <c r="D98" t="n">
-        <v>0.39327</v>
+        <v>0.39408</v>
       </c>
       <c r="E98" t="n">
-        <v>0.047364</v>
+        <v>0.0472002</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0760696</v>
+        <v>0.0753253</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07529569999999999</v>
+        <v>0.0750851</v>
       </c>
       <c r="C99" t="n">
-        <v>0.136957</v>
+        <v>0.137541</v>
       </c>
       <c r="D99" t="n">
-        <v>0.406366</v>
+        <v>0.406904</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0501291</v>
+        <v>0.0498371</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0827454</v>
+        <v>0.0817509</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0810826</v>
+        <v>0.0814358</v>
       </c>
       <c r="C100" t="n">
-        <v>0.144603</v>
+        <v>0.144738</v>
       </c>
       <c r="D100" t="n">
-        <v>0.41981</v>
+        <v>0.420455</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0536498</v>
+        <v>0.0539428</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0888574</v>
+        <v>0.08842129999999999</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0876788</v>
+        <v>0.08762499999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.151753</v>
+        <v>0.152385</v>
       </c>
       <c r="D101" t="n">
-        <v>0.433328</v>
+        <v>0.434151</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0574135</v>
+        <v>0.057591</v>
       </c>
       <c r="F101" t="n">
-        <v>0.09554410000000001</v>
+        <v>0.0950384</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0939704</v>
+        <v>0.0942996</v>
       </c>
       <c r="C102" t="n">
-        <v>0.16071</v>
+        <v>0.16129</v>
       </c>
       <c r="D102" t="n">
-        <v>0.447948</v>
+        <v>0.448883</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0617485</v>
+        <v>0.0617552</v>
       </c>
       <c r="F102" t="n">
-        <v>0.102902</v>
+        <v>0.101979</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.101803</v>
+        <v>0.10196</v>
       </c>
       <c r="C103" t="n">
-        <v>0.169597</v>
+        <v>0.170124</v>
       </c>
       <c r="D103" t="n">
-        <v>0.463103</v>
+        <v>0.464004</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0664542</v>
+        <v>0.06647069999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>0.110312</v>
+        <v>0.109255</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.110893</v>
+        <v>0.111007</v>
       </c>
       <c r="C104" t="n">
-        <v>0.181651</v>
+        <v>0.181851</v>
       </c>
       <c r="D104" t="n">
-        <v>0.478814</v>
+        <v>0.479884</v>
       </c>
       <c r="E104" t="n">
-        <v>0.07240829999999999</v>
+        <v>0.07179430000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>0.118615</v>
+        <v>0.116627</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.121492</v>
+        <v>0.122074</v>
       </c>
       <c r="C105" t="n">
-        <v>0.195848</v>
+        <v>0.19616</v>
       </c>
       <c r="D105" t="n">
-        <v>0.49513</v>
+        <v>0.496684</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0785689</v>
+        <v>0.07849639999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>0.127542</v>
+        <v>0.125328</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.135887</v>
+        <v>0.136138</v>
       </c>
       <c r="C106" t="n">
-        <v>0.214257</v>
+        <v>0.214936</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5126849999999999</v>
+        <v>0.514072</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0869037</v>
+        <v>0.0867549</v>
       </c>
       <c r="F106" t="n">
-        <v>0.138322</v>
+        <v>0.136601</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.155273</v>
+        <v>0.155647</v>
       </c>
       <c r="C107" t="n">
-        <v>0.239804</v>
+        <v>0.240247</v>
       </c>
       <c r="D107" t="n">
-        <v>0.386891</v>
+        <v>0.389395</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0984013</v>
+        <v>0.0987097</v>
       </c>
       <c r="F107" t="n">
-        <v>0.153048</v>
+        <v>0.151923</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.183461</v>
+        <v>0.184083</v>
       </c>
       <c r="C108" t="n">
-        <v>0.276889</v>
+        <v>0.277515</v>
       </c>
       <c r="D108" t="n">
-        <v>0.39807</v>
+        <v>0.400285</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0598528</v>
+        <v>0.0603556</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0922485</v>
+        <v>0.0924412</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.23029</v>
+        <v>0.230755</v>
       </c>
       <c r="C109" t="n">
-        <v>0.338183</v>
+        <v>0.33941</v>
       </c>
       <c r="D109" t="n">
-        <v>0.408822</v>
+        <v>0.411355</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0618123</v>
+        <v>0.062429</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0953301</v>
+        <v>0.09611939999999999</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0909234</v>
+        <v>0.0916019</v>
       </c>
       <c r="C110" t="n">
-        <v>0.145224</v>
+        <v>0.145438</v>
       </c>
       <c r="D110" t="n">
-        <v>0.420124</v>
+        <v>0.422865</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0641477</v>
+        <v>0.0643434</v>
       </c>
       <c r="F110" t="n">
-        <v>0.098551</v>
+        <v>0.0986027</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.093727</v>
+        <v>0.0939555</v>
       </c>
       <c r="C111" t="n">
-        <v>0.149701</v>
+        <v>0.1499</v>
       </c>
       <c r="D111" t="n">
-        <v>0.431617</v>
+        <v>0.434354</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0656159</v>
+        <v>0.0660713</v>
       </c>
       <c r="F111" t="n">
-        <v>0.101583</v>
+        <v>0.101735</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.09646929999999999</v>
+        <v>0.0968122</v>
       </c>
       <c r="C112" t="n">
-        <v>0.15443</v>
+        <v>0.15454</v>
       </c>
       <c r="D112" t="n">
-        <v>0.443312</v>
+        <v>0.446138</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0677888</v>
+        <v>0.0678715</v>
       </c>
       <c r="F112" t="n">
-        <v>0.104605</v>
+        <v>0.104984</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0994868</v>
+        <v>0.0997735</v>
       </c>
       <c r="C113" t="n">
-        <v>0.15951</v>
+        <v>0.159905</v>
       </c>
       <c r="D113" t="n">
-        <v>0.455659</v>
+        <v>0.458167</v>
       </c>
       <c r="E113" t="n">
-        <v>0.06968050000000001</v>
+        <v>0.0699405</v>
       </c>
       <c r="F113" t="n">
-        <v>0.108141</v>
+        <v>0.108175</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.102892</v>
+        <v>0.102991</v>
       </c>
       <c r="C114" t="n">
-        <v>0.164996</v>
+        <v>0.165139</v>
       </c>
       <c r="D114" t="n">
-        <v>0.468393</v>
+        <v>0.47107</v>
       </c>
       <c r="E114" t="n">
-        <v>0.07153610000000001</v>
+        <v>0.07189329999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>0.11198</v>
+        <v>0.111871</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.106625</v>
+        <v>0.106541</v>
       </c>
       <c r="C115" t="n">
-        <v>0.170899</v>
+        <v>0.171314</v>
       </c>
       <c r="D115" t="n">
-        <v>0.481641</v>
+        <v>0.484257</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0742507</v>
+        <v>0.074279</v>
       </c>
       <c r="F115" t="n">
-        <v>0.115814</v>
+        <v>0.115764</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.110882</v>
+        <v>0.111373</v>
       </c>
       <c r="C116" t="n">
-        <v>0.178001</v>
+        <v>0.178555</v>
       </c>
       <c r="D116" t="n">
-        <v>0.496396</v>
+        <v>0.498504</v>
       </c>
       <c r="E116" t="n">
-        <v>0.077127</v>
+        <v>0.0772978</v>
       </c>
       <c r="F116" t="n">
-        <v>0.120411</v>
+        <v>0.120353</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.116294</v>
+        <v>0.116706</v>
       </c>
       <c r="C117" t="n">
-        <v>0.186813</v>
+        <v>0.187287</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5106849999999999</v>
+        <v>0.513014</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0797779</v>
+        <v>0.0804907</v>
       </c>
       <c r="F117" t="n">
-        <v>0.125359</v>
+        <v>0.125007</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123611</v>
+        <v>0.123954</v>
       </c>
       <c r="C118" t="n">
-        <v>0.197234</v>
+        <v>0.197596</v>
       </c>
       <c r="D118" t="n">
-        <v>0.525996</v>
+        <v>0.5285260000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>0.08383549999999999</v>
+        <v>0.0837493</v>
       </c>
       <c r="F118" t="n">
-        <v>0.132545</v>
+        <v>0.131239</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.132942</v>
+        <v>0.13334</v>
       </c>
       <c r="C119" t="n">
-        <v>0.211026</v>
+        <v>0.211616</v>
       </c>
       <c r="D119" t="n">
-        <v>0.541756</v>
+        <v>0.545637</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0889104</v>
+        <v>0.08944870000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>0.14069</v>
+        <v>0.138723</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.14577</v>
+        <v>0.146151</v>
       </c>
       <c r="C120" t="n">
-        <v>0.229487</v>
+        <v>0.230267</v>
       </c>
       <c r="D120" t="n">
-        <v>0.558792</v>
+        <v>0.562325</v>
       </c>
       <c r="E120" t="n">
-        <v>0.09589640000000001</v>
+        <v>0.0964429</v>
       </c>
       <c r="F120" t="n">
-        <v>0.151815</v>
+        <v>0.14896</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163283</v>
+        <v>0.163727</v>
       </c>
       <c r="C121" t="n">
-        <v>0.254585</v>
+        <v>0.255275</v>
       </c>
       <c r="D121" t="n">
-        <v>0.415739</v>
+        <v>0.417027</v>
       </c>
       <c r="E121" t="n">
-        <v>0.106243</v>
+        <v>0.106337</v>
       </c>
       <c r="F121" t="n">
-        <v>0.165818</v>
+        <v>0.163428</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.189216</v>
+        <v>0.18951</v>
       </c>
       <c r="C122" t="n">
-        <v>0.291446</v>
+        <v>0.292507</v>
       </c>
       <c r="D122" t="n">
-        <v>0.426584</v>
+        <v>0.427519</v>
       </c>
       <c r="E122" t="n">
-        <v>0.122752</v>
+        <v>0.122836</v>
       </c>
       <c r="F122" t="n">
-        <v>0.186899</v>
+        <v>0.185447</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.230458</v>
+        <v>0.231074</v>
       </c>
       <c r="C123" t="n">
-        <v>0.350033</v>
+        <v>0.351066</v>
       </c>
       <c r="D123" t="n">
-        <v>0.436951</v>
+        <v>0.439329</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0751907</v>
+        <v>0.0735344</v>
       </c>
       <c r="F123" t="n">
-        <v>0.109601</v>
+        <v>0.109617</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.102438</v>
+        <v>0.103457</v>
       </c>
       <c r="C124" t="n">
-        <v>0.160516</v>
+        <v>0.16176</v>
       </c>
       <c r="D124" t="n">
-        <v>0.44862</v>
+        <v>0.450385</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0737964</v>
+        <v>0.077236</v>
       </c>
       <c r="F124" t="n">
-        <v>0.114212</v>
+        <v>0.111277</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.105249</v>
+        <v>0.105636</v>
       </c>
       <c r="C125" t="n">
-        <v>0.164819</v>
+        <v>0.164716</v>
       </c>
       <c r="D125" t="n">
-        <v>0.459946</v>
+        <v>0.462706</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0771172</v>
+        <v>0.076297</v>
       </c>
       <c r="F125" t="n">
-        <v>0.115991</v>
+        <v>0.116085</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.108113</v>
+        <v>0.1069</v>
       </c>
       <c r="C126" t="n">
-        <v>0.170665</v>
+        <v>0.171382</v>
       </c>
       <c r="D126" t="n">
-        <v>0.472322</v>
+        <v>0.474504</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0788137</v>
+        <v>0.07881589999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>0.11695</v>
+        <v>0.120147</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.109789</v>
+        <v>0.109978</v>
       </c>
       <c r="C127" t="n">
-        <v>0.176703</v>
+        <v>0.175631</v>
       </c>
       <c r="D127" t="n">
-        <v>0.484429</v>
+        <v>0.48701</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0801555</v>
+        <v>0.082495</v>
       </c>
       <c r="F127" t="n">
-        <v>0.120978</v>
+        <v>0.124015</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.113086</v>
+        <v>0.112886</v>
       </c>
       <c r="C128" t="n">
-        <v>0.179473</v>
+        <v>0.181443</v>
       </c>
       <c r="D128" t="n">
-        <v>0.497491</v>
+        <v>0.500015</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0824869</v>
+        <v>0.0821365</v>
       </c>
       <c r="F128" t="n">
-        <v>0.126342</v>
+        <v>0.125744</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116284</v>
+        <v>0.116427</v>
       </c>
       <c r="C129" t="n">
-        <v>0.187244</v>
+        <v>0.187738</v>
       </c>
       <c r="D129" t="n">
-        <v>0.510652</v>
+        <v>0.5124570000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0849733</v>
+        <v>0.0880956</v>
       </c>
       <c r="F129" t="n">
-        <v>0.131205</v>
+        <v>0.132742</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.12083</v>
+        <v>0.120396</v>
       </c>
       <c r="C130" t="n">
-        <v>0.194024</v>
+        <v>0.19448</v>
       </c>
       <c r="D130" t="n">
-        <v>0.524232</v>
+        <v>0.526833</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0872328</v>
+        <v>0.08739189999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>0.134125</v>
+        <v>0.136239</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127052</v>
+        <v>0.125761</v>
       </c>
       <c r="C131" t="n">
-        <v>0.202739</v>
+        <v>0.206197</v>
       </c>
       <c r="D131" t="n">
-        <v>0.538689</v>
+        <v>0.54176</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0909479</v>
+        <v>0.08930200000000001</v>
       </c>
       <c r="F131" t="n">
-        <v>0.142893</v>
+        <v>0.139254</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.135013</v>
+        <v>0.133089</v>
       </c>
       <c r="C132" t="n">
-        <v>0.212631</v>
+        <v>0.213343</v>
       </c>
       <c r="D132" t="n">
-        <v>0.554634</v>
+        <v>0.5573979999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0927998</v>
+        <v>0.0958908</v>
       </c>
       <c r="F132" t="n">
-        <v>0.146658</v>
+        <v>0.148218</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.140273</v>
+        <v>0.143073</v>
       </c>
       <c r="C133" t="n">
-        <v>0.226296</v>
+        <v>0.228109</v>
       </c>
       <c r="D133" t="n">
-        <v>0.570792</v>
+        <v>0.57328</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0968001</v>
+        <v>0.100923</v>
       </c>
       <c r="F133" t="n">
-        <v>0.154662</v>
+        <v>0.155442</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.153946</v>
+        <v>0.153076</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244369</v>
+        <v>0.244207</v>
       </c>
       <c r="D134" t="n">
-        <v>0.588378</v>
+        <v>0.590647</v>
       </c>
       <c r="E134" t="n">
-        <v>0.104119</v>
+        <v>0.105043</v>
       </c>
       <c r="F134" t="n">
-        <v>0.164982</v>
+        <v>0.163022</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.169129</v>
+        <v>0.170265</v>
       </c>
       <c r="C135" t="n">
-        <v>0.268179</v>
+        <v>0.268003</v>
       </c>
       <c r="D135" t="n">
-        <v>0.43138</v>
+        <v>0.433963</v>
       </c>
       <c r="E135" t="n">
-        <v>0.114507</v>
+        <v>0.115874</v>
       </c>
       <c r="F135" t="n">
-        <v>0.178509</v>
+        <v>0.176948</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194227</v>
+        <v>0.194498</v>
       </c>
       <c r="C136" t="n">
-        <v>0.302314</v>
+        <v>0.302808</v>
       </c>
       <c r="D136" t="n">
-        <v>0.44257</v>
+        <v>0.445329</v>
       </c>
       <c r="E136" t="n">
-        <v>0.129566</v>
+        <v>0.131104</v>
       </c>
       <c r="F136" t="n">
-        <v>0.198681</v>
+        <v>0.198263</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232813</v>
+        <v>0.233999</v>
       </c>
       <c r="C137" t="n">
-        <v>0.358111</v>
+        <v>0.359797</v>
       </c>
       <c r="D137" t="n">
-        <v>0.454445</v>
+        <v>0.456681</v>
       </c>
       <c r="E137" t="n">
-        <v>0.138724</v>
+        <v>0.140533</v>
       </c>
       <c r="F137" t="n">
-        <v>0.175387</v>
+        <v>0.17593</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.167563</v>
+        <v>0.169265</v>
       </c>
       <c r="C138" t="n">
-        <v>0.226103</v>
+        <v>0.227985</v>
       </c>
       <c r="D138" t="n">
-        <v>0.465665</v>
+        <v>0.468171</v>
       </c>
       <c r="E138" t="n">
-        <v>0.140427</v>
+        <v>0.140443</v>
       </c>
       <c r="F138" t="n">
-        <v>0.177563</v>
+        <v>0.178445</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.16832</v>
+        <v>0.170322</v>
       </c>
       <c r="C139" t="n">
-        <v>0.230296</v>
+        <v>0.230893</v>
       </c>
       <c r="D139" t="n">
-        <v>0.477332</v>
+        <v>0.480129</v>
       </c>
       <c r="E139" t="n">
-        <v>0.141714</v>
+        <v>0.142628</v>
       </c>
       <c r="F139" t="n">
-        <v>0.180165</v>
+        <v>0.180821</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.170781</v>
+        <v>0.172393</v>
       </c>
       <c r="C140" t="n">
-        <v>0.234783</v>
+        <v>0.235199</v>
       </c>
       <c r="D140" t="n">
-        <v>0.489446</v>
+        <v>0.492239</v>
       </c>
       <c r="E140" t="n">
-        <v>0.142396</v>
+        <v>0.144651</v>
       </c>
       <c r="F140" t="n">
-        <v>0.183455</v>
+        <v>0.182879</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.172301</v>
+        <v>0.174305</v>
       </c>
       <c r="C141" t="n">
-        <v>0.238722</v>
+        <v>0.239481</v>
       </c>
       <c r="D141" t="n">
-        <v>0.501978</v>
+        <v>0.504181</v>
       </c>
       <c r="E141" t="n">
-        <v>0.144764</v>
+        <v>0.145463</v>
       </c>
       <c r="F141" t="n">
-        <v>0.187214</v>
+        <v>0.186891</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.174345</v>
+        <v>0.17605</v>
       </c>
       <c r="C142" t="n">
-        <v>0.244265</v>
+        <v>0.245198</v>
       </c>
       <c r="D142" t="n">
-        <v>0.514235</v>
+        <v>0.51764</v>
       </c>
       <c r="E142" t="n">
-        <v>0.145836</v>
+        <v>0.146163</v>
       </c>
       <c r="F142" t="n">
-        <v>0.190355</v>
+        <v>0.189937</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.176619</v>
+        <v>0.177415</v>
       </c>
       <c r="C143" t="n">
-        <v>0.249684</v>
+        <v>0.250763</v>
       </c>
       <c r="D143" t="n">
-        <v>0.527473</v>
+        <v>0.530713</v>
       </c>
       <c r="E143" t="n">
-        <v>0.147396</v>
+        <v>0.148233</v>
       </c>
       <c r="F143" t="n">
-        <v>0.193252</v>
+        <v>0.193909</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0348214</v>
+        <v>0.0342526</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0349284</v>
+        <v>0.0348592</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12459</v>
+        <v>0.124633</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0229722</v>
+        <v>0.0234049</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0242643</v>
+        <v>0.0245752</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0350987</v>
+        <v>0.0354133</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0363751</v>
+        <v>0.0362797</v>
       </c>
       <c r="D3" t="n">
-        <v>0.129848</v>
+        <v>0.128457</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0229507</v>
+        <v>0.0231528</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0244914</v>
+        <v>0.0248322</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.038154</v>
+        <v>0.0384896</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0390841</v>
+        <v>0.0375882</v>
       </c>
       <c r="D4" t="n">
-        <v>0.135196</v>
+        <v>0.134174</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0233655</v>
+        <v>0.0233244</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0247901</v>
+        <v>0.0248338</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04336</v>
+        <v>0.0430174</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0434304</v>
+        <v>0.0430431</v>
       </c>
       <c r="D5" t="n">
-        <v>0.141641</v>
+        <v>0.139274</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0226939</v>
+        <v>0.0226111</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0247634</v>
+        <v>0.0246771</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.054558</v>
+        <v>0.0551571</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0560329</v>
+        <v>0.0526216</v>
       </c>
       <c r="D6" t="n">
-        <v>0.147204</v>
+        <v>0.144342</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0226664</v>
+        <v>0.0228153</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0248719</v>
+        <v>0.0252747</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07381500000000001</v>
+        <v>0.07610840000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07446120000000001</v>
+        <v>0.0809372</v>
       </c>
       <c r="D7" t="n">
-        <v>0.102324</v>
+        <v>0.103014</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0275706</v>
+        <v>0.0278296</v>
       </c>
       <c r="F7" t="n">
-        <v>0.030011</v>
+        <v>0.0338863</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.109194</v>
+        <v>0.103785</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107873</v>
+        <v>0.107349</v>
       </c>
       <c r="D8" t="n">
-        <v>0.108291</v>
+        <v>0.108709</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0473565</v>
+        <v>0.0468848</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0473742</v>
+        <v>0.0504229</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149446</v>
+        <v>0.15304</v>
       </c>
       <c r="C9" t="n">
-        <v>0.150742</v>
+        <v>0.154272</v>
       </c>
       <c r="D9" t="n">
-        <v>0.113005</v>
+        <v>0.112908</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0231262</v>
+        <v>0.0231027</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0240603</v>
+        <v>0.0241533</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.032552</v>
+        <v>0.0329619</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0328577</v>
+        <v>0.0323551</v>
       </c>
       <c r="D10" t="n">
-        <v>0.117989</v>
+        <v>0.117977</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0231962</v>
+        <v>0.0232282</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0243712</v>
+        <v>0.0244835</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0329249</v>
+        <v>0.0330406</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0334608</v>
+        <v>0.032925</v>
       </c>
       <c r="D11" t="n">
-        <v>0.122513</v>
+        <v>0.122417</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0233259</v>
+        <v>0.0233667</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0245053</v>
+        <v>0.0247649</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0334537</v>
+        <v>0.033152</v>
       </c>
       <c r="C12" t="n">
-        <v>0.034291</v>
+        <v>0.033782</v>
       </c>
       <c r="D12" t="n">
-        <v>0.127146</v>
+        <v>0.127699</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02341</v>
+        <v>0.023569</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0246881</v>
+        <v>0.0248478</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0339396</v>
+        <v>0.0340214</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0350204</v>
+        <v>0.0343864</v>
       </c>
       <c r="D13" t="n">
-        <v>0.131539</v>
+        <v>0.131375</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0234924</v>
+        <v>0.0237759</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0249819</v>
+        <v>0.0254316</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0345523</v>
+        <v>0.0346655</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0356719</v>
+        <v>0.0355315</v>
       </c>
       <c r="D14" t="n">
-        <v>0.136357</v>
+        <v>0.13642</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0236261</v>
+        <v>0.0236763</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0251911</v>
+        <v>0.0256948</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0355651</v>
+        <v>0.0356755</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0368261</v>
+        <v>0.0371238</v>
       </c>
       <c r="D15" t="n">
-        <v>0.140714</v>
+        <v>0.140659</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02388</v>
+        <v>0.0239409</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0256183</v>
+        <v>0.0258802</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0366962</v>
+        <v>0.0366758</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0382027</v>
+        <v>0.0384217</v>
       </c>
       <c r="D16" t="n">
-        <v>0.145559</v>
+        <v>0.145444</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0241891</v>
+        <v>0.0240345</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0259388</v>
+        <v>0.0263981</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0390298</v>
+        <v>0.0384051</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0401949</v>
+        <v>0.0402385</v>
       </c>
       <c r="D17" t="n">
-        <v>0.15078</v>
+        <v>0.150417</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0244915</v>
+        <v>0.0246577</v>
       </c>
       <c r="F17" t="n">
-        <v>0.026537</v>
+        <v>0.0269805</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0417954</v>
+        <v>0.041849</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0441479</v>
+        <v>0.0441843</v>
       </c>
       <c r="D18" t="n">
-        <v>0.155313</v>
+        <v>0.155542</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0244504</v>
+        <v>0.0246337</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0265096</v>
+        <v>0.02745</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0488517</v>
+        <v>0.0483676</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0513865</v>
+        <v>0.0509641</v>
       </c>
       <c r="D19" t="n">
-        <v>0.160113</v>
+        <v>0.160344</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0233572</v>
+        <v>0.0239427</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0274931</v>
+        <v>0.0296524</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0605692</v>
+        <v>0.060251</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0600591</v>
+        <v>0.06434280000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.164311</v>
+        <v>0.164395</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0288401</v>
+        <v>0.0289548</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0306518</v>
+        <v>0.0352787</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0736419</v>
+        <v>0.0770006</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0756648</v>
+        <v>0.0785767</v>
       </c>
       <c r="D21" t="n">
-        <v>0.117844</v>
+        <v>0.117933</v>
       </c>
       <c r="E21" t="n">
-        <v>0.038215</v>
+        <v>0.0380188</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0395654</v>
+        <v>0.0447237</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0983422</v>
+        <v>0.106191</v>
       </c>
       <c r="C22" t="n">
-        <v>0.100233</v>
+        <v>0.102064</v>
       </c>
       <c r="D22" t="n">
-        <v>0.122322</v>
+        <v>0.12234</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0565658</v>
+        <v>0.0565923</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0571285</v>
+        <v>0.0602048</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.133257</v>
+        <v>0.140936</v>
       </c>
       <c r="C23" t="n">
-        <v>0.134368</v>
+        <v>0.13912</v>
       </c>
       <c r="D23" t="n">
-        <v>0.126395</v>
+        <v>0.126079</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0239327</v>
+        <v>0.0239443</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0255683</v>
+        <v>0.0258924</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0339318</v>
+        <v>0.0337639</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0363083</v>
+        <v>0.0353587</v>
       </c>
       <c r="D24" t="n">
-        <v>0.132258</v>
+        <v>0.132009</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0243093</v>
+        <v>0.024241</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0261155</v>
+        <v>0.026169</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0341037</v>
+        <v>0.0342255</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0373359</v>
+        <v>0.0361663</v>
       </c>
       <c r="D25" t="n">
-        <v>0.136055</v>
+        <v>0.135936</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0245269</v>
+        <v>0.0244846</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0266371</v>
+        <v>0.0264643</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0352243</v>
+        <v>0.0349615</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0381695</v>
+        <v>0.037083</v>
       </c>
       <c r="D26" t="n">
-        <v>0.140646</v>
+        <v>0.140143</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0246878</v>
+        <v>0.0245386</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0269169</v>
+        <v>0.0268678</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.035719</v>
+        <v>0.0351755</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0393493</v>
+        <v>0.0382444</v>
       </c>
       <c r="D27" t="n">
-        <v>0.145344</v>
+        <v>0.144975</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0249921</v>
+        <v>0.0249476</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0274696</v>
+        <v>0.0274266</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0366816</v>
+        <v>0.0366181</v>
       </c>
       <c r="C28" t="n">
-        <v>0.040177</v>
+        <v>0.0391608</v>
       </c>
       <c r="D28" t="n">
-        <v>0.150062</v>
+        <v>0.149887</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0253287</v>
+        <v>0.0252445</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0281886</v>
+        <v>0.0279136</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0377004</v>
+        <v>0.0377382</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0416691</v>
+        <v>0.0405224</v>
       </c>
       <c r="D29" t="n">
-        <v>0.154819</v>
+        <v>0.154768</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0260174</v>
+        <v>0.0258641</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0289442</v>
+        <v>0.02863</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0395922</v>
+        <v>0.0392398</v>
       </c>
       <c r="C30" t="n">
-        <v>0.043767</v>
+        <v>0.0423422</v>
       </c>
       <c r="D30" t="n">
-        <v>0.158988</v>
+        <v>0.158773</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0262695</v>
+        <v>0.0261975</v>
       </c>
       <c r="F30" t="n">
-        <v>0.029764</v>
+        <v>0.0291583</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0419233</v>
+        <v>0.0417587</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0456489</v>
+        <v>0.0449763</v>
       </c>
       <c r="D31" t="n">
-        <v>0.162974</v>
+        <v>0.163253</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0271183</v>
+        <v>0.0268001</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0307693</v>
+        <v>0.0303281</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0458673</v>
+        <v>0.0459094</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0499805</v>
+        <v>0.0495771</v>
       </c>
       <c r="D32" t="n">
-        <v>0.167355</v>
+        <v>0.167413</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0278102</v>
+        <v>0.0274737</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0316271</v>
+        <v>0.0312491</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0515528</v>
+        <v>0.0531881</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0543829</v>
+        <v>0.0548449</v>
       </c>
       <c r="D33" t="n">
-        <v>0.171783</v>
+        <v>0.172169</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0290456</v>
+        <v>0.0287526</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0329488</v>
+        <v>0.033916</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0615895</v>
+        <v>0.06405470000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0653995</v>
+        <v>0.0659609</v>
       </c>
       <c r="D34" t="n">
-        <v>0.176684</v>
+        <v>0.176295</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0336418</v>
+        <v>0.033531</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0374041</v>
+        <v>0.0410207</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0741773</v>
+        <v>0.0776915</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0764946</v>
+        <v>0.0794353</v>
       </c>
       <c r="D35" t="n">
-        <v>0.123533</v>
+        <v>0.123616</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0420991</v>
+        <v>0.0419155</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0447693</v>
+        <v>0.0486837</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0960526</v>
+        <v>0.09570480000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0965428</v>
+        <v>0.0986322</v>
       </c>
       <c r="D36" t="n">
-        <v>0.128016</v>
+        <v>0.12822</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0534803</v>
+        <v>0.0534068</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0552296</v>
+        <v>0.0581524</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.127744</v>
+        <v>0.133822</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128643</v>
+        <v>0.13459</v>
       </c>
       <c r="D37" t="n">
-        <v>0.132638</v>
+        <v>0.132511</v>
       </c>
       <c r="E37" t="n">
-        <v>0.024977</v>
+        <v>0.0247222</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0281918</v>
+        <v>0.027356</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0345555</v>
+        <v>0.0339702</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0384711</v>
+        <v>0.0384562</v>
       </c>
       <c r="D38" t="n">
-        <v>0.137448</v>
+        <v>0.137579</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0258426</v>
+        <v>0.0251769</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0287058</v>
+        <v>0.0278723</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0349775</v>
+        <v>0.034686</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0391501</v>
+        <v>0.0391218</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1422</v>
+        <v>0.14223</v>
       </c>
       <c r="E39" t="n">
-        <v>0.025665</v>
+        <v>0.0254323</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0291041</v>
+        <v>0.0282927</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0357712</v>
+        <v>0.035563</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0400078</v>
+        <v>0.0399685</v>
       </c>
       <c r="D40" t="n">
-        <v>0.146683</v>
+        <v>0.146727</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0258632</v>
+        <v>0.0259299</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0297878</v>
+        <v>0.0287959</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0364866</v>
+        <v>0.0364082</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0409383</v>
+        <v>0.0409464</v>
       </c>
       <c r="D41" t="n">
-        <v>0.151698</v>
+        <v>0.151825</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0266969</v>
+        <v>0.0259051</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0300385</v>
+        <v>0.0292741</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0375338</v>
+        <v>0.0376752</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0419667</v>
+        <v>0.0419768</v>
       </c>
       <c r="D42" t="n">
-        <v>0.156332</v>
+        <v>0.156431</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0267039</v>
+        <v>0.0264632</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0305407</v>
+        <v>0.0300728</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0388884</v>
+        <v>0.0387537</v>
       </c>
       <c r="C43" t="n">
-        <v>0.04315</v>
+        <v>0.0434579</v>
       </c>
       <c r="D43" t="n">
-        <v>0.160845</v>
+        <v>0.160876</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0272508</v>
+        <v>0.0270359</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0313296</v>
+        <v>0.0310225</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0404813</v>
+        <v>0.0405431</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0449929</v>
+        <v>0.0451055</v>
       </c>
       <c r="D44" t="n">
-        <v>0.164904</v>
+        <v>0.16509</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0279926</v>
+        <v>0.0277705</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0321164</v>
+        <v>0.0321169</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0432788</v>
+        <v>0.0434731</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0473792</v>
+        <v>0.0475091</v>
       </c>
       <c r="D45" t="n">
-        <v>0.168921</v>
+        <v>0.16916</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0290518</v>
+        <v>0.0287798</v>
       </c>
       <c r="F45" t="n">
-        <v>0.033025</v>
+        <v>0.0335581</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0467234</v>
+        <v>0.0471967</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0509469</v>
+        <v>0.0510341</v>
       </c>
       <c r="D46" t="n">
-        <v>0.172883</v>
+        <v>0.172903</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0306255</v>
+        <v>0.0303885</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0347481</v>
+        <v>0.0359925</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0523072</v>
+        <v>0.052754</v>
       </c>
       <c r="C47" t="n">
-        <v>0.056189</v>
+        <v>0.0557573</v>
       </c>
       <c r="D47" t="n">
-        <v>0.177128</v>
+        <v>0.177254</v>
       </c>
       <c r="E47" t="n">
-        <v>0.032751</v>
+        <v>0.03247</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0368146</v>
+        <v>0.0389553</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0607577</v>
+        <v>0.0607066</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0633</v>
+        <v>0.06322</v>
       </c>
       <c r="D48" t="n">
-        <v>0.181627</v>
+        <v>0.181688</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0368514</v>
+        <v>0.0368216</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0405647</v>
+        <v>0.0439291</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07491589999999999</v>
+        <v>0.07277409999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07678020000000001</v>
+        <v>0.0752467</v>
       </c>
       <c r="D49" t="n">
-        <v>0.185856</v>
+        <v>0.186105</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0423548</v>
+        <v>0.0423055</v>
       </c>
       <c r="F49" t="n">
-        <v>0.045496</v>
+        <v>0.0492957</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.092198</v>
+        <v>0.08926820000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09200319999999999</v>
+        <v>0.0906076</v>
       </c>
       <c r="D50" t="n">
-        <v>0.130946</v>
+        <v>0.131136</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0505694</v>
+        <v>0.0505399</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0528637</v>
+        <v>0.0562653</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.121941</v>
+        <v>0.116488</v>
       </c>
       <c r="C51" t="n">
-        <v>0.122822</v>
+        <v>0.117819</v>
       </c>
       <c r="D51" t="n">
-        <v>0.135568</v>
+        <v>0.135758</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0270489</v>
+        <v>0.0268102</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0310275</v>
+        <v>0.0304976</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168356</v>
+        <v>0.163782</v>
       </c>
       <c r="C52" t="n">
-        <v>0.16829</v>
+        <v>0.163476</v>
       </c>
       <c r="D52" t="n">
-        <v>0.140394</v>
+        <v>0.140416</v>
       </c>
       <c r="E52" t="n">
-        <v>0.027341</v>
+        <v>0.0268435</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0314872</v>
+        <v>0.0304805</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0362492</v>
+        <v>0.0358175</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0416759</v>
+        <v>0.0409842</v>
       </c>
       <c r="D53" t="n">
-        <v>0.145253</v>
+        <v>0.145417</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0272949</v>
+        <v>0.0271669</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0319846</v>
+        <v>0.0309494</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0375752</v>
+        <v>0.0365809</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0424701</v>
+        <v>0.0416678</v>
       </c>
       <c r="D54" t="n">
-        <v>0.150056</v>
+        <v>0.150203</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0276226</v>
+        <v>0.0276685</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0323452</v>
+        <v>0.0316566</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0377571</v>
+        <v>0.0374265</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0436248</v>
+        <v>0.0428099</v>
       </c>
       <c r="D55" t="n">
-        <v>0.154728</v>
+        <v>0.154929</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0280107</v>
+        <v>0.0277645</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0328141</v>
+        <v>0.0333197</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0389485</v>
+        <v>0.0383881</v>
       </c>
       <c r="C56" t="n">
-        <v>0.044634</v>
+        <v>0.0438673</v>
       </c>
       <c r="D56" t="n">
-        <v>0.159053</v>
+        <v>0.159354</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0286917</v>
+        <v>0.0283989</v>
       </c>
       <c r="F56" t="n">
-        <v>0.033767</v>
+        <v>0.0330768</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0400833</v>
+        <v>0.0396819</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0462</v>
+        <v>0.0452498</v>
       </c>
       <c r="D57" t="n">
-        <v>0.163474</v>
+        <v>0.164102</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0289888</v>
+        <v>0.0289537</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0344056</v>
+        <v>0.0341172</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0420264</v>
+        <v>0.0414925</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0479444</v>
+        <v>0.046996</v>
       </c>
       <c r="D58" t="n">
-        <v>0.167609</v>
+        <v>0.168021</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0299194</v>
+        <v>0.0303431</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0347237</v>
+        <v>0.0356083</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.044539</v>
+        <v>0.0452286</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0502529</v>
+        <v>0.0498518</v>
       </c>
       <c r="D59" t="n">
-        <v>0.171614</v>
+        <v>0.172095</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0309603</v>
+        <v>0.0310944</v>
       </c>
       <c r="F59" t="n">
-        <v>0.036286</v>
+        <v>0.0367326</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0485076</v>
+        <v>0.0487649</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0537829</v>
+        <v>0.0530415</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175334</v>
+        <v>0.175867</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0332292</v>
+        <v>0.0326821</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0376224</v>
+        <v>0.0386915</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0530778</v>
+        <v>0.0533649</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0574154</v>
+        <v>0.0582719</v>
       </c>
       <c r="D61" t="n">
-        <v>0.179823</v>
+        <v>0.180275</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0346515</v>
+        <v>0.0347539</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0395309</v>
+        <v>0.0423098</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0608604</v>
+        <v>0.0611245</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06471159999999999</v>
+        <v>0.0658527</v>
       </c>
       <c r="D62" t="n">
-        <v>0.183857</v>
+        <v>0.184307</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0377483</v>
+        <v>0.0377924</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0431797</v>
+        <v>0.0462109</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07218810000000001</v>
+        <v>0.07237109999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0754195</v>
+        <v>0.0760776</v>
       </c>
       <c r="D63" t="n">
-        <v>0.188718</v>
+        <v>0.189296</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0426882</v>
+        <v>0.0427128</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0474503</v>
+        <v>0.0511279</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08919580000000001</v>
+        <v>0.0888544</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09176140000000001</v>
+        <v>0.0920164</v>
       </c>
       <c r="D64" t="n">
-        <v>0.136911</v>
+        <v>0.138082</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0503151</v>
+        <v>0.0505909</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0544214</v>
+        <v>0.0585362</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115525</v>
+        <v>0.114967</v>
       </c>
       <c r="C65" t="n">
-        <v>0.118153</v>
+        <v>0.11641</v>
       </c>
       <c r="D65" t="n">
-        <v>0.141696</v>
+        <v>0.144176</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0643695</v>
+        <v>0.0643794</v>
       </c>
       <c r="F65" t="n">
-        <v>0.06736839999999999</v>
+        <v>0.0693054</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.155519</v>
+        <v>0.155576</v>
       </c>
       <c r="C66" t="n">
-        <v>0.157144</v>
+        <v>0.156816</v>
       </c>
       <c r="D66" t="n">
-        <v>0.149161</v>
+        <v>0.152053</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0322464</v>
+        <v>0.0322944</v>
       </c>
       <c r="F66" t="n">
-        <v>0.037724</v>
+        <v>0.0380055</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0411249</v>
+        <v>0.041149</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0488595</v>
+        <v>0.0484557</v>
       </c>
       <c r="D67" t="n">
-        <v>0.156737</v>
+        <v>0.158969</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0324623</v>
+        <v>0.0324378</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0383203</v>
+        <v>0.038718</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.041816</v>
+        <v>0.0420881</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0500683</v>
+        <v>0.0496609</v>
       </c>
       <c r="D68" t="n">
-        <v>0.163753</v>
+        <v>0.167512</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0333061</v>
+        <v>0.0327967</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0389353</v>
+        <v>0.0394037</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0426875</v>
+        <v>0.0422012</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0511458</v>
+        <v>0.0507559</v>
       </c>
       <c r="D69" t="n">
-        <v>0.171609</v>
+        <v>0.175611</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0339066</v>
+        <v>0.0333733</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0396546</v>
+        <v>0.0400602</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.043761</v>
+        <v>0.043446</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0526254</v>
+        <v>0.0522583</v>
       </c>
       <c r="D70" t="n">
-        <v>0.180931</v>
+        <v>0.183622</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0336322</v>
+        <v>0.0335905</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0404416</v>
+        <v>0.0410307</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0448898</v>
+        <v>0.0451285</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0543111</v>
+        <v>0.053801</v>
       </c>
       <c r="D71" t="n">
-        <v>0.189892</v>
+        <v>0.194775</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0341404</v>
+        <v>0.0343641</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0415985</v>
+        <v>0.0417367</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0469225</v>
+        <v>0.0467961</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0562397</v>
+        <v>0.0560337</v>
       </c>
       <c r="D72" t="n">
-        <v>0.200649</v>
+        <v>0.204084</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0349033</v>
+        <v>0.0351234</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0426832</v>
+        <v>0.0430513</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0493033</v>
+        <v>0.0491199</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0587358</v>
+        <v>0.0586077</v>
       </c>
       <c r="D73" t="n">
-        <v>0.211778</v>
+        <v>0.214247</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0360046</v>
+        <v>0.0361068</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0439003</v>
+        <v>0.0445403</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.052409</v>
+        <v>0.0521017</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0620827</v>
+        <v>0.0624283</v>
       </c>
       <c r="D74" t="n">
-        <v>0.224218</v>
+        <v>0.224956</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0376331</v>
+        <v>0.0372189</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0451039</v>
+        <v>0.0457228</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0574505</v>
+        <v>0.0567959</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0677808</v>
+        <v>0.0681913</v>
       </c>
       <c r="D75" t="n">
-        <v>0.235716</v>
+        <v>0.236098</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0388925</v>
+        <v>0.0393928</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0471632</v>
+        <v>0.0494728</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06421259999999999</v>
+        <v>0.0638454</v>
       </c>
       <c r="C76" t="n">
-        <v>0.07507369999999999</v>
+        <v>0.0757955</v>
       </c>
       <c r="D76" t="n">
-        <v>0.24863</v>
+        <v>0.250018</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0418223</v>
+        <v>0.0417576</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0500193</v>
+        <v>0.0534122</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0744599</v>
+        <v>0.0743983</v>
       </c>
       <c r="C77" t="n">
-        <v>0.08565399999999999</v>
+        <v>0.08655889999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.262882</v>
+        <v>0.263121</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0460666</v>
+        <v>0.0461459</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0540069</v>
+        <v>0.0588711</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08953079999999999</v>
+        <v>0.0902126</v>
       </c>
       <c r="C78" t="n">
-        <v>0.101571</v>
+        <v>0.104362</v>
       </c>
       <c r="D78" t="n">
-        <v>0.218082</v>
+        <v>0.218703</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0525608</v>
+        <v>0.0529942</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0602975</v>
+        <v>0.0666725</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.11295</v>
+        <v>0.114415</v>
       </c>
       <c r="C79" t="n">
-        <v>0.127293</v>
+        <v>0.134057</v>
       </c>
       <c r="D79" t="n">
-        <v>0.230168</v>
+        <v>0.231455</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06416040000000001</v>
+        <v>0.0652539</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0719224</v>
+        <v>0.0768879</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.15114</v>
+        <v>0.153311</v>
       </c>
       <c r="C80" t="n">
-        <v>0.174359</v>
+        <v>0.176239</v>
       </c>
       <c r="D80" t="n">
-        <v>0.243216</v>
+        <v>0.243229</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0363684</v>
+        <v>0.0363321</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0431904</v>
+        <v>0.043977</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0466257</v>
+        <v>0.0475894</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0579315</v>
+        <v>0.0612081</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2557</v>
+        <v>0.255092</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0365743</v>
+        <v>0.036939</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0439111</v>
+        <v>0.0451769</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0473323</v>
+        <v>0.0486945</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0606254</v>
+        <v>0.0645535</v>
       </c>
       <c r="D82" t="n">
-        <v>0.268533</v>
+        <v>0.268811</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0370347</v>
+        <v>0.0375206</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0447455</v>
+        <v>0.0464082</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0483264</v>
+        <v>0.0508542</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0633982</v>
+        <v>0.0690513</v>
       </c>
       <c r="D83" t="n">
-        <v>0.282172</v>
+        <v>0.281753</v>
       </c>
       <c r="E83" t="n">
-        <v>0.037522</v>
+        <v>0.0381856</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0457813</v>
+        <v>0.0480834</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0494751</v>
+        <v>0.0522401</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0670743</v>
+        <v>0.07378800000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.295513</v>
+        <v>0.294635</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0380669</v>
+        <v>0.0392222</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0467358</v>
+        <v>0.0503035</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0510321</v>
+        <v>0.0551079</v>
       </c>
       <c r="C85" t="n">
-        <v>0.072922</v>
+        <v>0.0796462</v>
       </c>
       <c r="D85" t="n">
-        <v>0.309036</v>
+        <v>0.308587</v>
       </c>
       <c r="E85" t="n">
-        <v>0.038708</v>
+        <v>0.0404659</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0483854</v>
+        <v>0.0532246</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0530289</v>
+        <v>0.0582201</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0787556</v>
+        <v>0.0858714</v>
       </c>
       <c r="D86" t="n">
-        <v>0.322653</v>
+        <v>0.322107</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0395915</v>
+        <v>0.0417368</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0503073</v>
+        <v>0.0562621</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0560559</v>
+        <v>0.0622932</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0872082</v>
+        <v>0.0931448</v>
       </c>
       <c r="D87" t="n">
-        <v>0.337187</v>
+        <v>0.336552</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0405094</v>
+        <v>0.0438665</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0523767</v>
+        <v>0.0602948</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0600811</v>
+        <v>0.06809270000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0964911</v>
+        <v>0.102131</v>
       </c>
       <c r="D88" t="n">
-        <v>0.351317</v>
+        <v>0.351023</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0423467</v>
+        <v>0.046319</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0566651</v>
+        <v>0.06518640000000001</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0656162</v>
+        <v>0.0745956</v>
       </c>
       <c r="C89" t="n">
-        <v>0.109075</v>
+        <v>0.112656</v>
       </c>
       <c r="D89" t="n">
-        <v>0.367287</v>
+        <v>0.366909</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0443805</v>
+        <v>0.0492381</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0607589</v>
+        <v>0.0711354</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.07423109999999999</v>
+        <v>0.0827459</v>
       </c>
       <c r="C90" t="n">
-        <v>0.124753</v>
+        <v>0.124162</v>
       </c>
       <c r="D90" t="n">
-        <v>0.383689</v>
+        <v>0.382541</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0475864</v>
+        <v>0.053981</v>
       </c>
       <c r="F90" t="n">
-        <v>0.067719</v>
+        <v>0.080122</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0856778</v>
+        <v>0.09368990000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.143857</v>
+        <v>0.13982</v>
       </c>
       <c r="D91" t="n">
-        <v>0.400276</v>
+        <v>0.399706</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0529053</v>
+        <v>0.0599391</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0765473</v>
+        <v>0.0870808</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.101387</v>
+        <v>0.109093</v>
       </c>
       <c r="C92" t="n">
-        <v>0.166796</v>
+        <v>0.161056</v>
       </c>
       <c r="D92" t="n">
-        <v>0.324477</v>
+        <v>0.323164</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0611469</v>
+        <v>0.06787260000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0887196</v>
+        <v>0.0986802</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.126156</v>
+        <v>0.130732</v>
       </c>
       <c r="C93" t="n">
-        <v>0.198046</v>
+        <v>0.192501</v>
       </c>
       <c r="D93" t="n">
-        <v>0.335551</v>
+        <v>0.334077</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0733361</v>
+        <v>0.0794817</v>
       </c>
       <c r="F93" t="n">
-        <v>0.108132</v>
+        <v>0.11254</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.162781</v>
+        <v>0.164462</v>
       </c>
       <c r="C94" t="n">
-        <v>0.238109</v>
+        <v>0.232724</v>
       </c>
       <c r="D94" t="n">
-        <v>0.346617</v>
+        <v>0.345304</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0404837</v>
+        <v>0.0461077</v>
       </c>
       <c r="F94" t="n">
-        <v>0.05603</v>
+        <v>0.06406630000000001</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0582842</v>
+        <v>0.0663169</v>
       </c>
       <c r="C95" t="n">
-        <v>0.103993</v>
+        <v>0.100487</v>
       </c>
       <c r="D95" t="n">
-        <v>0.357921</v>
+        <v>0.357007</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0418234</v>
+        <v>0.0479411</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0598909</v>
+        <v>0.06680510000000001</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0621499</v>
+        <v>0.0690755</v>
       </c>
       <c r="C96" t="n">
-        <v>0.112616</v>
+        <v>0.105425</v>
       </c>
       <c r="D96" t="n">
-        <v>0.369947</v>
+        <v>0.368779</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0432125</v>
+        <v>0.0494676</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0639019</v>
+        <v>0.0702516</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0656717</v>
+        <v>0.0719154</v>
       </c>
       <c r="C97" t="n">
-        <v>0.121545</v>
+        <v>0.110748</v>
       </c>
       <c r="D97" t="n">
-        <v>0.381972</v>
+        <v>0.380865</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0452969</v>
+        <v>0.0517059</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06967909999999999</v>
+        <v>0.07334549999999999</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07077360000000001</v>
+        <v>0.0743757</v>
       </c>
       <c r="C98" t="n">
-        <v>0.129827</v>
+        <v>0.116895</v>
       </c>
       <c r="D98" t="n">
-        <v>0.39408</v>
+        <v>0.392508</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0472002</v>
+        <v>0.053756</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0753253</v>
+        <v>0.0762253</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0750851</v>
+        <v>0.0769416</v>
       </c>
       <c r="C99" t="n">
-        <v>0.137541</v>
+        <v>0.123678</v>
       </c>
       <c r="D99" t="n">
-        <v>0.406904</v>
+        <v>0.405664</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0498371</v>
+        <v>0.0557131</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0817509</v>
+        <v>0.0799694</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0814358</v>
+        <v>0.08033940000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.144738</v>
+        <v>0.132433</v>
       </c>
       <c r="D100" t="n">
-        <v>0.420455</v>
+        <v>0.41896</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0539428</v>
+        <v>0.0574345</v>
       </c>
       <c r="F100" t="n">
-        <v>0.08842129999999999</v>
+        <v>0.08308550000000001</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08762499999999999</v>
+        <v>0.0841717</v>
       </c>
       <c r="C101" t="n">
-        <v>0.152385</v>
+        <v>0.141918</v>
       </c>
       <c r="D101" t="n">
-        <v>0.434151</v>
+        <v>0.432954</v>
       </c>
       <c r="E101" t="n">
-        <v>0.057591</v>
+        <v>0.0596371</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0950384</v>
+        <v>0.0872933</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0942996</v>
+        <v>0.08868230000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.16129</v>
+        <v>0.152287</v>
       </c>
       <c r="D102" t="n">
-        <v>0.448883</v>
+        <v>0.447787</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0617552</v>
+        <v>0.0610641</v>
       </c>
       <c r="F102" t="n">
-        <v>0.101979</v>
+        <v>0.0913828</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.10196</v>
+        <v>0.09474109999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.170124</v>
+        <v>0.163813</v>
       </c>
       <c r="D103" t="n">
-        <v>0.464004</v>
+        <v>0.462466</v>
       </c>
       <c r="E103" t="n">
-        <v>0.06647069999999999</v>
+        <v>0.0645018</v>
       </c>
       <c r="F103" t="n">
-        <v>0.109255</v>
+        <v>0.0986163</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.111007</v>
+        <v>0.102628</v>
       </c>
       <c r="C104" t="n">
-        <v>0.181851</v>
+        <v>0.176243</v>
       </c>
       <c r="D104" t="n">
-        <v>0.479884</v>
+        <v>0.478643</v>
       </c>
       <c r="E104" t="n">
-        <v>0.07179430000000001</v>
+        <v>0.0682783</v>
       </c>
       <c r="F104" t="n">
-        <v>0.116627</v>
+        <v>0.107338</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.122074</v>
+        <v>0.113502</v>
       </c>
       <c r="C105" t="n">
-        <v>0.19616</v>
+        <v>0.191651</v>
       </c>
       <c r="D105" t="n">
-        <v>0.496684</v>
+        <v>0.495021</v>
       </c>
       <c r="E105" t="n">
-        <v>0.07849639999999999</v>
+        <v>0.073389</v>
       </c>
       <c r="F105" t="n">
-        <v>0.125328</v>
+        <v>0.118446</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.136138</v>
+        <v>0.128417</v>
       </c>
       <c r="C106" t="n">
-        <v>0.214936</v>
+        <v>0.211295</v>
       </c>
       <c r="D106" t="n">
-        <v>0.514072</v>
+        <v>0.51239</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0867549</v>
+        <v>0.0806772</v>
       </c>
       <c r="F106" t="n">
-        <v>0.136601</v>
+        <v>0.131401</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.155647</v>
+        <v>0.149388</v>
       </c>
       <c r="C107" t="n">
-        <v>0.240247</v>
+        <v>0.237023</v>
       </c>
       <c r="D107" t="n">
-        <v>0.389395</v>
+        <v>0.387833</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0987097</v>
+        <v>0.0924519</v>
       </c>
       <c r="F107" t="n">
-        <v>0.151923</v>
+        <v>0.148508</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.184083</v>
+        <v>0.179497</v>
       </c>
       <c r="C108" t="n">
-        <v>0.277515</v>
+        <v>0.275996</v>
       </c>
       <c r="D108" t="n">
-        <v>0.400285</v>
+        <v>0.398104</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0603556</v>
+        <v>0.0543488</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0924412</v>
+        <v>0.0792916</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.230755</v>
+        <v>0.22745</v>
       </c>
       <c r="C109" t="n">
-        <v>0.33941</v>
+        <v>0.33606</v>
       </c>
       <c r="D109" t="n">
-        <v>0.411355</v>
+        <v>0.409368</v>
       </c>
       <c r="E109" t="n">
-        <v>0.062429</v>
+        <v>0.0558437</v>
       </c>
       <c r="F109" t="n">
-        <v>0.09611939999999999</v>
+        <v>0.0832225</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0916019</v>
+        <v>0.08151659999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.145438</v>
+        <v>0.141409</v>
       </c>
       <c r="D110" t="n">
-        <v>0.422865</v>
+        <v>0.420566</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0643434</v>
+        <v>0.0569137</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0986027</v>
+        <v>0.0870153</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0939555</v>
+        <v>0.0834862</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1499</v>
+        <v>0.146989</v>
       </c>
       <c r="D111" t="n">
-        <v>0.434354</v>
+        <v>0.431947</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0660713</v>
+        <v>0.0583412</v>
       </c>
       <c r="F111" t="n">
-        <v>0.101735</v>
+        <v>0.09137919999999999</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0968122</v>
+        <v>0.0869936</v>
       </c>
       <c r="C112" t="n">
-        <v>0.15454</v>
+        <v>0.152375</v>
       </c>
       <c r="D112" t="n">
-        <v>0.446138</v>
+        <v>0.443753</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0678715</v>
+        <v>0.0596227</v>
       </c>
       <c r="F112" t="n">
-        <v>0.104984</v>
+        <v>0.0962324</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0997735</v>
+        <v>0.09209970000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.159905</v>
+        <v>0.157981</v>
       </c>
       <c r="D113" t="n">
-        <v>0.458167</v>
+        <v>0.456241</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0699405</v>
+        <v>0.0620655</v>
       </c>
       <c r="F113" t="n">
-        <v>0.108175</v>
+        <v>0.102772</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.102991</v>
+        <v>0.09764780000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.165139</v>
+        <v>0.163887</v>
       </c>
       <c r="D114" t="n">
-        <v>0.47107</v>
+        <v>0.468477</v>
       </c>
       <c r="E114" t="n">
-        <v>0.07189329999999999</v>
+        <v>0.0653789</v>
       </c>
       <c r="F114" t="n">
-        <v>0.111871</v>
+        <v>0.108496</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.106541</v>
+        <v>0.103412</v>
       </c>
       <c r="C115" t="n">
-        <v>0.171314</v>
+        <v>0.170657</v>
       </c>
       <c r="D115" t="n">
-        <v>0.484257</v>
+        <v>0.481392</v>
       </c>
       <c r="E115" t="n">
-        <v>0.074279</v>
+        <v>0.069864</v>
       </c>
       <c r="F115" t="n">
-        <v>0.115764</v>
+        <v>0.114192</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.111373</v>
+        <v>0.109538</v>
       </c>
       <c r="C116" t="n">
-        <v>0.178555</v>
+        <v>0.177768</v>
       </c>
       <c r="D116" t="n">
-        <v>0.498504</v>
+        <v>0.49607</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0772978</v>
+        <v>0.0747153</v>
       </c>
       <c r="F116" t="n">
-        <v>0.120353</v>
+        <v>0.119324</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.116706</v>
+        <v>0.115881</v>
       </c>
       <c r="C117" t="n">
-        <v>0.187287</v>
+        <v>0.186805</v>
       </c>
       <c r="D117" t="n">
-        <v>0.513014</v>
+        <v>0.510368</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0804907</v>
+        <v>0.0789489</v>
       </c>
       <c r="F117" t="n">
-        <v>0.125007</v>
+        <v>0.125297</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123954</v>
+        <v>0.123335</v>
       </c>
       <c r="C118" t="n">
-        <v>0.197596</v>
+        <v>0.197374</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5285260000000001</v>
+        <v>0.525789</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0837493</v>
+        <v>0.08278779999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>0.131239</v>
+        <v>0.132142</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.13334</v>
+        <v>0.132694</v>
       </c>
       <c r="C119" t="n">
-        <v>0.211616</v>
+        <v>0.211219</v>
       </c>
       <c r="D119" t="n">
-        <v>0.545637</v>
+        <v>0.542343</v>
       </c>
       <c r="E119" t="n">
-        <v>0.08944870000000001</v>
+        <v>0.0884622</v>
       </c>
       <c r="F119" t="n">
-        <v>0.138723</v>
+        <v>0.14048</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.146151</v>
+        <v>0.145268</v>
       </c>
       <c r="C120" t="n">
-        <v>0.230267</v>
+        <v>0.230542</v>
       </c>
       <c r="D120" t="n">
-        <v>0.562325</v>
+        <v>0.558806</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0964429</v>
+        <v>0.0952432</v>
       </c>
       <c r="F120" t="n">
-        <v>0.14896</v>
+        <v>0.150101</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163727</v>
+        <v>0.162876</v>
       </c>
       <c r="C121" t="n">
-        <v>0.255275</v>
+        <v>0.254193</v>
       </c>
       <c r="D121" t="n">
-        <v>0.417027</v>
+        <v>0.415147</v>
       </c>
       <c r="E121" t="n">
-        <v>0.106337</v>
+        <v>0.105523</v>
       </c>
       <c r="F121" t="n">
-        <v>0.163428</v>
+        <v>0.164978</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.18951</v>
+        <v>0.189213</v>
       </c>
       <c r="C122" t="n">
-        <v>0.292507</v>
+        <v>0.291925</v>
       </c>
       <c r="D122" t="n">
-        <v>0.427519</v>
+        <v>0.426484</v>
       </c>
       <c r="E122" t="n">
-        <v>0.122836</v>
+        <v>0.122141</v>
       </c>
       <c r="F122" t="n">
-        <v>0.185447</v>
+        <v>0.186428</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.231074</v>
+        <v>0.230726</v>
       </c>
       <c r="C123" t="n">
-        <v>0.351066</v>
+        <v>0.350295</v>
       </c>
       <c r="D123" t="n">
-        <v>0.439329</v>
+        <v>0.437171</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0735344</v>
+        <v>0.0731718</v>
       </c>
       <c r="F123" t="n">
-        <v>0.109617</v>
+        <v>0.113364</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103457</v>
+        <v>0.101796</v>
       </c>
       <c r="C124" t="n">
-        <v>0.16176</v>
+        <v>0.162423</v>
       </c>
       <c r="D124" t="n">
-        <v>0.450385</v>
+        <v>0.448583</v>
       </c>
       <c r="E124" t="n">
-        <v>0.077236</v>
+        <v>0.0743602</v>
       </c>
       <c r="F124" t="n">
-        <v>0.111277</v>
+        <v>0.111911</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.105636</v>
+        <v>0.105846</v>
       </c>
       <c r="C125" t="n">
-        <v>0.164716</v>
+        <v>0.166452</v>
       </c>
       <c r="D125" t="n">
-        <v>0.462706</v>
+        <v>0.460787</v>
       </c>
       <c r="E125" t="n">
-        <v>0.076297</v>
+        <v>0.0765849</v>
       </c>
       <c r="F125" t="n">
-        <v>0.116085</v>
+        <v>0.115139</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1069</v>
+        <v>0.10721</v>
       </c>
       <c r="C126" t="n">
-        <v>0.171382</v>
+        <v>0.171431</v>
       </c>
       <c r="D126" t="n">
-        <v>0.474504</v>
+        <v>0.472369</v>
       </c>
       <c r="E126" t="n">
-        <v>0.07881589999999999</v>
+        <v>0.0787931</v>
       </c>
       <c r="F126" t="n">
-        <v>0.120147</v>
+        <v>0.122289</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.109978</v>
+        <v>0.109226</v>
       </c>
       <c r="C127" t="n">
-        <v>0.175631</v>
+        <v>0.17816</v>
       </c>
       <c r="D127" t="n">
-        <v>0.48701</v>
+        <v>0.48464</v>
       </c>
       <c r="E127" t="n">
-        <v>0.082495</v>
+        <v>0.082384</v>
       </c>
       <c r="F127" t="n">
-        <v>0.124015</v>
+        <v>0.125038</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.112886</v>
+        <v>0.114351</v>
       </c>
       <c r="C128" t="n">
-        <v>0.181443</v>
+        <v>0.183166</v>
       </c>
       <c r="D128" t="n">
-        <v>0.500015</v>
+        <v>0.497392</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0821365</v>
+        <v>0.0825853</v>
       </c>
       <c r="F128" t="n">
-        <v>0.125744</v>
+        <v>0.126467</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116427</v>
+        <v>0.115864</v>
       </c>
       <c r="C129" t="n">
-        <v>0.187738</v>
+        <v>0.18749</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5124570000000001</v>
+        <v>0.510478</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0880956</v>
+        <v>0.08693099999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>0.132742</v>
+        <v>0.13165</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.120396</v>
+        <v>0.125124</v>
       </c>
       <c r="C130" t="n">
-        <v>0.19448</v>
+        <v>0.197123</v>
       </c>
       <c r="D130" t="n">
-        <v>0.526833</v>
+        <v>0.524506</v>
       </c>
       <c r="E130" t="n">
-        <v>0.08739189999999999</v>
+        <v>0.0878148</v>
       </c>
       <c r="F130" t="n">
-        <v>0.136239</v>
+        <v>0.135832</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.125761</v>
+        <v>0.12578</v>
       </c>
       <c r="C131" t="n">
-        <v>0.206197</v>
+        <v>0.203399</v>
       </c>
       <c r="D131" t="n">
-        <v>0.54176</v>
+        <v>0.539315</v>
       </c>
       <c r="E131" t="n">
-        <v>0.08930200000000001</v>
+        <v>0.0913168</v>
       </c>
       <c r="F131" t="n">
-        <v>0.139254</v>
+        <v>0.142609</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133089</v>
+        <v>0.132897</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213343</v>
+        <v>0.213767</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5573979999999999</v>
+        <v>0.554599</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0958908</v>
+        <v>0.092691</v>
       </c>
       <c r="F132" t="n">
-        <v>0.148218</v>
+        <v>0.146295</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.143073</v>
+        <v>0.141764</v>
       </c>
       <c r="C133" t="n">
-        <v>0.228109</v>
+        <v>0.22809</v>
       </c>
       <c r="D133" t="n">
-        <v>0.57328</v>
+        <v>0.570507</v>
       </c>
       <c r="E133" t="n">
-        <v>0.100923</v>
+        <v>0.0966235</v>
       </c>
       <c r="F133" t="n">
-        <v>0.155442</v>
+        <v>0.154332</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.153076</v>
+        <v>0.153117</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244207</v>
+        <v>0.243396</v>
       </c>
       <c r="D134" t="n">
-        <v>0.590647</v>
+        <v>0.587886</v>
       </c>
       <c r="E134" t="n">
-        <v>0.105043</v>
+        <v>0.104255</v>
       </c>
       <c r="F134" t="n">
-        <v>0.163022</v>
+        <v>0.166138</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.170265</v>
+        <v>0.170158</v>
       </c>
       <c r="C135" t="n">
-        <v>0.268003</v>
+        <v>0.267907</v>
       </c>
       <c r="D135" t="n">
-        <v>0.433963</v>
+        <v>0.431503</v>
       </c>
       <c r="E135" t="n">
-        <v>0.115874</v>
+        <v>0.114386</v>
       </c>
       <c r="F135" t="n">
-        <v>0.176948</v>
+        <v>0.179593</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194498</v>
+        <v>0.194918</v>
       </c>
       <c r="C136" t="n">
-        <v>0.302808</v>
+        <v>0.305279</v>
       </c>
       <c r="D136" t="n">
-        <v>0.445329</v>
+        <v>0.442948</v>
       </c>
       <c r="E136" t="n">
-        <v>0.131104</v>
+        <v>0.128664</v>
       </c>
       <c r="F136" t="n">
-        <v>0.198263</v>
+        <v>0.198806</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.233999</v>
+        <v>0.232452</v>
       </c>
       <c r="C137" t="n">
-        <v>0.359797</v>
+        <v>0.359897</v>
       </c>
       <c r="D137" t="n">
-        <v>0.456681</v>
+        <v>0.454191</v>
       </c>
       <c r="E137" t="n">
-        <v>0.140533</v>
+        <v>0.139025</v>
       </c>
       <c r="F137" t="n">
-        <v>0.17593</v>
+        <v>0.174519</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.169265</v>
+        <v>0.167407</v>
       </c>
       <c r="C138" t="n">
-        <v>0.227985</v>
+        <v>0.225224</v>
       </c>
       <c r="D138" t="n">
-        <v>0.468171</v>
+        <v>0.465999</v>
       </c>
       <c r="E138" t="n">
-        <v>0.140443</v>
+        <v>0.140329</v>
       </c>
       <c r="F138" t="n">
-        <v>0.178445</v>
+        <v>0.177771</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.170322</v>
+        <v>0.169779</v>
       </c>
       <c r="C139" t="n">
-        <v>0.230893</v>
+        <v>0.230757</v>
       </c>
       <c r="D139" t="n">
-        <v>0.480129</v>
+        <v>0.477472</v>
       </c>
       <c r="E139" t="n">
-        <v>0.142628</v>
+        <v>0.141684</v>
       </c>
       <c r="F139" t="n">
-        <v>0.180821</v>
+        <v>0.181246</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.172393</v>
+        <v>0.170815</v>
       </c>
       <c r="C140" t="n">
-        <v>0.235199</v>
+        <v>0.234783</v>
       </c>
       <c r="D140" t="n">
-        <v>0.492239</v>
+        <v>0.489344</v>
       </c>
       <c r="E140" t="n">
-        <v>0.144651</v>
+        <v>0.14247</v>
       </c>
       <c r="F140" t="n">
-        <v>0.182879</v>
+        <v>0.183005</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.174305</v>
+        <v>0.172887</v>
       </c>
       <c r="C141" t="n">
-        <v>0.239481</v>
+        <v>0.23974</v>
       </c>
       <c r="D141" t="n">
-        <v>0.504181</v>
+        <v>0.5018550000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>0.145463</v>
+        <v>0.143965</v>
       </c>
       <c r="F141" t="n">
-        <v>0.186891</v>
+        <v>0.185849</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.17605</v>
+        <v>0.175105</v>
       </c>
       <c r="C142" t="n">
-        <v>0.245198</v>
+        <v>0.24366</v>
       </c>
       <c r="D142" t="n">
-        <v>0.51764</v>
+        <v>0.514682</v>
       </c>
       <c r="E142" t="n">
-        <v>0.146163</v>
+        <v>0.146301</v>
       </c>
       <c r="F142" t="n">
-        <v>0.189937</v>
+        <v>0.18945</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.177415</v>
+        <v>0.178241</v>
       </c>
       <c r="C143" t="n">
-        <v>0.250763</v>
+        <v>0.249289</v>
       </c>
       <c r="D143" t="n">
-        <v>0.530713</v>
+        <v>0.527609</v>
       </c>
       <c r="E143" t="n">
-        <v>0.148233</v>
+        <v>0.147557</v>
       </c>
       <c r="F143" t="n">
-        <v>0.193909</v>
+        <v>0.193668</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0347678</v>
+        <v>0.0355805</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0348306</v>
+        <v>0.0332235</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12521</v>
+        <v>0.124408</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0229398</v>
+        <v>0.025786</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0238557</v>
+        <v>0.0289825</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0353185</v>
+        <v>0.0366536</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0363617</v>
+        <v>0.0341801</v>
       </c>
       <c r="D3" t="n">
-        <v>0.129614</v>
+        <v>0.128299</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0227287</v>
+        <v>0.0256656</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0239776</v>
+        <v>0.0290814</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0381993</v>
+        <v>0.0384869</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0389787</v>
+        <v>0.0355328</v>
       </c>
       <c r="D4" t="n">
-        <v>0.135284</v>
+        <v>0.134259</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0233235</v>
+        <v>0.0260924</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0246214</v>
+        <v>0.029765</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.043397</v>
+        <v>0.0412055</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0435046</v>
+        <v>0.0389941</v>
       </c>
       <c r="D5" t="n">
-        <v>0.140964</v>
+        <v>0.138883</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0225361</v>
+        <v>0.0256845</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0237623</v>
+        <v>0.0292729</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0547501</v>
+        <v>0.0511487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0559095</v>
+        <v>0.0498829</v>
       </c>
       <c r="D6" t="n">
-        <v>0.147008</v>
+        <v>0.144628</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0230621</v>
+        <v>0.026309</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0244823</v>
+        <v>0.0303923</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0738567</v>
+        <v>0.0675408</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0744406</v>
+        <v>0.0649552</v>
       </c>
       <c r="D7" t="n">
-        <v>0.102412</v>
+        <v>0.101616</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0270931</v>
+        <v>0.029973</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0301698</v>
+        <v>0.0347003</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.108842</v>
+        <v>0.0980195</v>
       </c>
       <c r="C8" t="n">
-        <v>0.108276</v>
+        <v>0.093323</v>
       </c>
       <c r="D8" t="n">
-        <v>0.108135</v>
+        <v>0.107719</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0475426</v>
+        <v>0.048367</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0484056</v>
+        <v>0.0540773</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149248</v>
+        <v>0.143439</v>
       </c>
       <c r="C9" t="n">
-        <v>0.150866</v>
+        <v>0.144127</v>
       </c>
       <c r="D9" t="n">
-        <v>0.113124</v>
+        <v>0.112859</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0229307</v>
+        <v>0.0259798</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0236909</v>
+        <v>0.028672</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0325426</v>
+        <v>0.0345661</v>
       </c>
       <c r="C10" t="n">
-        <v>0.033082</v>
+        <v>0.0311428</v>
       </c>
       <c r="D10" t="n">
-        <v>0.118096</v>
+        <v>0.117425</v>
       </c>
       <c r="E10" t="n">
-        <v>0.023054</v>
+        <v>0.0262092</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0239203</v>
+        <v>0.0288228</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0329859</v>
+        <v>0.0348634</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0336028</v>
+        <v>0.031861</v>
       </c>
       <c r="D11" t="n">
-        <v>0.122794</v>
+        <v>0.122804</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0232218</v>
+        <v>0.0264505</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0240616</v>
+        <v>0.029082</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.033449</v>
+        <v>0.0356017</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0343556</v>
+        <v>0.0327138</v>
       </c>
       <c r="D12" t="n">
-        <v>0.127696</v>
+        <v>0.127184</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0233678</v>
+        <v>0.0265971</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0243147</v>
+        <v>0.0292218</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0339677</v>
+        <v>0.035941</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0349295</v>
+        <v>0.0335271</v>
       </c>
       <c r="D13" t="n">
-        <v>0.132084</v>
+        <v>0.132559</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0234139</v>
+        <v>0.0266298</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0246257</v>
+        <v>0.0295079</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0346354</v>
+        <v>0.0368305</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0359695</v>
+        <v>0.0349644</v>
       </c>
       <c r="D14" t="n">
-        <v>0.136548</v>
+        <v>0.137153</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0235023</v>
+        <v>0.0266814</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0247833</v>
+        <v>0.0293314</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0356513</v>
+        <v>0.0377297</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0371992</v>
+        <v>0.0357359</v>
       </c>
       <c r="D15" t="n">
-        <v>0.140919</v>
+        <v>0.141867</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0236637</v>
+        <v>0.0270343</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0252761</v>
+        <v>0.0298813</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0367499</v>
+        <v>0.0381658</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0385986</v>
+        <v>0.0366466</v>
       </c>
       <c r="D16" t="n">
-        <v>0.145914</v>
+        <v>0.146075</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0241348</v>
+        <v>0.0270588</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0257823</v>
+        <v>0.0305174</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0391324</v>
+        <v>0.0398288</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0406173</v>
+        <v>0.0398375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.150643</v>
+        <v>0.151385</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0243895</v>
+        <v>0.0273787</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0260393</v>
+        <v>0.0306805</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0417719</v>
+        <v>0.0452242</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0444277</v>
+        <v>0.0434691</v>
       </c>
       <c r="D18" t="n">
-        <v>0.155671</v>
+        <v>0.15575</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0245207</v>
+        <v>0.0273726</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0267294</v>
+        <v>0.0310751</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0488578</v>
+        <v>0.0496573</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0517113</v>
+        <v>0.0481727</v>
       </c>
       <c r="D19" t="n">
-        <v>0.160695</v>
+        <v>0.160513</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0242215</v>
+        <v>0.0276053</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0278223</v>
+        <v>0.0318297</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0604425</v>
+        <v>0.0590105</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0602967</v>
+        <v>0.0634362</v>
       </c>
       <c r="D20" t="n">
-        <v>0.164636</v>
+        <v>0.164261</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0285097</v>
+        <v>0.030849</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0319749</v>
+        <v>0.0359255</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07373490000000001</v>
+        <v>0.0774986</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07585989999999999</v>
+        <v>0.07460550000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.11801</v>
+        <v>0.116656</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0380069</v>
+        <v>0.0410188</v>
       </c>
       <c r="F21" t="n">
-        <v>0.040223</v>
+        <v>0.0443975</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0984368</v>
+        <v>0.100665</v>
       </c>
       <c r="C22" t="n">
-        <v>0.100207</v>
+        <v>0.102377</v>
       </c>
       <c r="D22" t="n">
-        <v>0.122422</v>
+        <v>0.12164</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0564726</v>
+        <v>0.0601886</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0573568</v>
+        <v>0.06289400000000001</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.133367</v>
+        <v>0.134439</v>
       </c>
       <c r="C23" t="n">
-        <v>0.134491</v>
+        <v>0.134365</v>
       </c>
       <c r="D23" t="n">
-        <v>0.126553</v>
+        <v>0.12641</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0238489</v>
+        <v>0.027044</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0256154</v>
+        <v>0.0299975</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0338952</v>
+        <v>0.0357673</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0367531</v>
+        <v>0.033637</v>
       </c>
       <c r="D24" t="n">
-        <v>0.132232</v>
+        <v>0.131775</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0241697</v>
+        <v>0.0272684</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0260279</v>
+        <v>0.0306378</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0340433</v>
+        <v>0.0367204</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0376199</v>
+        <v>0.0348783</v>
       </c>
       <c r="D25" t="n">
-        <v>0.136238</v>
+        <v>0.136446</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0243012</v>
+        <v>0.0273645</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0264728</v>
+        <v>0.0308795</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.035176</v>
+        <v>0.0367786</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0384787</v>
+        <v>0.035634</v>
       </c>
       <c r="D26" t="n">
-        <v>0.14086</v>
+        <v>0.140699</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0246013</v>
+        <v>0.027678</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0268747</v>
+        <v>0.0312568</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0357481</v>
+        <v>0.0374605</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0396097</v>
+        <v>0.0365564</v>
       </c>
       <c r="D27" t="n">
-        <v>0.145475</v>
+        <v>0.145639</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0250546</v>
+        <v>0.0281192</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0275212</v>
+        <v>0.031831</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0365898</v>
+        <v>0.0383047</v>
       </c>
       <c r="C28" t="n">
-        <v>0.040407</v>
+        <v>0.03768</v>
       </c>
       <c r="D28" t="n">
-        <v>0.150382</v>
+        <v>0.150216</v>
       </c>
       <c r="E28" t="n">
-        <v>0.025303</v>
+        <v>0.0284102</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0282804</v>
+        <v>0.0323584</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0377571</v>
+        <v>0.039084</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0417567</v>
+        <v>0.0394202</v>
       </c>
       <c r="D29" t="n">
-        <v>0.154873</v>
+        <v>0.15551</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0259492</v>
+        <v>0.0289164</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0290034</v>
+        <v>0.0331325</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0395837</v>
+        <v>0.0408651</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0438917</v>
+        <v>0.0410128</v>
       </c>
       <c r="D30" t="n">
-        <v>0.159057</v>
+        <v>0.160353</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0262972</v>
+        <v>0.0293611</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0297637</v>
+        <v>0.0336602</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0419127</v>
+        <v>0.0432235</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0456046</v>
+        <v>0.0439073</v>
       </c>
       <c r="D31" t="n">
-        <v>0.163192</v>
+        <v>0.16489</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0269475</v>
+        <v>0.0299279</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0306861</v>
+        <v>0.0345401</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0459057</v>
+        <v>0.047772</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0499815</v>
+        <v>0.047785</v>
       </c>
       <c r="D32" t="n">
-        <v>0.167677</v>
+        <v>0.168222</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0274422</v>
+        <v>0.0306496</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0314443</v>
+        <v>0.0353445</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0514526</v>
+        <v>0.0542921</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0542986</v>
+        <v>0.0544053</v>
       </c>
       <c r="D33" t="n">
-        <v>0.171913</v>
+        <v>0.172693</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0289592</v>
+        <v>0.0318028</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0329174</v>
+        <v>0.0369</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0615592</v>
+        <v>0.0631076</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0654317</v>
+        <v>0.0637209</v>
       </c>
       <c r="D34" t="n">
-        <v>0.176464</v>
+        <v>0.176914</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0335194</v>
+        <v>0.0361496</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0372317</v>
+        <v>0.0409736</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0741651</v>
+        <v>0.076797</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0764209</v>
+        <v>0.0764138</v>
       </c>
       <c r="D35" t="n">
-        <v>0.123788</v>
+        <v>0.123148</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0419899</v>
+        <v>0.0451345</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0444933</v>
+        <v>0.0489972</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09607400000000001</v>
+        <v>0.0967466</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09658890000000001</v>
+        <v>0.0980043</v>
       </c>
       <c r="D36" t="n">
-        <v>0.128283</v>
+        <v>0.12722</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0533746</v>
+        <v>0.0568963</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0550866</v>
+        <v>0.0602509</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.127758</v>
+        <v>0.129531</v>
       </c>
       <c r="C37" t="n">
-        <v>0.12881</v>
+        <v>0.135008</v>
       </c>
       <c r="D37" t="n">
-        <v>0.132805</v>
+        <v>0.132223</v>
       </c>
       <c r="E37" t="n">
-        <v>0.024747</v>
+        <v>0.0279733</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0276451</v>
+        <v>0.0314178</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0344903</v>
+        <v>0.0365997</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0384617</v>
+        <v>0.0371507</v>
       </c>
       <c r="D38" t="n">
-        <v>0.137495</v>
+        <v>0.137612</v>
       </c>
       <c r="E38" t="n">
-        <v>0.025248</v>
+        <v>0.02814</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0283042</v>
+        <v>0.0320178</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0349</v>
+        <v>0.037166</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0391634</v>
+        <v>0.037882</v>
       </c>
       <c r="D39" t="n">
-        <v>0.142322</v>
+        <v>0.142704</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0256355</v>
+        <v>0.0284646</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0287593</v>
+        <v>0.0325529</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0356965</v>
+        <v>0.0376164</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0400099</v>
+        <v>0.038783</v>
       </c>
       <c r="D40" t="n">
-        <v>0.146754</v>
+        <v>0.147396</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0258639</v>
+        <v>0.0288151</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0291571</v>
+        <v>0.0329841</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0364383</v>
+        <v>0.0384407</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0409475</v>
+        <v>0.0399186</v>
       </c>
       <c r="D41" t="n">
-        <v>0.151806</v>
+        <v>0.151859</v>
       </c>
       <c r="E41" t="n">
-        <v>0.026161</v>
+        <v>0.0290938</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0296725</v>
+        <v>0.0356922</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0374731</v>
+        <v>0.0394504</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0419556</v>
+        <v>0.0410448</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1565</v>
+        <v>0.156265</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0265684</v>
+        <v>0.0293341</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0302784</v>
+        <v>0.0364327</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0387853</v>
+        <v>0.0407063</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0431553</v>
+        <v>0.0423461</v>
       </c>
       <c r="D43" t="n">
-        <v>0.160985</v>
+        <v>0.161049</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0272462</v>
+        <v>0.0299403</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0310489</v>
+        <v>0.0348928</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0404094</v>
+        <v>0.0430448</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0450328</v>
+        <v>0.0444218</v>
       </c>
       <c r="D44" t="n">
-        <v>0.165034</v>
+        <v>0.165216</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0279587</v>
+        <v>0.030812</v>
       </c>
       <c r="F44" t="n">
-        <v>0.031889</v>
+        <v>0.0383382</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0432557</v>
+        <v>0.0449364</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0474114</v>
+        <v>0.0471758</v>
       </c>
       <c r="D45" t="n">
-        <v>0.168932</v>
+        <v>0.168789</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0289336</v>
+        <v>0.0319955</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0329188</v>
+        <v>0.0394924</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0465721</v>
+        <v>0.0485132</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0509063</v>
+        <v>0.0512104</v>
       </c>
       <c r="D46" t="n">
-        <v>0.17286</v>
+        <v>0.173181</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0304082</v>
+        <v>0.0335857</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0344808</v>
+        <v>0.0387364</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0522064</v>
+        <v>0.0537202</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0562071</v>
+        <v>0.0562639</v>
       </c>
       <c r="D47" t="n">
-        <v>0.177129</v>
+        <v>0.177126</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0327114</v>
+        <v>0.0355413</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0367018</v>
+        <v>0.0436162</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0606988</v>
+        <v>0.063515</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06318559999999999</v>
+        <v>0.0642982</v>
       </c>
       <c r="D48" t="n">
-        <v>0.181641</v>
+        <v>0.181475</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0367799</v>
+        <v>0.0397154</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0401483</v>
+        <v>0.0450435</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07495</v>
+        <v>0.07326580000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0768515</v>
+        <v>0.074508</v>
       </c>
       <c r="D49" t="n">
-        <v>0.185985</v>
+        <v>0.186615</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0422316</v>
+        <v>0.0452125</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0452507</v>
+        <v>0.0502468</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0922663</v>
+        <v>0.09114559999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0920652</v>
+        <v>0.0922061</v>
       </c>
       <c r="D50" t="n">
-        <v>0.130988</v>
+        <v>0.130504</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0503857</v>
+        <v>0.053929</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0525751</v>
+        <v>0.058213</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.122121</v>
+        <v>0.119213</v>
       </c>
       <c r="C51" t="n">
-        <v>0.122972</v>
+        <v>0.121071</v>
       </c>
       <c r="D51" t="n">
-        <v>0.135554</v>
+        <v>0.135217</v>
       </c>
       <c r="E51" t="n">
-        <v>0.027088</v>
+        <v>0.03</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0303107</v>
+        <v>0.0349118</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168243</v>
+        <v>0.168368</v>
       </c>
       <c r="C52" t="n">
-        <v>0.168029</v>
+        <v>0.167309</v>
       </c>
       <c r="D52" t="n">
-        <v>0.140386</v>
+        <v>0.140119</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0272444</v>
+        <v>0.0305205</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0308886</v>
+        <v>0.0355763</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0369417</v>
+        <v>0.0381842</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0415765</v>
+        <v>0.0403186</v>
       </c>
       <c r="D53" t="n">
-        <v>0.145323</v>
+        <v>0.144599</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0271246</v>
+        <v>0.0303693</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0313672</v>
+        <v>0.0360129</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0369385</v>
+        <v>0.0388155</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0423904</v>
+        <v>0.0411685</v>
       </c>
       <c r="D54" t="n">
-        <v>0.150231</v>
+        <v>0.149772</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0274442</v>
+        <v>0.0307994</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0317783</v>
+        <v>0.0365932</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0382877</v>
+        <v>0.0396013</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0434646</v>
+        <v>0.0421265</v>
       </c>
       <c r="D55" t="n">
-        <v>0.154867</v>
+        <v>0.154229</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0295656</v>
+        <v>0.0311837</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0317482</v>
+        <v>0.0385634</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0395939</v>
+        <v>0.0405944</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0446227</v>
+        <v>0.0431795</v>
       </c>
       <c r="D56" t="n">
-        <v>0.15927</v>
+        <v>0.158777</v>
       </c>
       <c r="E56" t="n">
-        <v>0.028415</v>
+        <v>0.0315853</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0331942</v>
+        <v>0.0392491</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.040043</v>
+        <v>0.041905</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0460449</v>
+        <v>0.0446119</v>
       </c>
       <c r="D57" t="n">
-        <v>0.16354</v>
+        <v>0.163649</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0296483</v>
+        <v>0.0322925</v>
       </c>
       <c r="F57" t="n">
-        <v>0.033936</v>
+        <v>0.0383561</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0418525</v>
+        <v>0.0436967</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0477729</v>
+        <v>0.0463329</v>
       </c>
       <c r="D58" t="n">
-        <v>0.167923</v>
+        <v>0.168243</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0304925</v>
+        <v>0.0330492</v>
       </c>
       <c r="F58" t="n">
-        <v>0.035138</v>
+        <v>0.0402313</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0443573</v>
+        <v>0.0471909</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0501172</v>
+        <v>0.0497436</v>
       </c>
       <c r="D59" t="n">
-        <v>0.172146</v>
+        <v>0.172182</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0309444</v>
+        <v>0.0353006</v>
       </c>
       <c r="F59" t="n">
-        <v>0.036104</v>
+        <v>0.0416832</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0483906</v>
+        <v>0.0501263</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0537073</v>
+        <v>0.0524918</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175958</v>
+        <v>0.177231</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0328531</v>
+        <v>0.0360692</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0375538</v>
+        <v>0.0423819</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0533768</v>
+        <v>0.0542743</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0577106</v>
+        <v>0.0571486</v>
       </c>
       <c r="D61" t="n">
-        <v>0.180087</v>
+        <v>0.18099</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0351465</v>
+        <v>0.0389453</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0392512</v>
+        <v>0.0457935</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0604617</v>
+        <v>0.0618923</v>
       </c>
       <c r="C62" t="n">
-        <v>0.064305</v>
+        <v>0.064375</v>
       </c>
       <c r="D62" t="n">
-        <v>0.184456</v>
+        <v>0.186524</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0381614</v>
+        <v>0.0420323</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0425283</v>
+        <v>0.0481651</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0725879</v>
+        <v>0.07095120000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07589319999999999</v>
+        <v>0.0731634</v>
       </c>
       <c r="D63" t="n">
-        <v>0.189302</v>
+        <v>0.192417</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0429608</v>
+        <v>0.0467862</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0468776</v>
+        <v>0.0528807</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0892694</v>
+        <v>0.0877309</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09223530000000001</v>
+        <v>0.0897299</v>
       </c>
       <c r="D64" t="n">
-        <v>0.138467</v>
+        <v>0.139176</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0503173</v>
+        <v>0.0543705</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0541283</v>
+        <v>0.060309</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115004</v>
+        <v>0.112462</v>
       </c>
       <c r="C65" t="n">
-        <v>0.118017</v>
+        <v>0.114539</v>
       </c>
       <c r="D65" t="n">
-        <v>0.144312</v>
+        <v>0.146525</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0641888</v>
+        <v>0.0685837</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0673951</v>
+        <v>0.0739648</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.155457</v>
+        <v>0.156711</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1572</v>
+        <v>0.159398</v>
       </c>
       <c r="D66" t="n">
-        <v>0.151067</v>
+        <v>0.154925</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0324443</v>
+        <v>0.0356778</v>
       </c>
       <c r="F66" t="n">
-        <v>0.036975</v>
+        <v>0.0428569</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0415012</v>
+        <v>0.0424896</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0488855</v>
+        <v>0.0486234</v>
       </c>
       <c r="D67" t="n">
-        <v>0.158518</v>
+        <v>0.163417</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0326019</v>
+        <v>0.0363953</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0375895</v>
+        <v>0.0450223</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.041955</v>
+        <v>0.0427859</v>
       </c>
       <c r="C68" t="n">
-        <v>0.049995</v>
+        <v>0.0498469</v>
       </c>
       <c r="D68" t="n">
-        <v>0.167084</v>
+        <v>0.172877</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0330805</v>
+        <v>0.036516</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0382039</v>
+        <v>0.0440335</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0428744</v>
+        <v>0.0438438</v>
       </c>
       <c r="C69" t="n">
-        <v>0.051195</v>
+        <v>0.0510355</v>
       </c>
       <c r="D69" t="n">
-        <v>0.175367</v>
+        <v>0.181596</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0333414</v>
+        <v>0.0368536</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0389065</v>
+        <v>0.0447272</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0437123</v>
+        <v>0.0449563</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0527449</v>
+        <v>0.05239</v>
       </c>
       <c r="D70" t="n">
-        <v>0.181867</v>
+        <v>0.190664</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0337389</v>
+        <v>0.0373283</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0396522</v>
+        <v>0.0455854</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.044955</v>
+        <v>0.0463079</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0544012</v>
+        <v>0.0544294</v>
       </c>
       <c r="D71" t="n">
-        <v>0.19199</v>
+        <v>0.201129</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0343914</v>
+        <v>0.0375808</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0408698</v>
+        <v>0.0461843</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0469398</v>
+        <v>0.0479179</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0564783</v>
+        <v>0.056225</v>
       </c>
       <c r="D72" t="n">
-        <v>0.201223</v>
+        <v>0.211004</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0351277</v>
+        <v>0.0383091</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0419969</v>
+        <v>0.0473947</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0492275</v>
+        <v>0.0511363</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0589933</v>
+        <v>0.0591134</v>
       </c>
       <c r="D73" t="n">
-        <v>0.209625</v>
+        <v>0.223248</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0363225</v>
+        <v>0.0392966</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0427885</v>
+        <v>0.048798</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0523764</v>
+        <v>0.0549608</v>
       </c>
       <c r="C74" t="n">
-        <v>0.06266380000000001</v>
+        <v>0.0627342</v>
       </c>
       <c r="D74" t="n">
-        <v>0.222148</v>
+        <v>0.234681</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0371416</v>
+        <v>0.0405431</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0443679</v>
+        <v>0.0509953</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0572877</v>
+        <v>0.0597659</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06775879999999999</v>
+        <v>0.0690156</v>
       </c>
       <c r="D75" t="n">
-        <v>0.234094</v>
+        <v>0.248205</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0389554</v>
+        <v>0.0423649</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0464832</v>
+        <v>0.0526274</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0640732</v>
+        <v>0.066874</v>
       </c>
       <c r="C76" t="n">
-        <v>0.074474</v>
+        <v>0.07725600000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.24624</v>
+        <v>0.260607</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0422909</v>
+        <v>0.0454054</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0492819</v>
+        <v>0.05822</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0745396</v>
+        <v>0.0763109</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0853124</v>
+        <v>0.08971850000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.260509</v>
+        <v>0.277721</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0464422</v>
+        <v>0.0493342</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0536821</v>
+        <v>0.0616687</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0898003</v>
+        <v>0.0911085</v>
       </c>
       <c r="C78" t="n">
-        <v>0.102074</v>
+        <v>0.107159</v>
       </c>
       <c r="D78" t="n">
-        <v>0.21803</v>
+        <v>0.23042</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0527416</v>
+        <v>0.0567709</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0607073</v>
+        <v>0.07316250000000001</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.114546</v>
+        <v>0.115124</v>
       </c>
       <c r="C79" t="n">
-        <v>0.127715</v>
+        <v>0.134851</v>
       </c>
       <c r="D79" t="n">
-        <v>0.23102</v>
+        <v>0.243271</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06443740000000001</v>
+        <v>0.0690122</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0723106</v>
+        <v>0.0863712</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.152482</v>
+        <v>0.154251</v>
       </c>
       <c r="C80" t="n">
-        <v>0.173586</v>
+        <v>0.178663</v>
       </c>
       <c r="D80" t="n">
-        <v>0.242969</v>
+        <v>0.256036</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0362108</v>
+        <v>0.0394061</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0422207</v>
+        <v>0.0488966</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0466448</v>
+        <v>0.0469032</v>
       </c>
       <c r="C81" t="n">
-        <v>0.05809</v>
+        <v>0.0625469</v>
       </c>
       <c r="D81" t="n">
-        <v>0.255555</v>
+        <v>0.268334</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0365591</v>
+        <v>0.0397981</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0427573</v>
+        <v>0.0500963</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0473282</v>
+        <v>0.0482422</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0601347</v>
+        <v>0.06642770000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.26859</v>
+        <v>0.283631</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0370817</v>
+        <v>0.0391859</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0436846</v>
+        <v>0.0523451</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0482837</v>
+        <v>0.0505125</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0630647</v>
+        <v>0.07058499999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.281561</v>
+        <v>0.296922</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0376483</v>
+        <v>0.0400438</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0446708</v>
+        <v>0.0538771</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0497456</v>
+        <v>0.0523741</v>
       </c>
       <c r="C84" t="n">
-        <v>0.06733790000000001</v>
+        <v>0.0755844</v>
       </c>
       <c r="D84" t="n">
-        <v>0.295118</v>
+        <v>0.310705</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0381669</v>
+        <v>0.0406336</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0454392</v>
+        <v>0.0558709</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0512961</v>
+        <v>0.0548233</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0720654</v>
+        <v>0.0812988</v>
       </c>
       <c r="D85" t="n">
-        <v>0.308653</v>
+        <v>0.326031</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0389354</v>
+        <v>0.0431695</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0473151</v>
+        <v>0.0582238</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0532629</v>
+        <v>0.0579479</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0781509</v>
+        <v>0.0880407</v>
       </c>
       <c r="D86" t="n">
-        <v>0.322424</v>
+        <v>0.341189</v>
       </c>
       <c r="E86" t="n">
-        <v>0.039899</v>
+        <v>0.0431316</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0492839</v>
+        <v>0.0617478</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0563108</v>
+        <v>0.0621534</v>
       </c>
       <c r="C87" t="n">
-        <v>0.08619979999999999</v>
+        <v>0.0951688</v>
       </c>
       <c r="D87" t="n">
-        <v>0.336784</v>
+        <v>0.357633</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0411302</v>
+        <v>0.0465259</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0518365</v>
+        <v>0.0643528</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0602507</v>
+        <v>0.06654019999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09645049999999999</v>
+        <v>0.102643</v>
       </c>
       <c r="D88" t="n">
-        <v>0.351315</v>
+        <v>0.374645</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0423494</v>
+        <v>0.0482808</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0550675</v>
+        <v>0.0698728</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06607159999999999</v>
+        <v>0.0721569</v>
       </c>
       <c r="C89" t="n">
-        <v>0.108625</v>
+        <v>0.112497</v>
       </c>
       <c r="D89" t="n">
-        <v>0.367314</v>
+        <v>0.391278</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0448359</v>
+        <v>0.0511202</v>
       </c>
       <c r="F89" t="n">
-        <v>0.059153</v>
+        <v>0.0747261</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0744766</v>
+        <v>0.0811093</v>
       </c>
       <c r="C90" t="n">
-        <v>0.124583</v>
+        <v>0.125167</v>
       </c>
       <c r="D90" t="n">
-        <v>0.383242</v>
+        <v>0.410377</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0481111</v>
+        <v>0.0555903</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0653827</v>
+        <v>0.081994</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.08538229999999999</v>
+        <v>0.0920417</v>
       </c>
       <c r="C91" t="n">
-        <v>0.143298</v>
+        <v>0.139899</v>
       </c>
       <c r="D91" t="n">
-        <v>0.399994</v>
+        <v>0.428535</v>
       </c>
       <c r="E91" t="n">
-        <v>0.053257</v>
+        <v>0.0612765</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0750422</v>
+        <v>0.09079520000000001</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.101416</v>
+        <v>0.107055</v>
       </c>
       <c r="C92" t="n">
-        <v>0.166249</v>
+        <v>0.160955</v>
       </c>
       <c r="D92" t="n">
-        <v>0.32303</v>
+        <v>0.341197</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0610389</v>
+        <v>0.0698236</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08775380000000001</v>
+        <v>0.102267</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.125781</v>
+        <v>0.129907</v>
       </c>
       <c r="C93" t="n">
-        <v>0.197454</v>
+        <v>0.191356</v>
       </c>
       <c r="D93" t="n">
-        <v>0.333857</v>
+        <v>0.352754</v>
       </c>
       <c r="E93" t="n">
-        <v>0.07320500000000001</v>
+        <v>0.0837741</v>
       </c>
       <c r="F93" t="n">
-        <v>0.107001</v>
+        <v>0.115992</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.161956</v>
+        <v>0.165824</v>
       </c>
       <c r="C94" t="n">
-        <v>0.236972</v>
+        <v>0.233444</v>
       </c>
       <c r="D94" t="n">
-        <v>0.344973</v>
+        <v>0.365736</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0405535</v>
+        <v>0.0492657</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0546991</v>
+        <v>0.0684506</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0585212</v>
+        <v>0.0669507</v>
       </c>
       <c r="C95" t="n">
-        <v>0.103298</v>
+        <v>0.0987875</v>
       </c>
       <c r="D95" t="n">
-        <v>0.356625</v>
+        <v>0.379235</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0417918</v>
+        <v>0.0519245</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0583996</v>
+        <v>0.0720817</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0618736</v>
+        <v>0.0695726</v>
       </c>
       <c r="C96" t="n">
-        <v>0.111897</v>
+        <v>0.103562</v>
       </c>
       <c r="D96" t="n">
-        <v>0.368593</v>
+        <v>0.393205</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0435997</v>
+        <v>0.0539274</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06342109999999999</v>
+        <v>0.0747351</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.06573279999999999</v>
+        <v>0.0723386</v>
       </c>
       <c r="C97" t="n">
-        <v>0.120673</v>
+        <v>0.109691</v>
       </c>
       <c r="D97" t="n">
-        <v>0.380586</v>
+        <v>0.406648</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0453613</v>
+        <v>0.0558785</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0679507</v>
+        <v>0.0776748</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0702675</v>
+        <v>0.0748528</v>
       </c>
       <c r="C98" t="n">
-        <v>0.128503</v>
+        <v>0.11547</v>
       </c>
       <c r="D98" t="n">
-        <v>0.392576</v>
+        <v>0.421392</v>
       </c>
       <c r="E98" t="n">
-        <v>0.047953</v>
+        <v>0.0582345</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0735016</v>
+        <v>0.08092290000000001</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0752491</v>
+        <v>0.0787277</v>
       </c>
       <c r="C99" t="n">
-        <v>0.136444</v>
+        <v>0.12221</v>
       </c>
       <c r="D99" t="n">
-        <v>0.405519</v>
+        <v>0.435837</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0506727</v>
+        <v>0.0592182</v>
       </c>
       <c r="F99" t="n">
-        <v>0.079522</v>
+        <v>0.08505509999999999</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0810964</v>
+        <v>0.08143889999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.14413</v>
+        <v>0.129924</v>
       </c>
       <c r="D100" t="n">
-        <v>0.41823</v>
+        <v>0.451365</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0538892</v>
+        <v>0.0618537</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0857593</v>
+        <v>0.08767220000000001</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0869706</v>
+        <v>0.0849876</v>
       </c>
       <c r="C101" t="n">
-        <v>0.151506</v>
+        <v>0.138978</v>
       </c>
       <c r="D101" t="n">
-        <v>0.431723</v>
+        <v>0.467236</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0575236</v>
+        <v>0.0650695</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0921106</v>
+        <v>0.0913889</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0937935</v>
+        <v>0.08975130000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.159917</v>
+        <v>0.149269</v>
       </c>
       <c r="D102" t="n">
-        <v>0.446885</v>
+        <v>0.484541</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0617025</v>
+        <v>0.0672867</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0988059</v>
+        <v>0.0964618</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.101274</v>
+        <v>0.0953783</v>
       </c>
       <c r="C103" t="n">
-        <v>0.169335</v>
+        <v>0.160899</v>
       </c>
       <c r="D103" t="n">
-        <v>0.461641</v>
+        <v>0.50143</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0659177</v>
+        <v>0.0704741</v>
       </c>
       <c r="F103" t="n">
-        <v>0.106004</v>
+        <v>0.101618</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.110397</v>
+        <v>0.103423</v>
       </c>
       <c r="C104" t="n">
-        <v>0.180885</v>
+        <v>0.175367</v>
       </c>
       <c r="D104" t="n">
-        <v>0.477482</v>
+        <v>0.51791</v>
       </c>
       <c r="E104" t="n">
-        <v>0.07119060000000001</v>
+        <v>0.0737747</v>
       </c>
       <c r="F104" t="n">
-        <v>0.113168</v>
+        <v>0.108781</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.121416</v>
+        <v>0.114687</v>
       </c>
       <c r="C105" t="n">
-        <v>0.195564</v>
+        <v>0.190327</v>
       </c>
       <c r="D105" t="n">
-        <v>0.493867</v>
+        <v>0.536836</v>
       </c>
       <c r="E105" t="n">
-        <v>0.07767350000000001</v>
+        <v>0.0803359</v>
       </c>
       <c r="F105" t="n">
-        <v>0.12194</v>
+        <v>0.118393</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.135349</v>
+        <v>0.129871</v>
       </c>
       <c r="C106" t="n">
-        <v>0.213953</v>
+        <v>0.209766</v>
       </c>
       <c r="D106" t="n">
-        <v>0.510738</v>
+        <v>0.557783</v>
       </c>
       <c r="E106" t="n">
-        <v>0.08648119999999999</v>
+        <v>0.0876567</v>
       </c>
       <c r="F106" t="n">
-        <v>0.133565</v>
+        <v>0.134709</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.154809</v>
+        <v>0.150757</v>
       </c>
       <c r="C107" t="n">
-        <v>0.239242</v>
+        <v>0.237879</v>
       </c>
       <c r="D107" t="n">
-        <v>0.386759</v>
+        <v>0.420767</v>
       </c>
       <c r="E107" t="n">
-        <v>0.098146</v>
+        <v>0.0991599</v>
       </c>
       <c r="F107" t="n">
-        <v>0.148423</v>
+        <v>0.152223</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.183549</v>
+        <v>0.183636</v>
       </c>
       <c r="C108" t="n">
-        <v>0.276051</v>
+        <v>0.275842</v>
       </c>
       <c r="D108" t="n">
-        <v>0.397275</v>
+        <v>0.432672</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0595832</v>
+        <v>0.0604106</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0895276</v>
+        <v>0.0843286</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.229969</v>
+        <v>0.231132</v>
       </c>
       <c r="C109" t="n">
-        <v>0.33785</v>
+        <v>0.338961</v>
       </c>
       <c r="D109" t="n">
-        <v>0.40836</v>
+        <v>0.444676</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0616477</v>
+        <v>0.0615246</v>
       </c>
       <c r="F109" t="n">
-        <v>0.09267880000000001</v>
+        <v>0.0878201</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.09016680000000001</v>
+        <v>0.081013</v>
       </c>
       <c r="C110" t="n">
-        <v>0.144695</v>
+        <v>0.140929</v>
       </c>
       <c r="D110" t="n">
-        <v>0.419252</v>
+        <v>0.457435</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0640549</v>
+        <v>0.0622235</v>
       </c>
       <c r="F110" t="n">
-        <v>0.09600450000000001</v>
+        <v>0.0914069</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0932061</v>
+        <v>0.08386349999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.149358</v>
+        <v>0.146844</v>
       </c>
       <c r="D111" t="n">
-        <v>0.430497</v>
+        <v>0.470362</v>
       </c>
       <c r="E111" t="n">
-        <v>0.06571109999999999</v>
+        <v>0.06373189999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>0.09860679999999999</v>
+        <v>0.09578250000000001</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0961301</v>
+        <v>0.0874881</v>
       </c>
       <c r="C112" t="n">
-        <v>0.153974</v>
+        <v>0.152471</v>
       </c>
       <c r="D112" t="n">
-        <v>0.442249</v>
+        <v>0.484316</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0676573</v>
+        <v>0.0647932</v>
       </c>
       <c r="F112" t="n">
-        <v>0.101544</v>
+        <v>0.100928</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0993376</v>
+        <v>0.0914783</v>
       </c>
       <c r="C113" t="n">
-        <v>0.159166</v>
+        <v>0.158284</v>
       </c>
       <c r="D113" t="n">
-        <v>0.454595</v>
+        <v>0.498805</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0694789</v>
+        <v>0.06661549999999999</v>
       </c>
       <c r="F113" t="n">
-        <v>0.104536</v>
+        <v>0.104265</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.10269</v>
+        <v>0.0953566</v>
       </c>
       <c r="C114" t="n">
-        <v>0.164496</v>
+        <v>0.163865</v>
       </c>
       <c r="D114" t="n">
-        <v>0.467435</v>
+        <v>0.513812</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0716338</v>
+        <v>0.06860429999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>0.108516</v>
+        <v>0.111656</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.106401</v>
+        <v>0.100783</v>
       </c>
       <c r="C115" t="n">
-        <v>0.170505</v>
+        <v>0.170325</v>
       </c>
       <c r="D115" t="n">
-        <v>0.481054</v>
+        <v>0.529435</v>
       </c>
       <c r="E115" t="n">
-        <v>0.07439419999999999</v>
+        <v>0.0704523</v>
       </c>
       <c r="F115" t="n">
-        <v>0.112558</v>
+        <v>0.117389</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.110846</v>
+        <v>0.105081</v>
       </c>
       <c r="C116" t="n">
-        <v>0.177851</v>
+        <v>0.177633</v>
       </c>
       <c r="D116" t="n">
-        <v>0.494235</v>
+        <v>0.53935</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0771831</v>
+        <v>0.0741149</v>
       </c>
       <c r="F116" t="n">
-        <v>0.116915</v>
+        <v>0.119737</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.116213</v>
+        <v>0.113043</v>
       </c>
       <c r="C117" t="n">
-        <v>0.186234</v>
+        <v>0.183904</v>
       </c>
       <c r="D117" t="n">
-        <v>0.508971</v>
+        <v>0.557135</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0798846</v>
+        <v>0.0776017</v>
       </c>
       <c r="F117" t="n">
-        <v>0.121639</v>
+        <v>0.129178</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123329</v>
+        <v>0.121015</v>
       </c>
       <c r="C118" t="n">
-        <v>0.19695</v>
+        <v>0.196833</v>
       </c>
       <c r="D118" t="n">
-        <v>0.523899</v>
+        <v>0.573686</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0837334</v>
+        <v>0.0823721</v>
       </c>
       <c r="F118" t="n">
-        <v>0.127699</v>
+        <v>0.133292</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.132878</v>
+        <v>0.130723</v>
       </c>
       <c r="C119" t="n">
-        <v>0.210583</v>
+        <v>0.205268</v>
       </c>
       <c r="D119" t="n">
-        <v>0.540481</v>
+        <v>0.598866</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0886468</v>
+        <v>0.0892376</v>
       </c>
       <c r="F119" t="n">
-        <v>0.134721</v>
+        <v>0.142862</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.145508</v>
+        <v>0.144749</v>
       </c>
       <c r="C120" t="n">
-        <v>0.22927</v>
+        <v>0.229353</v>
       </c>
       <c r="D120" t="n">
-        <v>0.558164</v>
+        <v>0.618287</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0955927</v>
+        <v>0.0985265</v>
       </c>
       <c r="F120" t="n">
-        <v>0.145081</v>
+        <v>0.157008</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163167</v>
+        <v>0.163201</v>
       </c>
       <c r="C121" t="n">
-        <v>0.254077</v>
+        <v>0.253536</v>
       </c>
       <c r="D121" t="n">
-        <v>0.414516</v>
+        <v>0.449507</v>
       </c>
       <c r="E121" t="n">
-        <v>0.105837</v>
+        <v>0.109569</v>
       </c>
       <c r="F121" t="n">
-        <v>0.159357</v>
+        <v>0.172956</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.188792</v>
+        <v>0.190179</v>
       </c>
       <c r="C122" t="n">
-        <v>0.290844</v>
+        <v>0.292796</v>
       </c>
       <c r="D122" t="n">
-        <v>0.425604</v>
+        <v>0.465611</v>
       </c>
       <c r="E122" t="n">
-        <v>0.121991</v>
+        <v>0.129088</v>
       </c>
       <c r="F122" t="n">
-        <v>0.181343</v>
+        <v>0.199326</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.230077</v>
+        <v>0.234534</v>
       </c>
       <c r="C123" t="n">
-        <v>0.349139</v>
+        <v>0.35443</v>
       </c>
       <c r="D123" t="n">
-        <v>0.436601</v>
+        <v>0.4777</v>
       </c>
       <c r="E123" t="n">
-        <v>0.07503940000000001</v>
+        <v>0.07985970000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>0.108324</v>
+        <v>0.118441</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.10354</v>
+        <v>0.103472</v>
       </c>
       <c r="C124" t="n">
-        <v>0.160304</v>
+        <v>0.165216</v>
       </c>
       <c r="D124" t="n">
-        <v>0.447553</v>
+        <v>0.49044</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0759973</v>
+        <v>0.07967970000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>0.110861</v>
+        <v>0.115958</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.103817</v>
+        <v>0.104344</v>
       </c>
       <c r="C125" t="n">
-        <v>0.165343</v>
+        <v>0.16461</v>
       </c>
       <c r="D125" t="n">
-        <v>0.459428</v>
+        <v>0.503798</v>
       </c>
       <c r="E125" t="n">
-        <v>0.07580729999999999</v>
+        <v>0.07839069999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>0.112648</v>
+        <v>0.121957</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.108583</v>
+        <v>0.108625</v>
       </c>
       <c r="C126" t="n">
-        <v>0.170357</v>
+        <v>0.169699</v>
       </c>
       <c r="D126" t="n">
-        <v>0.471351</v>
+        <v>0.516885</v>
       </c>
       <c r="E126" t="n">
-        <v>0.07867739999999999</v>
+        <v>0.0862067</v>
       </c>
       <c r="F126" t="n">
-        <v>0.116</v>
+        <v>0.125585</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110457</v>
+        <v>0.105959</v>
       </c>
       <c r="C127" t="n">
-        <v>0.173226</v>
+        <v>0.1711</v>
       </c>
       <c r="D127" t="n">
-        <v>0.483429</v>
+        <v>0.528315</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0807001</v>
+        <v>0.08735</v>
       </c>
       <c r="F127" t="n">
-        <v>0.121053</v>
+        <v>0.125903</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.115721</v>
+        <v>0.114354</v>
       </c>
       <c r="C128" t="n">
-        <v>0.182858</v>
+        <v>0.180808</v>
       </c>
       <c r="D128" t="n">
-        <v>0.496295</v>
+        <v>0.544061</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0817732</v>
+        <v>0.0903924</v>
       </c>
       <c r="F128" t="n">
-        <v>0.124146</v>
+        <v>0.129773</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116825</v>
+        <v>0.112339</v>
       </c>
       <c r="C129" t="n">
-        <v>0.186223</v>
+        <v>0.19244</v>
       </c>
       <c r="D129" t="n">
-        <v>0.510232</v>
+        <v>0.56392</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0845983</v>
+        <v>0.0915284</v>
       </c>
       <c r="F129" t="n">
-        <v>0.127326</v>
+        <v>0.144184</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.119943</v>
+        <v>0.120772</v>
       </c>
       <c r="C130" t="n">
-        <v>0.195866</v>
+        <v>0.19484</v>
       </c>
       <c r="D130" t="n">
-        <v>0.523315</v>
+        <v>0.58023</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0869501</v>
+        <v>0.0928219</v>
       </c>
       <c r="F130" t="n">
-        <v>0.131431</v>
+        <v>0.137721</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.125581</v>
+        <v>0.125737</v>
       </c>
       <c r="C131" t="n">
-        <v>0.202553</v>
+        <v>0.199494</v>
       </c>
       <c r="D131" t="n">
-        <v>0.538326</v>
+        <v>0.593738</v>
       </c>
       <c r="E131" t="n">
-        <v>0.09195399999999999</v>
+        <v>0.10093</v>
       </c>
       <c r="F131" t="n">
-        <v>0.136761</v>
+        <v>0.14723</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13315</v>
+        <v>0.137059</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213365</v>
+        <v>0.213413</v>
       </c>
       <c r="D132" t="n">
-        <v>0.553291</v>
+        <v>0.615325</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0930343</v>
+        <v>0.10549</v>
       </c>
       <c r="F132" t="n">
-        <v>0.141567</v>
+        <v>0.155158</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.140834</v>
+        <v>0.143418</v>
       </c>
       <c r="C133" t="n">
-        <v>0.224276</v>
+        <v>0.227504</v>
       </c>
       <c r="D133" t="n">
-        <v>0.569851</v>
+        <v>0.633922</v>
       </c>
       <c r="E133" t="n">
-        <v>0.09900539999999999</v>
+        <v>0.10285</v>
       </c>
       <c r="F133" t="n">
-        <v>0.149407</v>
+        <v>0.166867</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.152635</v>
+        <v>0.152715</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244061</v>
+        <v>0.243093</v>
       </c>
       <c r="D134" t="n">
-        <v>0.586355</v>
+        <v>0.648937</v>
       </c>
       <c r="E134" t="n">
-        <v>0.104634</v>
+        <v>0.11661</v>
       </c>
       <c r="F134" t="n">
-        <v>0.158243</v>
+        <v>0.175372</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.169481</v>
+        <v>0.169631</v>
       </c>
       <c r="C135" t="n">
-        <v>0.268322</v>
+        <v>0.263238</v>
       </c>
       <c r="D135" t="n">
-        <v>0.430989</v>
+        <v>0.470415</v>
       </c>
       <c r="E135" t="n">
-        <v>0.115091</v>
+        <v>0.121292</v>
       </c>
       <c r="F135" t="n">
-        <v>0.172978</v>
+        <v>0.185232</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194516</v>
+        <v>0.19987</v>
       </c>
       <c r="C136" t="n">
-        <v>0.303196</v>
+        <v>0.29843</v>
       </c>
       <c r="D136" t="n">
-        <v>0.442119</v>
+        <v>0.484597</v>
       </c>
       <c r="E136" t="n">
-        <v>0.128395</v>
+        <v>0.135871</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1936</v>
+        <v>0.205463</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232219</v>
+        <v>0.233303</v>
       </c>
       <c r="C137" t="n">
-        <v>0.359246</v>
+        <v>0.361051</v>
       </c>
       <c r="D137" t="n">
-        <v>0.453555</v>
+        <v>0.494299</v>
       </c>
       <c r="E137" t="n">
-        <v>0.139529</v>
+        <v>0.156727</v>
       </c>
       <c r="F137" t="n">
-        <v>0.171781</v>
+        <v>0.193163</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.167847</v>
+        <v>0.170684</v>
       </c>
       <c r="C138" t="n">
-        <v>0.225372</v>
+        <v>0.231408</v>
       </c>
       <c r="D138" t="n">
-        <v>0.46546</v>
+        <v>0.506796</v>
       </c>
       <c r="E138" t="n">
-        <v>0.140502</v>
+        <v>0.150934</v>
       </c>
       <c r="F138" t="n">
-        <v>0.174977</v>
+        <v>0.196248</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169293</v>
+        <v>0.174665</v>
       </c>
       <c r="C139" t="n">
-        <v>0.230178</v>
+        <v>0.236658</v>
       </c>
       <c r="D139" t="n">
-        <v>0.476822</v>
+        <v>0.522087</v>
       </c>
       <c r="E139" t="n">
-        <v>0.141057</v>
+        <v>0.154082</v>
       </c>
       <c r="F139" t="n">
-        <v>0.177693</v>
+        <v>0.198492</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.171543</v>
+        <v>0.173739</v>
       </c>
       <c r="C140" t="n">
-        <v>0.233882</v>
+        <v>0.231039</v>
       </c>
       <c r="D140" t="n">
-        <v>0.488888</v>
+        <v>0.53633</v>
       </c>
       <c r="E140" t="n">
-        <v>0.143624</v>
+        <v>0.149144</v>
       </c>
       <c r="F140" t="n">
-        <v>0.181216</v>
+        <v>0.202088</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.173202</v>
+        <v>0.166881</v>
       </c>
       <c r="C141" t="n">
-        <v>0.238892</v>
+        <v>0.243898</v>
       </c>
       <c r="D141" t="n">
-        <v>0.50101</v>
+        <v>0.5515640000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>0.143952</v>
+        <v>0.160787</v>
       </c>
       <c r="F141" t="n">
-        <v>0.183109</v>
+        <v>0.205677</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.174473</v>
+        <v>0.178266</v>
       </c>
       <c r="C142" t="n">
-        <v>0.244326</v>
+        <v>0.249945</v>
       </c>
       <c r="D142" t="n">
-        <v>0.513529</v>
+        <v>0.566375</v>
       </c>
       <c r="E142" t="n">
-        <v>0.144827</v>
+        <v>0.162866</v>
       </c>
       <c r="F142" t="n">
-        <v>0.186015</v>
+        <v>0.207496</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.177112</v>
+        <v>0.182937</v>
       </c>
       <c r="C143" t="n">
-        <v>0.248982</v>
+        <v>0.254066</v>
       </c>
       <c r="D143" t="n">
-        <v>0.526834</v>
+        <v>0.580243</v>
       </c>
       <c r="E143" t="n">
-        <v>0.14685</v>
+        <v>0.16325</v>
       </c>
       <c r="F143" t="n">
-        <v>0.189562</v>
+        <v>0.204753</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0355805</v>
+        <v>0.0355744</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0332235</v>
+        <v>0.0329042</v>
       </c>
       <c r="D2" t="n">
-        <v>0.124408</v>
+        <v>0.124819</v>
       </c>
       <c r="E2" t="n">
-        <v>0.025786</v>
+        <v>0.0254775</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0289825</v>
+        <v>0.0285097</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0366536</v>
+        <v>0.0364775</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0341801</v>
+        <v>0.0335776</v>
       </c>
       <c r="D3" t="n">
-        <v>0.128299</v>
+        <v>0.128692</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0256656</v>
+        <v>0.0254301</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0290814</v>
+        <v>0.0286603</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0384869</v>
+        <v>0.0383529</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0355328</v>
+        <v>0.0351205</v>
       </c>
       <c r="D4" t="n">
-        <v>0.134259</v>
+        <v>0.133787</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0260924</v>
+        <v>0.02445</v>
       </c>
       <c r="F4" t="n">
-        <v>0.029765</v>
+        <v>0.0290982</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0412055</v>
+        <v>0.0411238</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0389941</v>
+        <v>0.0386374</v>
       </c>
       <c r="D5" t="n">
-        <v>0.138883</v>
+        <v>0.13863</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0256845</v>
+        <v>0.0249854</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0292729</v>
+        <v>0.0287331</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0511487</v>
+        <v>0.0508415</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0498829</v>
+        <v>0.0494542</v>
       </c>
       <c r="D6" t="n">
-        <v>0.144628</v>
+        <v>0.144617</v>
       </c>
       <c r="E6" t="n">
-        <v>0.026309</v>
+        <v>0.0252479</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0303923</v>
+        <v>0.0296637</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0675408</v>
+        <v>0.06749869999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0649552</v>
+        <v>0.064722</v>
       </c>
       <c r="D7" t="n">
-        <v>0.101616</v>
+        <v>0.102506</v>
       </c>
       <c r="E7" t="n">
-        <v>0.029973</v>
+        <v>0.0289253</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0347003</v>
+        <v>0.0344713</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0980195</v>
+        <v>0.0985145</v>
       </c>
       <c r="C8" t="n">
-        <v>0.093323</v>
+        <v>0.09335889999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.107719</v>
+        <v>0.107866</v>
       </c>
       <c r="E8" t="n">
-        <v>0.048367</v>
+        <v>0.0486439</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0540773</v>
+        <v>0.0530111</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.143439</v>
+        <v>0.143232</v>
       </c>
       <c r="C9" t="n">
-        <v>0.144127</v>
+        <v>0.144274</v>
       </c>
       <c r="D9" t="n">
-        <v>0.112859</v>
+        <v>0.113301</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0259798</v>
+        <v>0.025676</v>
       </c>
       <c r="F9" t="n">
-        <v>0.028672</v>
+        <v>0.0286355</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0345661</v>
+        <v>0.0345086</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0311428</v>
+        <v>0.0313314</v>
       </c>
       <c r="D10" t="n">
-        <v>0.117425</v>
+        <v>0.119562</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0262092</v>
+        <v>0.0258263</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0288228</v>
+        <v>0.028806</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0348634</v>
+        <v>0.0348575</v>
       </c>
       <c r="C11" t="n">
-        <v>0.031861</v>
+        <v>0.0317989</v>
       </c>
       <c r="D11" t="n">
-        <v>0.122804</v>
+        <v>0.124273</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0264505</v>
+        <v>0.0261301</v>
       </c>
       <c r="F11" t="n">
-        <v>0.029082</v>
+        <v>0.0291192</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0356017</v>
+        <v>0.0355353</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0327138</v>
+        <v>0.0331472</v>
       </c>
       <c r="D12" t="n">
-        <v>0.127184</v>
+        <v>0.129045</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0265971</v>
+        <v>0.0261998</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0292218</v>
+        <v>0.0292236</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.035941</v>
+        <v>0.035825</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0335271</v>
+        <v>0.0336704</v>
       </c>
       <c r="D13" t="n">
-        <v>0.132559</v>
+        <v>0.134309</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0266298</v>
+        <v>0.0262281</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0295079</v>
+        <v>0.0294738</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0368305</v>
+        <v>0.0368221</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0349644</v>
+        <v>0.035019</v>
       </c>
       <c r="D14" t="n">
-        <v>0.137153</v>
+        <v>0.138546</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0266814</v>
+        <v>0.026232</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0293314</v>
+        <v>0.0297788</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0377297</v>
+        <v>0.0377302</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0357359</v>
+        <v>0.0356001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.141867</v>
+        <v>0.142439</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0270343</v>
+        <v>0.0266149</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0298813</v>
+        <v>0.0303087</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0381658</v>
+        <v>0.0382456</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0366466</v>
+        <v>0.0368703</v>
       </c>
       <c r="D16" t="n">
-        <v>0.146075</v>
+        <v>0.146772</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0270588</v>
+        <v>0.0267951</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0305174</v>
+        <v>0.0308007</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0398288</v>
+        <v>0.0397867</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0398375</v>
+        <v>0.0402945</v>
       </c>
       <c r="D17" t="n">
-        <v>0.151385</v>
+        <v>0.15255</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0273787</v>
+        <v>0.0272915</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0306805</v>
+        <v>0.0312495</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0452242</v>
+        <v>0.0452482</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0434691</v>
+        <v>0.0440297</v>
       </c>
       <c r="D18" t="n">
-        <v>0.15575</v>
+        <v>0.156864</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0273726</v>
+        <v>0.0273013</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0310751</v>
+        <v>0.0314152</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0496573</v>
+        <v>0.049554</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0481727</v>
+        <v>0.0484245</v>
       </c>
       <c r="D19" t="n">
-        <v>0.160513</v>
+        <v>0.162079</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0276053</v>
+        <v>0.0273999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0318297</v>
+        <v>0.0319944</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0590105</v>
+        <v>0.0591992</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0634362</v>
+        <v>0.06361509999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.164261</v>
+        <v>0.165387</v>
       </c>
       <c r="E20" t="n">
-        <v>0.030849</v>
+        <v>0.0305029</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0359255</v>
+        <v>0.0361165</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0774986</v>
+        <v>0.077186</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07460550000000001</v>
+        <v>0.0743181</v>
       </c>
       <c r="D21" t="n">
-        <v>0.116656</v>
+        <v>0.116238</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0410188</v>
+        <v>0.0403812</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0443975</v>
+        <v>0.0445371</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100665</v>
+        <v>0.100842</v>
       </c>
       <c r="C22" t="n">
-        <v>0.102377</v>
+        <v>0.102591</v>
       </c>
       <c r="D22" t="n">
-        <v>0.12164</v>
+        <v>0.120971</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0601886</v>
+        <v>0.0602055</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06289400000000001</v>
+        <v>0.06702900000000001</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.134439</v>
+        <v>0.134432</v>
       </c>
       <c r="C23" t="n">
-        <v>0.134365</v>
+        <v>0.134762</v>
       </c>
       <c r="D23" t="n">
-        <v>0.12641</v>
+        <v>0.125502</v>
       </c>
       <c r="E23" t="n">
-        <v>0.027044</v>
+        <v>0.0267535</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0299975</v>
+        <v>0.0301737</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0357673</v>
+        <v>0.0357865</v>
       </c>
       <c r="C24" t="n">
-        <v>0.033637</v>
+        <v>0.0341741</v>
       </c>
       <c r="D24" t="n">
-        <v>0.131775</v>
+        <v>0.131404</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0272684</v>
+        <v>0.0271445</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0306378</v>
+        <v>0.0304953</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0367204</v>
+        <v>0.0366632</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0348783</v>
+        <v>0.0348859</v>
       </c>
       <c r="D25" t="n">
-        <v>0.136446</v>
+        <v>0.135925</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0273645</v>
+        <v>0.0271138</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0308795</v>
+        <v>0.0308438</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0367786</v>
+        <v>0.0367947</v>
       </c>
       <c r="C26" t="n">
-        <v>0.035634</v>
+        <v>0.0356597</v>
       </c>
       <c r="D26" t="n">
-        <v>0.140699</v>
+        <v>0.140222</v>
       </c>
       <c r="E26" t="n">
-        <v>0.027678</v>
+        <v>0.0274488</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0312568</v>
+        <v>0.0312543</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0374605</v>
+        <v>0.0373946</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0365564</v>
+        <v>0.0367474</v>
       </c>
       <c r="D27" t="n">
-        <v>0.145639</v>
+        <v>0.144815</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0281192</v>
+        <v>0.0279499</v>
       </c>
       <c r="F27" t="n">
-        <v>0.031831</v>
+        <v>0.0316524</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0383047</v>
+        <v>0.0382286</v>
       </c>
       <c r="C28" t="n">
-        <v>0.03768</v>
+        <v>0.0378665</v>
       </c>
       <c r="D28" t="n">
-        <v>0.150216</v>
+        <v>0.149908</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0284102</v>
+        <v>0.028164</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0323584</v>
+        <v>0.0321486</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.039084</v>
+        <v>0.0390885</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0394202</v>
+        <v>0.0394691</v>
       </c>
       <c r="D29" t="n">
-        <v>0.15551</v>
+        <v>0.155192</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0289164</v>
+        <v>0.0284804</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0331325</v>
+        <v>0.0327679</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0408651</v>
+        <v>0.0409343</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0410128</v>
+        <v>0.041217</v>
       </c>
       <c r="D30" t="n">
-        <v>0.160353</v>
+        <v>0.159334</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0293611</v>
+        <v>0.0290253</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0336602</v>
+        <v>0.0331279</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0432235</v>
+        <v>0.0432204</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0439073</v>
+        <v>0.0440765</v>
       </c>
       <c r="D31" t="n">
-        <v>0.16489</v>
+        <v>0.163829</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0299279</v>
+        <v>0.0295991</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0345401</v>
+        <v>0.0364433</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.047772</v>
+        <v>0.0478066</v>
       </c>
       <c r="C32" t="n">
-        <v>0.047785</v>
+        <v>0.047828</v>
       </c>
       <c r="D32" t="n">
-        <v>0.168222</v>
+        <v>0.16721</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0306496</v>
+        <v>0.0302293</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0353445</v>
+        <v>0.03735</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0542921</v>
+        <v>0.0543631</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0544053</v>
+        <v>0.0544271</v>
       </c>
       <c r="D33" t="n">
-        <v>0.172693</v>
+        <v>0.172553</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0318028</v>
+        <v>0.0315871</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0369</v>
+        <v>0.0367699</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0631076</v>
+        <v>0.0630859</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0637209</v>
+        <v>0.0637998</v>
       </c>
       <c r="D34" t="n">
-        <v>0.176914</v>
+        <v>0.17672</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0361496</v>
+        <v>0.0362498</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0409736</v>
+        <v>0.0410449</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.076797</v>
+        <v>0.0768818</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0764138</v>
+        <v>0.07649540000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.123148</v>
+        <v>0.122301</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0451345</v>
+        <v>0.0452368</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0489972</v>
+        <v>0.0489951</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0967466</v>
+        <v>0.0964665</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0980043</v>
+        <v>0.0974764</v>
       </c>
       <c r="D36" t="n">
-        <v>0.12722</v>
+        <v>0.126707</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0568963</v>
+        <v>0.0569611</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0602509</v>
+        <v>0.060379</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.129531</v>
+        <v>0.128861</v>
       </c>
       <c r="C37" t="n">
-        <v>0.135008</v>
+        <v>0.133853</v>
       </c>
       <c r="D37" t="n">
-        <v>0.132223</v>
+        <v>0.13142</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0279733</v>
+        <v>0.0274789</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0314178</v>
+        <v>0.0313748</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0365997</v>
+        <v>0.0365565</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0371507</v>
+        <v>0.0374423</v>
       </c>
       <c r="D38" t="n">
-        <v>0.137612</v>
+        <v>0.136699</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02814</v>
+        <v>0.0276077</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0320178</v>
+        <v>0.0319633</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.037166</v>
+        <v>0.0370729</v>
       </c>
       <c r="C39" t="n">
-        <v>0.037882</v>
+        <v>0.0381088</v>
       </c>
       <c r="D39" t="n">
-        <v>0.142704</v>
+        <v>0.14218</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0284646</v>
+        <v>0.0279622</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0325529</v>
+        <v>0.0344045</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0376164</v>
+        <v>0.0376593</v>
       </c>
       <c r="C40" t="n">
-        <v>0.038783</v>
+        <v>0.0390549</v>
       </c>
       <c r="D40" t="n">
-        <v>0.147396</v>
+        <v>0.146599</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0288151</v>
+        <v>0.0283769</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0329841</v>
+        <v>0.0330516</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0384407</v>
+        <v>0.0384677</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0399186</v>
+        <v>0.0400648</v>
       </c>
       <c r="D41" t="n">
-        <v>0.151859</v>
+        <v>0.151025</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0290938</v>
+        <v>0.0286676</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0356922</v>
+        <v>0.0354337</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0394504</v>
+        <v>0.0393495</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0410448</v>
+        <v>0.0412264</v>
       </c>
       <c r="D42" t="n">
-        <v>0.156265</v>
+        <v>0.155476</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0293341</v>
+        <v>0.029116</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0364327</v>
+        <v>0.0342281</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0407063</v>
+        <v>0.0407522</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0423461</v>
+        <v>0.0425393</v>
       </c>
       <c r="D43" t="n">
-        <v>0.161049</v>
+        <v>0.16003</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0299403</v>
+        <v>0.0296341</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0348928</v>
+        <v>0.0349258</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0430448</v>
+        <v>0.0431684</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0444218</v>
+        <v>0.0445921</v>
       </c>
       <c r="D44" t="n">
-        <v>0.165216</v>
+        <v>0.164133</v>
       </c>
       <c r="E44" t="n">
-        <v>0.030812</v>
+        <v>0.0305477</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0383382</v>
+        <v>0.0381347</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0449364</v>
+        <v>0.0450042</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0471758</v>
+        <v>0.0472938</v>
       </c>
       <c r="D45" t="n">
-        <v>0.168789</v>
+        <v>0.167844</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0319955</v>
+        <v>0.0315069</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0394924</v>
+        <v>0.0389389</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0485132</v>
+        <v>0.0485096</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0512104</v>
+        <v>0.0512998</v>
       </c>
       <c r="D46" t="n">
-        <v>0.173181</v>
+        <v>0.171864</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0335857</v>
+        <v>0.033087</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0387364</v>
+        <v>0.0388502</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0537202</v>
+        <v>0.0538035</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0562639</v>
+        <v>0.056414</v>
       </c>
       <c r="D47" t="n">
-        <v>0.177126</v>
+        <v>0.175843</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0355413</v>
+        <v>0.035647</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0436162</v>
+        <v>0.0408275</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.063515</v>
+        <v>0.0635674</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0642982</v>
+        <v>0.0643212</v>
       </c>
       <c r="D48" t="n">
-        <v>0.181475</v>
+        <v>0.179978</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0397154</v>
+        <v>0.0397686</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0450435</v>
+        <v>0.0473692</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07326580000000001</v>
+        <v>0.0731637</v>
       </c>
       <c r="C49" t="n">
-        <v>0.074508</v>
+        <v>0.0742593</v>
       </c>
       <c r="D49" t="n">
-        <v>0.186615</v>
+        <v>0.184895</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0452125</v>
+        <v>0.045373</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0502468</v>
+        <v>0.0501199</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09114559999999999</v>
+        <v>0.0914712</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0922061</v>
+        <v>0.0927568</v>
       </c>
       <c r="D50" t="n">
-        <v>0.130504</v>
+        <v>0.129632</v>
       </c>
       <c r="E50" t="n">
-        <v>0.053929</v>
+        <v>0.0538516</v>
       </c>
       <c r="F50" t="n">
-        <v>0.058213</v>
+        <v>0.0582227</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.119213</v>
+        <v>0.119193</v>
       </c>
       <c r="C51" t="n">
-        <v>0.121071</v>
+        <v>0.121265</v>
       </c>
       <c r="D51" t="n">
-        <v>0.135217</v>
+        <v>0.134187</v>
       </c>
       <c r="E51" t="n">
-        <v>0.03</v>
+        <v>0.0293506</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0349118</v>
+        <v>0.0368156</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.168368</v>
+        <v>0.168524</v>
       </c>
       <c r="C52" t="n">
-        <v>0.167309</v>
+        <v>0.169259</v>
       </c>
       <c r="D52" t="n">
-        <v>0.140119</v>
+        <v>0.139146</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0305205</v>
+        <v>0.0294381</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0355763</v>
+        <v>0.0355673</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0381842</v>
+        <v>0.0381145</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0403186</v>
+        <v>0.0398859</v>
       </c>
       <c r="D53" t="n">
-        <v>0.144599</v>
+        <v>0.143991</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0303693</v>
+        <v>0.0298045</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0360129</v>
+        <v>0.0378837</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0388155</v>
+        <v>0.0387184</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0411685</v>
+        <v>0.0406653</v>
       </c>
       <c r="D54" t="n">
-        <v>0.149772</v>
+        <v>0.148616</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0307994</v>
+        <v>0.030208</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0365932</v>
+        <v>0.0385538</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0396013</v>
+        <v>0.0394634</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0421265</v>
+        <v>0.0416791</v>
       </c>
       <c r="D55" t="n">
-        <v>0.154229</v>
+        <v>0.153449</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0311837</v>
+        <v>0.0308307</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0385634</v>
+        <v>0.0375383</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0405944</v>
+        <v>0.0404974</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0431795</v>
+        <v>0.0428341</v>
       </c>
       <c r="D56" t="n">
-        <v>0.158777</v>
+        <v>0.158243</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0315853</v>
+        <v>0.0312429</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0392491</v>
+        <v>0.0400615</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.041905</v>
+        <v>0.0418295</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0446119</v>
+        <v>0.044215</v>
       </c>
       <c r="D57" t="n">
-        <v>0.163649</v>
+        <v>0.162819</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0322925</v>
+        <v>0.0318815</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0383561</v>
+        <v>0.0397321</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0436967</v>
+        <v>0.0437823</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0463329</v>
+        <v>0.0458335</v>
       </c>
       <c r="D58" t="n">
-        <v>0.168243</v>
+        <v>0.166776</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0330492</v>
+        <v>0.0330532</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0402313</v>
+        <v>0.0394699</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0471909</v>
+        <v>0.0460489</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0497436</v>
+        <v>0.0488609</v>
       </c>
       <c r="D59" t="n">
-        <v>0.172182</v>
+        <v>0.170756</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0353006</v>
+        <v>0.0364446</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0416832</v>
+        <v>0.0412961</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0501263</v>
+        <v>0.0493557</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0524918</v>
+        <v>0.0516675</v>
       </c>
       <c r="D60" t="n">
-        <v>0.177231</v>
+        <v>0.175414</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0360692</v>
+        <v>0.0363241</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0423819</v>
+        <v>0.0424134</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0542743</v>
+        <v>0.0548942</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0571486</v>
+        <v>0.057916</v>
       </c>
       <c r="D61" t="n">
-        <v>0.18099</v>
+        <v>0.180635</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0389453</v>
+        <v>0.0375112</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0457935</v>
+        <v>0.0477553</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0618923</v>
+        <v>0.0621897</v>
       </c>
       <c r="C62" t="n">
-        <v>0.064375</v>
+        <v>0.0647346</v>
       </c>
       <c r="D62" t="n">
-        <v>0.186524</v>
+        <v>0.184956</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0420323</v>
+        <v>0.0408577</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0481651</v>
+        <v>0.0484224</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07095120000000001</v>
+        <v>0.07069540000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0731634</v>
+        <v>0.072685</v>
       </c>
       <c r="D63" t="n">
-        <v>0.192417</v>
+        <v>0.190443</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0467862</v>
+        <v>0.0457382</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0528807</v>
+        <v>0.0558987</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0877309</v>
+        <v>0.0886396</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0897299</v>
+        <v>0.0912422</v>
       </c>
       <c r="D64" t="n">
-        <v>0.139176</v>
+        <v>0.139899</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0543705</v>
+        <v>0.0539175</v>
       </c>
       <c r="F64" t="n">
-        <v>0.060309</v>
+        <v>0.0600384</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.112462</v>
+        <v>0.113231</v>
       </c>
       <c r="C65" t="n">
-        <v>0.114539</v>
+        <v>0.116811</v>
       </c>
       <c r="D65" t="n">
-        <v>0.146525</v>
+        <v>0.147618</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0685837</v>
+        <v>0.0683719</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0739648</v>
+        <v>0.0778428</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.156711</v>
+        <v>0.157646</v>
       </c>
       <c r="C66" t="n">
-        <v>0.159398</v>
+        <v>0.164186</v>
       </c>
       <c r="D66" t="n">
-        <v>0.154925</v>
+        <v>0.154493</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0356778</v>
+        <v>0.0355269</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0428569</v>
+        <v>0.0426587</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0424896</v>
+        <v>0.0422168</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0486234</v>
+        <v>0.0485613</v>
       </c>
       <c r="D67" t="n">
-        <v>0.163417</v>
+        <v>0.161089</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0363953</v>
+        <v>0.0353201</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0450223</v>
+        <v>0.0434043</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0427859</v>
+        <v>0.0428314</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0498469</v>
+        <v>0.0494686</v>
       </c>
       <c r="D68" t="n">
-        <v>0.172877</v>
+        <v>0.169469</v>
       </c>
       <c r="E68" t="n">
-        <v>0.036516</v>
+        <v>0.0356646</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0440335</v>
+        <v>0.0439188</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0438438</v>
+        <v>0.0441345</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0510355</v>
+        <v>0.0506747</v>
       </c>
       <c r="D69" t="n">
-        <v>0.181596</v>
+        <v>0.177276</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0368536</v>
+        <v>0.0366448</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0447272</v>
+        <v>0.0452056</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0449563</v>
+        <v>0.0449956</v>
       </c>
       <c r="C70" t="n">
-        <v>0.05239</v>
+        <v>0.0520644</v>
       </c>
       <c r="D70" t="n">
-        <v>0.190664</v>
+        <v>0.185663</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0373283</v>
+        <v>0.0365493</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0455854</v>
+        <v>0.0473724</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0463079</v>
+        <v>0.0464964</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0544294</v>
+        <v>0.0538374</v>
       </c>
       <c r="D71" t="n">
-        <v>0.201129</v>
+        <v>0.194784</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0375808</v>
+        <v>0.0376572</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0461843</v>
+        <v>0.0460518</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0479179</v>
+        <v>0.0478633</v>
       </c>
       <c r="C72" t="n">
-        <v>0.056225</v>
+        <v>0.0560993</v>
       </c>
       <c r="D72" t="n">
-        <v>0.211004</v>
+        <v>0.205122</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0383091</v>
+        <v>0.0384861</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0473947</v>
+        <v>0.0471988</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0511363</v>
+        <v>0.0504359</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0591134</v>
+        <v>0.0589759</v>
       </c>
       <c r="D73" t="n">
-        <v>0.223248</v>
+        <v>0.216615</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0392966</v>
+        <v>0.0394436</v>
       </c>
       <c r="F73" t="n">
-        <v>0.048798</v>
+        <v>0.0485689</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0549608</v>
+        <v>0.0539247</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0627342</v>
+        <v>0.0632479</v>
       </c>
       <c r="D74" t="n">
-        <v>0.234681</v>
+        <v>0.229406</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0405431</v>
+        <v>0.0401861</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0509953</v>
+        <v>0.0500094</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0597659</v>
+        <v>0.0587853</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0690156</v>
+        <v>0.06916120000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.248205</v>
+        <v>0.242291</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0423649</v>
+        <v>0.0424866</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0526274</v>
+        <v>0.0549399</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.066874</v>
+        <v>0.0656508</v>
       </c>
       <c r="C76" t="n">
-        <v>0.07725600000000001</v>
+        <v>0.0770696</v>
       </c>
       <c r="D76" t="n">
-        <v>0.260607</v>
+        <v>0.255369</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0454054</v>
+        <v>0.0465748</v>
       </c>
       <c r="F76" t="n">
-        <v>0.05822</v>
+        <v>0.055522</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0763109</v>
+        <v>0.0755914</v>
       </c>
       <c r="C77" t="n">
-        <v>0.08971850000000001</v>
+        <v>0.0892133</v>
       </c>
       <c r="D77" t="n">
-        <v>0.277721</v>
+        <v>0.270861</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0493342</v>
+        <v>0.0523147</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0616687</v>
+        <v>0.0605055</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0911085</v>
+        <v>0.09275849999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.107159</v>
+        <v>0.109188</v>
       </c>
       <c r="D78" t="n">
-        <v>0.23042</v>
+        <v>0.225539</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0567709</v>
+        <v>0.0576528</v>
       </c>
       <c r="F78" t="n">
-        <v>0.07316250000000001</v>
+        <v>0.0684936</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.115124</v>
+        <v>0.116389</v>
       </c>
       <c r="C79" t="n">
-        <v>0.134851</v>
+        <v>0.137108</v>
       </c>
       <c r="D79" t="n">
-        <v>0.243271</v>
+        <v>0.237715</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0690122</v>
+        <v>0.0704389</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0863712</v>
+        <v>0.0820929</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.154251</v>
+        <v>0.156753</v>
       </c>
       <c r="C80" t="n">
-        <v>0.178663</v>
+        <v>0.180905</v>
       </c>
       <c r="D80" t="n">
-        <v>0.256036</v>
+        <v>0.249735</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0394061</v>
+        <v>0.0396743</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0488966</v>
+        <v>0.0487533</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0469032</v>
+        <v>0.0480576</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0625469</v>
+        <v>0.0632875</v>
       </c>
       <c r="D81" t="n">
-        <v>0.268334</v>
+        <v>0.264101</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0397981</v>
+        <v>0.0401824</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0500963</v>
+        <v>0.0501139</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0482422</v>
+        <v>0.050041</v>
       </c>
       <c r="C82" t="n">
-        <v>0.06642770000000001</v>
+        <v>0.06805509999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.283631</v>
+        <v>0.274371</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0391859</v>
+        <v>0.0414533</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0523451</v>
+        <v>0.0523879</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0505125</v>
+        <v>0.051222</v>
       </c>
       <c r="C83" t="n">
-        <v>0.07058499999999999</v>
+        <v>0.0725601</v>
       </c>
       <c r="D83" t="n">
-        <v>0.296922</v>
+        <v>0.288834</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0400438</v>
+        <v>0.0415807</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0538771</v>
+        <v>0.0539447</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0523741</v>
+        <v>0.0535216</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0755844</v>
+        <v>0.0785684</v>
       </c>
       <c r="D84" t="n">
-        <v>0.310705</v>
+        <v>0.301785</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0406336</v>
+        <v>0.0429884</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0558709</v>
+        <v>0.0566694</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0548233</v>
+        <v>0.0562086</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0812988</v>
+        <v>0.0848974</v>
       </c>
       <c r="D85" t="n">
-        <v>0.326031</v>
+        <v>0.315934</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0431695</v>
+        <v>0.0435578</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0582238</v>
+        <v>0.0588282</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0579479</v>
+        <v>0.059439</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0880407</v>
+        <v>0.0911965</v>
       </c>
       <c r="D86" t="n">
-        <v>0.341189</v>
+        <v>0.331737</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0431316</v>
+        <v>0.0450475</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0617478</v>
+        <v>0.061536</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0621534</v>
+        <v>0.06344610000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0951688</v>
+        <v>0.0989609</v>
       </c>
       <c r="D87" t="n">
-        <v>0.357633</v>
+        <v>0.347504</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0465259</v>
+        <v>0.0468555</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0643528</v>
+        <v>0.0666423</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06654019999999999</v>
+        <v>0.0682828</v>
       </c>
       <c r="C88" t="n">
-        <v>0.102643</v>
+        <v>0.103488</v>
       </c>
       <c r="D88" t="n">
-        <v>0.374645</v>
+        <v>0.363356</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0482808</v>
+        <v>0.0493383</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0698728</v>
+        <v>0.07181</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0721569</v>
+        <v>0.0745943</v>
       </c>
       <c r="C89" t="n">
-        <v>0.112497</v>
+        <v>0.115867</v>
       </c>
       <c r="D89" t="n">
-        <v>0.391278</v>
+        <v>0.379562</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0511202</v>
+        <v>0.0523965</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0747261</v>
+        <v>0.0775231</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0811093</v>
+        <v>0.0837835</v>
       </c>
       <c r="C90" t="n">
-        <v>0.125167</v>
+        <v>0.125535</v>
       </c>
       <c r="D90" t="n">
-        <v>0.410377</v>
+        <v>0.397705</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0555903</v>
+        <v>0.0567367</v>
       </c>
       <c r="F90" t="n">
-        <v>0.081994</v>
+        <v>0.084715</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0920417</v>
+        <v>0.09532690000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.139899</v>
+        <v>0.140502</v>
       </c>
       <c r="D91" t="n">
-        <v>0.428535</v>
+        <v>0.415242</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0612765</v>
+        <v>0.06265510000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>0.09079520000000001</v>
+        <v>0.09420240000000001</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.107055</v>
+        <v>0.110332</v>
       </c>
       <c r="C92" t="n">
-        <v>0.160955</v>
+        <v>0.161452</v>
       </c>
       <c r="D92" t="n">
-        <v>0.341197</v>
+        <v>0.341333</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0698236</v>
+        <v>0.07077029999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>0.102267</v>
+        <v>0.106517</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.129907</v>
+        <v>0.134284</v>
       </c>
       <c r="C93" t="n">
-        <v>0.191356</v>
+        <v>0.191299</v>
       </c>
       <c r="D93" t="n">
-        <v>0.352754</v>
+        <v>0.351953</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0837741</v>
+        <v>0.08472730000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>0.115992</v>
+        <v>0.119916</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.165824</v>
+        <v>0.172131</v>
       </c>
       <c r="C94" t="n">
-        <v>0.233444</v>
+        <v>0.232565</v>
       </c>
       <c r="D94" t="n">
-        <v>0.365736</v>
+        <v>0.362944</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0492657</v>
+        <v>0.0480501</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0684506</v>
+        <v>0.0696769</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0669507</v>
+        <v>0.06709809999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0987875</v>
+        <v>0.1012</v>
       </c>
       <c r="D95" t="n">
-        <v>0.379235</v>
+        <v>0.372275</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0519245</v>
+        <v>0.0515259</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0720817</v>
+        <v>0.0732729</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0695726</v>
+        <v>0.070271</v>
       </c>
       <c r="C96" t="n">
-        <v>0.103562</v>
+        <v>0.106854</v>
       </c>
       <c r="D96" t="n">
-        <v>0.393205</v>
+        <v>0.38479</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0539274</v>
+        <v>0.0531652</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0747351</v>
+        <v>0.0760831</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0723386</v>
+        <v>0.0724644</v>
       </c>
       <c r="C97" t="n">
-        <v>0.109691</v>
+        <v>0.111713</v>
       </c>
       <c r="D97" t="n">
-        <v>0.406648</v>
+        <v>0.397335</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0558785</v>
+        <v>0.0552751</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0776748</v>
+        <v>0.08012850000000001</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0748528</v>
+        <v>0.0754865</v>
       </c>
       <c r="C98" t="n">
-        <v>0.11547</v>
+        <v>0.118148</v>
       </c>
       <c r="D98" t="n">
-        <v>0.421392</v>
+        <v>0.409696</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0582345</v>
+        <v>0.0571869</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08092290000000001</v>
+        <v>0.0826741</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0787277</v>
+        <v>0.0777617</v>
       </c>
       <c r="C99" t="n">
-        <v>0.12221</v>
+        <v>0.124235</v>
       </c>
       <c r="D99" t="n">
-        <v>0.435837</v>
+        <v>0.423684</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0592182</v>
+        <v>0.0595417</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08505509999999999</v>
+        <v>0.08601689999999999</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08143889999999999</v>
+        <v>0.0814834</v>
       </c>
       <c r="C100" t="n">
-        <v>0.129924</v>
+        <v>0.131655</v>
       </c>
       <c r="D100" t="n">
-        <v>0.451365</v>
+        <v>0.437548</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0618537</v>
+        <v>0.0612817</v>
       </c>
       <c r="F100" t="n">
-        <v>0.08767220000000001</v>
+        <v>0.0889433</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0849876</v>
+        <v>0.0850706</v>
       </c>
       <c r="C101" t="n">
-        <v>0.138978</v>
+        <v>0.140157</v>
       </c>
       <c r="D101" t="n">
-        <v>0.467236</v>
+        <v>0.452687</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0650695</v>
+        <v>0.06408700000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0913889</v>
+        <v>0.09292980000000001</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.08975130000000001</v>
+        <v>0.0896478</v>
       </c>
       <c r="C102" t="n">
-        <v>0.149269</v>
+        <v>0.149831</v>
       </c>
       <c r="D102" t="n">
-        <v>0.484541</v>
+        <v>0.468489</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0672867</v>
+        <v>0.06636350000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0964618</v>
+        <v>0.0985693</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0953783</v>
+        <v>0.09571060000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.160899</v>
+        <v>0.161113</v>
       </c>
       <c r="D103" t="n">
-        <v>0.50143</v>
+        <v>0.484952</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0704741</v>
+        <v>0.0696252</v>
       </c>
       <c r="F103" t="n">
-        <v>0.101618</v>
+        <v>0.103352</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.103423</v>
+        <v>0.103076</v>
       </c>
       <c r="C104" t="n">
-        <v>0.175367</v>
+        <v>0.174468</v>
       </c>
       <c r="D104" t="n">
-        <v>0.51791</v>
+        <v>0.503921</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0737747</v>
+        <v>0.07402590000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>0.108781</v>
+        <v>0.11217</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.114687</v>
+        <v>0.114195</v>
       </c>
       <c r="C105" t="n">
-        <v>0.190327</v>
+        <v>0.189354</v>
       </c>
       <c r="D105" t="n">
-        <v>0.536836</v>
+        <v>0.521388</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0803359</v>
+        <v>0.0786486</v>
       </c>
       <c r="F105" t="n">
-        <v>0.118393</v>
+        <v>0.12016</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.129871</v>
+        <v>0.12886</v>
       </c>
       <c r="C106" t="n">
-        <v>0.209766</v>
+        <v>0.209094</v>
       </c>
       <c r="D106" t="n">
-        <v>0.557783</v>
+        <v>0.538358</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0876567</v>
+        <v>0.0854666</v>
       </c>
       <c r="F106" t="n">
-        <v>0.134709</v>
+        <v>0.134191</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.150757</v>
+        <v>0.150185</v>
       </c>
       <c r="C107" t="n">
-        <v>0.237879</v>
+        <v>0.236159</v>
       </c>
       <c r="D107" t="n">
-        <v>0.420767</v>
+        <v>0.410182</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0991599</v>
+        <v>0.0965437</v>
       </c>
       <c r="F107" t="n">
-        <v>0.152223</v>
+        <v>0.153153</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.183636</v>
+        <v>0.181766</v>
       </c>
       <c r="C108" t="n">
-        <v>0.275842</v>
+        <v>0.276672</v>
       </c>
       <c r="D108" t="n">
-        <v>0.432672</v>
+        <v>0.420829</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0604106</v>
+        <v>0.058835</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0843286</v>
+        <v>0.0840056</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231132</v>
+        <v>0.231982</v>
       </c>
       <c r="C109" t="n">
-        <v>0.338961</v>
+        <v>0.340924</v>
       </c>
       <c r="D109" t="n">
-        <v>0.444676</v>
+        <v>0.431438</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0615246</v>
+        <v>0.0597194</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0878201</v>
+        <v>0.0872025</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.081013</v>
+        <v>0.0813653</v>
       </c>
       <c r="C110" t="n">
-        <v>0.140929</v>
+        <v>0.140692</v>
       </c>
       <c r="D110" t="n">
-        <v>0.457435</v>
+        <v>0.44262</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0622235</v>
+        <v>0.0607637</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0914069</v>
+        <v>0.0909759</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08386349999999999</v>
+        <v>0.0844212</v>
       </c>
       <c r="C111" t="n">
-        <v>0.146844</v>
+        <v>0.146469</v>
       </c>
       <c r="D111" t="n">
-        <v>0.470362</v>
+        <v>0.453975</v>
       </c>
       <c r="E111" t="n">
-        <v>0.06373189999999999</v>
+        <v>0.0624442</v>
       </c>
       <c r="F111" t="n">
-        <v>0.09578250000000001</v>
+        <v>0.0955585</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0874881</v>
+        <v>0.08773590000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.152471</v>
+        <v>0.151736</v>
       </c>
       <c r="D112" t="n">
-        <v>0.484316</v>
+        <v>0.466168</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0647932</v>
+        <v>0.0636256</v>
       </c>
       <c r="F112" t="n">
-        <v>0.100928</v>
+        <v>0.100347</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0914783</v>
+        <v>0.0917166</v>
       </c>
       <c r="C113" t="n">
-        <v>0.158284</v>
+        <v>0.156948</v>
       </c>
       <c r="D113" t="n">
-        <v>0.498805</v>
+        <v>0.479612</v>
       </c>
       <c r="E113" t="n">
-        <v>0.06661549999999999</v>
+        <v>0.06547790000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>0.104265</v>
+        <v>0.103853</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0953566</v>
+        <v>0.0957494</v>
       </c>
       <c r="C114" t="n">
-        <v>0.163865</v>
+        <v>0.163018</v>
       </c>
       <c r="D114" t="n">
-        <v>0.513812</v>
+        <v>0.493423</v>
       </c>
       <c r="E114" t="n">
-        <v>0.06860429999999999</v>
+        <v>0.0673137</v>
       </c>
       <c r="F114" t="n">
-        <v>0.111656</v>
+        <v>0.111006</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100783</v>
+        <v>0.0997854</v>
       </c>
       <c r="C115" t="n">
-        <v>0.170325</v>
+        <v>0.169637</v>
       </c>
       <c r="D115" t="n">
-        <v>0.529435</v>
+        <v>0.5077469999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0704523</v>
+        <v>0.0696744</v>
       </c>
       <c r="F115" t="n">
-        <v>0.117389</v>
+        <v>0.117007</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.105081</v>
+        <v>0.106312</v>
       </c>
       <c r="C116" t="n">
-        <v>0.177633</v>
+        <v>0.176729</v>
       </c>
       <c r="D116" t="n">
-        <v>0.53935</v>
+        <v>0.522736</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0741149</v>
+        <v>0.07218869999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>0.119737</v>
+        <v>0.122754</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.113043</v>
+        <v>0.111776</v>
       </c>
       <c r="C117" t="n">
-        <v>0.183904</v>
+        <v>0.185042</v>
       </c>
       <c r="D117" t="n">
-        <v>0.557135</v>
+        <v>0.539243</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0776017</v>
+        <v>0.0755528</v>
       </c>
       <c r="F117" t="n">
-        <v>0.129178</v>
+        <v>0.127851</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121015</v>
+        <v>0.120671</v>
       </c>
       <c r="C118" t="n">
-        <v>0.196833</v>
+        <v>0.195587</v>
       </c>
       <c r="D118" t="n">
-        <v>0.573686</v>
+        <v>0.556688</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0823721</v>
+        <v>0.0791941</v>
       </c>
       <c r="F118" t="n">
-        <v>0.133292</v>
+        <v>0.136356</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.130723</v>
+        <v>0.130624</v>
       </c>
       <c r="C119" t="n">
-        <v>0.205268</v>
+        <v>0.209397</v>
       </c>
       <c r="D119" t="n">
-        <v>0.598866</v>
+        <v>0.573712</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0892376</v>
+        <v>0.0876509</v>
       </c>
       <c r="F119" t="n">
-        <v>0.142862</v>
+        <v>0.144965</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.144749</v>
+        <v>0.14426</v>
       </c>
       <c r="C120" t="n">
-        <v>0.229353</v>
+        <v>0.227689</v>
       </c>
       <c r="D120" t="n">
-        <v>0.618287</v>
+        <v>0.59379</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0985265</v>
+        <v>0.09596399999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>0.157008</v>
+        <v>0.156555</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163201</v>
+        <v>0.1626</v>
       </c>
       <c r="C121" t="n">
-        <v>0.253536</v>
+        <v>0.253819</v>
       </c>
       <c r="D121" t="n">
-        <v>0.449507</v>
+        <v>0.43957</v>
       </c>
       <c r="E121" t="n">
-        <v>0.109569</v>
+        <v>0.109712</v>
       </c>
       <c r="F121" t="n">
-        <v>0.172956</v>
+        <v>0.171347</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.190179</v>
+        <v>0.191503</v>
       </c>
       <c r="C122" t="n">
-        <v>0.292796</v>
+        <v>0.291893</v>
       </c>
       <c r="D122" t="n">
-        <v>0.465611</v>
+        <v>0.453552</v>
       </c>
       <c r="E122" t="n">
-        <v>0.129088</v>
+        <v>0.128048</v>
       </c>
       <c r="F122" t="n">
-        <v>0.199326</v>
+        <v>0.197943</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.234534</v>
+        <v>0.237688</v>
       </c>
       <c r="C123" t="n">
-        <v>0.35443</v>
+        <v>0.353323</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4777</v>
+        <v>0.460415</v>
       </c>
       <c r="E123" t="n">
-        <v>0.07985970000000001</v>
+        <v>0.07920820000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>0.118441</v>
+        <v>0.117647</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103472</v>
+        <v>0.102793</v>
       </c>
       <c r="C124" t="n">
-        <v>0.165216</v>
+        <v>0.161279</v>
       </c>
       <c r="D124" t="n">
-        <v>0.49044</v>
+        <v>0.474591</v>
       </c>
       <c r="E124" t="n">
-        <v>0.07967970000000001</v>
+        <v>0.0795472</v>
       </c>
       <c r="F124" t="n">
-        <v>0.115958</v>
+        <v>0.118122</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.104344</v>
+        <v>0.105111</v>
       </c>
       <c r="C125" t="n">
-        <v>0.16461</v>
+        <v>0.167392</v>
       </c>
       <c r="D125" t="n">
-        <v>0.503798</v>
+        <v>0.486198</v>
       </c>
       <c r="E125" t="n">
-        <v>0.07839069999999999</v>
+        <v>0.082636</v>
       </c>
       <c r="F125" t="n">
-        <v>0.121957</v>
+        <v>0.124369</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.108625</v>
+        <v>0.103279</v>
       </c>
       <c r="C126" t="n">
-        <v>0.169699</v>
+        <v>0.171846</v>
       </c>
       <c r="D126" t="n">
-        <v>0.516885</v>
+        <v>0.494688</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0862067</v>
+        <v>0.0862856</v>
       </c>
       <c r="F126" t="n">
-        <v>0.125585</v>
+        <v>0.126028</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.105959</v>
+        <v>0.110102</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1711</v>
+        <v>0.175533</v>
       </c>
       <c r="D127" t="n">
-        <v>0.528315</v>
+        <v>0.51118</v>
       </c>
       <c r="E127" t="n">
-        <v>0.08735</v>
+        <v>0.085352</v>
       </c>
       <c r="F127" t="n">
-        <v>0.125903</v>
+        <v>0.127596</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.114354</v>
+        <v>0.115468</v>
       </c>
       <c r="C128" t="n">
-        <v>0.180808</v>
+        <v>0.182882</v>
       </c>
       <c r="D128" t="n">
-        <v>0.544061</v>
+        <v>0.524166</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0903924</v>
+        <v>0.0862768</v>
       </c>
       <c r="F128" t="n">
-        <v>0.129773</v>
+        <v>0.132217</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.112339</v>
+        <v>0.116828</v>
       </c>
       <c r="C129" t="n">
-        <v>0.19244</v>
+        <v>0.187242</v>
       </c>
       <c r="D129" t="n">
-        <v>0.56392</v>
+        <v>0.539539</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0915284</v>
+        <v>0.0894472</v>
       </c>
       <c r="F129" t="n">
-        <v>0.144184</v>
+        <v>0.137729</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.120772</v>
+        <v>0.125209</v>
       </c>
       <c r="C130" t="n">
-        <v>0.19484</v>
+        <v>0.192898</v>
       </c>
       <c r="D130" t="n">
-        <v>0.58023</v>
+        <v>0.553875</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0928219</v>
+        <v>0.0937737</v>
       </c>
       <c r="F130" t="n">
-        <v>0.137721</v>
+        <v>0.140278</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.125737</v>
+        <v>0.125731</v>
       </c>
       <c r="C131" t="n">
-        <v>0.199494</v>
+        <v>0.19704</v>
       </c>
       <c r="D131" t="n">
-        <v>0.593738</v>
+        <v>0.570094</v>
       </c>
       <c r="E131" t="n">
-        <v>0.10093</v>
+        <v>0.100543</v>
       </c>
       <c r="F131" t="n">
-        <v>0.14723</v>
+        <v>0.146729</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.137059</v>
+        <v>0.131582</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213413</v>
+        <v>0.211746</v>
       </c>
       <c r="D132" t="n">
-        <v>0.615325</v>
+        <v>0.587074</v>
       </c>
       <c r="E132" t="n">
-        <v>0.10549</v>
+        <v>0.100948</v>
       </c>
       <c r="F132" t="n">
-        <v>0.155158</v>
+        <v>0.154422</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.143418</v>
+        <v>0.142184</v>
       </c>
       <c r="C133" t="n">
-        <v>0.227504</v>
+        <v>0.225263</v>
       </c>
       <c r="D133" t="n">
-        <v>0.633922</v>
+        <v>0.6022459999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>0.10285</v>
+        <v>0.106375</v>
       </c>
       <c r="F133" t="n">
-        <v>0.166867</v>
+        <v>0.165969</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.152715</v>
+        <v>0.154147</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243093</v>
+        <v>0.244186</v>
       </c>
       <c r="D134" t="n">
-        <v>0.648937</v>
+        <v>0.621557</v>
       </c>
       <c r="E134" t="n">
-        <v>0.11661</v>
+        <v>0.106292</v>
       </c>
       <c r="F134" t="n">
-        <v>0.175372</v>
+        <v>0.16908</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.169631</v>
+        <v>0.170051</v>
       </c>
       <c r="C135" t="n">
-        <v>0.263238</v>
+        <v>0.267313</v>
       </c>
       <c r="D135" t="n">
-        <v>0.470415</v>
+        <v>0.459427</v>
       </c>
       <c r="E135" t="n">
-        <v>0.121292</v>
+        <v>0.119233</v>
       </c>
       <c r="F135" t="n">
-        <v>0.185232</v>
+        <v>0.185913</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.19987</v>
+        <v>0.195834</v>
       </c>
       <c r="C136" t="n">
-        <v>0.29843</v>
+        <v>0.297564</v>
       </c>
       <c r="D136" t="n">
-        <v>0.484597</v>
+        <v>0.47176</v>
       </c>
       <c r="E136" t="n">
-        <v>0.135871</v>
+        <v>0.136823</v>
       </c>
       <c r="F136" t="n">
-        <v>0.205463</v>
+        <v>0.210538</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.233303</v>
+        <v>0.228303</v>
       </c>
       <c r="C137" t="n">
-        <v>0.361051</v>
+        <v>0.36377</v>
       </c>
       <c r="D137" t="n">
-        <v>0.494299</v>
+        <v>0.480422</v>
       </c>
       <c r="E137" t="n">
-        <v>0.156727</v>
+        <v>0.151229</v>
       </c>
       <c r="F137" t="n">
-        <v>0.193163</v>
+        <v>0.189429</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170684</v>
+        <v>0.172146</v>
       </c>
       <c r="C138" t="n">
-        <v>0.231408</v>
+        <v>0.224347</v>
       </c>
       <c r="D138" t="n">
-        <v>0.506796</v>
+        <v>0.492749</v>
       </c>
       <c r="E138" t="n">
-        <v>0.150934</v>
+        <v>0.153654</v>
       </c>
       <c r="F138" t="n">
-        <v>0.196248</v>
+        <v>0.185654</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.174665</v>
+        <v>0.174291</v>
       </c>
       <c r="C139" t="n">
-        <v>0.236658</v>
+        <v>0.234394</v>
       </c>
       <c r="D139" t="n">
-        <v>0.522087</v>
+        <v>0.504816</v>
       </c>
       <c r="E139" t="n">
-        <v>0.154082</v>
+        <v>0.157357</v>
       </c>
       <c r="F139" t="n">
-        <v>0.198492</v>
+        <v>0.197296</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.173739</v>
+        <v>0.167876</v>
       </c>
       <c r="C140" t="n">
-        <v>0.231039</v>
+        <v>0.239616</v>
       </c>
       <c r="D140" t="n">
-        <v>0.53633</v>
+        <v>0.51666</v>
       </c>
       <c r="E140" t="n">
-        <v>0.149144</v>
+        <v>0.160667</v>
       </c>
       <c r="F140" t="n">
-        <v>0.202088</v>
+        <v>0.200514</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.166881</v>
+        <v>0.166653</v>
       </c>
       <c r="C141" t="n">
-        <v>0.243898</v>
+        <v>0.24387</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5515640000000001</v>
+        <v>0.5298040000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>0.160787</v>
+        <v>0.158183</v>
       </c>
       <c r="F141" t="n">
-        <v>0.205